--- a/FYP documentation/FYP_Test_Plan.xlsx
+++ b/FYP documentation/FYP_Test_Plan.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Durrah\UOW- Year 3\CSCI 321 - FYP\Extra\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
   <si>
     <t>Expected Result</t>
   </si>
@@ -234,11 +229,42 @@
     <t>1. Enter valid phone number with country code 
 2. Click on 'SIGN UP' button</t>
   </si>
+  <si>
+    <t>TC-011</t>
+  </si>
+  <si>
+    <t>S3 TOKEN GET NULL when start the app</t>
+  </si>
+  <si>
+    <t>TC-012</t>
+  </si>
+  <si>
+    <t>Reset Password</t>
+  </si>
+  <si>
+    <t>Initialize App</t>
+  </si>
+  <si>
+    <t>Check whether the encrypted file by old password open correctly after change password</t>
+  </si>
+  <si>
+    <t>1. Delete the previous account data in DynamoDB 
+2. Delete the previous account data in Cognito 
+3. Uninstall the existed App in phone 
+4. Reinstall the app</t>
+  </si>
+  <si>
+    <t>1. Create Account
+2. Create new area and new file
+3. Change Password via Reset Password
+4. Relogin the account with new password
+5. Open the created area and file and check whetehr it opens correctly</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,7 +411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -421,6 +447,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -430,28 +483,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -486,7 +521,7 @@
         <xdr:cNvPr id="2061" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30BA1063-A16B-4C68-A743-4B420C5465C1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30BA1063-A16B-4C68-A743-4B420C5465C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -534,7 +569,7 @@
         <xdr:cNvPr id="2060" name="Picture 12" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF567FBA-98D6-41F8-887E-3AB62EFCE5E8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF567FBA-98D6-41F8-887E-3AB62EFCE5E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -595,7 +630,7 @@
         <xdr:cNvPr id="2059" name="Picture 11" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E93150-DA75-4658-ACF7-D189E05151A8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E93150-DA75-4658-ACF7-D189E05151A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -656,7 +691,7 @@
         <xdr:cNvPr id="2058" name="AutoShape 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31457A75-25A1-4182-A274-BF0A57FF81ED}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31457A75-25A1-4182-A274-BF0A57FF81ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -704,7 +739,7 @@
         <xdr:cNvPr id="2057" name="AutoShape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD5E9B17-BBE9-4F3F-8C7B-720ECD2D681E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD5E9B17-BBE9-4F3F-8C7B-720ECD2D681E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -752,7 +787,7 @@
         <xdr:cNvPr id="2056" name="AutoShape 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF2AA01-B252-4B3A-A375-0E01973F5F28}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF2AA01-B252-4B3A-A375-0E01973F5F28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -800,7 +835,7 @@
         <xdr:cNvPr id="2055" name="Picture 7" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65879D11-6224-4C7F-89C2-EB96196F1A0F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65879D11-6224-4C7F-89C2-EB96196F1A0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -861,7 +896,7 @@
         <xdr:cNvPr id="2054" name="Picture 6" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CF822E1-047C-4A3B-84DC-EC8AC8269EFF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CF822E1-047C-4A3B-84DC-EC8AC8269EFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -922,7 +957,7 @@
         <xdr:cNvPr id="2053" name="Picture 5" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04925A52-F4C6-4CD2-894B-53641F217E98}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04925A52-F4C6-4CD2-894B-53641F217E98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -983,7 +1018,7 @@
         <xdr:cNvPr id="2052" name="Picture 4" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABFA5086-6E08-48C0-9ACC-F28827F67131}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABFA5086-6E08-48C0-9ACC-F28827F67131}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1044,7 +1079,7 @@
         <xdr:cNvPr id="2051" name="Picture 3" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E4935A-4571-48AC-8BC5-8DE7A584B4D3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E4935A-4571-48AC-8BC5-8DE7A584B4D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1105,7 +1140,7 @@
         <xdr:cNvPr id="2050" name="Picture 2" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C78A6D-821A-410B-9678-567D6BA6A13D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C78A6D-821A-410B-9678-567D6BA6A13D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1166,7 +1201,7 @@
         <xdr:cNvPr id="2049" name="Picture 1" descr="out?google_nid=adroll5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0583EF1F-95CC-4F68-83EF-C3E41E3B377C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0583EF1F-95CC-4F68-83EF-C3E41E3B377C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1501,7 +1536,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1509,40 +1544,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:I24"/>
+  <dimension ref="A4:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.54296875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.453125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="16.6328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.81640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.90625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="2"/>
+    <col min="3" max="3" width="15.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:9" ht="18.45" x14ac:dyDescent="0.45">
+      <c r="A4" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="24"/>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1558,7 +1593,7 @@
       <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -1571,7 +1606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="29.55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -1592,7 +1627,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="43.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -1608,7 +1643,7 @@
       <c r="E7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="15" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="8"/>
@@ -1638,7 +1673,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="58.05" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -1654,25 +1689,25 @@
       <c r="E9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="13" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:9" ht="18.45" x14ac:dyDescent="0.45">
+      <c r="A13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="14.55" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1688,7 +1723,7 @@
       <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="14" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -1701,7 +1736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="62" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="61.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>1</v>
       </c>
@@ -1724,7 +1759,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="28.95" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>2</v>
       </c>
@@ -1740,14 +1775,14 @@
       <c r="E16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="16" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="58.05" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>3</v>
       </c>
@@ -1763,12 +1798,12 @@
       <c r="E17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="72.45" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>4</v>
       </c>
@@ -1784,14 +1819,14 @@
       <c r="E18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="18" t="s">
         <v>33</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>5</v>
       </c>
@@ -1814,7 +1849,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>6</v>
       </c>
@@ -1830,14 +1865,14 @@
       <c r="E20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="18" t="s">
         <v>36</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>7</v>
       </c>
@@ -1860,7 +1895,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>8</v>
       </c>
@@ -1883,7 +1918,7 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>9</v>
       </c>
@@ -1906,7 +1941,7 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>10</v>
       </c>
@@ -1928,6 +1963,40 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
+    </row>
+    <row r="26" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>11</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="144" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>12</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/FYP documentation/FYP_Test_Plan.xlsx
+++ b/FYP documentation/FYP_Test_Plan.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Durrah\UOW- Year 3\CSCI 321 - FYP\Extra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Class_notes\BSS_FYP_TEAM173D\FYP documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan" sheetId="3" r:id="rId1"/>
@@ -238,7 +238,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -251,6 +251,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -274,14 +282,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -385,68 +385,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1508,426 +1499,426 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.54296875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.453125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="16.6328125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.81640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.90625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="13.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="10" style="13" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+    <row r="6" spans="1:9" s="13" customFormat="1" ht="29.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+    <row r="7" spans="1:9" s="13" customFormat="1" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
         <v>2</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+    <row r="8" spans="1:9" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
         <v>3</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+    <row r="9" spans="1:9" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <v>4</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
     </row>
-    <row r="13" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="62" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+    <row r="15" spans="1:9" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
         <v>1</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
         <v>2</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A17" s="6">
+    <row r="17" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
         <v>3</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
+    <row r="18" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
         <v>4</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
+    <row r="19" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
         <v>5</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
+    <row r="20" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
         <v>6</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
+    <row r="21" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
         <v>7</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A22" s="7">
+    <row r="22" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
         <v>8</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A23" s="7">
+    <row r="23" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
         <v>9</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="7">
+    <row r="24" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
         <v>10</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1935,8 +1926,8 @@
     <mergeCell ref="A13:I13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" display="testingfyp2017@gmail.com_x000a_testingfyp"/>
-    <hyperlink ref="F16" r:id="rId2"/>
+    <hyperlink ref="F8" r:id="rId1" display="testingfyp2017@gmail.com_x000a_testingfyp" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/FYP documentation/FYP_Test_Plan.xlsx
+++ b/FYP documentation/FYP_Test_Plan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan" sheetId="3" r:id="rId1"/>
+    <sheet name="Test Plan Final" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="86">
   <si>
     <t>Expected Result</t>
   </si>
@@ -233,13 +234,80 @@
   <si>
     <t>1. Enter valid phone number with country code 
 2. Click on 'SIGN UP' button</t>
+  </si>
+  <si>
+    <t>Test Plan</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classification </t>
+  </si>
+  <si>
+    <t>Pre-requisite (if any)</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Expected result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>All resposnd</t>
+  </si>
+  <si>
+    <t>Pass/Fail/Others</t>
+  </si>
+  <si>
+    <t>Tester Name</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Case No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test plan for login </t>
+  </si>
+  <si>
+    <t>Ther user should have already signed up previously</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The error messages for repective should appear </t>
+  </si>
+  <si>
+    <t>Login successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter invalid values in required fields 
+2. Click on 'LOG IN' button  </t>
+  </si>
+  <si>
+    <t>Login fail</t>
+  </si>
+  <si>
+    <t>Sign up</t>
+  </si>
+  <si>
+    <t>Test plan for Signup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,8 +354,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="TimesNewRomanPS-BoldMT"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="TimesNewRomanPSMT"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="TimesNewRomanPS-BoldMT"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,8 +412,25 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -380,22 +503,125 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -439,10 +665,151 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
+    <cellStyle name="20% - Accent3" xfId="5" builtinId="38"/>
+    <cellStyle name="Accent1" xfId="4" builtinId="29"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1502,423 +1869,423 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:I14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="10" style="13" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.77734375" style="4"/>
+    <col min="1" max="1" width="13.6640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:9" ht="18">
+      <c r="A4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="1:9" s="4" customFormat="1">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="13" customFormat="1" ht="29.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+    <row r="6" spans="1:9" s="10" customFormat="1" ht="29.55" customHeight="1">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" s="13" customFormat="1" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="43.05" customHeight="1">
+      <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" s="10" customFormat="1" ht="43.2">
+      <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" s="10" customFormat="1" ht="43.2">
+      <c r="A9" s="5">
         <v>4</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="13" spans="1:9" ht="18">
+      <c r="A13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+    <row r="15" spans="1:9" ht="61.95" customHeight="1">
+      <c r="A15" s="5">
         <v>1</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" ht="28.8">
+      <c r="A16" s="5">
         <v>2</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" ht="57.6">
+      <c r="A17" s="5">
         <v>3</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="F17" s="13"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" ht="57.6">
+      <c r="A18" s="5">
         <v>4</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" ht="57.6">
+      <c r="A19" s="5">
         <v>5</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" ht="57.6">
+      <c r="A20" s="5">
         <v>6</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" ht="57.6">
+      <c r="A21" s="5">
         <v>7</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" ht="57.6">
+      <c r="A22" s="6">
         <v>8</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" ht="57.6">
+      <c r="A23" s="6">
         <v>9</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" ht="43.2">
+      <c r="A24" s="6">
         <v>10</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1930,7 +2297,505 @@
     <hyperlink ref="F16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="landscape" r:id="rId3"/>
   <drawing r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F0FCE8-3BDA-4408-86A1-FE4757BC6CF8}">
+  <dimension ref="A1:I45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="40.799999999999997" customHeight="1">
+      <c r="A1" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" ht="31.2" customHeight="1" thickBot="1">
+      <c r="A3" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.600000000000001" customHeight="1" thickTop="1">
+      <c r="A4" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A5" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A6" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="36"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="27" customHeight="1">
+      <c r="A9" s="41"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="1:9" ht="29.4" customHeight="1">
+      <c r="A10" s="41"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="1:9" ht="40.200000000000003" customHeight="1">
+      <c r="A11" s="41"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="1:9" ht="24" customHeight="1">
+      <c r="A12" s="41"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="43"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="43"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="38"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="43"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="45"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="43"/>
+    </row>
+    <row r="17" spans="1:7" ht="26.4" customHeight="1">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" ht="36" customHeight="1">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" ht="25.2" customHeight="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="1:7" ht="19.8" customHeight="1">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" ht="25.8" customHeight="1"/>
+    <row r="23" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A23" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" thickTop="1">
+      <c r="A24" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="62"/>
+      <c r="C24" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="60"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="35"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="35"/>
+      <c r="C26" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="42"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="43"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="38"/>
+      <c r="F28" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18" customHeight="1">
+      <c r="A29" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="50"/>
+      <c r="D29" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="48"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+    </row>
+    <row r="30" spans="1:7" ht="46.8" customHeight="1">
+      <c r="A30" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="50"/>
+      <c r="D30" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="50"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+    </row>
+    <row r="31" spans="1:7" ht="45.6" customHeight="1">
+      <c r="A31" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="50"/>
+      <c r="D31" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="50"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+    </row>
+    <row r="32" spans="1:7" ht="48" customHeight="1">
+      <c r="A32" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="50"/>
+      <c r="D32" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="50"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="38"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="43"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="38"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="43"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="45"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="43"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="45"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="43"/>
+    </row>
+    <row r="44" spans="1:7" ht="31.8" customHeight="1"/>
+    <row r="45" spans="1:7" ht="63" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="53">
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/FYP documentation/FYP_Test_Plan.xlsx
+++ b/FYP documentation/FYP_Test_Plan.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Class_notes\BSS_FYP_TEAM173D\FYP documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Durrah\UOW- Year 3\CSCI 321 - FYP\GitRepo\BSS_FYP_TEAM173D\FYP documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Plan" sheetId="3" r:id="rId1"/>
-    <sheet name="Test Plan Final" sheetId="4" r:id="rId2"/>
+    <sheet name="Test Plan Final" sheetId="4" r:id="rId1"/>
+    <sheet name="Test Plan" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="99">
   <si>
     <t>Expected Result</t>
   </si>
@@ -284,9 +284,6 @@
     <t>Ther user should have already signed up previously</t>
   </si>
   <si>
-    <t xml:space="preserve">The error messages for repective should appear </t>
-  </si>
-  <si>
     <t>Login successfully</t>
   </si>
   <si>
@@ -301,12 +298,65 @@
   </si>
   <si>
     <t>Test plan for Signup</t>
+  </si>
+  <si>
+    <t>1) Enter invalid email 
+2) Click on 'SIGN UP' button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message for the respective should appear </t>
+  </si>
+  <si>
+    <t>Error message for the 
+respective should appear</t>
+  </si>
+  <si>
+    <t>1) Enter valid email 
+2) Click on 'SIGN UP' button</t>
+  </si>
+  <si>
+    <t>1) Do not enter any value in the field.
+2) Click on 'SIGN UP' button</t>
+  </si>
+  <si>
+    <t>Sign up fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signed in successfully </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Enter value which is alphanumeric but less than 8 characters 
+2) Click on 'SIGN UP' button </t>
+  </si>
+  <si>
+    <t>1) Enter value in numbers which is in between 8-32 characters 
+2) Click on 'SIGN UP' button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Enter value which is alphanumeric but more than 32 characters 
+2) Click on 'SIGN UP' button </t>
+  </si>
+  <si>
+    <t>1) Enter value in alphanumeric which is in between 8-32 characters 
+2) Click on 'SIGN UP' button</t>
+  </si>
+  <si>
+    <t>1) Enter alphanumeric data in contact number field 
+2) Click on 'SIGN UP' button</t>
+  </si>
+  <si>
+    <t>1) Enter valid phone number without country code 
+2) Click on 'SIGN UP' button</t>
+  </si>
+  <si>
+    <t>1) Enter valid phone number with country code 
+2) Click on 'SIGN UP' button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -620,7 +670,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -665,6 +715,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -674,21 +744,63 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -698,6 +810,30 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -707,71 +843,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -781,25 +852,21 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1866,923 +1933,565 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:I24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="9.90625" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" customWidth="1"/>
+    <col min="4" max="4" width="15.08984375" customWidth="1"/>
+    <col min="5" max="5" width="8.6328125" customWidth="1"/>
+    <col min="6" max="6" width="41.6328125" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" customWidth="1"/>
+    <col min="9" max="9" width="7.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" ht="18">
-      <c r="A4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+    <row r="1" spans="1:9" ht="40.75" customHeight="1">
+      <c r="A1" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" ht="31.25" customHeight="1" thickBot="1">
+      <c r="A3" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" ht="18.649999999999999" customHeight="1" thickTop="1">
+      <c r="A4" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-    </row>
-    <row r="5" spans="1:9" s="4" customFormat="1">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="10" customFormat="1" ht="29.55" customHeight="1">
-      <c r="A6" s="5">
-        <v>1</v>
-      </c>
-      <c r="B6" s="51" t="s">
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A5" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A6" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="54"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="34.5" customHeight="1">
+      <c r="A9" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="B9" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="65"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:9" ht="29.4" customHeight="1">
+      <c r="A10" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="67"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:9" ht="40.25" customHeight="1">
+      <c r="A11" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="65"/>
+      <c r="D11" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="65"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="1:9" ht="58.5" customHeight="1">
+      <c r="A12" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="67"/>
+      <c r="D12" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="65"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="1:9" ht="57" customHeight="1">
+      <c r="A13" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="67"/>
+      <c r="D13" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="65"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:9" ht="56" customHeight="1">
+      <c r="A14" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="65"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="1:9" ht="56" customHeight="1">
+      <c r="A15" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="71"/>
+      <c r="D15" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="67"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="70"/>
+    </row>
+    <row r="16" spans="1:9" ht="45.5" customHeight="1">
+      <c r="A16" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="71"/>
+      <c r="D16" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="65"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="70"/>
+    </row>
+    <row r="17" spans="1:7" ht="45.5" customHeight="1">
+      <c r="A17" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="71"/>
+      <c r="D17" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="65"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="70"/>
+    </row>
+    <row r="18" spans="1:7" ht="45.5" customHeight="1">
+      <c r="A18" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="71"/>
+      <c r="D18" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="67"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="70"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="35"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
+    </row>
+    <row r="23" spans="1:7" ht="26.4" customHeight="1">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:7" ht="36" customHeight="1">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:7" ht="25.25" customHeight="1">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:7" ht="19.75" customHeight="1">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="1:7" ht="25.75" customHeight="1"/>
+    <row r="29" spans="1:7" ht="20" thickBot="1">
+      <c r="A29" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickTop="1">
+      <c r="A30" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="50"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="47"/>
+      <c r="C32" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="53"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="31"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="33"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="30"/>
+      <c r="D34" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18" customHeight="1">
+      <c r="A35" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:9" s="10" customFormat="1" ht="43.05" customHeight="1">
-      <c r="A7" s="5">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="C35" s="37"/>
+      <c r="D35" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="39"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="1:7" ht="46.75" customHeight="1">
+      <c r="A36" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="46" t="s">
+      <c r="B36" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:9" s="10" customFormat="1" ht="43.2">
-      <c r="A8" s="5">
-        <v>3</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="C36" s="37"/>
+      <c r="D36" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="67"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="1:7" ht="45.65" customHeight="1">
+      <c r="A37" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="46" t="s">
+      <c r="B37" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" s="10" customFormat="1" ht="43.2">
-      <c r="A9" s="5">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="C37" s="37"/>
+      <c r="D37" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="67"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+    </row>
+    <row r="38" spans="1:7" ht="48" customHeight="1">
+      <c r="A38" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="13" spans="1:9" ht="18">
-      <c r="A13" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="61.95" customHeight="1">
-      <c r="A15" s="5">
-        <v>1</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" ht="28.8">
-      <c r="A16" s="5">
-        <v>2</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:9" ht="57.6">
-      <c r="A17" s="5">
-        <v>3</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="1:9" ht="57.6">
-      <c r="A18" s="5">
-        <v>4</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="1:9" ht="57.6">
-      <c r="A19" s="5">
-        <v>5</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="1:9" ht="57.6">
-      <c r="A20" s="5">
-        <v>6</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="1:9" ht="57.6">
-      <c r="A21" s="5">
-        <v>7</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" ht="57.6">
-      <c r="A22" s="6">
-        <v>8</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" ht="57.6">
-      <c r="A23" s="6">
-        <v>9</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:9" ht="43.2">
-      <c r="A24" s="6">
-        <v>10</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-    </row>
+      <c r="B38" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="37"/>
+      <c r="D38" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="67"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="33"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="33"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="35"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="33"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="35"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="33"/>
+    </row>
+    <row r="50" ht="31.75" customHeight="1"/>
+    <row r="51" ht="63" customHeight="1"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A13:I13"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" display="testingfyp2017@gmail.com_x000a_testingfyp" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F16" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId3"/>
-  <drawing r:id="rId4"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F0FCE8-3BDA-4408-86A1-FE4757BC6CF8}">
-  <dimension ref="A1:I45"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="41.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="40.799999999999997" customHeight="1">
-      <c r="A1" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-    </row>
-    <row r="3" spans="1:9" ht="31.2" customHeight="1" thickBot="1">
-      <c r="A3" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-    </row>
-    <row r="4" spans="1:9" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A4" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A5" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A6" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="36"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" s="40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="27" customHeight="1">
-      <c r="A9" s="41"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-    </row>
-    <row r="10" spans="1:9" ht="29.4" customHeight="1">
-      <c r="A10" s="41"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-    </row>
-    <row r="11" spans="1:9" ht="40.200000000000003" customHeight="1">
-      <c r="A11" s="41"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-    </row>
-    <row r="12" spans="1:9" ht="24" customHeight="1">
-      <c r="A12" s="41"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="43"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="43"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="43"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="43"/>
-    </row>
-    <row r="17" spans="1:7" ht="26.4" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-    </row>
-    <row r="18" spans="1:7" ht="36" customHeight="1">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" spans="1:7" ht="25.2" customHeight="1">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-    </row>
-    <row r="20" spans="1:7" ht="19.8" customHeight="1">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22" spans="1:7" ht="25.8" customHeight="1"/>
-    <row r="23" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A23" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" thickTop="1">
-      <c r="A24" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="60"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="64"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="42"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="43"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1">
-      <c r="A29" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="48"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-    </row>
-    <row r="30" spans="1:7" ht="46.8" customHeight="1">
-      <c r="A30" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-    </row>
-    <row r="31" spans="1:7" ht="45.6" customHeight="1">
-      <c r="A31" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="50"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-    </row>
-    <row r="32" spans="1:7" ht="48" customHeight="1">
-      <c r="A32" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="50"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="43"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="43"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="45"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="43"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="43"/>
-    </row>
-    <row r="44" spans="1:7" ht="31.8" customHeight="1"/>
-    <row r="45" spans="1:7" ht="63" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
+  <mergeCells count="65">
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="B8:C8"/>
@@ -2793,9 +2502,493 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:I24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="13.6328125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.453125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.90625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.81640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:9" ht="18.5">
+      <c r="A4" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="1:9" s="4" customFormat="1">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="10" customFormat="1" ht="29.5" customHeight="1">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="43" customHeight="1">
+      <c r="A7" s="5">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" s="10" customFormat="1" ht="43.5">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" s="10" customFormat="1" ht="43.5">
+      <c r="A9" s="5">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="13" spans="1:9" ht="18.5">
+      <c r="A13" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="62" customHeight="1">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" ht="29">
+      <c r="A16" s="5">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" ht="58">
+      <c r="A17" s="5">
+        <v>3</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" ht="58">
+      <c r="A18" s="5">
+        <v>4</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" ht="58">
+      <c r="A19" s="5">
+        <v>5</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" ht="58">
+      <c r="A20" s="5">
+        <v>6</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" ht="58">
+      <c r="A21" s="5">
+        <v>7</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" ht="58">
+      <c r="A22" s="6">
+        <v>8</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" ht="58">
+      <c r="A23" s="6">
+        <v>9</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" ht="43.5">
+      <c r="A24" s="6">
+        <v>10</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A13:I13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F8" r:id="rId1" display="testingfyp2017@gmail.com_x000a_testingfyp"/>
+    <hyperlink ref="F16" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
 </file>
--- a/FYP documentation/FYP_Test_Plan.xlsx
+++ b/FYP documentation/FYP_Test_Plan.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Durrah\UOW- Year 3\CSCI 321 - FYP\GitRepo\BSS_FYP_TEAM173D\FYP documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Class_notes\BSS_FYP_TEAM173D\FYP documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan Final" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="110">
   <si>
     <t>Expected Result</t>
   </si>
@@ -352,11 +352,44 @@
     <t>1) Enter valid phone number with country code 
 2) Click on 'SIGN UP' button</t>
   </si>
+  <si>
+    <t>Test Instance ID verification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user must be logged in </t>
+  </si>
+  <si>
+    <t>The first device should log out</t>
+  </si>
+  <si>
+    <t>Instance ID Verification</t>
+  </si>
+  <si>
+    <t>1. Login to first device.               2. Login to second device</t>
+  </si>
+  <si>
+    <t>Password Recovery</t>
+  </si>
+  <si>
+    <t>The user should have previously signed up</t>
+  </si>
+  <si>
+    <t>Test if the user can recover password and forms work perfectly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. click forget password                 2. Enter password1   in current password field             </t>
+  </si>
+  <si>
+    <t>1. Enter invalid email                      2. Click forget password</t>
+  </si>
+  <si>
+    <t>There should be a error message and no verificationemail sent over to client.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -735,6 +768,131 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -743,131 +901,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1933,36 +1966,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:E18"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66:E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.90625" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" customWidth="1"/>
-    <col min="5" max="5" width="8.6328125" customWidth="1"/>
-    <col min="6" max="6" width="41.6328125" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" customWidth="1"/>
-    <col min="9" max="9" width="7.1796875" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="7.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.75" customHeight="1">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:9" ht="40.799999999999997" customHeight="1">
+      <c r="A1" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
     </row>
@@ -1977,68 +2010,68 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
     </row>
-    <row r="3" spans="1:9" ht="31.25" customHeight="1" thickBot="1">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:9" ht="31.2" customHeight="1" thickBot="1">
+      <c r="A3" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
-    <row r="4" spans="1:9" ht="18.649999999999999" customHeight="1" thickTop="1">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:9" ht="18.600000000000001" customHeight="1" thickTop="1">
+      <c r="A4" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="59" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="49"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="50"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="17"/>
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="54"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
     </row>
@@ -2046,11 +2079,11 @@
       <c r="A8" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="35" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="30"/>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="35" t="s">
         <v>70</v>
       </c>
       <c r="E8" s="30"/>
@@ -2062,157 +2095,157 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="34.5" customHeight="1">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66" t="s">
+      <c r="C9" s="37"/>
+      <c r="D9" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="65"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:9" ht="29.4" customHeight="1">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66" t="s">
+      <c r="C10" s="37"/>
+      <c r="D10" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="67"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="40.25" customHeight="1">
-      <c r="A11" s="68" t="s">
+    <row r="11" spans="1:9" ht="40.200000000000003" customHeight="1">
+      <c r="A11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="65"/>
-      <c r="D11" s="66" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="65"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:9" ht="58.5" customHeight="1">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="66" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="65"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="66" t="s">
+      <c r="C13" s="55"/>
+      <c r="D13" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="65"/>
+      <c r="E13" s="37"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="56" customHeight="1">
-      <c r="A14" s="68" t="s">
+    <row r="14" spans="1:9" ht="55.95" customHeight="1">
+      <c r="A14" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="65"/>
+      <c r="E14" s="37"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="56" customHeight="1">
-      <c r="A15" s="68" t="s">
+    <row r="15" spans="1:9" ht="55.95" customHeight="1">
+      <c r="A15" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="66" t="s">
+      <c r="C15" s="56"/>
+      <c r="D15" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="67"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="70"/>
-    </row>
-    <row r="16" spans="1:9" ht="45.5" customHeight="1">
-      <c r="A16" s="68" t="s">
+      <c r="E15" s="55"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+    </row>
+    <row r="16" spans="1:9" ht="45.45" customHeight="1">
+      <c r="A16" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="66" t="s">
+      <c r="C16" s="56"/>
+      <c r="D16" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="65"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="70"/>
-    </row>
-    <row r="17" spans="1:7" ht="45.5" customHeight="1">
-      <c r="A17" s="68" t="s">
+      <c r="E16" s="37"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" ht="45.45" customHeight="1">
+      <c r="A17" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="66" t="s">
+      <c r="C17" s="56"/>
+      <c r="D17" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="65"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="70"/>
-    </row>
-    <row r="18" spans="1:7" ht="45.5" customHeight="1">
-      <c r="A18" s="68" t="s">
+      <c r="E17" s="37"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="1:7" ht="45.45" customHeight="1">
+      <c r="A18" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="66" t="s">
+      <c r="C18" s="56"/>
+      <c r="D18" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="67"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="70"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="35" t="s">
         <v>74</v>
       </c>
       <c r="B19" s="30"/>
@@ -2223,7 +2256,7 @@
       <c r="G19" s="33"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="35" t="s">
         <v>75</v>
       </c>
       <c r="B20" s="30"/>
@@ -2234,7 +2267,7 @@
       <c r="G20" s="33"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="29" t="s">
         <v>76</v>
       </c>
       <c r="B21" s="30"/>
@@ -2245,10 +2278,10 @@
       <c r="G21" s="33"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="31"/>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
@@ -2273,7 +2306,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7" ht="25.25" customHeight="1">
+    <row r="25" spans="1:7" ht="25.2" customHeight="1">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -2282,7 +2315,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" ht="19.75" customHeight="1">
+    <row r="26" spans="1:7" ht="19.8" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -2300,54 +2333,54 @@
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7" ht="25.75" customHeight="1"/>
-    <row r="29" spans="1:7" ht="20" thickBot="1">
-      <c r="A29" s="40" t="s">
+    <row r="28" spans="1:7" ht="25.8" customHeight="1"/>
+    <row r="29" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A29" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
     </row>
     <row r="30" spans="1:7" ht="15" thickTop="1">
-      <c r="A30" s="41" t="s">
+      <c r="A30" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43" t="s">
+      <c r="B30" s="58"/>
+      <c r="C30" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="61"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="50"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="52"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="51" t="s">
+      <c r="B32" s="39"/>
+      <c r="C32" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="53"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="63"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="31"/>
@@ -2362,11 +2395,11 @@
       <c r="A34" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="35" t="s">
         <v>69</v>
       </c>
       <c r="C34" s="30"/>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="35" t="s">
         <v>70</v>
       </c>
       <c r="E34" s="30"/>
@@ -2381,64 +2414,64 @@
       <c r="A35" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="36" t="s">
+      <c r="B35" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="38" t="s">
+      <c r="C35" s="54"/>
+      <c r="D35" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="39"/>
+      <c r="E35" s="65"/>
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
     </row>
-    <row r="36" spans="1:7" ht="46.75" customHeight="1">
-      <c r="A36" s="68" t="s">
+    <row r="36" spans="1:7" ht="46.8" customHeight="1">
+      <c r="A36" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="66" t="s">
+      <c r="C36" s="54"/>
+      <c r="D36" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="67"/>
+      <c r="E36" s="55"/>
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
     </row>
-    <row r="37" spans="1:7" ht="45.65" customHeight="1">
-      <c r="A37" s="68" t="s">
+    <row r="37" spans="1:7" ht="45.6" customHeight="1">
+      <c r="A37" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="66" t="s">
+      <c r="C37" s="54"/>
+      <c r="D37" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="67"/>
+      <c r="E37" s="55"/>
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
     </row>
     <row r="38" spans="1:7" ht="48" customHeight="1">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="66" t="s">
+      <c r="C38" s="54"/>
+      <c r="D38" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="E38" s="67"/>
+      <c r="E38" s="55"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="35" t="s">
         <v>74</v>
       </c>
       <c r="B39" s="30"/>
@@ -2449,7 +2482,7 @@
       <c r="G39" s="33"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="35" t="s">
         <v>75</v>
       </c>
       <c r="B40" s="30"/>
@@ -2460,10 +2493,10 @@
       <c r="G40" s="33"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="35"/>
+      <c r="B41" s="34"/>
       <c r="C41" s="31"/>
       <c r="D41" s="32"/>
       <c r="E41" s="32"/>
@@ -2471,20 +2504,323 @@
       <c r="G41" s="33"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="35"/>
+      <c r="B42" s="34"/>
       <c r="C42" s="31"/>
       <c r="D42" s="32"/>
       <c r="E42" s="32"/>
       <c r="F42" s="32"/>
       <c r="G42" s="33"/>
     </row>
-    <row r="50" ht="31.75" customHeight="1"/>
-    <row r="51" ht="63" customHeight="1"/>
+    <row r="46" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A46" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+    </row>
+    <row r="47" spans="1:7" ht="15" thickTop="1">
+      <c r="A47" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="39"/>
+      <c r="C47" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="49"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="39"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="52"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="39"/>
+      <c r="C49" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="42"/>
+    </row>
+    <row r="50" spans="1:7" ht="31.8" customHeight="1">
+      <c r="A50" s="43"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="45"/>
+    </row>
+    <row r="51" spans="1:7" ht="63" customHeight="1">
+      <c r="A51" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="30"/>
+      <c r="D51" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51" s="30"/>
+      <c r="F51" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="54" customHeight="1">
+      <c r="A52" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="37"/>
+      <c r="D52" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="37"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+    </row>
+    <row r="53" spans="1:7" ht="27" customHeight="1">
+      <c r="A53" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="30"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="33"/>
+    </row>
+    <row r="54" spans="1:7" ht="34.799999999999997" customHeight="1">
+      <c r="A54" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="30"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="33"/>
+    </row>
+    <row r="55" spans="1:7" ht="25.2" customHeight="1">
+      <c r="A55" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="30"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="33"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="34"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="33"/>
+    </row>
+    <row r="59" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A59" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+    </row>
+    <row r="60" spans="1:7" ht="15" thickTop="1">
+      <c r="A60" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="39"/>
+      <c r="C60" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="49"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="39"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="52"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="39"/>
+      <c r="C62" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="42"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="43"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="45"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="30"/>
+      <c r="D64" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E64" s="30"/>
+      <c r="F64" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G64" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="82.2" customHeight="1">
+      <c r="A65" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" s="37"/>
+      <c r="D65" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E65" s="37"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+    </row>
+    <row r="66" spans="1:7" ht="56.4" customHeight="1">
+      <c r="A66" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" s="37"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" s="30"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="33"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" s="30"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="33"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="30"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="33"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="34"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="33"/>
+    </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="107">
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="A63:G63"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="B18:C18"/>
@@ -2550,6 +2886,26 @@
     <mergeCell ref="C41:G41"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="C42:G42"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2557,39 +2913,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:I24"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="10" customWidth="1"/>
     <col min="2" max="2" width="10" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.90625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="20.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.54296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.453125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="16.6328125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.81640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.90625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.81640625" style="1"/>
+    <col min="3" max="3" width="15.88671875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" ht="18.5">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:9" ht="18">
+      <c r="A4" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1">
       <c r="A5" s="2" t="s">
@@ -2620,7 +2976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="10" customFormat="1" ht="29.5" customHeight="1">
+    <row r="6" spans="1:9" s="10" customFormat="1" ht="29.55" customHeight="1">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -2641,7 +2997,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:9" s="10" customFormat="1" ht="43" customHeight="1">
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="43.05" customHeight="1">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -2664,7 +3020,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" s="10" customFormat="1" ht="43.5">
+    <row r="8" spans="1:9" s="10" customFormat="1" ht="43.2">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -2687,7 +3043,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" s="10" customFormat="1" ht="43.5">
+    <row r="9" spans="1:9" s="10" customFormat="1" ht="43.2">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -2708,18 +3064,18 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="13" spans="1:9" ht="18.5">
-      <c r="A13" s="26" t="s">
+    <row r="13" spans="1:9" ht="18">
+      <c r="A13" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="28"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="71"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
@@ -2750,7 +3106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="62" customHeight="1">
+    <row r="15" spans="1:9" ht="61.95" customHeight="1">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -2773,7 +3129,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:9" ht="29">
+    <row r="16" spans="1:9" ht="28.8">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -2796,7 +3152,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="1:9" ht="58">
+    <row r="17" spans="1:9" ht="57.6">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -2817,7 +3173,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:9" ht="58">
+    <row r="18" spans="1:9" ht="57.6">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -2840,7 +3196,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:9" ht="58">
+    <row r="19" spans="1:9" ht="57.6">
       <c r="A19" s="5">
         <v>5</v>
       </c>
@@ -2863,7 +3219,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="1:9" ht="58">
+    <row r="20" spans="1:9" ht="57.6">
       <c r="A20" s="5">
         <v>6</v>
       </c>
@@ -2886,7 +3242,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="1:9" ht="58">
+    <row r="21" spans="1:9" ht="57.6">
       <c r="A21" s="5">
         <v>7</v>
       </c>
@@ -2909,7 +3265,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" ht="58">
+    <row r="22" spans="1:9" ht="57.6">
       <c r="A22" s="6">
         <v>8</v>
       </c>
@@ -2932,7 +3288,7 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" ht="58">
+    <row r="23" spans="1:9" ht="57.6">
       <c r="A23" s="6">
         <v>9</v>
       </c>
@@ -2955,7 +3311,7 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9" ht="43.5">
+    <row r="24" spans="1:9" ht="43.2">
       <c r="A24" s="6">
         <v>10</v>
       </c>
@@ -2984,8 +3340,8 @@
     <mergeCell ref="A13:I13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" display="testingfyp2017@gmail.com_x000a_testingfyp"/>
-    <hyperlink ref="F16" r:id="rId2"/>
+    <hyperlink ref="F8" r:id="rId1" display="testingfyp2017@gmail.com_x000a_testingfyp" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F16" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId3"/>

--- a/FYP documentation/FYP_Test_Plan.xlsx
+++ b/FYP documentation/FYP_Test_Plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan Final" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="118">
   <si>
     <t>Expected Result</t>
   </si>
@@ -368,22 +368,46 @@
     <t>1. Login to first device.               2. Login to second device</t>
   </si>
   <si>
-    <t>Password Recovery</t>
-  </si>
-  <si>
     <t>The user should have previously signed up</t>
   </si>
   <si>
-    <t>Test if the user can recover password and forms work perfectly.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. click forget password                 2. Enter password1   in current password field             </t>
-  </si>
-  <si>
-    <t>1. Enter invalid email                      2. Click forget password</t>
-  </si>
-  <si>
-    <t>There should be a error message and no verificationemail sent over to client.</t>
+    <t>Home page</t>
+  </si>
+  <si>
+    <t>Test if home page is functional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Perform Login                          2. Switch gps off and network off.                                                     3. Move the map around                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A message should be displayed to ask the user to witch on network. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Switch of the gps and turn on the network.         </t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Login fail message</t>
+  </si>
+  <si>
+    <t>Error message appear above the edittext field</t>
+  </si>
+  <si>
+    <t>Login sussesfull home screen displayed</t>
+  </si>
+  <si>
+    <t>All respond</t>
+  </si>
+  <si>
+    <t>1. Click on the fields</t>
+  </si>
+  <si>
+    <t>Abhi Jay Krishnan</t>
+  </si>
+  <si>
+    <t>1842hrs</t>
   </si>
 </sst>
 </file>
@@ -703,7 +727,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -772,7 +796,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -794,18 +817,36 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -827,36 +868,33 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -878,21 +916,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -901,6 +924,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1969,8 +2001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66:E66"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67:G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1987,15 +2019,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="40.799999999999997" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
     </row>
@@ -2011,67 +2043,67 @@
       <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="31.2" customHeight="1" thickBot="1">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="42"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
       <c r="H6" s="17"/>
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="43"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
     </row>
@@ -2079,14 +2111,14 @@
       <c r="A8" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="35" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="21" t="s">
         <v>71</v>
       </c>
@@ -2098,14 +2130,14 @@
       <c r="A9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="36" t="s">
+      <c r="C9" s="44"/>
+      <c r="D9" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="37"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
     </row>
@@ -2113,14 +2145,14 @@
       <c r="A10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="36" t="s">
+      <c r="C10" s="44"/>
+      <c r="D10" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="55"/>
+      <c r="E10" s="56"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
     </row>
@@ -2128,14 +2160,14 @@
       <c r="A11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="36" t="s">
+      <c r="C11" s="44"/>
+      <c r="D11" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="37"/>
+      <c r="E11" s="44"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
     </row>
@@ -2143,14 +2175,14 @@
       <c r="A12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="36" t="s">
+      <c r="C12" s="56"/>
+      <c r="D12" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="37"/>
+      <c r="E12" s="44"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
     </row>
@@ -2158,14 +2190,14 @@
       <c r="A13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="36" t="s">
+      <c r="C13" s="56"/>
+      <c r="D13" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="37"/>
+      <c r="E13" s="44"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
     </row>
@@ -2173,120 +2205,120 @@
       <c r="A14" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="36" t="s">
+      <c r="C14" s="44"/>
+      <c r="D14" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="37"/>
+      <c r="E14" s="44"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:9" ht="55.95" customHeight="1">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="36" t="s">
+      <c r="C15" s="57"/>
+      <c r="D15" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="55"/>
+      <c r="E15" s="56"/>
       <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:9" ht="45.45" customHeight="1">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="36" t="s">
+      <c r="C16" s="57"/>
+      <c r="D16" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="37"/>
+      <c r="E16" s="44"/>
       <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" ht="45.45" customHeight="1">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="36" t="s">
+      <c r="C17" s="57"/>
+      <c r="D17" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="37"/>
+      <c r="E17" s="44"/>
       <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" ht="45.45" customHeight="1">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="36" t="s">
+      <c r="C18" s="57"/>
+      <c r="D18" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="55"/>
+      <c r="E18" s="56"/>
       <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
+      <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
     </row>
     <row r="23" spans="1:7" ht="26.4" customHeight="1">
       <c r="A23" s="18"/>
@@ -2335,74 +2367,74 @@
     </row>
     <row r="28" spans="1:7" ht="25.8" customHeight="1"/>
     <row r="29" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
     </row>
     <row r="30" spans="1:7" ht="15" thickTop="1">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="59" t="s">
+      <c r="B30" s="62"/>
+      <c r="C30" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="61"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="65"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="52"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="42"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40" t="s">
+      <c r="B32" s="36"/>
+      <c r="C32" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="63"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="67"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="31"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="33"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="32"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="35" t="s">
+      <c r="C34" s="29"/>
+      <c r="D34" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="30"/>
+      <c r="E34" s="29"/>
       <c r="F34" s="21" t="s">
         <v>71</v>
       </c>
@@ -2414,175 +2446,199 @@
       <c r="A35" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="64" t="s">
+      <c r="B35" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="53"/>
+      <c r="D35" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="65"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="46.8" customHeight="1">
       <c r="A36" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="36" t="s">
+      <c r="C36" s="53"/>
+      <c r="D36" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="55"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="45.6" customHeight="1">
       <c r="A37" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="36" t="s">
+      <c r="C37" s="53"/>
+      <c r="D37" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="55"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="48" customHeight="1">
       <c r="A38" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="54"/>
-      <c r="D38" s="36" t="s">
+      <c r="C38" s="53"/>
+      <c r="D38" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="E38" s="55"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="33"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="55"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="33"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="72">
+        <v>43042</v>
+      </c>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="55"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="55"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="34"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="55"/>
     </row>
     <row r="46" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
     </row>
     <row r="47" spans="1:7" ht="15" thickTop="1">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="39"/>
-      <c r="C47" s="47" t="s">
+      <c r="B47" s="36"/>
+      <c r="C47" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="49"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="39"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="52"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="42"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="40" t="s">
+      <c r="B49" s="36"/>
+      <c r="C49" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="42"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="47"/>
     </row>
     <row r="50" spans="1:7" ht="31.8" customHeight="1">
-      <c r="A50" s="43"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="45"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="50"/>
     </row>
     <row r="51" spans="1:7" ht="63" customHeight="1">
       <c r="A51" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="35" t="s">
+      <c r="C51" s="29"/>
+      <c r="D51" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="E51" s="30"/>
+      <c r="E51" s="29"/>
       <c r="F51" s="21" t="s">
         <v>71</v>
       </c>
@@ -2594,130 +2650,132 @@
       <c r="A52" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="37"/>
-      <c r="D52" s="36" t="s">
+      <c r="C52" s="44"/>
+      <c r="D52" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="E52" s="37"/>
+      <c r="E52" s="44"/>
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
     </row>
     <row r="53" spans="1:7" ht="27" customHeight="1">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="33"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" s="71"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="55"/>
     </row>
     <row r="54" spans="1:7" ht="34.799999999999997" customHeight="1">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="33"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="32"/>
     </row>
     <row r="55" spans="1:7" ht="25.2" customHeight="1">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="33"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="32"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="34"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="32"/>
     </row>
     <row r="59" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A59" s="46" t="s">
+      <c r="A59" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="51"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+    </row>
+    <row r="60" spans="1:7" ht="15" thickTop="1">
+      <c r="A60" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="36"/>
+      <c r="C60" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="39"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="36"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="42"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="36"/>
+      <c r="C62" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="46"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-    </row>
-    <row r="60" spans="1:7" ht="15" thickTop="1">
-      <c r="A60" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="B60" s="39"/>
-      <c r="C60" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="D60" s="48"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="49"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61" s="39"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="52"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B62" s="39"/>
-      <c r="C62" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="42"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="47"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="43"/>
-      <c r="B63" s="44"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
-      <c r="F63" s="44"/>
-      <c r="G63" s="45"/>
+      <c r="A63" s="48"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="50"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="35" t="s">
+      <c r="B64" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C64" s="30"/>
-      <c r="D64" s="35" t="s">
+      <c r="C64" s="29"/>
+      <c r="D64" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="E64" s="30"/>
+      <c r="E64" s="29"/>
       <c r="F64" s="21" t="s">
         <v>71</v>
       </c>
@@ -2729,14 +2787,14 @@
       <c r="A65" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" s="44"/>
+      <c r="D65" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="C65" s="37"/>
-      <c r="D65" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="E65" s="37"/>
+      <c r="E65" s="44"/>
       <c r="F65" s="20"/>
       <c r="G65" s="20"/>
     </row>
@@ -2744,58 +2802,58 @@
       <c r="A66" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C66" s="37"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="37"/>
+      <c r="B66" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="44"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="44"/>
       <c r="F66" s="20"/>
       <c r="G66" s="20"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="29" t="s">
+      <c r="A67" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B67" s="30"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="33"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="31"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="32"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="35" t="s">
+      <c r="A68" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B68" s="30"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="33"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="32"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="29" t="s">
+      <c r="A69" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="30"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="33"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="31"/>
+      <c r="E69" s="31"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="32"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="29" t="s">
+      <c r="A70" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="34"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="33"/>
+      <c r="B70" s="33"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="31"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="107">
@@ -2824,6 +2882,19 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B12:C12"/>
@@ -2844,10 +2915,6 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="A19:B19"/>
@@ -2860,15 +2927,6 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
     <mergeCell ref="A33:G33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
@@ -2887,6 +2945,14 @@
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="C42:G42"/>
     <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="C47:G47"/>
     <mergeCell ref="A48:B48"/>
@@ -2898,14 +2964,6 @@
     <mergeCell ref="A50:G50"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="D51:E51"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:G54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2916,7 +2974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -2935,17 +2993,17 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:9" ht="18">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="70"/>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1">
       <c r="A5" s="2" t="s">
@@ -3065,17 +3123,17 @@
       <c r="I9" s="9"/>
     </row>
     <row r="13" spans="1:9" ht="18">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="71"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="70"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">

--- a/FYP documentation/FYP_Test_Plan.xlsx
+++ b/FYP documentation/FYP_Test_Plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan Final" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="124">
   <si>
     <t>Expected Result</t>
   </si>
@@ -383,9 +383,6 @@
     <t xml:space="preserve">A message should be displayed to ask the user to witch on network. </t>
   </si>
   <si>
-    <t xml:space="preserve">1.  Switch of the gps and turn on the network.         </t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -408,6 +405,27 @@
   </si>
   <si>
     <t>1842hrs</t>
+  </si>
+  <si>
+    <t>1.  Move around a radius of 100m</t>
+  </si>
+  <si>
+    <t>The current location should be updated realtime.</t>
+  </si>
+  <si>
+    <t>1. click the three line icon on the lefty hand corner of the screen (toolbar)</t>
+  </si>
+  <si>
+    <t>1.  Click the location search icon on the right corner of toolbar</t>
+  </si>
+  <si>
+    <t>The menu should be inflated from the left hand side</t>
+  </si>
+  <si>
+    <t>The location search should be infalted on the tool bar.</t>
+  </si>
+  <si>
+    <t>1.  On loading the screen there should be 3</t>
   </si>
 </sst>
 </file>
@@ -796,26 +814,35 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -823,6 +850,36 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -832,41 +889,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -874,47 +901,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -924,15 +951,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1999,10 +2017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67:G67"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69:C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2019,15 +2037,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="40.799999999999997" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="60"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="66"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
     </row>
@@ -2043,38 +2061,38 @@
       <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="31.2" customHeight="1" thickBot="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="40"/>
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
@@ -2084,26 +2102,26 @@
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="45"/>
       <c r="H6" s="17"/>
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="48"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
     </row>
@@ -2111,14 +2129,14 @@
       <c r="A8" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="30"/>
+      <c r="D8" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="21" t="s">
         <v>71</v>
       </c>
@@ -2130,14 +2148,14 @@
       <c r="A9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="43" t="s">
+      <c r="C9" s="37"/>
+      <c r="D9" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="44"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
     </row>
@@ -2145,14 +2163,14 @@
       <c r="A10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="43" t="s">
+      <c r="C10" s="37"/>
+      <c r="D10" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="56"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
     </row>
@@ -2160,14 +2178,14 @@
       <c r="A11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="43" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="44"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
     </row>
@@ -2175,14 +2193,14 @@
       <c r="A12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="43" t="s">
+      <c r="C12" s="53"/>
+      <c r="D12" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="44"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
     </row>
@@ -2190,14 +2208,14 @@
       <c r="A13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="43" t="s">
+      <c r="C13" s="53"/>
+      <c r="D13" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="44"/>
+      <c r="E13" s="37"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
     </row>
@@ -2205,120 +2223,120 @@
       <c r="A14" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="43" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="44"/>
+      <c r="E14" s="37"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:9" ht="55.95" customHeight="1">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="43" t="s">
+      <c r="C15" s="54"/>
+      <c r="D15" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="56"/>
+      <c r="E15" s="53"/>
       <c r="F15" s="27"/>
       <c r="G15" s="20"/>
     </row>
     <row r="16" spans="1:9" ht="45.45" customHeight="1">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="43" t="s">
+      <c r="C16" s="54"/>
+      <c r="D16" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="44"/>
+      <c r="E16" s="37"/>
       <c r="F16" s="27"/>
       <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" ht="45.45" customHeight="1">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="43" t="s">
+      <c r="C17" s="54"/>
+      <c r="D17" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="44"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="27"/>
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7" ht="45.45" customHeight="1">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="43" t="s">
+      <c r="C18" s="54"/>
+      <c r="D18" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="E18" s="56"/>
+      <c r="E18" s="53"/>
       <c r="F18" s="27"/>
       <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
     </row>
     <row r="23" spans="1:7" ht="26.4" customHeight="1">
       <c r="A23" s="18"/>
@@ -2367,34 +2385,34 @@
     </row>
     <row r="28" spans="1:7" ht="25.8" customHeight="1"/>
     <row r="29" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:7" ht="15" thickTop="1">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="63" t="s">
+      <c r="B30" s="58"/>
+      <c r="C30" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="65"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="61"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="36"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="40"/>
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
@@ -2402,39 +2420,39 @@
       <c r="G31" s="42"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="45" t="s">
+      <c r="B32" s="39"/>
+      <c r="C32" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="67"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="63"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="32"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="33"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="34" t="s">
+      <c r="C34" s="30"/>
+      <c r="D34" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="29"/>
+      <c r="E34" s="30"/>
       <c r="F34" s="21" t="s">
         <v>71</v>
       </c>
@@ -2446,159 +2464,159 @@
       <c r="A35" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="54" t="s">
+      <c r="B35" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="56"/>
+      <c r="D35" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="E35" s="55"/>
+      <c r="E35" s="68"/>
       <c r="F35" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="46.8" customHeight="1">
       <c r="A36" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="43" t="s">
+      <c r="C36" s="56"/>
+      <c r="D36" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="E36" s="56"/>
+      <c r="E36" s="53"/>
       <c r="F36" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="45.6" customHeight="1">
       <c r="A37" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="43" t="s">
+      <c r="C37" s="56"/>
+      <c r="D37" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="56"/>
+      <c r="E37" s="53"/>
       <c r="F37" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="48" customHeight="1">
       <c r="A38" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="43" t="s">
+      <c r="C38" s="56"/>
+      <c r="D38" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="E38" s="56"/>
+      <c r="E38" s="53"/>
       <c r="F38" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G38" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="54" t="s">
+      <c r="B39" s="30"/>
+      <c r="C39" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="68"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="30"/>
+      <c r="C40" s="70">
+        <v>43042</v>
+      </c>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="68"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="35"/>
+      <c r="C41" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="55"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="72">
-        <v>43042</v>
-      </c>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="55"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="55"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="68"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="55"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="68"/>
     </row>
     <row r="46" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="49"/>
     </row>
     <row r="47" spans="1:7" ht="15" thickTop="1">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="37" t="s">
+      <c r="B47" s="39"/>
+      <c r="C47" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="39"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="52"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="35" t="s">
+      <c r="A48" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="36"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="40"/>
       <c r="D48" s="41"/>
       <c r="E48" s="41"/>
@@ -2606,39 +2624,39 @@
       <c r="G48" s="42"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="45" t="s">
+      <c r="B49" s="39"/>
+      <c r="C49" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="47"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="45"/>
     </row>
     <row r="50" spans="1:7" ht="31.8" customHeight="1">
-      <c r="A50" s="48"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="50"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="48"/>
     </row>
     <row r="51" spans="1:7" ht="63" customHeight="1">
       <c r="A51" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="29"/>
-      <c r="D51" s="34" t="s">
+      <c r="C51" s="30"/>
+      <c r="D51" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E51" s="29"/>
+      <c r="E51" s="30"/>
       <c r="F51" s="21" t="s">
         <v>71</v>
       </c>
@@ -2650,92 +2668,92 @@
       <c r="A52" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="43" t="s">
+      <c r="C52" s="37"/>
+      <c r="D52" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="E52" s="44"/>
+      <c r="E52" s="37"/>
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
     </row>
     <row r="53" spans="1:7" ht="27" customHeight="1">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="D53" s="71"/>
-      <c r="E53" s="71"/>
-      <c r="F53" s="71"/>
-      <c r="G53" s="55"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="68"/>
     </row>
     <row r="54" spans="1:7" ht="34.799999999999997" customHeight="1">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="32"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="33"/>
     </row>
     <row r="55" spans="1:7" ht="25.2" customHeight="1">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="32"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="33"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="32"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="33"/>
     </row>
     <row r="59" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A59" s="51" t="s">
+      <c r="A59" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="51"/>
-      <c r="G59" s="51"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
     </row>
     <row r="60" spans="1:7" ht="15" thickTop="1">
-      <c r="A60" s="35" t="s">
+      <c r="A60" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="36"/>
-      <c r="C60" s="37" t="s">
+      <c r="B60" s="39"/>
+      <c r="C60" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="39"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="52"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="35" t="s">
+      <c r="A61" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="36"/>
+      <c r="B61" s="39"/>
       <c r="C61" s="40"/>
       <c r="D61" s="41"/>
       <c r="E61" s="41"/>
@@ -2743,39 +2761,39 @@
       <c r="G61" s="42"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="35" t="s">
+      <c r="A62" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="36"/>
-      <c r="C62" s="45" t="s">
+      <c r="B62" s="39"/>
+      <c r="C62" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D62" s="46"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="46"/>
-      <c r="G62" s="47"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="45"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="48"/>
-      <c r="B63" s="49"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="50"/>
+      <c r="A63" s="46"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="48"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="34" t="s">
+      <c r="B64" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="34" t="s">
+      <c r="C64" s="30"/>
+      <c r="D64" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E64" s="29"/>
+      <c r="E64" s="30"/>
       <c r="F64" s="21" t="s">
         <v>71</v>
       </c>
@@ -2787,14 +2805,14 @@
       <c r="A65" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="43" t="s">
+      <c r="B65" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="44"/>
-      <c r="D65" s="43" t="s">
+      <c r="C65" s="37"/>
+      <c r="D65" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="E65" s="44"/>
+      <c r="E65" s="37"/>
       <c r="F65" s="20"/>
       <c r="G65" s="20"/>
     </row>
@@ -2802,75 +2820,177 @@
       <c r="A66" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="C66" s="44"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="44"/>
+      <c r="B66" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="37"/>
+      <c r="D66" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="E66" s="37"/>
       <c r="F66" s="20"/>
       <c r="G66" s="20"/>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="28" t="s">
+    <row r="67" spans="1:7" ht="49.8" customHeight="1">
+      <c r="A67" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="37"/>
+      <c r="D67" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="E67" s="37"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+    </row>
+    <row r="68" spans="1:7" ht="41.4" customHeight="1">
+      <c r="A68" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" s="37"/>
+      <c r="D68" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E68" s="37"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+    </row>
+    <row r="69" spans="1:7" ht="46.8" customHeight="1">
+      <c r="A69" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="37"/>
+      <c r="D69" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E69" s="37"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B67" s="29"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="32"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="34" t="s">
+      <c r="B70" s="30"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="33"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B68" s="29"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="32"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="28" t="s">
+      <c r="B71" s="30"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="33"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="29"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="32"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="28" t="s">
+      <c r="B72" s="30"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="33"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="33"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="32"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
+  <mergeCells count="113">
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="A61:B61"/>
     <mergeCell ref="C61:G61"/>
     <mergeCell ref="A62:B62"/>
@@ -2895,75 +3015,26 @@
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C32:G32"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2974,7 +3045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -2993,17 +3064,17 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:9" ht="18">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="70"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1">
       <c r="A5" s="2" t="s">
@@ -3123,17 +3194,17 @@
       <c r="I9" s="9"/>
     </row>
     <row r="13" spans="1:9" ht="18">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="70"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="73"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">

--- a/FYP documentation/FYP_Test_Plan.xlsx
+++ b/FYP documentation/FYP_Test_Plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="134">
   <si>
     <t>Expected Result</t>
   </si>
@@ -329,18 +329,6 @@
 2) Click on 'SIGN UP' button </t>
   </si>
   <si>
-    <t>1) Enter value in numbers which is in between 8-32 characters 
-2) Click on 'SIGN UP' button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Enter value which is alphanumeric but more than 32 characters 
-2) Click on 'SIGN UP' button </t>
-  </si>
-  <si>
-    <t>1) Enter value in alphanumeric which is in between 8-32 characters 
-2) Click on 'SIGN UP' button</t>
-  </si>
-  <si>
     <t>1) Enter alphanumeric data in contact number field 
 2) Click on 'SIGN UP' button</t>
   </si>
@@ -416,16 +404,57 @@
     <t>1. click the three line icon on the lefty hand corner of the screen (toolbar)</t>
   </si>
   <si>
-    <t>1.  Click the location search icon on the right corner of toolbar</t>
-  </si>
-  <si>
     <t>The menu should be inflated from the left hand side</t>
   </si>
   <si>
     <t>The location search should be infalted on the tool bar.</t>
   </si>
   <si>
-    <t>1.  On loading the screen there should be 3</t>
+    <t xml:space="preserve">Signed up successfully </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Enter value which is alphanumeric but more than 12 characters 
+2) Click on 'SIGN UP' button </t>
+  </si>
+  <si>
+    <t>1) Enter value in alphanumeric which is in between 8-12 characters 
+2) Click on 'SIGN UP' button</t>
+  </si>
+  <si>
+    <t>Goes to congirmation page, but the user will not recive the confirmation code hence signup fail</t>
+  </si>
+  <si>
+    <t>Invalid input error message</t>
+  </si>
+  <si>
+    <t>1412 hrs</t>
+  </si>
+  <si>
+    <t>User is notified that there is no connectivity</t>
+  </si>
+  <si>
+    <t>Yes the location reset while walking around</t>
+  </si>
+  <si>
+    <t>The menu slides in from left</t>
+  </si>
+  <si>
+    <t>The location search gives suggestions and moves the map to the searched location on clicking</t>
+  </si>
+  <si>
+    <t>1.  Click the location search icon on the right corner of toolbar.                                         2. Search for a added location</t>
+  </si>
+  <si>
+    <t>On loading the screen there should be 3 floating action button at the bottom right hand corner</t>
+  </si>
+  <si>
+    <t>1.  Load home page</t>
+  </si>
+  <si>
+    <t>The button apear at the bottom right hand corner</t>
+  </si>
+  <si>
+    <t>1439 hrs</t>
   </si>
 </sst>
 </file>
@@ -745,7 +774,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -813,30 +842,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -844,21 +905,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -877,17 +923,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -895,11 +941,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -922,27 +971,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -951,6 +979,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2017,10 +2051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69:C69"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2037,15 +2071,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="40.799999999999997" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="60" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="66"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="62"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
     </row>
@@ -2061,15 +2095,15 @@
       <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="31.2" customHeight="1" thickBot="1">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
@@ -2078,13 +2112,13 @@
         <v>66</v>
       </c>
       <c r="B4" s="39"/>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
     </row>
@@ -2093,11 +2127,11 @@
         <v>67</v>
       </c>
       <c r="B5" s="39"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
@@ -2106,22 +2140,22 @@
         <v>68</v>
       </c>
       <c r="B6" s="39"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="45"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
       <c r="H6" s="17"/>
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="46"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
     </row>
@@ -2129,14 +2163,14 @@
       <c r="A8" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="29" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="21" t="s">
         <v>71</v>
       </c>
@@ -2144,201 +2178,239 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="34.5" customHeight="1">
+    <row r="9" spans="1:9" ht="70.2" customHeight="1">
       <c r="A9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="36" t="s">
+      <c r="C9" s="47"/>
+      <c r="D9" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="47"/>
+      <c r="F9" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="G9" s="27" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="29.4" customHeight="1">
       <c r="A10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="58"/>
+      <c r="F10" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="40.200000000000003" customHeight="1">
       <c r="A11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="36" t="s">
+      <c r="C11" s="47"/>
+      <c r="D11" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="58.5" customHeight="1">
       <c r="A12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="36" t="s">
+      <c r="C12" s="58"/>
+      <c r="D12" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1">
       <c r="A13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="58"/>
+      <c r="D13" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="47"/>
+      <c r="F13" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="55.95" customHeight="1">
+      <c r="A14" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="59"/>
+      <c r="D14" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="58"/>
+      <c r="F14" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="45.45" customHeight="1">
+      <c r="A15" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="59"/>
+      <c r="D15" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="47"/>
+      <c r="F15" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="45.45" customHeight="1">
+      <c r="A16" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="36" t="s">
+      <c r="C16" s="59"/>
+      <c r="D16" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:9" ht="55.95" customHeight="1">
-      <c r="A14" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="1:9" ht="55.95" customHeight="1">
-      <c r="A15" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="54" t="s">
+      <c r="E16" s="47"/>
+      <c r="F16" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45.45" customHeight="1">
+      <c r="A17" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="36" t="s">
+      <c r="C17" s="59"/>
+      <c r="D17" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="1:9" ht="45.45" customHeight="1">
-      <c r="A16" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="1:7" ht="45.45" customHeight="1">
-      <c r="A17" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="20"/>
-    </row>
-    <row r="18" spans="1:7" ht="45.45" customHeight="1">
-      <c r="A18" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="20"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="A19" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="54">
+        <v>43014</v>
+      </c>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
+      <c r="A20" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="34" t="s">
+      <c r="A21" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-    </row>
-    <row r="23" spans="1:7" ht="26.4" customHeight="1">
+      <c r="B21" s="33"/>
+      <c r="C21" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="1:7" ht="26.4" customHeight="1">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:7" ht="36" customHeight="1">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -2347,7 +2419,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" ht="36" customHeight="1">
+    <row r="24" spans="1:7" ht="25.2" customHeight="1">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -2356,7 +2428,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7" ht="25.2" customHeight="1">
+    <row r="25" spans="1:7" ht="19.8" customHeight="1">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -2365,7 +2437,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" ht="19.8" customHeight="1">
+    <row r="26" spans="1:7">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -2374,603 +2446,617 @@
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-    </row>
-    <row r="28" spans="1:7" ht="25.8" customHeight="1"/>
-    <row r="29" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A29" s="49" t="s">
+    <row r="27" spans="1:7" ht="25.8" customHeight="1"/>
+    <row r="28" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A28" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" thickTop="1">
-      <c r="A30" s="57" t="s">
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" thickTop="1">
+      <c r="A29" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="59" t="s">
+      <c r="B29" s="64"/>
+      <c r="C29" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="61"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="67"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="39"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="39"/>
+      <c r="C31" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="69"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="30"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="32"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="29"/>
+      <c r="F33" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18" customHeight="1">
+      <c r="A34" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="57"/>
+      <c r="D34" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="36"/>
+      <c r="F34" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="46.8" customHeight="1">
+      <c r="A35" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="57"/>
+      <c r="D35" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="58"/>
+      <c r="F35" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="45.6" customHeight="1">
+      <c r="A36" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="57"/>
+      <c r="D36" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="58"/>
+      <c r="F36" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="48" customHeight="1">
+      <c r="A37" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="57"/>
+      <c r="D37" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="58"/>
+      <c r="F37" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="29"/>
+      <c r="C38" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="36"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="29"/>
+      <c r="C39" s="54">
+        <v>43042</v>
+      </c>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="36"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="33"/>
+      <c r="C40" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="36"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="33"/>
+      <c r="C41" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="36"/>
+    </row>
+    <row r="45" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A45" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+    </row>
+    <row r="46" spans="1:7" ht="15" thickTop="1">
+      <c r="A46" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="39"/>
+      <c r="C46" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="42"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="42"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="63"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="31"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="33"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1">
-      <c r="A35" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="68"/>
-      <c r="F35" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="46.8" customHeight="1">
-      <c r="A36" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" s="53"/>
-      <c r="F36" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="45.6" customHeight="1">
-      <c r="A37" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="56"/>
-      <c r="D37" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="53"/>
-      <c r="F37" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="48" customHeight="1">
-      <c r="A38" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" s="53"/>
-      <c r="F38" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="68"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="70">
-        <v>43042</v>
-      </c>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="68"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="68"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="68"/>
-    </row>
-    <row r="46" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A46" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-    </row>
-    <row r="47" spans="1:7" ht="15" thickTop="1">
-      <c r="A47" s="38" t="s">
-        <v>66</v>
-      </c>
       <c r="B47" s="39"/>
-      <c r="C47" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="52"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="45"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="39"/>
+      <c r="C48" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="50"/>
+    </row>
+    <row r="49" spans="1:7" ht="16.8" customHeight="1">
+      <c r="A49" s="51"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="53"/>
+    </row>
+    <row r="50" spans="1:7" ht="63" customHeight="1">
+      <c r="A50" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="D50" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="29"/>
+      <c r="F50" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="54" customHeight="1">
+      <c r="A51" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="47"/>
+      <c r="D51" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" s="47"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+    </row>
+    <row r="52" spans="1:7" ht="27" customHeight="1">
+      <c r="A52" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="29"/>
+      <c r="C52" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="36"/>
+    </row>
+    <row r="53" spans="1:7" ht="34.799999999999997" customHeight="1">
+      <c r="A53" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="29"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="32"/>
+    </row>
+    <row r="54" spans="1:7" ht="25.2" customHeight="1">
+      <c r="A54" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="29"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="32"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="33"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="32"/>
+    </row>
+    <row r="58" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A58" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="55"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+    </row>
+    <row r="59" spans="1:7" ht="15" thickTop="1">
+      <c r="A59" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="39"/>
+      <c r="C59" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="42"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="42"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="45"/>
-    </row>
-    <row r="50" spans="1:7" ht="31.8" customHeight="1">
-      <c r="A50" s="46"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="48"/>
-    </row>
-    <row r="51" spans="1:7" ht="63" customHeight="1">
-      <c r="A51" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E51" s="30"/>
-      <c r="F51" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G51" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="54" customHeight="1">
-      <c r="A52" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52" s="37"/>
-      <c r="D52" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="E52" s="37"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-    </row>
-    <row r="53" spans="1:7" ht="27" customHeight="1">
-      <c r="A53" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="D53" s="69"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="68"/>
-    </row>
-    <row r="54" spans="1:7" ht="34.799999999999997" customHeight="1">
-      <c r="A54" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="33"/>
-    </row>
-    <row r="55" spans="1:7" ht="25.2" customHeight="1">
-      <c r="A55" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="33"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" s="35"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="33"/>
-    </row>
-    <row r="59" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A59" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-    </row>
-    <row r="60" spans="1:7" ht="15" thickTop="1">
-      <c r="A60" s="38" t="s">
-        <v>66</v>
-      </c>
       <c r="B60" s="39"/>
-      <c r="C60" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51"/>
-      <c r="G60" s="52"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="45"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B61" s="39"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="42"/>
+      <c r="C61" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="50"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B62" s="39"/>
-      <c r="C62" s="43" t="s">
+      <c r="A62" s="51"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="53"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="29"/>
+      <c r="D63" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E63" s="29"/>
+      <c r="F63" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G63" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="82.2" customHeight="1">
+      <c r="A64" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="45"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="46"/>
-      <c r="B63" s="47"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="48"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B64" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64" s="30"/>
-      <c r="D64" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="E64" s="30"/>
-      <c r="F64" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G64" s="22" t="s">
+      <c r="C64" s="47"/>
+      <c r="D64" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="E64" s="47"/>
+      <c r="F64" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="G64" s="74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="56.4" customHeight="1">
+      <c r="A65" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="47"/>
+      <c r="D65" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E65" s="47"/>
+      <c r="F65" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="G65" s="74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="49.8" customHeight="1">
+      <c r="A66" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="47"/>
+      <c r="D66" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E66" s="47"/>
+      <c r="F66" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="G66" s="74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="63.6" customHeight="1">
+      <c r="A67" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" s="47"/>
+      <c r="D67" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="E67" s="47"/>
+      <c r="F67" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="G67" s="74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="79.2" customHeight="1">
+      <c r="A68" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" s="47"/>
+      <c r="D68" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="E68" s="47"/>
+      <c r="F68" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="G68" s="74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" s="29"/>
+      <c r="C69" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="36"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" s="29"/>
+      <c r="C70" s="54">
+        <v>43014</v>
+      </c>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="36"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" s="29"/>
+      <c r="C71" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="36"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="28" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="82.2" customHeight="1">
-      <c r="A65" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C65" s="37"/>
-      <c r="D65" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="E65" s="37"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-    </row>
-    <row r="66" spans="1:7" ht="56.4" customHeight="1">
-      <c r="A66" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B66" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="C66" s="37"/>
-      <c r="D66" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="E66" s="37"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-    </row>
-    <row r="67" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A67" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="C67" s="37"/>
-      <c r="D67" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="E67" s="37"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-    </row>
-    <row r="68" spans="1:7" ht="41.4" customHeight="1">
-      <c r="A68" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="C68" s="37"/>
-      <c r="D68" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="E68" s="37"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-    </row>
-    <row r="69" spans="1:7" ht="46.8" customHeight="1">
-      <c r="A69" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B69" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="C69" s="37"/>
-      <c r="D69" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="E69" s="37"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B70" s="30"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="33"/>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" s="30"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="33"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72" s="30"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="32"/>
-      <c r="G72" s="33"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" s="35"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="33"/>
+      <c r="B72" s="33"/>
+      <c r="C72" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="113">
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
+  <mergeCells count="111">
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A58:G58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B12:C12"/>
@@ -2991,50 +3077,53 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="A63:G63"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3045,7 +3134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -3064,17 +3153,17 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:9" ht="18">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="72"/>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1">
       <c r="A5" s="2" t="s">
@@ -3194,17 +3283,17 @@
       <c r="I9" s="9"/>
     </row>
     <row r="13" spans="1:9" ht="18">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="73"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="72"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">

--- a/FYP documentation/FYP_Test_Plan.xlsx
+++ b/FYP documentation/FYP_Test_Plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="137">
   <si>
     <t>Expected Result</t>
   </si>
@@ -455,6 +455,15 @@
   </si>
   <si>
     <t>1439 hrs</t>
+  </si>
+  <si>
+    <t>File operation</t>
+  </si>
+  <si>
+    <t>Test if file operation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add area 1 and area 2. Area 2 should have file 1 and file 2 </t>
   </si>
 </sst>
 </file>
@@ -845,11 +854,128 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -860,117 +986,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -979,12 +994,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2051,10 +2060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79:G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2071,15 +2080,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="40.799999999999997" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="62"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
     </row>
@@ -2095,67 +2104,67 @@
       <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="31.2" customHeight="1" thickBot="1">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="50"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
       <c r="H6" s="17"/>
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
     </row>
@@ -2163,14 +2172,14 @@
       <c r="A8" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="37" t="s">
+      <c r="C8" s="31"/>
+      <c r="D8" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="29"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="21" t="s">
         <v>71</v>
       </c>
@@ -2182,14 +2191,14 @@
       <c r="A9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="46" t="s">
+      <c r="C9" s="39"/>
+      <c r="D9" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="47"/>
+      <c r="E9" s="39"/>
       <c r="F9" s="27" t="s">
         <v>90</v>
       </c>
@@ -2201,14 +2210,14 @@
       <c r="A10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="46" t="s">
+      <c r="C10" s="39"/>
+      <c r="D10" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="E10" s="58"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="27" t="s">
         <v>119</v>
       </c>
@@ -2220,14 +2229,14 @@
       <c r="A11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="46" t="s">
+      <c r="C11" s="39"/>
+      <c r="D11" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="47"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="27" t="s">
         <v>123</v>
       </c>
@@ -2239,14 +2248,14 @@
       <c r="A12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="46" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="47"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="27" t="s">
         <v>123</v>
       </c>
@@ -2258,14 +2267,14 @@
       <c r="A13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="46" t="s">
+      <c r="C13" s="55"/>
+      <c r="D13" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="47"/>
+      <c r="E13" s="39"/>
       <c r="F13" s="27" t="s">
         <v>123</v>
       </c>
@@ -2277,15 +2286,15 @@
       <c r="A14" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="46" t="s">
+      <c r="C14" s="56"/>
+      <c r="D14" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="73" t="s">
+      <c r="E14" s="55"/>
+      <c r="F14" s="28" t="s">
         <v>119</v>
       </c>
       <c r="G14" s="27" t="s">
@@ -2296,15 +2305,15 @@
       <c r="A15" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="46" t="s">
+      <c r="C15" s="56"/>
+      <c r="D15" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="73" t="s">
+      <c r="E15" s="39"/>
+      <c r="F15" s="28" t="s">
         <v>123</v>
       </c>
       <c r="G15" s="27" t="s">
@@ -2315,15 +2324,15 @@
       <c r="A16" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="46" t="s">
+      <c r="C16" s="56"/>
+      <c r="D16" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="73" t="s">
+      <c r="E16" s="39"/>
+      <c r="F16" s="28" t="s">
         <v>123</v>
       </c>
       <c r="G16" s="27" t="s">
@@ -2334,15 +2343,15 @@
       <c r="A17" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="46" t="s">
+      <c r="C17" s="56"/>
+      <c r="D17" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="73" t="s">
+      <c r="E17" s="55"/>
+      <c r="F17" s="28" t="s">
         <v>119</v>
       </c>
       <c r="G17" s="27" t="s">
@@ -2350,58 +2359,58 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="34" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="36"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="54">
+      <c r="B19" s="31"/>
+      <c r="C19" s="32">
         <v>43014</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="34" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34" t="s">
+      <c r="B21" s="37"/>
+      <c r="C21" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-    </row>
-    <row r="22" spans="1:7" ht="26.4" customHeight="1">
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.4" customHeight="1">
       <c r="A22" s="18"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -2410,7 +2419,7 @@
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
     </row>
-    <row r="23" spans="1:7" ht="36" customHeight="1">
+    <row r="23" spans="1:7" ht="10.8" customHeight="1">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -2419,7 +2428,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" ht="25.2" customHeight="1">
+    <row r="24" spans="1:7" ht="15.6" customHeight="1">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -2428,7 +2437,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7" ht="19.8" customHeight="1">
+    <row r="25" spans="1:7" ht="14.4" customHeight="1">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -2446,76 +2455,76 @@
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:7" ht="25.8" customHeight="1"/>
+    <row r="27" spans="1:7" ht="12" customHeight="1"/>
     <row r="28" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
     </row>
     <row r="29" spans="1:7" ht="15" thickTop="1">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="65" t="s">
+      <c r="B29" s="60"/>
+      <c r="C29" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="67"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="63"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="44"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="48" t="s">
+      <c r="B31" s="41"/>
+      <c r="C31" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="69"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="65"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="30"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="32"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="71"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="37" t="s">
+      <c r="C33" s="31"/>
+      <c r="D33" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="29"/>
+      <c r="E33" s="31"/>
       <c r="F33" s="21" t="s">
         <v>71</v>
       </c>
@@ -2527,14 +2536,14 @@
       <c r="A34" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="34" t="s">
+      <c r="C34" s="58"/>
+      <c r="D34" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="36"/>
+      <c r="E34" s="34"/>
       <c r="F34" s="20" t="s">
         <v>110</v>
       </c>
@@ -2546,14 +2555,14 @@
       <c r="A35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="46" t="s">
+      <c r="C35" s="58"/>
+      <c r="D35" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="E35" s="58"/>
+      <c r="E35" s="55"/>
       <c r="F35" s="20" t="s">
         <v>108</v>
       </c>
@@ -2565,14 +2574,14 @@
       <c r="A36" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="46" t="s">
+      <c r="C36" s="58"/>
+      <c r="D36" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="58"/>
+      <c r="E36" s="55"/>
       <c r="F36" s="20" t="s">
         <v>109</v>
       </c>
@@ -2584,14 +2593,14 @@
       <c r="A37" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="46" t="s">
+      <c r="C37" s="58"/>
+      <c r="D37" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="E37" s="58"/>
+      <c r="E37" s="55"/>
       <c r="F37" s="20" t="s">
         <v>107</v>
       </c>
@@ -2600,126 +2609,126 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="34" t="s">
+      <c r="B38" s="31"/>
+      <c r="C38" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="36"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="34"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="54">
+      <c r="B39" s="31"/>
+      <c r="C39" s="32">
         <v>43042</v>
       </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="36"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="34"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="34" t="s">
+      <c r="B40" s="37"/>
+      <c r="C40" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="36"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="34"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="34" t="s">
+      <c r="B41" s="37"/>
+      <c r="C41" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="36"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="34"/>
     </row>
     <row r="45" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A45" s="55" t="s">
+      <c r="A45" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
     </row>
     <row r="46" spans="1:7" ht="15" thickTop="1">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="40" t="s">
+      <c r="B46" s="41"/>
+      <c r="C46" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="42"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="54"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="39"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="45"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="44"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="48" t="s">
+      <c r="B48" s="41"/>
+      <c r="C48" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="50"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="47"/>
     </row>
     <row r="49" spans="1:7" ht="16.8" customHeight="1">
-      <c r="A49" s="51"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="53"/>
+      <c r="A49" s="48"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="50"/>
     </row>
     <row r="50" spans="1:7" ht="63" customHeight="1">
       <c r="A50" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="37" t="s">
+      <c r="B50" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="29"/>
-      <c r="D50" s="37" t="s">
+      <c r="C50" s="31"/>
+      <c r="D50" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="E50" s="29"/>
+      <c r="E50" s="31"/>
       <c r="F50" s="21" t="s">
         <v>71</v>
       </c>
@@ -2731,132 +2740,132 @@
       <c r="A51" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="46" t="s">
+      <c r="C51" s="39"/>
+      <c r="D51" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="E51" s="47"/>
+      <c r="E51" s="39"/>
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
     </row>
     <row r="52" spans="1:7" ht="27" customHeight="1">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="29"/>
-      <c r="C52" s="34" t="s">
+      <c r="B52" s="31"/>
+      <c r="C52" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="36"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="34"/>
     </row>
     <row r="53" spans="1:7" ht="34.799999999999997" customHeight="1">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="32"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="71"/>
     </row>
     <row r="54" spans="1:7" ht="25.2" customHeight="1">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="32"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="71"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="32"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="70"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="71"/>
     </row>
     <row r="58" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A58" s="55" t="s">
+      <c r="A58" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="55"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
     </row>
     <row r="59" spans="1:7" ht="15" thickTop="1">
-      <c r="A59" s="38" t="s">
+      <c r="A59" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="39"/>
-      <c r="C59" s="40" t="s">
+      <c r="B59" s="41"/>
+      <c r="C59" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="42"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="54"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="38" t="s">
+      <c r="A60" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="39"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
-      <c r="F60" s="44"/>
-      <c r="G60" s="45"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="44"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="38" t="s">
+      <c r="A61" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="39"/>
-      <c r="C61" s="48" t="s">
+      <c r="B61" s="41"/>
+      <c r="C61" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="50"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="47"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="51"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53"/>
+      <c r="A62" s="48"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="50"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B63" s="37" t="s">
+      <c r="B63" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="29"/>
-      <c r="D63" s="37" t="s">
+      <c r="C63" s="31"/>
+      <c r="D63" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="E63" s="29"/>
+      <c r="E63" s="31"/>
       <c r="F63" s="21" t="s">
         <v>71</v>
       </c>
@@ -2868,18 +2877,18 @@
       <c r="A64" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B64" s="46" t="s">
+      <c r="B64" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C64" s="47"/>
-      <c r="D64" s="46" t="s">
+      <c r="C64" s="39"/>
+      <c r="D64" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="E64" s="47"/>
-      <c r="F64" s="74" t="s">
+      <c r="E64" s="39"/>
+      <c r="F64" s="29" t="s">
         <v>125</v>
       </c>
-      <c r="G64" s="74" t="s">
+      <c r="G64" s="29" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2887,18 +2896,18 @@
       <c r="A65" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="46" t="s">
+      <c r="B65" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="C65" s="47"/>
-      <c r="D65" s="46" t="s">
+      <c r="C65" s="39"/>
+      <c r="D65" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="E65" s="47"/>
-      <c r="F65" s="74" t="s">
+      <c r="E65" s="39"/>
+      <c r="F65" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="G65" s="74" t="s">
+      <c r="G65" s="29" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2906,18 +2915,18 @@
       <c r="A66" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B66" s="46" t="s">
+      <c r="B66" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="46" t="s">
+      <c r="C66" s="39"/>
+      <c r="D66" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="E66" s="47"/>
-      <c r="F66" s="74" t="s">
+      <c r="E66" s="39"/>
+      <c r="F66" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="G66" s="74" t="s">
+      <c r="G66" s="29" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2925,18 +2934,18 @@
       <c r="A67" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="46" t="s">
+      <c r="B67" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="C67" s="47"/>
-      <c r="D67" s="46" t="s">
+      <c r="C67" s="39"/>
+      <c r="D67" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="E67" s="47"/>
-      <c r="F67" s="74" t="s">
+      <c r="E67" s="39"/>
+      <c r="F67" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="G67" s="74" t="s">
+      <c r="G67" s="29" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2944,95 +2953,393 @@
       <c r="A68" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B68" s="46" t="s">
+      <c r="B68" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="C68" s="47"/>
-      <c r="D68" s="46" t="s">
+      <c r="C68" s="39"/>
+      <c r="D68" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="E68" s="47"/>
-      <c r="F68" s="74" t="s">
+      <c r="E68" s="39"/>
+      <c r="F68" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="G68" s="74" t="s">
+      <c r="G68" s="29" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="28" t="s">
+      <c r="A69" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="29"/>
-      <c r="C69" s="34" t="s">
+      <c r="B69" s="31"/>
+      <c r="C69" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="36"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="34"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="37" t="s">
+      <c r="A70" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="29"/>
-      <c r="C70" s="54">
+      <c r="B70" s="31"/>
+      <c r="C70" s="32">
         <v>43014</v>
       </c>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="36"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="34"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="29"/>
-      <c r="C71" s="34" t="s">
+      <c r="B71" s="31"/>
+      <c r="C71" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="36"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="34"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="28" t="s">
+      <c r="A72" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="33"/>
-      <c r="C72" s="34" t="s">
+      <c r="B72" s="37"/>
+      <c r="C72" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="36"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="34"/>
+    </row>
+    <row r="76" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A76" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="B76" s="51"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="51"/>
+    </row>
+    <row r="77" spans="1:7" ht="15" thickTop="1">
+      <c r="A77" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" s="41"/>
+      <c r="C77" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D77" s="53"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="54"/>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="41"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="44"/>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B79" s="41"/>
+      <c r="C79" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="D79" s="46"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="47"/>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="48"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="49"/>
+      <c r="D80" s="49"/>
+      <c r="E80" s="49"/>
+      <c r="F80" s="49"/>
+      <c r="G80" s="50"/>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B81" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C81" s="31"/>
+      <c r="D81" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E81" s="31"/>
+      <c r="F81" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G81" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82" s="39"/>
+      <c r="D82" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E82" s="39"/>
+      <c r="F82" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="G82" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83" s="39"/>
+      <c r="D83" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E83" s="39"/>
+      <c r="F83" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="G83" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" s="39"/>
+      <c r="D84" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E84" s="39"/>
+      <c r="F84" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G84" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="28.8">
+      <c r="A85" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C85" s="39"/>
+      <c r="D85" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E85" s="39"/>
+      <c r="F85" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G85" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="28.8">
+      <c r="A86" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" s="39"/>
+      <c r="D86" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E86" s="39"/>
+      <c r="F86" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="G86" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B87" s="31"/>
+      <c r="C87" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="34"/>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B88" s="31"/>
+      <c r="C88" s="32">
+        <v>43014</v>
+      </c>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="34"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B89" s="31"/>
+      <c r="C89" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="34"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B90" s="37"/>
+      <c r="C90" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="111">
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
+  <mergeCells count="139">
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="C60:G60"/>
     <mergeCell ref="A61:B61"/>
@@ -3057,73 +3364,26 @@
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -3134,7 +3394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -3153,17 +3413,17 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:9" ht="18">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="74"/>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1">
       <c r="A5" s="2" t="s">
@@ -3283,17 +3543,17 @@
       <c r="I9" s="9"/>
     </row>
     <row r="13" spans="1:9" ht="18">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="72"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="74"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">

--- a/FYP documentation/FYP_Test_Plan.xlsx
+++ b/FYP documentation/FYP_Test_Plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="161">
   <si>
     <t>Expected Result</t>
   </si>
@@ -463,7 +463,82 @@
     <t>Test if file operation</t>
   </si>
   <si>
-    <t xml:space="preserve">Add area 1 and area 2. Area 2 should have file 1 and file 2 </t>
+    <t>The first device logout when we login to second device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1423hrs </t>
+  </si>
+  <si>
+    <t>Add area 1 and area 2. Area 2 should have file 1 and file 2 and Area 1 should be empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. navigate to area 2 click on file 1 option.
+2. choose are 1 and copy                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. navigate to area 2 click on file 1 option.
+2. choose are 1 and move </t>
+  </si>
+  <si>
+    <t>A copy of file 1 should be created in Area 1 and Area 2 has a copy.</t>
+  </si>
+  <si>
+    <t>A copy of file 1 is created in area 1 and Area 2 has a copy.</t>
+  </si>
+  <si>
+    <t>A copy of file 2 should be created in Area 1 . Area 2 should not have a copy.</t>
+  </si>
+  <si>
+    <t>A copy of file 2 should be created in Area 1 . Area 2 does not have a copy.</t>
+  </si>
+  <si>
+    <t>1. Delete all file from area 1</t>
+  </si>
+  <si>
+    <t>All files should be deleted</t>
+  </si>
+  <si>
+    <t>All files are delete</t>
+  </si>
+  <si>
+    <t>PDF Viewer</t>
+  </si>
+  <si>
+    <t>Test if file operation works as per requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navigate to the file and open it.                                       </t>
+  </si>
+  <si>
+    <t>The pdf file should open in the pdf viewer and all pages can be viewed.</t>
+  </si>
+  <si>
+    <t>The file open and all pages can be viewed</t>
+  </si>
+  <si>
+    <t>A area with 10 meter radius and a file.</t>
+  </si>
+  <si>
+    <t>1. Open the pdf document
+2.  Walk more than 10m from the point of creation</t>
+  </si>
+  <si>
+    <t>The pdf document should close</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the pdf document closes </t>
+  </si>
+  <si>
+    <t>1600 hrs</t>
+  </si>
+  <si>
+    <t>1. Switch screen off</t>
+  </si>
+  <si>
+    <t>The pdf viewer should close and logout</t>
+  </si>
+  <si>
+    <t>the pdf viewer close and logout</t>
   </si>
 </sst>
 </file>
@@ -860,27 +935,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -890,12 +965,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -923,17 +1010,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -941,11 +1031,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -967,24 +1060,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2060,35 +2135,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79:G79"/>
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.88671875" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="4" max="4" width="15.109375" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="41.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="38.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" customWidth="1"/>
     <col min="9" max="9" width="7.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="40.799999999999997" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="64"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
     </row>
@@ -2104,67 +2179,67 @@
       <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="31.2" customHeight="1" thickBot="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="54"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="48"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
       <c r="H6" s="17"/>
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="48"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
     </row>
@@ -2172,11 +2247,11 @@
       <c r="A8" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="35" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="31"/>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="35" t="s">
         <v>70</v>
       </c>
       <c r="E8" s="31"/>
@@ -2206,7 +2281,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="29.4" customHeight="1">
+    <row r="10" spans="1:9" ht="41.4" customHeight="1">
       <c r="A10" s="26" t="s">
         <v>6</v>
       </c>
@@ -2217,7 +2292,7 @@
       <c r="D10" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="E10" s="55"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="27" t="s">
         <v>119</v>
       </c>
@@ -2225,7 +2300,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="40.200000000000003" customHeight="1">
+    <row r="11" spans="1:9" ht="67.8" customHeight="1">
       <c r="A11" s="26" t="s">
         <v>7</v>
       </c>
@@ -2244,14 +2319,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="58.5" customHeight="1">
+    <row r="12" spans="1:9" ht="73.2" customHeight="1">
       <c r="A12" s="26" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="55"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="38" t="s">
         <v>87</v>
       </c>
@@ -2270,7 +2345,7 @@
       <c r="B13" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="55"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="38" t="s">
         <v>87</v>
       </c>
@@ -2286,14 +2361,14 @@
       <c r="A14" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="56"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="55"/>
+      <c r="E14" s="60"/>
       <c r="F14" s="28" t="s">
         <v>119</v>
       </c>
@@ -2301,14 +2376,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="45.45" customHeight="1">
+    <row r="15" spans="1:9" ht="92.4" customHeight="1">
       <c r="A15" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="56"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="38" t="s">
         <v>87</v>
       </c>
@@ -2320,14 +2395,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="45.45" customHeight="1">
+    <row r="16" spans="1:9" ht="84.6" customHeight="1">
       <c r="A16" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="56"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="38" t="s">
         <v>87</v>
       </c>
@@ -2339,18 +2414,18 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="45.45" customHeight="1">
+    <row r="17" spans="1:7" ht="94.8" customHeight="1">
       <c r="A17" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="56"/>
+      <c r="C17" s="61"/>
       <c r="D17" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="55"/>
+      <c r="E17" s="60"/>
       <c r="F17" s="28" t="s">
         <v>119</v>
       </c>
@@ -2359,11 +2434,11 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="35" t="s">
         <v>74</v>
       </c>
       <c r="B18" s="31"/>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="32" t="s">
         <v>112</v>
       </c>
       <c r="D18" s="33"/>
@@ -2372,11 +2447,11 @@
       <c r="G18" s="34"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="35" t="s">
         <v>75</v>
       </c>
       <c r="B19" s="31"/>
-      <c r="C19" s="32">
+      <c r="C19" s="36">
         <v>43014</v>
       </c>
       <c r="D19" s="33"/>
@@ -2385,11 +2460,11 @@
       <c r="G19" s="34"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="30" t="s">
         <v>76</v>
       </c>
       <c r="B20" s="31"/>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="32" t="s">
         <v>124</v>
       </c>
       <c r="D20" s="33"/>
@@ -2398,11 +2473,11 @@
       <c r="G20" s="34"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="30" t="s">
         <v>73</v>
       </c>
       <c r="B21" s="37"/>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="32" t="s">
         <v>106</v>
       </c>
       <c r="D21" s="33"/>
@@ -2457,71 +2532,71 @@
     </row>
     <row r="27" spans="1:7" ht="12" customHeight="1"/>
     <row r="28" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
     </row>
     <row r="29" spans="1:7" ht="15" thickTop="1">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="61" t="s">
+      <c r="B29" s="66"/>
+      <c r="C29" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="69"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="44"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="48"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="45" t="s">
+      <c r="B31" s="42"/>
+      <c r="C31" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="65"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="71"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="69"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="71"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="57"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="35" t="s">
         <v>69</v>
       </c>
       <c r="C33" s="31"/>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="35" t="s">
         <v>70</v>
       </c>
       <c r="E33" s="31"/>
@@ -2536,11 +2611,11 @@
       <c r="A34" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="58"/>
-      <c r="D34" s="36" t="s">
+      <c r="C34" s="59"/>
+      <c r="D34" s="32" t="s">
         <v>72</v>
       </c>
       <c r="E34" s="34"/>
@@ -2555,14 +2630,14 @@
       <c r="A35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="58"/>
+      <c r="C35" s="59"/>
       <c r="D35" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="E35" s="55"/>
+      <c r="E35" s="60"/>
       <c r="F35" s="20" t="s">
         <v>108</v>
       </c>
@@ -2574,14 +2649,14 @@
       <c r="A36" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="58"/>
+      <c r="C36" s="59"/>
       <c r="D36" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="55"/>
+      <c r="E36" s="60"/>
       <c r="F36" s="20" t="s">
         <v>109</v>
       </c>
@@ -2593,14 +2668,14 @@
       <c r="A37" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="58"/>
+      <c r="C37" s="59"/>
       <c r="D37" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="E37" s="55"/>
+      <c r="E37" s="60"/>
       <c r="F37" s="20" t="s">
         <v>107</v>
       </c>
@@ -2609,11 +2684,11 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="35" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="31"/>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="32" t="s">
         <v>112</v>
       </c>
       <c r="D38" s="33"/>
@@ -2622,11 +2697,11 @@
       <c r="G38" s="34"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="35" t="s">
         <v>75</v>
       </c>
       <c r="B39" s="31"/>
-      <c r="C39" s="32">
+      <c r="C39" s="36">
         <v>43042</v>
       </c>
       <c r="D39" s="33"/>
@@ -2635,11 +2710,11 @@
       <c r="G39" s="34"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="30" t="s">
         <v>76</v>
       </c>
       <c r="B40" s="37"/>
-      <c r="C40" s="36" t="s">
+      <c r="C40" s="32" t="s">
         <v>113</v>
       </c>
       <c r="D40" s="33"/>
@@ -2648,11 +2723,11 @@
       <c r="G40" s="34"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="30" t="s">
         <v>73</v>
       </c>
       <c r="B41" s="37"/>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="32" t="s">
         <v>106</v>
       </c>
       <c r="D41" s="33"/>
@@ -2661,71 +2736,71 @@
       <c r="G41" s="34"/>
     </row>
     <row r="45" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
     </row>
     <row r="46" spans="1:7" ht="15" thickTop="1">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="52" t="s">
+      <c r="B46" s="42"/>
+      <c r="C46" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="54"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="45"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="44"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="48"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="40" t="s">
+      <c r="A48" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="45" t="s">
+      <c r="B48" s="42"/>
+      <c r="C48" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="47"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="51"/>
     </row>
     <row r="49" spans="1:7" ht="16.8" customHeight="1">
-      <c r="A49" s="48"/>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="50"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="54"/>
     </row>
     <row r="50" spans="1:7" ht="63" customHeight="1">
       <c r="A50" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="35" t="s">
         <v>69</v>
       </c>
       <c r="C50" s="31"/>
-      <c r="D50" s="30" t="s">
+      <c r="D50" s="35" t="s">
         <v>70</v>
       </c>
       <c r="E50" s="31"/>
@@ -2736,7 +2811,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="54" customHeight="1">
+    <row r="51" spans="1:7" ht="74.400000000000006" customHeight="1">
       <c r="A51" s="26" t="s">
         <v>5</v>
       </c>
@@ -2748,15 +2823,19 @@
         <v>98</v>
       </c>
       <c r="E51" s="39"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
+      <c r="F51" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="G51" s="27" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="52" spans="1:7" ht="27" customHeight="1">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="30" t="s">
         <v>74</v>
       </c>
       <c r="B52" s="31"/>
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="32" t="s">
         <v>112</v>
       </c>
       <c r="D52" s="33"/>
@@ -2764,105 +2843,111 @@
       <c r="F52" s="33"/>
       <c r="G52" s="34"/>
     </row>
-    <row r="53" spans="1:7" ht="34.799999999999997" customHeight="1">
-      <c r="A53" s="30" t="s">
+    <row r="53" spans="1:7" ht="22.8" customHeight="1">
+      <c r="A53" s="35" t="s">
         <v>75</v>
       </c>
       <c r="B53" s="31"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="71"/>
-    </row>
-    <row r="54" spans="1:7" ht="25.2" customHeight="1">
-      <c r="A54" s="35" t="s">
+      <c r="C53" s="36">
+        <v>43046</v>
+      </c>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="34"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.6" customHeight="1">
+      <c r="A54" s="30" t="s">
         <v>76</v>
       </c>
       <c r="B54" s="31"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="71"/>
+      <c r="C54" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="34"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="30" t="s">
         <v>73</v>
       </c>
       <c r="B55" s="37"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="71"/>
+      <c r="C55" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="34"/>
     </row>
     <row r="58" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A58" s="51" t="s">
+      <c r="A58" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
     </row>
     <row r="59" spans="1:7" ht="15" thickTop="1">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="41"/>
-      <c r="C59" s="52" t="s">
+      <c r="B59" s="42"/>
+      <c r="C59" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="54"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="45"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="40" t="s">
+      <c r="A60" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="41"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="44"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="48"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="40" t="s">
+      <c r="A61" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="41"/>
-      <c r="C61" s="45" t="s">
+      <c r="B61" s="42"/>
+      <c r="C61" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="D61" s="46"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="47"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="51"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="48"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="50"/>
+      <c r="A62" s="52"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="54"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="35" t="s">
         <v>69</v>
       </c>
       <c r="C63" s="31"/>
-      <c r="D63" s="30" t="s">
+      <c r="D63" s="35" t="s">
         <v>70</v>
       </c>
       <c r="E63" s="31"/>
@@ -2969,11 +3054,11 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="35" t="s">
+      <c r="A69" s="30" t="s">
         <v>74</v>
       </c>
       <c r="B69" s="31"/>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="32" t="s">
         <v>112</v>
       </c>
       <c r="D69" s="33"/>
@@ -2982,12 +3067,12 @@
       <c r="G69" s="34"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="30" t="s">
+      <c r="A70" s="35" t="s">
         <v>75</v>
       </c>
       <c r="B70" s="31"/>
-      <c r="C70" s="32">
-        <v>43014</v>
+      <c r="C70" s="36">
+        <v>43045</v>
       </c>
       <c r="D70" s="33"/>
       <c r="E70" s="33"/>
@@ -2995,11 +3080,11 @@
       <c r="G70" s="34"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="35" t="s">
+      <c r="A71" s="30" t="s">
         <v>76</v>
       </c>
       <c r="B71" s="31"/>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="32" t="s">
         <v>133</v>
       </c>
       <c r="D71" s="33"/>
@@ -3008,11 +3093,11 @@
       <c r="G71" s="34"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="35" t="s">
+      <c r="A72" s="30" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="37"/>
-      <c r="C72" s="36" t="s">
+      <c r="C72" s="32" t="s">
         <v>106</v>
       </c>
       <c r="D72" s="33"/>
@@ -3021,71 +3106,71 @@
       <c r="G72" s="34"/>
     </row>
     <row r="76" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A76" s="51" t="s">
+      <c r="A76" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="B76" s="51"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="51"/>
-      <c r="G76" s="51"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="40"/>
+      <c r="G76" s="40"/>
     </row>
     <row r="77" spans="1:7" ht="15" thickTop="1">
-      <c r="A77" s="40" t="s">
+      <c r="A77" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B77" s="41"/>
-      <c r="C77" s="52" t="s">
-        <v>135</v>
-      </c>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="54"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="45"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="40" t="s">
+      <c r="A78" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="B78" s="41"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="44"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="47"/>
+      <c r="E78" s="47"/>
+      <c r="F78" s="47"/>
+      <c r="G78" s="48"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="40" t="s">
+      <c r="A79" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B79" s="41"/>
-      <c r="C79" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="D79" s="46"/>
-      <c r="E79" s="46"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="47"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D79" s="50"/>
+      <c r="E79" s="50"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="51"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="48"/>
-      <c r="B80" s="49"/>
-      <c r="C80" s="49"/>
-      <c r="D80" s="49"/>
-      <c r="E80" s="49"/>
-      <c r="F80" s="49"/>
-      <c r="G80" s="50"/>
+      <c r="A80" s="52"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="53"/>
+      <c r="E80" s="53"/>
+      <c r="F80" s="53"/>
+      <c r="G80" s="54"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B81" s="30" t="s">
+      <c r="B81" s="35" t="s">
         <v>69</v>
       </c>
       <c r="C81" s="31"/>
-      <c r="D81" s="30" t="s">
+      <c r="D81" s="35" t="s">
         <v>70</v>
       </c>
       <c r="E81" s="31"/>
@@ -3096,108 +3181,96 @@
         <v>73</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" ht="53.4" customHeight="1">
       <c r="A82" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B82" s="38" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="C82" s="39"/>
       <c r="D82" s="38" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="E82" s="39"/>
       <c r="F82" s="29" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="G82" s="29" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" ht="49.2" customHeight="1">
       <c r="A83" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B83" s="38" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="C83" s="39"/>
       <c r="D83" s="38" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="E83" s="39"/>
       <c r="F83" s="29" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="G83" s="29" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" ht="49.2" customHeight="1">
       <c r="A84" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B84" s="38" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="C84" s="39"/>
       <c r="D84" s="38" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="E84" s="39"/>
       <c r="F84" s="29" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="G84" s="29" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="28.8">
-      <c r="A85" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B85" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="C85" s="39"/>
-      <c r="D85" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="E85" s="39"/>
-      <c r="F85" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="G85" s="29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="28.8">
-      <c r="A86" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B86" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="C86" s="39"/>
-      <c r="D86" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="E86" s="39"/>
-      <c r="F86" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="G86" s="29" t="s">
-        <v>106</v>
-      </c>
+    <row r="85" spans="1:7">
+      <c r="A85" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B85" s="31"/>
+      <c r="C85" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="34"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B86" s="31"/>
+      <c r="C86" s="36">
+        <v>43046</v>
+      </c>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="34"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="35" t="s">
-        <v>74</v>
+      <c r="A87" s="30" t="s">
+        <v>76</v>
       </c>
       <c r="B87" s="31"/>
-      <c r="C87" s="36" t="s">
-        <v>112</v>
+      <c r="C87" s="32" t="s">
+        <v>133</v>
       </c>
       <c r="D87" s="33"/>
       <c r="E87" s="33"/>
@@ -3206,140 +3279,248 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B88" s="31"/>
-      <c r="C88" s="32">
-        <v>43014</v>
+        <v>73</v>
+      </c>
+      <c r="B88" s="37"/>
+      <c r="C88" s="32" t="s">
+        <v>106</v>
       </c>
       <c r="D88" s="33"/>
       <c r="E88" s="33"/>
       <c r="F88" s="33"/>
       <c r="G88" s="34"/>
     </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="35" t="s">
+    <row r="92" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A92" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="B92" s="40"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="40"/>
+    </row>
+    <row r="93" spans="1:7" ht="15" thickTop="1">
+      <c r="A93" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B93" s="42"/>
+      <c r="C93" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D93" s="44"/>
+      <c r="E93" s="44"/>
+      <c r="F93" s="44"/>
+      <c r="G93" s="45"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B94" s="42"/>
+      <c r="C94" s="46"/>
+      <c r="D94" s="47"/>
+      <c r="E94" s="47"/>
+      <c r="F94" s="47"/>
+      <c r="G94" s="48"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B95" s="42"/>
+      <c r="C95" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="D95" s="50"/>
+      <c r="E95" s="50"/>
+      <c r="F95" s="50"/>
+      <c r="G95" s="51"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="52"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="53"/>
+      <c r="D96" s="53"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="53"/>
+      <c r="G96" s="54"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B97" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C97" s="31"/>
+      <c r="D97" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E97" s="31"/>
+      <c r="F97" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G97" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="53.4" customHeight="1">
+      <c r="A98" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="C98" s="39"/>
+      <c r="D98" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E98" s="39"/>
+      <c r="F98" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="G98" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="54" customHeight="1">
+      <c r="A99" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="C99" s="39"/>
+      <c r="D99" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="E99" s="39"/>
+      <c r="F99" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="G99" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="40.799999999999997" customHeight="1">
+      <c r="A100" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="C100" s="39"/>
+      <c r="D100" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="E100" s="39"/>
+      <c r="F100" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="G100" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B101" s="31"/>
+      <c r="C101" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="33"/>
+      <c r="G101" s="34"/>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B102" s="31"/>
+      <c r="C102" s="36">
+        <v>43046</v>
+      </c>
+      <c r="D102" s="33"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="33"/>
+      <c r="G102" s="34"/>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="B89" s="31"/>
-      <c r="C89" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="34"/>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="35" t="s">
+      <c r="B103" s="31"/>
+      <c r="C103" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D103" s="33"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="33"/>
+      <c r="G103" s="34"/>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B90" s="37"/>
-      <c r="C90" s="36" t="s">
+      <c r="B104" s="37"/>
+      <c r="C104" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="34"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="33"/>
+      <c r="F104" s="33"/>
+      <c r="G104" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="139">
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="A80:G80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D13:E13"/>
+  <mergeCells count="159">
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="A92:G92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="A96:G96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="C60:G60"/>
     <mergeCell ref="A61:B61"/>
@@ -3364,26 +3545,97 @@
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/FYP documentation/FYP_Test_Plan.xlsx
+++ b/FYP documentation/FYP_Test_Plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="165">
   <si>
     <t>Expected Result</t>
   </si>
@@ -539,6 +539,18 @@
   </si>
   <si>
     <t>the pdf viewer close and logout</t>
+  </si>
+  <si>
+    <t>Cloud storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Import files larger than 1GB                                     </t>
+  </si>
+  <si>
+    <t>The application should stop uploading files larger than 1 GB or if total space used is greater than 1GB</t>
+  </si>
+  <si>
+    <t>2. Check S3 if the importad files are binging added to cloud</t>
   </si>
 </sst>
 </file>
@@ -950,21 +962,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1010,6 +1022,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1018,48 +1072,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2135,10 +2147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2155,15 +2167,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="40.799999999999997" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
     </row>
@@ -2247,11 +2259,11 @@
       <c r="A8" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="38" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="31"/>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="38" t="s">
         <v>70</v>
       </c>
       <c r="E8" s="31"/>
@@ -2266,14 +2278,14 @@
       <c r="A9" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="38" t="s">
+      <c r="C9" s="37"/>
+      <c r="D9" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="39"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="27" t="s">
         <v>90</v>
       </c>
@@ -2285,14 +2297,14 @@
       <c r="A10" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="38" t="s">
+      <c r="C10" s="37"/>
+      <c r="D10" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="E10" s="60"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="27" t="s">
         <v>119</v>
       </c>
@@ -2304,14 +2316,14 @@
       <c r="A11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="38" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="39"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="27" t="s">
         <v>123</v>
       </c>
@@ -2323,14 +2335,14 @@
       <c r="A12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="38" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="39"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="27" t="s">
         <v>123</v>
       </c>
@@ -2342,14 +2354,14 @@
       <c r="A13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="38" t="s">
+      <c r="C13" s="55"/>
+      <c r="D13" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="39"/>
+      <c r="E13" s="37"/>
       <c r="F13" s="27" t="s">
         <v>123</v>
       </c>
@@ -2361,14 +2373,14 @@
       <c r="A14" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="38" t="s">
+      <c r="C14" s="56"/>
+      <c r="D14" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="60"/>
+      <c r="E14" s="55"/>
       <c r="F14" s="28" t="s">
         <v>119</v>
       </c>
@@ -2380,14 +2392,14 @@
       <c r="A15" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="38" t="s">
+      <c r="C15" s="56"/>
+      <c r="D15" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="39"/>
+      <c r="E15" s="37"/>
       <c r="F15" s="28" t="s">
         <v>123</v>
       </c>
@@ -2399,14 +2411,14 @@
       <c r="A16" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="38" t="s">
+      <c r="C16" s="56"/>
+      <c r="D16" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="39"/>
+      <c r="E16" s="37"/>
       <c r="F16" s="28" t="s">
         <v>123</v>
       </c>
@@ -2418,14 +2430,14 @@
       <c r="A17" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="38" t="s">
+      <c r="C17" s="56"/>
+      <c r="D17" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="60"/>
+      <c r="E17" s="55"/>
       <c r="F17" s="28" t="s">
         <v>119</v>
       </c>
@@ -2434,7 +2446,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="38" t="s">
         <v>74</v>
       </c>
       <c r="B18" s="31"/>
@@ -2447,11 +2459,11 @@
       <c r="G18" s="34"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="38" t="s">
         <v>75</v>
       </c>
       <c r="B19" s="31"/>
-      <c r="C19" s="36">
+      <c r="C19" s="39">
         <v>43014</v>
       </c>
       <c r="D19" s="33"/>
@@ -2476,7 +2488,7 @@
       <c r="A21" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="37"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="32" t="s">
         <v>106</v>
       </c>
@@ -2543,17 +2555,17 @@
       <c r="G28" s="40"/>
     </row>
     <row r="29" spans="1:7" ht="15" thickTop="1">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="67" t="s">
+      <c r="B29" s="60"/>
+      <c r="C29" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="69"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="63"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="41" t="s">
@@ -2574,29 +2586,29 @@
       <c r="C31" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="71"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="65"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="55"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="57"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="71"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="38" t="s">
         <v>69</v>
       </c>
       <c r="C33" s="31"/>
-      <c r="D33" s="35" t="s">
+      <c r="D33" s="38" t="s">
         <v>70</v>
       </c>
       <c r="E33" s="31"/>
@@ -2611,10 +2623,10 @@
       <c r="A34" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="59"/>
+      <c r="C34" s="58"/>
       <c r="D34" s="32" t="s">
         <v>72</v>
       </c>
@@ -2630,14 +2642,14 @@
       <c r="A35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="38" t="s">
+      <c r="C35" s="58"/>
+      <c r="D35" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="E35" s="60"/>
+      <c r="E35" s="55"/>
       <c r="F35" s="20" t="s">
         <v>108</v>
       </c>
@@ -2649,14 +2661,14 @@
       <c r="A36" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="38" t="s">
+      <c r="C36" s="58"/>
+      <c r="D36" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="60"/>
+      <c r="E36" s="55"/>
       <c r="F36" s="20" t="s">
         <v>109</v>
       </c>
@@ -2668,14 +2680,14 @@
       <c r="A37" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="38" t="s">
+      <c r="C37" s="58"/>
+      <c r="D37" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="E37" s="60"/>
+      <c r="E37" s="55"/>
       <c r="F37" s="20" t="s">
         <v>107</v>
       </c>
@@ -2684,7 +2696,7 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="38" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="31"/>
@@ -2697,11 +2709,11 @@
       <c r="G38" s="34"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="38" t="s">
         <v>75</v>
       </c>
       <c r="B39" s="31"/>
-      <c r="C39" s="36">
+      <c r="C39" s="39">
         <v>43042</v>
       </c>
       <c r="D39" s="33"/>
@@ -2713,7 +2725,7 @@
       <c r="A40" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="37"/>
+      <c r="B40" s="35"/>
       <c r="C40" s="32" t="s">
         <v>113</v>
       </c>
@@ -2726,7 +2738,7 @@
       <c r="A41" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="37"/>
+      <c r="B41" s="35"/>
       <c r="C41" s="32" t="s">
         <v>106</v>
       </c>
@@ -2796,11 +2808,11 @@
       <c r="A50" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="38" t="s">
         <v>69</v>
       </c>
       <c r="C50" s="31"/>
-      <c r="D50" s="35" t="s">
+      <c r="D50" s="38" t="s">
         <v>70</v>
       </c>
       <c r="E50" s="31"/>
@@ -2815,14 +2827,14 @@
       <c r="A51" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="39"/>
-      <c r="D51" s="38" t="s">
+      <c r="C51" s="37"/>
+      <c r="D51" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="E51" s="39"/>
+      <c r="E51" s="37"/>
       <c r="F51" s="29" t="s">
         <v>136</v>
       </c>
@@ -2844,11 +2856,11 @@
       <c r="G52" s="34"/>
     </row>
     <row r="53" spans="1:7" ht="22.8" customHeight="1">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="38" t="s">
         <v>75</v>
       </c>
       <c r="B53" s="31"/>
-      <c r="C53" s="36">
+      <c r="C53" s="39">
         <v>43046</v>
       </c>
       <c r="D53" s="33"/>
@@ -2873,7 +2885,7 @@
       <c r="A55" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B55" s="37"/>
+      <c r="B55" s="35"/>
       <c r="C55" s="32" t="s">
         <v>106</v>
       </c>
@@ -2943,11 +2955,11 @@
       <c r="A63" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B63" s="35" t="s">
+      <c r="B63" s="38" t="s">
         <v>69</v>
       </c>
       <c r="C63" s="31"/>
-      <c r="D63" s="35" t="s">
+      <c r="D63" s="38" t="s">
         <v>70</v>
       </c>
       <c r="E63" s="31"/>
@@ -2962,14 +2974,14 @@
       <c r="A64" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B64" s="38" t="s">
+      <c r="B64" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="C64" s="39"/>
-      <c r="D64" s="38" t="s">
+      <c r="C64" s="37"/>
+      <c r="D64" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="E64" s="39"/>
+      <c r="E64" s="37"/>
       <c r="F64" s="29" t="s">
         <v>125</v>
       </c>
@@ -2981,14 +2993,14 @@
       <c r="A65" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="38" t="s">
+      <c r="B65" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="C65" s="39"/>
-      <c r="D65" s="38" t="s">
+      <c r="C65" s="37"/>
+      <c r="D65" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="E65" s="39"/>
+      <c r="E65" s="37"/>
       <c r="F65" s="29" t="s">
         <v>126</v>
       </c>
@@ -3000,14 +3012,14 @@
       <c r="A66" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B66" s="38" t="s">
+      <c r="B66" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="C66" s="39"/>
-      <c r="D66" s="38" t="s">
+      <c r="C66" s="37"/>
+      <c r="D66" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="E66" s="39"/>
+      <c r="E66" s="37"/>
       <c r="F66" s="29" t="s">
         <v>127</v>
       </c>
@@ -3019,14 +3031,14 @@
       <c r="A67" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="38" t="s">
+      <c r="B67" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="C67" s="39"/>
-      <c r="D67" s="38" t="s">
+      <c r="C67" s="37"/>
+      <c r="D67" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="E67" s="39"/>
+      <c r="E67" s="37"/>
       <c r="F67" s="29" t="s">
         <v>128</v>
       </c>
@@ -3038,14 +3050,14 @@
       <c r="A68" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B68" s="38" t="s">
+      <c r="B68" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="C68" s="39"/>
-      <c r="D68" s="38" t="s">
+      <c r="C68" s="37"/>
+      <c r="D68" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="E68" s="39"/>
+      <c r="E68" s="37"/>
       <c r="F68" s="29" t="s">
         <v>132</v>
       </c>
@@ -3067,11 +3079,11 @@
       <c r="G69" s="34"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="35" t="s">
+      <c r="A70" s="38" t="s">
         <v>75</v>
       </c>
       <c r="B70" s="31"/>
-      <c r="C70" s="36">
+      <c r="C70" s="39">
         <v>43045</v>
       </c>
       <c r="D70" s="33"/>
@@ -3096,7 +3108,7 @@
       <c r="A72" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="37"/>
+      <c r="B72" s="35"/>
       <c r="C72" s="32" t="s">
         <v>106</v>
       </c>
@@ -3166,11 +3178,11 @@
       <c r="A81" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B81" s="35" t="s">
+      <c r="B81" s="38" t="s">
         <v>69</v>
       </c>
       <c r="C81" s="31"/>
-      <c r="D81" s="35" t="s">
+      <c r="D81" s="38" t="s">
         <v>70</v>
       </c>
       <c r="E81" s="31"/>
@@ -3185,14 +3197,14 @@
       <c r="A82" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B82" s="38" t="s">
+      <c r="B82" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="C82" s="39"/>
-      <c r="D82" s="38" t="s">
+      <c r="C82" s="37"/>
+      <c r="D82" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="E82" s="39"/>
+      <c r="E82" s="37"/>
       <c r="F82" s="29" t="s">
         <v>142</v>
       </c>
@@ -3204,14 +3216,14 @@
       <c r="A83" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B83" s="38" t="s">
+      <c r="B83" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="C83" s="39"/>
-      <c r="D83" s="38" t="s">
+      <c r="C83" s="37"/>
+      <c r="D83" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="E83" s="39"/>
+      <c r="E83" s="37"/>
       <c r="F83" s="29" t="s">
         <v>144</v>
       </c>
@@ -3223,14 +3235,14 @@
       <c r="A84" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B84" s="38" t="s">
+      <c r="B84" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="C84" s="39"/>
-      <c r="D84" s="38" t="s">
+      <c r="C84" s="37"/>
+      <c r="D84" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="E84" s="39"/>
+      <c r="E84" s="37"/>
       <c r="F84" s="29" t="s">
         <v>147</v>
       </c>
@@ -3252,11 +3264,11 @@
       <c r="G85" s="34"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="35" t="s">
+      <c r="A86" s="38" t="s">
         <v>75</v>
       </c>
       <c r="B86" s="31"/>
-      <c r="C86" s="36">
+      <c r="C86" s="39">
         <v>43046</v>
       </c>
       <c r="D86" s="33"/>
@@ -3281,7 +3293,7 @@
       <c r="A88" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B88" s="37"/>
+      <c r="B88" s="35"/>
       <c r="C88" s="32" t="s">
         <v>106</v>
       </c>
@@ -3351,11 +3363,11 @@
       <c r="A97" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B97" s="35" t="s">
+      <c r="B97" s="38" t="s">
         <v>69</v>
       </c>
       <c r="C97" s="31"/>
-      <c r="D97" s="35" t="s">
+      <c r="D97" s="38" t="s">
         <v>70</v>
       </c>
       <c r="E97" s="31"/>
@@ -3370,14 +3382,14 @@
       <c r="A98" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B98" s="38" t="s">
+      <c r="B98" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="C98" s="39"/>
-      <c r="D98" s="38" t="s">
+      <c r="C98" s="37"/>
+      <c r="D98" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="E98" s="39"/>
+      <c r="E98" s="37"/>
       <c r="F98" s="29" t="s">
         <v>152</v>
       </c>
@@ -3389,14 +3401,14 @@
       <c r="A99" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B99" s="38" t="s">
+      <c r="B99" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="C99" s="39"/>
-      <c r="D99" s="38" t="s">
+      <c r="C99" s="37"/>
+      <c r="D99" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="E99" s="39"/>
+      <c r="E99" s="37"/>
       <c r="F99" s="29" t="s">
         <v>156</v>
       </c>
@@ -3408,14 +3420,14 @@
       <c r="A100" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B100" s="38" t="s">
+      <c r="B100" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="C100" s="39"/>
-      <c r="D100" s="38" t="s">
+      <c r="C100" s="37"/>
+      <c r="D100" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="E100" s="39"/>
+      <c r="E100" s="37"/>
       <c r="F100" s="29" t="s">
         <v>160</v>
       </c>
@@ -3437,11 +3449,11 @@
       <c r="G101" s="34"/>
     </row>
     <row r="102" spans="1:7">
-      <c r="A102" s="35" t="s">
+      <c r="A102" s="38" t="s">
         <v>75</v>
       </c>
       <c r="B102" s="31"/>
-      <c r="C102" s="36">
+      <c r="C102" s="39">
         <v>43046</v>
       </c>
       <c r="D102" s="33"/>
@@ -3466,7 +3478,7 @@
       <c r="A104" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B104" s="37"/>
+      <c r="B104" s="35"/>
       <c r="C104" s="32" t="s">
         <v>106</v>
       </c>
@@ -3475,52 +3487,306 @@
       <c r="F104" s="33"/>
       <c r="G104" s="34"/>
     </row>
+    <row r="109" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A109" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="B109" s="40"/>
+      <c r="C109" s="40"/>
+      <c r="D109" s="40"/>
+      <c r="E109" s="40"/>
+      <c r="F109" s="40"/>
+      <c r="G109" s="40"/>
+    </row>
+    <row r="110" spans="1:7" ht="15" thickTop="1">
+      <c r="A110" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B110" s="42"/>
+      <c r="C110" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D110" s="44"/>
+      <c r="E110" s="44"/>
+      <c r="F110" s="44"/>
+      <c r="G110" s="45"/>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B111" s="42"/>
+      <c r="C111" s="46"/>
+      <c r="D111" s="47"/>
+      <c r="E111" s="47"/>
+      <c r="F111" s="47"/>
+      <c r="G111" s="48"/>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B112" s="42"/>
+      <c r="C112" s="49"/>
+      <c r="D112" s="50"/>
+      <c r="E112" s="50"/>
+      <c r="F112" s="50"/>
+      <c r="G112" s="51"/>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="52"/>
+      <c r="B113" s="53"/>
+      <c r="C113" s="53"/>
+      <c r="D113" s="53"/>
+      <c r="E113" s="53"/>
+      <c r="F113" s="53"/>
+      <c r="G113" s="54"/>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B114" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C114" s="31"/>
+      <c r="D114" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E114" s="31"/>
+      <c r="F114" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G114" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="61.2" customHeight="1">
+      <c r="A115" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C115" s="37"/>
+      <c r="D115" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E115" s="37"/>
+      <c r="F115" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="G115" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="34.799999999999997" customHeight="1">
+      <c r="A116" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C116" s="37"/>
+      <c r="D116" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="E116" s="37"/>
+      <c r="F116" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="G116" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C117" s="37"/>
+      <c r="D117" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="E117" s="37"/>
+      <c r="F117" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="G117" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B118" s="31"/>
+      <c r="C118" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D118" s="33"/>
+      <c r="E118" s="33"/>
+      <c r="F118" s="33"/>
+      <c r="G118" s="34"/>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B119" s="31"/>
+      <c r="C119" s="39">
+        <v>43046</v>
+      </c>
+      <c r="D119" s="33"/>
+      <c r="E119" s="33"/>
+      <c r="F119" s="33"/>
+      <c r="G119" s="34"/>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B120" s="31"/>
+      <c r="C120" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
+      <c r="F120" s="33"/>
+      <c r="G120" s="34"/>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B121" s="35"/>
+      <c r="C121" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D121" s="33"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="33"/>
+      <c r="G121" s="34"/>
+    </row>
   </sheetData>
-  <mergeCells count="159">
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:G103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:G104"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="A92:G92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="A96:G96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
+  <mergeCells count="183">
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="A109:G109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="A80:G80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="C60:G60"/>
     <mergeCell ref="A61:B61"/>
@@ -3545,97 +3811,50 @@
     <mergeCell ref="C30:G30"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="A80:G80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A92:G92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="A96:G96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/FYP documentation/FYP_Test_Plan.xlsx
+++ b/FYP documentation/FYP_Test_Plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="226">
   <si>
     <t>Expected Result</t>
   </si>
@@ -239,9 +239,6 @@
     <t>Test Plan</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
     <t>Objective</t>
   </si>
   <si>
@@ -294,9 +291,6 @@
     <t>Login fail</t>
   </si>
   <si>
-    <t>Sign up</t>
-  </si>
-  <si>
     <t>Test plan for Signup</t>
   </si>
   <si>
@@ -350,16 +344,10 @@
     <t>The first device should log out</t>
   </si>
   <si>
-    <t>Instance ID Verification</t>
-  </si>
-  <si>
     <t>1. Login to first device.               2. Login to second device</t>
   </si>
   <si>
     <t>The user should have previously signed up</t>
-  </si>
-  <si>
-    <t>Home page</t>
   </si>
   <si>
     <t>Test if home page is functional</t>
@@ -457,9 +445,6 @@
     <t>1439 hrs</t>
   </si>
   <si>
-    <t>File operation</t>
-  </si>
-  <si>
     <t>Test if file operation</t>
   </si>
   <si>
@@ -501,9 +486,6 @@
     <t>All files are delete</t>
   </si>
   <si>
-    <t>PDF Viewer</t>
-  </si>
-  <si>
     <t>Test if file operation works as per requirement</t>
   </si>
   <si>
@@ -541,16 +523,225 @@
     <t>the pdf viewer close and logout</t>
   </si>
   <si>
-    <t>Cloud storage</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Import files larger than 1GB                                     </t>
   </si>
   <si>
     <t>The application should stop uploading files larger than 1 GB or if total space used is greater than 1GB</t>
   </si>
   <si>
-    <t>2. Check S3 if the importad files are binging added to cloud</t>
+    <t xml:space="preserve"> A error message is printed and upload fail</t>
+  </si>
+  <si>
+    <t>The afile is uploaded to S3</t>
+  </si>
+  <si>
+    <t>The file is visible in S3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter password 4 times  </t>
+  </si>
+  <si>
+    <t>A delay timee of 10 second should starts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. After timer stops in previous test case and enter another invalid password.
+2. Close the app while the timer is running.
+3. Open the app 
+</t>
+  </si>
+  <si>
+    <t>The timer should run for 20 sec and on reopening the app the timer should continue from where it left off.</t>
+  </si>
+  <si>
+    <t>The delay run for 20 sec and on reopening it continue form the 12 sec (where it left off).</t>
+  </si>
+  <si>
+    <t>1730 hrs</t>
+  </si>
+  <si>
+    <t>The user should have logged in to the system</t>
+  </si>
+  <si>
+    <t>1. Sign up</t>
+  </si>
+  <si>
+    <t>TC1-001</t>
+  </si>
+  <si>
+    <t>TC2-002</t>
+  </si>
+  <si>
+    <t>TC1-002</t>
+  </si>
+  <si>
+    <t>TC1-003</t>
+  </si>
+  <si>
+    <t>TC1-004</t>
+  </si>
+  <si>
+    <t>TC1-005</t>
+  </si>
+  <si>
+    <t>TC1-006</t>
+  </si>
+  <si>
+    <t>TC1-007</t>
+  </si>
+  <si>
+    <t>TC1-008</t>
+  </si>
+  <si>
+    <t>TC1-009</t>
+  </si>
+  <si>
+    <t>TC2-001</t>
+  </si>
+  <si>
+    <t>2. Login</t>
+  </si>
+  <si>
+    <t>TC2-003</t>
+  </si>
+  <si>
+    <t>TC2-004</t>
+  </si>
+  <si>
+    <t>TC2-005</t>
+  </si>
+  <si>
+    <t>TC2-006</t>
+  </si>
+  <si>
+    <t>TC3-001</t>
+  </si>
+  <si>
+    <t>3. Instance ID Verification</t>
+  </si>
+  <si>
+    <t>TC4-001</t>
+  </si>
+  <si>
+    <t>TC4-002</t>
+  </si>
+  <si>
+    <t>TC4-003</t>
+  </si>
+  <si>
+    <t>TC4-004</t>
+  </si>
+  <si>
+    <t>TC4-005</t>
+  </si>
+  <si>
+    <t>4. Home page</t>
+  </si>
+  <si>
+    <t>TC6-001</t>
+  </si>
+  <si>
+    <t>TC6-002</t>
+  </si>
+  <si>
+    <t>TC6-003</t>
+  </si>
+  <si>
+    <t>5. PDF Viewer</t>
+  </si>
+  <si>
+    <t>9. File operation</t>
+  </si>
+  <si>
+    <t>TC9-001</t>
+  </si>
+  <si>
+    <t>TC9-002</t>
+  </si>
+  <si>
+    <t>TC9-003</t>
+  </si>
+  <si>
+    <t>13. Cloud storage</t>
+  </si>
+  <si>
+    <t>TC13-001</t>
+  </si>
+  <si>
+    <t>TC13-002</t>
+  </si>
+  <si>
+    <t>14. Change user</t>
+  </si>
+  <si>
+    <t>Test if cloud storage function properly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Add area and a file 
+2. Logout and click on change user.                                </t>
+  </si>
+  <si>
+    <t>The change user button should dissapear and signup button and email field should be editable.</t>
+  </si>
+  <si>
+    <t>The result is as expected.</t>
+  </si>
+  <si>
+    <t>1.Upload a 30mb file and S3 should display the file in cloud.</t>
+  </si>
+  <si>
+    <t>TC14-001</t>
+  </si>
+  <si>
+    <t>TC14-002</t>
+  </si>
+  <si>
+    <t>1. Login using another account</t>
+  </si>
+  <si>
+    <t>On login the file previously created in the other account should not be visible.</t>
+  </si>
+  <si>
+    <t>The file is not visible and the state of the app is set to what the new user should see.</t>
+  </si>
+  <si>
+    <t>1756 hrs</t>
+  </si>
+  <si>
+    <t>Need 2 devices to test this feature and a user account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login to device 1
+2. Add a area and file 
+3. Logout from devise 1 and login to device 2.
+4. Navigate to area explorer
+</t>
+  </si>
+  <si>
+    <t>The file added in device 1 should appear in devise 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Do the same test with 3 device </t>
+  </si>
+  <si>
+    <t>A three devises should show same same area and files</t>
+  </si>
+  <si>
+    <t>the files and data are consistant over multiple devises</t>
+  </si>
+  <si>
+    <t>2030 hrs</t>
+  </si>
+  <si>
+    <t>16. File and data synchronization</t>
+  </si>
+  <si>
+    <t>Test to check if the database and files are synchronised over multiple device</t>
+  </si>
+  <si>
+    <t>TC16-001</t>
+  </si>
+  <si>
+    <t>TC16-002</t>
   </si>
 </sst>
 </file>
@@ -1022,17 +1213,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1054,24 +1263,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2147,10 +2338,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2167,15 +2358,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="40.799999999999997" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="64"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
     </row>
@@ -2192,7 +2383,7 @@
     </row>
     <row r="3" spans="1:9" ht="31.2" customHeight="1" thickBot="1">
       <c r="A3" s="40" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -2205,11 +2396,11 @@
     </row>
     <row r="4" spans="1:9" ht="18.600000000000001" customHeight="1" thickTop="1">
       <c r="A4" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="42"/>
       <c r="C4" s="43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D4" s="44"/>
       <c r="E4" s="44"/>
@@ -2220,7 +2411,7 @@
     </row>
     <row r="5" spans="1:9" ht="14.4" customHeight="1">
       <c r="A5" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="46"/>
@@ -2233,7 +2424,7 @@
     </row>
     <row r="6" spans="1:9" ht="14.4" customHeight="1">
       <c r="A6" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="49"/>
@@ -2257,201 +2448,201 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="31"/>
       <c r="F8" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="70.2" customHeight="1">
       <c r="A9" s="26" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" s="37"/>
       <c r="D9" s="36" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="41.4" customHeight="1">
       <c r="A10" s="26" t="s">
-        <v>6</v>
+        <v>170</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="55"/>
+        <v>115</v>
+      </c>
+      <c r="E10" s="60"/>
       <c r="F10" s="27" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="67.8" customHeight="1">
       <c r="A11" s="26" t="s">
-        <v>7</v>
+        <v>171</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="27" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="73.2" customHeight="1">
       <c r="A12" s="26" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="55"/>
+        <v>90</v>
+      </c>
+      <c r="C12" s="60"/>
       <c r="D12" s="36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="27" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="57" customHeight="1">
       <c r="A13" s="26" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="55"/>
+        <v>116</v>
+      </c>
+      <c r="C13" s="60"/>
       <c r="D13" s="36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="27" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="55.95" customHeight="1">
       <c r="A14" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="56"/>
+        <v>174</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="61"/>
       <c r="D14" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="55"/>
+        <v>89</v>
+      </c>
+      <c r="E14" s="60"/>
       <c r="F14" s="28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="92.4" customHeight="1">
       <c r="A15" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="56"/>
+        <v>175</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="61"/>
       <c r="D15" s="36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="28" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="84.6" customHeight="1">
       <c r="A16" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="56"/>
+        <v>176</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="61"/>
       <c r="D16" s="36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="28" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="94.8" customHeight="1">
       <c r="A17" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="56"/>
+        <v>177</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="61"/>
       <c r="D17" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="55"/>
+        <v>89</v>
+      </c>
+      <c r="E17" s="60"/>
       <c r="F17" s="28" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="32" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
@@ -2460,7 +2651,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" s="31"/>
       <c r="C19" s="39">
@@ -2473,11 +2664,11 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="32" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
@@ -2486,11 +2677,11 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" s="35"/>
       <c r="C21" s="32" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
@@ -2545,7 +2736,7 @@
     <row r="27" spans="1:7" ht="12" customHeight="1"/>
     <row r="28" spans="1:7" ht="20.399999999999999" thickBot="1">
       <c r="A28" s="40" t="s">
-        <v>65</v>
+        <v>179</v>
       </c>
       <c r="B28" s="40"/>
       <c r="C28" s="40"/>
@@ -2555,21 +2746,21 @@
       <c r="G28" s="40"/>
     </row>
     <row r="29" spans="1:7" ht="15" thickTop="1">
-      <c r="A29" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="63"/>
+      <c r="A29" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="66"/>
+      <c r="C29" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="69"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30" s="42"/>
       <c r="C30" s="46"/>
@@ -2580,154 +2771,166 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" s="42"/>
       <c r="C31" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="65"/>
+        <v>78</v>
+      </c>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="71"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="69"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="71"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="57"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="31"/>
       <c r="D33" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" s="31"/>
       <c r="F33" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1">
       <c r="A34" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="57" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="58"/>
+        <v>178</v>
+      </c>
+      <c r="B34" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="59"/>
       <c r="D34" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E34" s="34"/>
       <c r="F34" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="46.8" customHeight="1">
       <c r="A35" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="B35" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="58"/>
+      <c r="C35" s="59"/>
       <c r="D35" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="55"/>
+        <v>84</v>
+      </c>
+      <c r="E35" s="60"/>
       <c r="F35" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="45.6" customHeight="1">
       <c r="A36" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="57" t="s">
+        <v>180</v>
+      </c>
+      <c r="B36" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="58"/>
+      <c r="C36" s="59"/>
       <c r="D36" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" s="55"/>
+        <v>79</v>
+      </c>
+      <c r="E36" s="60"/>
       <c r="F36" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="48" customHeight="1">
       <c r="A37" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="59"/>
+      <c r="D37" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="E37" s="55"/>
+      <c r="E37" s="60"/>
       <c r="F37" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="34"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="39">
-        <v>43042</v>
-      </c>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="34"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="64.2" customHeight="1">
+      <c r="A38" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="60"/>
+      <c r="D38" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="E38" s="60"/>
+      <c r="F38" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="83.4" customHeight="1">
+      <c r="A39" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="60"/>
+      <c r="D39" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E39" s="60"/>
+      <c r="F39" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="35"/>
+      <c r="A40" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="31"/>
       <c r="C40" s="32" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
@@ -2735,146 +2938,146 @@
       <c r="G40" s="34"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="35"/>
-      <c r="C41" s="32" t="s">
-        <v>106</v>
+      <c r="A41" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="31"/>
+      <c r="C41" s="39">
+        <v>43042</v>
       </c>
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
       <c r="G41" s="34"/>
     </row>
-    <row r="45" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A45" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-    </row>
-    <row r="46" spans="1:7" ht="15" thickTop="1">
-      <c r="A46" s="41" t="s">
+    <row r="42" spans="1:7">
+      <c r="A42" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="35"/>
+      <c r="C42" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="34"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="35"/>
+      <c r="C43" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="34"/>
+    </row>
+    <row r="47" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A47" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+    </row>
+    <row r="48" spans="1:7" ht="15" thickTop="1">
+      <c r="A48" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" s="42"/>
+      <c r="C48" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="45"/>
+    </row>
+    <row r="49" spans="1:7" ht="16.8" customHeight="1">
+      <c r="A49" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="43" t="s">
+      <c r="B49" s="42"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="48"/>
+    </row>
+    <row r="50" spans="1:7" ht="26.4" customHeight="1">
+      <c r="A50" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="42"/>
+      <c r="C50" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="51"/>
+    </row>
+    <row r="51" spans="1:7" ht="15.6" customHeight="1">
+      <c r="A51" s="52"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="54"/>
+    </row>
+    <row r="52" spans="1:7" ht="27" customHeight="1">
+      <c r="A52" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="31"/>
+      <c r="D52" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="31"/>
+      <c r="F52" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="35.4" customHeight="1">
+      <c r="A53" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="37"/>
+      <c r="D53" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="45"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="48"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="51"/>
-    </row>
-    <row r="49" spans="1:7" ht="16.8" customHeight="1">
-      <c r="A49" s="52"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="54"/>
-    </row>
-    <row r="50" spans="1:7" ht="63" customHeight="1">
-      <c r="A50" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" s="31"/>
-      <c r="F50" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G50" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="74.400000000000006" customHeight="1">
-      <c r="A51" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" s="37"/>
-      <c r="D51" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="E51" s="37"/>
-      <c r="F51" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="G51" s="27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="27" customHeight="1">
-      <c r="A52" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B52" s="31"/>
-      <c r="C52" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="34"/>
-    </row>
-    <row r="53" spans="1:7" ht="22.8" customHeight="1">
-      <c r="A53" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B53" s="31"/>
-      <c r="C53" s="39">
-        <v>43046</v>
-      </c>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="34"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="G53" s="27" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="54" spans="1:7" ht="15.6" customHeight="1">
       <c r="A54" s="30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B54" s="31"/>
       <c r="C54" s="32" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
@@ -2882,222 +3085,222 @@
       <c r="G54" s="34"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55" s="35"/>
-      <c r="C55" s="32" t="s">
-        <v>106</v>
+      <c r="A55" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="31"/>
+      <c r="C55" s="39">
+        <v>43046</v>
       </c>
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
       <c r="G55" s="34"/>
     </row>
-    <row r="58" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A58" s="40" t="s">
+    <row r="56" spans="1:7">
+      <c r="A56" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" s="31"/>
+      <c r="C56" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="34"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="35"/>
+      <c r="C57" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-    </row>
-    <row r="59" spans="1:7" ht="15" thickTop="1">
-      <c r="A59" s="41" t="s">
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="34"/>
+    </row>
+    <row r="60" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A60" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+    </row>
+    <row r="61" spans="1:7" ht="15" thickTop="1">
+      <c r="A61" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="42"/>
+      <c r="C61" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="45"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="42"/>
-      <c r="C59" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="45"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="41" t="s">
+      <c r="B62" s="42"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="48"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="42"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="48"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="41" t="s">
+      <c r="B63" s="42"/>
+      <c r="C63" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="51"/>
+    </row>
+    <row r="64" spans="1:7" ht="21" customHeight="1">
+      <c r="A64" s="52"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="54"/>
+    </row>
+    <row r="65" spans="1:7" ht="56.4" customHeight="1">
+      <c r="A65" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="42"/>
-      <c r="C61" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="51"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="52"/>
-      <c r="B62" s="53"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="54"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" s="38" t="s">
+      <c r="C65" s="31"/>
+      <c r="D65" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C63" s="31"/>
-      <c r="D63" s="38" t="s">
+      <c r="E65" s="31"/>
+      <c r="F65" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E63" s="31"/>
-      <c r="F63" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G63" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="82.2" customHeight="1">
-      <c r="A64" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="C64" s="37"/>
-      <c r="D64" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="E64" s="37"/>
-      <c r="F64" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="G64" s="29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="56.4" customHeight="1">
-      <c r="A65" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="C65" s="37"/>
-      <c r="D65" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="E65" s="37"/>
-      <c r="F65" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="G65" s="29" t="s">
-        <v>106</v>
+      <c r="G65" s="22" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="49.8" customHeight="1">
       <c r="A66" s="26" t="s">
-        <v>7</v>
+        <v>186</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C66" s="37"/>
       <c r="D66" s="36" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E66" s="37"/>
       <c r="F66" s="29" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G66" s="29" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="63.6" customHeight="1">
       <c r="A67" s="26" t="s">
-        <v>8</v>
+        <v>187</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C67" s="37"/>
       <c r="D67" s="36" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E67" s="37"/>
       <c r="F67" s="29" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G67" s="29" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="79.2" customHeight="1">
       <c r="A68" s="26" t="s">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="B68" s="36" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C68" s="37"/>
       <c r="D68" s="36" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E68" s="37"/>
       <c r="F68" s="29" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G68" s="29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69" s="31"/>
-      <c r="C69" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="34"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70" s="31"/>
-      <c r="C70" s="39">
-        <v>43045</v>
-      </c>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="33"/>
-      <c r="G70" s="34"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="43.2">
+      <c r="A69" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" s="37"/>
+      <c r="D69" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E69" s="37"/>
+      <c r="F69" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="G69" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="28.8">
+      <c r="A70" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="B70" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" s="37"/>
+      <c r="D70" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="E70" s="37"/>
+      <c r="F70" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G70" s="29" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B71" s="31"/>
       <c r="C71" s="32" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="D71" s="33"/>
       <c r="E71" s="33"/>
@@ -3105,369 +3308,187 @@
       <c r="G71" s="34"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" s="35"/>
-      <c r="C72" s="32" t="s">
-        <v>106</v>
+      <c r="A72" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="31"/>
+      <c r="C72" s="39">
+        <v>43045</v>
       </c>
       <c r="D72" s="33"/>
       <c r="E72" s="33"/>
       <c r="F72" s="33"/>
       <c r="G72" s="34"/>
     </row>
-    <row r="76" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A76" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="40"/>
-    </row>
-    <row r="77" spans="1:7" ht="15" thickTop="1">
-      <c r="A77" s="41" t="s">
+    <row r="73" spans="1:7">
+      <c r="A73" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="31"/>
+      <c r="C73" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="34"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="35"/>
+      <c r="C74" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="34"/>
+    </row>
+    <row r="82" spans="1:7" ht="53.4" customHeight="1"/>
+    <row r="83" spans="1:7" ht="49.2" customHeight="1"/>
+    <row r="84" spans="1:7" ht="49.2" customHeight="1"/>
+    <row r="94" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A94" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="B94" s="40"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="40"/>
+      <c r="F94" s="40"/>
+      <c r="G94" s="40"/>
+    </row>
+    <row r="95" spans="1:7" ht="15" thickTop="1">
+      <c r="A95" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B95" s="42"/>
+      <c r="C95" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D95" s="44"/>
+      <c r="E95" s="44"/>
+      <c r="F95" s="44"/>
+      <c r="G95" s="45"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B77" s="42"/>
-      <c r="C77" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="D77" s="44"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="44"/>
-      <c r="G77" s="45"/>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="41" t="s">
+      <c r="B96" s="42"/>
+      <c r="C96" s="46"/>
+      <c r="D96" s="47"/>
+      <c r="E96" s="47"/>
+      <c r="F96" s="47"/>
+      <c r="G96" s="48"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="B78" s="42"/>
-      <c r="C78" s="46"/>
-      <c r="D78" s="47"/>
-      <c r="E78" s="47"/>
-      <c r="F78" s="47"/>
-      <c r="G78" s="48"/>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="41" t="s">
+      <c r="B97" s="42"/>
+      <c r="C97" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="D97" s="50"/>
+      <c r="E97" s="50"/>
+      <c r="F97" s="50"/>
+      <c r="G97" s="51"/>
+    </row>
+    <row r="98" spans="1:7" ht="53.4" customHeight="1">
+      <c r="A98" s="52"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="53"/>
+      <c r="D98" s="53"/>
+      <c r="E98" s="53"/>
+      <c r="F98" s="53"/>
+      <c r="G98" s="54"/>
+    </row>
+    <row r="99" spans="1:7" ht="54" customHeight="1">
+      <c r="A99" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B99" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B79" s="42"/>
-      <c r="C79" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="D79" s="50"/>
-      <c r="E79" s="50"/>
-      <c r="F79" s="50"/>
-      <c r="G79" s="51"/>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="52"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="53"/>
-      <c r="D80" s="53"/>
-      <c r="E80" s="53"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="54"/>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B81" s="38" t="s">
+      <c r="C99" s="31"/>
+      <c r="D99" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C81" s="31"/>
-      <c r="D81" s="38" t="s">
+      <c r="E99" s="31"/>
+      <c r="F99" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E81" s="31"/>
-      <c r="F81" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G81" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="53.4" customHeight="1">
-      <c r="A82" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B82" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="C82" s="37"/>
-      <c r="D82" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="E82" s="37"/>
-      <c r="F82" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="G82" s="29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="49.2" customHeight="1">
-      <c r="A83" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B83" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="C83" s="37"/>
-      <c r="D83" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="E83" s="37"/>
-      <c r="F83" s="29" t="s">
+      <c r="G99" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="47.4" customHeight="1">
+      <c r="A100" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B100" s="36" t="s">
         <v>144</v>
-      </c>
-      <c r="G83" s="29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="49.2" customHeight="1">
-      <c r="A84" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="C84" s="37"/>
-      <c r="D84" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="E84" s="37"/>
-      <c r="F84" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="G84" s="29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B85" s="31"/>
-      <c r="C85" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="34"/>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B86" s="31"/>
-      <c r="C86" s="39">
-        <v>43046</v>
-      </c>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="34"/>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B87" s="31"/>
-      <c r="C87" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="34"/>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B88" s="35"/>
-      <c r="C88" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="34"/>
-    </row>
-    <row r="92" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A92" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="B92" s="40"/>
-      <c r="C92" s="40"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="40"/>
-      <c r="F92" s="40"/>
-      <c r="G92" s="40"/>
-    </row>
-    <row r="93" spans="1:7" ht="15" thickTop="1">
-      <c r="A93" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="B93" s="42"/>
-      <c r="C93" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D93" s="44"/>
-      <c r="E93" s="44"/>
-      <c r="F93" s="44"/>
-      <c r="G93" s="45"/>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="B94" s="42"/>
-      <c r="C94" s="46"/>
-      <c r="D94" s="47"/>
-      <c r="E94" s="47"/>
-      <c r="F94" s="47"/>
-      <c r="G94" s="48"/>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="B95" s="42"/>
-      <c r="C95" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="D95" s="50"/>
-      <c r="E95" s="50"/>
-      <c r="F95" s="50"/>
-      <c r="G95" s="51"/>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="52"/>
-      <c r="B96" s="53"/>
-      <c r="C96" s="53"/>
-      <c r="D96" s="53"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="53"/>
-      <c r="G96" s="54"/>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B97" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C97" s="31"/>
-      <c r="D97" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="E97" s="31"/>
-      <c r="F97" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G97" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="53.4" customHeight="1">
-      <c r="A98" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B98" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="C98" s="37"/>
-      <c r="D98" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="E98" s="37"/>
-      <c r="F98" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="G98" s="29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="54" customHeight="1">
-      <c r="A99" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B99" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="C99" s="37"/>
-      <c r="D99" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="E99" s="37"/>
-      <c r="F99" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="G99" s="29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="40.799999999999997" customHeight="1">
-      <c r="A100" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B100" s="36" t="s">
-        <v>158</v>
       </c>
       <c r="C100" s="37"/>
       <c r="D100" s="36" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="E100" s="37"/>
       <c r="F100" s="29" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="G100" s="29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B101" s="31"/>
-      <c r="C101" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="D101" s="33"/>
-      <c r="E101" s="33"/>
-      <c r="F101" s="33"/>
-      <c r="G101" s="34"/>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B102" s="31"/>
-      <c r="C102" s="39">
-        <v>43046</v>
-      </c>
-      <c r="D102" s="33"/>
-      <c r="E102" s="33"/>
-      <c r="F102" s="33"/>
-      <c r="G102" s="34"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="44.4" customHeight="1">
+      <c r="A101" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="B101" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C101" s="37"/>
+      <c r="D101" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="E101" s="37"/>
+      <c r="F101" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="G101" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="22.2" customHeight="1">
+      <c r="A102" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="B102" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C102" s="37"/>
+      <c r="D102" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E102" s="37"/>
+      <c r="F102" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="G102" s="29" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B103" s="31"/>
       <c r="C103" s="32" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="D103" s="33"/>
       <c r="E103" s="33"/>
@@ -3475,297 +3496,849 @@
       <c r="G103" s="34"/>
     </row>
     <row r="104" spans="1:7">
-      <c r="A104" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B104" s="35"/>
-      <c r="C104" s="32" t="s">
-        <v>106</v>
+      <c r="A104" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B104" s="31"/>
+      <c r="C104" s="39">
+        <v>43046</v>
       </c>
       <c r="D104" s="33"/>
       <c r="E104" s="33"/>
       <c r="F104" s="33"/>
       <c r="G104" s="34"/>
     </row>
-    <row r="109" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A109" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="B109" s="40"/>
-      <c r="C109" s="40"/>
-      <c r="D109" s="40"/>
-      <c r="E109" s="40"/>
-      <c r="F109" s="40"/>
-      <c r="G109" s="40"/>
-    </row>
-    <row r="110" spans="1:7" ht="15" thickTop="1">
-      <c r="A110" s="41" t="s">
+    <row r="105" spans="1:7">
+      <c r="A105" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B105" s="31"/>
+      <c r="C105" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D105" s="33"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="34"/>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B106" s="35"/>
+      <c r="C106" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D106" s="33"/>
+      <c r="E106" s="33"/>
+      <c r="F106" s="33"/>
+      <c r="G106" s="34"/>
+    </row>
+    <row r="115" spans="1:7" ht="16.8" customHeight="1"/>
+    <row r="116" spans="1:7" ht="34.799999999999997" customHeight="1"/>
+    <row r="117" spans="1:7" ht="27" customHeight="1"/>
+    <row r="118" spans="1:7" ht="35.4" customHeight="1"/>
+    <row r="126" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A126" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="B126" s="40"/>
+      <c r="C126" s="40"/>
+      <c r="D126" s="40"/>
+      <c r="E126" s="40"/>
+      <c r="F126" s="40"/>
+      <c r="G126" s="40"/>
+    </row>
+    <row r="127" spans="1:7" ht="15" thickTop="1">
+      <c r="A127" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B127" s="42"/>
+      <c r="C127" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="D127" s="44"/>
+      <c r="E127" s="44"/>
+      <c r="F127" s="44"/>
+      <c r="G127" s="45"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B110" s="42"/>
-      <c r="C110" s="43" t="s">
+      <c r="B128" s="42"/>
+      <c r="C128" s="46"/>
+      <c r="D128" s="47"/>
+      <c r="E128" s="47"/>
+      <c r="F128" s="47"/>
+      <c r="G128" s="48"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B129" s="42"/>
+      <c r="C129" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="D129" s="50"/>
+      <c r="E129" s="50"/>
+      <c r="F129" s="50"/>
+      <c r="G129" s="51"/>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="52"/>
+      <c r="B130" s="53"/>
+      <c r="C130" s="53"/>
+      <c r="D130" s="53"/>
+      <c r="E130" s="53"/>
+      <c r="F130" s="53"/>
+      <c r="G130" s="54"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B131" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C131" s="31"/>
+      <c r="D131" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="31"/>
+      <c r="F131" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G131" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="57.6" customHeight="1">
+      <c r="A132" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B132" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C132" s="37"/>
+      <c r="D132" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="E132" s="37"/>
+      <c r="F132" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G132" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="49.2" customHeight="1">
+      <c r="A133" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="B133" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="D110" s="44"/>
-      <c r="E110" s="44"/>
-      <c r="F110" s="44"/>
-      <c r="G110" s="45"/>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" s="41" t="s">
+      <c r="C133" s="37"/>
+      <c r="D133" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E133" s="37"/>
+      <c r="F133" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="G133" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="31.2" customHeight="1">
+      <c r="A134" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B134" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C134" s="37"/>
+      <c r="D134" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="E134" s="37"/>
+      <c r="F134" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="G134" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B135" s="31"/>
+      <c r="C135" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D135" s="33"/>
+      <c r="E135" s="33"/>
+      <c r="F135" s="33"/>
+      <c r="G135" s="34"/>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B136" s="31"/>
+      <c r="C136" s="39">
+        <v>43046</v>
+      </c>
+      <c r="D136" s="33"/>
+      <c r="E136" s="33"/>
+      <c r="F136" s="33"/>
+      <c r="G136" s="34"/>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B137" s="31"/>
+      <c r="C137" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D137" s="33"/>
+      <c r="E137" s="33"/>
+      <c r="F137" s="33"/>
+      <c r="G137" s="34"/>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B138" s="35"/>
+      <c r="C138" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D138" s="33"/>
+      <c r="E138" s="33"/>
+      <c r="F138" s="33"/>
+      <c r="G138" s="34"/>
+    </row>
+    <row r="142" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A142" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="B142" s="40"/>
+      <c r="C142" s="40"/>
+      <c r="D142" s="40"/>
+      <c r="E142" s="40"/>
+      <c r="F142" s="40"/>
+      <c r="G142" s="40"/>
+    </row>
+    <row r="143" spans="1:7" ht="15" thickTop="1">
+      <c r="A143" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B143" s="42"/>
+      <c r="C143" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="D143" s="44"/>
+      <c r="E143" s="44"/>
+      <c r="F143" s="44"/>
+      <c r="G143" s="45"/>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B144" s="42"/>
+      <c r="C144" s="46"/>
+      <c r="D144" s="47"/>
+      <c r="E144" s="47"/>
+      <c r="F144" s="47"/>
+      <c r="G144" s="48"/>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="B111" s="42"/>
-      <c r="C111" s="46"/>
-      <c r="D111" s="47"/>
-      <c r="E111" s="47"/>
-      <c r="F111" s="47"/>
-      <c r="G111" s="48"/>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" s="41" t="s">
+      <c r="B145" s="42"/>
+      <c r="C145" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="D145" s="50"/>
+      <c r="E145" s="50"/>
+      <c r="F145" s="50"/>
+      <c r="G145" s="51"/>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="52"/>
+      <c r="B146" s="53"/>
+      <c r="C146" s="53"/>
+      <c r="D146" s="53"/>
+      <c r="E146" s="53"/>
+      <c r="F146" s="53"/>
+      <c r="G146" s="54"/>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B147" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B112" s="42"/>
-      <c r="C112" s="49"/>
-      <c r="D112" s="50"/>
-      <c r="E112" s="50"/>
-      <c r="F112" s="50"/>
-      <c r="G112" s="51"/>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" s="52"/>
-      <c r="B113" s="53"/>
-      <c r="C113" s="53"/>
-      <c r="D113" s="53"/>
-      <c r="E113" s="53"/>
-      <c r="F113" s="53"/>
-      <c r="G113" s="54"/>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="B114" s="38" t="s">
+      <c r="C147" s="31"/>
+      <c r="D147" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C114" s="31"/>
-      <c r="D114" s="38" t="s">
+      <c r="E147" s="31"/>
+      <c r="F147" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E114" s="31"/>
-      <c r="F114" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="G114" s="22" t="s">
+      <c r="G147" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="63" customHeight="1">
+      <c r="A148" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B148" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="C148" s="37"/>
+      <c r="D148" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="E148" s="37"/>
+      <c r="F148" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="G148" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="57" customHeight="1">
+      <c r="A149" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="B149" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="C149" s="37"/>
+      <c r="D149" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E149" s="37"/>
+      <c r="F149" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="G149" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="30" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" ht="61.2" customHeight="1">
-      <c r="A115" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B115" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="C115" s="37"/>
-      <c r="D115" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="E115" s="37"/>
-      <c r="F115" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="G115" s="29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="34.799999999999997" customHeight="1">
-      <c r="A116" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B116" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="C116" s="37"/>
-      <c r="D116" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="E116" s="37"/>
-      <c r="F116" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="G116" s="29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B117" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="C117" s="37"/>
-      <c r="D117" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="E117" s="37"/>
-      <c r="F117" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="G117" s="29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" s="30" t="s">
+      <c r="B150" s="31"/>
+      <c r="C150" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D150" s="33"/>
+      <c r="E150" s="33"/>
+      <c r="F150" s="33"/>
+      <c r="G150" s="34"/>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B118" s="31"/>
-      <c r="C118" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="D118" s="33"/>
-      <c r="E118" s="33"/>
-      <c r="F118" s="33"/>
-      <c r="G118" s="34"/>
-    </row>
-    <row r="119" spans="1:7">
-      <c r="A119" s="38" t="s">
+      <c r="B151" s="31"/>
+      <c r="C151" s="39">
+        <v>43047</v>
+      </c>
+      <c r="D151" s="33"/>
+      <c r="E151" s="33"/>
+      <c r="F151" s="33"/>
+      <c r="G151" s="34"/>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="B119" s="31"/>
-      <c r="C119" s="39">
-        <v>43046</v>
-      </c>
-      <c r="D119" s="33"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="33"/>
-      <c r="G119" s="34"/>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" s="30" t="s">
+      <c r="B152" s="31"/>
+      <c r="C152" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="D152" s="33"/>
+      <c r="E152" s="33"/>
+      <c r="F152" s="33"/>
+      <c r="G152" s="34"/>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B153" s="35"/>
+      <c r="C153" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D153" s="33"/>
+      <c r="E153" s="33"/>
+      <c r="F153" s="33"/>
+      <c r="G153" s="34"/>
+    </row>
+    <row r="157" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A157" s="40" t="s">
+        <v>203</v>
+      </c>
+      <c r="B157" s="40"/>
+      <c r="C157" s="40"/>
+      <c r="D157" s="40"/>
+      <c r="E157" s="40"/>
+      <c r="F157" s="40"/>
+      <c r="G157" s="40"/>
+    </row>
+    <row r="158" spans="1:7" ht="15" thickTop="1">
+      <c r="A158" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B158" s="42"/>
+      <c r="C158" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D158" s="44"/>
+      <c r="E158" s="44"/>
+      <c r="F158" s="44"/>
+      <c r="G158" s="45"/>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B159" s="42"/>
+      <c r="C159" s="46"/>
+      <c r="D159" s="47"/>
+      <c r="E159" s="47"/>
+      <c r="F159" s="47"/>
+      <c r="G159" s="48"/>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B160" s="42"/>
+      <c r="C160" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="D160" s="50"/>
+      <c r="E160" s="50"/>
+      <c r="F160" s="50"/>
+      <c r="G160" s="51"/>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="52"/>
+      <c r="B161" s="53"/>
+      <c r="C161" s="53"/>
+      <c r="D161" s="53"/>
+      <c r="E161" s="53"/>
+      <c r="F161" s="53"/>
+      <c r="G161" s="54"/>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B120" s="31"/>
-      <c r="C120" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="D120" s="33"/>
-      <c r="E120" s="33"/>
-      <c r="F120" s="33"/>
-      <c r="G120" s="34"/>
-    </row>
-    <row r="121" spans="1:7">
-      <c r="A121" s="30" t="s">
+      <c r="B162" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C162" s="31"/>
+      <c r="D162" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="31"/>
+      <c r="F162" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G162" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="70.8" customHeight="1">
+      <c r="A163" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B163" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="C163" s="37"/>
+      <c r="D163" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="E163" s="37"/>
+      <c r="F163" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="G163" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="66.599999999999994" customHeight="1">
+      <c r="A164" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B164" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="C164" s="37"/>
+      <c r="D164" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="E164" s="37"/>
+      <c r="F164" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="G164" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="B121" s="35"/>
-      <c r="C121" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="D121" s="33"/>
-      <c r="E121" s="33"/>
-      <c r="F121" s="33"/>
-      <c r="G121" s="34"/>
+      <c r="B165" s="31"/>
+      <c r="C165" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D165" s="33"/>
+      <c r="E165" s="33"/>
+      <c r="F165" s="33"/>
+      <c r="G165" s="34"/>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B166" s="31"/>
+      <c r="C166" s="39">
+        <v>43047</v>
+      </c>
+      <c r="D166" s="33"/>
+      <c r="E166" s="33"/>
+      <c r="F166" s="33"/>
+      <c r="G166" s="34"/>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B167" s="31"/>
+      <c r="C167" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="D167" s="33"/>
+      <c r="E167" s="33"/>
+      <c r="F167" s="33"/>
+      <c r="G167" s="34"/>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B168" s="35"/>
+      <c r="C168" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D168" s="33"/>
+      <c r="E168" s="33"/>
+      <c r="F168" s="33"/>
+      <c r="G168" s="34"/>
+    </row>
+    <row r="177" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A177" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="B177" s="40"/>
+      <c r="C177" s="40"/>
+      <c r="D177" s="40"/>
+      <c r="E177" s="40"/>
+      <c r="F177" s="40"/>
+      <c r="G177" s="40"/>
+    </row>
+    <row r="178" spans="1:7" ht="15" thickTop="1">
+      <c r="A178" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B178" s="42"/>
+      <c r="C178" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="D178" s="44"/>
+      <c r="E178" s="44"/>
+      <c r="F178" s="44"/>
+      <c r="G178" s="45"/>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B179" s="42"/>
+      <c r="C179" s="46"/>
+      <c r="D179" s="47"/>
+      <c r="E179" s="47"/>
+      <c r="F179" s="47"/>
+      <c r="G179" s="48"/>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B180" s="42"/>
+      <c r="C180" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="D180" s="50"/>
+      <c r="E180" s="50"/>
+      <c r="F180" s="50"/>
+      <c r="G180" s="51"/>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="52"/>
+      <c r="B181" s="53"/>
+      <c r="C181" s="53"/>
+      <c r="D181" s="53"/>
+      <c r="E181" s="53"/>
+      <c r="F181" s="53"/>
+      <c r="G181" s="54"/>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B182" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C182" s="31"/>
+      <c r="D182" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="31"/>
+      <c r="F182" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G182" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="111" customHeight="1">
+      <c r="A183" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="B183" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="C183" s="37"/>
+      <c r="D183" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="E183" s="37"/>
+      <c r="F183" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="G183" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="43.2" customHeight="1">
+      <c r="A184" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B184" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="C184" s="37"/>
+      <c r="D184" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="E184" s="37"/>
+      <c r="F184" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="G184" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B185" s="31"/>
+      <c r="C185" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D185" s="33"/>
+      <c r="E185" s="33"/>
+      <c r="F185" s="33"/>
+      <c r="G185" s="34"/>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B186" s="31"/>
+      <c r="C186" s="39">
+        <v>43047</v>
+      </c>
+      <c r="D186" s="33"/>
+      <c r="E186" s="33"/>
+      <c r="F186" s="33"/>
+      <c r="G186" s="34"/>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B187" s="31"/>
+      <c r="C187" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="D187" s="33"/>
+      <c r="E187" s="33"/>
+      <c r="F187" s="33"/>
+      <c r="G187" s="34"/>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B188" s="35"/>
+      <c r="C188" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D188" s="33"/>
+      <c r="E188" s="33"/>
+      <c r="F188" s="33"/>
+      <c r="G188" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="183">
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="C121:G121"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="A109:G109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="A113:G113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="A80:G80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
+  <mergeCells count="229">
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="C188:G188"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="D184:E184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="C185:G185"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="C186:G186"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="C187:G187"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="C178:G178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="C179:G179"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="C180:G180"/>
+    <mergeCell ref="A181:G181"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="D182:E182"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="C165:G165"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="C166:G166"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="C167:G167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="C168:G168"/>
+    <mergeCell ref="A177:G177"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="C160:G160"/>
+    <mergeCell ref="A161:G161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A157:G157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="C158:G158"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="C159:G159"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="A94:G94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="A98:G98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B12:C12"/>
@@ -3787,74 +4360,98 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A58:G58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A92:G92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="A96:G96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:G103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:G104"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="A126:G126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="A130:G130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A142:G142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:G144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="A146:G146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="C152:G152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="C153:G153"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="C150:G150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="C151:G151"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/FYP documentation/FYP_Test_Plan.xlsx
+++ b/FYP documentation/FYP_Test_Plan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="233">
   <si>
     <t>Expected Result</t>
   </si>
@@ -742,6 +742,29 @@
   </si>
   <si>
     <t>TC16-002</t>
+  </si>
+  <si>
+    <t>Test if delete user removes all data related to the user.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login to the account.
+2. Go to menu and click delete account
+</t>
+  </si>
+  <si>
+    <t>15. Delete User</t>
+  </si>
+  <si>
+    <t>TC15-001</t>
+  </si>
+  <si>
+    <t>An error message will be printed out on relogin and the user related data are deleted from cloud service (Cognito,S3 and DynamoDB)</t>
+  </si>
+  <si>
+    <t>2135 hrs</t>
+  </si>
+  <si>
+    <t>All the user retated data and files are deleted and and error message is printed.</t>
   </si>
 </sst>
 </file>
@@ -2338,10 +2361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I188"/>
+  <dimension ref="A1:I204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A184" sqref="A184"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F209" sqref="F209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4221,8 +4244,173 @@
       <c r="F188" s="33"/>
       <c r="G188" s="34"/>
     </row>
+    <row r="194" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A194" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="B194" s="40"/>
+      <c r="C194" s="40"/>
+      <c r="D194" s="40"/>
+      <c r="E194" s="40"/>
+      <c r="F194" s="40"/>
+      <c r="G194" s="40"/>
+    </row>
+    <row r="195" spans="1:7" ht="15" thickTop="1">
+      <c r="A195" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B195" s="42"/>
+      <c r="C195" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="D195" s="44"/>
+      <c r="E195" s="44"/>
+      <c r="F195" s="44"/>
+      <c r="G195" s="45"/>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B196" s="42"/>
+      <c r="C196" s="46"/>
+      <c r="D196" s="47"/>
+      <c r="E196" s="47"/>
+      <c r="F196" s="47"/>
+      <c r="G196" s="48"/>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B197" s="42"/>
+      <c r="C197" s="49"/>
+      <c r="D197" s="50"/>
+      <c r="E197" s="50"/>
+      <c r="F197" s="50"/>
+      <c r="G197" s="51"/>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="52"/>
+      <c r="B198" s="53"/>
+      <c r="C198" s="53"/>
+      <c r="D198" s="53"/>
+      <c r="E198" s="53"/>
+      <c r="F198" s="53"/>
+      <c r="G198" s="54"/>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B199" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C199" s="31"/>
+      <c r="D199" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="31"/>
+      <c r="F199" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G199" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="105.6" customHeight="1">
+      <c r="A200" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="B200" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="C200" s="37"/>
+      <c r="D200" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="E200" s="37"/>
+      <c r="F200" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="G200" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B201" s="31"/>
+      <c r="C201" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D201" s="33"/>
+      <c r="E201" s="33"/>
+      <c r="F201" s="33"/>
+      <c r="G201" s="34"/>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B202" s="31"/>
+      <c r="C202" s="39">
+        <v>43047</v>
+      </c>
+      <c r="D202" s="33"/>
+      <c r="E202" s="33"/>
+      <c r="F202" s="33"/>
+      <c r="G202" s="34"/>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B203" s="31"/>
+      <c r="C203" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="D203" s="33"/>
+      <c r="E203" s="33"/>
+      <c r="F203" s="33"/>
+      <c r="G203" s="34"/>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B204" s="35"/>
+      <c r="C204" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D204" s="33"/>
+      <c r="E204" s="33"/>
+      <c r="F204" s="33"/>
+      <c r="G204" s="34"/>
+    </row>
   </sheetData>
-  <mergeCells count="229">
+  <mergeCells count="249">
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="C204:G204"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="C201:G201"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="C202:G202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="C203:G203"/>
+    <mergeCell ref="A194:G194"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="C195:G195"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="C196:G196"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="C197:G197"/>
+    <mergeCell ref="A198:G198"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="D199:E199"/>
     <mergeCell ref="A188:B188"/>
     <mergeCell ref="C188:G188"/>
     <mergeCell ref="B183:C183"/>

--- a/FYP documentation/FYP_Test_Plan.xlsx
+++ b/FYP documentation/FYP_Test_Plan.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Class_notes\BSS_FYP_TEAM173D\FYP documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\BSS_FYP_TEAM173D\FYP documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan Final" sheetId="4" r:id="rId1"/>
     <sheet name="Test Plan" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="365">
   <si>
     <t>Expected Result</t>
   </si>
@@ -298,13 +298,6 @@
 2) Click on 'SIGN UP' button</t>
   </si>
   <si>
-    <t xml:space="preserve">Error message for the respective should appear </t>
-  </si>
-  <si>
-    <t>Error message for the 
-respective should appear</t>
-  </si>
-  <si>
     <t>1) Enter valid email 
 2) Click on 'SIGN UP' button</t>
   </si>
@@ -347,16 +340,10 @@
     <t>1. Login to first device.               2. Login to second device</t>
   </si>
   <si>
-    <t>The user should have previously signed up</t>
-  </si>
-  <si>
     <t>Test if home page is functional</t>
   </si>
   <si>
     <t xml:space="preserve">1. Perform Login                          2. Switch gps off and network off.                                                     3. Move the map around                                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A message should be displayed to ask the user to witch on network. </t>
   </si>
   <si>
     <t>Pass</t>
@@ -457,29 +444,6 @@
     <t>Add area 1 and area 2. Area 2 should have file 1 and file 2 and Area 1 should be empty</t>
   </si>
   <si>
-    <t xml:space="preserve">1. navigate to area 2 click on file 1 option.
-2. choose are 1 and copy                                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. navigate to area 2 click on file 1 option.
-2. choose are 1 and move </t>
-  </si>
-  <si>
-    <t>A copy of file 1 should be created in Area 1 and Area 2 has a copy.</t>
-  </si>
-  <si>
-    <t>A copy of file 1 is created in area 1 and Area 2 has a copy.</t>
-  </si>
-  <si>
-    <t>A copy of file 2 should be created in Area 1 . Area 2 should not have a copy.</t>
-  </si>
-  <si>
-    <t>A copy of file 2 should be created in Area 1 . Area 2 does not have a copy.</t>
-  </si>
-  <si>
-    <t>1. Delete all file from area 1</t>
-  </si>
-  <si>
     <t>All files should be deleted</t>
   </si>
   <si>
@@ -501,10 +465,6 @@
     <t>A area with 10 meter radius and a file.</t>
   </si>
   <si>
-    <t>1. Open the pdf document
-2.  Walk more than 10m from the point of creation</t>
-  </si>
-  <si>
     <t>The pdf document should close</t>
   </si>
   <si>
@@ -532,13 +492,7 @@
     <t xml:space="preserve"> A error message is printed and upload fail</t>
   </si>
   <si>
-    <t>The afile is uploaded to S3</t>
-  </si>
-  <si>
     <t>The file is visible in S3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Enter password 4 times  </t>
   </si>
   <si>
     <t>A delay timee of 10 second should starts</t>
@@ -696,12 +650,6 @@
   </si>
   <si>
     <t>1. Login using another account</t>
-  </si>
-  <si>
-    <t>On login the file previously created in the other account should not be visible.</t>
-  </si>
-  <si>
-    <t>The file is not visible and the state of the app is set to what the new user should see.</t>
   </si>
   <si>
     <t>1756 hrs</t>
@@ -766,11 +714,500 @@
   <si>
     <t>All the user retated data and files are deleted and and error message is printed.</t>
   </si>
+  <si>
+    <t>6. Import File</t>
+  </si>
+  <si>
+    <t>Test plan for Import File</t>
+  </si>
+  <si>
+    <t>User is logged in</t>
+  </si>
+  <si>
+    <t>1) Click import file floating button</t>
+  </si>
+  <si>
+    <t>UI (User Interface) for import file is shown</t>
+  </si>
+  <si>
+    <t>1) Select file
+2) Fill up new area name and description (additional)
+3) Select its radius (5 - 1000)
+4) Click create new area</t>
+  </si>
+  <si>
+    <t>New area is created and a new file is created inside the new area. File is uploaded to S3</t>
+  </si>
+  <si>
+    <t>1) Select file
+2) Select existing area
+3) Click choose existing area</t>
+  </si>
+  <si>
+    <t>New file is created inside the selected area</t>
+  </si>
+  <si>
+    <t>TC6-004</t>
+  </si>
+  <si>
+    <t>1) Click yes on dialog empty file upon succesful import</t>
+  </si>
+  <si>
+    <t>Original file inside the device becomes empty</t>
+  </si>
+  <si>
+    <t>TC6-005</t>
+  </si>
+  <si>
+    <t>1) No file selected
+2) Click create new area / choose existing area</t>
+  </si>
+  <si>
+    <t>Notify user with an error message</t>
+  </si>
+  <si>
+    <t>TC6-006</t>
+  </si>
+  <si>
+    <t>1) Select file
+2) New area name empty
+3) Click create new area</t>
+  </si>
+  <si>
+    <t>TC6-007</t>
+  </si>
+  <si>
+    <t>1) Select file
+2) Fill up new area name and description (additional)
+3) Radius empty
+4) Click create new area</t>
+  </si>
+  <si>
+    <t>TC6-008</t>
+  </si>
+  <si>
+    <t>1) Select file
+2) Fill up new area name with name that has existed before
+3) Select its radius (5 - 1000)
+4) Click create new area</t>
+  </si>
+  <si>
+    <t>TC6-009</t>
+  </si>
+  <si>
+    <t>1) Select file
+2) Fill up new area name with 1 or less character
+3) Select its radius (5 - 1000)
+4) Click create new area</t>
+  </si>
+  <si>
+    <t>TC6-010</t>
+  </si>
+  <si>
+    <t>1) Select file
+2) Fill up new area name and description (additional)
+3) Select radius less than 5m or more than 1000m
+4) Click create new area</t>
+  </si>
+  <si>
+    <t>TC6-011</t>
+  </si>
+  <si>
+    <t>1) Select file
+2) No existing area within the user's location
+3) Click choose existing area</t>
+  </si>
+  <si>
+    <t>TC6-012</t>
+  </si>
+  <si>
+    <t>1) Select file
+2) Select existing area
+3) Move out of the existing area's radius
+4) Click choose existing area</t>
+  </si>
+  <si>
+    <t>TC6-013</t>
+  </si>
+  <si>
+    <t>1) Click import file floating button with gps turned off</t>
+  </si>
+  <si>
+    <t>TC6-014</t>
+  </si>
+  <si>
+    <t>1) Click choose existing area / create new area with no internet connection</t>
+  </si>
+  <si>
+    <t>TC6-015</t>
+  </si>
+  <si>
+    <t>1) Click choose existing area / create new area with gps turned off</t>
+  </si>
+  <si>
+    <t>7. Add Empty Area</t>
+  </si>
+  <si>
+    <t>Test plan for add empty area</t>
+  </si>
+  <si>
+    <t>TC7-001</t>
+  </si>
+  <si>
+    <t>1) Click add empty area floating button</t>
+  </si>
+  <si>
+    <t>UI (User Interface) for creating new area is shown</t>
+  </si>
+  <si>
+    <t>TC7-002</t>
+  </si>
+  <si>
+    <t>1) Fill up new area name and description (additional)
+2) Select its radius (5 - 1000)
+3) Click create new area</t>
+  </si>
+  <si>
+    <t>New area is created</t>
+  </si>
+  <si>
+    <t>TC7-003</t>
+  </si>
+  <si>
+    <t>1) New area name empty
+2) Click create new area</t>
+  </si>
+  <si>
+    <t>TC7-004</t>
+  </si>
+  <si>
+    <t>1) Fill up new area name and description (additional)
+2) Radius empty
+3) Click create new area</t>
+  </si>
+  <si>
+    <t>TC7-005</t>
+  </si>
+  <si>
+    <t>1) Fill up new area name and description (additional)
+2) Select radius less than 5m or more than 1000m
+3) Click create new area</t>
+  </si>
+  <si>
+    <t>TC7-006</t>
+  </si>
+  <si>
+    <t>1) Fill up new area name with name that has existed before
+2) Select its radius (5 - 1000)
+3) Click create new area</t>
+  </si>
+  <si>
+    <t>TC7-007</t>
+  </si>
+  <si>
+    <t>1) Fill up new area name with 1 or less character
+2) Select its radius (5 - 1000)
+3) Click create new area</t>
+  </si>
+  <si>
+    <t>TC7-008</t>
+  </si>
+  <si>
+    <t>1) Click add empty area floating button with GPS turned off</t>
+  </si>
+  <si>
+    <t>TC7-009</t>
+  </si>
+  <si>
+    <t>1) Click create new area with GPS turned off</t>
+  </si>
+  <si>
+    <t>TC7-010</t>
+  </si>
+  <si>
+    <t>1) Click create new area with no internet connection</t>
+  </si>
+  <si>
+    <t>8. Area Operations</t>
+  </si>
+  <si>
+    <t>Test plan for area operations</t>
+  </si>
+  <si>
+    <t>TC8-001</t>
+  </si>
+  <si>
+    <t>1) Click area on google map</t>
+  </si>
+  <si>
+    <t>UI (User Interface) to edit area appear</t>
+  </si>
+  <si>
+    <t>TC8-002</t>
+  </si>
+  <si>
+    <t>1) Select new radius (5 - 1000) m
+2) Click change radius</t>
+  </si>
+  <si>
+    <t>Area's new radius is updated</t>
+  </si>
+  <si>
+    <t>TC8-003</t>
+  </si>
+  <si>
+    <t>1) Click delete area (no files inside the area)</t>
+  </si>
+  <si>
+    <t>Area is deleted and removed from google map</t>
+  </si>
+  <si>
+    <t>TC8-004</t>
+  </si>
+  <si>
+    <t>1) Select new radius less than 5m or more tham 1000m
+2) Click change radius</t>
+  </si>
+  <si>
+    <t>TC8-005</t>
+  </si>
+  <si>
+    <t>1) Click delete area (still contain one or more file inside the area)</t>
+  </si>
+  <si>
+    <t>TC8-006</t>
+  </si>
+  <si>
+    <t>1) Move out of the area's radius
+2) Click change radius / delete area</t>
+  </si>
+  <si>
+    <t>TC8-007</t>
+  </si>
+  <si>
+    <t>1) Click change radius / delete area with GPS turned off</t>
+  </si>
+  <si>
+    <t>TC8-008</t>
+  </si>
+  <si>
+    <t>1) Click change radius / delete area with no internet connection</t>
+  </si>
+  <si>
+    <t>18. Area Explorer</t>
+  </si>
+  <si>
+    <t>Test plan for area explorer</t>
+  </si>
+  <si>
+    <t>User is logged in and is within at least one area</t>
+  </si>
+  <si>
+    <t>TC18-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Click file explorer floating button on map                                              </t>
+  </si>
+  <si>
+    <t>List of all areas that the user are inside is shown</t>
+  </si>
+  <si>
+    <t>TC18-002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Click file explorer floating button on map with GPS turned off                                             </t>
+  </si>
+  <si>
+    <t>TC18-003</t>
+  </si>
+  <si>
+    <t>1) Click file explorer floating button on map with no location recorded</t>
+  </si>
+  <si>
+    <t>TC18-004</t>
+  </si>
+  <si>
+    <t>1)  Click an area in the list</t>
+  </si>
+  <si>
+    <t>List of files inside that area is shown</t>
+  </si>
+  <si>
+    <t>TC18-005</t>
+  </si>
+  <si>
+    <t>1)  Click an area in the list with GPS turned off</t>
+  </si>
+  <si>
+    <t>TC18-006</t>
+  </si>
+  <si>
+    <t>1) Click an area in the list but user has already moved out of that area's radius</t>
+  </si>
+  <si>
+    <t>19. File Explorer</t>
+  </si>
+  <si>
+    <t>Test plan for file explorer</t>
+  </si>
+  <si>
+    <t>User is logged in and at least one file is inside</t>
+  </si>
+  <si>
+    <t>TC19-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Click a file from the list                                              </t>
+  </si>
+  <si>
+    <t>Open the file with PDF Viewer</t>
+  </si>
+  <si>
+    <t>TC19-002</t>
+  </si>
+  <si>
+    <t>1)  Click file settings (three line icon) beside the file</t>
+  </si>
+  <si>
+    <t>Show file operation</t>
+  </si>
+  <si>
+    <t>TC19-003</t>
+  </si>
+  <si>
+    <t>1) Click a file from the list but file is not found in the device</t>
+  </si>
+  <si>
+    <t>Dialog shown asking if user wish to download the missing file from backup</t>
+  </si>
+  <si>
+    <t>TC19-004</t>
+  </si>
+  <si>
+    <t>1) Click a file from the list but file is not backed up yet</t>
+  </si>
+  <si>
+    <t>Dialog shown asking if user wish to upload the file to backup</t>
+  </si>
+  <si>
+    <t>TC19-005</t>
+  </si>
+  <si>
+    <t>1) Click a file from the list but file is not backed up yet and not found in the device</t>
+  </si>
+  <si>
+    <t>Dialog shown telling user that file is not available to download and suggest user to upload the file from device that has the file</t>
+  </si>
+  <si>
+    <t>TC19-006</t>
+  </si>
+  <si>
+    <t>1) Click a file from the list but user has already moved out of the area's radius</t>
+  </si>
+  <si>
+    <t>TC19-007</t>
+  </si>
+  <si>
+    <t>1)  Click a file in the list with GPS turned off</t>
+  </si>
+  <si>
+    <t>1) Enter valid email that has been used before
+2) Click on 'SIGN UP' button</t>
+  </si>
+  <si>
+    <t>Invalid error message</t>
+  </si>
+  <si>
+    <t>TC1-010</t>
+  </si>
+  <si>
+    <t>TC2-007</t>
+  </si>
+  <si>
+    <t>1. Enter wrong password 3 times consecutively</t>
+  </si>
+  <si>
+    <t>1. Click on 'LOG IN' button when no internet connection</t>
+  </si>
+  <si>
+    <t>A delay timer of 10 second should start</t>
+  </si>
+  <si>
+    <t>A delay timer of 10 second should starts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A message should be displayed to ask the user to switch on network. </t>
+  </si>
+  <si>
+    <t>TC4-006</t>
+  </si>
+  <si>
+    <t>Logout from the app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the pdf document
+2.  User move out of the area's radius (file is inside an area) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Select an existing area
+2. Click copy file button                                        </t>
+  </si>
+  <si>
+    <t>A copy of the file should be copied to the selected area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Select an existing area
+2. Click move file button                                        </t>
+  </si>
+  <si>
+    <t>The file is removed from the current area and added to the selected area</t>
+  </si>
+  <si>
+    <t>1. Delete all files from the current area</t>
+  </si>
+  <si>
+    <t>TC9-004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click copy file / move file / delete file with no internet connection                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Click copy file / move file / delete file with GPS turned off                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Move out from the current area's radius
+2. Click copy file / move file / delete file                                     </t>
+  </si>
+  <si>
+    <t>TC9-005</t>
+  </si>
+  <si>
+    <t>TC9-006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Copy files that will exceed user's storage of 1GB                                     </t>
+  </si>
+  <si>
+    <t>TC9-007</t>
+  </si>
+  <si>
+    <t>1. No area is selected 
+2. Click copy file / move file</t>
+  </si>
+  <si>
+    <t>The file is uploaded to S3</t>
+  </si>
+  <si>
+    <t>On login all data previously created in the other account should not be visible.</t>
+  </si>
+  <si>
+    <t>All of the data is not visible and the state of the app is set to what the new user should see.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -1084,7 +1521,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1161,30 +1598,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1236,6 +1703,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1245,48 +1754,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1295,6 +1762,23 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1338,7 +1822,7 @@
         <xdr:cNvPr id="2061" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30BA1063-A16B-4C68-A743-4B420C5465C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30BA1063-A16B-4C68-A743-4B420C5465C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1386,7 +1870,7 @@
         <xdr:cNvPr id="2060" name="Picture 12" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF567FBA-98D6-41F8-887E-3AB62EFCE5E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF567FBA-98D6-41F8-887E-3AB62EFCE5E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1447,7 +1931,7 @@
         <xdr:cNvPr id="2059" name="Picture 11" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E93150-DA75-4658-ACF7-D189E05151A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63E93150-DA75-4658-ACF7-D189E05151A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1508,7 +1992,7 @@
         <xdr:cNvPr id="2058" name="AutoShape 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31457A75-25A1-4182-A274-BF0A57FF81ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31457A75-25A1-4182-A274-BF0A57FF81ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1556,7 +2040,7 @@
         <xdr:cNvPr id="2057" name="AutoShape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD5E9B17-BBE9-4F3F-8C7B-720ECD2D681E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD5E9B17-BBE9-4F3F-8C7B-720ECD2D681E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +2088,7 @@
         <xdr:cNvPr id="2056" name="AutoShape 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF2AA01-B252-4B3A-A375-0E01973F5F28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACF2AA01-B252-4B3A-A375-0E01973F5F28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1652,7 +2136,7 @@
         <xdr:cNvPr id="2055" name="Picture 7" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65879D11-6224-4C7F-89C2-EB96196F1A0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65879D11-6224-4C7F-89C2-EB96196F1A0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1713,7 +2197,7 @@
         <xdr:cNvPr id="2054" name="Picture 6" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CF822E1-047C-4A3B-84DC-EC8AC8269EFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CF822E1-047C-4A3B-84DC-EC8AC8269EFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1774,7 +2258,7 @@
         <xdr:cNvPr id="2053" name="Picture 5" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04925A52-F4C6-4CD2-894B-53641F217E98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04925A52-F4C6-4CD2-894B-53641F217E98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1835,7 +2319,7 @@
         <xdr:cNvPr id="2052" name="Picture 4" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABFA5086-6E08-48C0-9ACC-F28827F67131}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ABFA5086-6E08-48C0-9ACC-F28827F67131}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1896,7 +2380,7 @@
         <xdr:cNvPr id="2051" name="Picture 3" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E4935A-4571-48AC-8BC5-8DE7A584B4D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57E4935A-4571-48AC-8BC5-8DE7A584B4D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1957,7 +2441,7 @@
         <xdr:cNvPr id="2050" name="Picture 2" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C78A6D-821A-410B-9678-567D6BA6A13D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73C78A6D-821A-410B-9678-567D6BA6A13D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2018,7 +2502,7 @@
         <xdr:cNvPr id="2049" name="Picture 1" descr="out?google_nid=adroll5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0583EF1F-95CC-4F68-83EF-C3E41E3B377C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0583EF1F-95CC-4F68-83EF-C3E41E3B377C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2360,36 +2844,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I204"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F209" sqref="F209"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C226" sqref="C226:G226"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="38.109375" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="7.21875" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.799999999999997" customHeight="1">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:9" ht="40.9" customHeight="1">
+      <c r="A1" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="78"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
     </row>
@@ -2404,68 +2888,68 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
     </row>
-    <row r="3" spans="1:9" ht="31.2" customHeight="1" thickBot="1">
-      <c r="A3" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+    <row r="3" spans="1:9" ht="31.15" customHeight="1" thickBot="1">
+      <c r="A3" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="43" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:9" ht="14.45" customHeight="1">
+      <c r="A5" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="58"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:9" ht="14.45" customHeight="1">
+      <c r="A6" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
       <c r="H6" s="17"/>
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="54"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="64"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
     </row>
@@ -2473,14 +2957,14 @@
       <c r="A8" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="38" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="31"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="21" t="s">
         <v>70</v>
       </c>
@@ -2488,239 +2972,249 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="70.2" customHeight="1">
+    <row r="9" spans="1:9" ht="70.150000000000006" customHeight="1">
       <c r="A9" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="37"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="46"/>
       <c r="F9" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="43.5" customHeight="1">
+      <c r="A10" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="46"/>
+      <c r="D10" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="65"/>
+      <c r="F10" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="48.75" customHeight="1">
+      <c r="A11" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>336</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E11" s="65"/>
+      <c r="F11" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="54.75" customHeight="1">
+      <c r="A12" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="46"/>
+      <c r="D12" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E12" s="65"/>
+      <c r="F12" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="73.150000000000006" customHeight="1">
+      <c r="A13" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="41.4" customHeight="1">
-      <c r="A10" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="36" t="s">
+      <c r="C13" s="65"/>
+      <c r="D13" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E13" s="65"/>
+      <c r="F13" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="27" t="s">
+      <c r="G13" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="61.5" customHeight="1">
+      <c r="A14" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E14" s="65"/>
+      <c r="F14" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="G10" s="27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="67.8" customHeight="1">
-      <c r="A11" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="B11" s="36" t="s">
+      <c r="G14" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="61.5" customHeight="1">
+      <c r="A15" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="66"/>
+      <c r="D15" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="73.2" customHeight="1">
-      <c r="A12" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" s="36" t="s">
+      <c r="E15" s="65"/>
+      <c r="F15" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="59.25" customHeight="1">
+      <c r="A16" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="66"/>
+      <c r="D16" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" s="65"/>
+      <c r="F16" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="60" customHeight="1">
+      <c r="A17" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="57" customHeight="1">
-      <c r="A13" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="55.95" customHeight="1">
-      <c r="A14" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="B14" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="92.4" customHeight="1">
-      <c r="A15" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="B15" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="84.6" customHeight="1">
-      <c r="A16" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="B16" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="94.8" customHeight="1">
-      <c r="A17" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="B17" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="60"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E17" s="65"/>
       <c r="F17" s="28" t="s">
         <v>115</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="65.25" customHeight="1">
+      <c r="A18" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="66"/>
+      <c r="D18" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="65"/>
+      <c r="F18" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="38" t="s">
+      <c r="B19" s="47"/>
+      <c r="C19" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="39">
+      <c r="B20" s="47"/>
+      <c r="C20" s="49">
         <v>43014</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="30" t="s">
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="30" t="s">
+      <c r="B21" s="47"/>
+      <c r="C21" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="44"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
-    </row>
-    <row r="22" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="1:7" ht="10.8" customHeight="1">
+      <c r="B22" s="41"/>
+      <c r="C22" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="44"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.45" customHeight="1">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -2729,7 +3223,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" ht="15.6" customHeight="1">
+    <row r="24" spans="1:7" ht="10.9" customHeight="1">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -2738,7 +3232,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7" ht="14.4" customHeight="1">
+    <row r="25" spans="1:7" ht="15.6" customHeight="1">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -2747,7 +3241,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="14.45" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -2756,1781 +3250,3429 @@
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:7" ht="12" customHeight="1"/>
-    <row r="28" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A28" s="40" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="1:7" ht="12" customHeight="1"/>
+    <row r="29" spans="1:7" ht="20.25" thickBot="1">
+      <c r="A29" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A30" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="70"/>
+      <c r="C30" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="73"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="52"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="58"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="52"/>
+      <c r="C32" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="75"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="79"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="81"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="47"/>
+      <c r="D34" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="47"/>
+      <c r="F34" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18" customHeight="1">
+      <c r="A35" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="68"/>
+      <c r="D35" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="44"/>
+      <c r="F35" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="46.9" customHeight="1">
+      <c r="A36" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="68"/>
+      <c r="D36" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E36" s="65"/>
+      <c r="F36" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="45.6" customHeight="1">
+      <c r="A37" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="68"/>
+      <c r="D37" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="65"/>
+      <c r="F37" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="48" customHeight="1">
+      <c r="A38" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="68"/>
+      <c r="D38" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="65"/>
+      <c r="F38" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="39.75" customHeight="1">
+      <c r="A39" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="C39" s="65"/>
+      <c r="D39" s="45" t="s">
+        <v>342</v>
+      </c>
+      <c r="E39" s="65"/>
+      <c r="F39" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="90.75" customHeight="1">
+      <c r="A40" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="65"/>
+      <c r="D40" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="E40" s="65"/>
+      <c r="F40" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="39.75" customHeight="1">
+      <c r="A41" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="C41" s="65"/>
+      <c r="D41" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E41" s="65"/>
+      <c r="F41" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="47"/>
+      <c r="C42" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="44"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="47"/>
+      <c r="C43" s="49">
+        <v>43042</v>
+      </c>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="44"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="41"/>
+      <c r="C44" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="44"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="41"/>
+      <c r="C45" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="44"/>
+    </row>
+    <row r="49" spans="1:7" ht="20.25" thickBot="1">
+      <c r="A49" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="50"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A50" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="52"/>
+      <c r="C50" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="55"/>
+    </row>
+    <row r="51" spans="1:7" ht="16.899999999999999" customHeight="1">
+      <c r="A51" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="52"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="58"/>
+    </row>
+    <row r="52" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A52" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="52"/>
+      <c r="C52" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="61"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.6" customHeight="1">
+      <c r="A53" s="62"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="64"/>
+    </row>
+    <row r="54" spans="1:7" ht="27" customHeight="1">
+      <c r="A54" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="47"/>
+      <c r="D54" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="47"/>
+      <c r="F54" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G54" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="35.450000000000003" customHeight="1">
+      <c r="A55" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="46"/>
+      <c r="D55" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" s="46"/>
+      <c r="F55" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="G55" s="27" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.6" customHeight="1">
+      <c r="A56" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="47"/>
+      <c r="C56" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="44"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="47"/>
+      <c r="C57" s="49">
+        <v>43046</v>
+      </c>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="44"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="47"/>
+      <c r="C58" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="44"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="41"/>
+      <c r="C59" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="44"/>
+    </row>
+    <row r="62" spans="1:7" ht="20.25" thickBot="1">
+      <c r="A62" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="B62" s="50"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A63" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="52"/>
+      <c r="C63" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="55"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="52"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="58"/>
+    </row>
+    <row r="65" spans="1:7" ht="15" customHeight="1">
+      <c r="A65" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="52"/>
+      <c r="C65" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="60"/>
+      <c r="G65" s="61"/>
+    </row>
+    <row r="66" spans="1:7" ht="21" customHeight="1">
+      <c r="A66" s="62"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="63"/>
+      <c r="G66" s="64"/>
+    </row>
+    <row r="67" spans="1:7" ht="56.45" customHeight="1">
+      <c r="A67" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="47"/>
+      <c r="D67" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="47"/>
+      <c r="F67" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="60.75" customHeight="1">
+      <c r="A68" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B68" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="46"/>
+      <c r="D68" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="E68" s="46"/>
+      <c r="F68" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="G68" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="44.25" customHeight="1">
+      <c r="A69" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B69" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C69" s="46"/>
+      <c r="D69" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" s="46"/>
+      <c r="F69" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="G69" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="57.75" customHeight="1">
+      <c r="A70" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="B70" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="46"/>
+      <c r="D70" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="E70" s="46"/>
+      <c r="F70" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="G70" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="45">
+      <c r="A71" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B71" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C71" s="46"/>
+      <c r="D71" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="E71" s="46"/>
+      <c r="F71" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="G71" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="30">
+      <c r="A72" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B72" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" s="46"/>
+      <c r="D72" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="E72" s="46"/>
+      <c r="F72" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="G72" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="24.75" customHeight="1">
+      <c r="A73" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="B73" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73" s="46"/>
+      <c r="D73" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="E73" s="46"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="47"/>
+      <c r="C74" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="44"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="47"/>
+      <c r="C75" s="49">
+        <v>43045</v>
+      </c>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="44"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="47"/>
+      <c r="C76" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="44"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B77" s="41"/>
+      <c r="C77" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="44"/>
+    </row>
+    <row r="84" spans="1:7" ht="20.25" thickBot="1">
+      <c r="A84" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="B84" s="50"/>
+      <c r="C84" s="50"/>
+      <c r="D84" s="50"/>
+      <c r="E84" s="50"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="50"/>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A85" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B85" s="52"/>
+      <c r="C85" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="D85" s="54"/>
+      <c r="E85" s="54"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="55"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B86" s="52"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="57"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="58"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B87" s="52"/>
+      <c r="C87" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="D87" s="60"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="60"/>
+      <c r="G87" s="61"/>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A88" s="62"/>
+      <c r="B88" s="63"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="63"/>
+      <c r="G88" s="64"/>
+    </row>
+    <row r="89" spans="1:7" ht="18" customHeight="1">
+      <c r="A89" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B89" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C89" s="47"/>
+      <c r="D89" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="47"/>
+      <c r="F89" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G89" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="47.45" customHeight="1">
+      <c r="A90" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C90" s="46"/>
+      <c r="D90" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E90" s="46"/>
+      <c r="F90" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="G90" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="58.5" customHeight="1">
+      <c r="A91" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" thickTop="1">
-      <c r="A29" s="65" t="s">
+      <c r="B91" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="C91" s="46"/>
+      <c r="D91" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="E91" s="46"/>
+      <c r="F91" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G91" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="32.25" customHeight="1">
+      <c r="A92" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C92" s="46"/>
+      <c r="D92" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="E92" s="46"/>
+      <c r="F92" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="G92" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B93" s="47"/>
+      <c r="C93" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="44"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B94" s="47"/>
+      <c r="C94" s="49">
+        <v>43046</v>
+      </c>
+      <c r="D94" s="43"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="43"/>
+      <c r="G94" s="44"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B95" s="47"/>
+      <c r="C95" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D95" s="43"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="44"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B96" s="41"/>
+      <c r="C96" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D96" s="43"/>
+      <c r="E96" s="43"/>
+      <c r="F96" s="43"/>
+      <c r="G96" s="44"/>
+    </row>
+    <row r="101" spans="1:9" ht="31.15" customHeight="1" thickBot="1">
+      <c r="A101" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="B101" s="50"/>
+      <c r="C101" s="50"/>
+      <c r="D101" s="50"/>
+      <c r="E101" s="50"/>
+      <c r="F101" s="50"/>
+      <c r="G101" s="50"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+    </row>
+    <row r="102" spans="1:9" ht="18.600000000000001" customHeight="1" thickTop="1">
+      <c r="A102" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="66"/>
-      <c r="C29" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="69"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="41" t="s">
+      <c r="B102" s="52"/>
+      <c r="C102" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="D102" s="54"/>
+      <c r="E102" s="54"/>
+      <c r="F102" s="54"/>
+      <c r="G102" s="55"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
+    </row>
+    <row r="103" spans="1:9" ht="14.45" customHeight="1">
+      <c r="A103" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="41" t="s">
+      <c r="B103" s="52"/>
+      <c r="C103" s="56"/>
+      <c r="D103" s="57"/>
+      <c r="E103" s="57"/>
+      <c r="F103" s="57"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
+    </row>
+    <row r="104" spans="1:9" ht="14.45" customHeight="1">
+      <c r="A104" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="71"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="55"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="57"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="22" t="s">
+      <c r="B104" s="52"/>
+      <c r="C104" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="D104" s="60"/>
+      <c r="E104" s="60"/>
+      <c r="F104" s="60"/>
+      <c r="G104" s="61"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="18"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="62"/>
+      <c r="B105" s="63"/>
+      <c r="C105" s="63"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="63"/>
+      <c r="F105" s="63"/>
+      <c r="G105" s="64"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="18"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B106" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="38" t="s">
+      <c r="C106" s="47"/>
+      <c r="D106" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="21" t="s">
+      <c r="E106" s="47"/>
+      <c r="F106" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G106" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1">
-      <c r="A34" s="23" t="s">
+    <row r="107" spans="1:9" ht="33.75" customHeight="1">
+      <c r="A107" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="B34" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="46.8" customHeight="1">
-      <c r="A35" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="B35" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="60"/>
-      <c r="F35" s="20" t="s">
+      <c r="B107" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="C107" s="46"/>
+      <c r="D107" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="E107" s="65"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27"/>
+    </row>
+    <row r="108" spans="1:9" ht="81" customHeight="1">
+      <c r="A108" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B108" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="C108" s="46"/>
+      <c r="D108" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="E108" s="46"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
+    </row>
+    <row r="109" spans="1:9" ht="54" customHeight="1">
+      <c r="A109" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B109" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="C109" s="46"/>
+      <c r="D109" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="E109" s="65"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27"/>
+    </row>
+    <row r="110" spans="1:9" ht="60.75" customHeight="1">
+      <c r="A110" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B110" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="C110" s="46"/>
+      <c r="D110" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="E110" s="46"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+    </row>
+    <row r="111" spans="1:9" ht="58.5" customHeight="1">
+      <c r="A111" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="B111" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="C111" s="46"/>
+      <c r="D111" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E111" s="46"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="27"/>
+    </row>
+    <row r="112" spans="1:9" ht="61.5" customHeight="1">
+      <c r="A112" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="B112" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="C112" s="46"/>
+      <c r="D112" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E112" s="46"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27"/>
+    </row>
+    <row r="113" spans="1:7" ht="79.5" customHeight="1">
+      <c r="A113" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="B113" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="C113" s="46"/>
+      <c r="D113" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E113" s="46"/>
+      <c r="F113" s="28"/>
+      <c r="G113" s="27"/>
+    </row>
+    <row r="114" spans="1:7" ht="84" customHeight="1">
+      <c r="A114" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="B114" s="45" t="s">
+        <v>237</v>
+      </c>
+      <c r="C114" s="46"/>
+      <c r="D114" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E114" s="46"/>
+      <c r="F114" s="28"/>
+      <c r="G114" s="27"/>
+    </row>
+    <row r="115" spans="1:7" ht="82.5" customHeight="1">
+      <c r="A115" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="B115" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="C115" s="46"/>
+      <c r="D115" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E115" s="46"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="27"/>
+    </row>
+    <row r="116" spans="1:7" ht="93.75" customHeight="1">
+      <c r="A116" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="B116" s="45" t="s">
+        <v>241</v>
+      </c>
+      <c r="C116" s="46"/>
+      <c r="D116" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E116" s="46"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="27"/>
+    </row>
+    <row r="117" spans="1:7" ht="72" customHeight="1">
+      <c r="A117" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="B117" s="45" t="s">
+        <v>243</v>
+      </c>
+      <c r="C117" s="46"/>
+      <c r="D117" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E117" s="46"/>
+      <c r="F117" s="85"/>
+      <c r="G117" s="85"/>
+    </row>
+    <row r="118" spans="1:7" ht="93" customHeight="1">
+      <c r="A118" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="B118" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="C118" s="46"/>
+      <c r="D118" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E118" s="46"/>
+      <c r="F118" s="85"/>
+      <c r="G118" s="85"/>
+    </row>
+    <row r="119" spans="1:7" ht="50.25" customHeight="1">
+      <c r="A119" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="B119" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="C119" s="46"/>
+      <c r="D119" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E119" s="46"/>
+      <c r="F119" s="85"/>
+      <c r="G119" s="85"/>
+    </row>
+    <row r="120" spans="1:7" ht="56.25" customHeight="1">
+      <c r="A120" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="B120" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="C120" s="46"/>
+      <c r="D120" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E120" s="46"/>
+      <c r="F120" s="85"/>
+      <c r="G120" s="85"/>
+    </row>
+    <row r="121" spans="1:7" ht="56.25" customHeight="1">
+      <c r="A121" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="B121" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="C121" s="46"/>
+      <c r="D121" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E121" s="46"/>
+      <c r="F121" s="85"/>
+      <c r="G121" s="85"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B122" s="47"/>
+      <c r="C122" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="G35" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="45.6" customHeight="1">
-      <c r="A36" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="B36" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="E36" s="60"/>
-      <c r="F36" s="20" t="s">
+      <c r="D122" s="31"/>
+      <c r="E122" s="31"/>
+      <c r="F122" s="31"/>
+      <c r="G122" s="32"/>
+    </row>
+    <row r="123" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A123" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B123" s="47"/>
+      <c r="C123" s="33">
+        <v>43014</v>
+      </c>
+      <c r="D123" s="31"/>
+      <c r="E123" s="31"/>
+      <c r="F123" s="31"/>
+      <c r="G123" s="32"/>
+    </row>
+    <row r="124" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A124" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B124" s="47"/>
+      <c r="C124" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D124" s="23"/>
+      <c r="E124" s="86"/>
+      <c r="F124" s="86"/>
+      <c r="G124" s="87"/>
+    </row>
+    <row r="125" spans="1:7" ht="15.6" customHeight="1">
+      <c r="A125" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B125" s="41"/>
+      <c r="C125" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D125" s="88"/>
+      <c r="E125" s="89"/>
+      <c r="F125" s="89"/>
+      <c r="G125" s="90"/>
+    </row>
+    <row r="126" spans="1:7" ht="14.45" customHeight="1">
+      <c r="A126" s="18"/>
+      <c r="B126" s="18"/>
+      <c r="C126" s="18"/>
+      <c r="D126" s="18"/>
+      <c r="E126" s="18"/>
+      <c r="F126" s="18"/>
+      <c r="G126" s="18"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="18"/>
+      <c r="B127" s="18"/>
+      <c r="C127" s="18"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="18"/>
+      <c r="F127" s="18"/>
+      <c r="G127" s="18"/>
+    </row>
+    <row r="128" spans="1:7" ht="12" customHeight="1">
+      <c r="A128" s="18"/>
+      <c r="B128" s="18"/>
+      <c r="C128" s="18"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="18"/>
+      <c r="G128" s="18"/>
+    </row>
+    <row r="129" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A129" s="18"/>
+      <c r="B129" s="18"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="18"/>
+      <c r="E129" s="18"/>
+      <c r="F129" s="18"/>
+      <c r="G129" s="18"/>
+    </row>
+    <row r="130" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A130" s="18"/>
+      <c r="B130" s="18"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="18"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="18"/>
+      <c r="G130" s="18"/>
+    </row>
+    <row r="131" spans="1:7" ht="15" customHeight="1"/>
+    <row r="132" spans="1:7" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A132" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="B132" s="50"/>
+      <c r="C132" s="50"/>
+      <c r="D132" s="50"/>
+      <c r="E132" s="50"/>
+      <c r="F132" s="50"/>
+      <c r="G132" s="50"/>
+    </row>
+    <row r="133" spans="1:7" ht="15" customHeight="1" thickTop="1">
+      <c r="A133" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B133" s="70"/>
+      <c r="C133" s="71" t="s">
+        <v>253</v>
+      </c>
+      <c r="D133" s="72"/>
+      <c r="E133" s="72"/>
+      <c r="F133" s="72"/>
+      <c r="G133" s="73"/>
+    </row>
+    <row r="134" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A134" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B134" s="52"/>
+      <c r="C134" s="56"/>
+      <c r="D134" s="57"/>
+      <c r="E134" s="57"/>
+      <c r="F134" s="57"/>
+      <c r="G134" s="58"/>
+    </row>
+    <row r="135" spans="1:7" ht="12" customHeight="1">
+      <c r="A135" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B135" s="52"/>
+      <c r="C135" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="D135" s="74"/>
+      <c r="E135" s="74"/>
+      <c r="F135" s="74"/>
+      <c r="G135" s="75"/>
+    </row>
+    <row r="136" spans="1:7" ht="15" customHeight="1">
+      <c r="A136" s="37"/>
+      <c r="B136" s="38"/>
+      <c r="C136" s="38"/>
+      <c r="D136" s="38"/>
+      <c r="E136" s="38"/>
+      <c r="F136" s="38"/>
+      <c r="G136" s="39"/>
+    </row>
+    <row r="137" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A137" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B137" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C137" s="47"/>
+      <c r="D137" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="47"/>
+      <c r="F137" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G137" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="46.5" customHeight="1">
+      <c r="A138" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="B138" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="C138" s="65"/>
+      <c r="D138" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="E138" s="65"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="20"/>
+    </row>
+    <row r="139" spans="1:7" ht="72" customHeight="1">
+      <c r="A139" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="B139" s="45" t="s">
+        <v>258</v>
+      </c>
+      <c r="C139" s="65"/>
+      <c r="D139" s="91" t="s">
+        <v>259</v>
+      </c>
+      <c r="E139" s="46"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="20"/>
+    </row>
+    <row r="140" spans="1:7" ht="59.25" customHeight="1">
+      <c r="A140" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="B140" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="C140" s="65"/>
+      <c r="D140" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E140" s="65"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="20"/>
+    </row>
+    <row r="141" spans="1:7" ht="75.75" customHeight="1">
+      <c r="A141" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="B141" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="C141" s="65"/>
+      <c r="D141" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E141" s="65"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="20"/>
+    </row>
+    <row r="142" spans="1:7" ht="71.25" customHeight="1">
+      <c r="A142" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="B142" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="C142" s="65"/>
+      <c r="D142" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E142" s="65"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="20"/>
+    </row>
+    <row r="143" spans="1:7" ht="69.75" customHeight="1">
+      <c r="A143" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="B143" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="C143" s="65"/>
+      <c r="D143" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E143" s="65"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="20"/>
+    </row>
+    <row r="144" spans="1:7" ht="68.25" customHeight="1">
+      <c r="A144" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="B144" s="45" t="s">
+        <v>269</v>
+      </c>
+      <c r="C144" s="65"/>
+      <c r="D144" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E144" s="65"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="20"/>
+    </row>
+    <row r="145" spans="1:7" ht="51.75" customHeight="1">
+      <c r="A145" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="B145" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="C145" s="46"/>
+      <c r="D145" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E145" s="46"/>
+      <c r="F145" s="85"/>
+      <c r="G145" s="85"/>
+    </row>
+    <row r="146" spans="1:7" ht="44.25" customHeight="1">
+      <c r="A146" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="B146" s="45" t="s">
+        <v>273</v>
+      </c>
+      <c r="C146" s="46"/>
+      <c r="D146" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E146" s="46"/>
+      <c r="F146" s="85"/>
+      <c r="G146" s="85"/>
+    </row>
+    <row r="147" spans="1:7" ht="46.5" customHeight="1">
+      <c r="A147" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="B147" s="45" t="s">
+        <v>275</v>
+      </c>
+      <c r="C147" s="46"/>
+      <c r="D147" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E147" s="46"/>
+      <c r="F147" s="85"/>
+      <c r="G147" s="85"/>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B148" s="47"/>
+      <c r="C148" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D148" s="31"/>
+      <c r="E148" s="31"/>
+      <c r="F148" s="31"/>
+      <c r="G148" s="32"/>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B149" s="47"/>
+      <c r="C149" s="33">
+        <v>43042</v>
+      </c>
+      <c r="D149" s="31"/>
+      <c r="E149" s="31"/>
+      <c r="F149" s="31"/>
+      <c r="G149" s="32"/>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B150" s="41"/>
+      <c r="C150" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="G36" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="48" customHeight="1">
-      <c r="A37" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="B37" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="64.2" customHeight="1">
-      <c r="A38" s="26" t="s">
+      <c r="D150" s="31"/>
+      <c r="E150" s="31"/>
+      <c r="F150" s="31"/>
+      <c r="G150" s="32"/>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B151" s="41"/>
+      <c r="C151" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D151" s="31"/>
+      <c r="E151" s="31"/>
+      <c r="F151" s="31"/>
+      <c r="G151" s="32"/>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="92"/>
+      <c r="B152" s="92"/>
+      <c r="C152" s="92"/>
+      <c r="D152" s="92"/>
+      <c r="E152" s="92"/>
+      <c r="F152" s="92"/>
+      <c r="G152" s="92"/>
+    </row>
+    <row r="153" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A153" s="92"/>
+      <c r="B153" s="92"/>
+      <c r="C153" s="92"/>
+      <c r="D153" s="92"/>
+      <c r="E153" s="92"/>
+      <c r="F153" s="92"/>
+      <c r="G153" s="92"/>
+    </row>
+    <row r="154" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A154" s="92"/>
+      <c r="B154" s="92"/>
+      <c r="C154" s="92"/>
+      <c r="D154" s="92"/>
+      <c r="E154" s="92"/>
+      <c r="F154" s="92"/>
+      <c r="G154" s="92"/>
+    </row>
+    <row r="155" spans="1:7" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A155" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="B155" s="50"/>
+      <c r="C155" s="50"/>
+      <c r="D155" s="50"/>
+      <c r="E155" s="50"/>
+      <c r="F155" s="50"/>
+      <c r="G155" s="50"/>
+    </row>
+    <row r="156" spans="1:7" ht="16.5" customHeight="1" thickTop="1">
+      <c r="A156" s="69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B156" s="70"/>
+      <c r="C156" s="71" t="s">
+        <v>277</v>
+      </c>
+      <c r="D156" s="72"/>
+      <c r="E156" s="72"/>
+      <c r="F156" s="72"/>
+      <c r="G156" s="73"/>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B157" s="52"/>
+      <c r="C157" s="56"/>
+      <c r="D157" s="57"/>
+      <c r="E157" s="57"/>
+      <c r="F157" s="57"/>
+      <c r="G157" s="58"/>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B158" s="52"/>
+      <c r="C158" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="D158" s="74"/>
+      <c r="E158" s="74"/>
+      <c r="F158" s="74"/>
+      <c r="G158" s="75"/>
+    </row>
+    <row r="159" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A159" s="37"/>
+      <c r="B159" s="38"/>
+      <c r="C159" s="38"/>
+      <c r="D159" s="38"/>
+      <c r="E159" s="38"/>
+      <c r="F159" s="38"/>
+      <c r="G159" s="39"/>
+    </row>
+    <row r="160" spans="1:7" ht="47.25" customHeight="1">
+      <c r="A160" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B160" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C160" s="47"/>
+      <c r="D160" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="47"/>
+      <c r="F160" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G160" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="48" customHeight="1">
+      <c r="A161" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="B161" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="C161" s="65"/>
+      <c r="D161" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="E161" s="65"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="20"/>
+    </row>
+    <row r="162" spans="1:7" ht="56.25" customHeight="1">
+      <c r="A162" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="B162" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="C162" s="65"/>
+      <c r="D162" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="E162" s="65"/>
+      <c r="F162" s="20"/>
+      <c r="G162" s="20"/>
+    </row>
+    <row r="163" spans="1:7" ht="56.25" customHeight="1">
+      <c r="A163" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="B163" s="45" t="s">
+        <v>285</v>
+      </c>
+      <c r="C163" s="65"/>
+      <c r="D163" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="E163" s="65"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="20"/>
+    </row>
+    <row r="164" spans="1:7" ht="64.5" customHeight="1">
+      <c r="A164" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="B164" s="45" t="s">
+        <v>288</v>
+      </c>
+      <c r="C164" s="65"/>
+      <c r="D164" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E164" s="65"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="20"/>
+    </row>
+    <row r="165" spans="1:7" ht="48" customHeight="1">
+      <c r="A165" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="B165" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="C165" s="65"/>
+      <c r="D165" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E165" s="65"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="20"/>
+    </row>
+    <row r="166" spans="1:7" ht="66" customHeight="1">
+      <c r="A166" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="B166" s="45" t="s">
+        <v>292</v>
+      </c>
+      <c r="C166" s="65"/>
+      <c r="D166" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E166" s="65"/>
+      <c r="F166" s="20"/>
+      <c r="G166" s="20"/>
+    </row>
+    <row r="167" spans="1:7" ht="54.75" customHeight="1">
+      <c r="A167" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="B167" s="45" t="s">
+        <v>294</v>
+      </c>
+      <c r="C167" s="46"/>
+      <c r="D167" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E167" s="46"/>
+      <c r="F167" s="85"/>
+      <c r="G167" s="85"/>
+    </row>
+    <row r="168" spans="1:7" ht="46.5" customHeight="1">
+      <c r="A168" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="B168" s="45" t="s">
+        <v>296</v>
+      </c>
+      <c r="C168" s="46"/>
+      <c r="D168" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E168" s="46"/>
+      <c r="F168" s="85"/>
+      <c r="G168" s="85"/>
+    </row>
+    <row r="169" spans="1:7" ht="18" customHeight="1">
+      <c r="A169" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B169" s="47"/>
+      <c r="C169" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D169" s="31"/>
+      <c r="E169" s="31"/>
+      <c r="F169" s="31"/>
+      <c r="G169" s="32"/>
+    </row>
+    <row r="170" spans="1:7" ht="24" customHeight="1">
+      <c r="A170" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B170" s="47"/>
+      <c r="C170" s="33">
+        <v>43042</v>
+      </c>
+      <c r="D170" s="31"/>
+      <c r="E170" s="31"/>
+      <c r="F170" s="31"/>
+      <c r="G170" s="32"/>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B171" s="41"/>
+      <c r="C171" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D171" s="31"/>
+      <c r="E171" s="31"/>
+      <c r="F171" s="31"/>
+      <c r="G171" s="32"/>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B172" s="41"/>
+      <c r="C172" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D172" s="31"/>
+      <c r="E172" s="31"/>
+      <c r="F172" s="31"/>
+      <c r="G172" s="32"/>
+    </row>
+    <row r="173" spans="1:7" ht="27.75" customHeight="1"/>
+    <row r="180" spans="1:7" ht="20.25" thickBot="1">
+      <c r="A180" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="B38" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="E38" s="60"/>
-      <c r="F38" s="27" t="s">
-        <v>161</v>
-      </c>
-      <c r="G38" s="27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="83.4" customHeight="1">
-      <c r="A39" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="E39" s="60"/>
-      <c r="F39" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="G39" s="27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="34"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="39">
-        <v>43042</v>
-      </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="34"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="34"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43" s="35"/>
-      <c r="C43" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="34"/>
-    </row>
-    <row r="47" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A47" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-    </row>
-    <row r="48" spans="1:7" ht="15" thickTop="1">
-      <c r="A48" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="45"/>
-    </row>
-    <row r="49" spans="1:7" ht="16.8" customHeight="1">
-      <c r="A49" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="42"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="48"/>
-    </row>
-    <row r="50" spans="1:7" ht="26.4" customHeight="1">
-      <c r="A50" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" s="42"/>
-      <c r="C50" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="51"/>
-    </row>
-    <row r="51" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A51" s="52"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="54"/>
-    </row>
-    <row r="52" spans="1:7" ht="27" customHeight="1">
-      <c r="A52" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B52" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" s="31"/>
-      <c r="D52" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="31"/>
-      <c r="F52" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G52" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="35.4" customHeight="1">
-      <c r="A53" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="B53" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" s="37"/>
-      <c r="D53" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="E53" s="37"/>
-      <c r="F53" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="G53" s="27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A54" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="31"/>
-      <c r="C54" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="34"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B55" s="31"/>
-      <c r="C55" s="39">
-        <v>43046</v>
-      </c>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="34"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B56" s="31"/>
-      <c r="C56" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="34"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57" s="35"/>
-      <c r="C57" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="34"/>
-    </row>
-    <row r="60" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A60" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
-    </row>
-    <row r="61" spans="1:7" ht="15" thickTop="1">
-      <c r="A61" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" s="42"/>
-      <c r="C61" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
-      <c r="F61" s="44"/>
-      <c r="G61" s="45"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="B62" s="42"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="48"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="B63" s="42"/>
-      <c r="C63" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="D63" s="50"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="50"/>
-      <c r="G63" s="51"/>
-    </row>
-    <row r="64" spans="1:7" ht="21" customHeight="1">
-      <c r="A64" s="52"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="54"/>
-    </row>
-    <row r="65" spans="1:7" ht="56.4" customHeight="1">
-      <c r="A65" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B65" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E65" s="31"/>
-      <c r="F65" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G65" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="49.8" customHeight="1">
-      <c r="A66" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="B66" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="C66" s="37"/>
-      <c r="D66" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="E66" s="37"/>
-      <c r="F66" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="G66" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="63.6" customHeight="1">
-      <c r="A67" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="B67" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="C67" s="37"/>
-      <c r="D67" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="E67" s="37"/>
-      <c r="F67" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="G67" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="79.2" customHeight="1">
-      <c r="A68" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="B68" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="C68" s="37"/>
-      <c r="D68" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="E68" s="37"/>
-      <c r="F68" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="G68" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="43.2">
-      <c r="A69" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="B69" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="C69" s="37"/>
-      <c r="D69" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="E69" s="37"/>
-      <c r="F69" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="G69" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="28.8">
-      <c r="A70" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="B70" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="C70" s="37"/>
-      <c r="D70" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="E70" s="37"/>
-      <c r="F70" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="G70" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" s="31"/>
-      <c r="C71" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="34"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" s="31"/>
-      <c r="C72" s="39">
-        <v>43045</v>
-      </c>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="34"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" s="31"/>
-      <c r="C73" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="34"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B74" s="35"/>
-      <c r="C74" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="34"/>
-    </row>
-    <row r="82" spans="1:7" ht="53.4" customHeight="1"/>
-    <row r="83" spans="1:7" ht="49.2" customHeight="1"/>
-    <row r="84" spans="1:7" ht="49.2" customHeight="1"/>
-    <row r="94" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A94" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="B94" s="40"/>
-      <c r="C94" s="40"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="40"/>
-      <c r="F94" s="40"/>
-      <c r="G94" s="40"/>
-    </row>
-    <row r="95" spans="1:7" ht="15" thickTop="1">
-      <c r="A95" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B95" s="42"/>
-      <c r="C95" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="D95" s="44"/>
-      <c r="E95" s="44"/>
-      <c r="F95" s="44"/>
-      <c r="G95" s="45"/>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="B96" s="42"/>
-      <c r="C96" s="46"/>
-      <c r="D96" s="47"/>
-      <c r="E96" s="47"/>
-      <c r="F96" s="47"/>
-      <c r="G96" s="48"/>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="B97" s="42"/>
-      <c r="C97" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="D97" s="50"/>
-      <c r="E97" s="50"/>
-      <c r="F97" s="50"/>
-      <c r="G97" s="51"/>
-    </row>
-    <row r="98" spans="1:7" ht="53.4" customHeight="1">
-      <c r="A98" s="52"/>
-      <c r="B98" s="53"/>
-      <c r="C98" s="53"/>
-      <c r="D98" s="53"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="53"/>
-      <c r="G98" s="54"/>
-    </row>
-    <row r="99" spans="1:7" ht="54" customHeight="1">
-      <c r="A99" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B99" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C99" s="31"/>
-      <c r="D99" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E99" s="31"/>
-      <c r="F99" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G99" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="47.4" customHeight="1">
-      <c r="A100" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="B100" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="C100" s="37"/>
-      <c r="D100" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="E100" s="37"/>
-      <c r="F100" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="G100" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="44.4" customHeight="1">
-      <c r="A101" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="B101" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="C101" s="37"/>
-      <c r="D101" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="E101" s="37"/>
-      <c r="F101" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="G101" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="22.2" customHeight="1">
-      <c r="A102" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="B102" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C102" s="37"/>
-      <c r="D102" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="E102" s="37"/>
-      <c r="F102" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="G102" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B103" s="31"/>
-      <c r="C103" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="D103" s="33"/>
-      <c r="E103" s="33"/>
-      <c r="F103" s="33"/>
-      <c r="G103" s="34"/>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B104" s="31"/>
-      <c r="C104" s="39">
-        <v>43046</v>
-      </c>
-      <c r="D104" s="33"/>
-      <c r="E104" s="33"/>
-      <c r="F104" s="33"/>
-      <c r="G104" s="34"/>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B105" s="31"/>
-      <c r="C105" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="D105" s="33"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="34"/>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B106" s="35"/>
-      <c r="C106" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D106" s="33"/>
-      <c r="E106" s="33"/>
-      <c r="F106" s="33"/>
-      <c r="G106" s="34"/>
-    </row>
-    <row r="115" spans="1:7" ht="16.8" customHeight="1"/>
-    <row r="116" spans="1:7" ht="34.799999999999997" customHeight="1"/>
-    <row r="117" spans="1:7" ht="27" customHeight="1"/>
-    <row r="118" spans="1:7" ht="35.4" customHeight="1"/>
-    <row r="126" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A126" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="B126" s="40"/>
-      <c r="C126" s="40"/>
-      <c r="D126" s="40"/>
-      <c r="E126" s="40"/>
-      <c r="F126" s="40"/>
-      <c r="G126" s="40"/>
-    </row>
-    <row r="127" spans="1:7" ht="15" thickTop="1">
-      <c r="A127" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B127" s="42"/>
-      <c r="C127" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="D127" s="44"/>
-      <c r="E127" s="44"/>
-      <c r="F127" s="44"/>
-      <c r="G127" s="45"/>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="B128" s="42"/>
-      <c r="C128" s="46"/>
-      <c r="D128" s="47"/>
-      <c r="E128" s="47"/>
-      <c r="F128" s="47"/>
-      <c r="G128" s="48"/>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="B129" s="42"/>
-      <c r="C129" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="D129" s="50"/>
-      <c r="E129" s="50"/>
-      <c r="F129" s="50"/>
-      <c r="G129" s="51"/>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="52"/>
-      <c r="B130" s="53"/>
-      <c r="C130" s="53"/>
-      <c r="D130" s="53"/>
-      <c r="E130" s="53"/>
-      <c r="F130" s="53"/>
-      <c r="G130" s="54"/>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B131" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C131" s="31"/>
-      <c r="D131" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E131" s="31"/>
-      <c r="F131" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G131" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="57.6" customHeight="1">
-      <c r="A132" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="B132" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="C132" s="37"/>
-      <c r="D132" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="E132" s="37"/>
-      <c r="F132" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="G132" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="49.2" customHeight="1">
-      <c r="A133" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="B133" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C133" s="37"/>
-      <c r="D133" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="E133" s="37"/>
-      <c r="F133" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="G133" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="31.2" customHeight="1">
-      <c r="A134" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="B134" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="C134" s="37"/>
-      <c r="D134" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="E134" s="37"/>
-      <c r="F134" s="29" t="s">
-        <v>142</v>
-      </c>
-      <c r="G134" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B135" s="31"/>
-      <c r="C135" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="D135" s="33"/>
-      <c r="E135" s="33"/>
-      <c r="F135" s="33"/>
-      <c r="G135" s="34"/>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B136" s="31"/>
-      <c r="C136" s="39">
-        <v>43046</v>
-      </c>
-      <c r="D136" s="33"/>
-      <c r="E136" s="33"/>
-      <c r="F136" s="33"/>
-      <c r="G136" s="34"/>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B137" s="31"/>
-      <c r="C137" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D137" s="33"/>
-      <c r="E137" s="33"/>
-      <c r="F137" s="33"/>
-      <c r="G137" s="34"/>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B138" s="35"/>
-      <c r="C138" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D138" s="33"/>
-      <c r="E138" s="33"/>
-      <c r="F138" s="33"/>
-      <c r="G138" s="34"/>
-    </row>
-    <row r="142" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A142" s="40" t="s">
-        <v>200</v>
-      </c>
-      <c r="B142" s="40"/>
-      <c r="C142" s="40"/>
-      <c r="D142" s="40"/>
-      <c r="E142" s="40"/>
-      <c r="F142" s="40"/>
-      <c r="G142" s="40"/>
-    </row>
-    <row r="143" spans="1:7" ht="15" thickTop="1">
-      <c r="A143" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B143" s="42"/>
-      <c r="C143" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="D143" s="44"/>
-      <c r="E143" s="44"/>
-      <c r="F143" s="44"/>
-      <c r="G143" s="45"/>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="B144" s="42"/>
-      <c r="C144" s="46"/>
-      <c r="D144" s="47"/>
-      <c r="E144" s="47"/>
-      <c r="F144" s="47"/>
-      <c r="G144" s="48"/>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="B145" s="42"/>
-      <c r="C145" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="D145" s="50"/>
-      <c r="E145" s="50"/>
-      <c r="F145" s="50"/>
-      <c r="G145" s="51"/>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="52"/>
-      <c r="B146" s="53"/>
-      <c r="C146" s="53"/>
-      <c r="D146" s="53"/>
-      <c r="E146" s="53"/>
-      <c r="F146" s="53"/>
-      <c r="G146" s="54"/>
-    </row>
-    <row r="147" spans="1:7">
-      <c r="A147" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B147" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C147" s="31"/>
-      <c r="D147" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E147" s="31"/>
-      <c r="F147" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G147" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="63" customHeight="1">
-      <c r="A148" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="B148" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="C148" s="37"/>
-      <c r="D148" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="E148" s="37"/>
-      <c r="F148" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="G148" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="57" customHeight="1">
-      <c r="A149" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="B149" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="C149" s="37"/>
-      <c r="D149" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="E149" s="37"/>
-      <c r="F149" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="G149" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B150" s="31"/>
-      <c r="C150" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="D150" s="33"/>
-      <c r="E150" s="33"/>
-      <c r="F150" s="33"/>
-      <c r="G150" s="34"/>
-    </row>
-    <row r="151" spans="1:7">
-      <c r="A151" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B151" s="31"/>
-      <c r="C151" s="39">
-        <v>43047</v>
-      </c>
-      <c r="D151" s="33"/>
-      <c r="E151" s="33"/>
-      <c r="F151" s="33"/>
-      <c r="G151" s="34"/>
-    </row>
-    <row r="152" spans="1:7">
-      <c r="A152" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B152" s="31"/>
-      <c r="C152" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="D152" s="33"/>
-      <c r="E152" s="33"/>
-      <c r="F152" s="33"/>
-      <c r="G152" s="34"/>
-    </row>
-    <row r="153" spans="1:7">
-      <c r="A153" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B153" s="35"/>
-      <c r="C153" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D153" s="33"/>
-      <c r="E153" s="33"/>
-      <c r="F153" s="33"/>
-      <c r="G153" s="34"/>
-    </row>
-    <row r="157" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A157" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="B157" s="40"/>
-      <c r="C157" s="40"/>
-      <c r="D157" s="40"/>
-      <c r="E157" s="40"/>
-      <c r="F157" s="40"/>
-      <c r="G157" s="40"/>
-    </row>
-    <row r="158" spans="1:7" ht="15" thickTop="1">
-      <c r="A158" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B158" s="42"/>
-      <c r="C158" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="D158" s="44"/>
-      <c r="E158" s="44"/>
-      <c r="F158" s="44"/>
-      <c r="G158" s="45"/>
-    </row>
-    <row r="159" spans="1:7">
-      <c r="A159" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="B159" s="42"/>
-      <c r="C159" s="46"/>
-      <c r="D159" s="47"/>
-      <c r="E159" s="47"/>
-      <c r="F159" s="47"/>
-      <c r="G159" s="48"/>
-    </row>
-    <row r="160" spans="1:7">
-      <c r="A160" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="B160" s="42"/>
-      <c r="C160" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="D160" s="50"/>
-      <c r="E160" s="50"/>
-      <c r="F160" s="50"/>
-      <c r="G160" s="51"/>
-    </row>
-    <row r="161" spans="1:7">
-      <c r="A161" s="52"/>
-      <c r="B161" s="53"/>
-      <c r="C161" s="53"/>
-      <c r="D161" s="53"/>
-      <c r="E161" s="53"/>
-      <c r="F161" s="53"/>
-      <c r="G161" s="54"/>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B162" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C162" s="31"/>
-      <c r="D162" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E162" s="31"/>
-      <c r="F162" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G162" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="70.8" customHeight="1">
-      <c r="A163" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="B163" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="C163" s="37"/>
-      <c r="D163" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="E163" s="37"/>
-      <c r="F163" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="G163" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="66.599999999999994" customHeight="1">
-      <c r="A164" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="B164" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="C164" s="37"/>
-      <c r="D164" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="E164" s="37"/>
-      <c r="F164" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="G164" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="B165" s="31"/>
-      <c r="C165" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="D165" s="33"/>
-      <c r="E165" s="33"/>
-      <c r="F165" s="33"/>
-      <c r="G165" s="34"/>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="B166" s="31"/>
-      <c r="C166" s="39">
-        <v>43047</v>
-      </c>
-      <c r="D166" s="33"/>
-      <c r="E166" s="33"/>
-      <c r="F166" s="33"/>
-      <c r="G166" s="34"/>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B167" s="31"/>
-      <c r="C167" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="D167" s="33"/>
-      <c r="E167" s="33"/>
-      <c r="F167" s="33"/>
-      <c r="G167" s="34"/>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B168" s="35"/>
-      <c r="C168" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D168" s="33"/>
-      <c r="E168" s="33"/>
-      <c r="F168" s="33"/>
-      <c r="G168" s="34"/>
-    </row>
-    <row r="177" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A177" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="B177" s="40"/>
-      <c r="C177" s="40"/>
-      <c r="D177" s="40"/>
-      <c r="E177" s="40"/>
-      <c r="F177" s="40"/>
-      <c r="G177" s="40"/>
-    </row>
-    <row r="178" spans="1:7" ht="15" thickTop="1">
-      <c r="A178" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="B178" s="42"/>
-      <c r="C178" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="D178" s="44"/>
-      <c r="E178" s="44"/>
-      <c r="F178" s="44"/>
-      <c r="G178" s="45"/>
-    </row>
-    <row r="179" spans="1:7">
-      <c r="A179" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="B179" s="42"/>
-      <c r="C179" s="46"/>
-      <c r="D179" s="47"/>
-      <c r="E179" s="47"/>
-      <c r="F179" s="47"/>
-      <c r="G179" s="48"/>
-    </row>
-    <row r="180" spans="1:7">
-      <c r="A180" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="B180" s="42"/>
-      <c r="C180" s="49" t="s">
-        <v>215</v>
-      </c>
+      <c r="B180" s="50"/>
+      <c r="C180" s="50"/>
       <c r="D180" s="50"/>
       <c r="E180" s="50"/>
       <c r="F180" s="50"/>
-      <c r="G180" s="51"/>
-    </row>
-    <row r="181" spans="1:7">
-      <c r="A181" s="52"/>
-      <c r="B181" s="53"/>
-      <c r="C181" s="53"/>
-      <c r="D181" s="53"/>
-      <c r="E181" s="53"/>
-      <c r="F181" s="53"/>
-      <c r="G181" s="54"/>
+      <c r="G180" s="50"/>
+    </row>
+    <row r="181" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A181" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B181" s="52"/>
+      <c r="C181" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="D181" s="54"/>
+      <c r="E181" s="54"/>
+      <c r="F181" s="54"/>
+      <c r="G181" s="55"/>
     </row>
     <row r="182" spans="1:7">
-      <c r="A182" s="22" t="s">
+      <c r="A182" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B182" s="52"/>
+      <c r="C182" s="56"/>
+      <c r="D182" s="57"/>
+      <c r="E182" s="57"/>
+      <c r="F182" s="57"/>
+      <c r="G182" s="58"/>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B183" s="52"/>
+      <c r="C183" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="D183" s="60"/>
+      <c r="E183" s="60"/>
+      <c r="F183" s="60"/>
+      <c r="G183" s="61"/>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="62"/>
+      <c r="B184" s="63"/>
+      <c r="C184" s="63"/>
+      <c r="D184" s="63"/>
+      <c r="E184" s="63"/>
+      <c r="F184" s="63"/>
+      <c r="G184" s="64"/>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B182" s="38" t="s">
+      <c r="B185" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C182" s="31"/>
-      <c r="D182" s="38" t="s">
+      <c r="C185" s="47"/>
+      <c r="D185" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="E182" s="31"/>
-      <c r="F182" s="21" t="s">
+      <c r="E185" s="47"/>
+      <c r="F185" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G182" s="22" t="s">
+      <c r="G185" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="111" customHeight="1">
-      <c r="A183" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="B183" s="36" t="s">
+    <row r="186" spans="1:7" ht="51.75" customHeight="1">
+      <c r="A186" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B186" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="C186" s="46"/>
+      <c r="D186" s="45" t="s">
+        <v>349</v>
+      </c>
+      <c r="E186" s="46"/>
+      <c r="F186" s="29"/>
+      <c r="G186" s="29"/>
+    </row>
+    <row r="187" spans="1:7" ht="57.75" customHeight="1">
+      <c r="A187" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B187" s="45" t="s">
+        <v>350</v>
+      </c>
+      <c r="C187" s="46"/>
+      <c r="D187" s="45" t="s">
+        <v>351</v>
+      </c>
+      <c r="E187" s="46"/>
+      <c r="F187" s="29"/>
+      <c r="G187" s="29"/>
+    </row>
+    <row r="188" spans="1:7" ht="31.15" customHeight="1">
+      <c r="A188" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="B188" s="45" t="s">
+        <v>352</v>
+      </c>
+      <c r="C188" s="46"/>
+      <c r="D188" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="E188" s="46"/>
+      <c r="F188" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="G188" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="51" customHeight="1">
+      <c r="A189" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="B189" s="45" t="s">
+        <v>354</v>
+      </c>
+      <c r="C189" s="46"/>
+      <c r="D189" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E189" s="46"/>
+      <c r="F189" s="29"/>
+      <c r="G189" s="29"/>
+    </row>
+    <row r="190" spans="1:7" ht="43.5" customHeight="1">
+      <c r="A190" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="B190" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="C190" s="46"/>
+      <c r="D190" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E190" s="46"/>
+      <c r="F190" s="29"/>
+      <c r="G190" s="29"/>
+    </row>
+    <row r="191" spans="1:7" ht="62.25" customHeight="1">
+      <c r="A191" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="B191" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="C191" s="46"/>
+      <c r="D191" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E191" s="46"/>
+      <c r="F191" s="29"/>
+      <c r="G191" s="29"/>
+    </row>
+    <row r="192" spans="1:7" ht="45" customHeight="1">
+      <c r="A192" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="B192" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="C192" s="46"/>
+      <c r="D192" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E192" s="46"/>
+      <c r="F192" s="29"/>
+      <c r="G192" s="29"/>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B193" s="47"/>
+      <c r="C193" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D193" s="43"/>
+      <c r="E193" s="43"/>
+      <c r="F193" s="43"/>
+      <c r="G193" s="44"/>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B194" s="47"/>
+      <c r="C194" s="49">
+        <v>43046</v>
+      </c>
+      <c r="D194" s="43"/>
+      <c r="E194" s="43"/>
+      <c r="F194" s="43"/>
+      <c r="G194" s="44"/>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B195" s="47"/>
+      <c r="C195" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D195" s="43"/>
+      <c r="E195" s="43"/>
+      <c r="F195" s="43"/>
+      <c r="G195" s="44"/>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B196" s="41"/>
+      <c r="C196" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D196" s="43"/>
+      <c r="E196" s="43"/>
+      <c r="F196" s="43"/>
+      <c r="G196" s="44"/>
+    </row>
+    <row r="200" spans="1:7" ht="20.25" thickBot="1">
+      <c r="A200" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="B200" s="50"/>
+      <c r="C200" s="50"/>
+      <c r="D200" s="50"/>
+      <c r="E200" s="50"/>
+      <c r="F200" s="50"/>
+      <c r="G200" s="50"/>
+    </row>
+    <row r="201" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A201" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B201" s="52"/>
+      <c r="C201" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="D201" s="54"/>
+      <c r="E201" s="54"/>
+      <c r="F201" s="54"/>
+      <c r="G201" s="55"/>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B202" s="52"/>
+      <c r="C202" s="56"/>
+      <c r="D202" s="57"/>
+      <c r="E202" s="57"/>
+      <c r="F202" s="57"/>
+      <c r="G202" s="58"/>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B203" s="52"/>
+      <c r="C203" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="D203" s="60"/>
+      <c r="E203" s="60"/>
+      <c r="F203" s="60"/>
+      <c r="G203" s="61"/>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="62"/>
+      <c r="B204" s="63"/>
+      <c r="C204" s="63"/>
+      <c r="D204" s="63"/>
+      <c r="E204" s="63"/>
+      <c r="F204" s="63"/>
+      <c r="G204" s="64"/>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B205" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C205" s="47"/>
+      <c r="D205" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E205" s="47"/>
+      <c r="F205" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G205" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="63" customHeight="1">
+      <c r="A206" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B206" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="C206" s="46"/>
+      <c r="D206" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="E206" s="46"/>
+      <c r="F206" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="G206" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="42.75" customHeight="1">
+      <c r="A207" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B207" s="45" t="s">
+        <v>359</v>
+      </c>
+      <c r="C207" s="46"/>
+      <c r="D207" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E207" s="46"/>
+      <c r="F207" s="29"/>
+      <c r="G207" s="29"/>
+    </row>
+    <row r="208" spans="1:7" ht="57" customHeight="1">
+      <c r="A208" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="B208" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="C208" s="46"/>
+      <c r="D208" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="E208" s="46"/>
+      <c r="F208" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="G208" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B209" s="47"/>
+      <c r="C209" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D209" s="43"/>
+      <c r="E209" s="43"/>
+      <c r="F209" s="43"/>
+      <c r="G209" s="44"/>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B210" s="47"/>
+      <c r="C210" s="49">
+        <v>43047</v>
+      </c>
+      <c r="D210" s="43"/>
+      <c r="E210" s="43"/>
+      <c r="F210" s="43"/>
+      <c r="G210" s="44"/>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B211" s="47"/>
+      <c r="C211" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="D211" s="43"/>
+      <c r="E211" s="43"/>
+      <c r="F211" s="43"/>
+      <c r="G211" s="44"/>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B212" s="41"/>
+      <c r="C212" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D212" s="43"/>
+      <c r="E212" s="43"/>
+      <c r="F212" s="43"/>
+      <c r="G212" s="44"/>
+    </row>
+    <row r="216" spans="1:7" ht="20.25" thickBot="1">
+      <c r="A216" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="B216" s="50"/>
+      <c r="C216" s="50"/>
+      <c r="D216" s="50"/>
+      <c r="E216" s="50"/>
+      <c r="F216" s="50"/>
+      <c r="G216" s="50"/>
+    </row>
+    <row r="217" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A217" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B217" s="52"/>
+      <c r="C217" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="D217" s="54"/>
+      <c r="E217" s="54"/>
+      <c r="F217" s="54"/>
+      <c r="G217" s="55"/>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B218" s="52"/>
+      <c r="C218" s="56"/>
+      <c r="D218" s="57"/>
+      <c r="E218" s="57"/>
+      <c r="F218" s="57"/>
+      <c r="G218" s="58"/>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B219" s="52"/>
+      <c r="C219" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="D219" s="60"/>
+      <c r="E219" s="60"/>
+      <c r="F219" s="60"/>
+      <c r="G219" s="61"/>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" s="62"/>
+      <c r="B220" s="63"/>
+      <c r="C220" s="63"/>
+      <c r="D220" s="63"/>
+      <c r="E220" s="63"/>
+      <c r="F220" s="63"/>
+      <c r="G220" s="64"/>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B221" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C221" s="47"/>
+      <c r="D221" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E221" s="47"/>
+      <c r="F221" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G221" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="70.900000000000006" customHeight="1">
+      <c r="A222" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B222" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="C222" s="46"/>
+      <c r="D222" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E222" s="46"/>
+      <c r="F222" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="G222" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="66.599999999999994" customHeight="1">
+      <c r="A223" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="B223" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C223" s="46"/>
+      <c r="D223" s="45" t="s">
+        <v>363</v>
+      </c>
+      <c r="E223" s="46"/>
+      <c r="F223" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="G223" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B224" s="47"/>
+      <c r="C224" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D224" s="43"/>
+      <c r="E224" s="43"/>
+      <c r="F224" s="43"/>
+      <c r="G224" s="44"/>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B225" s="47"/>
+      <c r="C225" s="49">
+        <v>43047</v>
+      </c>
+      <c r="D225" s="43"/>
+      <c r="E225" s="43"/>
+      <c r="F225" s="43"/>
+      <c r="G225" s="44"/>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B226" s="47"/>
+      <c r="C226" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="D226" s="43"/>
+      <c r="E226" s="43"/>
+      <c r="F226" s="43"/>
+      <c r="G226" s="44"/>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B227" s="41"/>
+      <c r="C227" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D227" s="43"/>
+      <c r="E227" s="43"/>
+      <c r="F227" s="43"/>
+      <c r="G227" s="44"/>
+    </row>
+    <row r="231" spans="1:7" ht="20.25" thickBot="1">
+      <c r="A231" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="B231" s="50"/>
+      <c r="C231" s="50"/>
+      <c r="D231" s="50"/>
+      <c r="E231" s="50"/>
+      <c r="F231" s="50"/>
+      <c r="G231" s="50"/>
+    </row>
+    <row r="232" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A232" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B232" s="52"/>
+      <c r="C232" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="D232" s="54"/>
+      <c r="E232" s="54"/>
+      <c r="F232" s="54"/>
+      <c r="G232" s="55"/>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B233" s="52"/>
+      <c r="C233" s="56"/>
+      <c r="D233" s="57"/>
+      <c r="E233" s="57"/>
+      <c r="F233" s="57"/>
+      <c r="G233" s="58"/>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B234" s="52"/>
+      <c r="C234" s="59"/>
+      <c r="D234" s="60"/>
+      <c r="E234" s="60"/>
+      <c r="F234" s="60"/>
+      <c r="G234" s="61"/>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="62"/>
+      <c r="B235" s="63"/>
+      <c r="C235" s="63"/>
+      <c r="D235" s="63"/>
+      <c r="E235" s="63"/>
+      <c r="F235" s="63"/>
+      <c r="G235" s="64"/>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B236" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C236" s="47"/>
+      <c r="D236" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E236" s="47"/>
+      <c r="F236" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G236" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="105.6" customHeight="1">
+      <c r="A237" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="B237" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="C237" s="46"/>
+      <c r="D237" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="E237" s="46"/>
+      <c r="F237" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="C183" s="37"/>
-      <c r="D183" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="E183" s="37"/>
-      <c r="F183" s="29" t="s">
+      <c r="G237" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B238" s="47"/>
+      <c r="C238" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D238" s="43"/>
+      <c r="E238" s="43"/>
+      <c r="F238" s="43"/>
+      <c r="G238" s="44"/>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B239" s="47"/>
+      <c r="C239" s="49">
+        <v>43047</v>
+      </c>
+      <c r="D239" s="43"/>
+      <c r="E239" s="43"/>
+      <c r="F239" s="43"/>
+      <c r="G239" s="44"/>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B240" s="47"/>
+      <c r="C240" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="D240" s="43"/>
+      <c r="E240" s="43"/>
+      <c r="F240" s="43"/>
+      <c r="G240" s="44"/>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B241" s="41"/>
+      <c r="C241" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D241" s="43"/>
+      <c r="E241" s="43"/>
+      <c r="F241" s="43"/>
+      <c r="G241" s="44"/>
+    </row>
+    <row r="245" spans="1:7" ht="20.25" thickBot="1">
+      <c r="A245" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="B245" s="50"/>
+      <c r="C245" s="50"/>
+      <c r="D245" s="50"/>
+      <c r="E245" s="50"/>
+      <c r="F245" s="50"/>
+      <c r="G245" s="50"/>
+    </row>
+    <row r="246" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A246" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B246" s="52"/>
+      <c r="C246" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="G183" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="43.2" customHeight="1">
-      <c r="A184" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="B184" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="C184" s="37"/>
-      <c r="D184" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="E184" s="37"/>
-      <c r="F184" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="G184" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
-      <c r="A185" s="30" t="s">
+      <c r="D246" s="54"/>
+      <c r="E246" s="54"/>
+      <c r="F246" s="54"/>
+      <c r="G246" s="55"/>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B247" s="52"/>
+      <c r="C247" s="56"/>
+      <c r="D247" s="57"/>
+      <c r="E247" s="57"/>
+      <c r="F247" s="57"/>
+      <c r="G247" s="58"/>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B248" s="52"/>
+      <c r="C248" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="D248" s="60"/>
+      <c r="E248" s="60"/>
+      <c r="F248" s="60"/>
+      <c r="G248" s="61"/>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="62"/>
+      <c r="B249" s="63"/>
+      <c r="C249" s="63"/>
+      <c r="D249" s="63"/>
+      <c r="E249" s="63"/>
+      <c r="F249" s="63"/>
+      <c r="G249" s="64"/>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B250" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C250" s="47"/>
+      <c r="D250" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E250" s="47"/>
+      <c r="F250" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G250" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="87" customHeight="1">
+      <c r="A251" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="B251" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="C251" s="46"/>
+      <c r="D251" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="E251" s="46"/>
+      <c r="F251" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="G251" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="43.15" customHeight="1">
+      <c r="A252" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B252" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="C252" s="46"/>
+      <c r="D252" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="E252" s="46"/>
+      <c r="F252" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="G252" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="B185" s="31"/>
-      <c r="C185" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="D185" s="33"/>
-      <c r="E185" s="33"/>
-      <c r="F185" s="33"/>
-      <c r="G185" s="34"/>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="38" t="s">
+      <c r="B253" s="47"/>
+      <c r="C253" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D253" s="43"/>
+      <c r="E253" s="43"/>
+      <c r="F253" s="43"/>
+      <c r="G253" s="44"/>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="B186" s="31"/>
-      <c r="C186" s="39">
+      <c r="B254" s="47"/>
+      <c r="C254" s="49">
         <v>43047</v>
       </c>
-      <c r="D186" s="33"/>
-      <c r="E186" s="33"/>
-      <c r="F186" s="33"/>
-      <c r="G186" s="34"/>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="A187" s="30" t="s">
+      <c r="D254" s="43"/>
+      <c r="E254" s="43"/>
+      <c r="F254" s="43"/>
+      <c r="G254" s="44"/>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B187" s="31"/>
-      <c r="C187" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="D187" s="33"/>
-      <c r="E187" s="33"/>
-      <c r="F187" s="33"/>
-      <c r="G187" s="34"/>
-    </row>
-    <row r="188" spans="1:7">
-      <c r="A188" s="30" t="s">
+      <c r="B255" s="47"/>
+      <c r="C255" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="D255" s="43"/>
+      <c r="E255" s="43"/>
+      <c r="F255" s="43"/>
+      <c r="G255" s="44"/>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="B188" s="35"/>
-      <c r="C188" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D188" s="33"/>
-      <c r="E188" s="33"/>
-      <c r="F188" s="33"/>
-      <c r="G188" s="34"/>
-    </row>
-    <row r="194" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A194" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="B194" s="40"/>
-      <c r="C194" s="40"/>
-      <c r="D194" s="40"/>
-      <c r="E194" s="40"/>
-      <c r="F194" s="40"/>
-      <c r="G194" s="40"/>
-    </row>
-    <row r="195" spans="1:7" ht="15" thickTop="1">
-      <c r="A195" s="41" t="s">
+      <c r="B256" s="41"/>
+      <c r="C256" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D256" s="43"/>
+      <c r="E256" s="43"/>
+      <c r="F256" s="43"/>
+      <c r="G256" s="44"/>
+    </row>
+    <row r="260" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A260" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="B260" s="50"/>
+      <c r="C260" s="50"/>
+      <c r="D260" s="50"/>
+      <c r="E260" s="50"/>
+      <c r="F260" s="50"/>
+      <c r="G260" s="50"/>
+    </row>
+    <row r="261" spans="1:7" ht="17.25" customHeight="1" thickTop="1">
+      <c r="A261" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B195" s="42"/>
-      <c r="C195" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="D195" s="44"/>
-      <c r="E195" s="44"/>
-      <c r="F195" s="44"/>
-      <c r="G195" s="45"/>
-    </row>
-    <row r="196" spans="1:7">
-      <c r="A196" s="41" t="s">
+      <c r="B261" s="52"/>
+      <c r="C261" s="71" t="s">
+        <v>298</v>
+      </c>
+      <c r="D261" s="72"/>
+      <c r="E261" s="72"/>
+      <c r="F261" s="72"/>
+      <c r="G261" s="73"/>
+    </row>
+    <row r="262" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A262" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="B196" s="42"/>
-      <c r="C196" s="46"/>
-      <c r="D196" s="47"/>
-      <c r="E196" s="47"/>
-      <c r="F196" s="47"/>
-      <c r="G196" s="48"/>
-    </row>
-    <row r="197" spans="1:7">
-      <c r="A197" s="41" t="s">
+      <c r="B262" s="52"/>
+      <c r="C262" s="93"/>
+      <c r="D262" s="60"/>
+      <c r="E262" s="60"/>
+      <c r="F262" s="60"/>
+      <c r="G262" s="61"/>
+    </row>
+    <row r="263" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A263" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="B197" s="42"/>
-      <c r="C197" s="49"/>
-      <c r="D197" s="50"/>
-      <c r="E197" s="50"/>
-      <c r="F197" s="50"/>
-      <c r="G197" s="51"/>
-    </row>
-    <row r="198" spans="1:7">
-      <c r="A198" s="52"/>
-      <c r="B198" s="53"/>
-      <c r="C198" s="53"/>
-      <c r="D198" s="53"/>
-      <c r="E198" s="53"/>
-      <c r="F198" s="53"/>
-      <c r="G198" s="54"/>
-    </row>
-    <row r="199" spans="1:7">
-      <c r="A199" s="22" t="s">
+      <c r="B263" s="52"/>
+      <c r="C263" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="D263" s="74"/>
+      <c r="E263" s="74"/>
+      <c r="F263" s="74"/>
+      <c r="G263" s="75"/>
+    </row>
+    <row r="264" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A264" s="34"/>
+      <c r="B264" s="35"/>
+      <c r="C264" s="35"/>
+      <c r="D264" s="35"/>
+      <c r="E264" s="35"/>
+      <c r="F264" s="35"/>
+      <c r="G264" s="36"/>
+    </row>
+    <row r="265" spans="1:7" ht="56.25" customHeight="1">
+      <c r="A265" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B199" s="38" t="s">
+      <c r="B265" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C199" s="31"/>
-      <c r="D199" s="38" t="s">
+      <c r="C265" s="47"/>
+      <c r="D265" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="E199" s="31"/>
-      <c r="F199" s="21" t="s">
+      <c r="E265" s="47"/>
+      <c r="F265" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G199" s="22" t="s">
+      <c r="G265" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="105.6" customHeight="1">
-      <c r="A200" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="B200" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="C200" s="37"/>
-      <c r="D200" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="E200" s="37"/>
-      <c r="F200" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="G200" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
-      <c r="A201" s="30" t="s">
+    <row r="266" spans="1:7" ht="56.25" customHeight="1">
+      <c r="A266" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="B266" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="C266" s="65"/>
+      <c r="D266" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="E266" s="46"/>
+      <c r="F266" s="29"/>
+      <c r="G266" s="29"/>
+    </row>
+    <row r="267" spans="1:7" ht="56.25" customHeight="1">
+      <c r="A267" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="B267" s="45" t="s">
+        <v>304</v>
+      </c>
+      <c r="C267" s="65"/>
+      <c r="D267" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E267" s="65"/>
+      <c r="F267" s="29"/>
+      <c r="G267" s="29"/>
+    </row>
+    <row r="268" spans="1:7" ht="47.25" customHeight="1">
+      <c r="A268" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="B268" s="45" t="s">
+        <v>306</v>
+      </c>
+      <c r="C268" s="65"/>
+      <c r="D268" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E268" s="65"/>
+      <c r="F268" s="29"/>
+      <c r="G268" s="29"/>
+    </row>
+    <row r="269" spans="1:7" ht="36" customHeight="1">
+      <c r="A269" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="B269" s="45" t="s">
+        <v>308</v>
+      </c>
+      <c r="C269" s="65"/>
+      <c r="D269" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="E269" s="46"/>
+      <c r="F269" s="29"/>
+      <c r="G269" s="29"/>
+    </row>
+    <row r="270" spans="1:7" ht="36" customHeight="1">
+      <c r="A270" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="B270" s="45" t="s">
+        <v>311</v>
+      </c>
+      <c r="C270" s="65"/>
+      <c r="D270" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E270" s="65"/>
+      <c r="F270" s="29"/>
+      <c r="G270" s="29"/>
+    </row>
+    <row r="271" spans="1:7" ht="47.25" customHeight="1">
+      <c r="A271" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="B271" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="C271" s="65"/>
+      <c r="D271" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E271" s="65"/>
+      <c r="F271" s="29"/>
+      <c r="G271" s="29"/>
+    </row>
+    <row r="272" spans="1:7" ht="15" customHeight="1">
+      <c r="A272" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="B201" s="31"/>
-      <c r="C201" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="D201" s="33"/>
-      <c r="E201" s="33"/>
-      <c r="F201" s="33"/>
-      <c r="G201" s="34"/>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="38" t="s">
+      <c r="B272" s="47"/>
+      <c r="C272" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D272" s="31"/>
+      <c r="E272" s="31"/>
+      <c r="F272" s="31"/>
+      <c r="G272" s="32"/>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="B202" s="31"/>
-      <c r="C202" s="39">
-        <v>43047</v>
-      </c>
-      <c r="D202" s="33"/>
-      <c r="E202" s="33"/>
-      <c r="F202" s="33"/>
-      <c r="G202" s="34"/>
-    </row>
-    <row r="203" spans="1:7">
-      <c r="A203" s="30" t="s">
+      <c r="B273" s="47"/>
+      <c r="C273" s="33">
+        <v>43014</v>
+      </c>
+      <c r="D273" s="31"/>
+      <c r="E273" s="31"/>
+      <c r="F273" s="31"/>
+      <c r="G273" s="32"/>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B203" s="31"/>
-      <c r="C203" s="32" t="s">
+      <c r="B274" s="47"/>
+      <c r="C274" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D274" s="31"/>
+      <c r="E274" s="31"/>
+      <c r="F274" s="31"/>
+      <c r="G274" s="32"/>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B275" s="41"/>
+      <c r="C275" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D275" s="31"/>
+      <c r="E275" s="31"/>
+      <c r="F275" s="31"/>
+      <c r="G275" s="32"/>
+    </row>
+    <row r="277" spans="1:7" ht="20.25" customHeight="1"/>
+    <row r="279" spans="1:7" ht="20.25" thickBot="1">
+      <c r="A279" s="50" t="s">
+        <v>314</v>
+      </c>
+      <c r="B279" s="50"/>
+      <c r="C279" s="50"/>
+      <c r="D279" s="50"/>
+      <c r="E279" s="50"/>
+      <c r="F279" s="50"/>
+      <c r="G279" s="50"/>
+    </row>
+    <row r="280" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A280" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B280" s="52"/>
+      <c r="C280" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="D280" s="72"/>
+      <c r="E280" s="72"/>
+      <c r="F280" s="72"/>
+      <c r="G280" s="73"/>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B281" s="52"/>
+      <c r="C281" s="93"/>
+      <c r="D281" s="60"/>
+      <c r="E281" s="60"/>
+      <c r="F281" s="60"/>
+      <c r="G281" s="61"/>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B282" s="52"/>
+      <c r="C282" s="59" t="s">
+        <v>316</v>
+      </c>
+      <c r="D282" s="74"/>
+      <c r="E282" s="74"/>
+      <c r="F282" s="74"/>
+      <c r="G282" s="75"/>
+    </row>
+    <row r="283" spans="1:7" ht="15" customHeight="1">
+      <c r="A283" s="34"/>
+      <c r="B283" s="35"/>
+      <c r="C283" s="35"/>
+      <c r="D283" s="35"/>
+      <c r="E283" s="35"/>
+      <c r="F283" s="35"/>
+      <c r="G283" s="36"/>
+    </row>
+    <row r="284" spans="1:7" ht="15" customHeight="1">
+      <c r="A284" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B284" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C284" s="47"/>
+      <c r="D284" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" s="47"/>
+      <c r="F284" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G284" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="37.5" customHeight="1">
+      <c r="A285" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="B285" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="C285" s="65"/>
+      <c r="D285" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="E285" s="65"/>
+      <c r="F285" s="29"/>
+      <c r="G285" s="29"/>
+    </row>
+    <row r="286" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A286" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="B286" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="C286" s="65"/>
+      <c r="D286" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="E286" s="65"/>
+      <c r="F286" s="29"/>
+      <c r="G286" s="29"/>
+    </row>
+    <row r="287" spans="1:7" ht="61.5" customHeight="1">
+      <c r="A287" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="B287" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="C287" s="65"/>
+      <c r="D287" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="E287" s="65"/>
+      <c r="F287" s="29"/>
+      <c r="G287" s="29"/>
+    </row>
+    <row r="288" spans="1:7" ht="54.75" customHeight="1">
+      <c r="A288" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="B288" s="45" t="s">
+        <v>327</v>
+      </c>
+      <c r="C288" s="65"/>
+      <c r="D288" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="E288" s="65"/>
+      <c r="F288" s="29"/>
+      <c r="G288" s="29"/>
+    </row>
+    <row r="289" spans="1:7" ht="88.5" customHeight="1">
+      <c r="A289" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="B289" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="C289" s="65"/>
+      <c r="D289" s="45" t="s">
+        <v>331</v>
+      </c>
+      <c r="E289" s="65"/>
+      <c r="F289" s="29"/>
+      <c r="G289" s="29"/>
+    </row>
+    <row r="290" spans="1:7" ht="48.75" customHeight="1">
+      <c r="A290" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="B290" s="45" t="s">
+        <v>333</v>
+      </c>
+      <c r="C290" s="65"/>
+      <c r="D290" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="D203" s="33"/>
-      <c r="E203" s="33"/>
-      <c r="F203" s="33"/>
-      <c r="G203" s="34"/>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="30" t="s">
+      <c r="E290" s="65"/>
+      <c r="F290" s="29"/>
+      <c r="G290" s="29"/>
+    </row>
+    <row r="291" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A291" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="B291" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="C291" s="65"/>
+      <c r="D291" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="E291" s="65"/>
+      <c r="F291" s="29"/>
+      <c r="G291" s="29"/>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B292" s="47"/>
+      <c r="C292" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D292" s="31"/>
+      <c r="E292" s="31"/>
+      <c r="F292" s="31"/>
+      <c r="G292" s="32"/>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B293" s="47"/>
+      <c r="C293" s="33">
+        <v>43014</v>
+      </c>
+      <c r="D293" s="31"/>
+      <c r="E293" s="31"/>
+      <c r="F293" s="31"/>
+      <c r="G293" s="32"/>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B294" s="47"/>
+      <c r="C294" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D294" s="31"/>
+      <c r="E294" s="31"/>
+      <c r="F294" s="31"/>
+      <c r="G294" s="32"/>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="B204" s="35"/>
-      <c r="C204" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D204" s="33"/>
-      <c r="E204" s="33"/>
-      <c r="F204" s="33"/>
-      <c r="G204" s="34"/>
+      <c r="B295" s="41"/>
+      <c r="C295" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D295" s="31"/>
+      <c r="E295" s="31"/>
+      <c r="F295" s="31"/>
+      <c r="G295" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="249">
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="C204:G204"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="D200:E200"/>
+  <mergeCells count="423">
+    <mergeCell ref="A292:B292"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="A294:B294"/>
+    <mergeCell ref="A295:B295"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="D192:E192"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="D206:E206"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="D191:E191"/>
+    <mergeCell ref="B287:C287"/>
+    <mergeCell ref="D287:E287"/>
+    <mergeCell ref="B288:C288"/>
+    <mergeCell ref="D288:E288"/>
+    <mergeCell ref="B289:C289"/>
+    <mergeCell ref="D289:E289"/>
+    <mergeCell ref="B290:C290"/>
+    <mergeCell ref="D290:E290"/>
+    <mergeCell ref="B291:C291"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="A281:B281"/>
+    <mergeCell ref="C281:G281"/>
+    <mergeCell ref="A282:B282"/>
+    <mergeCell ref="C282:G282"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="D284:E284"/>
+    <mergeCell ref="B285:C285"/>
+    <mergeCell ref="D285:E285"/>
+    <mergeCell ref="B286:C286"/>
+    <mergeCell ref="D286:E286"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="D271:E271"/>
+    <mergeCell ref="A272:B272"/>
+    <mergeCell ref="A273:B273"/>
+    <mergeCell ref="A274:B274"/>
+    <mergeCell ref="A275:B275"/>
+    <mergeCell ref="A279:G279"/>
+    <mergeCell ref="A280:B280"/>
+    <mergeCell ref="C280:G280"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="B267:C267"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="D268:E268"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="D269:E269"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="D270:E270"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A260:G260"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="C261:G261"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="C262:G262"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="C263:G263"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A155:G155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="C156:G156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:G157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="C158:G158"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A132:G132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="A101:G101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="A105:G105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="C211:G211"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="C212:G212"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="C209:G209"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="C210:G210"/>
+    <mergeCell ref="A200:G200"/>
     <mergeCell ref="A201:B201"/>
     <mergeCell ref="C201:G201"/>
     <mergeCell ref="A202:B202"/>
     <mergeCell ref="C202:G202"/>
     <mergeCell ref="A203:B203"/>
     <mergeCell ref="C203:G203"/>
-    <mergeCell ref="A194:G194"/>
+    <mergeCell ref="A204:G204"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="D205:E205"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="C193:G193"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="C194:G194"/>
     <mergeCell ref="A195:B195"/>
     <mergeCell ref="C195:G195"/>
     <mergeCell ref="A196:B196"/>
     <mergeCell ref="C196:G196"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="C197:G197"/>
-    <mergeCell ref="A198:G198"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="C188:G188"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="D183:E183"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="D184:E184"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="C185:G185"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="C186:G186"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="C187:G187"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="C178:G178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="C179:G179"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="C180:G180"/>
-    <mergeCell ref="A181:G181"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="D182:E182"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="C165:G165"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="C166:G166"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="C167:G167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="C168:G168"/>
-    <mergeCell ref="A177:G177"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="C160:G160"/>
-    <mergeCell ref="A161:G161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A180:G180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="C181:G181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="C182:G182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="C183:G183"/>
+    <mergeCell ref="A184:G184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A157:G157"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="C158:G158"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="C159:G159"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="C105:G105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:G103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:G104"/>
-    <mergeCell ref="A94:G94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="A98:G98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="A64:G64"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:G20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="B8:C8"/>
@@ -4543,103 +6685,147 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="A66:G66"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="A126:G126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="C127:G127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="C128:G128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="C129:G129"/>
-    <mergeCell ref="A130:G130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="C135:G135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="C136:G136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="C137:G137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="C138:G138"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A142:G142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="C143:G143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="C144:G144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="C145:G145"/>
-    <mergeCell ref="A146:G146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="C152:G152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="C153:G153"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="C150:G150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="C151:G151"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="A88:G88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A216:G216"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="C217:G217"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="C218:G218"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="C219:G219"/>
+    <mergeCell ref="A220:G220"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="C224:G224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="C225:G225"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="C226:G226"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="C227:G227"/>
+    <mergeCell ref="A245:G245"/>
+    <mergeCell ref="A246:B246"/>
+    <mergeCell ref="C246:G246"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="C247:G247"/>
+    <mergeCell ref="A248:B248"/>
+    <mergeCell ref="C248:G248"/>
+    <mergeCell ref="A249:G249"/>
+    <mergeCell ref="B250:C250"/>
+    <mergeCell ref="D250:E250"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="C256:G256"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="C253:G253"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="C254:G254"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="C255:G255"/>
+    <mergeCell ref="A231:G231"/>
+    <mergeCell ref="A232:B232"/>
+    <mergeCell ref="C232:G232"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="C233:G233"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="C234:G234"/>
+    <mergeCell ref="A235:G235"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="D236:E236"/>
+    <mergeCell ref="A241:B241"/>
+    <mergeCell ref="C241:G241"/>
+    <mergeCell ref="B237:C237"/>
+    <mergeCell ref="D237:E237"/>
+    <mergeCell ref="A238:B238"/>
+    <mergeCell ref="C238:G238"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="C239:G239"/>
+    <mergeCell ref="A240:B240"/>
+    <mergeCell ref="C240:G240"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4647,39 +6833,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="10" customWidth="1"/>
     <col min="2" max="2" width="10" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.77734375" style="1"/>
+    <col min="3" max="3" width="15.85546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" ht="18">
-      <c r="A4" s="72" t="s">
+    <row r="4" spans="1:9" ht="18.75">
+      <c r="A4" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="74"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="84"/>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1">
       <c r="A5" s="2" t="s">
@@ -4710,7 +6896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="10" customFormat="1" ht="29.55" customHeight="1">
+    <row r="6" spans="1:9" s="10" customFormat="1" ht="29.65" customHeight="1">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -4731,7 +6917,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:9" s="10" customFormat="1" ht="43.05" customHeight="1">
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="43.15" customHeight="1">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -4754,7 +6940,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" s="10" customFormat="1" ht="43.2">
+    <row r="8" spans="1:9" s="10" customFormat="1" ht="45">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -4777,7 +6963,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" s="10" customFormat="1" ht="43.2">
+    <row r="9" spans="1:9" s="10" customFormat="1" ht="45">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -4798,18 +6984,18 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="13" spans="1:9" ht="18">
-      <c r="A13" s="72" t="s">
+    <row r="13" spans="1:9" ht="18.75">
+      <c r="A13" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="74"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="84"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
@@ -4840,7 +7026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="61.95" customHeight="1">
+    <row r="15" spans="1:9" ht="61.9" customHeight="1">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -4863,7 +7049,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:9" ht="28.8">
+    <row r="16" spans="1:9" ht="45">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -4886,7 +7072,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="1:9" ht="57.6">
+    <row r="17" spans="1:9" ht="60">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -4907,7 +7093,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:9" ht="57.6">
+    <row r="18" spans="1:9" ht="75">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -4930,7 +7116,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:9" ht="57.6">
+    <row r="19" spans="1:9" ht="75">
       <c r="A19" s="5">
         <v>5</v>
       </c>
@@ -4953,7 +7139,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="1:9" ht="57.6">
+    <row r="20" spans="1:9" ht="75">
       <c r="A20" s="5">
         <v>6</v>
       </c>
@@ -4976,7 +7162,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="1:9" ht="57.6">
+    <row r="21" spans="1:9" ht="75">
       <c r="A21" s="5">
         <v>7</v>
       </c>
@@ -4999,7 +7185,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" ht="57.6">
+    <row r="22" spans="1:9" ht="75">
       <c r="A22" s="6">
         <v>8</v>
       </c>
@@ -5022,7 +7208,7 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" ht="57.6">
+    <row r="23" spans="1:9" ht="75">
       <c r="A23" s="6">
         <v>9</v>
       </c>
@@ -5045,7 +7231,7 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9" ht="43.2">
+    <row r="24" spans="1:9" ht="75">
       <c r="A24" s="6">
         <v>10</v>
       </c>
@@ -5074,8 +7260,8 @@
     <mergeCell ref="A13:I13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" display="testingfyp2017@gmail.com_x000a_testingfyp" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="F16" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="F8" r:id="rId1" display="testingfyp2017@gmail.com_x000a_testingfyp"/>
+    <hyperlink ref="F16" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId3"/>

--- a/FYP documentation/FYP_Test_Plan.xlsx
+++ b/FYP documentation/FYP_Test_Plan.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\BSS_FYP_TEAM173D\FYP documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Class_notes\BSS_FYP_TEAM173D\FYP documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan Final" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="373">
   <si>
     <t>Expected Result</t>
   </si>
@@ -1203,11 +1203,36 @@
   <si>
     <t>All of the data is not visible and the state of the app is set to what the new user should see.</t>
   </si>
+  <si>
+    <t>17. GPS Spoofing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test if the gps spoofing is detected </t>
+  </si>
+  <si>
+    <t>Install FakeGPS Free gps spoofing app and enable mock loaction before running the app. For this test we set the loaction to somewhere in the middle of Brazil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Login to the app
+</t>
+  </si>
+  <si>
+    <t>The app should logout withing 30 seconds</t>
+  </si>
+  <si>
+    <t>The app logsout within 30 seconds.</t>
+  </si>
+  <si>
+    <t>1835 hrs</t>
+  </si>
+  <si>
+    <t>TC17-001</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -1628,141 +1653,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1771,14 +1661,149 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1822,7 +1847,7 @@
         <xdr:cNvPr id="2061" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30BA1063-A16B-4C68-A743-4B420C5465C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30BA1063-A16B-4C68-A743-4B420C5465C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1870,7 +1895,7 @@
         <xdr:cNvPr id="2060" name="Picture 12" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF567FBA-98D6-41F8-887E-3AB62EFCE5E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF567FBA-98D6-41F8-887E-3AB62EFCE5E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1931,7 +1956,7 @@
         <xdr:cNvPr id="2059" name="Picture 11" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63E93150-DA75-4658-ACF7-D189E05151A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E93150-DA75-4658-ACF7-D189E05151A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1992,7 +2017,7 @@
         <xdr:cNvPr id="2058" name="AutoShape 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31457A75-25A1-4182-A274-BF0A57FF81ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31457A75-25A1-4182-A274-BF0A57FF81ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2040,7 +2065,7 @@
         <xdr:cNvPr id="2057" name="AutoShape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD5E9B17-BBE9-4F3F-8C7B-720ECD2D681E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD5E9B17-BBE9-4F3F-8C7B-720ECD2D681E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2088,7 +2113,7 @@
         <xdr:cNvPr id="2056" name="AutoShape 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACF2AA01-B252-4B3A-A375-0E01973F5F28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF2AA01-B252-4B3A-A375-0E01973F5F28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2136,7 +2161,7 @@
         <xdr:cNvPr id="2055" name="Picture 7" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65879D11-6224-4C7F-89C2-EB96196F1A0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65879D11-6224-4C7F-89C2-EB96196F1A0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2197,7 +2222,7 @@
         <xdr:cNvPr id="2054" name="Picture 6" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CF822E1-047C-4A3B-84DC-EC8AC8269EFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CF822E1-047C-4A3B-84DC-EC8AC8269EFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2258,7 +2283,7 @@
         <xdr:cNvPr id="2053" name="Picture 5" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04925A52-F4C6-4CD2-894B-53641F217E98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04925A52-F4C6-4CD2-894B-53641F217E98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2319,7 +2344,7 @@
         <xdr:cNvPr id="2052" name="Picture 4" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ABFA5086-6E08-48C0-9ACC-F28827F67131}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABFA5086-6E08-48C0-9ACC-F28827F67131}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2380,7 +2405,7 @@
         <xdr:cNvPr id="2051" name="Picture 3" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57E4935A-4571-48AC-8BC5-8DE7A584B4D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E4935A-4571-48AC-8BC5-8DE7A584B4D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2441,7 +2466,7 @@
         <xdr:cNvPr id="2050" name="Picture 2" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73C78A6D-821A-410B-9678-567D6BA6A13D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C78A6D-821A-410B-9678-567D6BA6A13D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2502,7 +2527,7 @@
         <xdr:cNvPr id="2049" name="Picture 1" descr="out?google_nid=adroll5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0583EF1F-95CC-4F68-83EF-C3E41E3B377C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0583EF1F-95CC-4F68-83EF-C3E41E3B377C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2844,36 +2869,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I295"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C226" sqref="C226:G226"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I264" sqref="I264"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
+    <col min="6" max="6" width="38.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.9" customHeight="1">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:9" ht="40.950000000000003" customHeight="1">
+      <c r="A1" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="78"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="85"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
     </row>
@@ -2888,68 +2913,68 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
     </row>
-    <row r="3" spans="1:9" ht="31.15" customHeight="1" thickBot="1">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:9" ht="31.2" customHeight="1" thickBot="1">
+      <c r="A3" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="14.45" customHeight="1">
-      <c r="A5" s="51" t="s">
+    <row r="5" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A5" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="1:9" ht="14.45" customHeight="1">
-      <c r="A6" s="51" t="s">
+    <row r="6" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A6" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="67"/>
       <c r="H6" s="17"/>
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="62"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="64"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="70"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
     </row>
@@ -2957,14 +2982,14 @@
       <c r="A8" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48" t="s">
+      <c r="C8" s="51"/>
+      <c r="D8" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="47"/>
+      <c r="E8" s="51"/>
       <c r="F8" s="21" t="s">
         <v>70</v>
       </c>
@@ -2972,18 +2997,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="70.150000000000006" customHeight="1">
+    <row r="9" spans="1:9" ht="70.2" customHeight="1">
       <c r="A9" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="45" t="s">
+      <c r="C9" s="56"/>
+      <c r="D9" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="46"/>
+      <c r="E9" s="56"/>
       <c r="F9" s="27" t="s">
         <v>86</v>
       </c>
@@ -2995,14 +3020,14 @@
       <c r="A10" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="45" t="s">
+      <c r="C10" s="56"/>
+      <c r="D10" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="65"/>
+      <c r="E10" s="72"/>
       <c r="F10" s="27" t="s">
         <v>111</v>
       </c>
@@ -3014,14 +3039,14 @@
       <c r="A11" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="55" t="s">
         <v>336</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="45" t="s">
+      <c r="C11" s="56"/>
+      <c r="D11" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E11" s="65"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="27" t="s">
         <v>337</v>
       </c>
@@ -3033,14 +3058,14 @@
       <c r="A12" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="45" t="s">
+      <c r="C12" s="56"/>
+      <c r="D12" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E12" s="65"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="27" t="s">
         <v>115</v>
       </c>
@@ -3048,18 +3073,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="73.150000000000006" customHeight="1">
+    <row r="13" spans="1:9" ht="73.2" customHeight="1">
       <c r="A13" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="65"/>
-      <c r="D13" s="45" t="s">
+      <c r="C13" s="72"/>
+      <c r="D13" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E13" s="65"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="27" t="s">
         <v>115</v>
       </c>
@@ -3071,14 +3096,14 @@
       <c r="A14" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="65"/>
-      <c r="D14" s="45" t="s">
+      <c r="C14" s="72"/>
+      <c r="D14" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E14" s="65"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="27" t="s">
         <v>115</v>
       </c>
@@ -3090,14 +3115,14 @@
       <c r="A15" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="45" t="s">
+      <c r="C15" s="73"/>
+      <c r="D15" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="65"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="28" t="s">
         <v>111</v>
       </c>
@@ -3109,14 +3134,14 @@
       <c r="A16" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="45" t="s">
+      <c r="C16" s="73"/>
+      <c r="D16" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E16" s="65"/>
+      <c r="E16" s="72"/>
       <c r="F16" s="28" t="s">
         <v>115</v>
       </c>
@@ -3128,14 +3153,14 @@
       <c r="A17" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="45" t="s">
+      <c r="C17" s="73"/>
+      <c r="D17" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E17" s="65"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="28" t="s">
         <v>115</v>
       </c>
@@ -3147,14 +3172,14 @@
       <c r="A18" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="73" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="45" t="s">
+      <c r="C18" s="73"/>
+      <c r="D18" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="65"/>
+      <c r="E18" s="72"/>
       <c r="F18" s="28" t="s">
         <v>111</v>
       </c>
@@ -3163,58 +3188,58 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="42" t="s">
+      <c r="B19" s="51"/>
+      <c r="C19" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="49">
+      <c r="B20" s="51"/>
+      <c r="C20" s="52">
         <v>43014</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="44"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="42" t="s">
+      <c r="B21" s="51"/>
+      <c r="C21" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="42" t="s">
+      <c r="B22" s="54"/>
+      <c r="C22" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="44"/>
-    </row>
-    <row r="23" spans="1:7" ht="14.45" customHeight="1">
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="49"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.4" customHeight="1">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -3223,7 +3248,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" ht="10.9" customHeight="1">
+    <row r="24" spans="1:7" ht="10.95" customHeight="1">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -3241,7 +3266,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" ht="14.45" customHeight="1">
+    <row r="26" spans="1:7" ht="14.4" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -3260,75 +3285,75 @@
       <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:7" ht="12" customHeight="1"/>
-    <row r="29" spans="1:7" ht="20.25" thickBot="1">
-      <c r="A29" s="50" t="s">
+    <row r="29" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A29" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A30" s="69" t="s">
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickTop="1">
+      <c r="A30" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="70"/>
-      <c r="C30" s="71" t="s">
+      <c r="B30" s="77"/>
+      <c r="C30" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="73"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="80"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="58"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="64"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="59" t="s">
+      <c r="B32" s="58"/>
+      <c r="C32" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="75"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="82"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="79"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="81"/>
+      <c r="A33" s="86"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="88"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="48" t="s">
+      <c r="C34" s="51"/>
+      <c r="D34" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="47"/>
+      <c r="E34" s="51"/>
       <c r="F34" s="21" t="s">
         <v>70</v>
       </c>
@@ -3340,14 +3365,14 @@
       <c r="A35" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="68"/>
-      <c r="D35" s="42" t="s">
+      <c r="C35" s="75"/>
+      <c r="D35" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="44"/>
+      <c r="E35" s="49"/>
       <c r="F35" s="20" t="s">
         <v>102</v>
       </c>
@@ -3355,18 +3380,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="46.9" customHeight="1">
+    <row r="36" spans="1:7" ht="46.95" customHeight="1">
       <c r="A36" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B36" s="67" t="s">
+      <c r="B36" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="68"/>
-      <c r="D36" s="45" t="s">
+      <c r="C36" s="75"/>
+      <c r="D36" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E36" s="65"/>
+      <c r="E36" s="72"/>
       <c r="F36" s="20" t="s">
         <v>100</v>
       </c>
@@ -3378,14 +3403,14 @@
       <c r="A37" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="B37" s="67" t="s">
+      <c r="B37" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="68"/>
-      <c r="D37" s="45" t="s">
+      <c r="C37" s="75"/>
+      <c r="D37" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="65"/>
+      <c r="E37" s="72"/>
       <c r="F37" s="20" t="s">
         <v>101</v>
       </c>
@@ -3397,14 +3422,14 @@
       <c r="A38" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="B38" s="67" t="s">
+      <c r="B38" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="68"/>
-      <c r="D38" s="45" t="s">
+      <c r="C38" s="75"/>
+      <c r="D38" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="65"/>
+      <c r="E38" s="72"/>
       <c r="F38" s="20" t="s">
         <v>99</v>
       </c>
@@ -3416,14 +3441,14 @@
       <c r="A39" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="55" t="s">
         <v>340</v>
       </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="45" t="s">
+      <c r="C39" s="72"/>
+      <c r="D39" s="55" t="s">
         <v>342</v>
       </c>
-      <c r="E39" s="65"/>
+      <c r="E39" s="72"/>
       <c r="F39" s="27" t="s">
         <v>343</v>
       </c>
@@ -3435,14 +3460,14 @@
       <c r="A40" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="45" t="s">
+      <c r="C40" s="72"/>
+      <c r="D40" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="E40" s="65"/>
+      <c r="E40" s="72"/>
       <c r="F40" s="29" t="s">
         <v>150</v>
       </c>
@@ -3454,14 +3479,14 @@
       <c r="A41" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="55" t="s">
         <v>341</v>
       </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="45" t="s">
+      <c r="C41" s="72"/>
+      <c r="D41" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E41" s="65"/>
+      <c r="E41" s="72"/>
       <c r="F41" s="27" t="s">
         <v>147</v>
       </c>
@@ -3470,126 +3495,126 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="42" t="s">
+      <c r="B42" s="51"/>
+      <c r="C42" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="44"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="47"/>
-      <c r="C43" s="49">
+      <c r="B43" s="51"/>
+      <c r="C43" s="52">
         <v>43042</v>
       </c>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="44"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="42" t="s">
+      <c r="B44" s="54"/>
+      <c r="C44" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="44"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="40" t="s">
+      <c r="A45" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="42" t="s">
+      <c r="B45" s="54"/>
+      <c r="C45" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="44"/>
-    </row>
-    <row r="49" spans="1:7" ht="20.25" thickBot="1">
-      <c r="A49" s="50" t="s">
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="49"/>
+    </row>
+    <row r="49" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A49" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A50" s="51" t="s">
+      <c r="B49" s="71"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
+    </row>
+    <row r="50" spans="1:7" ht="15" thickTop="1">
+      <c r="A50" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="52"/>
-      <c r="C50" s="53" t="s">
+      <c r="B50" s="58"/>
+      <c r="C50" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="55"/>
-    </row>
-    <row r="51" spans="1:7" ht="16.899999999999999" customHeight="1">
-      <c r="A51" s="51" t="s">
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="61"/>
+    </row>
+    <row r="51" spans="1:7" ht="16.95" customHeight="1">
+      <c r="A51" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="58"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="64"/>
     </row>
     <row r="52" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A52" s="51" t="s">
+      <c r="A52" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="52"/>
-      <c r="C52" s="59" t="s">
+      <c r="B52" s="58"/>
+      <c r="C52" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="61"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="67"/>
     </row>
     <row r="53" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A53" s="62"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="64"/>
+      <c r="A53" s="68"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="69"/>
+      <c r="D53" s="69"/>
+      <c r="E53" s="69"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="70"/>
     </row>
     <row r="54" spans="1:7" ht="27" customHeight="1">
       <c r="A54" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="48" t="s">
+      <c r="B54" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="48" t="s">
+      <c r="C54" s="51"/>
+      <c r="D54" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="E54" s="47"/>
+      <c r="E54" s="51"/>
       <c r="F54" s="21" t="s">
         <v>70</v>
       </c>
@@ -3597,18 +3622,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="35.450000000000003" customHeight="1">
+    <row r="55" spans="1:7" ht="35.4" customHeight="1">
       <c r="A55" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="46"/>
-      <c r="D55" s="45" t="s">
+      <c r="C55" s="56"/>
+      <c r="D55" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="E55" s="46"/>
+      <c r="E55" s="56"/>
       <c r="F55" s="29" t="s">
         <v>127</v>
       </c>
@@ -3617,126 +3642,126 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="47"/>
-      <c r="C56" s="42" t="s">
+      <c r="B56" s="51"/>
+      <c r="C56" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="44"/>
+      <c r="D56" s="48"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="49"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="48" t="s">
+      <c r="A57" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="47"/>
-      <c r="C57" s="49">
+      <c r="B57" s="51"/>
+      <c r="C57" s="52">
         <v>43046</v>
       </c>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="44"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="49"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="40" t="s">
+      <c r="A58" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="47"/>
-      <c r="C58" s="42" t="s">
+      <c r="B58" s="51"/>
+      <c r="C58" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="44"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="49"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="41"/>
-      <c r="C59" s="42" t="s">
+      <c r="B59" s="54"/>
+      <c r="C59" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="44"/>
-    </row>
-    <row r="62" spans="1:7" ht="20.25" thickBot="1">
-      <c r="A62" s="50" t="s">
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="49"/>
+    </row>
+    <row r="62" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A62" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="B62" s="50"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="50"/>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A63" s="51" t="s">
+      <c r="B62" s="71"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+    </row>
+    <row r="63" spans="1:7" ht="15" thickTop="1">
+      <c r="A63" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="52"/>
-      <c r="C63" s="53" t="s">
+      <c r="B63" s="58"/>
+      <c r="C63" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="55"/>
+      <c r="D63" s="60"/>
+      <c r="E63" s="60"/>
+      <c r="F63" s="60"/>
+      <c r="G63" s="61"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="51" t="s">
+      <c r="A64" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="52"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="58"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="64"/>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1">
-      <c r="A65" s="51" t="s">
+      <c r="A65" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="52"/>
-      <c r="C65" s="59" t="s">
+      <c r="B65" s="58"/>
+      <c r="C65" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="61"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="67"/>
     </row>
     <row r="66" spans="1:7" ht="21" customHeight="1">
-      <c r="A66" s="62"/>
-      <c r="B66" s="63"/>
-      <c r="C66" s="63"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="63"/>
-      <c r="F66" s="63"/>
-      <c r="G66" s="64"/>
-    </row>
-    <row r="67" spans="1:7" ht="56.45" customHeight="1">
+      <c r="A66" s="68"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
+      <c r="E66" s="69"/>
+      <c r="F66" s="69"/>
+      <c r="G66" s="70"/>
+    </row>
+    <row r="67" spans="1:7" ht="56.4" customHeight="1">
       <c r="A67" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="48" t="s">
+      <c r="B67" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="47"/>
-      <c r="D67" s="48" t="s">
+      <c r="C67" s="51"/>
+      <c r="D67" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="E67" s="47"/>
+      <c r="E67" s="51"/>
       <c r="F67" s="21" t="s">
         <v>70</v>
       </c>
@@ -3748,14 +3773,14 @@
       <c r="A68" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="B68" s="45" t="s">
+      <c r="B68" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="46"/>
-      <c r="D68" s="45" t="s">
+      <c r="C68" s="56"/>
+      <c r="D68" s="55" t="s">
         <v>344</v>
       </c>
-      <c r="E68" s="46"/>
+      <c r="E68" s="56"/>
       <c r="F68" s="29" t="s">
         <v>117</v>
       </c>
@@ -3767,14 +3792,14 @@
       <c r="A69" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="B69" s="45" t="s">
+      <c r="B69" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="C69" s="46"/>
-      <c r="D69" s="45" t="s">
+      <c r="C69" s="56"/>
+      <c r="D69" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="E69" s="46"/>
+      <c r="E69" s="56"/>
       <c r="F69" s="29" t="s">
         <v>118</v>
       </c>
@@ -3786,14 +3811,14 @@
       <c r="A70" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="B70" s="45" t="s">
+      <c r="B70" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="C70" s="46"/>
-      <c r="D70" s="45" t="s">
+      <c r="C70" s="56"/>
+      <c r="D70" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="E70" s="46"/>
+      <c r="E70" s="56"/>
       <c r="F70" s="29" t="s">
         <v>119</v>
       </c>
@@ -3801,18 +3826,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="45">
+    <row r="71" spans="1:7" ht="43.2">
       <c r="A71" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="B71" s="45" t="s">
+      <c r="B71" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="C71" s="46"/>
-      <c r="D71" s="45" t="s">
+      <c r="C71" s="56"/>
+      <c r="D71" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="E71" s="46"/>
+      <c r="E71" s="56"/>
       <c r="F71" s="29" t="s">
         <v>120</v>
       </c>
@@ -3820,18 +3845,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="30">
+    <row r="72" spans="1:7" ht="28.8">
       <c r="A72" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="B72" s="45" t="s">
+      <c r="B72" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="46"/>
-      <c r="D72" s="45" t="s">
+      <c r="C72" s="56"/>
+      <c r="D72" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="E72" s="46"/>
+      <c r="E72" s="56"/>
       <c r="F72" s="29" t="s">
         <v>124</v>
       </c>
@@ -3843,138 +3868,138 @@
       <c r="A73" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="B73" s="45" t="s">
+      <c r="B73" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="C73" s="46"/>
-      <c r="D73" s="45" t="s">
+      <c r="C73" s="56"/>
+      <c r="D73" s="55" t="s">
         <v>346</v>
       </c>
-      <c r="E73" s="46"/>
+      <c r="E73" s="56"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="40" t="s">
+      <c r="A74" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="47"/>
-      <c r="C74" s="42" t="s">
+      <c r="B74" s="51"/>
+      <c r="C74" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="44"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="49"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="48" t="s">
+      <c r="A75" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="47"/>
-      <c r="C75" s="49">
+      <c r="B75" s="51"/>
+      <c r="C75" s="52">
         <v>43045</v>
       </c>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="44"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="49"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="40" t="s">
+      <c r="A76" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="47"/>
-      <c r="C76" s="42" t="s">
+      <c r="B76" s="51"/>
+      <c r="C76" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="44"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="49"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="40" t="s">
+      <c r="A77" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="41"/>
-      <c r="C77" s="42" t="s">
+      <c r="B77" s="54"/>
+      <c r="C77" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="44"/>
-    </row>
-    <row r="84" spans="1:7" ht="20.25" thickBot="1">
-      <c r="A84" s="50" t="s">
+      <c r="D77" s="48"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="49"/>
+    </row>
+    <row r="84" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A84" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="B84" s="50"/>
-      <c r="C84" s="50"/>
-      <c r="D84" s="50"/>
-      <c r="E84" s="50"/>
-      <c r="F84" s="50"/>
-      <c r="G84" s="50"/>
-    </row>
-    <row r="85" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A85" s="51" t="s">
+      <c r="B84" s="71"/>
+      <c r="C84" s="71"/>
+      <c r="D84" s="71"/>
+      <c r="E84" s="71"/>
+      <c r="F84" s="71"/>
+      <c r="G84" s="71"/>
+    </row>
+    <row r="85" spans="1:7" ht="15" thickTop="1">
+      <c r="A85" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B85" s="52"/>
-      <c r="C85" s="53" t="s">
+      <c r="B85" s="58"/>
+      <c r="C85" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="D85" s="54"/>
-      <c r="E85" s="54"/>
-      <c r="F85" s="54"/>
-      <c r="G85" s="55"/>
+      <c r="D85" s="60"/>
+      <c r="E85" s="60"/>
+      <c r="F85" s="60"/>
+      <c r="G85" s="61"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="51" t="s">
+      <c r="A86" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B86" s="52"/>
-      <c r="C86" s="56"/>
-      <c r="D86" s="57"/>
-      <c r="E86" s="57"/>
-      <c r="F86" s="57"/>
-      <c r="G86" s="58"/>
+      <c r="B86" s="58"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="63"/>
+      <c r="F86" s="63"/>
+      <c r="G86" s="64"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="51" t="s">
+      <c r="A87" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B87" s="52"/>
-      <c r="C87" s="59" t="s">
+      <c r="B87" s="58"/>
+      <c r="C87" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="D87" s="60"/>
-      <c r="E87" s="60"/>
-      <c r="F87" s="60"/>
-      <c r="G87" s="61"/>
+      <c r="D87" s="66"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="67"/>
     </row>
     <row r="88" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A88" s="62"/>
-      <c r="B88" s="63"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="63"/>
-      <c r="F88" s="63"/>
-      <c r="G88" s="64"/>
+      <c r="A88" s="68"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="69"/>
+      <c r="F88" s="69"/>
+      <c r="G88" s="70"/>
     </row>
     <row r="89" spans="1:7" ht="18" customHeight="1">
       <c r="A89" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B89" s="48" t="s">
+      <c r="B89" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C89" s="47"/>
-      <c r="D89" s="48" t="s">
+      <c r="C89" s="51"/>
+      <c r="D89" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="E89" s="47"/>
+      <c r="E89" s="51"/>
       <c r="F89" s="21" t="s">
         <v>70</v>
       </c>
@@ -3982,18 +4007,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="47.45" customHeight="1">
+    <row r="90" spans="1:7" ht="47.4" customHeight="1">
       <c r="A90" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="B90" s="45" t="s">
+      <c r="B90" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="C90" s="46"/>
-      <c r="D90" s="45" t="s">
+      <c r="C90" s="56"/>
+      <c r="D90" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="E90" s="46"/>
+      <c r="E90" s="56"/>
       <c r="F90" s="29" t="s">
         <v>135</v>
       </c>
@@ -4005,14 +4030,14 @@
       <c r="A91" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="B91" s="45" t="s">
+      <c r="B91" s="55" t="s">
         <v>347</v>
       </c>
-      <c r="C91" s="46"/>
-      <c r="D91" s="45" t="s">
+      <c r="C91" s="56"/>
+      <c r="D91" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="E91" s="46"/>
+      <c r="E91" s="56"/>
       <c r="F91" s="29" t="s">
         <v>138</v>
       </c>
@@ -4024,14 +4049,14 @@
       <c r="A92" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B92" s="45" t="s">
+      <c r="B92" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="C92" s="46"/>
-      <c r="D92" s="45" t="s">
+      <c r="C92" s="56"/>
+      <c r="D92" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="E92" s="46"/>
+      <c r="E92" s="56"/>
       <c r="F92" s="29" t="s">
         <v>142</v>
       </c>
@@ -4040,121 +4065,121 @@
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="40" t="s">
+      <c r="A93" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B93" s="47"/>
-      <c r="C93" s="42" t="s">
+      <c r="B93" s="51"/>
+      <c r="C93" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="D93" s="43"/>
-      <c r="E93" s="43"/>
-      <c r="F93" s="43"/>
-      <c r="G93" s="44"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="49"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="48" t="s">
+      <c r="A94" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="B94" s="47"/>
-      <c r="C94" s="49">
+      <c r="B94" s="51"/>
+      <c r="C94" s="52">
         <v>43046</v>
       </c>
-      <c r="D94" s="43"/>
-      <c r="E94" s="43"/>
-      <c r="F94" s="43"/>
-      <c r="G94" s="44"/>
+      <c r="D94" s="48"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="49"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="40" t="s">
+      <c r="A95" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="B95" s="47"/>
-      <c r="C95" s="42" t="s">
+      <c r="B95" s="51"/>
+      <c r="C95" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D95" s="43"/>
-      <c r="E95" s="43"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="44"/>
+      <c r="D95" s="48"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="48"/>
+      <c r="G95" s="49"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="40" t="s">
+      <c r="A96" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B96" s="41"/>
-      <c r="C96" s="42" t="s">
+      <c r="B96" s="54"/>
+      <c r="C96" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="D96" s="43"/>
-      <c r="E96" s="43"/>
-      <c r="F96" s="43"/>
-      <c r="G96" s="44"/>
-    </row>
-    <row r="101" spans="1:9" ht="31.15" customHeight="1" thickBot="1">
-      <c r="A101" s="50" t="s">
+      <c r="D96" s="48"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="49"/>
+    </row>
+    <row r="101" spans="1:9" ht="31.2" customHeight="1" thickBot="1">
+      <c r="A101" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="B101" s="50"/>
-      <c r="C101" s="50"/>
-      <c r="D101" s="50"/>
-      <c r="E101" s="50"/>
-      <c r="F101" s="50"/>
-      <c r="G101" s="50"/>
+      <c r="B101" s="71"/>
+      <c r="C101" s="71"/>
+      <c r="D101" s="71"/>
+      <c r="E101" s="71"/>
+      <c r="F101" s="71"/>
+      <c r="G101" s="71"/>
       <c r="H101" s="16"/>
       <c r="I101" s="16"/>
     </row>
     <row r="102" spans="1:9" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A102" s="51" t="s">
+      <c r="A102" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B102" s="52"/>
-      <c r="C102" s="53" t="s">
+      <c r="B102" s="58"/>
+      <c r="C102" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="D102" s="54"/>
-      <c r="E102" s="54"/>
-      <c r="F102" s="54"/>
-      <c r="G102" s="55"/>
+      <c r="D102" s="60"/>
+      <c r="E102" s="60"/>
+      <c r="F102" s="60"/>
+      <c r="G102" s="61"/>
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="14.45" customHeight="1">
-      <c r="A103" s="51" t="s">
+    <row r="103" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A103" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B103" s="52"/>
-      <c r="C103" s="56"/>
-      <c r="D103" s="57"/>
-      <c r="E103" s="57"/>
-      <c r="F103" s="57"/>
-      <c r="G103" s="58"/>
+      <c r="B103" s="58"/>
+      <c r="C103" s="62"/>
+      <c r="D103" s="63"/>
+      <c r="E103" s="63"/>
+      <c r="F103" s="63"/>
+      <c r="G103" s="64"/>
       <c r="H103" s="16"/>
       <c r="I103" s="16"/>
     </row>
-    <row r="104" spans="1:9" ht="14.45" customHeight="1">
-      <c r="A104" s="51" t="s">
+    <row r="104" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A104" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B104" s="52"/>
-      <c r="C104" s="59" t="s">
+      <c r="B104" s="58"/>
+      <c r="C104" s="65" t="s">
         <v>219</v>
       </c>
-      <c r="D104" s="60"/>
-      <c r="E104" s="60"/>
-      <c r="F104" s="60"/>
-      <c r="G104" s="61"/>
+      <c r="D104" s="66"/>
+      <c r="E104" s="66"/>
+      <c r="F104" s="66"/>
+      <c r="G104" s="67"/>
       <c r="H104" s="17"/>
       <c r="I104" s="18"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="62"/>
-      <c r="B105" s="63"/>
-      <c r="C105" s="63"/>
-      <c r="D105" s="63"/>
-      <c r="E105" s="63"/>
-      <c r="F105" s="63"/>
-      <c r="G105" s="64"/>
+      <c r="A105" s="68"/>
+      <c r="B105" s="69"/>
+      <c r="C105" s="69"/>
+      <c r="D105" s="69"/>
+      <c r="E105" s="69"/>
+      <c r="F105" s="69"/>
+      <c r="G105" s="70"/>
       <c r="H105" s="18"/>
       <c r="I105" s="18"/>
     </row>
@@ -4162,14 +4187,14 @@
       <c r="A106" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B106" s="48" t="s">
+      <c r="B106" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C106" s="47"/>
-      <c r="D106" s="48" t="s">
+      <c r="C106" s="51"/>
+      <c r="D106" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="E106" s="47"/>
+      <c r="E106" s="51"/>
       <c r="F106" s="21" t="s">
         <v>70</v>
       </c>
@@ -4181,14 +4206,14 @@
       <c r="A107" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="B107" s="45" t="s">
+      <c r="B107" s="55" t="s">
         <v>220</v>
       </c>
-      <c r="C107" s="46"/>
-      <c r="D107" s="45" t="s">
+      <c r="C107" s="56"/>
+      <c r="D107" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="E107" s="65"/>
+      <c r="E107" s="72"/>
       <c r="F107" s="27"/>
       <c r="G107" s="27"/>
     </row>
@@ -4196,14 +4221,14 @@
       <c r="A108" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="B108" s="45" t="s">
+      <c r="B108" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="C108" s="46"/>
-      <c r="D108" s="45" t="s">
+      <c r="C108" s="56"/>
+      <c r="D108" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="E108" s="46"/>
+      <c r="E108" s="56"/>
       <c r="F108" s="27"/>
       <c r="G108" s="27"/>
     </row>
@@ -4211,14 +4236,14 @@
       <c r="A109" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B109" s="45" t="s">
+      <c r="B109" s="55" t="s">
         <v>224</v>
       </c>
-      <c r="C109" s="46"/>
-      <c r="D109" s="45" t="s">
+      <c r="C109" s="56"/>
+      <c r="D109" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="E109" s="65"/>
+      <c r="E109" s="72"/>
       <c r="F109" s="27"/>
       <c r="G109" s="27"/>
     </row>
@@ -4226,14 +4251,14 @@
       <c r="A110" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="B110" s="45" t="s">
+      <c r="B110" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="C110" s="46"/>
-      <c r="D110" s="45" t="s">
+      <c r="C110" s="56"/>
+      <c r="D110" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="E110" s="46"/>
+      <c r="E110" s="56"/>
       <c r="F110" s="27"/>
       <c r="G110" s="27"/>
     </row>
@@ -4241,14 +4266,14 @@
       <c r="A111" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B111" s="45" t="s">
+      <c r="B111" s="55" t="s">
         <v>230</v>
       </c>
-      <c r="C111" s="46"/>
-      <c r="D111" s="45" t="s">
+      <c r="C111" s="56"/>
+      <c r="D111" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E111" s="46"/>
+      <c r="E111" s="56"/>
       <c r="F111" s="27"/>
       <c r="G111" s="27"/>
     </row>
@@ -4256,14 +4281,14 @@
       <c r="A112" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="B112" s="45" t="s">
+      <c r="B112" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="C112" s="46"/>
-      <c r="D112" s="45" t="s">
+      <c r="C112" s="56"/>
+      <c r="D112" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E112" s="46"/>
+      <c r="E112" s="56"/>
       <c r="F112" s="27"/>
       <c r="G112" s="27"/>
     </row>
@@ -4271,14 +4296,14 @@
       <c r="A113" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="B113" s="45" t="s">
+      <c r="B113" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="C113" s="46"/>
-      <c r="D113" s="45" t="s">
+      <c r="C113" s="56"/>
+      <c r="D113" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E113" s="46"/>
+      <c r="E113" s="56"/>
       <c r="F113" s="28"/>
       <c r="G113" s="27"/>
     </row>
@@ -4286,14 +4311,14 @@
       <c r="A114" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="B114" s="45" t="s">
+      <c r="B114" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="C114" s="46"/>
-      <c r="D114" s="45" t="s">
+      <c r="C114" s="56"/>
+      <c r="D114" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E114" s="46"/>
+      <c r="E114" s="56"/>
       <c r="F114" s="28"/>
       <c r="G114" s="27"/>
     </row>
@@ -4301,14 +4326,14 @@
       <c r="A115" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="B115" s="45" t="s">
+      <c r="B115" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="C115" s="46"/>
-      <c r="D115" s="45" t="s">
+      <c r="C115" s="56"/>
+      <c r="D115" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E115" s="46"/>
+      <c r="E115" s="56"/>
       <c r="F115" s="28"/>
       <c r="G115" s="27"/>
     </row>
@@ -4316,14 +4341,14 @@
       <c r="A116" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="B116" s="45" t="s">
+      <c r="B116" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="C116" s="46"/>
-      <c r="D116" s="45" t="s">
+      <c r="C116" s="56"/>
+      <c r="D116" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E116" s="46"/>
+      <c r="E116" s="56"/>
       <c r="F116" s="28"/>
       <c r="G116" s="27"/>
     </row>
@@ -4331,82 +4356,82 @@
       <c r="A117" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="B117" s="45" t="s">
+      <c r="B117" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="C117" s="46"/>
-      <c r="D117" s="45" t="s">
+      <c r="C117" s="56"/>
+      <c r="D117" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E117" s="46"/>
-      <c r="F117" s="85"/>
-      <c r="G117" s="85"/>
+      <c r="E117" s="56"/>
+      <c r="F117" s="40"/>
+      <c r="G117" s="40"/>
     </row>
     <row r="118" spans="1:7" ht="93" customHeight="1">
       <c r="A118" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="B118" s="45" t="s">
+      <c r="B118" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="C118" s="46"/>
-      <c r="D118" s="45" t="s">
+      <c r="C118" s="56"/>
+      <c r="D118" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E118" s="46"/>
-      <c r="F118" s="85"/>
-      <c r="G118" s="85"/>
+      <c r="E118" s="56"/>
+      <c r="F118" s="40"/>
+      <c r="G118" s="40"/>
     </row>
     <row r="119" spans="1:7" ht="50.25" customHeight="1">
       <c r="A119" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="B119" s="45" t="s">
+      <c r="B119" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="C119" s="46"/>
-      <c r="D119" s="45" t="s">
+      <c r="C119" s="56"/>
+      <c r="D119" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E119" s="46"/>
-      <c r="F119" s="85"/>
-      <c r="G119" s="85"/>
+      <c r="E119" s="56"/>
+      <c r="F119" s="40"/>
+      <c r="G119" s="40"/>
     </row>
     <row r="120" spans="1:7" ht="56.25" customHeight="1">
       <c r="A120" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="B120" s="45" t="s">
+      <c r="B120" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="C120" s="46"/>
-      <c r="D120" s="45" t="s">
+      <c r="C120" s="56"/>
+      <c r="D120" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E120" s="46"/>
-      <c r="F120" s="85"/>
-      <c r="G120" s="85"/>
+      <c r="E120" s="56"/>
+      <c r="F120" s="40"/>
+      <c r="G120" s="40"/>
     </row>
     <row r="121" spans="1:7" ht="56.25" customHeight="1">
       <c r="A121" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="B121" s="45" t="s">
+      <c r="B121" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="C121" s="46"/>
-      <c r="D121" s="45" t="s">
+      <c r="C121" s="56"/>
+      <c r="D121" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E121" s="46"/>
-      <c r="F121" s="85"/>
-      <c r="G121" s="85"/>
+      <c r="E121" s="56"/>
+      <c r="F121" s="40"/>
+      <c r="G121" s="40"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="48" t="s">
+      <c r="A122" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B122" s="47"/>
+      <c r="B122" s="51"/>
       <c r="C122" s="30" t="s">
         <v>104</v>
       </c>
@@ -4415,11 +4440,11 @@
       <c r="F122" s="31"/>
       <c r="G122" s="32"/>
     </row>
-    <row r="123" spans="1:7" ht="14.45" customHeight="1">
-      <c r="A123" s="48" t="s">
+    <row r="123" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A123" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="B123" s="47"/>
+      <c r="B123" s="51"/>
       <c r="C123" s="33">
         <v>43014</v>
       </c>
@@ -4429,32 +4454,32 @@
       <c r="G123" s="32"/>
     </row>
     <row r="124" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A124" s="40" t="s">
+      <c r="A124" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="B124" s="47"/>
+      <c r="B124" s="51"/>
       <c r="C124" s="30" t="s">
         <v>116</v>
       </c>
       <c r="D124" s="23"/>
-      <c r="E124" s="86"/>
-      <c r="F124" s="86"/>
-      <c r="G124" s="87"/>
+      <c r="E124" s="41"/>
+      <c r="F124" s="41"/>
+      <c r="G124" s="42"/>
     </row>
     <row r="125" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A125" s="40" t="s">
+      <c r="A125" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B125" s="41"/>
+      <c r="B125" s="54"/>
       <c r="C125" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="D125" s="88"/>
-      <c r="E125" s="89"/>
-      <c r="F125" s="89"/>
-      <c r="G125" s="90"/>
-    </row>
-    <row r="126" spans="1:7" ht="14.45" customHeight="1">
+      <c r="D125" s="43"/>
+      <c r="E125" s="44"/>
+      <c r="F125" s="44"/>
+      <c r="G125" s="45"/>
+    </row>
+    <row r="126" spans="1:7" ht="14.4" customHeight="1">
       <c r="A126" s="18"/>
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
@@ -4501,52 +4526,52 @@
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1"/>
     <row r="132" spans="1:7" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A132" s="50" t="s">
+      <c r="A132" s="71" t="s">
         <v>252</v>
       </c>
-      <c r="B132" s="50"/>
-      <c r="C132" s="50"/>
-      <c r="D132" s="50"/>
-      <c r="E132" s="50"/>
-      <c r="F132" s="50"/>
-      <c r="G132" s="50"/>
+      <c r="B132" s="71"/>
+      <c r="C132" s="71"/>
+      <c r="D132" s="71"/>
+      <c r="E132" s="71"/>
+      <c r="F132" s="71"/>
+      <c r="G132" s="71"/>
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" thickTop="1">
-      <c r="A133" s="69" t="s">
+      <c r="A133" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B133" s="70"/>
-      <c r="C133" s="71" t="s">
+      <c r="B133" s="77"/>
+      <c r="C133" s="78" t="s">
         <v>253</v>
       </c>
-      <c r="D133" s="72"/>
-      <c r="E133" s="72"/>
-      <c r="F133" s="72"/>
-      <c r="G133" s="73"/>
+      <c r="D133" s="79"/>
+      <c r="E133" s="79"/>
+      <c r="F133" s="79"/>
+      <c r="G133" s="80"/>
     </row>
     <row r="134" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A134" s="51" t="s">
+      <c r="A134" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B134" s="52"/>
-      <c r="C134" s="56"/>
-      <c r="D134" s="57"/>
-      <c r="E134" s="57"/>
-      <c r="F134" s="57"/>
-      <c r="G134" s="58"/>
+      <c r="B134" s="58"/>
+      <c r="C134" s="62"/>
+      <c r="D134" s="63"/>
+      <c r="E134" s="63"/>
+      <c r="F134" s="63"/>
+      <c r="G134" s="64"/>
     </row>
     <row r="135" spans="1:7" ht="12" customHeight="1">
-      <c r="A135" s="51" t="s">
+      <c r="A135" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B135" s="52"/>
-      <c r="C135" s="59" t="s">
+      <c r="B135" s="58"/>
+      <c r="C135" s="65" t="s">
         <v>219</v>
       </c>
-      <c r="D135" s="74"/>
-      <c r="E135" s="74"/>
-      <c r="F135" s="74"/>
-      <c r="G135" s="75"/>
+      <c r="D135" s="81"/>
+      <c r="E135" s="81"/>
+      <c r="F135" s="81"/>
+      <c r="G135" s="82"/>
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1">
       <c r="A136" s="37"/>
@@ -4561,14 +4586,14 @@
       <c r="A137" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B137" s="48" t="s">
+      <c r="B137" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C137" s="47"/>
-      <c r="D137" s="48" t="s">
+      <c r="C137" s="51"/>
+      <c r="D137" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="E137" s="47"/>
+      <c r="E137" s="51"/>
       <c r="F137" s="21" t="s">
         <v>70</v>
       </c>
@@ -4580,14 +4605,14 @@
       <c r="A138" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="B138" s="45" t="s">
+      <c r="B138" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="C138" s="65"/>
-      <c r="D138" s="45" t="s">
+      <c r="C138" s="72"/>
+      <c r="D138" s="55" t="s">
         <v>256</v>
       </c>
-      <c r="E138" s="65"/>
+      <c r="E138" s="72"/>
       <c r="F138" s="20"/>
       <c r="G138" s="20"/>
     </row>
@@ -4595,14 +4620,14 @@
       <c r="A139" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="B139" s="45" t="s">
+      <c r="B139" s="55" t="s">
         <v>258</v>
       </c>
-      <c r="C139" s="65"/>
-      <c r="D139" s="91" t="s">
+      <c r="C139" s="72"/>
+      <c r="D139" s="89" t="s">
         <v>259</v>
       </c>
-      <c r="E139" s="46"/>
+      <c r="E139" s="56"/>
       <c r="F139" s="20"/>
       <c r="G139" s="20"/>
     </row>
@@ -4610,14 +4635,14 @@
       <c r="A140" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="B140" s="45" t="s">
+      <c r="B140" s="55" t="s">
         <v>261</v>
       </c>
-      <c r="C140" s="65"/>
-      <c r="D140" s="45" t="s">
+      <c r="C140" s="72"/>
+      <c r="D140" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E140" s="65"/>
+      <c r="E140" s="72"/>
       <c r="F140" s="20"/>
       <c r="G140" s="20"/>
     </row>
@@ -4625,14 +4650,14 @@
       <c r="A141" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="B141" s="45" t="s">
+      <c r="B141" s="55" t="s">
         <v>263</v>
       </c>
-      <c r="C141" s="65"/>
-      <c r="D141" s="45" t="s">
+      <c r="C141" s="72"/>
+      <c r="D141" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E141" s="65"/>
+      <c r="E141" s="72"/>
       <c r="F141" s="20"/>
       <c r="G141" s="20"/>
     </row>
@@ -4640,14 +4665,14 @@
       <c r="A142" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="B142" s="45" t="s">
+      <c r="B142" s="55" t="s">
         <v>265</v>
       </c>
-      <c r="C142" s="65"/>
-      <c r="D142" s="45" t="s">
+      <c r="C142" s="72"/>
+      <c r="D142" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E142" s="65"/>
+      <c r="E142" s="72"/>
       <c r="F142" s="20"/>
       <c r="G142" s="20"/>
     </row>
@@ -4655,14 +4680,14 @@
       <c r="A143" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="B143" s="45" t="s">
+      <c r="B143" s="55" t="s">
         <v>267</v>
       </c>
-      <c r="C143" s="65"/>
-      <c r="D143" s="45" t="s">
+      <c r="C143" s="72"/>
+      <c r="D143" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E143" s="65"/>
+      <c r="E143" s="72"/>
       <c r="F143" s="20"/>
       <c r="G143" s="20"/>
     </row>
@@ -4670,14 +4695,14 @@
       <c r="A144" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="B144" s="45" t="s">
+      <c r="B144" s="55" t="s">
         <v>269</v>
       </c>
-      <c r="C144" s="65"/>
-      <c r="D144" s="45" t="s">
+      <c r="C144" s="72"/>
+      <c r="D144" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E144" s="65"/>
+      <c r="E144" s="72"/>
       <c r="F144" s="20"/>
       <c r="G144" s="20"/>
     </row>
@@ -4685,52 +4710,52 @@
       <c r="A145" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="B145" s="45" t="s">
+      <c r="B145" s="55" t="s">
         <v>271</v>
       </c>
-      <c r="C145" s="46"/>
-      <c r="D145" s="45" t="s">
+      <c r="C145" s="56"/>
+      <c r="D145" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E145" s="46"/>
-      <c r="F145" s="85"/>
-      <c r="G145" s="85"/>
+      <c r="E145" s="56"/>
+      <c r="F145" s="40"/>
+      <c r="G145" s="40"/>
     </row>
     <row r="146" spans="1:7" ht="44.25" customHeight="1">
       <c r="A146" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="B146" s="45" t="s">
+      <c r="B146" s="55" t="s">
         <v>273</v>
       </c>
-      <c r="C146" s="46"/>
-      <c r="D146" s="45" t="s">
+      <c r="C146" s="56"/>
+      <c r="D146" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E146" s="46"/>
-      <c r="F146" s="85"/>
-      <c r="G146" s="85"/>
+      <c r="E146" s="56"/>
+      <c r="F146" s="40"/>
+      <c r="G146" s="40"/>
     </row>
     <row r="147" spans="1:7" ht="46.5" customHeight="1">
       <c r="A147" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="B147" s="45" t="s">
+      <c r="B147" s="55" t="s">
         <v>275</v>
       </c>
-      <c r="C147" s="46"/>
-      <c r="D147" s="45" t="s">
+      <c r="C147" s="56"/>
+      <c r="D147" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E147" s="46"/>
-      <c r="F147" s="85"/>
-      <c r="G147" s="85"/>
+      <c r="E147" s="56"/>
+      <c r="F147" s="40"/>
+      <c r="G147" s="40"/>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="48" t="s">
+      <c r="A148" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B148" s="47"/>
+      <c r="B148" s="51"/>
       <c r="C148" s="30" t="s">
         <v>104</v>
       </c>
@@ -4740,10 +4765,10 @@
       <c r="G148" s="32"/>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="48" t="s">
+      <c r="A149" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="B149" s="47"/>
+      <c r="B149" s="51"/>
       <c r="C149" s="33">
         <v>43042</v>
       </c>
@@ -4753,10 +4778,10 @@
       <c r="G149" s="32"/>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="40" t="s">
+      <c r="A150" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="B150" s="41"/>
+      <c r="B150" s="54"/>
       <c r="C150" s="30" t="s">
         <v>105</v>
       </c>
@@ -4766,10 +4791,10 @@
       <c r="G150" s="32"/>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="40" t="s">
+      <c r="A151" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B151" s="41"/>
+      <c r="B151" s="54"/>
       <c r="C151" s="30" t="s">
         <v>98</v>
       </c>
@@ -4779,79 +4804,79 @@
       <c r="G151" s="32"/>
     </row>
     <row r="152" spans="1:7">
-      <c r="A152" s="92"/>
-      <c r="B152" s="92"/>
-      <c r="C152" s="92"/>
-      <c r="D152" s="92"/>
-      <c r="E152" s="92"/>
-      <c r="F152" s="92"/>
-      <c r="G152" s="92"/>
+      <c r="A152" s="46"/>
+      <c r="B152" s="46"/>
+      <c r="C152" s="46"/>
+      <c r="D152" s="46"/>
+      <c r="E152" s="46"/>
+      <c r="F152" s="46"/>
+      <c r="G152" s="46"/>
     </row>
     <row r="153" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A153" s="92"/>
-      <c r="B153" s="92"/>
-      <c r="C153" s="92"/>
-      <c r="D153" s="92"/>
-      <c r="E153" s="92"/>
-      <c r="F153" s="92"/>
-      <c r="G153" s="92"/>
+      <c r="A153" s="46"/>
+      <c r="B153" s="46"/>
+      <c r="C153" s="46"/>
+      <c r="D153" s="46"/>
+      <c r="E153" s="46"/>
+      <c r="F153" s="46"/>
+      <c r="G153" s="46"/>
     </row>
     <row r="154" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A154" s="92"/>
-      <c r="B154" s="92"/>
-      <c r="C154" s="92"/>
-      <c r="D154" s="92"/>
-      <c r="E154" s="92"/>
-      <c r="F154" s="92"/>
-      <c r="G154" s="92"/>
+      <c r="A154" s="46"/>
+      <c r="B154" s="46"/>
+      <c r="C154" s="46"/>
+      <c r="D154" s="46"/>
+      <c r="E154" s="46"/>
+      <c r="F154" s="46"/>
+      <c r="G154" s="46"/>
     </row>
     <row r="155" spans="1:7" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A155" s="50" t="s">
+      <c r="A155" s="71" t="s">
         <v>276</v>
       </c>
-      <c r="B155" s="50"/>
-      <c r="C155" s="50"/>
-      <c r="D155" s="50"/>
-      <c r="E155" s="50"/>
-      <c r="F155" s="50"/>
-      <c r="G155" s="50"/>
+      <c r="B155" s="71"/>
+      <c r="C155" s="71"/>
+      <c r="D155" s="71"/>
+      <c r="E155" s="71"/>
+      <c r="F155" s="71"/>
+      <c r="G155" s="71"/>
     </row>
     <row r="156" spans="1:7" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A156" s="69" t="s">
+      <c r="A156" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B156" s="70"/>
-      <c r="C156" s="71" t="s">
+      <c r="B156" s="77"/>
+      <c r="C156" s="78" t="s">
         <v>277</v>
       </c>
-      <c r="D156" s="72"/>
-      <c r="E156" s="72"/>
-      <c r="F156" s="72"/>
-      <c r="G156" s="73"/>
+      <c r="D156" s="79"/>
+      <c r="E156" s="79"/>
+      <c r="F156" s="79"/>
+      <c r="G156" s="80"/>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="51" t="s">
+      <c r="A157" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B157" s="52"/>
-      <c r="C157" s="56"/>
-      <c r="D157" s="57"/>
-      <c r="E157" s="57"/>
-      <c r="F157" s="57"/>
-      <c r="G157" s="58"/>
+      <c r="B157" s="58"/>
+      <c r="C157" s="62"/>
+      <c r="D157" s="63"/>
+      <c r="E157" s="63"/>
+      <c r="F157" s="63"/>
+      <c r="G157" s="64"/>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="51" t="s">
+      <c r="A158" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B158" s="52"/>
-      <c r="C158" s="59" t="s">
+      <c r="B158" s="58"/>
+      <c r="C158" s="65" t="s">
         <v>219</v>
       </c>
-      <c r="D158" s="74"/>
-      <c r="E158" s="74"/>
-      <c r="F158" s="74"/>
-      <c r="G158" s="75"/>
+      <c r="D158" s="81"/>
+      <c r="E158" s="81"/>
+      <c r="F158" s="81"/>
+      <c r="G158" s="82"/>
     </row>
     <row r="159" spans="1:7" ht="20.25" customHeight="1">
       <c r="A159" s="37"/>
@@ -4866,14 +4891,14 @@
       <c r="A160" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B160" s="48" t="s">
+      <c r="B160" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C160" s="47"/>
-      <c r="D160" s="48" t="s">
+      <c r="C160" s="51"/>
+      <c r="D160" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="E160" s="47"/>
+      <c r="E160" s="51"/>
       <c r="F160" s="21" t="s">
         <v>70</v>
       </c>
@@ -4885,14 +4910,14 @@
       <c r="A161" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="B161" s="45" t="s">
+      <c r="B161" s="55" t="s">
         <v>279</v>
       </c>
-      <c r="C161" s="65"/>
-      <c r="D161" s="45" t="s">
+      <c r="C161" s="72"/>
+      <c r="D161" s="55" t="s">
         <v>280</v>
       </c>
-      <c r="E161" s="65"/>
+      <c r="E161" s="72"/>
       <c r="F161" s="20"/>
       <c r="G161" s="20"/>
     </row>
@@ -4900,14 +4925,14 @@
       <c r="A162" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="B162" s="45" t="s">
+      <c r="B162" s="55" t="s">
         <v>282</v>
       </c>
-      <c r="C162" s="65"/>
-      <c r="D162" s="45" t="s">
+      <c r="C162" s="72"/>
+      <c r="D162" s="55" t="s">
         <v>283</v>
       </c>
-      <c r="E162" s="65"/>
+      <c r="E162" s="72"/>
       <c r="F162" s="20"/>
       <c r="G162" s="20"/>
     </row>
@@ -4915,14 +4940,14 @@
       <c r="A163" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="B163" s="45" t="s">
+      <c r="B163" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="C163" s="65"/>
-      <c r="D163" s="45" t="s">
+      <c r="C163" s="72"/>
+      <c r="D163" s="55" t="s">
         <v>286</v>
       </c>
-      <c r="E163" s="65"/>
+      <c r="E163" s="72"/>
       <c r="F163" s="20"/>
       <c r="G163" s="20"/>
     </row>
@@ -4930,14 +4955,14 @@
       <c r="A164" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="B164" s="45" t="s">
+      <c r="B164" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="C164" s="65"/>
-      <c r="D164" s="45" t="s">
+      <c r="C164" s="72"/>
+      <c r="D164" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E164" s="65"/>
+      <c r="E164" s="72"/>
       <c r="F164" s="20"/>
       <c r="G164" s="20"/>
     </row>
@@ -4945,14 +4970,14 @@
       <c r="A165" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="B165" s="45" t="s">
+      <c r="B165" s="55" t="s">
         <v>290</v>
       </c>
-      <c r="C165" s="65"/>
-      <c r="D165" s="45" t="s">
+      <c r="C165" s="72"/>
+      <c r="D165" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E165" s="65"/>
+      <c r="E165" s="72"/>
       <c r="F165" s="20"/>
       <c r="G165" s="20"/>
     </row>
@@ -4960,14 +4985,14 @@
       <c r="A166" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="B166" s="45" t="s">
+      <c r="B166" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="C166" s="65"/>
-      <c r="D166" s="45" t="s">
+      <c r="C166" s="72"/>
+      <c r="D166" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E166" s="65"/>
+      <c r="E166" s="72"/>
       <c r="F166" s="20"/>
       <c r="G166" s="20"/>
     </row>
@@ -4975,37 +5000,37 @@
       <c r="A167" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="B167" s="45" t="s">
+      <c r="B167" s="55" t="s">
         <v>294</v>
       </c>
-      <c r="C167" s="46"/>
-      <c r="D167" s="45" t="s">
+      <c r="C167" s="56"/>
+      <c r="D167" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E167" s="46"/>
-      <c r="F167" s="85"/>
-      <c r="G167" s="85"/>
+      <c r="E167" s="56"/>
+      <c r="F167" s="40"/>
+      <c r="G167" s="40"/>
     </row>
     <row r="168" spans="1:7" ht="46.5" customHeight="1">
       <c r="A168" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="B168" s="45" t="s">
+      <c r="B168" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="C168" s="46"/>
-      <c r="D168" s="45" t="s">
+      <c r="C168" s="56"/>
+      <c r="D168" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E168" s="46"/>
-      <c r="F168" s="85"/>
-      <c r="G168" s="85"/>
+      <c r="E168" s="56"/>
+      <c r="F168" s="40"/>
+      <c r="G168" s="40"/>
     </row>
     <row r="169" spans="1:7" ht="18" customHeight="1">
-      <c r="A169" s="48" t="s">
+      <c r="A169" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B169" s="47"/>
+      <c r="B169" s="51"/>
       <c r="C169" s="30" t="s">
         <v>104</v>
       </c>
@@ -5015,10 +5040,10 @@
       <c r="G169" s="32"/>
     </row>
     <row r="170" spans="1:7" ht="24" customHeight="1">
-      <c r="A170" s="48" t="s">
+      <c r="A170" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="B170" s="47"/>
+      <c r="B170" s="51"/>
       <c r="C170" s="33">
         <v>43042</v>
       </c>
@@ -5028,10 +5053,10 @@
       <c r="G170" s="32"/>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="40" t="s">
+      <c r="A171" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="B171" s="41"/>
+      <c r="B171" s="54"/>
       <c r="C171" s="30" t="s">
         <v>105</v>
       </c>
@@ -5041,10 +5066,10 @@
       <c r="G171" s="32"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="40" t="s">
+      <c r="A172" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B172" s="41"/>
+      <c r="B172" s="54"/>
       <c r="C172" s="30" t="s">
         <v>98</v>
       </c>
@@ -5054,75 +5079,75 @@
       <c r="G172" s="32"/>
     </row>
     <row r="173" spans="1:7" ht="27.75" customHeight="1"/>
-    <row r="180" spans="1:7" ht="20.25" thickBot="1">
-      <c r="A180" s="50" t="s">
+    <row r="180" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A180" s="71" t="s">
         <v>182</v>
       </c>
-      <c r="B180" s="50"/>
-      <c r="C180" s="50"/>
-      <c r="D180" s="50"/>
-      <c r="E180" s="50"/>
-      <c r="F180" s="50"/>
-      <c r="G180" s="50"/>
-    </row>
-    <row r="181" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A181" s="51" t="s">
+      <c r="B180" s="71"/>
+      <c r="C180" s="71"/>
+      <c r="D180" s="71"/>
+      <c r="E180" s="71"/>
+      <c r="F180" s="71"/>
+      <c r="G180" s="71"/>
+    </row>
+    <row r="181" spans="1:7" ht="15" thickTop="1">
+      <c r="A181" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B181" s="52"/>
-      <c r="C181" s="53" t="s">
+      <c r="B181" s="58"/>
+      <c r="C181" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="D181" s="54"/>
-      <c r="E181" s="54"/>
-      <c r="F181" s="54"/>
-      <c r="G181" s="55"/>
+      <c r="D181" s="60"/>
+      <c r="E181" s="60"/>
+      <c r="F181" s="60"/>
+      <c r="G181" s="61"/>
     </row>
     <row r="182" spans="1:7">
-      <c r="A182" s="51" t="s">
+      <c r="A182" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B182" s="52"/>
-      <c r="C182" s="56"/>
-      <c r="D182" s="57"/>
-      <c r="E182" s="57"/>
-      <c r="F182" s="57"/>
-      <c r="G182" s="58"/>
+      <c r="B182" s="58"/>
+      <c r="C182" s="62"/>
+      <c r="D182" s="63"/>
+      <c r="E182" s="63"/>
+      <c r="F182" s="63"/>
+      <c r="G182" s="64"/>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="51" t="s">
+      <c r="A183" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B183" s="52"/>
-      <c r="C183" s="59" t="s">
+      <c r="B183" s="58"/>
+      <c r="C183" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="D183" s="60"/>
-      <c r="E183" s="60"/>
-      <c r="F183" s="60"/>
-      <c r="G183" s="61"/>
+      <c r="D183" s="66"/>
+      <c r="E183" s="66"/>
+      <c r="F183" s="66"/>
+      <c r="G183" s="67"/>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" s="62"/>
-      <c r="B184" s="63"/>
-      <c r="C184" s="63"/>
-      <c r="D184" s="63"/>
-      <c r="E184" s="63"/>
-      <c r="F184" s="63"/>
-      <c r="G184" s="64"/>
+      <c r="A184" s="68"/>
+      <c r="B184" s="69"/>
+      <c r="C184" s="69"/>
+      <c r="D184" s="69"/>
+      <c r="E184" s="69"/>
+      <c r="F184" s="69"/>
+      <c r="G184" s="70"/>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B185" s="48" t="s">
+      <c r="B185" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C185" s="47"/>
-      <c r="D185" s="48" t="s">
+      <c r="C185" s="51"/>
+      <c r="D185" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="E185" s="47"/>
+      <c r="E185" s="51"/>
       <c r="F185" s="21" t="s">
         <v>70</v>
       </c>
@@ -5134,14 +5159,14 @@
       <c r="A186" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="B186" s="45" t="s">
+      <c r="B186" s="55" t="s">
         <v>348</v>
       </c>
-      <c r="C186" s="46"/>
-      <c r="D186" s="45" t="s">
+      <c r="C186" s="56"/>
+      <c r="D186" s="55" t="s">
         <v>349</v>
       </c>
-      <c r="E186" s="46"/>
+      <c r="E186" s="56"/>
       <c r="F186" s="29"/>
       <c r="G186" s="29"/>
     </row>
@@ -5149,29 +5174,29 @@
       <c r="A187" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="B187" s="45" t="s">
+      <c r="B187" s="55" t="s">
         <v>350</v>
       </c>
-      <c r="C187" s="46"/>
-      <c r="D187" s="45" t="s">
+      <c r="C187" s="56"/>
+      <c r="D187" s="55" t="s">
         <v>351</v>
       </c>
-      <c r="E187" s="46"/>
+      <c r="E187" s="56"/>
       <c r="F187" s="29"/>
       <c r="G187" s="29"/>
     </row>
-    <row r="188" spans="1:7" ht="31.15" customHeight="1">
+    <row r="188" spans="1:7" ht="31.2" customHeight="1">
       <c r="A188" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="B188" s="45" t="s">
+      <c r="B188" s="55" t="s">
         <v>352</v>
       </c>
-      <c r="C188" s="46"/>
-      <c r="D188" s="45" t="s">
+      <c r="C188" s="56"/>
+      <c r="D188" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="E188" s="46"/>
+      <c r="E188" s="56"/>
       <c r="F188" s="29" t="s">
         <v>131</v>
       </c>
@@ -5183,14 +5208,14 @@
       <c r="A189" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="B189" s="45" t="s">
+      <c r="B189" s="55" t="s">
         <v>354</v>
       </c>
-      <c r="C189" s="46"/>
-      <c r="D189" s="45" t="s">
+      <c r="C189" s="56"/>
+      <c r="D189" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E189" s="46"/>
+      <c r="E189" s="56"/>
       <c r="F189" s="29"/>
       <c r="G189" s="29"/>
     </row>
@@ -5198,14 +5223,14 @@
       <c r="A190" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="B190" s="45" t="s">
+      <c r="B190" s="55" t="s">
         <v>355</v>
       </c>
-      <c r="C190" s="46"/>
-      <c r="D190" s="45" t="s">
+      <c r="C190" s="56"/>
+      <c r="D190" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E190" s="46"/>
+      <c r="E190" s="56"/>
       <c r="F190" s="29"/>
       <c r="G190" s="29"/>
     </row>
@@ -5213,14 +5238,14 @@
       <c r="A191" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="B191" s="45" t="s">
+      <c r="B191" s="55" t="s">
         <v>356</v>
       </c>
-      <c r="C191" s="46"/>
-      <c r="D191" s="45" t="s">
+      <c r="C191" s="56"/>
+      <c r="D191" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E191" s="46"/>
+      <c r="E191" s="56"/>
       <c r="F191" s="29"/>
       <c r="G191" s="29"/>
     </row>
@@ -5228,138 +5253,138 @@
       <c r="A192" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="B192" s="45" t="s">
+      <c r="B192" s="55" t="s">
         <v>361</v>
       </c>
-      <c r="C192" s="46"/>
-      <c r="D192" s="45" t="s">
+      <c r="C192" s="56"/>
+      <c r="D192" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E192" s="46"/>
+      <c r="E192" s="56"/>
       <c r="F192" s="29"/>
       <c r="G192" s="29"/>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="40" t="s">
+      <c r="A193" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B193" s="47"/>
-      <c r="C193" s="42" t="s">
+      <c r="B193" s="51"/>
+      <c r="C193" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="D193" s="43"/>
-      <c r="E193" s="43"/>
-      <c r="F193" s="43"/>
-      <c r="G193" s="44"/>
+      <c r="D193" s="48"/>
+      <c r="E193" s="48"/>
+      <c r="F193" s="48"/>
+      <c r="G193" s="49"/>
     </row>
     <row r="194" spans="1:7">
-      <c r="A194" s="48" t="s">
+      <c r="A194" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="B194" s="47"/>
-      <c r="C194" s="49">
+      <c r="B194" s="51"/>
+      <c r="C194" s="52">
         <v>43046</v>
       </c>
-      <c r="D194" s="43"/>
-      <c r="E194" s="43"/>
-      <c r="F194" s="43"/>
-      <c r="G194" s="44"/>
+      <c r="D194" s="48"/>
+      <c r="E194" s="48"/>
+      <c r="F194" s="48"/>
+      <c r="G194" s="49"/>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="40" t="s">
+      <c r="A195" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="B195" s="47"/>
-      <c r="C195" s="42" t="s">
+      <c r="B195" s="51"/>
+      <c r="C195" s="47" t="s">
         <v>125</v>
       </c>
-      <c r="D195" s="43"/>
-      <c r="E195" s="43"/>
-      <c r="F195" s="43"/>
-      <c r="G195" s="44"/>
+      <c r="D195" s="48"/>
+      <c r="E195" s="48"/>
+      <c r="F195" s="48"/>
+      <c r="G195" s="49"/>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="40" t="s">
+      <c r="A196" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B196" s="41"/>
-      <c r="C196" s="42" t="s">
+      <c r="B196" s="54"/>
+      <c r="C196" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="D196" s="43"/>
-      <c r="E196" s="43"/>
-      <c r="F196" s="43"/>
-      <c r="G196" s="44"/>
-    </row>
-    <row r="200" spans="1:7" ht="20.25" thickBot="1">
-      <c r="A200" s="50" t="s">
+      <c r="D196" s="48"/>
+      <c r="E196" s="48"/>
+      <c r="F196" s="48"/>
+      <c r="G196" s="49"/>
+    </row>
+    <row r="200" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A200" s="71" t="s">
         <v>186</v>
       </c>
-      <c r="B200" s="50"/>
-      <c r="C200" s="50"/>
-      <c r="D200" s="50"/>
-      <c r="E200" s="50"/>
-      <c r="F200" s="50"/>
-      <c r="G200" s="50"/>
-    </row>
-    <row r="201" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A201" s="51" t="s">
+      <c r="B200" s="71"/>
+      <c r="C200" s="71"/>
+      <c r="D200" s="71"/>
+      <c r="E200" s="71"/>
+      <c r="F200" s="71"/>
+      <c r="G200" s="71"/>
+    </row>
+    <row r="201" spans="1:7" ht="15" thickTop="1">
+      <c r="A201" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B201" s="52"/>
-      <c r="C201" s="53" t="s">
+      <c r="B201" s="58"/>
+      <c r="C201" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="D201" s="54"/>
-      <c r="E201" s="54"/>
-      <c r="F201" s="54"/>
-      <c r="G201" s="55"/>
+      <c r="D201" s="60"/>
+      <c r="E201" s="60"/>
+      <c r="F201" s="60"/>
+      <c r="G201" s="61"/>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="51" t="s">
+      <c r="A202" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B202" s="52"/>
-      <c r="C202" s="56"/>
-      <c r="D202" s="57"/>
-      <c r="E202" s="57"/>
-      <c r="F202" s="57"/>
-      <c r="G202" s="58"/>
+      <c r="B202" s="58"/>
+      <c r="C202" s="62"/>
+      <c r="D202" s="63"/>
+      <c r="E202" s="63"/>
+      <c r="F202" s="63"/>
+      <c r="G202" s="64"/>
     </row>
     <row r="203" spans="1:7">
-      <c r="A203" s="51" t="s">
+      <c r="A203" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B203" s="52"/>
-      <c r="C203" s="59" t="s">
+      <c r="B203" s="58"/>
+      <c r="C203" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="D203" s="60"/>
-      <c r="E203" s="60"/>
-      <c r="F203" s="60"/>
-      <c r="G203" s="61"/>
+      <c r="D203" s="66"/>
+      <c r="E203" s="66"/>
+      <c r="F203" s="66"/>
+      <c r="G203" s="67"/>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="62"/>
-      <c r="B204" s="63"/>
-      <c r="C204" s="63"/>
-      <c r="D204" s="63"/>
-      <c r="E204" s="63"/>
-      <c r="F204" s="63"/>
-      <c r="G204" s="64"/>
+      <c r="A204" s="68"/>
+      <c r="B204" s="69"/>
+      <c r="C204" s="69"/>
+      <c r="D204" s="69"/>
+      <c r="E204" s="69"/>
+      <c r="F204" s="69"/>
+      <c r="G204" s="70"/>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B205" s="48" t="s">
+      <c r="B205" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C205" s="47"/>
-      <c r="D205" s="48" t="s">
+      <c r="C205" s="51"/>
+      <c r="D205" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="E205" s="47"/>
+      <c r="E205" s="51"/>
       <c r="F205" s="21" t="s">
         <v>70</v>
       </c>
@@ -5371,14 +5396,14 @@
       <c r="A206" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="B206" s="45" t="s">
+      <c r="B206" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="C206" s="46"/>
-      <c r="D206" s="45" t="s">
+      <c r="C206" s="56"/>
+      <c r="D206" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="E206" s="46"/>
+      <c r="E206" s="56"/>
       <c r="F206" s="29" t="s">
         <v>145</v>
       </c>
@@ -5390,14 +5415,14 @@
       <c r="A207" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="B207" s="45" t="s">
+      <c r="B207" s="55" t="s">
         <v>359</v>
       </c>
-      <c r="C207" s="46"/>
-      <c r="D207" s="45" t="s">
+      <c r="C207" s="56"/>
+      <c r="D207" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E207" s="46"/>
+      <c r="E207" s="56"/>
       <c r="F207" s="29"/>
       <c r="G207" s="29"/>
     </row>
@@ -5405,14 +5430,14 @@
       <c r="A208" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="B208" s="45" t="s">
+      <c r="B208" s="55" t="s">
         <v>194</v>
       </c>
-      <c r="C208" s="46"/>
-      <c r="D208" s="45" t="s">
+      <c r="C208" s="56"/>
+      <c r="D208" s="55" t="s">
         <v>362</v>
       </c>
-      <c r="E208" s="46"/>
+      <c r="E208" s="56"/>
       <c r="F208" s="29" t="s">
         <v>146</v>
       </c>
@@ -5421,126 +5446,126 @@
       </c>
     </row>
     <row r="209" spans="1:7">
-      <c r="A209" s="40" t="s">
+      <c r="A209" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B209" s="47"/>
-      <c r="C209" s="42" t="s">
+      <c r="B209" s="51"/>
+      <c r="C209" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="D209" s="43"/>
-      <c r="E209" s="43"/>
-      <c r="F209" s="43"/>
-      <c r="G209" s="44"/>
+      <c r="D209" s="48"/>
+      <c r="E209" s="48"/>
+      <c r="F209" s="48"/>
+      <c r="G209" s="49"/>
     </row>
     <row r="210" spans="1:7">
-      <c r="A210" s="48" t="s">
+      <c r="A210" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="B210" s="47"/>
-      <c r="C210" s="49">
+      <c r="B210" s="51"/>
+      <c r="C210" s="52">
         <v>43047</v>
       </c>
-      <c r="D210" s="43"/>
-      <c r="E210" s="43"/>
-      <c r="F210" s="43"/>
-      <c r="G210" s="44"/>
+      <c r="D210" s="48"/>
+      <c r="E210" s="48"/>
+      <c r="F210" s="48"/>
+      <c r="G210" s="49"/>
     </row>
     <row r="211" spans="1:7">
-      <c r="A211" s="40" t="s">
+      <c r="A211" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="B211" s="47"/>
-      <c r="C211" s="42" t="s">
+      <c r="B211" s="51"/>
+      <c r="C211" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="D211" s="43"/>
-      <c r="E211" s="43"/>
-      <c r="F211" s="43"/>
-      <c r="G211" s="44"/>
+      <c r="D211" s="48"/>
+      <c r="E211" s="48"/>
+      <c r="F211" s="48"/>
+      <c r="G211" s="49"/>
     </row>
     <row r="212" spans="1:7">
-      <c r="A212" s="40" t="s">
+      <c r="A212" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B212" s="41"/>
-      <c r="C212" s="42" t="s">
+      <c r="B212" s="54"/>
+      <c r="C212" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="D212" s="43"/>
-      <c r="E212" s="43"/>
-      <c r="F212" s="43"/>
-      <c r="G212" s="44"/>
-    </row>
-    <row r="216" spans="1:7" ht="20.25" thickBot="1">
-      <c r="A216" s="50" t="s">
+      <c r="D212" s="48"/>
+      <c r="E212" s="48"/>
+      <c r="F212" s="48"/>
+      <c r="G212" s="49"/>
+    </row>
+    <row r="216" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A216" s="71" t="s">
         <v>189</v>
       </c>
-      <c r="B216" s="50"/>
-      <c r="C216" s="50"/>
-      <c r="D216" s="50"/>
-      <c r="E216" s="50"/>
-      <c r="F216" s="50"/>
-      <c r="G216" s="50"/>
-    </row>
-    <row r="217" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A217" s="51" t="s">
+      <c r="B216" s="71"/>
+      <c r="C216" s="71"/>
+      <c r="D216" s="71"/>
+      <c r="E216" s="71"/>
+      <c r="F216" s="71"/>
+      <c r="G216" s="71"/>
+    </row>
+    <row r="217" spans="1:7" ht="15" thickTop="1">
+      <c r="A217" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B217" s="52"/>
-      <c r="C217" s="53" t="s">
+      <c r="B217" s="58"/>
+      <c r="C217" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="D217" s="54"/>
-      <c r="E217" s="54"/>
-      <c r="F217" s="54"/>
-      <c r="G217" s="55"/>
+      <c r="D217" s="60"/>
+      <c r="E217" s="60"/>
+      <c r="F217" s="60"/>
+      <c r="G217" s="61"/>
     </row>
     <row r="218" spans="1:7">
-      <c r="A218" s="51" t="s">
+      <c r="A218" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B218" s="52"/>
-      <c r="C218" s="56"/>
-      <c r="D218" s="57"/>
-      <c r="E218" s="57"/>
-      <c r="F218" s="57"/>
-      <c r="G218" s="58"/>
+      <c r="B218" s="58"/>
+      <c r="C218" s="62"/>
+      <c r="D218" s="63"/>
+      <c r="E218" s="63"/>
+      <c r="F218" s="63"/>
+      <c r="G218" s="64"/>
     </row>
     <row r="219" spans="1:7">
-      <c r="A219" s="51" t="s">
+      <c r="A219" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B219" s="52"/>
-      <c r="C219" s="59" t="s">
+      <c r="B219" s="58"/>
+      <c r="C219" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="D219" s="60"/>
-      <c r="E219" s="60"/>
-      <c r="F219" s="60"/>
-      <c r="G219" s="61"/>
+      <c r="D219" s="66"/>
+      <c r="E219" s="66"/>
+      <c r="F219" s="66"/>
+      <c r="G219" s="67"/>
     </row>
     <row r="220" spans="1:7">
-      <c r="A220" s="62"/>
-      <c r="B220" s="63"/>
-      <c r="C220" s="63"/>
-      <c r="D220" s="63"/>
-      <c r="E220" s="63"/>
-      <c r="F220" s="63"/>
-      <c r="G220" s="64"/>
+      <c r="A220" s="68"/>
+      <c r="B220" s="69"/>
+      <c r="C220" s="69"/>
+      <c r="D220" s="69"/>
+      <c r="E220" s="69"/>
+      <c r="F220" s="69"/>
+      <c r="G220" s="70"/>
     </row>
     <row r="221" spans="1:7">
       <c r="A221" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B221" s="48" t="s">
+      <c r="B221" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C221" s="47"/>
-      <c r="D221" s="48" t="s">
+      <c r="C221" s="51"/>
+      <c r="D221" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="E221" s="47"/>
+      <c r="E221" s="51"/>
       <c r="F221" s="21" t="s">
         <v>70</v>
       </c>
@@ -5548,18 +5573,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="70.900000000000006" customHeight="1">
+    <row r="222" spans="1:7" ht="70.95" customHeight="1">
       <c r="A222" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="B222" s="45" t="s">
+      <c r="B222" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="C222" s="46"/>
-      <c r="D222" s="45" t="s">
+      <c r="C222" s="56"/>
+      <c r="D222" s="55" t="s">
         <v>192</v>
       </c>
-      <c r="E222" s="46"/>
+      <c r="E222" s="56"/>
       <c r="F222" s="29" t="s">
         <v>193</v>
       </c>
@@ -5571,14 +5596,14 @@
       <c r="A223" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="B223" s="45" t="s">
+      <c r="B223" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="C223" s="46"/>
-      <c r="D223" s="45" t="s">
+      <c r="C223" s="56"/>
+      <c r="D223" s="55" t="s">
         <v>363</v>
       </c>
-      <c r="E223" s="46"/>
+      <c r="E223" s="56"/>
       <c r="F223" s="29" t="s">
         <v>364</v>
       </c>
@@ -5587,124 +5612,124 @@
       </c>
     </row>
     <row r="224" spans="1:7">
-      <c r="A224" s="40" t="s">
+      <c r="A224" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B224" s="47"/>
-      <c r="C224" s="42" t="s">
+      <c r="B224" s="51"/>
+      <c r="C224" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="D224" s="43"/>
-      <c r="E224" s="43"/>
-      <c r="F224" s="43"/>
-      <c r="G224" s="44"/>
+      <c r="D224" s="48"/>
+      <c r="E224" s="48"/>
+      <c r="F224" s="48"/>
+      <c r="G224" s="49"/>
     </row>
     <row r="225" spans="1:7">
-      <c r="A225" s="48" t="s">
+      <c r="A225" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="B225" s="47"/>
-      <c r="C225" s="49">
+      <c r="B225" s="51"/>
+      <c r="C225" s="52">
         <v>43047</v>
       </c>
-      <c r="D225" s="43"/>
-      <c r="E225" s="43"/>
-      <c r="F225" s="43"/>
-      <c r="G225" s="44"/>
+      <c r="D225" s="48"/>
+      <c r="E225" s="48"/>
+      <c r="F225" s="48"/>
+      <c r="G225" s="49"/>
     </row>
     <row r="226" spans="1:7">
-      <c r="A226" s="40" t="s">
+      <c r="A226" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="B226" s="47"/>
-      <c r="C226" s="42" t="s">
+      <c r="B226" s="51"/>
+      <c r="C226" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="D226" s="43"/>
-      <c r="E226" s="43"/>
-      <c r="F226" s="43"/>
-      <c r="G226" s="44"/>
+      <c r="D226" s="48"/>
+      <c r="E226" s="48"/>
+      <c r="F226" s="48"/>
+      <c r="G226" s="49"/>
     </row>
     <row r="227" spans="1:7">
-      <c r="A227" s="40" t="s">
+      <c r="A227" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B227" s="41"/>
-      <c r="C227" s="42" t="s">
+      <c r="B227" s="54"/>
+      <c r="C227" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="D227" s="43"/>
-      <c r="E227" s="43"/>
-      <c r="F227" s="43"/>
-      <c r="G227" s="44"/>
-    </row>
-    <row r="231" spans="1:7" ht="20.25" thickBot="1">
-      <c r="A231" s="50" t="s">
+      <c r="D227" s="48"/>
+      <c r="E227" s="48"/>
+      <c r="F227" s="48"/>
+      <c r="G227" s="49"/>
+    </row>
+    <row r="231" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A231" s="71" t="s">
         <v>212</v>
       </c>
-      <c r="B231" s="50"/>
-      <c r="C231" s="50"/>
-      <c r="D231" s="50"/>
-      <c r="E231" s="50"/>
-      <c r="F231" s="50"/>
-      <c r="G231" s="50"/>
-    </row>
-    <row r="232" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A232" s="51" t="s">
+      <c r="B231" s="71"/>
+      <c r="C231" s="71"/>
+      <c r="D231" s="71"/>
+      <c r="E231" s="71"/>
+      <c r="F231" s="71"/>
+      <c r="G231" s="71"/>
+    </row>
+    <row r="232" spans="1:7" ht="15" thickTop="1">
+      <c r="A232" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B232" s="52"/>
-      <c r="C232" s="53" t="s">
+      <c r="B232" s="58"/>
+      <c r="C232" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="D232" s="54"/>
-      <c r="E232" s="54"/>
-      <c r="F232" s="54"/>
-      <c r="G232" s="55"/>
+      <c r="D232" s="60"/>
+      <c r="E232" s="60"/>
+      <c r="F232" s="60"/>
+      <c r="G232" s="61"/>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="51" t="s">
+      <c r="A233" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B233" s="52"/>
-      <c r="C233" s="56"/>
-      <c r="D233" s="57"/>
-      <c r="E233" s="57"/>
-      <c r="F233" s="57"/>
-      <c r="G233" s="58"/>
+      <c r="B233" s="58"/>
+      <c r="C233" s="62"/>
+      <c r="D233" s="63"/>
+      <c r="E233" s="63"/>
+      <c r="F233" s="63"/>
+      <c r="G233" s="64"/>
     </row>
     <row r="234" spans="1:7">
-      <c r="A234" s="51" t="s">
+      <c r="A234" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B234" s="52"/>
-      <c r="C234" s="59"/>
-      <c r="D234" s="60"/>
-      <c r="E234" s="60"/>
-      <c r="F234" s="60"/>
-      <c r="G234" s="61"/>
+      <c r="B234" s="58"/>
+      <c r="C234" s="65"/>
+      <c r="D234" s="66"/>
+      <c r="E234" s="66"/>
+      <c r="F234" s="66"/>
+      <c r="G234" s="67"/>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="62"/>
-      <c r="B235" s="63"/>
-      <c r="C235" s="63"/>
-      <c r="D235" s="63"/>
-      <c r="E235" s="63"/>
-      <c r="F235" s="63"/>
-      <c r="G235" s="64"/>
+      <c r="A235" s="68"/>
+      <c r="B235" s="69"/>
+      <c r="C235" s="69"/>
+      <c r="D235" s="69"/>
+      <c r="E235" s="69"/>
+      <c r="F235" s="69"/>
+      <c r="G235" s="70"/>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B236" s="48" t="s">
+      <c r="B236" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C236" s="47"/>
-      <c r="D236" s="48" t="s">
+      <c r="C236" s="51"/>
+      <c r="D236" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="E236" s="47"/>
+      <c r="E236" s="51"/>
       <c r="F236" s="21" t="s">
         <v>70</v>
       </c>
@@ -5716,14 +5741,14 @@
       <c r="A237" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="B237" s="45" t="s">
+      <c r="B237" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="C237" s="46"/>
-      <c r="D237" s="45" t="s">
+      <c r="C237" s="56"/>
+      <c r="D237" s="55" t="s">
         <v>214</v>
       </c>
-      <c r="E237" s="46"/>
+      <c r="E237" s="56"/>
       <c r="F237" s="29" t="s">
         <v>216</v>
       </c>
@@ -5732,126 +5757,126 @@
       </c>
     </row>
     <row r="238" spans="1:7">
-      <c r="A238" s="40" t="s">
+      <c r="A238" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B238" s="47"/>
-      <c r="C238" s="42" t="s">
+      <c r="B238" s="51"/>
+      <c r="C238" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="D238" s="43"/>
-      <c r="E238" s="43"/>
-      <c r="F238" s="43"/>
-      <c r="G238" s="44"/>
+      <c r="D238" s="48"/>
+      <c r="E238" s="48"/>
+      <c r="F238" s="48"/>
+      <c r="G238" s="49"/>
     </row>
     <row r="239" spans="1:7">
-      <c r="A239" s="48" t="s">
+      <c r="A239" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="B239" s="47"/>
-      <c r="C239" s="49">
+      <c r="B239" s="51"/>
+      <c r="C239" s="52">
         <v>43047</v>
       </c>
-      <c r="D239" s="43"/>
-      <c r="E239" s="43"/>
-      <c r="F239" s="43"/>
-      <c r="G239" s="44"/>
+      <c r="D239" s="48"/>
+      <c r="E239" s="48"/>
+      <c r="F239" s="48"/>
+      <c r="G239" s="49"/>
     </row>
     <row r="240" spans="1:7">
-      <c r="A240" s="40" t="s">
+      <c r="A240" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="B240" s="47"/>
-      <c r="C240" s="42" t="s">
+      <c r="B240" s="51"/>
+      <c r="C240" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="D240" s="43"/>
-      <c r="E240" s="43"/>
-      <c r="F240" s="43"/>
-      <c r="G240" s="44"/>
+      <c r="D240" s="48"/>
+      <c r="E240" s="48"/>
+      <c r="F240" s="48"/>
+      <c r="G240" s="49"/>
     </row>
     <row r="241" spans="1:7">
-      <c r="A241" s="40" t="s">
+      <c r="A241" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B241" s="41"/>
-      <c r="C241" s="42" t="s">
+      <c r="B241" s="54"/>
+      <c r="C241" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="D241" s="43"/>
-      <c r="E241" s="43"/>
-      <c r="F241" s="43"/>
-      <c r="G241" s="44"/>
-    </row>
-    <row r="245" spans="1:7" ht="20.25" thickBot="1">
-      <c r="A245" s="50" t="s">
+      <c r="D241" s="48"/>
+      <c r="E241" s="48"/>
+      <c r="F241" s="48"/>
+      <c r="G241" s="49"/>
+    </row>
+    <row r="245" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A245" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="B245" s="50"/>
-      <c r="C245" s="50"/>
-      <c r="D245" s="50"/>
-      <c r="E245" s="50"/>
-      <c r="F245" s="50"/>
-      <c r="G245" s="50"/>
-    </row>
-    <row r="246" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A246" s="51" t="s">
+      <c r="B245" s="71"/>
+      <c r="C245" s="71"/>
+      <c r="D245" s="71"/>
+      <c r="E245" s="71"/>
+      <c r="F245" s="71"/>
+      <c r="G245" s="71"/>
+    </row>
+    <row r="246" spans="1:7" ht="15" thickTop="1">
+      <c r="A246" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B246" s="52"/>
-      <c r="C246" s="53" t="s">
+      <c r="B246" s="58"/>
+      <c r="C246" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="D246" s="54"/>
-      <c r="E246" s="54"/>
-      <c r="F246" s="54"/>
-      <c r="G246" s="55"/>
+      <c r="D246" s="60"/>
+      <c r="E246" s="60"/>
+      <c r="F246" s="60"/>
+      <c r="G246" s="61"/>
     </row>
     <row r="247" spans="1:7">
-      <c r="A247" s="51" t="s">
+      <c r="A247" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B247" s="52"/>
-      <c r="C247" s="56"/>
-      <c r="D247" s="57"/>
-      <c r="E247" s="57"/>
-      <c r="F247" s="57"/>
-      <c r="G247" s="58"/>
+      <c r="B247" s="58"/>
+      <c r="C247" s="62"/>
+      <c r="D247" s="63"/>
+      <c r="E247" s="63"/>
+      <c r="F247" s="63"/>
+      <c r="G247" s="64"/>
     </row>
     <row r="248" spans="1:7">
-      <c r="A248" s="51" t="s">
+      <c r="A248" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B248" s="52"/>
-      <c r="C248" s="59" t="s">
+      <c r="B248" s="58"/>
+      <c r="C248" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="D248" s="60"/>
-      <c r="E248" s="60"/>
-      <c r="F248" s="60"/>
-      <c r="G248" s="61"/>
+      <c r="D248" s="66"/>
+      <c r="E248" s="66"/>
+      <c r="F248" s="66"/>
+      <c r="G248" s="67"/>
     </row>
     <row r="249" spans="1:7">
-      <c r="A249" s="62"/>
-      <c r="B249" s="63"/>
-      <c r="C249" s="63"/>
-      <c r="D249" s="63"/>
-      <c r="E249" s="63"/>
-      <c r="F249" s="63"/>
-      <c r="G249" s="64"/>
+      <c r="A249" s="68"/>
+      <c r="B249" s="69"/>
+      <c r="C249" s="69"/>
+      <c r="D249" s="69"/>
+      <c r="E249" s="69"/>
+      <c r="F249" s="69"/>
+      <c r="G249" s="70"/>
     </row>
     <row r="250" spans="1:7">
       <c r="A250" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B250" s="48" t="s">
+      <c r="B250" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C250" s="47"/>
-      <c r="D250" s="48" t="s">
+      <c r="C250" s="51"/>
+      <c r="D250" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="E250" s="47"/>
+      <c r="E250" s="51"/>
       <c r="F250" s="21" t="s">
         <v>70</v>
       </c>
@@ -5863,14 +5888,14 @@
       <c r="A251" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="B251" s="45" t="s">
+      <c r="B251" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="C251" s="46"/>
-      <c r="D251" s="45" t="s">
+      <c r="C251" s="56"/>
+      <c r="D251" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="E251" s="46"/>
+      <c r="E251" s="56"/>
       <c r="F251" s="29" t="s">
         <v>193</v>
       </c>
@@ -5878,18 +5903,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="43.15" customHeight="1">
+    <row r="252" spans="1:7" ht="43.2" customHeight="1">
       <c r="A252" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="B252" s="45" t="s">
+      <c r="B252" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="C252" s="46"/>
-      <c r="D252" s="45" t="s">
+      <c r="C252" s="56"/>
+      <c r="D252" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="E252" s="46"/>
+      <c r="E252" s="56"/>
       <c r="F252" s="29" t="s">
         <v>204</v>
       </c>
@@ -5898,515 +5923,682 @@
       </c>
     </row>
     <row r="253" spans="1:7">
-      <c r="A253" s="40" t="s">
+      <c r="A253" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B253" s="47"/>
-      <c r="C253" s="42" t="s">
+      <c r="B253" s="51"/>
+      <c r="C253" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="D253" s="43"/>
-      <c r="E253" s="43"/>
-      <c r="F253" s="43"/>
-      <c r="G253" s="44"/>
+      <c r="D253" s="48"/>
+      <c r="E253" s="48"/>
+      <c r="F253" s="48"/>
+      <c r="G253" s="49"/>
     </row>
     <row r="254" spans="1:7">
-      <c r="A254" s="48" t="s">
+      <c r="A254" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="B254" s="47"/>
-      <c r="C254" s="49">
+      <c r="B254" s="51"/>
+      <c r="C254" s="52">
         <v>43047</v>
       </c>
-      <c r="D254" s="43"/>
-      <c r="E254" s="43"/>
-      <c r="F254" s="43"/>
-      <c r="G254" s="44"/>
+      <c r="D254" s="48"/>
+      <c r="E254" s="48"/>
+      <c r="F254" s="48"/>
+      <c r="G254" s="49"/>
     </row>
     <row r="255" spans="1:7">
-      <c r="A255" s="40" t="s">
+      <c r="A255" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="B255" s="47"/>
-      <c r="C255" s="42" t="s">
+      <c r="B255" s="51"/>
+      <c r="C255" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="D255" s="43"/>
-      <c r="E255" s="43"/>
-      <c r="F255" s="43"/>
-      <c r="G255" s="44"/>
+      <c r="D255" s="48"/>
+      <c r="E255" s="48"/>
+      <c r="F255" s="48"/>
+      <c r="G255" s="49"/>
     </row>
     <row r="256" spans="1:7">
-      <c r="A256" s="40" t="s">
+      <c r="A256" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B256" s="41"/>
-      <c r="C256" s="42" t="s">
+      <c r="B256" s="54"/>
+      <c r="C256" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="D256" s="43"/>
-      <c r="E256" s="43"/>
-      <c r="F256" s="43"/>
-      <c r="G256" s="44"/>
-    </row>
-    <row r="260" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A260" s="50" t="s">
+      <c r="D256" s="48"/>
+      <c r="E256" s="48"/>
+      <c r="F256" s="48"/>
+      <c r="G256" s="49"/>
+    </row>
+    <row r="258" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A258" s="71" t="s">
+        <v>365</v>
+      </c>
+      <c r="B258" s="71"/>
+      <c r="C258" s="71"/>
+      <c r="D258" s="71"/>
+      <c r="E258" s="71"/>
+      <c r="F258" s="71"/>
+      <c r="G258" s="71"/>
+    </row>
+    <row r="259" spans="1:7" ht="15" thickTop="1">
+      <c r="A259" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B259" s="58"/>
+      <c r="C259" s="59" t="s">
+        <v>366</v>
+      </c>
+      <c r="D259" s="60"/>
+      <c r="E259" s="60"/>
+      <c r="F259" s="60"/>
+      <c r="G259" s="61"/>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="B260" s="58"/>
+      <c r="C260" s="62"/>
+      <c r="D260" s="63"/>
+      <c r="E260" s="63"/>
+      <c r="F260" s="63"/>
+      <c r="G260" s="64"/>
+    </row>
+    <row r="261" spans="1:7" ht="27" customHeight="1">
+      <c r="A261" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B261" s="58"/>
+      <c r="C261" s="65" t="s">
+        <v>367</v>
+      </c>
+      <c r="D261" s="66"/>
+      <c r="E261" s="66"/>
+      <c r="F261" s="66"/>
+      <c r="G261" s="67"/>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="68"/>
+      <c r="B262" s="69"/>
+      <c r="C262" s="69"/>
+      <c r="D262" s="69"/>
+      <c r="E262" s="69"/>
+      <c r="F262" s="69"/>
+      <c r="G262" s="70"/>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B263" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C263" s="51"/>
+      <c r="D263" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E263" s="51"/>
+      <c r="F263" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G263" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="87" customHeight="1">
+      <c r="A264" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="B264" s="55" t="s">
+        <v>368</v>
+      </c>
+      <c r="C264" s="56"/>
+      <c r="D264" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="E264" s="56"/>
+      <c r="F264" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="G264" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B265" s="51"/>
+      <c r="C265" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="D265" s="48"/>
+      <c r="E265" s="48"/>
+      <c r="F265" s="48"/>
+      <c r="G265" s="49"/>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B266" s="51"/>
+      <c r="C266" s="52">
+        <v>43048</v>
+      </c>
+      <c r="D266" s="48"/>
+      <c r="E266" s="48"/>
+      <c r="F266" s="48"/>
+      <c r="G266" s="49"/>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B267" s="51"/>
+      <c r="C267" s="47" t="s">
+        <v>371</v>
+      </c>
+      <c r="D267" s="48"/>
+      <c r="E267" s="48"/>
+      <c r="F267" s="48"/>
+      <c r="G267" s="49"/>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B268" s="54"/>
+      <c r="C268" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D268" s="48"/>
+      <c r="E268" s="48"/>
+      <c r="F268" s="48"/>
+      <c r="G268" s="49"/>
+    </row>
+    <row r="271" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A271" s="71" t="s">
         <v>297</v>
       </c>
-      <c r="B260" s="50"/>
-      <c r="C260" s="50"/>
-      <c r="D260" s="50"/>
-      <c r="E260" s="50"/>
-      <c r="F260" s="50"/>
-      <c r="G260" s="50"/>
-    </row>
-    <row r="261" spans="1:7" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A261" s="51" t="s">
+      <c r="B271" s="71"/>
+      <c r="C271" s="71"/>
+      <c r="D271" s="71"/>
+      <c r="E271" s="71"/>
+      <c r="F271" s="71"/>
+      <c r="G271" s="71"/>
+    </row>
+    <row r="272" spans="1:7" ht="17.25" customHeight="1" thickTop="1">
+      <c r="A272" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B261" s="52"/>
-      <c r="C261" s="71" t="s">
+      <c r="B272" s="58"/>
+      <c r="C272" s="78" t="s">
         <v>298</v>
       </c>
-      <c r="D261" s="72"/>
-      <c r="E261" s="72"/>
-      <c r="F261" s="72"/>
-      <c r="G261" s="73"/>
-    </row>
-    <row r="262" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A262" s="51" t="s">
+      <c r="D272" s="79"/>
+      <c r="E272" s="79"/>
+      <c r="F272" s="79"/>
+      <c r="G272" s="80"/>
+    </row>
+    <row r="273" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A273" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B262" s="52"/>
-      <c r="C262" s="93"/>
-      <c r="D262" s="60"/>
-      <c r="E262" s="60"/>
-      <c r="F262" s="60"/>
-      <c r="G262" s="61"/>
-    </row>
-    <row r="263" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A263" s="51" t="s">
+      <c r="B273" s="58"/>
+      <c r="C273" s="90"/>
+      <c r="D273" s="66"/>
+      <c r="E273" s="66"/>
+      <c r="F273" s="66"/>
+      <c r="G273" s="67"/>
+    </row>
+    <row r="274" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A274" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B263" s="52"/>
-      <c r="C263" s="59" t="s">
+      <c r="B274" s="58"/>
+      <c r="C274" s="65" t="s">
         <v>299</v>
       </c>
-      <c r="D263" s="74"/>
-      <c r="E263" s="74"/>
-      <c r="F263" s="74"/>
-      <c r="G263" s="75"/>
-    </row>
-    <row r="264" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A264" s="34"/>
-      <c r="B264" s="35"/>
-      <c r="C264" s="35"/>
-      <c r="D264" s="35"/>
-      <c r="E264" s="35"/>
-      <c r="F264" s="35"/>
-      <c r="G264" s="36"/>
-    </row>
-    <row r="265" spans="1:7" ht="56.25" customHeight="1">
-      <c r="A265" s="22" t="s">
+      <c r="D274" s="81"/>
+      <c r="E274" s="81"/>
+      <c r="F274" s="81"/>
+      <c r="G274" s="82"/>
+    </row>
+    <row r="275" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A275" s="34"/>
+      <c r="B275" s="35"/>
+      <c r="C275" s="35"/>
+      <c r="D275" s="35"/>
+      <c r="E275" s="35"/>
+      <c r="F275" s="35"/>
+      <c r="G275" s="36"/>
+    </row>
+    <row r="276" spans="1:7" ht="56.25" customHeight="1">
+      <c r="A276" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B265" s="48" t="s">
+      <c r="B276" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C265" s="47"/>
-      <c r="D265" s="48" t="s">
+      <c r="C276" s="51"/>
+      <c r="D276" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="E265" s="47"/>
-      <c r="F265" s="21" t="s">
+      <c r="E276" s="51"/>
+      <c r="F276" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G265" s="22" t="s">
+      <c r="G276" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="56.25" customHeight="1">
-      <c r="A266" s="26" t="s">
+    <row r="277" spans="1:7" ht="56.25" customHeight="1">
+      <c r="A277" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="B266" s="45" t="s">
+      <c r="B277" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="C266" s="65"/>
-      <c r="D266" s="45" t="s">
+      <c r="C277" s="72"/>
+      <c r="D277" s="55" t="s">
         <v>302</v>
       </c>
-      <c r="E266" s="46"/>
-      <c r="F266" s="29"/>
-      <c r="G266" s="29"/>
-    </row>
-    <row r="267" spans="1:7" ht="56.25" customHeight="1">
-      <c r="A267" s="26" t="s">
+      <c r="E277" s="56"/>
+      <c r="F277" s="29"/>
+      <c r="G277" s="29"/>
+    </row>
+    <row r="278" spans="1:7" ht="56.25" customHeight="1">
+      <c r="A278" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="B267" s="45" t="s">
+      <c r="B278" s="55" t="s">
         <v>304</v>
       </c>
-      <c r="C267" s="65"/>
-      <c r="D267" s="45" t="s">
+      <c r="C278" s="72"/>
+      <c r="D278" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E267" s="65"/>
-      <c r="F267" s="29"/>
-      <c r="G267" s="29"/>
-    </row>
-    <row r="268" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A268" s="26" t="s">
+      <c r="E278" s="72"/>
+      <c r="F278" s="29"/>
+      <c r="G278" s="29"/>
+    </row>
+    <row r="279" spans="1:7" ht="47.25" customHeight="1">
+      <c r="A279" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="B268" s="45" t="s">
+      <c r="B279" s="55" t="s">
         <v>306</v>
       </c>
-      <c r="C268" s="65"/>
-      <c r="D268" s="45" t="s">
+      <c r="C279" s="72"/>
+      <c r="D279" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E268" s="65"/>
-      <c r="F268" s="29"/>
-      <c r="G268" s="29"/>
-    </row>
-    <row r="269" spans="1:7" ht="36" customHeight="1">
-      <c r="A269" s="26" t="s">
+      <c r="E279" s="72"/>
+      <c r="F279" s="29"/>
+      <c r="G279" s="29"/>
+    </row>
+    <row r="280" spans="1:7" ht="36" customHeight="1">
+      <c r="A280" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="B269" s="45" t="s">
+      <c r="B280" s="55" t="s">
         <v>308</v>
       </c>
-      <c r="C269" s="65"/>
-      <c r="D269" s="45" t="s">
+      <c r="C280" s="72"/>
+      <c r="D280" s="55" t="s">
         <v>309</v>
       </c>
-      <c r="E269" s="46"/>
-      <c r="F269" s="29"/>
-      <c r="G269" s="29"/>
-    </row>
-    <row r="270" spans="1:7" ht="36" customHeight="1">
-      <c r="A270" s="26" t="s">
+      <c r="E280" s="56"/>
+      <c r="F280" s="29"/>
+      <c r="G280" s="29"/>
+    </row>
+    <row r="281" spans="1:7" ht="36" customHeight="1">
+      <c r="A281" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="B270" s="45" t="s">
+      <c r="B281" s="55" t="s">
         <v>311</v>
       </c>
-      <c r="C270" s="65"/>
-      <c r="D270" s="45" t="s">
+      <c r="C281" s="72"/>
+      <c r="D281" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E270" s="65"/>
-      <c r="F270" s="29"/>
-      <c r="G270" s="29"/>
-    </row>
-    <row r="271" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A271" s="26" t="s">
+      <c r="E281" s="72"/>
+      <c r="F281" s="29"/>
+      <c r="G281" s="29"/>
+    </row>
+    <row r="282" spans="1:7" ht="47.25" customHeight="1">
+      <c r="A282" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="B271" s="45" t="s">
+      <c r="B282" s="55" t="s">
         <v>313</v>
       </c>
-      <c r="C271" s="65"/>
-      <c r="D271" s="45" t="s">
+      <c r="C282" s="72"/>
+      <c r="D282" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E271" s="65"/>
-      <c r="F271" s="29"/>
-      <c r="G271" s="29"/>
-    </row>
-    <row r="272" spans="1:7" ht="15" customHeight="1">
-      <c r="A272" s="40" t="s">
+      <c r="E282" s="72"/>
+      <c r="F282" s="29"/>
+      <c r="G282" s="29"/>
+    </row>
+    <row r="283" spans="1:7" ht="15" customHeight="1">
+      <c r="A283" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B272" s="47"/>
-      <c r="C272" s="30" t="s">
+      <c r="B283" s="51"/>
+      <c r="C283" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="D272" s="31"/>
-      <c r="E272" s="31"/>
-      <c r="F272" s="31"/>
-      <c r="G272" s="32"/>
-    </row>
-    <row r="273" spans="1:7">
-      <c r="A273" s="48" t="s">
+      <c r="D283" s="31"/>
+      <c r="E283" s="31"/>
+      <c r="F283" s="31"/>
+      <c r="G283" s="32"/>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="B273" s="47"/>
-      <c r="C273" s="33">
+      <c r="B284" s="51"/>
+      <c r="C284" s="33">
         <v>43014</v>
       </c>
-      <c r="D273" s="31"/>
-      <c r="E273" s="31"/>
-      <c r="F273" s="31"/>
-      <c r="G273" s="32"/>
-    </row>
-    <row r="274" spans="1:7">
-      <c r="A274" s="40" t="s">
+      <c r="D284" s="31"/>
+      <c r="E284" s="31"/>
+      <c r="F284" s="31"/>
+      <c r="G284" s="32"/>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="B274" s="47"/>
-      <c r="C274" s="30" t="s">
+      <c r="B285" s="51"/>
+      <c r="C285" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="D274" s="31"/>
-      <c r="E274" s="31"/>
-      <c r="F274" s="31"/>
-      <c r="G274" s="32"/>
-    </row>
-    <row r="275" spans="1:7">
-      <c r="A275" s="40" t="s">
+      <c r="D285" s="31"/>
+      <c r="E285" s="31"/>
+      <c r="F285" s="31"/>
+      <c r="G285" s="32"/>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B275" s="41"/>
-      <c r="C275" s="30" t="s">
+      <c r="B286" s="54"/>
+      <c r="C286" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="D275" s="31"/>
-      <c r="E275" s="31"/>
-      <c r="F275" s="31"/>
-      <c r="G275" s="32"/>
-    </row>
-    <row r="277" spans="1:7" ht="20.25" customHeight="1"/>
-    <row r="279" spans="1:7" ht="20.25" thickBot="1">
-      <c r="A279" s="50" t="s">
+      <c r="D286" s="31"/>
+      <c r="E286" s="31"/>
+      <c r="F286" s="31"/>
+      <c r="G286" s="32"/>
+    </row>
+    <row r="288" spans="1:7" ht="20.25" customHeight="1"/>
+    <row r="290" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A290" s="71" t="s">
         <v>314</v>
       </c>
-      <c r="B279" s="50"/>
-      <c r="C279" s="50"/>
-      <c r="D279" s="50"/>
-      <c r="E279" s="50"/>
-      <c r="F279" s="50"/>
-      <c r="G279" s="50"/>
-    </row>
-    <row r="280" spans="1:7" ht="15.75" thickTop="1">
-      <c r="A280" s="51" t="s">
+      <c r="B290" s="71"/>
+      <c r="C290" s="71"/>
+      <c r="D290" s="71"/>
+      <c r="E290" s="71"/>
+      <c r="F290" s="71"/>
+      <c r="G290" s="71"/>
+    </row>
+    <row r="291" spans="1:7" ht="15" thickTop="1">
+      <c r="A291" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B280" s="52"/>
-      <c r="C280" s="71" t="s">
+      <c r="B291" s="58"/>
+      <c r="C291" s="78" t="s">
         <v>315</v>
       </c>
-      <c r="D280" s="72"/>
-      <c r="E280" s="72"/>
-      <c r="F280" s="72"/>
-      <c r="G280" s="73"/>
-    </row>
-    <row r="281" spans="1:7">
-      <c r="A281" s="51" t="s">
+      <c r="D291" s="79"/>
+      <c r="E291" s="79"/>
+      <c r="F291" s="79"/>
+      <c r="G291" s="80"/>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B281" s="52"/>
-      <c r="C281" s="93"/>
-      <c r="D281" s="60"/>
-      <c r="E281" s="60"/>
-      <c r="F281" s="60"/>
-      <c r="G281" s="61"/>
-    </row>
-    <row r="282" spans="1:7">
-      <c r="A282" s="51" t="s">
+      <c r="B292" s="58"/>
+      <c r="C292" s="90"/>
+      <c r="D292" s="66"/>
+      <c r="E292" s="66"/>
+      <c r="F292" s="66"/>
+      <c r="G292" s="67"/>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="B282" s="52"/>
-      <c r="C282" s="59" t="s">
+      <c r="B293" s="58"/>
+      <c r="C293" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="D282" s="74"/>
-      <c r="E282" s="74"/>
-      <c r="F282" s="74"/>
-      <c r="G282" s="75"/>
-    </row>
-    <row r="283" spans="1:7" ht="15" customHeight="1">
-      <c r="A283" s="34"/>
-      <c r="B283" s="35"/>
-      <c r="C283" s="35"/>
-      <c r="D283" s="35"/>
-      <c r="E283" s="35"/>
-      <c r="F283" s="35"/>
-      <c r="G283" s="36"/>
-    </row>
-    <row r="284" spans="1:7" ht="15" customHeight="1">
-      <c r="A284" s="22" t="s">
+      <c r="D293" s="81"/>
+      <c r="E293" s="81"/>
+      <c r="F293" s="81"/>
+      <c r="G293" s="82"/>
+    </row>
+    <row r="294" spans="1:7" ht="15" customHeight="1">
+      <c r="A294" s="34"/>
+      <c r="B294" s="35"/>
+      <c r="C294" s="35"/>
+      <c r="D294" s="35"/>
+      <c r="E294" s="35"/>
+      <c r="F294" s="35"/>
+      <c r="G294" s="36"/>
+    </row>
+    <row r="295" spans="1:7" ht="15" customHeight="1">
+      <c r="A295" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B284" s="48" t="s">
+      <c r="B295" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C284" s="47"/>
-      <c r="D284" s="48" t="s">
+      <c r="C295" s="51"/>
+      <c r="D295" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="E284" s="47"/>
-      <c r="F284" s="21" t="s">
+      <c r="E295" s="51"/>
+      <c r="F295" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G284" s="22" t="s">
+      <c r="G295" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="37.5" customHeight="1">
-      <c r="A285" s="26" t="s">
+    <row r="296" spans="1:7" ht="37.5" customHeight="1">
+      <c r="A296" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="B285" s="45" t="s">
+      <c r="B296" s="55" t="s">
         <v>318</v>
       </c>
-      <c r="C285" s="65"/>
-      <c r="D285" s="45" t="s">
+      <c r="C296" s="72"/>
+      <c r="D296" s="55" t="s">
         <v>319</v>
       </c>
-      <c r="E285" s="65"/>
-      <c r="F285" s="29"/>
-      <c r="G285" s="29"/>
-    </row>
-    <row r="286" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A286" s="26" t="s">
+      <c r="E296" s="72"/>
+      <c r="F296" s="29"/>
+      <c r="G296" s="29"/>
+    </row>
+    <row r="297" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A297" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="B286" s="45" t="s">
+      <c r="B297" s="55" t="s">
         <v>321</v>
       </c>
-      <c r="C286" s="65"/>
-      <c r="D286" s="45" t="s">
+      <c r="C297" s="72"/>
+      <c r="D297" s="55" t="s">
         <v>322</v>
       </c>
-      <c r="E286" s="65"/>
-      <c r="F286" s="29"/>
-      <c r="G286" s="29"/>
-    </row>
-    <row r="287" spans="1:7" ht="61.5" customHeight="1">
-      <c r="A287" s="26" t="s">
+      <c r="E297" s="72"/>
+      <c r="F297" s="29"/>
+      <c r="G297" s="29"/>
+    </row>
+    <row r="298" spans="1:7" ht="61.5" customHeight="1">
+      <c r="A298" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="B287" s="45" t="s">
+      <c r="B298" s="55" t="s">
         <v>324</v>
       </c>
-      <c r="C287" s="65"/>
-      <c r="D287" s="45" t="s">
+      <c r="C298" s="72"/>
+      <c r="D298" s="55" t="s">
         <v>325</v>
       </c>
-      <c r="E287" s="65"/>
-      <c r="F287" s="29"/>
-      <c r="G287" s="29"/>
-    </row>
-    <row r="288" spans="1:7" ht="54.75" customHeight="1">
-      <c r="A288" s="26" t="s">
+      <c r="E298" s="72"/>
+      <c r="F298" s="29"/>
+      <c r="G298" s="29"/>
+    </row>
+    <row r="299" spans="1:7" ht="54.75" customHeight="1">
+      <c r="A299" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="B288" s="45" t="s">
+      <c r="B299" s="55" t="s">
         <v>327</v>
       </c>
-      <c r="C288" s="65"/>
-      <c r="D288" s="45" t="s">
+      <c r="C299" s="72"/>
+      <c r="D299" s="55" t="s">
         <v>328</v>
       </c>
-      <c r="E288" s="65"/>
-      <c r="F288" s="29"/>
-      <c r="G288" s="29"/>
-    </row>
-    <row r="289" spans="1:7" ht="88.5" customHeight="1">
-      <c r="A289" s="26" t="s">
+      <c r="E299" s="72"/>
+      <c r="F299" s="29"/>
+      <c r="G299" s="29"/>
+    </row>
+    <row r="300" spans="1:7" ht="88.5" customHeight="1">
+      <c r="A300" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="B289" s="45" t="s">
+      <c r="B300" s="55" t="s">
         <v>330</v>
       </c>
-      <c r="C289" s="65"/>
-      <c r="D289" s="45" t="s">
+      <c r="C300" s="72"/>
+      <c r="D300" s="55" t="s">
         <v>331</v>
       </c>
-      <c r="E289" s="65"/>
-      <c r="F289" s="29"/>
-      <c r="G289" s="29"/>
-    </row>
-    <row r="290" spans="1:7" ht="48.75" customHeight="1">
-      <c r="A290" s="26" t="s">
+      <c r="E300" s="72"/>
+      <c r="F300" s="29"/>
+      <c r="G300" s="29"/>
+    </row>
+    <row r="301" spans="1:7" ht="48.75" customHeight="1">
+      <c r="A301" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="B290" s="45" t="s">
+      <c r="B301" s="55" t="s">
         <v>333</v>
       </c>
-      <c r="C290" s="65"/>
-      <c r="D290" s="45" t="s">
+      <c r="C301" s="72"/>
+      <c r="D301" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E290" s="65"/>
-      <c r="F290" s="29"/>
-      <c r="G290" s="29"/>
-    </row>
-    <row r="291" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A291" s="26" t="s">
+      <c r="E301" s="72"/>
+      <c r="F301" s="29"/>
+      <c r="G301" s="29"/>
+    </row>
+    <row r="302" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A302" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="B291" s="45" t="s">
+      <c r="B302" s="55" t="s">
         <v>335</v>
       </c>
-      <c r="C291" s="65"/>
-      <c r="D291" s="45" t="s">
+      <c r="C302" s="72"/>
+      <c r="D302" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="E291" s="65"/>
-      <c r="F291" s="29"/>
-      <c r="G291" s="29"/>
-    </row>
-    <row r="292" spans="1:7">
-      <c r="A292" s="40" t="s">
+      <c r="E302" s="72"/>
+      <c r="F302" s="29"/>
+      <c r="G302" s="29"/>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B292" s="47"/>
-      <c r="C292" s="30" t="s">
+      <c r="B303" s="51"/>
+      <c r="C303" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="D292" s="31"/>
-      <c r="E292" s="31"/>
-      <c r="F292" s="31"/>
-      <c r="G292" s="32"/>
-    </row>
-    <row r="293" spans="1:7">
-      <c r="A293" s="48" t="s">
+      <c r="D303" s="31"/>
+      <c r="E303" s="31"/>
+      <c r="F303" s="31"/>
+      <c r="G303" s="32"/>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="B293" s="47"/>
-      <c r="C293" s="33">
+      <c r="B304" s="51"/>
+      <c r="C304" s="33">
         <v>43014</v>
       </c>
-      <c r="D293" s="31"/>
-      <c r="E293" s="31"/>
-      <c r="F293" s="31"/>
-      <c r="G293" s="32"/>
-    </row>
-    <row r="294" spans="1:7">
-      <c r="A294" s="40" t="s">
+      <c r="D304" s="31"/>
+      <c r="E304" s="31"/>
+      <c r="F304" s="31"/>
+      <c r="G304" s="32"/>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="B294" s="47"/>
-      <c r="C294" s="30" t="s">
+      <c r="B305" s="51"/>
+      <c r="C305" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="D294" s="31"/>
-      <c r="E294" s="31"/>
-      <c r="F294" s="31"/>
-      <c r="G294" s="32"/>
-    </row>
-    <row r="295" spans="1:7">
-      <c r="A295" s="40" t="s">
+      <c r="D305" s="31"/>
+      <c r="E305" s="31"/>
+      <c r="F305" s="31"/>
+      <c r="G305" s="32"/>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B295" s="41"/>
-      <c r="C295" s="30" t="s">
+      <c r="B306" s="54"/>
+      <c r="C306" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="D295" s="31"/>
-      <c r="E295" s="31"/>
-      <c r="F295" s="31"/>
-      <c r="G295" s="32"/>
+      <c r="D306" s="31"/>
+      <c r="E306" s="31"/>
+      <c r="F306" s="31"/>
+      <c r="G306" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="423">
-    <mergeCell ref="A292:B292"/>
-    <mergeCell ref="A293:B293"/>
-    <mergeCell ref="A294:B294"/>
-    <mergeCell ref="A295:B295"/>
+  <mergeCells count="443">
+    <mergeCell ref="A268:B268"/>
+    <mergeCell ref="C268:G268"/>
+    <mergeCell ref="B264:C264"/>
+    <mergeCell ref="D264:E264"/>
+    <mergeCell ref="A265:B265"/>
+    <mergeCell ref="C265:G265"/>
+    <mergeCell ref="A266:B266"/>
+    <mergeCell ref="C266:G266"/>
+    <mergeCell ref="A267:B267"/>
+    <mergeCell ref="C267:G267"/>
+    <mergeCell ref="A258:G258"/>
+    <mergeCell ref="A259:B259"/>
+    <mergeCell ref="C259:G259"/>
+    <mergeCell ref="A260:B260"/>
+    <mergeCell ref="C260:G260"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="C261:G261"/>
+    <mergeCell ref="A262:G262"/>
+    <mergeCell ref="B263:C263"/>
+    <mergeCell ref="D263:E263"/>
+    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="A304:B304"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="A306:B306"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B41:C41"/>
@@ -6423,55 +6615,69 @@
     <mergeCell ref="D206:E206"/>
     <mergeCell ref="B191:C191"/>
     <mergeCell ref="D191:E191"/>
-    <mergeCell ref="B287:C287"/>
-    <mergeCell ref="D287:E287"/>
-    <mergeCell ref="B288:C288"/>
-    <mergeCell ref="D288:E288"/>
-    <mergeCell ref="B289:C289"/>
-    <mergeCell ref="D289:E289"/>
-    <mergeCell ref="B290:C290"/>
-    <mergeCell ref="D290:E290"/>
-    <mergeCell ref="B291:C291"/>
-    <mergeCell ref="D291:E291"/>
-    <mergeCell ref="A281:B281"/>
-    <mergeCell ref="C281:G281"/>
-    <mergeCell ref="A282:B282"/>
-    <mergeCell ref="C282:G282"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="D284:E284"/>
-    <mergeCell ref="B285:C285"/>
-    <mergeCell ref="D285:E285"/>
-    <mergeCell ref="B286:C286"/>
-    <mergeCell ref="D286:E286"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="D271:E271"/>
+    <mergeCell ref="B298:C298"/>
+    <mergeCell ref="D298:E298"/>
+    <mergeCell ref="B299:C299"/>
+    <mergeCell ref="D299:E299"/>
+    <mergeCell ref="B300:C300"/>
+    <mergeCell ref="D300:E300"/>
+    <mergeCell ref="B301:C301"/>
+    <mergeCell ref="D301:E301"/>
+    <mergeCell ref="B302:C302"/>
+    <mergeCell ref="D302:E302"/>
+    <mergeCell ref="A292:B292"/>
+    <mergeCell ref="C292:G292"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="C293:G293"/>
+    <mergeCell ref="B295:C295"/>
+    <mergeCell ref="D295:E295"/>
+    <mergeCell ref="B296:C296"/>
+    <mergeCell ref="D296:E296"/>
+    <mergeCell ref="B297:C297"/>
+    <mergeCell ref="D297:E297"/>
+    <mergeCell ref="B282:C282"/>
+    <mergeCell ref="D282:E282"/>
+    <mergeCell ref="A283:B283"/>
+    <mergeCell ref="A284:B284"/>
+    <mergeCell ref="A285:B285"/>
+    <mergeCell ref="A286:B286"/>
+    <mergeCell ref="A290:G290"/>
+    <mergeCell ref="A291:B291"/>
+    <mergeCell ref="C291:G291"/>
+    <mergeCell ref="B277:C277"/>
+    <mergeCell ref="D277:E277"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="B280:C280"/>
+    <mergeCell ref="D280:E280"/>
+    <mergeCell ref="B281:C281"/>
+    <mergeCell ref="D281:E281"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A271:G271"/>
     <mergeCell ref="A272:B272"/>
+    <mergeCell ref="C272:G272"/>
     <mergeCell ref="A273:B273"/>
+    <mergeCell ref="C273:G273"/>
     <mergeCell ref="A274:B274"/>
-    <mergeCell ref="A275:B275"/>
-    <mergeCell ref="A279:G279"/>
-    <mergeCell ref="A280:B280"/>
-    <mergeCell ref="C280:G280"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="B267:C267"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="D268:E268"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="D269:E269"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="D270:E270"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="A260:G260"/>
-    <mergeCell ref="A261:B261"/>
-    <mergeCell ref="C261:G261"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="C262:G262"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="C263:G263"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="C274:G274"/>
+    <mergeCell ref="B276:C276"/>
+    <mergeCell ref="D276:E276"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="C211:G211"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="C212:G212"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="C209:G209"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="C210:G210"/>
+    <mergeCell ref="A200:G200"/>
+    <mergeCell ref="A201:B201"/>
     <mergeCell ref="B166:C166"/>
     <mergeCell ref="D166:E166"/>
     <mergeCell ref="B167:C167"/>
@@ -6577,20 +6783,6 @@
     <mergeCell ref="A105:G105"/>
     <mergeCell ref="B106:C106"/>
     <mergeCell ref="D106:E106"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="C211:G211"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="C212:G212"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D207:E207"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="D208:E208"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="C209:G209"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="C210:G210"/>
-    <mergeCell ref="A200:G200"/>
-    <mergeCell ref="A201:B201"/>
     <mergeCell ref="C201:G201"/>
     <mergeCell ref="A202:B202"/>
     <mergeCell ref="C202:G202"/>
@@ -6767,6 +6959,8 @@
     <mergeCell ref="A94:B94"/>
     <mergeCell ref="C94:G94"/>
     <mergeCell ref="A84:G84"/>
+    <mergeCell ref="D237:E237"/>
+    <mergeCell ref="A238:B238"/>
     <mergeCell ref="A219:B219"/>
     <mergeCell ref="C219:G219"/>
     <mergeCell ref="A220:G220"/>
@@ -6776,6 +6970,8 @@
     <mergeCell ref="D222:E222"/>
     <mergeCell ref="B223:C223"/>
     <mergeCell ref="D223:E223"/>
+    <mergeCell ref="B250:C250"/>
+    <mergeCell ref="D250:E250"/>
     <mergeCell ref="A224:B224"/>
     <mergeCell ref="C224:G224"/>
     <mergeCell ref="A225:B225"/>
@@ -6785,27 +6981,6 @@
     <mergeCell ref="A227:B227"/>
     <mergeCell ref="C227:G227"/>
     <mergeCell ref="A245:G245"/>
-    <mergeCell ref="A246:B246"/>
-    <mergeCell ref="C246:G246"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="C247:G247"/>
-    <mergeCell ref="A248:B248"/>
-    <mergeCell ref="C248:G248"/>
-    <mergeCell ref="A249:G249"/>
-    <mergeCell ref="B250:C250"/>
-    <mergeCell ref="D250:E250"/>
-    <mergeCell ref="A256:B256"/>
-    <mergeCell ref="C256:G256"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="C253:G253"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="C254:G254"/>
-    <mergeCell ref="A255:B255"/>
-    <mergeCell ref="C255:G255"/>
     <mergeCell ref="A231:G231"/>
     <mergeCell ref="A232:B232"/>
     <mergeCell ref="C232:G232"/>
@@ -6819,13 +6994,30 @@
     <mergeCell ref="A241:B241"/>
     <mergeCell ref="C241:G241"/>
     <mergeCell ref="B237:C237"/>
-    <mergeCell ref="D237:E237"/>
-    <mergeCell ref="A238:B238"/>
     <mergeCell ref="C238:G238"/>
     <mergeCell ref="A239:B239"/>
     <mergeCell ref="C239:G239"/>
     <mergeCell ref="A240:B240"/>
     <mergeCell ref="C240:G240"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="C256:G256"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="C253:G253"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="C254:G254"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="C255:G255"/>
+    <mergeCell ref="A246:B246"/>
+    <mergeCell ref="C246:G246"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="C247:G247"/>
+    <mergeCell ref="A248:B248"/>
+    <mergeCell ref="C248:G248"/>
+    <mergeCell ref="A249:G249"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -6833,39 +7025,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:I24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" style="10" customWidth="1"/>
     <col min="2" max="2" width="10" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7109375" style="1"/>
+    <col min="3" max="3" width="15.88671875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" ht="18.75">
-      <c r="A4" s="82" t="s">
+    <row r="4" spans="1:9" ht="18">
+      <c r="A4" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="84"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="93"/>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1">
       <c r="A5" s="2" t="s">
@@ -6896,7 +7088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="10" customFormat="1" ht="29.65" customHeight="1">
+    <row r="6" spans="1:9" s="10" customFormat="1" ht="29.7" customHeight="1">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -6917,7 +7109,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:9" s="10" customFormat="1" ht="43.15" customHeight="1">
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="43.2" customHeight="1">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -6940,7 +7132,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" s="10" customFormat="1" ht="45">
+    <row r="8" spans="1:9" s="10" customFormat="1" ht="43.2">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -6963,7 +7155,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" s="10" customFormat="1" ht="45">
+    <row r="9" spans="1:9" s="10" customFormat="1" ht="43.2">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -6984,18 +7176,18 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="13" spans="1:9" ht="18.75">
-      <c r="A13" s="82" t="s">
+    <row r="13" spans="1:9" ht="18">
+      <c r="A13" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="84"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="93"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
@@ -7026,7 +7218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="61.9" customHeight="1">
+    <row r="15" spans="1:9" ht="61.95" customHeight="1">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -7049,7 +7241,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:9" ht="45">
+    <row r="16" spans="1:9" ht="28.8">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -7072,7 +7264,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="1:9" ht="60">
+    <row r="17" spans="1:9" ht="57.6">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -7093,7 +7285,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:9" ht="75">
+    <row r="18" spans="1:9" ht="57.6">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -7116,7 +7308,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:9" ht="75">
+    <row r="19" spans="1:9" ht="57.6">
       <c r="A19" s="5">
         <v>5</v>
       </c>
@@ -7139,7 +7331,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="1:9" ht="75">
+    <row r="20" spans="1:9" ht="57.6">
       <c r="A20" s="5">
         <v>6</v>
       </c>
@@ -7162,7 +7354,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="1:9" ht="75">
+    <row r="21" spans="1:9" ht="57.6">
       <c r="A21" s="5">
         <v>7</v>
       </c>
@@ -7185,7 +7377,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" ht="75">
+    <row r="22" spans="1:9" ht="57.6">
       <c r="A22" s="6">
         <v>8</v>
       </c>
@@ -7208,7 +7400,7 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" ht="75">
+    <row r="23" spans="1:9" ht="57.6">
       <c r="A23" s="6">
         <v>9</v>
       </c>
@@ -7231,7 +7423,7 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9" ht="75">
+    <row r="24" spans="1:9" ht="43.2">
       <c r="A24" s="6">
         <v>10</v>
       </c>
@@ -7260,8 +7452,8 @@
     <mergeCell ref="A13:I13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" display="testingfyp2017@gmail.com_x000a_testingfyp"/>
-    <hyperlink ref="F16" r:id="rId2"/>
+    <hyperlink ref="F8" r:id="rId1" display="testingfyp2017@gmail.com_x000a_testingfyp" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F16" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId3"/>

--- a/FYP documentation/FYP_Test_Plan.xlsx
+++ b/FYP documentation/FYP_Test_Plan.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Class_notes\BSS_FYP_TEAM173D\FYP documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan Final" sheetId="4" r:id="rId1"/>
     <sheet name="Test Plan" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="469">
   <si>
     <t>Expected Result</t>
   </si>
@@ -1228,12 +1223,1328 @@
   <si>
     <t>TC17-001</t>
   </si>
+  <si>
+    <t>10. Password Recovery</t>
+  </si>
+  <si>
+    <t>Test if the user can recover password and the app work perfectly.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t>TC-001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t xml:space="preserve">: The user should execute the LocAdoc App First
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t>TC-002 ~ TC-004, TC-006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t xml:space="preserve">: User should input and enter the email address in login activty and click "forgotpassword"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t>TC-005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t xml:space="preserve">: The user should disable Internet Environment in device, including mobile data and WIF, and execute LocADoc App
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t>TC-007 ~ TC-009:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t xml:space="preserve"> User finish to sign up and have account in LocADoc. GPS should be enabled and Input Email address in login Activity and click "forgotpassword"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t>TC-010 ~ TC-013</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t xml:space="preserve">: Need to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t>use different Device</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t xml:space="preserve"> and same Pre-requisite as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t>TC-007 ~ TC-009
+TC-014 ~ TC-017</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t>: User already finish to sign up and the account should contains some of the files and area information</t>
+    </r>
+  </si>
+  <si>
+    <t>TC10-001</t>
+  </si>
+  <si>
+    <t>1. Input an Invalid Email Address
+2. Click "forgotPassword"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show Error Message: Invalid or Non-existed Email Address </t>
+  </si>
+  <si>
+    <t>TC10-002</t>
+  </si>
+  <si>
+    <t>1. Input New Password
+2. input Confrim New Password, which should be different value from New Password
+3. input verification code</t>
+  </si>
+  <si>
+    <t>Show Error Message: Unmatch New Password</t>
+  </si>
+  <si>
+    <t>TC10-003</t>
+  </si>
+  <si>
+    <t>1. Input New Password
+2. input Confrim New Password, which should be different value from New Password
+3. input verification code which is different from the code in Email</t>
+  </si>
+  <si>
+    <t>Show Error Message: invalid Verification Code</t>
+  </si>
+  <si>
+    <t>TC10-004</t>
+  </si>
+  <si>
+    <t>Success Message about Recovering and Changeing Password. Then access to HomePage Activity</t>
+  </si>
+  <si>
+    <t>TC10-005</t>
+  </si>
+  <si>
+    <t>1. Input Email Address
+2. Click "forgotPassword"</t>
+  </si>
+  <si>
+    <t>Show Error Message: Unstable or No Internet Envrionment</t>
+  </si>
+  <si>
+    <t>TC10-006</t>
+  </si>
+  <si>
+    <t>1. Disable Internet Envrionment in device, including mobile data and WIF after click "forgotpassword"
+2. Input the New Password
+3. Input the Confrim New Password
+4. Input Verification Code
+5. Click "submit"
+6. Check Success/Fail Message</t>
+  </si>
+  <si>
+    <t>TC10-007</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Execute TC-004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. After Log-in, Access To Setting Activity
+3. Check Profile Name and First/Last Name</t>
+    </r>
+  </si>
+  <si>
+    <t>No Crash when Access to Setting And show Correct Profile Name and First/Last Name</t>
+  </si>
+  <si>
+    <t>TC10-008</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Execute TC-004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Click "File Explorer" Button ,which is the toppest button in HomePage Activity
+3. Check Whether the App show the Correct Area List
+4. Go back to HomePage
+5. Click "Import Document" Button or Import Document Menu in Navigation Menu
+6. Click Existing Area
+7. Check Whether the App show the Correct Area List</t>
+    </r>
+  </si>
+  <si>
+    <t>Show the List of Area Correctly in step 3 and step 7 And the list of Area is same result between step 3 and step 7</t>
+  </si>
+  <si>
+    <t>TC10-009</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Execute TC-004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Click "File Explorer" Button, which is the toppest button in HomePage Activity
+3. Click Each Area in Area List
+4. Cick and View the each documents</t>
+    </r>
+  </si>
+  <si>
+    <t>Show the Correct document view after app decrypt the encrypted documents in the Area List</t>
+  </si>
+  <si>
+    <t>TC10-010</t>
+  </si>
+  <si>
+    <t>1. Execute TC-004</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Different Device:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Success Message about Recovering and Changeing Password. Then access to HomePage Activity</t>
+    </r>
+  </si>
+  <si>
+    <t>TC10-011</t>
+  </si>
+  <si>
+    <t>1. Execute TC-007</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Different Device:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> No Crash when Access to Setting And show Correct Profile Name and First/Last Name</t>
+    </r>
+  </si>
+  <si>
+    <t>TC10-012</t>
+  </si>
+  <si>
+    <t>1. Execute TC-008</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Different Device:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Show the List of Area Correctly in step 3 and step 7 And the list of Area is same result between step 3 and step 7</t>
+    </r>
+  </si>
+  <si>
+    <t>TC10-013</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Execute TC-004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Click "Setting" Menu in Navigation Menu
+3. Click "Download backup" to download the files from S3
+4. Go back to HomePage Activity
+5. Click "File Explorer" Button, which is the toppest button in HomePage Activity
+6. Click Each Area in Area List
+7. Cick and View the each documents</t>
+    </r>
+  </si>
+  <si>
+    <t>Different Device: Show the Correct document view after app decrypt the encrypted documents in the Area List</t>
+  </si>
+  <si>
+    <t>TC10-014</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Execute TC-004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Click New Area Button
+3. Create 2 - 3 Areas in each different areas
+4. Go back to HomePage Activity and Click New File Button
+5. Create 2 - 3 New File into each area which is created in step 3
+6. Go back to HomePage Activity and Click File Explorer Button
+7. Check New Areas of Step 3 in the Area List and New Files of Step 5 whether can access and view</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multiple Attempts in ForgotPassword:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Show the Correct document view after app decrypt the encrypted documents in the Area List</t>
+    </r>
+  </si>
+  <si>
+    <t>TC10-015</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Execute TC-014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Click LogOut in Navigation Menu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. Execute TC-007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multiple Attempts in ForgotPassword:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> No Crash when Access to Setting And show Correct Profile Name and First/Last Name</t>
+    </r>
+  </si>
+  <si>
+    <t>TC10-016</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Execute TC-014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Click LogOut in Navigation Menu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. Execute TC-008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multiple Attempts in ForgotPassword:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Show the List of Area Correctly in step 3 and step 7 And the list of Area is same result between step 3 and step 7 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in Step 3 of TC-016</t>
+    </r>
+  </si>
+  <si>
+    <t>TC10-017</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Execute TC-014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Click LogOut in Navigation Menu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. Execute TC-009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>TC10-018</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Repeat TC-004 and logout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. count the number of attempts when do repeat</t>
+    </r>
+  </si>
+  <si>
+    <t>Show Error Message: attempts limit exceed in forgotPassword</t>
+  </si>
+  <si>
+    <t>1. Enter the New Password
+2. Enter the Confrim New Password, which should be same as New Password
+3. Enter the Correct Verification Code
+4. Click "Submit"</t>
+  </si>
+  <si>
+    <t>11. ResetPassword</t>
+  </si>
+  <si>
+    <t>Test if the user can reset password and the app work perfectly.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t xml:space="preserve">TC-001 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t xml:space="preserve"> TC-003 and TC-005 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t xml:space="preserve"> TC-010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t xml:space="preserve">: User finish to sign up, sign in into app and then click "Change Password" menu after access to Setting Activity in the app
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t>TC-004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t xml:space="preserve">: user should disable internet Environment and same Pre-requisite as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t xml:space="preserve">TC-001 ~ TC-003 and TC-005 ~ TC-010
+TC-011 ~ TC-014: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t>User already finish to sign up and the account should contains some of the files and area information. and same Pre-requisite as</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t xml:space="preserve"> TC-001 ~ TC-003 and TC-005 ~ TC-010</t>
+    </r>
+  </si>
+  <si>
+    <t>TC11-001</t>
+  </si>
+  <si>
+    <t>1. Input the Current Password which is not same as current Password
+2. Input New Password for change Password
+3. Input confrim New Password
+4. Click "Submit"</t>
+  </si>
+  <si>
+    <t>Show Error Message: Invalid Current Password</t>
+  </si>
+  <si>
+    <t>TC11-002</t>
+  </si>
+  <si>
+    <t>1. input Current Password
+2. Input New Password for change Password
+3. Input confrim New Password which is not same as New Password
+4. Click "Submit"</t>
+  </si>
+  <si>
+    <t>TC11-003</t>
+  </si>
+  <si>
+    <t>1. input Current Password which should be same as Current Password
+2. Input New Password for change Password
+3. Input confrim New Password which should be same as New Password
+4. Click "Submit"</t>
+  </si>
+  <si>
+    <t>Show Success Message to change Password</t>
+  </si>
+  <si>
+    <t>TC11-004</t>
+  </si>
+  <si>
+    <t>1. Input the Current Password
+2. Input New Password for change Password
+3. Input confrim New Password
+4. Click "Submit"</t>
+  </si>
+  <si>
+    <t>TC11-005</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Execute TC-003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Go back to HomePage Activity
+3. Click "Setting" Menu in Navigation Menu
+4. Check Profile Name and First/Last Name</t>
+    </r>
+  </si>
+  <si>
+    <t>TC11-006</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Execute TC-003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Go back to HomePage Activity
+3. Click "File Explorer" Button ,which is the toppest button in HomePage Activity
+4. Check Whether the App show the Correct Area List
+5. Go back to HomePage
+6. Click "Import Document" Button or Import Document Menu in Navigation Menu
+7. Click Existing Area
+8. Check Whether the App show the Correct Area List</t>
+    </r>
+  </si>
+  <si>
+    <t>Show the List of Area Correctly in step 4 and step 8 And the list of Area is same result between step 4 and step 8</t>
+  </si>
+  <si>
+    <t>TC11-007</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Execute TC-003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Go back to HomePage Activity
+3. Click "File Explorer" Button, which is the toppest button in HomePage Activity
+4. Click Each Area in Area List
+5. Cick and View the each documents</t>
+    </r>
+  </si>
+  <si>
+    <t>TC11-008</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Execute TC-003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Go back to HomePage Activity and Logout
+3. Re-Login into App with new Password
+4. Click "Setting" Menu in Navigation Menu
+5. Check Profile Name and First/Last Name</t>
+    </r>
+  </si>
+  <si>
+    <t>TC11-009</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Execute TC-003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Go back to HomePage Activity and Logout
+3. Re-Login into App with new Password
+4. Click "File Explorer" Button ,which is the toppest button in HomePage Activity
+5. Check Whether the App show the Correct Area List
+6. Go back to HomePage
+7. Click "Import Document" Button or Import Document Menu in Navigation Menu
+8. Click Existing Area
+9. Check Whether the App show the Correct Area List</t>
+    </r>
+  </si>
+  <si>
+    <t>Show the List of Area Correctly in step 5 and step 9 And the list of Area is same result between step 5 and step 9</t>
+  </si>
+  <si>
+    <t>TC11-010</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Execute TC-003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Go back to HomePage Activity and Logout
+3. Re-Login into App with new Password
+4. Click "File Explorer" Button, which is the toppest button in HomePage Activity
+5. Click Each Area in Area List
+6. Cick and View the each documents</t>
+    </r>
+  </si>
+  <si>
+    <t>TC11-011</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Execute TC-003
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. Go back to HomePage Activity
+3. Click New Area Button
+4. Create 2 - 3 Areas in each different areas
+5. Go back to HomePage Activity and Click New File Button
+6. Create 2 - 3 New File into each area which is created in step 4
+7. Go back to HomePage Activity and Click File Explorer Button
+8. Check New Areas of Step 4 in the Area List and New Files of Step 6 whether can access and view</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multiple Attempts in resetPassword:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Show the Correct document view after app decrypt the encrypted documents in the Area List</t>
+    </r>
+  </si>
+  <si>
+    <t>TC11-012</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Execute TC-011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Click LogOut in Navigation Menu
+3. Re-Login into App with new Password
+4. Click "Setting" Menu in Navigation Menu
+5. Click "Change Password" 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6. Execute TC-008</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multiple Attempts in resetPassword</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: No Crash when Access to Setting And show Correct Profile Name and First/Last Name</t>
+    </r>
+  </si>
+  <si>
+    <t>TC11-013</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Execute TC-011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Click LogOut in Navigation Menu
+3. Re-Login into App with new Password
+4. Click "Setting" Menu in Navigation Menu
+5. Click "Change Password" 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6. Execute TC-009</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multiple Attempts in resetPassword:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Show the List of Area Correctly in step 5 and step 9 And the list of Area is same result between step 5 and step 9 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in Step 6 of TC-013</t>
+    </r>
+  </si>
+  <si>
+    <t>TC11-014</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Execute TC-011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Click LogOut in Navigation Menu
+3. Re-Login into App with new Password
+4. Click "Setting" Menu in Navigation Menu
+5. Click "Change Password" 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6. Execute TC-010</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Multiple Attempts in resetPassword</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Show the Correct document view after app decrypt the encrypted documents in the Area List</t>
+    </r>
+  </si>
+  <si>
+    <t>TC11-015</t>
+  </si>
+  <si>
+    <t>Show Error Message: attempts limit exceed in resetPassword</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1546,7 +2857,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1664,6 +2975,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1673,26 +2990,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1736,26 +3050,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1766,10 +3071,31 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
@@ -1781,21 +3107,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1805,14 +3116,38 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="20% - Accent3" xfId="5" builtinId="38"/>
-    <cellStyle name="Accent1" xfId="4" builtinId="29"/>
-    <cellStyle name="Heading 1" xfId="3" builtinId="16"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색3" xfId="5" builtinId="38"/>
+    <cellStyle name="강조색1" xfId="4" builtinId="29"/>
+    <cellStyle name="제목" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="제목 1" xfId="3" builtinId="16"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1847,7 +3182,7 @@
         <xdr:cNvPr id="2061" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30BA1063-A16B-4C68-A743-4B420C5465C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30BA1063-A16B-4C68-A743-4B420C5465C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1895,7 +3230,7 @@
         <xdr:cNvPr id="2060" name="Picture 12" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF567FBA-98D6-41F8-887E-3AB62EFCE5E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF567FBA-98D6-41F8-887E-3AB62EFCE5E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1956,7 +3291,7 @@
         <xdr:cNvPr id="2059" name="Picture 11" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E93150-DA75-4658-ACF7-D189E05151A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63E93150-DA75-4658-ACF7-D189E05151A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2017,7 +3352,7 @@
         <xdr:cNvPr id="2058" name="AutoShape 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31457A75-25A1-4182-A274-BF0A57FF81ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31457A75-25A1-4182-A274-BF0A57FF81ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2065,7 +3400,7 @@
         <xdr:cNvPr id="2057" name="AutoShape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD5E9B17-BBE9-4F3F-8C7B-720ECD2D681E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD5E9B17-BBE9-4F3F-8C7B-720ECD2D681E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2113,7 +3448,7 @@
         <xdr:cNvPr id="2056" name="AutoShape 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF2AA01-B252-4B3A-A375-0E01973F5F28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACF2AA01-B252-4B3A-A375-0E01973F5F28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2161,7 +3496,7 @@
         <xdr:cNvPr id="2055" name="Picture 7" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65879D11-6224-4C7F-89C2-EB96196F1A0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65879D11-6224-4C7F-89C2-EB96196F1A0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2222,7 +3557,7 @@
         <xdr:cNvPr id="2054" name="Picture 6" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CF822E1-047C-4A3B-84DC-EC8AC8269EFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CF822E1-047C-4A3B-84DC-EC8AC8269EFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,7 +3618,7 @@
         <xdr:cNvPr id="2053" name="Picture 5" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04925A52-F4C6-4CD2-894B-53641F217E98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04925A52-F4C6-4CD2-894B-53641F217E98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +3679,7 @@
         <xdr:cNvPr id="2052" name="Picture 4" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABFA5086-6E08-48C0-9ACC-F28827F67131}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ABFA5086-6E08-48C0-9ACC-F28827F67131}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2405,7 +3740,7 @@
         <xdr:cNvPr id="2051" name="Picture 3" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E4935A-4571-48AC-8BC5-8DE7A584B4D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57E4935A-4571-48AC-8BC5-8DE7A584B4D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2466,7 +3801,7 @@
         <xdr:cNvPr id="2050" name="Picture 2" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C78A6D-821A-410B-9678-567D6BA6A13D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73C78A6D-821A-410B-9678-567D6BA6A13D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2527,7 +3862,7 @@
         <xdr:cNvPr id="2049" name="Picture 1" descr="out?google_nid=adroll5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0583EF1F-95CC-4F68-83EF-C3E41E3B377C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0583EF1F-95CC-4F68-83EF-C3E41E3B377C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2862,21 +4197,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I306"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I264" sqref="I264"/>
+    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D249" sqref="D249:E249"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.88671875" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
@@ -2889,20 +4224,20 @@
     <col min="9" max="9" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.950000000000003" customHeight="1">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:9" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -2913,83 +4248,83 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
     </row>
-    <row r="3" spans="1:9" ht="31.2" customHeight="1" thickBot="1">
-      <c r="A3" s="71" t="s">
+    <row r="3" spans="1:9" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
-    <row r="4" spans="1:9" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A4" s="57" t="s">
+    <row r="4" spans="1:9" ht="18.600000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="59" t="s">
+      <c r="B4" s="59"/>
+      <c r="C4" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A5" s="57" t="s">
+    <row r="5" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="65"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A6" s="57" t="s">
+    <row r="6" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="67"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="68"/>
       <c r="H6" s="17"/>
       <c r="I6" s="18"/>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="68"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="70"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="69"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="71"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="50" t="s">
+      <c r="C8" s="54"/>
+      <c r="D8" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="51"/>
+      <c r="E8" s="54"/>
       <c r="F8" s="21" t="s">
         <v>70</v>
       </c>
@@ -2997,18 +4332,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="70.2" customHeight="1">
+    <row r="9" spans="1:9" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="55" t="s">
+      <c r="C9" s="53"/>
+      <c r="D9" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="56"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="27" t="s">
         <v>86</v>
       </c>
@@ -3016,15 +4351,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="43.5" customHeight="1">
+    <row r="10" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="55" t="s">
+      <c r="C10" s="53"/>
+      <c r="D10" s="52" t="s">
         <v>111</v>
       </c>
       <c r="E10" s="72"/>
@@ -3035,15 +4370,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="48.75" customHeight="1">
+    <row r="11" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="52" t="s">
         <v>336</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="55" t="s">
+      <c r="C11" s="53"/>
+      <c r="D11" s="52" t="s">
         <v>231</v>
       </c>
       <c r="E11" s="72"/>
@@ -3054,15 +4389,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="54.75" customHeight="1">
+    <row r="12" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="55" t="s">
+      <c r="C12" s="53"/>
+      <c r="D12" s="52" t="s">
         <v>231</v>
       </c>
       <c r="E12" s="72"/>
@@ -3073,15 +4408,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="73.2" customHeight="1">
+    <row r="13" spans="1:9" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="52" t="s">
         <v>88</v>
       </c>
       <c r="C13" s="72"/>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="52" t="s">
         <v>231</v>
       </c>
       <c r="E13" s="72"/>
@@ -3092,15 +4427,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="61.5" customHeight="1">
+    <row r="14" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="52" t="s">
         <v>112</v>
       </c>
       <c r="C14" s="72"/>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="52" t="s">
         <v>231</v>
       </c>
       <c r="E14" s="72"/>
@@ -3111,15 +4446,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="61.5" customHeight="1">
+    <row r="15" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="55" t="s">
+      <c r="C15" s="87"/>
+      <c r="D15" s="52" t="s">
         <v>87</v>
       </c>
       <c r="E15" s="72"/>
@@ -3130,15 +4465,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="59.25" customHeight="1">
+    <row r="16" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="87" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="55" t="s">
+      <c r="C16" s="87"/>
+      <c r="D16" s="52" t="s">
         <v>231</v>
       </c>
       <c r="E16" s="72"/>
@@ -3149,15 +4484,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60" customHeight="1">
+    <row r="17" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="55" t="s">
+      <c r="C17" s="87"/>
+      <c r="D17" s="52" t="s">
         <v>231</v>
       </c>
       <c r="E17" s="72"/>
@@ -3168,15 +4503,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="65.25" customHeight="1">
+    <row r="18" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="55" t="s">
+      <c r="C18" s="87"/>
+      <c r="D18" s="52" t="s">
         <v>87</v>
       </c>
       <c r="E18" s="72"/>
@@ -3187,59 +4522,59 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="50" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="47" t="s">
+      <c r="B19" s="54"/>
+      <c r="C19" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="49"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="50" t="s">
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="52">
+      <c r="B20" s="54"/>
+      <c r="C20" s="56">
         <v>43014</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="53" t="s">
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="47" t="s">
+      <c r="B21" s="54"/>
+      <c r="C21" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="49"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="53" t="s">
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="51"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="47" t="s">
+      <c r="B22" s="48"/>
+      <c r="C22" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="49"/>
-    </row>
-    <row r="23" spans="1:7" ht="14.4" customHeight="1">
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="51"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -3248,7 +4583,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" ht="10.95" customHeight="1">
+    <row r="24" spans="1:7" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -3257,7 +4592,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7" ht="15.6" customHeight="1">
+    <row r="25" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -3266,7 +4601,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" ht="14.4" customHeight="1">
+    <row r="26" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -3275,7 +4610,7 @@
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -3284,76 +4619,76 @@
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7" ht="12" customHeight="1"/>
-    <row r="29" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A29" s="71" t="s">
+    <row r="28" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" thickTop="1">
-      <c r="A30" s="76" t="s">
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="78" t="s">
+      <c r="B30" s="80"/>
+      <c r="C30" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="80"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="57" t="s">
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="78"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="64"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="57" t="s">
+      <c r="B31" s="59"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="65"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="65" t="s">
+      <c r="B32" s="59"/>
+      <c r="C32" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="82"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="86"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="88"/>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="75"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="82"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="83"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="84"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="50" t="s">
+      <c r="C34" s="54"/>
+      <c r="D34" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="51"/>
+      <c r="E34" s="54"/>
       <c r="F34" s="21" t="s">
         <v>70</v>
       </c>
@@ -3361,18 +4696,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1">
+    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="74" t="s">
+      <c r="B35" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="75"/>
-      <c r="D35" s="47" t="s">
+      <c r="C35" s="86"/>
+      <c r="D35" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="49"/>
+      <c r="E35" s="51"/>
       <c r="F35" s="20" t="s">
         <v>102</v>
       </c>
@@ -3380,15 +4715,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="46.95" customHeight="1">
+    <row r="36" spans="1:7" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B36" s="74" t="s">
+      <c r="B36" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="75"/>
-      <c r="D36" s="55" t="s">
+      <c r="C36" s="86"/>
+      <c r="D36" s="52" t="s">
         <v>231</v>
       </c>
       <c r="E36" s="72"/>
@@ -3399,15 +4734,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="45.6" customHeight="1">
+    <row r="37" spans="1:7" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="B37" s="74" t="s">
+      <c r="B37" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="75"/>
-      <c r="D37" s="55" t="s">
+      <c r="C37" s="86"/>
+      <c r="D37" s="52" t="s">
         <v>79</v>
       </c>
       <c r="E37" s="72"/>
@@ -3418,15 +4753,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="48" customHeight="1">
+    <row r="38" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="B38" s="74" t="s">
+      <c r="B38" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="75"/>
-      <c r="D38" s="55" t="s">
+      <c r="C38" s="86"/>
+      <c r="D38" s="52" t="s">
         <v>81</v>
       </c>
       <c r="E38" s="72"/>
@@ -3437,15 +4772,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="39.75" customHeight="1">
+    <row r="39" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="52" t="s">
         <v>340</v>
       </c>
       <c r="C39" s="72"/>
-      <c r="D39" s="55" t="s">
+      <c r="D39" s="52" t="s">
         <v>342</v>
       </c>
       <c r="E39" s="72"/>
@@ -3456,15 +4791,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="90.75" customHeight="1">
+    <row r="40" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="52" t="s">
         <v>148</v>
       </c>
       <c r="C40" s="72"/>
-      <c r="D40" s="55" t="s">
+      <c r="D40" s="52" t="s">
         <v>149</v>
       </c>
       <c r="E40" s="72"/>
@@ -3475,15 +4810,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="39.75" customHeight="1">
+    <row r="41" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="52" t="s">
         <v>341</v>
       </c>
       <c r="C41" s="72"/>
-      <c r="D41" s="55" t="s">
+      <c r="D41" s="52" t="s">
         <v>231</v>
       </c>
       <c r="E41" s="72"/>
@@ -3494,127 +4829,127 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="50" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="51"/>
-      <c r="C42" s="47" t="s">
+      <c r="B42" s="54"/>
+      <c r="C42" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="49"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="50" t="s">
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="51"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="51"/>
-      <c r="C43" s="52">
+      <c r="B43" s="54"/>
+      <c r="C43" s="56">
         <v>43042</v>
       </c>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="49"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="53" t="s">
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="51"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="54"/>
-      <c r="C44" s="47" t="s">
+      <c r="B44" s="48"/>
+      <c r="C44" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="49"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="53" t="s">
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="51"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="54"/>
-      <c r="C45" s="47" t="s">
+      <c r="B45" s="48"/>
+      <c r="C45" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="49"/>
-    </row>
-    <row r="49" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A49" s="71" t="s">
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="51"/>
+    </row>
+    <row r="49" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="B49" s="71"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-    </row>
-    <row r="50" spans="1:7" ht="15" thickTop="1">
-      <c r="A50" s="57" t="s">
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+    </row>
+    <row r="50" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="58"/>
-      <c r="C50" s="59" t="s">
+      <c r="B50" s="59"/>
+      <c r="C50" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="61"/>
-    </row>
-    <row r="51" spans="1:7" ht="16.95" customHeight="1">
-      <c r="A51" s="57" t="s">
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="62"/>
+    </row>
+    <row r="51" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="58"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="63"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="64"/>
-    </row>
-    <row r="52" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A52" s="57" t="s">
+      <c r="B51" s="59"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="65"/>
+    </row>
+    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="58"/>
-      <c r="C52" s="65" t="s">
+      <c r="B52" s="59"/>
+      <c r="C52" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="66"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="67"/>
-    </row>
-    <row r="53" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A53" s="68"/>
-      <c r="B53" s="69"/>
-      <c r="C53" s="69"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="69"/>
-      <c r="F53" s="69"/>
-      <c r="G53" s="70"/>
-    </row>
-    <row r="54" spans="1:7" ht="27" customHeight="1">
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="68"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="69"/>
+      <c r="B53" s="70"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="70"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="71"/>
+    </row>
+    <row r="54" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="51"/>
-      <c r="D54" s="50" t="s">
+      <c r="C54" s="54"/>
+      <c r="D54" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E54" s="51"/>
+      <c r="E54" s="54"/>
       <c r="F54" s="21" t="s">
         <v>70</v>
       </c>
@@ -3622,18 +4957,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="35.4" customHeight="1">
+    <row r="55" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="B55" s="55" t="s">
+      <c r="B55" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="56"/>
-      <c r="D55" s="55" t="s">
+      <c r="C55" s="53"/>
+      <c r="D55" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="E55" s="56"/>
+      <c r="E55" s="53"/>
       <c r="F55" s="29" t="s">
         <v>127</v>
       </c>
@@ -3641,127 +4976,127 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A56" s="53" t="s">
+    <row r="56" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="51"/>
-      <c r="C56" s="47" t="s">
+      <c r="B56" s="54"/>
+      <c r="C56" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="D56" s="48"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="49"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="50" t="s">
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="51"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="52">
+      <c r="B57" s="54"/>
+      <c r="C57" s="56">
         <v>43046</v>
       </c>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="49"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="53" t="s">
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="51"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="51"/>
-      <c r="C58" s="47" t="s">
+      <c r="B58" s="54"/>
+      <c r="C58" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="D58" s="48"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="49"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="53" t="s">
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="51"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="54"/>
-      <c r="C59" s="47" t="s">
+      <c r="B59" s="48"/>
+      <c r="C59" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="49"/>
-    </row>
-    <row r="62" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A62" s="71" t="s">
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="51"/>
+    </row>
+    <row r="62" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="B62" s="71"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="71"/>
-    </row>
-    <row r="63" spans="1:7" ht="15" thickTop="1">
-      <c r="A63" s="57" t="s">
+      <c r="B62" s="57"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+    </row>
+    <row r="63" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="58"/>
-      <c r="C63" s="59" t="s">
+      <c r="B63" s="59"/>
+      <c r="C63" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="61"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="57" t="s">
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="62"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="58"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="63"/>
-      <c r="G64" s="64"/>
-    </row>
-    <row r="65" spans="1:7" ht="15" customHeight="1">
-      <c r="A65" s="57" t="s">
+      <c r="B64" s="59"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="65"/>
+    </row>
+    <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="58"/>
-      <c r="C65" s="65" t="s">
+      <c r="B65" s="59"/>
+      <c r="C65" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="D65" s="66"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="67"/>
-    </row>
-    <row r="66" spans="1:7" ht="21" customHeight="1">
-      <c r="A66" s="68"/>
-      <c r="B66" s="69"/>
-      <c r="C66" s="69"/>
-      <c r="D66" s="69"/>
-      <c r="E66" s="69"/>
-      <c r="F66" s="69"/>
-      <c r="G66" s="70"/>
-    </row>
-    <row r="67" spans="1:7" ht="56.4" customHeight="1">
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="68"/>
+    </row>
+    <row r="66" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="69"/>
+      <c r="B66" s="70"/>
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="71"/>
+    </row>
+    <row r="67" spans="1:7" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="50" t="s">
+      <c r="B67" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="51"/>
-      <c r="D67" s="50" t="s">
+      <c r="C67" s="54"/>
+      <c r="D67" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E67" s="51"/>
+      <c r="E67" s="54"/>
       <c r="F67" s="21" t="s">
         <v>70</v>
       </c>
@@ -3769,18 +5104,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="60.75" customHeight="1">
+    <row r="68" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="B68" s="55" t="s">
+      <c r="B68" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="56"/>
-      <c r="D68" s="55" t="s">
+      <c r="C68" s="53"/>
+      <c r="D68" s="52" t="s">
         <v>344</v>
       </c>
-      <c r="E68" s="56"/>
+      <c r="E68" s="53"/>
       <c r="F68" s="29" t="s">
         <v>117</v>
       </c>
@@ -3788,18 +5123,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="44.25" customHeight="1">
+    <row r="69" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="B69" s="55" t="s">
+      <c r="B69" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C69" s="56"/>
-      <c r="D69" s="55" t="s">
+      <c r="C69" s="53"/>
+      <c r="D69" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="E69" s="56"/>
+      <c r="E69" s="53"/>
       <c r="F69" s="29" t="s">
         <v>118</v>
       </c>
@@ -3807,18 +5142,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="57.75" customHeight="1">
+    <row r="70" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="B70" s="55" t="s">
+      <c r="B70" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="C70" s="56"/>
-      <c r="D70" s="55" t="s">
+      <c r="C70" s="53"/>
+      <c r="D70" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="E70" s="56"/>
+      <c r="E70" s="53"/>
       <c r="F70" s="29" t="s">
         <v>119</v>
       </c>
@@ -3826,18 +5161,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="43.2">
+    <row r="71" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="B71" s="55" t="s">
+      <c r="B71" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="C71" s="56"/>
-      <c r="D71" s="55" t="s">
+      <c r="C71" s="53"/>
+      <c r="D71" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="E71" s="56"/>
+      <c r="E71" s="53"/>
       <c r="F71" s="29" t="s">
         <v>120</v>
       </c>
@@ -3845,18 +5180,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="28.8">
+    <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="B72" s="55" t="s">
+      <c r="B72" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="56"/>
-      <c r="D72" s="55" t="s">
+      <c r="C72" s="53"/>
+      <c r="D72" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="E72" s="56"/>
+      <c r="E72" s="53"/>
       <c r="F72" s="29" t="s">
         <v>124</v>
       </c>
@@ -3864,142 +5199,142 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="24.75" customHeight="1">
+    <row r="73" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="B73" s="55" t="s">
+      <c r="B73" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="C73" s="56"/>
-      <c r="D73" s="55" t="s">
+      <c r="C73" s="53"/>
+      <c r="D73" s="52" t="s">
         <v>346</v>
       </c>
-      <c r="E73" s="56"/>
+      <c r="E73" s="53"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="53" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="51"/>
-      <c r="C74" s="47" t="s">
+      <c r="B74" s="54"/>
+      <c r="C74" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="D74" s="48"/>
-      <c r="E74" s="48"/>
-      <c r="F74" s="48"/>
-      <c r="G74" s="49"/>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="50" t="s">
+      <c r="D74" s="50"/>
+      <c r="E74" s="50"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="51"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="51"/>
-      <c r="C75" s="52">
+      <c r="B75" s="54"/>
+      <c r="C75" s="56">
         <v>43045</v>
       </c>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="49"/>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="53" t="s">
+      <c r="D75" s="50"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="51"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="51"/>
-      <c r="C76" s="47" t="s">
+      <c r="B76" s="54"/>
+      <c r="C76" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="D76" s="48"/>
-      <c r="E76" s="48"/>
-      <c r="F76" s="48"/>
-      <c r="G76" s="49"/>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="53" t="s">
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="51"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="54"/>
-      <c r="C77" s="47" t="s">
+      <c r="B77" s="48"/>
+      <c r="C77" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D77" s="48"/>
-      <c r="E77" s="48"/>
-      <c r="F77" s="48"/>
-      <c r="G77" s="49"/>
-    </row>
-    <row r="84" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A84" s="71" t="s">
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="51"/>
+    </row>
+    <row r="84" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="B84" s="71"/>
-      <c r="C84" s="71"/>
-      <c r="D84" s="71"/>
-      <c r="E84" s="71"/>
-      <c r="F84" s="71"/>
-      <c r="G84" s="71"/>
-    </row>
-    <row r="85" spans="1:7" ht="15" thickTop="1">
-      <c r="A85" s="57" t="s">
+      <c r="B84" s="57"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="57"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="57"/>
+    </row>
+    <row r="85" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B85" s="58"/>
-      <c r="C85" s="59" t="s">
+      <c r="B85" s="59"/>
+      <c r="C85" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="D85" s="60"/>
-      <c r="E85" s="60"/>
-      <c r="F85" s="60"/>
-      <c r="G85" s="61"/>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="57" t="s">
+      <c r="D85" s="61"/>
+      <c r="E85" s="61"/>
+      <c r="F85" s="61"/>
+      <c r="G85" s="62"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="B86" s="58"/>
-      <c r="C86" s="62"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="63"/>
-      <c r="F86" s="63"/>
-      <c r="G86" s="64"/>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="57" t="s">
+      <c r="B86" s="59"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="64"/>
+      <c r="F86" s="64"/>
+      <c r="G86" s="65"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B87" s="58"/>
-      <c r="C87" s="65" t="s">
+      <c r="B87" s="59"/>
+      <c r="C87" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D87" s="66"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="67"/>
-    </row>
-    <row r="88" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A88" s="68"/>
-      <c r="B88" s="69"/>
-      <c r="C88" s="69"/>
-      <c r="D88" s="69"/>
-      <c r="E88" s="69"/>
-      <c r="F88" s="69"/>
-      <c r="G88" s="70"/>
-    </row>
-    <row r="89" spans="1:7" ht="18" customHeight="1">
+      <c r="D87" s="67"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="67"/>
+      <c r="G87" s="68"/>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="69"/>
+      <c r="B88" s="70"/>
+      <c r="C88" s="70"/>
+      <c r="D88" s="70"/>
+      <c r="E88" s="70"/>
+      <c r="F88" s="70"/>
+      <c r="G88" s="71"/>
+    </row>
+    <row r="89" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B89" s="50" t="s">
+      <c r="B89" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="C89" s="51"/>
-      <c r="D89" s="50" t="s">
+      <c r="C89" s="54"/>
+      <c r="D89" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E89" s="51"/>
+      <c r="E89" s="54"/>
       <c r="F89" s="21" t="s">
         <v>70</v>
       </c>
@@ -4007,18 +5342,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="47.4" customHeight="1">
+    <row r="90" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="B90" s="55" t="s">
+      <c r="B90" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="C90" s="56"/>
-      <c r="D90" s="55" t="s">
+      <c r="C90" s="53"/>
+      <c r="D90" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="E90" s="56"/>
+      <c r="E90" s="53"/>
       <c r="F90" s="29" t="s">
         <v>135</v>
       </c>
@@ -4026,18 +5361,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="58.5" customHeight="1">
+    <row r="91" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="B91" s="55" t="s">
+      <c r="B91" s="52" t="s">
         <v>347</v>
       </c>
-      <c r="C91" s="56"/>
-      <c r="D91" s="55" t="s">
+      <c r="C91" s="53"/>
+      <c r="D91" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="E91" s="56"/>
+      <c r="E91" s="53"/>
       <c r="F91" s="29" t="s">
         <v>138</v>
       </c>
@@ -4045,18 +5380,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="32.25" customHeight="1">
+    <row r="92" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B92" s="55" t="s">
+      <c r="B92" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="C92" s="56"/>
-      <c r="D92" s="55" t="s">
+      <c r="C92" s="53"/>
+      <c r="D92" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="E92" s="56"/>
+      <c r="E92" s="53"/>
       <c r="F92" s="29" t="s">
         <v>142</v>
       </c>
@@ -4064,137 +5399,137 @@
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="53" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="B93" s="51"/>
-      <c r="C93" s="47" t="s">
+      <c r="B93" s="54"/>
+      <c r="C93" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="D93" s="48"/>
-      <c r="E93" s="48"/>
-      <c r="F93" s="48"/>
-      <c r="G93" s="49"/>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="50" t="s">
+      <c r="D93" s="50"/>
+      <c r="E93" s="50"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="51"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B94" s="51"/>
-      <c r="C94" s="52">
+      <c r="B94" s="54"/>
+      <c r="C94" s="56">
         <v>43046</v>
       </c>
-      <c r="D94" s="48"/>
-      <c r="E94" s="48"/>
-      <c r="F94" s="48"/>
-      <c r="G94" s="49"/>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="53" t="s">
+      <c r="D94" s="50"/>
+      <c r="E94" s="50"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="51"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="B95" s="51"/>
-      <c r="C95" s="47" t="s">
+      <c r="B95" s="54"/>
+      <c r="C95" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="D95" s="48"/>
-      <c r="E95" s="48"/>
-      <c r="F95" s="48"/>
-      <c r="G95" s="49"/>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="53" t="s">
+      <c r="D95" s="50"/>
+      <c r="E95" s="50"/>
+      <c r="F95" s="50"/>
+      <c r="G95" s="51"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B96" s="54"/>
-      <c r="C96" s="47" t="s">
+      <c r="B96" s="48"/>
+      <c r="C96" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D96" s="48"/>
-      <c r="E96" s="48"/>
-      <c r="F96" s="48"/>
-      <c r="G96" s="49"/>
-    </row>
-    <row r="101" spans="1:9" ht="31.2" customHeight="1" thickBot="1">
-      <c r="A101" s="71" t="s">
+      <c r="D96" s="50"/>
+      <c r="E96" s="50"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="51"/>
+    </row>
+    <row r="101" spans="1:9" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="B101" s="71"/>
-      <c r="C101" s="71"/>
-      <c r="D101" s="71"/>
-      <c r="E101" s="71"/>
-      <c r="F101" s="71"/>
-      <c r="G101" s="71"/>
+      <c r="B101" s="57"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="57"/>
+      <c r="E101" s="57"/>
+      <c r="F101" s="57"/>
+      <c r="G101" s="57"/>
       <c r="H101" s="16"/>
       <c r="I101" s="16"/>
     </row>
-    <row r="102" spans="1:9" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A102" s="57" t="s">
+    <row r="102" spans="1:9" ht="18.600000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B102" s="58"/>
-      <c r="C102" s="59" t="s">
+      <c r="B102" s="59"/>
+      <c r="C102" s="60" t="s">
         <v>218</v>
       </c>
-      <c r="D102" s="60"/>
-      <c r="E102" s="60"/>
-      <c r="F102" s="60"/>
-      <c r="G102" s="61"/>
+      <c r="D102" s="61"/>
+      <c r="E102" s="61"/>
+      <c r="F102" s="61"/>
+      <c r="G102" s="62"/>
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A103" s="57" t="s">
+    <row r="103" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="B103" s="58"/>
-      <c r="C103" s="62"/>
-      <c r="D103" s="63"/>
-      <c r="E103" s="63"/>
-      <c r="F103" s="63"/>
-      <c r="G103" s="64"/>
+      <c r="B103" s="59"/>
+      <c r="C103" s="63"/>
+      <c r="D103" s="64"/>
+      <c r="E103" s="64"/>
+      <c r="F103" s="64"/>
+      <c r="G103" s="65"/>
       <c r="H103" s="16"/>
       <c r="I103" s="16"/>
     </row>
-    <row r="104" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A104" s="57" t="s">
+    <row r="104" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B104" s="58"/>
-      <c r="C104" s="65" t="s">
+      <c r="B104" s="59"/>
+      <c r="C104" s="66" t="s">
         <v>219</v>
       </c>
-      <c r="D104" s="66"/>
-      <c r="E104" s="66"/>
-      <c r="F104" s="66"/>
-      <c r="G104" s="67"/>
+      <c r="D104" s="67"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="68"/>
       <c r="H104" s="17"/>
       <c r="I104" s="18"/>
     </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="68"/>
-      <c r="B105" s="69"/>
-      <c r="C105" s="69"/>
-      <c r="D105" s="69"/>
-      <c r="E105" s="69"/>
-      <c r="F105" s="69"/>
-      <c r="G105" s="70"/>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" s="69"/>
+      <c r="B105" s="70"/>
+      <c r="C105" s="70"/>
+      <c r="D105" s="70"/>
+      <c r="E105" s="70"/>
+      <c r="F105" s="70"/>
+      <c r="G105" s="71"/>
       <c r="H105" s="18"/>
       <c r="I105" s="18"/>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B106" s="50" t="s">
+      <c r="B106" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="C106" s="51"/>
-      <c r="D106" s="50" t="s">
+      <c r="C106" s="54"/>
+      <c r="D106" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E106" s="51"/>
+      <c r="E106" s="54"/>
       <c r="F106" s="21" t="s">
         <v>70</v>
       </c>
@@ -4202,236 +5537,236 @@
         <v>72</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="33.75" customHeight="1">
+    <row r="107" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="B107" s="55" t="s">
+      <c r="B107" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="C107" s="56"/>
-      <c r="D107" s="55" t="s">
+      <c r="C107" s="53"/>
+      <c r="D107" s="52" t="s">
         <v>221</v>
       </c>
       <c r="E107" s="72"/>
       <c r="F107" s="27"/>
       <c r="G107" s="27"/>
     </row>
-    <row r="108" spans="1:9" ht="81" customHeight="1">
+    <row r="108" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="B108" s="55" t="s">
+      <c r="B108" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="C108" s="56"/>
-      <c r="D108" s="55" t="s">
+      <c r="C108" s="53"/>
+      <c r="D108" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="E108" s="56"/>
+      <c r="E108" s="53"/>
       <c r="F108" s="27"/>
       <c r="G108" s="27"/>
     </row>
-    <row r="109" spans="1:9" ht="54" customHeight="1">
+    <row r="109" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B109" s="55" t="s">
+      <c r="B109" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="C109" s="56"/>
-      <c r="D109" s="55" t="s">
+      <c r="C109" s="53"/>
+      <c r="D109" s="52" t="s">
         <v>225</v>
       </c>
       <c r="E109" s="72"/>
       <c r="F109" s="27"/>
       <c r="G109" s="27"/>
     </row>
-    <row r="110" spans="1:9" ht="60.75" customHeight="1">
+    <row r="110" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="B110" s="55" t="s">
+      <c r="B110" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="C110" s="56"/>
-      <c r="D110" s="55" t="s">
+      <c r="C110" s="53"/>
+      <c r="D110" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="E110" s="56"/>
+      <c r="E110" s="53"/>
       <c r="F110" s="27"/>
       <c r="G110" s="27"/>
     </row>
-    <row r="111" spans="1:9" ht="58.5" customHeight="1">
+    <row r="111" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B111" s="55" t="s">
+      <c r="B111" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="C111" s="56"/>
-      <c r="D111" s="55" t="s">
+      <c r="C111" s="53"/>
+      <c r="D111" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E111" s="56"/>
+      <c r="E111" s="53"/>
       <c r="F111" s="27"/>
       <c r="G111" s="27"/>
     </row>
-    <row r="112" spans="1:9" ht="61.5" customHeight="1">
+    <row r="112" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="B112" s="55" t="s">
+      <c r="B112" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="C112" s="56"/>
-      <c r="D112" s="55" t="s">
+      <c r="C112" s="53"/>
+      <c r="D112" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E112" s="56"/>
+      <c r="E112" s="53"/>
       <c r="F112" s="27"/>
       <c r="G112" s="27"/>
     </row>
-    <row r="113" spans="1:7" ht="79.5" customHeight="1">
+    <row r="113" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="B113" s="55" t="s">
+      <c r="B113" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="C113" s="56"/>
-      <c r="D113" s="55" t="s">
+      <c r="C113" s="53"/>
+      <c r="D113" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E113" s="56"/>
+      <c r="E113" s="53"/>
       <c r="F113" s="28"/>
       <c r="G113" s="27"/>
     </row>
-    <row r="114" spans="1:7" ht="84" customHeight="1">
+    <row r="114" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="B114" s="55" t="s">
+      <c r="B114" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="C114" s="56"/>
-      <c r="D114" s="55" t="s">
+      <c r="C114" s="53"/>
+      <c r="D114" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E114" s="56"/>
+      <c r="E114" s="53"/>
       <c r="F114" s="28"/>
       <c r="G114" s="27"/>
     </row>
-    <row r="115" spans="1:7" ht="82.5" customHeight="1">
+    <row r="115" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="B115" s="55" t="s">
+      <c r="B115" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="C115" s="56"/>
-      <c r="D115" s="55" t="s">
+      <c r="C115" s="53"/>
+      <c r="D115" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E115" s="56"/>
+      <c r="E115" s="53"/>
       <c r="F115" s="28"/>
       <c r="G115" s="27"/>
     </row>
-    <row r="116" spans="1:7" ht="93.75" customHeight="1">
+    <row r="116" spans="1:7" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="B116" s="55" t="s">
+      <c r="B116" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="C116" s="56"/>
-      <c r="D116" s="55" t="s">
+      <c r="C116" s="53"/>
+      <c r="D116" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E116" s="56"/>
+      <c r="E116" s="53"/>
       <c r="F116" s="28"/>
       <c r="G116" s="27"/>
     </row>
-    <row r="117" spans="1:7" ht="72" customHeight="1">
+    <row r="117" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="B117" s="55" t="s">
+      <c r="B117" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="C117" s="56"/>
-      <c r="D117" s="55" t="s">
+      <c r="C117" s="53"/>
+      <c r="D117" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E117" s="56"/>
+      <c r="E117" s="53"/>
       <c r="F117" s="40"/>
       <c r="G117" s="40"/>
     </row>
-    <row r="118" spans="1:7" ht="93" customHeight="1">
+    <row r="118" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="B118" s="55" t="s">
+      <c r="B118" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="C118" s="56"/>
-      <c r="D118" s="55" t="s">
+      <c r="C118" s="53"/>
+      <c r="D118" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E118" s="56"/>
+      <c r="E118" s="53"/>
       <c r="F118" s="40"/>
       <c r="G118" s="40"/>
     </row>
-    <row r="119" spans="1:7" ht="50.25" customHeight="1">
+    <row r="119" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="B119" s="55" t="s">
+      <c r="B119" s="52" t="s">
         <v>247</v>
       </c>
-      <c r="C119" s="56"/>
-      <c r="D119" s="55" t="s">
+      <c r="C119" s="53"/>
+      <c r="D119" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E119" s="56"/>
+      <c r="E119" s="53"/>
       <c r="F119" s="40"/>
       <c r="G119" s="40"/>
     </row>
-    <row r="120" spans="1:7" ht="56.25" customHeight="1">
+    <row r="120" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="B120" s="55" t="s">
+      <c r="B120" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="C120" s="56"/>
-      <c r="D120" s="55" t="s">
+      <c r="C120" s="53"/>
+      <c r="D120" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E120" s="56"/>
+      <c r="E120" s="53"/>
       <c r="F120" s="40"/>
       <c r="G120" s="40"/>
     </row>
-    <row r="121" spans="1:7" ht="56.25" customHeight="1">
+    <row r="121" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="B121" s="55" t="s">
+      <c r="B121" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="C121" s="56"/>
-      <c r="D121" s="55" t="s">
+      <c r="C121" s="53"/>
+      <c r="D121" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E121" s="56"/>
+      <c r="E121" s="53"/>
       <c r="F121" s="40"/>
       <c r="G121" s="40"/>
     </row>
-    <row r="122" spans="1:7">
-      <c r="A122" s="50" t="s">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="B122" s="51"/>
+      <c r="B122" s="54"/>
       <c r="C122" s="30" t="s">
         <v>104</v>
       </c>
@@ -4440,11 +5775,11 @@
       <c r="F122" s="31"/>
       <c r="G122" s="32"/>
     </row>
-    <row r="123" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A123" s="50" t="s">
+    <row r="123" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B123" s="51"/>
+      <c r="B123" s="54"/>
       <c r="C123" s="33">
         <v>43014</v>
       </c>
@@ -4453,11 +5788,11 @@
       <c r="F123" s="31"/>
       <c r="G123" s="32"/>
     </row>
-    <row r="124" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A124" s="53" t="s">
+    <row r="124" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="B124" s="51"/>
+      <c r="B124" s="54"/>
       <c r="C124" s="30" t="s">
         <v>116</v>
       </c>
@@ -4466,11 +5801,11 @@
       <c r="F124" s="41"/>
       <c r="G124" s="42"/>
     </row>
-    <row r="125" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A125" s="53" t="s">
+    <row r="125" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B125" s="54"/>
+      <c r="B125" s="48"/>
       <c r="C125" s="30" t="s">
         <v>98</v>
       </c>
@@ -4479,7 +5814,7 @@
       <c r="F125" s="44"/>
       <c r="G125" s="45"/>
     </row>
-    <row r="126" spans="1:7" ht="14.4" customHeight="1">
+    <row r="126" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="18"/>
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
@@ -4488,7 +5823,7 @@
       <c r="F126" s="18"/>
       <c r="G126" s="18"/>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="18"/>
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
@@ -4497,7 +5832,7 @@
       <c r="F127" s="18"/>
       <c r="G127" s="18"/>
     </row>
-    <row r="128" spans="1:7" ht="12" customHeight="1">
+    <row r="128" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="18"/>
       <c r="B128" s="18"/>
       <c r="C128" s="18"/>
@@ -4506,7 +5841,7 @@
       <c r="F128" s="18"/>
       <c r="G128" s="18"/>
     </row>
-    <row r="129" spans="1:7" ht="20.25" customHeight="1">
+    <row r="129" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="18"/>
       <c r="B129" s="18"/>
       <c r="C129" s="18"/>
@@ -4515,7 +5850,7 @@
       <c r="F129" s="18"/>
       <c r="G129" s="18"/>
     </row>
-    <row r="130" spans="1:7" ht="15.75" customHeight="1">
+    <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="18"/>
       <c r="B130" s="18"/>
       <c r="C130" s="18"/>
@@ -4524,56 +5859,56 @@
       <c r="F130" s="18"/>
       <c r="G130" s="18"/>
     </row>
-    <row r="131" spans="1:7" ht="15" customHeight="1"/>
-    <row r="132" spans="1:7" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A132" s="71" t="s">
+    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="B132" s="71"/>
-      <c r="C132" s="71"/>
-      <c r="D132" s="71"/>
-      <c r="E132" s="71"/>
-      <c r="F132" s="71"/>
-      <c r="G132" s="71"/>
-    </row>
-    <row r="133" spans="1:7" ht="15" customHeight="1" thickTop="1">
-      <c r="A133" s="76" t="s">
+      <c r="B132" s="57"/>
+      <c r="C132" s="57"/>
+      <c r="D132" s="57"/>
+      <c r="E132" s="57"/>
+      <c r="F132" s="57"/>
+      <c r="G132" s="57"/>
+    </row>
+    <row r="133" spans="1:7" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="B133" s="77"/>
-      <c r="C133" s="78" t="s">
+      <c r="B133" s="80"/>
+      <c r="C133" s="76" t="s">
         <v>253</v>
       </c>
-      <c r="D133" s="79"/>
-      <c r="E133" s="79"/>
-      <c r="F133" s="79"/>
-      <c r="G133" s="80"/>
-    </row>
-    <row r="134" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A134" s="57" t="s">
+      <c r="D133" s="77"/>
+      <c r="E133" s="77"/>
+      <c r="F133" s="77"/>
+      <c r="G133" s="78"/>
+    </row>
+    <row r="134" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="B134" s="58"/>
-      <c r="C134" s="62"/>
-      <c r="D134" s="63"/>
-      <c r="E134" s="63"/>
-      <c r="F134" s="63"/>
-      <c r="G134" s="64"/>
-    </row>
-    <row r="135" spans="1:7" ht="12" customHeight="1">
-      <c r="A135" s="57" t="s">
+      <c r="B134" s="59"/>
+      <c r="C134" s="63"/>
+      <c r="D134" s="64"/>
+      <c r="E134" s="64"/>
+      <c r="F134" s="64"/>
+      <c r="G134" s="65"/>
+    </row>
+    <row r="135" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B135" s="58"/>
-      <c r="C135" s="65" t="s">
+      <c r="B135" s="59"/>
+      <c r="C135" s="66" t="s">
         <v>219</v>
       </c>
-      <c r="D135" s="81"/>
-      <c r="E135" s="81"/>
-      <c r="F135" s="81"/>
-      <c r="G135" s="82"/>
-    </row>
-    <row r="136" spans="1:7" ht="15" customHeight="1">
+      <c r="D135" s="74"/>
+      <c r="E135" s="74"/>
+      <c r="F135" s="74"/>
+      <c r="G135" s="75"/>
+    </row>
+    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="37"/>
       <c r="B136" s="38"/>
       <c r="C136" s="38"/>
@@ -4582,18 +5917,18 @@
       <c r="F136" s="38"/>
       <c r="G136" s="39"/>
     </row>
-    <row r="137" spans="1:7" ht="18.75" customHeight="1">
+    <row r="137" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B137" s="50" t="s">
+      <c r="B137" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="C137" s="51"/>
-      <c r="D137" s="50" t="s">
+      <c r="C137" s="54"/>
+      <c r="D137" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E137" s="51"/>
+      <c r="E137" s="54"/>
       <c r="F137" s="21" t="s">
         <v>70</v>
       </c>
@@ -4601,161 +5936,161 @@
         <v>72</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="46.5" customHeight="1">
+    <row r="138" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="B138" s="55" t="s">
+      <c r="B138" s="52" t="s">
         <v>255</v>
       </c>
       <c r="C138" s="72"/>
-      <c r="D138" s="55" t="s">
+      <c r="D138" s="52" t="s">
         <v>256</v>
       </c>
       <c r="E138" s="72"/>
       <c r="F138" s="20"/>
       <c r="G138" s="20"/>
     </row>
-    <row r="139" spans="1:7" ht="72" customHeight="1">
+    <row r="139" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="B139" s="55" t="s">
+      <c r="B139" s="52" t="s">
         <v>258</v>
       </c>
       <c r="C139" s="72"/>
-      <c r="D139" s="89" t="s">
+      <c r="D139" s="81" t="s">
         <v>259</v>
       </c>
-      <c r="E139" s="56"/>
+      <c r="E139" s="53"/>
       <c r="F139" s="20"/>
       <c r="G139" s="20"/>
     </row>
-    <row r="140" spans="1:7" ht="59.25" customHeight="1">
+    <row r="140" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="B140" s="55" t="s">
+      <c r="B140" s="52" t="s">
         <v>261</v>
       </c>
       <c r="C140" s="72"/>
-      <c r="D140" s="55" t="s">
+      <c r="D140" s="52" t="s">
         <v>231</v>
       </c>
       <c r="E140" s="72"/>
       <c r="F140" s="20"/>
       <c r="G140" s="20"/>
     </row>
-    <row r="141" spans="1:7" ht="75.75" customHeight="1">
+    <row r="141" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="B141" s="55" t="s">
+      <c r="B141" s="52" t="s">
         <v>263</v>
       </c>
       <c r="C141" s="72"/>
-      <c r="D141" s="55" t="s">
+      <c r="D141" s="52" t="s">
         <v>231</v>
       </c>
       <c r="E141" s="72"/>
       <c r="F141" s="20"/>
       <c r="G141" s="20"/>
     </row>
-    <row r="142" spans="1:7" ht="71.25" customHeight="1">
+    <row r="142" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="B142" s="55" t="s">
+      <c r="B142" s="52" t="s">
         <v>265</v>
       </c>
       <c r="C142" s="72"/>
-      <c r="D142" s="55" t="s">
+      <c r="D142" s="52" t="s">
         <v>231</v>
       </c>
       <c r="E142" s="72"/>
       <c r="F142" s="20"/>
       <c r="G142" s="20"/>
     </row>
-    <row r="143" spans="1:7" ht="69.75" customHeight="1">
+    <row r="143" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="B143" s="55" t="s">
+      <c r="B143" s="52" t="s">
         <v>267</v>
       </c>
       <c r="C143" s="72"/>
-      <c r="D143" s="55" t="s">
+      <c r="D143" s="52" t="s">
         <v>231</v>
       </c>
       <c r="E143" s="72"/>
       <c r="F143" s="20"/>
       <c r="G143" s="20"/>
     </row>
-    <row r="144" spans="1:7" ht="68.25" customHeight="1">
+    <row r="144" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="B144" s="55" t="s">
+      <c r="B144" s="52" t="s">
         <v>269</v>
       </c>
       <c r="C144" s="72"/>
-      <c r="D144" s="55" t="s">
+      <c r="D144" s="52" t="s">
         <v>231</v>
       </c>
       <c r="E144" s="72"/>
       <c r="F144" s="20"/>
       <c r="G144" s="20"/>
     </row>
-    <row r="145" spans="1:7" ht="51.75" customHeight="1">
+    <row r="145" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="B145" s="55" t="s">
+      <c r="B145" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="C145" s="56"/>
-      <c r="D145" s="55" t="s">
+      <c r="C145" s="53"/>
+      <c r="D145" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E145" s="56"/>
+      <c r="E145" s="53"/>
       <c r="F145" s="40"/>
       <c r="G145" s="40"/>
     </row>
-    <row r="146" spans="1:7" ht="44.25" customHeight="1">
+    <row r="146" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="B146" s="55" t="s">
+      <c r="B146" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="C146" s="56"/>
-      <c r="D146" s="55" t="s">
+      <c r="C146" s="53"/>
+      <c r="D146" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E146" s="56"/>
+      <c r="E146" s="53"/>
       <c r="F146" s="40"/>
       <c r="G146" s="40"/>
     </row>
-    <row r="147" spans="1:7" ht="46.5" customHeight="1">
+    <row r="147" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="B147" s="55" t="s">
+      <c r="B147" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="C147" s="56"/>
-      <c r="D147" s="55" t="s">
+      <c r="C147" s="53"/>
+      <c r="D147" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E147" s="56"/>
+      <c r="E147" s="53"/>
       <c r="F147" s="40"/>
       <c r="G147" s="40"/>
     </row>
-    <row r="148" spans="1:7">
-      <c r="A148" s="50" t="s">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="B148" s="51"/>
+      <c r="B148" s="54"/>
       <c r="C148" s="30" t="s">
         <v>104</v>
       </c>
@@ -4764,11 +6099,11 @@
       <c r="F148" s="31"/>
       <c r="G148" s="32"/>
     </row>
-    <row r="149" spans="1:7">
-      <c r="A149" s="50" t="s">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B149" s="51"/>
+      <c r="B149" s="54"/>
       <c r="C149" s="33">
         <v>43042</v>
       </c>
@@ -4777,11 +6112,11 @@
       <c r="F149" s="31"/>
       <c r="G149" s="32"/>
     </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="53" t="s">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="B150" s="54"/>
+      <c r="B150" s="48"/>
       <c r="C150" s="30" t="s">
         <v>105</v>
       </c>
@@ -4790,11 +6125,11 @@
       <c r="F150" s="31"/>
       <c r="G150" s="32"/>
     </row>
-    <row r="151" spans="1:7">
-      <c r="A151" s="53" t="s">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B151" s="54"/>
+      <c r="B151" s="48"/>
       <c r="C151" s="30" t="s">
         <v>98</v>
       </c>
@@ -4803,7 +6138,7 @@
       <c r="F151" s="31"/>
       <c r="G151" s="32"/>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="46"/>
       <c r="B152" s="46"/>
       <c r="C152" s="46"/>
@@ -4812,7 +6147,7 @@
       <c r="F152" s="46"/>
       <c r="G152" s="46"/>
     </row>
-    <row r="153" spans="1:7" ht="16.5" customHeight="1">
+    <row r="153" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="46"/>
       <c r="B153" s="46"/>
       <c r="C153" s="46"/>
@@ -4821,7 +6156,7 @@
       <c r="F153" s="46"/>
       <c r="G153" s="46"/>
     </row>
-    <row r="154" spans="1:7" ht="14.25" customHeight="1">
+    <row r="154" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="46"/>
       <c r="B154" s="46"/>
       <c r="C154" s="46"/>
@@ -4830,55 +6165,55 @@
       <c r="F154" s="46"/>
       <c r="G154" s="46"/>
     </row>
-    <row r="155" spans="1:7" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A155" s="71" t="s">
+    <row r="155" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="B155" s="71"/>
-      <c r="C155" s="71"/>
-      <c r="D155" s="71"/>
-      <c r="E155" s="71"/>
-      <c r="F155" s="71"/>
-      <c r="G155" s="71"/>
-    </row>
-    <row r="156" spans="1:7" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A156" s="76" t="s">
+      <c r="B155" s="57"/>
+      <c r="C155" s="57"/>
+      <c r="D155" s="57"/>
+      <c r="E155" s="57"/>
+      <c r="F155" s="57"/>
+      <c r="G155" s="57"/>
+    </row>
+    <row r="156" spans="1:7" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="B156" s="77"/>
-      <c r="C156" s="78" t="s">
+      <c r="B156" s="80"/>
+      <c r="C156" s="76" t="s">
         <v>277</v>
       </c>
-      <c r="D156" s="79"/>
-      <c r="E156" s="79"/>
-      <c r="F156" s="79"/>
-      <c r="G156" s="80"/>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="57" t="s">
+      <c r="D156" s="77"/>
+      <c r="E156" s="77"/>
+      <c r="F156" s="77"/>
+      <c r="G156" s="78"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="B157" s="58"/>
-      <c r="C157" s="62"/>
-      <c r="D157" s="63"/>
-      <c r="E157" s="63"/>
-      <c r="F157" s="63"/>
-      <c r="G157" s="64"/>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="57" t="s">
+      <c r="B157" s="59"/>
+      <c r="C157" s="63"/>
+      <c r="D157" s="64"/>
+      <c r="E157" s="64"/>
+      <c r="F157" s="64"/>
+      <c r="G157" s="65"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B158" s="58"/>
-      <c r="C158" s="65" t="s">
+      <c r="B158" s="59"/>
+      <c r="C158" s="66" t="s">
         <v>219</v>
       </c>
-      <c r="D158" s="81"/>
-      <c r="E158" s="81"/>
-      <c r="F158" s="81"/>
-      <c r="G158" s="82"/>
-    </row>
-    <row r="159" spans="1:7" ht="20.25" customHeight="1">
+      <c r="D158" s="74"/>
+      <c r="E158" s="74"/>
+      <c r="F158" s="74"/>
+      <c r="G158" s="75"/>
+    </row>
+    <row r="159" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="37"/>
       <c r="B159" s="38"/>
       <c r="C159" s="38"/>
@@ -4887,18 +6222,18 @@
       <c r="F159" s="38"/>
       <c r="G159" s="39"/>
     </row>
-    <row r="160" spans="1:7" ht="47.25" customHeight="1">
+    <row r="160" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B160" s="50" t="s">
+      <c r="B160" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="C160" s="51"/>
-      <c r="D160" s="50" t="s">
+      <c r="C160" s="54"/>
+      <c r="D160" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E160" s="51"/>
+      <c r="E160" s="54"/>
       <c r="F160" s="21" t="s">
         <v>70</v>
       </c>
@@ -4906,131 +6241,131 @@
         <v>72</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="48" customHeight="1">
+    <row r="161" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="B161" s="55" t="s">
+      <c r="B161" s="52" t="s">
         <v>279</v>
       </c>
       <c r="C161" s="72"/>
-      <c r="D161" s="55" t="s">
+      <c r="D161" s="52" t="s">
         <v>280</v>
       </c>
       <c r="E161" s="72"/>
       <c r="F161" s="20"/>
       <c r="G161" s="20"/>
     </row>
-    <row r="162" spans="1:7" ht="56.25" customHeight="1">
+    <row r="162" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="B162" s="55" t="s">
+      <c r="B162" s="52" t="s">
         <v>282</v>
       </c>
       <c r="C162" s="72"/>
-      <c r="D162" s="55" t="s">
+      <c r="D162" s="52" t="s">
         <v>283</v>
       </c>
       <c r="E162" s="72"/>
       <c r="F162" s="20"/>
       <c r="G162" s="20"/>
     </row>
-    <row r="163" spans="1:7" ht="56.25" customHeight="1">
+    <row r="163" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="B163" s="55" t="s">
+      <c r="B163" s="52" t="s">
         <v>285</v>
       </c>
       <c r="C163" s="72"/>
-      <c r="D163" s="55" t="s">
+      <c r="D163" s="52" t="s">
         <v>286</v>
       </c>
       <c r="E163" s="72"/>
       <c r="F163" s="20"/>
       <c r="G163" s="20"/>
     </row>
-    <row r="164" spans="1:7" ht="64.5" customHeight="1">
+    <row r="164" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="B164" s="55" t="s">
+      <c r="B164" s="52" t="s">
         <v>288</v>
       </c>
       <c r="C164" s="72"/>
-      <c r="D164" s="55" t="s">
+      <c r="D164" s="52" t="s">
         <v>231</v>
       </c>
       <c r="E164" s="72"/>
       <c r="F164" s="20"/>
       <c r="G164" s="20"/>
     </row>
-    <row r="165" spans="1:7" ht="48" customHeight="1">
+    <row r="165" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="B165" s="55" t="s">
+      <c r="B165" s="52" t="s">
         <v>290</v>
       </c>
       <c r="C165" s="72"/>
-      <c r="D165" s="55" t="s">
+      <c r="D165" s="52" t="s">
         <v>231</v>
       </c>
       <c r="E165" s="72"/>
       <c r="F165" s="20"/>
       <c r="G165" s="20"/>
     </row>
-    <row r="166" spans="1:7" ht="66" customHeight="1">
+    <row r="166" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="B166" s="55" t="s">
+      <c r="B166" s="52" t="s">
         <v>292</v>
       </c>
       <c r="C166" s="72"/>
-      <c r="D166" s="55" t="s">
+      <c r="D166" s="52" t="s">
         <v>231</v>
       </c>
       <c r="E166" s="72"/>
       <c r="F166" s="20"/>
       <c r="G166" s="20"/>
     </row>
-    <row r="167" spans="1:7" ht="54.75" customHeight="1">
+    <row r="167" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="B167" s="55" t="s">
+      <c r="B167" s="52" t="s">
         <v>294</v>
       </c>
-      <c r="C167" s="56"/>
-      <c r="D167" s="55" t="s">
+      <c r="C167" s="53"/>
+      <c r="D167" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E167" s="56"/>
+      <c r="E167" s="53"/>
       <c r="F167" s="40"/>
       <c r="G167" s="40"/>
     </row>
-    <row r="168" spans="1:7" ht="46.5" customHeight="1">
+    <row r="168" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="B168" s="55" t="s">
+      <c r="B168" s="52" t="s">
         <v>296</v>
       </c>
-      <c r="C168" s="56"/>
-      <c r="D168" s="55" t="s">
+      <c r="C168" s="53"/>
+      <c r="D168" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E168" s="56"/>
+      <c r="E168" s="53"/>
       <c r="F168" s="40"/>
       <c r="G168" s="40"/>
     </row>
-    <row r="169" spans="1:7" ht="18" customHeight="1">
-      <c r="A169" s="50" t="s">
+    <row r="169" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="B169" s="51"/>
+      <c r="B169" s="54"/>
       <c r="C169" s="30" t="s">
         <v>104</v>
       </c>
@@ -5039,11 +6374,11 @@
       <c r="F169" s="31"/>
       <c r="G169" s="32"/>
     </row>
-    <row r="170" spans="1:7" ht="24" customHeight="1">
-      <c r="A170" s="50" t="s">
+    <row r="170" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B170" s="51"/>
+      <c r="B170" s="54"/>
       <c r="C170" s="33">
         <v>43042</v>
       </c>
@@ -5052,11 +6387,11 @@
       <c r="F170" s="31"/>
       <c r="G170" s="32"/>
     </row>
-    <row r="171" spans="1:7">
-      <c r="A171" s="53" t="s">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="B171" s="54"/>
+      <c r="B171" s="48"/>
       <c r="C171" s="30" t="s">
         <v>105</v>
       </c>
@@ -5065,11 +6400,11 @@
       <c r="F171" s="31"/>
       <c r="G171" s="32"/>
     </row>
-    <row r="172" spans="1:7">
-      <c r="A172" s="53" t="s">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B172" s="54"/>
+      <c r="B172" s="48"/>
       <c r="C172" s="30" t="s">
         <v>98</v>
       </c>
@@ -5078,76 +6413,76 @@
       <c r="F172" s="31"/>
       <c r="G172" s="32"/>
     </row>
-    <row r="173" spans="1:7" ht="27.75" customHeight="1"/>
-    <row r="180" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A180" s="71" t="s">
+    <row r="173" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="B180" s="71"/>
-      <c r="C180" s="71"/>
-      <c r="D180" s="71"/>
-      <c r="E180" s="71"/>
-      <c r="F180" s="71"/>
-      <c r="G180" s="71"/>
-    </row>
-    <row r="181" spans="1:7" ht="15" thickTop="1">
-      <c r="A181" s="57" t="s">
+      <c r="B180" s="57"/>
+      <c r="C180" s="57"/>
+      <c r="D180" s="57"/>
+      <c r="E180" s="57"/>
+      <c r="F180" s="57"/>
+      <c r="G180" s="57"/>
+    </row>
+    <row r="181" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B181" s="58"/>
-      <c r="C181" s="59" t="s">
+      <c r="B181" s="59"/>
+      <c r="C181" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="D181" s="60"/>
-      <c r="E181" s="60"/>
-      <c r="F181" s="60"/>
-      <c r="G181" s="61"/>
-    </row>
-    <row r="182" spans="1:7">
-      <c r="A182" s="57" t="s">
+      <c r="D181" s="61"/>
+      <c r="E181" s="61"/>
+      <c r="F181" s="61"/>
+      <c r="G181" s="62"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="B182" s="58"/>
-      <c r="C182" s="62"/>
-      <c r="D182" s="63"/>
-      <c r="E182" s="63"/>
-      <c r="F182" s="63"/>
-      <c r="G182" s="64"/>
-    </row>
-    <row r="183" spans="1:7">
-      <c r="A183" s="57" t="s">
+      <c r="B182" s="59"/>
+      <c r="C182" s="63"/>
+      <c r="D182" s="64"/>
+      <c r="E182" s="64"/>
+      <c r="F182" s="64"/>
+      <c r="G182" s="65"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B183" s="58"/>
-      <c r="C183" s="65" t="s">
+      <c r="B183" s="59"/>
+      <c r="C183" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="D183" s="66"/>
-      <c r="E183" s="66"/>
-      <c r="F183" s="66"/>
-      <c r="G183" s="67"/>
-    </row>
-    <row r="184" spans="1:7">
-      <c r="A184" s="68"/>
-      <c r="B184" s="69"/>
-      <c r="C184" s="69"/>
-      <c r="D184" s="69"/>
-      <c r="E184" s="69"/>
-      <c r="F184" s="69"/>
-      <c r="G184" s="70"/>
-    </row>
-    <row r="185" spans="1:7">
+      <c r="D183" s="67"/>
+      <c r="E183" s="67"/>
+      <c r="F183" s="67"/>
+      <c r="G183" s="68"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" s="69"/>
+      <c r="B184" s="70"/>
+      <c r="C184" s="70"/>
+      <c r="D184" s="70"/>
+      <c r="E184" s="70"/>
+      <c r="F184" s="70"/>
+      <c r="G184" s="71"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B185" s="50" t="s">
+      <c r="B185" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="C185" s="51"/>
-      <c r="D185" s="50" t="s">
+      <c r="C185" s="54"/>
+      <c r="D185" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E185" s="51"/>
+      <c r="E185" s="54"/>
       <c r="F185" s="21" t="s">
         <v>70</v>
       </c>
@@ -5155,48 +6490,48 @@
         <v>72</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="51.75" customHeight="1">
+    <row r="186" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="B186" s="55" t="s">
+      <c r="B186" s="52" t="s">
         <v>348</v>
       </c>
-      <c r="C186" s="56"/>
-      <c r="D186" s="55" t="s">
+      <c r="C186" s="53"/>
+      <c r="D186" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="E186" s="56"/>
+      <c r="E186" s="53"/>
       <c r="F186" s="29"/>
       <c r="G186" s="29"/>
     </row>
-    <row r="187" spans="1:7" ht="57.75" customHeight="1">
+    <row r="187" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="B187" s="55" t="s">
+      <c r="B187" s="52" t="s">
         <v>350</v>
       </c>
-      <c r="C187" s="56"/>
-      <c r="D187" s="55" t="s">
+      <c r="C187" s="53"/>
+      <c r="D187" s="52" t="s">
         <v>351</v>
       </c>
-      <c r="E187" s="56"/>
+      <c r="E187" s="53"/>
       <c r="F187" s="29"/>
       <c r="G187" s="29"/>
     </row>
-    <row r="188" spans="1:7" ht="31.2" customHeight="1">
+    <row r="188" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="B188" s="55" t="s">
+      <c r="B188" s="52" t="s">
         <v>352</v>
       </c>
-      <c r="C188" s="56"/>
-      <c r="D188" s="55" t="s">
+      <c r="C188" s="53"/>
+      <c r="D188" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="E188" s="56"/>
+      <c r="E188" s="53"/>
       <c r="F188" s="29" t="s">
         <v>131</v>
       </c>
@@ -5204,187 +6539,187 @@
         <v>98</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="51" customHeight="1">
+    <row r="189" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="B189" s="55" t="s">
+      <c r="B189" s="52" t="s">
         <v>354</v>
       </c>
-      <c r="C189" s="56"/>
-      <c r="D189" s="55" t="s">
+      <c r="C189" s="53"/>
+      <c r="D189" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E189" s="56"/>
+      <c r="E189" s="53"/>
       <c r="F189" s="29"/>
       <c r="G189" s="29"/>
     </row>
-    <row r="190" spans="1:7" ht="43.5" customHeight="1">
+    <row r="190" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="B190" s="55" t="s">
+      <c r="B190" s="52" t="s">
         <v>355</v>
       </c>
-      <c r="C190" s="56"/>
-      <c r="D190" s="55" t="s">
+      <c r="C190" s="53"/>
+      <c r="D190" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E190" s="56"/>
+      <c r="E190" s="53"/>
       <c r="F190" s="29"/>
       <c r="G190" s="29"/>
     </row>
-    <row r="191" spans="1:7" ht="62.25" customHeight="1">
+    <row r="191" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="B191" s="55" t="s">
+      <c r="B191" s="52" t="s">
         <v>356</v>
       </c>
-      <c r="C191" s="56"/>
-      <c r="D191" s="55" t="s">
+      <c r="C191" s="53"/>
+      <c r="D191" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E191" s="56"/>
+      <c r="E191" s="53"/>
       <c r="F191" s="29"/>
       <c r="G191" s="29"/>
     </row>
-    <row r="192" spans="1:7" ht="45" customHeight="1">
+    <row r="192" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="B192" s="55" t="s">
+      <c r="B192" s="52" t="s">
         <v>361</v>
       </c>
-      <c r="C192" s="56"/>
-      <c r="D192" s="55" t="s">
+      <c r="C192" s="53"/>
+      <c r="D192" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E192" s="56"/>
+      <c r="E192" s="53"/>
       <c r="F192" s="29"/>
       <c r="G192" s="29"/>
     </row>
-    <row r="193" spans="1:7">
-      <c r="A193" s="53" t="s">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A193" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="B193" s="51"/>
-      <c r="C193" s="47" t="s">
+      <c r="B193" s="54"/>
+      <c r="C193" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="D193" s="48"/>
-      <c r="E193" s="48"/>
-      <c r="F193" s="48"/>
-      <c r="G193" s="49"/>
-    </row>
-    <row r="194" spans="1:7">
-      <c r="A194" s="50" t="s">
+      <c r="D193" s="50"/>
+      <c r="E193" s="50"/>
+      <c r="F193" s="50"/>
+      <c r="G193" s="51"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A194" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B194" s="51"/>
-      <c r="C194" s="52">
+      <c r="B194" s="54"/>
+      <c r="C194" s="56">
         <v>43046</v>
       </c>
-      <c r="D194" s="48"/>
-      <c r="E194" s="48"/>
-      <c r="F194" s="48"/>
-      <c r="G194" s="49"/>
-    </row>
-    <row r="195" spans="1:7">
-      <c r="A195" s="53" t="s">
+      <c r="D194" s="50"/>
+      <c r="E194" s="50"/>
+      <c r="F194" s="50"/>
+      <c r="G194" s="51"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A195" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="B195" s="51"/>
-      <c r="C195" s="47" t="s">
+      <c r="B195" s="54"/>
+      <c r="C195" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="D195" s="48"/>
-      <c r="E195" s="48"/>
-      <c r="F195" s="48"/>
-      <c r="G195" s="49"/>
-    </row>
-    <row r="196" spans="1:7">
-      <c r="A196" s="53" t="s">
+      <c r="D195" s="50"/>
+      <c r="E195" s="50"/>
+      <c r="F195" s="50"/>
+      <c r="G195" s="51"/>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A196" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B196" s="54"/>
-      <c r="C196" s="47" t="s">
+      <c r="B196" s="48"/>
+      <c r="C196" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D196" s="48"/>
-      <c r="E196" s="48"/>
-      <c r="F196" s="48"/>
-      <c r="G196" s="49"/>
-    </row>
-    <row r="200" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A200" s="71" t="s">
-        <v>186</v>
-      </c>
-      <c r="B200" s="71"/>
-      <c r="C200" s="71"/>
-      <c r="D200" s="71"/>
-      <c r="E200" s="71"/>
-      <c r="F200" s="71"/>
-      <c r="G200" s="71"/>
-    </row>
-    <row r="201" spans="1:7" ht="15" thickTop="1">
-      <c r="A201" s="57" t="s">
+      <c r="D196" s="50"/>
+      <c r="E196" s="50"/>
+      <c r="F196" s="50"/>
+      <c r="G196" s="51"/>
+    </row>
+    <row r="200" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="57" t="s">
+        <v>373</v>
+      </c>
+      <c r="B200" s="57"/>
+      <c r="C200" s="57"/>
+      <c r="D200" s="57"/>
+      <c r="E200" s="57"/>
+      <c r="F200" s="57"/>
+      <c r="G200" s="57"/>
+    </row>
+    <row r="201" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="B201" s="58"/>
-      <c r="C201" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="D201" s="60"/>
-      <c r="E201" s="60"/>
-      <c r="F201" s="60"/>
-      <c r="G201" s="61"/>
-    </row>
-    <row r="202" spans="1:7">
-      <c r="A202" s="57" t="s">
+      <c r="B201" s="80"/>
+      <c r="C201" s="76" t="s">
+        <v>374</v>
+      </c>
+      <c r="D201" s="77"/>
+      <c r="E201" s="77"/>
+      <c r="F201" s="77"/>
+      <c r="G201" s="78"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A202" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="B202" s="58"/>
-      <c r="C202" s="62"/>
-      <c r="D202" s="63"/>
-      <c r="E202" s="63"/>
-      <c r="F202" s="63"/>
-      <c r="G202" s="64"/>
-    </row>
-    <row r="203" spans="1:7">
-      <c r="A203" s="57" t="s">
+      <c r="B202" s="59"/>
+      <c r="C202" s="63"/>
+      <c r="D202" s="64"/>
+      <c r="E202" s="64"/>
+      <c r="F202" s="64"/>
+      <c r="G202" s="65"/>
+    </row>
+    <row r="203" spans="1:7" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B203" s="58"/>
-      <c r="C203" s="65" t="s">
-        <v>152</v>
-      </c>
-      <c r="D203" s="66"/>
-      <c r="E203" s="66"/>
-      <c r="F203" s="66"/>
-      <c r="G203" s="67"/>
-    </row>
-    <row r="204" spans="1:7">
-      <c r="A204" s="68"/>
-      <c r="B204" s="69"/>
-      <c r="C204" s="69"/>
-      <c r="D204" s="69"/>
-      <c r="E204" s="69"/>
-      <c r="F204" s="69"/>
-      <c r="G204" s="70"/>
-    </row>
-    <row r="205" spans="1:7">
+      <c r="B203" s="59"/>
+      <c r="C203" s="66" t="s">
+        <v>375</v>
+      </c>
+      <c r="D203" s="74"/>
+      <c r="E203" s="74"/>
+      <c r="F203" s="74"/>
+      <c r="G203" s="75"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A204" s="82"/>
+      <c r="B204" s="83"/>
+      <c r="C204" s="83"/>
+      <c r="D204" s="83"/>
+      <c r="E204" s="83"/>
+      <c r="F204" s="83"/>
+      <c r="G204" s="84"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B205" s="50" t="s">
+      <c r="B205" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="C205" s="51"/>
-      <c r="D205" s="50" t="s">
+      <c r="C205" s="54"/>
+      <c r="D205" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E205" s="51"/>
+      <c r="E205" s="54"/>
       <c r="F205" s="21" t="s">
         <v>70</v>
       </c>
@@ -5392,344 +6727,389 @@
         <v>72</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="63" customHeight="1">
-      <c r="A206" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="B206" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="C206" s="56"/>
-      <c r="D206" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="E206" s="56"/>
-      <c r="F206" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="G206" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A207" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="B207" s="55" t="s">
-        <v>359</v>
-      </c>
-      <c r="C207" s="56"/>
-      <c r="D207" s="55" t="s">
-        <v>231</v>
-      </c>
-      <c r="E207" s="56"/>
-      <c r="F207" s="29"/>
-      <c r="G207" s="29"/>
-    </row>
-    <row r="208" spans="1:7" ht="57" customHeight="1">
-      <c r="A208" s="26" t="s">
-        <v>188</v>
-      </c>
-      <c r="B208" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="C208" s="56"/>
-      <c r="D208" s="55" t="s">
-        <v>362</v>
-      </c>
-      <c r="E208" s="56"/>
-      <c r="F208" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="G208" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
-      <c r="A209" s="53" t="s">
+    <row r="206" spans="1:7" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="94" t="s">
+        <v>376</v>
+      </c>
+      <c r="B206" s="52" t="s">
+        <v>377</v>
+      </c>
+      <c r="C206" s="72"/>
+      <c r="D206" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="E206" s="72"/>
+      <c r="F206" s="27"/>
+      <c r="G206" s="27"/>
+    </row>
+    <row r="207" spans="1:7" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="94" t="s">
+        <v>379</v>
+      </c>
+      <c r="B207" s="52" t="s">
+        <v>380</v>
+      </c>
+      <c r="C207" s="72"/>
+      <c r="D207" s="52" t="s">
+        <v>381</v>
+      </c>
+      <c r="E207" s="72"/>
+      <c r="F207" s="27"/>
+      <c r="G207" s="27"/>
+    </row>
+    <row r="208" spans="1:7" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="94" t="s">
+        <v>382</v>
+      </c>
+      <c r="B208" s="52" t="s">
+        <v>383</v>
+      </c>
+      <c r="C208" s="72"/>
+      <c r="D208" s="52" t="s">
+        <v>384</v>
+      </c>
+      <c r="E208" s="72"/>
+      <c r="F208" s="27"/>
+      <c r="G208" s="27"/>
+    </row>
+    <row r="209" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="94" t="s">
+        <v>385</v>
+      </c>
+      <c r="B209" s="52" t="s">
+        <v>427</v>
+      </c>
+      <c r="C209" s="72"/>
+      <c r="D209" s="52" t="s">
+        <v>386</v>
+      </c>
+      <c r="E209" s="72"/>
+      <c r="F209" s="27"/>
+      <c r="G209" s="27"/>
+    </row>
+    <row r="210" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="94" t="s">
+        <v>387</v>
+      </c>
+      <c r="B210" s="52" t="s">
+        <v>388</v>
+      </c>
+      <c r="C210" s="72"/>
+      <c r="D210" s="52" t="s">
+        <v>389</v>
+      </c>
+      <c r="E210" s="72"/>
+      <c r="F210" s="27"/>
+      <c r="G210" s="27"/>
+    </row>
+    <row r="211" spans="1:7" ht="166.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="94" t="s">
+        <v>390</v>
+      </c>
+      <c r="B211" s="52" t="s">
+        <v>391</v>
+      </c>
+      <c r="C211" s="72"/>
+      <c r="D211" s="52" t="s">
+        <v>389</v>
+      </c>
+      <c r="E211" s="72"/>
+      <c r="F211" s="27"/>
+      <c r="G211" s="27"/>
+    </row>
+    <row r="212" spans="1:7" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="94" t="s">
+        <v>392</v>
+      </c>
+      <c r="B212" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="C212" s="72"/>
+      <c r="D212" s="52" t="s">
+        <v>394</v>
+      </c>
+      <c r="E212" s="72"/>
+      <c r="F212" s="95"/>
+      <c r="G212" s="95"/>
+    </row>
+    <row r="213" spans="1:7" ht="195" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="94" t="s">
+        <v>395</v>
+      </c>
+      <c r="B213" s="52" t="s">
+        <v>396</v>
+      </c>
+      <c r="C213" s="72"/>
+      <c r="D213" s="52" t="s">
+        <v>397</v>
+      </c>
+      <c r="E213" s="72"/>
+      <c r="F213" s="95"/>
+      <c r="G213" s="95"/>
+    </row>
+    <row r="214" spans="1:7" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="94" t="s">
+        <v>398</v>
+      </c>
+      <c r="B214" s="52" t="s">
+        <v>399</v>
+      </c>
+      <c r="C214" s="72"/>
+      <c r="D214" s="52" t="s">
+        <v>400</v>
+      </c>
+      <c r="E214" s="72"/>
+      <c r="F214" s="95"/>
+      <c r="G214" s="95"/>
+    </row>
+    <row r="215" spans="1:7" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="94" t="s">
+        <v>401</v>
+      </c>
+      <c r="B215" s="96" t="s">
+        <v>402</v>
+      </c>
+      <c r="C215" s="72"/>
+      <c r="D215" s="52" t="s">
+        <v>403</v>
+      </c>
+      <c r="E215" s="72"/>
+      <c r="F215" s="95"/>
+      <c r="G215" s="95"/>
+    </row>
+    <row r="216" spans="1:7" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="94" t="s">
+        <v>404</v>
+      </c>
+      <c r="B216" s="96" t="s">
+        <v>405</v>
+      </c>
+      <c r="C216" s="72"/>
+      <c r="D216" s="52" t="s">
+        <v>406</v>
+      </c>
+      <c r="E216" s="72"/>
+      <c r="F216" s="95"/>
+      <c r="G216" s="95"/>
+    </row>
+    <row r="217" spans="1:7" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="94" t="s">
+        <v>407</v>
+      </c>
+      <c r="B217" s="96" t="s">
+        <v>408</v>
+      </c>
+      <c r="C217" s="72"/>
+      <c r="D217" s="52" t="s">
+        <v>409</v>
+      </c>
+      <c r="E217" s="72"/>
+      <c r="F217" s="95"/>
+      <c r="G217" s="95"/>
+    </row>
+    <row r="218" spans="1:7" ht="196.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="94" t="s">
+        <v>410</v>
+      </c>
+      <c r="B218" s="52" t="s">
+        <v>411</v>
+      </c>
+      <c r="C218" s="72"/>
+      <c r="D218" s="52" t="s">
+        <v>412</v>
+      </c>
+      <c r="E218" s="72"/>
+      <c r="F218" s="95"/>
+      <c r="G218" s="95"/>
+    </row>
+    <row r="219" spans="1:7" ht="253.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="97" t="s">
+        <v>413</v>
+      </c>
+      <c r="B219" s="52" t="s">
+        <v>414</v>
+      </c>
+      <c r="C219" s="72"/>
+      <c r="D219" s="52" t="s">
+        <v>415</v>
+      </c>
+      <c r="E219" s="72"/>
+      <c r="F219" s="95"/>
+      <c r="G219" s="95"/>
+    </row>
+    <row r="220" spans="1:7" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="98" t="s">
+        <v>416</v>
+      </c>
+      <c r="B220" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="C220" s="72"/>
+      <c r="D220" s="52" t="s">
+        <v>418</v>
+      </c>
+      <c r="E220" s="72"/>
+      <c r="F220" s="95"/>
+      <c r="G220" s="95"/>
+    </row>
+    <row r="221" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="98" t="s">
+        <v>419</v>
+      </c>
+      <c r="B221" s="52" t="s">
+        <v>420</v>
+      </c>
+      <c r="C221" s="72"/>
+      <c r="D221" s="52" t="s">
+        <v>421</v>
+      </c>
+      <c r="E221" s="72"/>
+      <c r="F221" s="95"/>
+      <c r="G221" s="95"/>
+    </row>
+    <row r="222" spans="1:7" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="98" t="s">
+        <v>422</v>
+      </c>
+      <c r="B222" s="52" t="s">
+        <v>423</v>
+      </c>
+      <c r="C222" s="72"/>
+      <c r="D222" s="52" t="s">
+        <v>415</v>
+      </c>
+      <c r="E222" s="72"/>
+      <c r="F222" s="95"/>
+      <c r="G222" s="95"/>
+    </row>
+    <row r="223" spans="1:7" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="98" t="s">
+        <v>424</v>
+      </c>
+      <c r="B223" s="52" t="s">
+        <v>425</v>
+      </c>
+      <c r="C223" s="72"/>
+      <c r="D223" s="52" t="s">
+        <v>426</v>
+      </c>
+      <c r="E223" s="72"/>
+      <c r="F223" s="95"/>
+      <c r="G223" s="95"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A224" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="B209" s="51"/>
-      <c r="C209" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="D209" s="48"/>
-      <c r="E209" s="48"/>
-      <c r="F209" s="48"/>
-      <c r="G209" s="49"/>
-    </row>
-    <row r="210" spans="1:7">
-      <c r="A210" s="50" t="s">
+      <c r="B224" s="48"/>
+      <c r="C224" s="82"/>
+      <c r="D224" s="83"/>
+      <c r="E224" s="83"/>
+      <c r="F224" s="83"/>
+      <c r="G224" s="84"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A225" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B210" s="51"/>
-      <c r="C210" s="52">
-        <v>43047</v>
-      </c>
-      <c r="D210" s="48"/>
-      <c r="E210" s="48"/>
-      <c r="F210" s="48"/>
-      <c r="G210" s="49"/>
-    </row>
-    <row r="211" spans="1:7">
-      <c r="A211" s="53" t="s">
+      <c r="B225" s="54"/>
+      <c r="C225" s="82"/>
+      <c r="D225" s="83"/>
+      <c r="E225" s="83"/>
+      <c r="F225" s="83"/>
+      <c r="G225" s="84"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A226" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="B211" s="51"/>
-      <c r="C211" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="D211" s="48"/>
-      <c r="E211" s="48"/>
-      <c r="F211" s="48"/>
-      <c r="G211" s="49"/>
-    </row>
-    <row r="212" spans="1:7">
-      <c r="A212" s="53" t="s">
+      <c r="B226" s="48"/>
+      <c r="C226" s="82"/>
+      <c r="D226" s="83"/>
+      <c r="E226" s="83"/>
+      <c r="F226" s="83"/>
+      <c r="G226" s="84"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A227" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B212" s="54"/>
-      <c r="C212" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="D212" s="48"/>
-      <c r="E212" s="48"/>
-      <c r="F212" s="48"/>
-      <c r="G212" s="49"/>
-    </row>
-    <row r="216" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A216" s="71" t="s">
-        <v>189</v>
-      </c>
-      <c r="B216" s="71"/>
-      <c r="C216" s="71"/>
-      <c r="D216" s="71"/>
-      <c r="E216" s="71"/>
-      <c r="F216" s="71"/>
-      <c r="G216" s="71"/>
-    </row>
-    <row r="217" spans="1:7" ht="15" thickTop="1">
-      <c r="A217" s="57" t="s">
+      <c r="B227" s="48"/>
+      <c r="C227" s="82"/>
+      <c r="D227" s="83"/>
+      <c r="E227" s="83"/>
+      <c r="F227" s="83"/>
+      <c r="G227" s="84"/>
+    </row>
+    <row r="231" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="57" t="s">
+        <v>428</v>
+      </c>
+      <c r="B231" s="57"/>
+      <c r="C231" s="57"/>
+      <c r="D231" s="57"/>
+      <c r="E231" s="57"/>
+      <c r="F231" s="57"/>
+      <c r="G231" s="57"/>
+    </row>
+    <row r="232" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="B217" s="58"/>
-      <c r="C217" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="D217" s="60"/>
-      <c r="E217" s="60"/>
-      <c r="F217" s="60"/>
-      <c r="G217" s="61"/>
-    </row>
-    <row r="218" spans="1:7">
-      <c r="A218" s="57" t="s">
+      <c r="B232" s="80"/>
+      <c r="C232" s="76" t="s">
+        <v>429</v>
+      </c>
+      <c r="D232" s="77"/>
+      <c r="E232" s="77"/>
+      <c r="F232" s="77"/>
+      <c r="G232" s="78"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A233" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="B218" s="58"/>
-      <c r="C218" s="62"/>
-      <c r="D218" s="63"/>
-      <c r="E218" s="63"/>
-      <c r="F218" s="63"/>
-      <c r="G218" s="64"/>
-    </row>
-    <row r="219" spans="1:7">
-      <c r="A219" s="57" t="s">
+      <c r="B233" s="59"/>
+      <c r="C233" s="63"/>
+      <c r="D233" s="64"/>
+      <c r="E233" s="64"/>
+      <c r="F233" s="64"/>
+      <c r="G233" s="65"/>
+    </row>
+    <row r="234" spans="1:7" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B219" s="58"/>
-      <c r="C219" s="65" t="s">
-        <v>152</v>
-      </c>
-      <c r="D219" s="66"/>
-      <c r="E219" s="66"/>
-      <c r="F219" s="66"/>
-      <c r="G219" s="67"/>
-    </row>
-    <row r="220" spans="1:7">
-      <c r="A220" s="68"/>
-      <c r="B220" s="69"/>
-      <c r="C220" s="69"/>
-      <c r="D220" s="69"/>
-      <c r="E220" s="69"/>
-      <c r="F220" s="69"/>
-      <c r="G220" s="70"/>
-    </row>
-    <row r="221" spans="1:7">
-      <c r="A221" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B221" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C221" s="51"/>
-      <c r="D221" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="E221" s="51"/>
-      <c r="F221" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G221" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" ht="70.95" customHeight="1">
-      <c r="A222" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="B222" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="C222" s="56"/>
-      <c r="D222" s="55" t="s">
-        <v>192</v>
-      </c>
-      <c r="E222" s="56"/>
-      <c r="F222" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="G222" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" ht="66.599999999999994" customHeight="1">
-      <c r="A223" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="B223" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="C223" s="56"/>
-      <c r="D223" s="55" t="s">
-        <v>363</v>
-      </c>
-      <c r="E223" s="56"/>
-      <c r="F223" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="G223" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7">
-      <c r="A224" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="B224" s="51"/>
-      <c r="C224" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="D224" s="48"/>
-      <c r="E224" s="48"/>
-      <c r="F224" s="48"/>
-      <c r="G224" s="49"/>
-    </row>
-    <row r="225" spans="1:7">
-      <c r="A225" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="B225" s="51"/>
-      <c r="C225" s="52">
-        <v>43047</v>
-      </c>
-      <c r="D225" s="48"/>
-      <c r="E225" s="48"/>
-      <c r="F225" s="48"/>
-      <c r="G225" s="49"/>
-    </row>
-    <row r="226" spans="1:7">
-      <c r="A226" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="B226" s="51"/>
-      <c r="C226" s="47" t="s">
-        <v>198</v>
-      </c>
-      <c r="D226" s="48"/>
-      <c r="E226" s="48"/>
-      <c r="F226" s="48"/>
-      <c r="G226" s="49"/>
-    </row>
-    <row r="227" spans="1:7">
-      <c r="A227" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="B227" s="54"/>
-      <c r="C227" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="D227" s="48"/>
-      <c r="E227" s="48"/>
-      <c r="F227" s="48"/>
-      <c r="G227" s="49"/>
-    </row>
-    <row r="231" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A231" s="71" t="s">
-        <v>212</v>
-      </c>
-      <c r="B231" s="71"/>
-      <c r="C231" s="71"/>
-      <c r="D231" s="71"/>
-      <c r="E231" s="71"/>
-      <c r="F231" s="71"/>
-      <c r="G231" s="71"/>
-    </row>
-    <row r="232" spans="1:7" ht="15" thickTop="1">
-      <c r="A232" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="B232" s="58"/>
-      <c r="C232" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="D232" s="60"/>
-      <c r="E232" s="60"/>
-      <c r="F232" s="60"/>
-      <c r="G232" s="61"/>
-    </row>
-    <row r="233" spans="1:7">
-      <c r="A233" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="B233" s="58"/>
-      <c r="C233" s="62"/>
-      <c r="D233" s="63"/>
-      <c r="E233" s="63"/>
-      <c r="F233" s="63"/>
-      <c r="G233" s="64"/>
-    </row>
-    <row r="234" spans="1:7">
-      <c r="A234" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="B234" s="58"/>
-      <c r="C234" s="65"/>
-      <c r="D234" s="66"/>
-      <c r="E234" s="66"/>
-      <c r="F234" s="66"/>
-      <c r="G234" s="67"/>
-    </row>
-    <row r="235" spans="1:7">
-      <c r="A235" s="68"/>
-      <c r="B235" s="69"/>
-      <c r="C235" s="69"/>
-      <c r="D235" s="69"/>
-      <c r="E235" s="69"/>
-      <c r="F235" s="69"/>
-      <c r="G235" s="70"/>
-    </row>
-    <row r="236" spans="1:7">
+      <c r="B234" s="59"/>
+      <c r="C234" s="66" t="s">
+        <v>430</v>
+      </c>
+      <c r="D234" s="74"/>
+      <c r="E234" s="74"/>
+      <c r="F234" s="74"/>
+      <c r="G234" s="75"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A235" s="82"/>
+      <c r="B235" s="83"/>
+      <c r="C235" s="83"/>
+      <c r="D235" s="83"/>
+      <c r="E235" s="83"/>
+      <c r="F235" s="83"/>
+      <c r="G235" s="84"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B236" s="50" t="s">
+      <c r="B236" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="C236" s="51"/>
-      <c r="D236" s="50" t="s">
+      <c r="C236" s="54"/>
+      <c r="D236" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E236" s="51"/>
+      <c r="E236" s="54"/>
       <c r="F236" s="21" t="s">
         <v>70</v>
       </c>
@@ -5737,1151 +7117,1740 @@
         <v>72</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="105.6" customHeight="1">
-      <c r="A237" s="26" t="s">
+    <row r="237" spans="1:7" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="99" t="s">
+        <v>431</v>
+      </c>
+      <c r="B237" s="100" t="s">
+        <v>432</v>
+      </c>
+      <c r="C237" s="100"/>
+      <c r="D237" s="100" t="s">
+        <v>433</v>
+      </c>
+      <c r="E237" s="100"/>
+      <c r="F237" s="101"/>
+      <c r="G237" s="101"/>
+    </row>
+    <row r="238" spans="1:7" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="99" t="s">
+        <v>434</v>
+      </c>
+      <c r="B238" s="100" t="s">
+        <v>435</v>
+      </c>
+      <c r="C238" s="100"/>
+      <c r="D238" s="100" t="s">
+        <v>381</v>
+      </c>
+      <c r="E238" s="100"/>
+      <c r="F238" s="101"/>
+      <c r="G238" s="101"/>
+    </row>
+    <row r="239" spans="1:7" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="99" t="s">
+        <v>436</v>
+      </c>
+      <c r="B239" s="100" t="s">
+        <v>437</v>
+      </c>
+      <c r="C239" s="100"/>
+      <c r="D239" s="100" t="s">
+        <v>438</v>
+      </c>
+      <c r="E239" s="100"/>
+      <c r="F239" s="101"/>
+      <c r="G239" s="101"/>
+    </row>
+    <row r="240" spans="1:7" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="99" t="s">
+        <v>439</v>
+      </c>
+      <c r="B240" s="100" t="s">
+        <v>440</v>
+      </c>
+      <c r="C240" s="100"/>
+      <c r="D240" s="100" t="s">
+        <v>389</v>
+      </c>
+      <c r="E240" s="100"/>
+      <c r="F240" s="101"/>
+      <c r="G240" s="101"/>
+    </row>
+    <row r="241" spans="1:7" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="99" t="s">
+        <v>441</v>
+      </c>
+      <c r="B241" s="100" t="s">
+        <v>442</v>
+      </c>
+      <c r="C241" s="100"/>
+      <c r="D241" s="52" t="s">
+        <v>394</v>
+      </c>
+      <c r="E241" s="72"/>
+      <c r="F241" s="101"/>
+      <c r="G241" s="101"/>
+    </row>
+    <row r="242" spans="1:7" ht="224.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="99" t="s">
+        <v>443</v>
+      </c>
+      <c r="B242" s="100" t="s">
+        <v>444</v>
+      </c>
+      <c r="C242" s="100"/>
+      <c r="D242" s="52" t="s">
+        <v>445</v>
+      </c>
+      <c r="E242" s="72"/>
+      <c r="F242" s="101"/>
+      <c r="G242" s="101"/>
+    </row>
+    <row r="243" spans="1:7" ht="140.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="99" t="s">
+        <v>446</v>
+      </c>
+      <c r="B243" s="100" t="s">
+        <v>447</v>
+      </c>
+      <c r="C243" s="100"/>
+      <c r="D243" s="52" t="s">
+        <v>400</v>
+      </c>
+      <c r="E243" s="72"/>
+      <c r="F243" s="101"/>
+      <c r="G243" s="101"/>
+    </row>
+    <row r="244" spans="1:7" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="99" t="s">
+        <v>448</v>
+      </c>
+      <c r="B244" s="100" t="s">
+        <v>449</v>
+      </c>
+      <c r="C244" s="100"/>
+      <c r="D244" s="52" t="s">
+        <v>394</v>
+      </c>
+      <c r="E244" s="72"/>
+      <c r="F244" s="101"/>
+      <c r="G244" s="101"/>
+    </row>
+    <row r="245" spans="1:7" ht="254.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="99" t="s">
+        <v>450</v>
+      </c>
+      <c r="B245" s="100" t="s">
+        <v>451</v>
+      </c>
+      <c r="C245" s="100"/>
+      <c r="D245" s="52" t="s">
+        <v>452</v>
+      </c>
+      <c r="E245" s="72"/>
+      <c r="F245" s="101"/>
+      <c r="G245" s="101"/>
+    </row>
+    <row r="246" spans="1:7" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="99" t="s">
+        <v>453</v>
+      </c>
+      <c r="B246" s="100" t="s">
+        <v>454</v>
+      </c>
+      <c r="C246" s="100"/>
+      <c r="D246" s="52" t="s">
+        <v>400</v>
+      </c>
+      <c r="E246" s="72"/>
+      <c r="F246" s="101"/>
+      <c r="G246" s="101"/>
+    </row>
+    <row r="247" spans="1:7" ht="280.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="99" t="s">
+        <v>455</v>
+      </c>
+      <c r="B247" s="52" t="s">
+        <v>456</v>
+      </c>
+      <c r="C247" s="72"/>
+      <c r="D247" s="52" t="s">
+        <v>457</v>
+      </c>
+      <c r="E247" s="72"/>
+      <c r="F247" s="101"/>
+      <c r="G247" s="101"/>
+    </row>
+    <row r="248" spans="1:7" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="99" t="s">
+        <v>458</v>
+      </c>
+      <c r="B248" s="52" t="s">
+        <v>459</v>
+      </c>
+      <c r="C248" s="72"/>
+      <c r="D248" s="52" t="s">
+        <v>460</v>
+      </c>
+      <c r="E248" s="72"/>
+      <c r="F248" s="101"/>
+      <c r="G248" s="101"/>
+    </row>
+    <row r="249" spans="1:7" ht="138.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="99" t="s">
+        <v>461</v>
+      </c>
+      <c r="B249" s="52" t="s">
+        <v>462</v>
+      </c>
+      <c r="C249" s="72"/>
+      <c r="D249" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="E249" s="72"/>
+      <c r="F249" s="101"/>
+      <c r="G249" s="101"/>
+    </row>
+    <row r="250" spans="1:7" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="99" t="s">
+        <v>464</v>
+      </c>
+      <c r="B250" s="52" t="s">
+        <v>465</v>
+      </c>
+      <c r="C250" s="72"/>
+      <c r="D250" s="52" t="s">
+        <v>466</v>
+      </c>
+      <c r="E250" s="72"/>
+      <c r="F250" s="101"/>
+      <c r="G250" s="101"/>
+    </row>
+    <row r="251" spans="1:7" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="99" t="s">
+        <v>467</v>
+      </c>
+      <c r="B251" s="52" t="s">
+        <v>425</v>
+      </c>
+      <c r="C251" s="72"/>
+      <c r="D251" s="52" t="s">
+        <v>468</v>
+      </c>
+      <c r="E251" s="72"/>
+      <c r="F251" s="101"/>
+      <c r="G251" s="101"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B252" s="48"/>
+      <c r="C252" s="82"/>
+      <c r="D252" s="83"/>
+      <c r="E252" s="83"/>
+      <c r="F252" s="83"/>
+      <c r="G252" s="84"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A253" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B253" s="54"/>
+      <c r="C253" s="82"/>
+      <c r="D253" s="83"/>
+      <c r="E253" s="83"/>
+      <c r="F253" s="83"/>
+      <c r="G253" s="84"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A254" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B254" s="48"/>
+      <c r="C254" s="82"/>
+      <c r="D254" s="83"/>
+      <c r="E254" s="83"/>
+      <c r="F254" s="83"/>
+      <c r="G254" s="84"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A255" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B255" s="48"/>
+      <c r="C255" s="82"/>
+      <c r="D255" s="83"/>
+      <c r="E255" s="83"/>
+      <c r="F255" s="83"/>
+      <c r="G255" s="84"/>
+    </row>
+    <row r="260" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A260" s="57" t="s">
+        <v>186</v>
+      </c>
+      <c r="B260" s="57"/>
+      <c r="C260" s="57"/>
+      <c r="D260" s="57"/>
+      <c r="E260" s="57"/>
+      <c r="F260" s="57"/>
+      <c r="G260" s="57"/>
+    </row>
+    <row r="261" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B261" s="59"/>
+      <c r="C261" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="D261" s="61"/>
+      <c r="E261" s="61"/>
+      <c r="F261" s="61"/>
+      <c r="G261" s="62"/>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A262" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B262" s="59"/>
+      <c r="C262" s="63"/>
+      <c r="D262" s="64"/>
+      <c r="E262" s="64"/>
+      <c r="F262" s="64"/>
+      <c r="G262" s="65"/>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A263" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B263" s="59"/>
+      <c r="C263" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="D263" s="67"/>
+      <c r="E263" s="67"/>
+      <c r="F263" s="67"/>
+      <c r="G263" s="68"/>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A264" s="69"/>
+      <c r="B264" s="70"/>
+      <c r="C264" s="70"/>
+      <c r="D264" s="70"/>
+      <c r="E264" s="70"/>
+      <c r="F264" s="70"/>
+      <c r="G264" s="71"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A265" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B265" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C265" s="54"/>
+      <c r="D265" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E265" s="54"/>
+      <c r="F265" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G265" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B266" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="C266" s="53"/>
+      <c r="D266" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="E266" s="53"/>
+      <c r="F266" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="G266" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B267" s="52" t="s">
+        <v>359</v>
+      </c>
+      <c r="C267" s="53"/>
+      <c r="D267" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="E267" s="53"/>
+      <c r="F267" s="29"/>
+      <c r="G267" s="29"/>
+    </row>
+    <row r="268" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="B268" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="C268" s="53"/>
+      <c r="D268" s="52" t="s">
+        <v>362</v>
+      </c>
+      <c r="E268" s="53"/>
+      <c r="F268" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="G268" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A269" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B269" s="54"/>
+      <c r="C269" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="D269" s="50"/>
+      <c r="E269" s="50"/>
+      <c r="F269" s="50"/>
+      <c r="G269" s="51"/>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A270" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B270" s="54"/>
+      <c r="C270" s="56">
+        <v>43047</v>
+      </c>
+      <c r="D270" s="50"/>
+      <c r="E270" s="50"/>
+      <c r="F270" s="50"/>
+      <c r="G270" s="51"/>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A271" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B271" s="54"/>
+      <c r="C271" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D271" s="50"/>
+      <c r="E271" s="50"/>
+      <c r="F271" s="50"/>
+      <c r="G271" s="51"/>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A272" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B272" s="48"/>
+      <c r="C272" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D272" s="50"/>
+      <c r="E272" s="50"/>
+      <c r="F272" s="50"/>
+      <c r="G272" s="51"/>
+    </row>
+    <row r="276" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A276" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="B276" s="57"/>
+      <c r="C276" s="57"/>
+      <c r="D276" s="57"/>
+      <c r="E276" s="57"/>
+      <c r="F276" s="57"/>
+      <c r="G276" s="57"/>
+    </row>
+    <row r="277" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B277" s="59"/>
+      <c r="C277" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="D277" s="61"/>
+      <c r="E277" s="61"/>
+      <c r="F277" s="61"/>
+      <c r="G277" s="62"/>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A278" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B278" s="59"/>
+      <c r="C278" s="63"/>
+      <c r="D278" s="64"/>
+      <c r="E278" s="64"/>
+      <c r="F278" s="64"/>
+      <c r="G278" s="65"/>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A279" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B279" s="59"/>
+      <c r="C279" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="D279" s="67"/>
+      <c r="E279" s="67"/>
+      <c r="F279" s="67"/>
+      <c r="G279" s="68"/>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A280" s="69"/>
+      <c r="B280" s="70"/>
+      <c r="C280" s="70"/>
+      <c r="D280" s="70"/>
+      <c r="E280" s="70"/>
+      <c r="F280" s="70"/>
+      <c r="G280" s="71"/>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A281" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B281" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C281" s="54"/>
+      <c r="D281" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E281" s="54"/>
+      <c r="F281" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G281" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="70.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="B282" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="C282" s="53"/>
+      <c r="D282" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="E282" s="53"/>
+      <c r="F282" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="G282" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="B283" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="C283" s="53"/>
+      <c r="D283" s="52" t="s">
+        <v>363</v>
+      </c>
+      <c r="E283" s="53"/>
+      <c r="F283" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="G283" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A284" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="B284" s="54"/>
+      <c r="C284" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="D284" s="50"/>
+      <c r="E284" s="50"/>
+      <c r="F284" s="50"/>
+      <c r="G284" s="51"/>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A285" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B285" s="54"/>
+      <c r="C285" s="56">
+        <v>43047</v>
+      </c>
+      <c r="D285" s="50"/>
+      <c r="E285" s="50"/>
+      <c r="F285" s="50"/>
+      <c r="G285" s="51"/>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A286" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B286" s="54"/>
+      <c r="C286" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="D286" s="50"/>
+      <c r="E286" s="50"/>
+      <c r="F286" s="50"/>
+      <c r="G286" s="51"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A287" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="B287" s="48"/>
+      <c r="C287" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D287" s="50"/>
+      <c r="E287" s="50"/>
+      <c r="F287" s="50"/>
+      <c r="G287" s="51"/>
+    </row>
+    <row r="291" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="B291" s="57"/>
+      <c r="C291" s="57"/>
+      <c r="D291" s="57"/>
+      <c r="E291" s="57"/>
+      <c r="F291" s="57"/>
+      <c r="G291" s="57"/>
+    </row>
+    <row r="292" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B292" s="59"/>
+      <c r="C292" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="D292" s="61"/>
+      <c r="E292" s="61"/>
+      <c r="F292" s="61"/>
+      <c r="G292" s="62"/>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A293" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B293" s="59"/>
+      <c r="C293" s="63"/>
+      <c r="D293" s="64"/>
+      <c r="E293" s="64"/>
+      <c r="F293" s="64"/>
+      <c r="G293" s="65"/>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A294" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B294" s="59"/>
+      <c r="C294" s="66"/>
+      <c r="D294" s="67"/>
+      <c r="E294" s="67"/>
+      <c r="F294" s="67"/>
+      <c r="G294" s="68"/>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A295" s="69"/>
+      <c r="B295" s="70"/>
+      <c r="C295" s="70"/>
+      <c r="D295" s="70"/>
+      <c r="E295" s="70"/>
+      <c r="F295" s="70"/>
+      <c r="G295" s="71"/>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A296" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B296" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C296" s="54"/>
+      <c r="D296" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E296" s="54"/>
+      <c r="F296" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G296" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="B237" s="55" t="s">
+      <c r="B297" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="C237" s="56"/>
-      <c r="D237" s="55" t="s">
+      <c r="C297" s="53"/>
+      <c r="D297" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="E237" s="56"/>
-      <c r="F237" s="29" t="s">
+      <c r="E297" s="53"/>
+      <c r="F297" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="G237" s="29" t="s">
+      <c r="G297" s="29" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
-      <c r="A238" s="53" t="s">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A298" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="B238" s="51"/>
-      <c r="C238" s="47" t="s">
+      <c r="B298" s="54"/>
+      <c r="C298" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="D238" s="48"/>
-      <c r="E238" s="48"/>
-      <c r="F238" s="48"/>
-      <c r="G238" s="49"/>
-    </row>
-    <row r="239" spans="1:7">
-      <c r="A239" s="50" t="s">
+      <c r="D298" s="50"/>
+      <c r="E298" s="50"/>
+      <c r="F298" s="50"/>
+      <c r="G298" s="51"/>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A299" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B239" s="51"/>
-      <c r="C239" s="52">
+      <c r="B299" s="54"/>
+      <c r="C299" s="56">
         <v>43047</v>
       </c>
-      <c r="D239" s="48"/>
-      <c r="E239" s="48"/>
-      <c r="F239" s="48"/>
-      <c r="G239" s="49"/>
-    </row>
-    <row r="240" spans="1:7">
-      <c r="A240" s="53" t="s">
+      <c r="D299" s="50"/>
+      <c r="E299" s="50"/>
+      <c r="F299" s="50"/>
+      <c r="G299" s="51"/>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A300" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="B240" s="51"/>
-      <c r="C240" s="47" t="s">
+      <c r="B300" s="54"/>
+      <c r="C300" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="D240" s="48"/>
-      <c r="E240" s="48"/>
-      <c r="F240" s="48"/>
-      <c r="G240" s="49"/>
-    </row>
-    <row r="241" spans="1:7">
-      <c r="A241" s="53" t="s">
+      <c r="D300" s="50"/>
+      <c r="E300" s="50"/>
+      <c r="F300" s="50"/>
+      <c r="G300" s="51"/>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A301" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B241" s="54"/>
-      <c r="C241" s="47" t="s">
+      <c r="B301" s="48"/>
+      <c r="C301" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D241" s="48"/>
-      <c r="E241" s="48"/>
-      <c r="F241" s="48"/>
-      <c r="G241" s="49"/>
-    </row>
-    <row r="245" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A245" s="71" t="s">
+      <c r="D301" s="50"/>
+      <c r="E301" s="50"/>
+      <c r="F301" s="50"/>
+      <c r="G301" s="51"/>
+    </row>
+    <row r="305" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A305" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="B245" s="71"/>
-      <c r="C245" s="71"/>
-      <c r="D245" s="71"/>
-      <c r="E245" s="71"/>
-      <c r="F245" s="71"/>
-      <c r="G245" s="71"/>
-    </row>
-    <row r="246" spans="1:7" ht="15" thickTop="1">
-      <c r="A246" s="57" t="s">
+      <c r="B305" s="57"/>
+      <c r="C305" s="57"/>
+      <c r="D305" s="57"/>
+      <c r="E305" s="57"/>
+      <c r="F305" s="57"/>
+      <c r="G305" s="57"/>
+    </row>
+    <row r="306" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B246" s="58"/>
-      <c r="C246" s="59" t="s">
+      <c r="B306" s="59"/>
+      <c r="C306" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="D246" s="60"/>
-      <c r="E246" s="60"/>
-      <c r="F246" s="60"/>
-      <c r="G246" s="61"/>
-    </row>
-    <row r="247" spans="1:7">
-      <c r="A247" s="57" t="s">
+      <c r="D306" s="61"/>
+      <c r="E306" s="61"/>
+      <c r="F306" s="61"/>
+      <c r="G306" s="62"/>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A307" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="B247" s="58"/>
-      <c r="C247" s="62"/>
-      <c r="D247" s="63"/>
-      <c r="E247" s="63"/>
-      <c r="F247" s="63"/>
-      <c r="G247" s="64"/>
-    </row>
-    <row r="248" spans="1:7">
-      <c r="A248" s="57" t="s">
+      <c r="B307" s="59"/>
+      <c r="C307" s="63"/>
+      <c r="D307" s="64"/>
+      <c r="E307" s="64"/>
+      <c r="F307" s="64"/>
+      <c r="G307" s="65"/>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A308" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B248" s="58"/>
-      <c r="C248" s="65" t="s">
+      <c r="B308" s="59"/>
+      <c r="C308" s="66" t="s">
         <v>199</v>
       </c>
-      <c r="D248" s="66"/>
-      <c r="E248" s="66"/>
-      <c r="F248" s="66"/>
-      <c r="G248" s="67"/>
-    </row>
-    <row r="249" spans="1:7">
-      <c r="A249" s="68"/>
-      <c r="B249" s="69"/>
-      <c r="C249" s="69"/>
-      <c r="D249" s="69"/>
-      <c r="E249" s="69"/>
-      <c r="F249" s="69"/>
-      <c r="G249" s="70"/>
-    </row>
-    <row r="250" spans="1:7">
-      <c r="A250" s="22" t="s">
+      <c r="D308" s="67"/>
+      <c r="E308" s="67"/>
+      <c r="F308" s="67"/>
+      <c r="G308" s="68"/>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A309" s="69"/>
+      <c r="B309" s="70"/>
+      <c r="C309" s="70"/>
+      <c r="D309" s="70"/>
+      <c r="E309" s="70"/>
+      <c r="F309" s="70"/>
+      <c r="G309" s="71"/>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A310" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B250" s="50" t="s">
+      <c r="B310" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="C250" s="51"/>
-      <c r="D250" s="50" t="s">
+      <c r="C310" s="54"/>
+      <c r="D310" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E250" s="51"/>
-      <c r="F250" s="21" t="s">
+      <c r="E310" s="54"/>
+      <c r="F310" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G250" s="22" t="s">
+      <c r="G310" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="87" customHeight="1">
-      <c r="A251" s="26" t="s">
+    <row r="311" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="B251" s="55" t="s">
+      <c r="B311" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="C251" s="56"/>
-      <c r="D251" s="55" t="s">
+      <c r="C311" s="53"/>
+      <c r="D311" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="E251" s="56"/>
-      <c r="F251" s="29" t="s">
+      <c r="E311" s="53"/>
+      <c r="F311" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="G251" s="29" t="s">
+      <c r="G311" s="29" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="43.2" customHeight="1">
-      <c r="A252" s="26" t="s">
+    <row r="312" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="B252" s="55" t="s">
+      <c r="B312" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="C252" s="56"/>
-      <c r="D252" s="55" t="s">
+      <c r="C312" s="53"/>
+      <c r="D312" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="E252" s="56"/>
-      <c r="F252" s="29" t="s">
+      <c r="E312" s="53"/>
+      <c r="F312" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G252" s="29" t="s">
+      <c r="G312" s="29" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
-      <c r="A253" s="53" t="s">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A313" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="B253" s="51"/>
-      <c r="C253" s="47" t="s">
+      <c r="B313" s="54"/>
+      <c r="C313" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="D253" s="48"/>
-      <c r="E253" s="48"/>
-      <c r="F253" s="48"/>
-      <c r="G253" s="49"/>
-    </row>
-    <row r="254" spans="1:7">
-      <c r="A254" s="50" t="s">
+      <c r="D313" s="50"/>
+      <c r="E313" s="50"/>
+      <c r="F313" s="50"/>
+      <c r="G313" s="51"/>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A314" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B254" s="51"/>
-      <c r="C254" s="52">
+      <c r="B314" s="54"/>
+      <c r="C314" s="56">
         <v>43047</v>
       </c>
-      <c r="D254" s="48"/>
-      <c r="E254" s="48"/>
-      <c r="F254" s="48"/>
-      <c r="G254" s="49"/>
-    </row>
-    <row r="255" spans="1:7">
-      <c r="A255" s="53" t="s">
+      <c r="D314" s="50"/>
+      <c r="E314" s="50"/>
+      <c r="F314" s="50"/>
+      <c r="G314" s="51"/>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A315" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="B255" s="51"/>
-      <c r="C255" s="47" t="s">
+      <c r="B315" s="54"/>
+      <c r="C315" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="D255" s="48"/>
-      <c r="E255" s="48"/>
-      <c r="F255" s="48"/>
-      <c r="G255" s="49"/>
-    </row>
-    <row r="256" spans="1:7">
-      <c r="A256" s="53" t="s">
+      <c r="D315" s="50"/>
+      <c r="E315" s="50"/>
+      <c r="F315" s="50"/>
+      <c r="G315" s="51"/>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A316" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B256" s="54"/>
-      <c r="C256" s="47" t="s">
+      <c r="B316" s="48"/>
+      <c r="C316" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D256" s="48"/>
-      <c r="E256" s="48"/>
-      <c r="F256" s="48"/>
-      <c r="G256" s="49"/>
-    </row>
-    <row r="258" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A258" s="71" t="s">
+      <c r="D316" s="50"/>
+      <c r="E316" s="50"/>
+      <c r="F316" s="50"/>
+      <c r="G316" s="51"/>
+    </row>
+    <row r="318" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A318" s="57" t="s">
         <v>365</v>
       </c>
-      <c r="B258" s="71"/>
-      <c r="C258" s="71"/>
-      <c r="D258" s="71"/>
-      <c r="E258" s="71"/>
-      <c r="F258" s="71"/>
-      <c r="G258" s="71"/>
-    </row>
-    <row r="259" spans="1:7" ht="15" thickTop="1">
-      <c r="A259" s="57" t="s">
+      <c r="B318" s="57"/>
+      <c r="C318" s="57"/>
+      <c r="D318" s="57"/>
+      <c r="E318" s="57"/>
+      <c r="F318" s="57"/>
+      <c r="G318" s="57"/>
+    </row>
+    <row r="319" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B259" s="58"/>
-      <c r="C259" s="59" t="s">
+      <c r="B319" s="59"/>
+      <c r="C319" s="60" t="s">
         <v>366</v>
       </c>
-      <c r="D259" s="60"/>
-      <c r="E259" s="60"/>
-      <c r="F259" s="60"/>
-      <c r="G259" s="61"/>
-    </row>
-    <row r="260" spans="1:7">
-      <c r="A260" s="57" t="s">
+      <c r="D319" s="61"/>
+      <c r="E319" s="61"/>
+      <c r="F319" s="61"/>
+      <c r="G319" s="62"/>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A320" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="B260" s="58"/>
-      <c r="C260" s="62"/>
-      <c r="D260" s="63"/>
-      <c r="E260" s="63"/>
-      <c r="F260" s="63"/>
-      <c r="G260" s="64"/>
-    </row>
-    <row r="261" spans="1:7" ht="27" customHeight="1">
-      <c r="A261" s="57" t="s">
+      <c r="B320" s="59"/>
+      <c r="C320" s="63"/>
+      <c r="D320" s="64"/>
+      <c r="E320" s="64"/>
+      <c r="F320" s="64"/>
+      <c r="G320" s="65"/>
+    </row>
+    <row r="321" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B261" s="58"/>
-      <c r="C261" s="65" t="s">
+      <c r="B321" s="59"/>
+      <c r="C321" s="66" t="s">
         <v>367</v>
       </c>
-      <c r="D261" s="66"/>
-      <c r="E261" s="66"/>
-      <c r="F261" s="66"/>
-      <c r="G261" s="67"/>
-    </row>
-    <row r="262" spans="1:7">
-      <c r="A262" s="68"/>
-      <c r="B262" s="69"/>
-      <c r="C262" s="69"/>
-      <c r="D262" s="69"/>
-      <c r="E262" s="69"/>
-      <c r="F262" s="69"/>
-      <c r="G262" s="70"/>
-    </row>
-    <row r="263" spans="1:7">
-      <c r="A263" s="22" t="s">
+      <c r="D321" s="67"/>
+      <c r="E321" s="67"/>
+      <c r="F321" s="67"/>
+      <c r="G321" s="68"/>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A322" s="69"/>
+      <c r="B322" s="70"/>
+      <c r="C322" s="70"/>
+      <c r="D322" s="70"/>
+      <c r="E322" s="70"/>
+      <c r="F322" s="70"/>
+      <c r="G322" s="71"/>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A323" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B263" s="50" t="s">
+      <c r="B323" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="C263" s="51"/>
-      <c r="D263" s="50" t="s">
+      <c r="C323" s="54"/>
+      <c r="D323" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E263" s="51"/>
-      <c r="F263" s="21" t="s">
+      <c r="E323" s="54"/>
+      <c r="F323" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G263" s="22" t="s">
+      <c r="G323" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="87" customHeight="1">
-      <c r="A264" s="26" t="s">
+    <row r="324" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="B264" s="55" t="s">
+      <c r="B324" s="52" t="s">
         <v>368</v>
       </c>
-      <c r="C264" s="56"/>
-      <c r="D264" s="55" t="s">
+      <c r="C324" s="53"/>
+      <c r="D324" s="52" t="s">
         <v>369</v>
       </c>
-      <c r="E264" s="56"/>
-      <c r="F264" s="29" t="s">
+      <c r="E324" s="53"/>
+      <c r="F324" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="G264" s="29" t="s">
+      <c r="G324" s="29" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
-      <c r="A265" s="53" t="s">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A325" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="B265" s="51"/>
-      <c r="C265" s="47" t="s">
+      <c r="B325" s="54"/>
+      <c r="C325" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="D265" s="48"/>
-      <c r="E265" s="48"/>
-      <c r="F265" s="48"/>
-      <c r="G265" s="49"/>
-    </row>
-    <row r="266" spans="1:7">
-      <c r="A266" s="50" t="s">
+      <c r="D325" s="50"/>
+      <c r="E325" s="50"/>
+      <c r="F325" s="50"/>
+      <c r="G325" s="51"/>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A326" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B266" s="51"/>
-      <c r="C266" s="52">
+      <c r="B326" s="54"/>
+      <c r="C326" s="56">
         <v>43048</v>
       </c>
-      <c r="D266" s="48"/>
-      <c r="E266" s="48"/>
-      <c r="F266" s="48"/>
-      <c r="G266" s="49"/>
-    </row>
-    <row r="267" spans="1:7">
-      <c r="A267" s="53" t="s">
+      <c r="D326" s="50"/>
+      <c r="E326" s="50"/>
+      <c r="F326" s="50"/>
+      <c r="G326" s="51"/>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A327" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="B267" s="51"/>
-      <c r="C267" s="47" t="s">
+      <c r="B327" s="54"/>
+      <c r="C327" s="49" t="s">
         <v>371</v>
       </c>
-      <c r="D267" s="48"/>
-      <c r="E267" s="48"/>
-      <c r="F267" s="48"/>
-      <c r="G267" s="49"/>
-    </row>
-    <row r="268" spans="1:7">
-      <c r="A268" s="53" t="s">
+      <c r="D327" s="50"/>
+      <c r="E327" s="50"/>
+      <c r="F327" s="50"/>
+      <c r="G327" s="51"/>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A328" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B268" s="54"/>
-      <c r="C268" s="47" t="s">
+      <c r="B328" s="48"/>
+      <c r="C328" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D268" s="48"/>
-      <c r="E268" s="48"/>
-      <c r="F268" s="48"/>
-      <c r="G268" s="49"/>
-    </row>
-    <row r="271" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A271" s="71" t="s">
+      <c r="D328" s="50"/>
+      <c r="E328" s="50"/>
+      <c r="F328" s="50"/>
+      <c r="G328" s="51"/>
+    </row>
+    <row r="331" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A331" s="57" t="s">
         <v>297</v>
       </c>
-      <c r="B271" s="71"/>
-      <c r="C271" s="71"/>
-      <c r="D271" s="71"/>
-      <c r="E271" s="71"/>
-      <c r="F271" s="71"/>
-      <c r="G271" s="71"/>
-    </row>
-    <row r="272" spans="1:7" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A272" s="57" t="s">
+      <c r="B331" s="57"/>
+      <c r="C331" s="57"/>
+      <c r="D331" s="57"/>
+      <c r="E331" s="57"/>
+      <c r="F331" s="57"/>
+      <c r="G331" s="57"/>
+    </row>
+    <row r="332" spans="1:7" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B272" s="58"/>
-      <c r="C272" s="78" t="s">
+      <c r="B332" s="59"/>
+      <c r="C332" s="76" t="s">
         <v>298</v>
       </c>
-      <c r="D272" s="79"/>
-      <c r="E272" s="79"/>
-      <c r="F272" s="79"/>
-      <c r="G272" s="80"/>
-    </row>
-    <row r="273" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A273" s="57" t="s">
+      <c r="D332" s="77"/>
+      <c r="E332" s="77"/>
+      <c r="F332" s="77"/>
+      <c r="G332" s="78"/>
+    </row>
+    <row r="333" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="B273" s="58"/>
-      <c r="C273" s="90"/>
-      <c r="D273" s="66"/>
-      <c r="E273" s="66"/>
-      <c r="F273" s="66"/>
-      <c r="G273" s="67"/>
-    </row>
-    <row r="274" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A274" s="57" t="s">
+      <c r="B333" s="59"/>
+      <c r="C333" s="73"/>
+      <c r="D333" s="67"/>
+      <c r="E333" s="67"/>
+      <c r="F333" s="67"/>
+      <c r="G333" s="68"/>
+    </row>
+    <row r="334" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B274" s="58"/>
-      <c r="C274" s="65" t="s">
+      <c r="B334" s="59"/>
+      <c r="C334" s="66" t="s">
         <v>299</v>
       </c>
-      <c r="D274" s="81"/>
-      <c r="E274" s="81"/>
-      <c r="F274" s="81"/>
-      <c r="G274" s="82"/>
-    </row>
-    <row r="275" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A275" s="34"/>
-      <c r="B275" s="35"/>
-      <c r="C275" s="35"/>
-      <c r="D275" s="35"/>
-      <c r="E275" s="35"/>
-      <c r="F275" s="35"/>
-      <c r="G275" s="36"/>
-    </row>
-    <row r="276" spans="1:7" ht="56.25" customHeight="1">
-      <c r="A276" s="22" t="s">
+      <c r="D334" s="74"/>
+      <c r="E334" s="74"/>
+      <c r="F334" s="74"/>
+      <c r="G334" s="75"/>
+    </row>
+    <row r="335" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="34"/>
+      <c r="B335" s="35"/>
+      <c r="C335" s="35"/>
+      <c r="D335" s="35"/>
+      <c r="E335" s="35"/>
+      <c r="F335" s="35"/>
+      <c r="G335" s="36"/>
+    </row>
+    <row r="336" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B276" s="50" t="s">
+      <c r="B336" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="C276" s="51"/>
-      <c r="D276" s="50" t="s">
+      <c r="C336" s="54"/>
+      <c r="D336" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E276" s="51"/>
-      <c r="F276" s="21" t="s">
+      <c r="E336" s="54"/>
+      <c r="F336" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G276" s="22" t="s">
+      <c r="G336" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="56.25" customHeight="1">
-      <c r="A277" s="26" t="s">
+    <row r="337" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="B277" s="55" t="s">
+      <c r="B337" s="52" t="s">
         <v>301</v>
       </c>
-      <c r="C277" s="72"/>
-      <c r="D277" s="55" t="s">
+      <c r="C337" s="72"/>
+      <c r="D337" s="52" t="s">
         <v>302</v>
       </c>
-      <c r="E277" s="56"/>
-      <c r="F277" s="29"/>
-      <c r="G277" s="29"/>
-    </row>
-    <row r="278" spans="1:7" ht="56.25" customHeight="1">
-      <c r="A278" s="26" t="s">
+      <c r="E337" s="53"/>
+      <c r="F337" s="29"/>
+      <c r="G337" s="29"/>
+    </row>
+    <row r="338" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="B278" s="55" t="s">
+      <c r="B338" s="52" t="s">
         <v>304</v>
       </c>
-      <c r="C278" s="72"/>
-      <c r="D278" s="55" t="s">
+      <c r="C338" s="72"/>
+      <c r="D338" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E278" s="72"/>
-      <c r="F278" s="29"/>
-      <c r="G278" s="29"/>
-    </row>
-    <row r="279" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A279" s="26" t="s">
+      <c r="E338" s="72"/>
+      <c r="F338" s="29"/>
+      <c r="G338" s="29"/>
+    </row>
+    <row r="339" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="B279" s="55" t="s">
+      <c r="B339" s="52" t="s">
         <v>306</v>
       </c>
-      <c r="C279" s="72"/>
-      <c r="D279" s="55" t="s">
+      <c r="C339" s="72"/>
+      <c r="D339" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E279" s="72"/>
-      <c r="F279" s="29"/>
-      <c r="G279" s="29"/>
-    </row>
-    <row r="280" spans="1:7" ht="36" customHeight="1">
-      <c r="A280" s="26" t="s">
+      <c r="E339" s="72"/>
+      <c r="F339" s="29"/>
+      <c r="G339" s="29"/>
+    </row>
+    <row r="340" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="B280" s="55" t="s">
+      <c r="B340" s="52" t="s">
         <v>308</v>
       </c>
-      <c r="C280" s="72"/>
-      <c r="D280" s="55" t="s">
+      <c r="C340" s="72"/>
+      <c r="D340" s="52" t="s">
         <v>309</v>
       </c>
-      <c r="E280" s="56"/>
-      <c r="F280" s="29"/>
-      <c r="G280" s="29"/>
-    </row>
-    <row r="281" spans="1:7" ht="36" customHeight="1">
-      <c r="A281" s="26" t="s">
+      <c r="E340" s="53"/>
+      <c r="F340" s="29"/>
+      <c r="G340" s="29"/>
+    </row>
+    <row r="341" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="B281" s="55" t="s">
+      <c r="B341" s="52" t="s">
         <v>311</v>
       </c>
-      <c r="C281" s="72"/>
-      <c r="D281" s="55" t="s">
+      <c r="C341" s="72"/>
+      <c r="D341" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E281" s="72"/>
-      <c r="F281" s="29"/>
-      <c r="G281" s="29"/>
-    </row>
-    <row r="282" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A282" s="26" t="s">
+      <c r="E341" s="72"/>
+      <c r="F341" s="29"/>
+      <c r="G341" s="29"/>
+    </row>
+    <row r="342" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="B282" s="55" t="s">
+      <c r="B342" s="52" t="s">
         <v>313</v>
       </c>
-      <c r="C282" s="72"/>
-      <c r="D282" s="55" t="s">
+      <c r="C342" s="72"/>
+      <c r="D342" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E282" s="72"/>
-      <c r="F282" s="29"/>
-      <c r="G282" s="29"/>
-    </row>
-    <row r="283" spans="1:7" ht="15" customHeight="1">
-      <c r="A283" s="53" t="s">
+      <c r="E342" s="72"/>
+      <c r="F342" s="29"/>
+      <c r="G342" s="29"/>
+    </row>
+    <row r="343" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="B283" s="51"/>
-      <c r="C283" s="30" t="s">
+      <c r="B343" s="54"/>
+      <c r="C343" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="D283" s="31"/>
-      <c r="E283" s="31"/>
-      <c r="F283" s="31"/>
-      <c r="G283" s="32"/>
-    </row>
-    <row r="284" spans="1:7">
-      <c r="A284" s="50" t="s">
+      <c r="D343" s="31"/>
+      <c r="E343" s="31"/>
+      <c r="F343" s="31"/>
+      <c r="G343" s="32"/>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A344" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B284" s="51"/>
-      <c r="C284" s="33">
+      <c r="B344" s="54"/>
+      <c r="C344" s="33">
         <v>43014</v>
       </c>
-      <c r="D284" s="31"/>
-      <c r="E284" s="31"/>
-      <c r="F284" s="31"/>
-      <c r="G284" s="32"/>
-    </row>
-    <row r="285" spans="1:7">
-      <c r="A285" s="53" t="s">
+      <c r="D344" s="31"/>
+      <c r="E344" s="31"/>
+      <c r="F344" s="31"/>
+      <c r="G344" s="32"/>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A345" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="B285" s="51"/>
-      <c r="C285" s="30" t="s">
+      <c r="B345" s="54"/>
+      <c r="C345" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="D285" s="31"/>
-      <c r="E285" s="31"/>
-      <c r="F285" s="31"/>
-      <c r="G285" s="32"/>
-    </row>
-    <row r="286" spans="1:7">
-      <c r="A286" s="53" t="s">
+      <c r="D345" s="31"/>
+      <c r="E345" s="31"/>
+      <c r="F345" s="31"/>
+      <c r="G345" s="32"/>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A346" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B286" s="54"/>
-      <c r="C286" s="30" t="s">
+      <c r="B346" s="48"/>
+      <c r="C346" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="D286" s="31"/>
-      <c r="E286" s="31"/>
-      <c r="F286" s="31"/>
-      <c r="G286" s="32"/>
-    </row>
-    <row r="288" spans="1:7" ht="20.25" customHeight="1"/>
-    <row r="290" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A290" s="71" t="s">
+      <c r="D346" s="31"/>
+      <c r="E346" s="31"/>
+      <c r="F346" s="31"/>
+      <c r="G346" s="32"/>
+    </row>
+    <row r="348" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A350" s="57" t="s">
         <v>314</v>
       </c>
-      <c r="B290" s="71"/>
-      <c r="C290" s="71"/>
-      <c r="D290" s="71"/>
-      <c r="E290" s="71"/>
-      <c r="F290" s="71"/>
-      <c r="G290" s="71"/>
-    </row>
-    <row r="291" spans="1:7" ht="15" thickTop="1">
-      <c r="A291" s="57" t="s">
+      <c r="B350" s="57"/>
+      <c r="C350" s="57"/>
+      <c r="D350" s="57"/>
+      <c r="E350" s="57"/>
+      <c r="F350" s="57"/>
+      <c r="G350" s="57"/>
+    </row>
+    <row r="351" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B291" s="58"/>
-      <c r="C291" s="78" t="s">
+      <c r="B351" s="59"/>
+      <c r="C351" s="76" t="s">
         <v>315</v>
       </c>
-      <c r="D291" s="79"/>
-      <c r="E291" s="79"/>
-      <c r="F291" s="79"/>
-      <c r="G291" s="80"/>
-    </row>
-    <row r="292" spans="1:7">
-      <c r="A292" s="57" t="s">
+      <c r="D351" s="77"/>
+      <c r="E351" s="77"/>
+      <c r="F351" s="77"/>
+      <c r="G351" s="78"/>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A352" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="B292" s="58"/>
-      <c r="C292" s="90"/>
-      <c r="D292" s="66"/>
-      <c r="E292" s="66"/>
-      <c r="F292" s="66"/>
-      <c r="G292" s="67"/>
-    </row>
-    <row r="293" spans="1:7">
-      <c r="A293" s="57" t="s">
+      <c r="B352" s="59"/>
+      <c r="C352" s="73"/>
+      <c r="D352" s="67"/>
+      <c r="E352" s="67"/>
+      <c r="F352" s="67"/>
+      <c r="G352" s="68"/>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A353" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B293" s="58"/>
-      <c r="C293" s="65" t="s">
+      <c r="B353" s="59"/>
+      <c r="C353" s="66" t="s">
         <v>316</v>
       </c>
-      <c r="D293" s="81"/>
-      <c r="E293" s="81"/>
-      <c r="F293" s="81"/>
-      <c r="G293" s="82"/>
-    </row>
-    <row r="294" spans="1:7" ht="15" customHeight="1">
-      <c r="A294" s="34"/>
-      <c r="B294" s="35"/>
-      <c r="C294" s="35"/>
-      <c r="D294" s="35"/>
-      <c r="E294" s="35"/>
-      <c r="F294" s="35"/>
-      <c r="G294" s="36"/>
-    </row>
-    <row r="295" spans="1:7" ht="15" customHeight="1">
-      <c r="A295" s="22" t="s">
+      <c r="D353" s="74"/>
+      <c r="E353" s="74"/>
+      <c r="F353" s="74"/>
+      <c r="G353" s="75"/>
+    </row>
+    <row r="354" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="34"/>
+      <c r="B354" s="35"/>
+      <c r="C354" s="35"/>
+      <c r="D354" s="35"/>
+      <c r="E354" s="35"/>
+      <c r="F354" s="35"/>
+      <c r="G354" s="36"/>
+    </row>
+    <row r="355" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B295" s="50" t="s">
+      <c r="B355" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="C295" s="51"/>
-      <c r="D295" s="50" t="s">
+      <c r="C355" s="54"/>
+      <c r="D355" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E295" s="51"/>
-      <c r="F295" s="21" t="s">
+      <c r="E355" s="54"/>
+      <c r="F355" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G295" s="22" t="s">
+      <c r="G355" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="37.5" customHeight="1">
-      <c r="A296" s="26" t="s">
+    <row r="356" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="B296" s="55" t="s">
+      <c r="B356" s="52" t="s">
         <v>318</v>
       </c>
-      <c r="C296" s="72"/>
-      <c r="D296" s="55" t="s">
+      <c r="C356" s="72"/>
+      <c r="D356" s="52" t="s">
         <v>319</v>
       </c>
-      <c r="E296" s="72"/>
-      <c r="F296" s="29"/>
-      <c r="G296" s="29"/>
-    </row>
-    <row r="297" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A297" s="26" t="s">
+      <c r="E356" s="72"/>
+      <c r="F356" s="29"/>
+      <c r="G356" s="29"/>
+    </row>
+    <row r="357" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A357" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="B297" s="55" t="s">
+      <c r="B357" s="52" t="s">
         <v>321</v>
       </c>
-      <c r="C297" s="72"/>
-      <c r="D297" s="55" t="s">
+      <c r="C357" s="72"/>
+      <c r="D357" s="52" t="s">
         <v>322</v>
       </c>
-      <c r="E297" s="72"/>
-      <c r="F297" s="29"/>
-      <c r="G297" s="29"/>
-    </row>
-    <row r="298" spans="1:7" ht="61.5" customHeight="1">
-      <c r="A298" s="26" t="s">
+      <c r="E357" s="72"/>
+      <c r="F357" s="29"/>
+      <c r="G357" s="29"/>
+    </row>
+    <row r="358" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A358" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="B298" s="55" t="s">
+      <c r="B358" s="52" t="s">
         <v>324</v>
       </c>
-      <c r="C298" s="72"/>
-      <c r="D298" s="55" t="s">
+      <c r="C358" s="72"/>
+      <c r="D358" s="52" t="s">
         <v>325</v>
       </c>
-      <c r="E298" s="72"/>
-      <c r="F298" s="29"/>
-      <c r="G298" s="29"/>
-    </row>
-    <row r="299" spans="1:7" ht="54.75" customHeight="1">
-      <c r="A299" s="26" t="s">
+      <c r="E358" s="72"/>
+      <c r="F358" s="29"/>
+      <c r="G358" s="29"/>
+    </row>
+    <row r="359" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A359" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="B299" s="55" t="s">
+      <c r="B359" s="52" t="s">
         <v>327</v>
       </c>
-      <c r="C299" s="72"/>
-      <c r="D299" s="55" t="s">
+      <c r="C359" s="72"/>
+      <c r="D359" s="52" t="s">
         <v>328</v>
       </c>
-      <c r="E299" s="72"/>
-      <c r="F299" s="29"/>
-      <c r="G299" s="29"/>
-    </row>
-    <row r="300" spans="1:7" ht="88.5" customHeight="1">
-      <c r="A300" s="26" t="s">
+      <c r="E359" s="72"/>
+      <c r="F359" s="29"/>
+      <c r="G359" s="29"/>
+    </row>
+    <row r="360" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A360" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="B300" s="55" t="s">
+      <c r="B360" s="52" t="s">
         <v>330</v>
       </c>
-      <c r="C300" s="72"/>
-      <c r="D300" s="55" t="s">
+      <c r="C360" s="72"/>
+      <c r="D360" s="52" t="s">
         <v>331</v>
       </c>
-      <c r="E300" s="72"/>
-      <c r="F300" s="29"/>
-      <c r="G300" s="29"/>
-    </row>
-    <row r="301" spans="1:7" ht="48.75" customHeight="1">
-      <c r="A301" s="26" t="s">
+      <c r="E360" s="72"/>
+      <c r="F360" s="29"/>
+      <c r="G360" s="29"/>
+    </row>
+    <row r="361" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A361" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="B301" s="55" t="s">
+      <c r="B361" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="C301" s="72"/>
-      <c r="D301" s="55" t="s">
+      <c r="C361" s="72"/>
+      <c r="D361" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E301" s="72"/>
-      <c r="F301" s="29"/>
-      <c r="G301" s="29"/>
-    </row>
-    <row r="302" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A302" s="26" t="s">
+      <c r="E361" s="72"/>
+      <c r="F361" s="29"/>
+      <c r="G361" s="29"/>
+    </row>
+    <row r="362" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A362" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="B302" s="55" t="s">
+      <c r="B362" s="52" t="s">
         <v>335</v>
       </c>
-      <c r="C302" s="72"/>
-      <c r="D302" s="55" t="s">
+      <c r="C362" s="72"/>
+      <c r="D362" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E302" s="72"/>
-      <c r="F302" s="29"/>
-      <c r="G302" s="29"/>
-    </row>
-    <row r="303" spans="1:7">
-      <c r="A303" s="53" t="s">
+      <c r="E362" s="72"/>
+      <c r="F362" s="29"/>
+      <c r="G362" s="29"/>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A363" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="B303" s="51"/>
-      <c r="C303" s="30" t="s">
+      <c r="B363" s="54"/>
+      <c r="C363" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="D303" s="31"/>
-      <c r="E303" s="31"/>
-      <c r="F303" s="31"/>
-      <c r="G303" s="32"/>
-    </row>
-    <row r="304" spans="1:7">
-      <c r="A304" s="50" t="s">
+      <c r="D363" s="31"/>
+      <c r="E363" s="31"/>
+      <c r="F363" s="31"/>
+      <c r="G363" s="32"/>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A364" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B304" s="51"/>
-      <c r="C304" s="33">
+      <c r="B364" s="54"/>
+      <c r="C364" s="33">
         <v>43014</v>
       </c>
-      <c r="D304" s="31"/>
-      <c r="E304" s="31"/>
-      <c r="F304" s="31"/>
-      <c r="G304" s="32"/>
-    </row>
-    <row r="305" spans="1:7">
-      <c r="A305" s="53" t="s">
+      <c r="D364" s="31"/>
+      <c r="E364" s="31"/>
+      <c r="F364" s="31"/>
+      <c r="G364" s="32"/>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A365" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="B305" s="51"/>
-      <c r="C305" s="30" t="s">
+      <c r="B365" s="54"/>
+      <c r="C365" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="D305" s="31"/>
-      <c r="E305" s="31"/>
-      <c r="F305" s="31"/>
-      <c r="G305" s="32"/>
-    </row>
-    <row r="306" spans="1:7">
-      <c r="A306" s="53" t="s">
+      <c r="D365" s="31"/>
+      <c r="E365" s="31"/>
+      <c r="F365" s="31"/>
+      <c r="G365" s="32"/>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A366" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B306" s="54"/>
-      <c r="C306" s="30" t="s">
+      <c r="B366" s="48"/>
+      <c r="C366" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="D306" s="31"/>
-      <c r="E306" s="31"/>
-      <c r="F306" s="31"/>
-      <c r="G306" s="32"/>
+      <c r="D366" s="31"/>
+      <c r="E366" s="31"/>
+      <c r="F366" s="31"/>
+      <c r="G366" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="443">
-    <mergeCell ref="A268:B268"/>
-    <mergeCell ref="C268:G268"/>
-    <mergeCell ref="B264:C264"/>
-    <mergeCell ref="D264:E264"/>
-    <mergeCell ref="A265:B265"/>
-    <mergeCell ref="C265:G265"/>
-    <mergeCell ref="A266:B266"/>
-    <mergeCell ref="C266:G266"/>
-    <mergeCell ref="A267:B267"/>
-    <mergeCell ref="C267:G267"/>
-    <mergeCell ref="A258:G258"/>
-    <mergeCell ref="A259:B259"/>
-    <mergeCell ref="C259:G259"/>
-    <mergeCell ref="A260:B260"/>
-    <mergeCell ref="C260:G260"/>
-    <mergeCell ref="A261:B261"/>
-    <mergeCell ref="C261:G261"/>
-    <mergeCell ref="A262:G262"/>
-    <mergeCell ref="B263:C263"/>
-    <mergeCell ref="D263:E263"/>
-    <mergeCell ref="A303:B303"/>
-    <mergeCell ref="A304:B304"/>
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="A306:B306"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="D190:E190"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="D192:E192"/>
+  <mergeCells count="545">
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="C253:G253"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="C254:G254"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="C255:G255"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D248:E248"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="D249:E249"/>
+    <mergeCell ref="B250:C250"/>
+    <mergeCell ref="D250:E250"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="C252:G252"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="B244:C244"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="B245:C245"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="B246:C246"/>
+    <mergeCell ref="D246:E246"/>
+    <mergeCell ref="B247:C247"/>
+    <mergeCell ref="D247:E247"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="D238:E238"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="B241:C241"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="C233:G233"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="C234:G234"/>
+    <mergeCell ref="A235:G235"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="D236:E236"/>
+    <mergeCell ref="B237:C237"/>
+    <mergeCell ref="D237:E237"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="C225:G225"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="C226:G226"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="C227:G227"/>
+    <mergeCell ref="A231:G231"/>
+    <mergeCell ref="A232:B232"/>
+    <mergeCell ref="C232:G232"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="C224:G224"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="D215:E215"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="D216:E216"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="D218:E218"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="D219:E219"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="D205:E205"/>
     <mergeCell ref="B206:C206"/>
     <mergeCell ref="D206:E206"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="D191:E191"/>
-    <mergeCell ref="B298:C298"/>
-    <mergeCell ref="D298:E298"/>
-    <mergeCell ref="B299:C299"/>
-    <mergeCell ref="D299:E299"/>
-    <mergeCell ref="B300:C300"/>
-    <mergeCell ref="D300:E300"/>
-    <mergeCell ref="B301:C301"/>
-    <mergeCell ref="D301:E301"/>
-    <mergeCell ref="B302:C302"/>
-    <mergeCell ref="D302:E302"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="D209:E209"/>
+    <mergeCell ref="A299:B299"/>
+    <mergeCell ref="C299:G299"/>
+    <mergeCell ref="A300:B300"/>
+    <mergeCell ref="C300:G300"/>
+    <mergeCell ref="A316:B316"/>
+    <mergeCell ref="C316:G316"/>
+    <mergeCell ref="B311:C311"/>
+    <mergeCell ref="D311:E311"/>
+    <mergeCell ref="B312:C312"/>
+    <mergeCell ref="D312:E312"/>
+    <mergeCell ref="A313:B313"/>
+    <mergeCell ref="C313:G313"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="C314:G314"/>
+    <mergeCell ref="A315:B315"/>
+    <mergeCell ref="C315:G315"/>
+    <mergeCell ref="A306:B306"/>
+    <mergeCell ref="C306:G306"/>
+    <mergeCell ref="A307:B307"/>
+    <mergeCell ref="C307:G307"/>
+    <mergeCell ref="A308:B308"/>
+    <mergeCell ref="C308:G308"/>
+    <mergeCell ref="A309:G309"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D310:E310"/>
+    <mergeCell ref="A284:B284"/>
+    <mergeCell ref="C284:G284"/>
+    <mergeCell ref="A285:B285"/>
+    <mergeCell ref="C285:G285"/>
+    <mergeCell ref="A286:B286"/>
+    <mergeCell ref="C286:G286"/>
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="C287:G287"/>
+    <mergeCell ref="A305:G305"/>
+    <mergeCell ref="A291:G291"/>
     <mergeCell ref="A292:B292"/>
     <mergeCell ref="C292:G292"/>
     <mergeCell ref="A293:B293"/>
     <mergeCell ref="C293:G293"/>
-    <mergeCell ref="B295:C295"/>
-    <mergeCell ref="D295:E295"/>
+    <mergeCell ref="A294:B294"/>
+    <mergeCell ref="C294:G294"/>
+    <mergeCell ref="A295:G295"/>
     <mergeCell ref="B296:C296"/>
     <mergeCell ref="D296:E296"/>
+    <mergeCell ref="A301:B301"/>
+    <mergeCell ref="C301:G301"/>
     <mergeCell ref="B297:C297"/>
     <mergeCell ref="D297:E297"/>
+    <mergeCell ref="A298:B298"/>
+    <mergeCell ref="A279:B279"/>
+    <mergeCell ref="C279:G279"/>
+    <mergeCell ref="A280:G280"/>
+    <mergeCell ref="B281:C281"/>
+    <mergeCell ref="D281:E281"/>
     <mergeCell ref="B282:C282"/>
     <mergeCell ref="D282:E282"/>
-    <mergeCell ref="A283:B283"/>
-    <mergeCell ref="A284:B284"/>
-    <mergeCell ref="A285:B285"/>
-    <mergeCell ref="A286:B286"/>
-    <mergeCell ref="A290:G290"/>
-    <mergeCell ref="A291:B291"/>
-    <mergeCell ref="C291:G291"/>
-    <mergeCell ref="B277:C277"/>
-    <mergeCell ref="D277:E277"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="B279:C279"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="B280:C280"/>
-    <mergeCell ref="D280:E280"/>
-    <mergeCell ref="B281:C281"/>
-    <mergeCell ref="D281:E281"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="A271:G271"/>
-    <mergeCell ref="A272:B272"/>
-    <mergeCell ref="C272:G272"/>
-    <mergeCell ref="A273:B273"/>
-    <mergeCell ref="C273:G273"/>
-    <mergeCell ref="A274:B274"/>
-    <mergeCell ref="C274:G274"/>
-    <mergeCell ref="B276:C276"/>
-    <mergeCell ref="D276:E276"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="C211:G211"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="C212:G212"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D207:E207"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="D208:E208"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="C209:G209"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="C210:G210"/>
-    <mergeCell ref="A200:G200"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A155:G155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="C156:G156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:G157"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="C158:G158"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C134:G134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="C135:G135"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A132:G132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C133:G133"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="A101:G101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:G103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:G104"/>
-    <mergeCell ref="A105:G105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="C201:G201"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="C202:G202"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="C203:G203"/>
-    <mergeCell ref="A204:G204"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="D205:E205"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="C193:G193"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="C194:G194"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="C195:G195"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="C196:G196"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A180:G180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="C181:G181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="C182:G182"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="C183:G183"/>
-    <mergeCell ref="A184:G184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B283:C283"/>
+    <mergeCell ref="D283:E283"/>
+    <mergeCell ref="C298:G298"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A276:G276"/>
+    <mergeCell ref="A277:B277"/>
+    <mergeCell ref="C277:G277"/>
+    <mergeCell ref="A278:B278"/>
+    <mergeCell ref="C278:G278"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="A88:G88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="C64:G64"/>
     <mergeCell ref="A65:B65"/>
@@ -6906,118 +8875,321 @@
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C32:G32"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="A88:G88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A216:G216"/>
-    <mergeCell ref="A217:B217"/>
-    <mergeCell ref="C217:G217"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="C218:G218"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="A84:G84"/>
-    <mergeCell ref="D237:E237"/>
-    <mergeCell ref="A238:B238"/>
-    <mergeCell ref="A219:B219"/>
-    <mergeCell ref="C219:G219"/>
-    <mergeCell ref="A220:G220"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="B250:C250"/>
-    <mergeCell ref="D250:E250"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="C224:G224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="C225:G225"/>
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="C226:G226"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="C227:G227"/>
-    <mergeCell ref="A245:G245"/>
-    <mergeCell ref="A231:G231"/>
-    <mergeCell ref="A232:B232"/>
-    <mergeCell ref="C232:G232"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="C233:G233"/>
-    <mergeCell ref="A234:B234"/>
-    <mergeCell ref="C234:G234"/>
-    <mergeCell ref="A235:G235"/>
-    <mergeCell ref="B236:C236"/>
-    <mergeCell ref="D236:E236"/>
-    <mergeCell ref="A241:B241"/>
-    <mergeCell ref="C241:G241"/>
-    <mergeCell ref="B237:C237"/>
-    <mergeCell ref="C238:G238"/>
-    <mergeCell ref="A239:B239"/>
-    <mergeCell ref="C239:G239"/>
-    <mergeCell ref="A240:B240"/>
-    <mergeCell ref="C240:G240"/>
-    <mergeCell ref="A256:B256"/>
-    <mergeCell ref="C256:G256"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="C253:G253"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="C254:G254"/>
-    <mergeCell ref="A255:B255"/>
-    <mergeCell ref="C255:G255"/>
-    <mergeCell ref="A246:B246"/>
-    <mergeCell ref="C246:G246"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="C247:G247"/>
-    <mergeCell ref="A248:B248"/>
-    <mergeCell ref="C248:G248"/>
-    <mergeCell ref="A249:G249"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A180:G180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="C181:G181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="C182:G182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="C183:G183"/>
+    <mergeCell ref="A184:G184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="C261:G261"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="C262:G262"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="C263:G263"/>
+    <mergeCell ref="A264:G264"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="C193:G193"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="C194:G194"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="C195:G195"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="C196:G196"/>
+    <mergeCell ref="A200:G200"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="C201:G201"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="C202:G202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="C203:G203"/>
+    <mergeCell ref="A204:G204"/>
+    <mergeCell ref="A101:G101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="A105:G105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A132:G132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A155:G155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="C156:G156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:G157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="C158:G158"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A331:G331"/>
+    <mergeCell ref="A332:B332"/>
+    <mergeCell ref="C332:G332"/>
+    <mergeCell ref="A333:B333"/>
+    <mergeCell ref="C333:G333"/>
+    <mergeCell ref="A334:B334"/>
+    <mergeCell ref="C334:G334"/>
+    <mergeCell ref="B336:C336"/>
+    <mergeCell ref="D336:E336"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="C271:G271"/>
+    <mergeCell ref="A272:B272"/>
+    <mergeCell ref="C272:G272"/>
+    <mergeCell ref="B267:C267"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="D268:E268"/>
+    <mergeCell ref="A269:B269"/>
+    <mergeCell ref="C269:G269"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="C270:G270"/>
+    <mergeCell ref="A260:G260"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="B337:C337"/>
+    <mergeCell ref="D337:E337"/>
+    <mergeCell ref="B338:C338"/>
+    <mergeCell ref="D338:E338"/>
+    <mergeCell ref="B339:C339"/>
+    <mergeCell ref="D339:E339"/>
+    <mergeCell ref="B340:C340"/>
+    <mergeCell ref="D340:E340"/>
+    <mergeCell ref="B341:C341"/>
+    <mergeCell ref="D341:E341"/>
+    <mergeCell ref="B342:C342"/>
+    <mergeCell ref="D342:E342"/>
+    <mergeCell ref="A343:B343"/>
+    <mergeCell ref="A344:B344"/>
+    <mergeCell ref="A345:B345"/>
+    <mergeCell ref="A346:B346"/>
+    <mergeCell ref="A350:G350"/>
+    <mergeCell ref="A351:B351"/>
+    <mergeCell ref="C351:G351"/>
+    <mergeCell ref="B360:C360"/>
+    <mergeCell ref="D360:E360"/>
+    <mergeCell ref="B361:C361"/>
+    <mergeCell ref="D361:E361"/>
+    <mergeCell ref="B362:C362"/>
+    <mergeCell ref="D362:E362"/>
+    <mergeCell ref="A352:B352"/>
+    <mergeCell ref="C352:G352"/>
+    <mergeCell ref="A353:B353"/>
+    <mergeCell ref="C353:G353"/>
+    <mergeCell ref="B355:C355"/>
+    <mergeCell ref="D355:E355"/>
+    <mergeCell ref="B356:C356"/>
+    <mergeCell ref="D356:E356"/>
+    <mergeCell ref="B357:C357"/>
+    <mergeCell ref="D357:E357"/>
+    <mergeCell ref="A363:B363"/>
+    <mergeCell ref="A364:B364"/>
+    <mergeCell ref="A365:B365"/>
+    <mergeCell ref="A366:B366"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="D192:E192"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="D191:E191"/>
+    <mergeCell ref="B358:C358"/>
+    <mergeCell ref="D358:E358"/>
+    <mergeCell ref="B359:C359"/>
+    <mergeCell ref="D359:E359"/>
+    <mergeCell ref="A318:G318"/>
+    <mergeCell ref="A319:B319"/>
+    <mergeCell ref="C319:G319"/>
+    <mergeCell ref="A320:B320"/>
+    <mergeCell ref="C320:G320"/>
+    <mergeCell ref="A321:B321"/>
+    <mergeCell ref="C321:G321"/>
+    <mergeCell ref="A322:G322"/>
+    <mergeCell ref="B323:C323"/>
+    <mergeCell ref="D323:E323"/>
+    <mergeCell ref="A328:B328"/>
+    <mergeCell ref="C328:G328"/>
+    <mergeCell ref="B324:C324"/>
+    <mergeCell ref="D324:E324"/>
+    <mergeCell ref="A325:B325"/>
+    <mergeCell ref="C325:G325"/>
+    <mergeCell ref="A326:B326"/>
+    <mergeCell ref="C326:G326"/>
+    <mergeCell ref="A327:B327"/>
+    <mergeCell ref="C327:G327"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -7025,14 +9197,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.6640625" style="10" customWidth="1"/>
     <col min="2" max="2" width="10" style="10" customWidth="1"/>
@@ -7046,7 +9218,7 @@
     <col min="10" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" ht="18">
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="91" t="s">
         <v>20</v>
       </c>
@@ -7059,7 +9231,7 @@
       <c r="H4" s="92"/>
       <c r="I4" s="93"/>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1">
+    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -7088,7 +9260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="10" customFormat="1" ht="29.7" customHeight="1">
+    <row r="6" spans="1:9" s="10" customFormat="1" ht="29.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -7109,7 +9281,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:9" s="10" customFormat="1" ht="43.2" customHeight="1">
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -7132,7 +9304,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" s="10" customFormat="1" ht="43.2">
+    <row r="8" spans="1:9" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -7155,7 +9327,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" s="10" customFormat="1" ht="43.2">
+    <row r="9" spans="1:9" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -7176,7 +9348,7 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="13" spans="1:9" ht="18">
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="91" t="s">
         <v>21</v>
       </c>
@@ -7189,7 +9361,7 @@
       <c r="H13" s="92"/>
       <c r="I13" s="93"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -7218,7 +9390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="61.95" customHeight="1">
+    <row r="15" spans="1:9" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -7241,7 +9413,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:9" ht="28.8">
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -7264,7 +9436,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="1:9" ht="57.6">
+    <row r="17" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -7285,7 +9457,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:9" ht="57.6">
+    <row r="18" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -7308,7 +9480,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:9" ht="57.6">
+    <row r="19" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>5</v>
       </c>
@@ -7331,7 +9503,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="1:9" ht="57.6">
+    <row r="20" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>6</v>
       </c>
@@ -7354,7 +9526,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="1:9" ht="57.6">
+    <row r="21" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>7</v>
       </c>
@@ -7377,7 +9549,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" ht="57.6">
+    <row r="22" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>8</v>
       </c>
@@ -7400,7 +9572,7 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" ht="57.6">
+    <row r="23" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>9</v>
       </c>
@@ -7423,7 +9595,7 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9" ht="43.2">
+    <row r="24" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>10</v>
       </c>
@@ -7452,8 +9624,8 @@
     <mergeCell ref="A13:I13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" display="testingfyp2017@gmail.com_x000a_testingfyp" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="F16" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="F8" r:id="rId1" display="testingfyp2017@gmail.com_x000a_testingfyp"/>
+    <hyperlink ref="F16" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId3"/>

--- a/FYP documentation/FYP_Test_Plan.xlsx
+++ b/FYP documentation/FYP_Test_Plan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Class_notes\BSS_FYP_TEAM173D\FYP documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan Final" sheetId="4" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="469">
   <si>
     <t>Expected Result</t>
   </si>
@@ -2543,8 +2548,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2857,7 +2862,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2934,18 +2939,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2967,13 +2960,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2982,46 +3003,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3033,6 +3027,57 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3050,53 +3095,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3107,6 +3113,12 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3116,38 +3128,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="20% - 강조색3" xfId="5" builtinId="38"/>
-    <cellStyle name="강조색1" xfId="4" builtinId="29"/>
-    <cellStyle name="제목" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="제목 1" xfId="3" builtinId="16"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
+    <cellStyle name="20% - Accent3" xfId="5" builtinId="38"/>
+    <cellStyle name="Accent1" xfId="4" builtinId="29"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3182,7 +3170,7 @@
         <xdr:cNvPr id="2061" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30BA1063-A16B-4C68-A743-4B420C5465C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30BA1063-A16B-4C68-A743-4B420C5465C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3230,7 +3218,7 @@
         <xdr:cNvPr id="2060" name="Picture 12" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF567FBA-98D6-41F8-887E-3AB62EFCE5E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF567FBA-98D6-41F8-887E-3AB62EFCE5E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3291,7 +3279,7 @@
         <xdr:cNvPr id="2059" name="Picture 11" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63E93150-DA75-4658-ACF7-D189E05151A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E93150-DA75-4658-ACF7-D189E05151A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3352,7 +3340,7 @@
         <xdr:cNvPr id="2058" name="AutoShape 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31457A75-25A1-4182-A274-BF0A57FF81ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31457A75-25A1-4182-A274-BF0A57FF81ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3400,7 +3388,7 @@
         <xdr:cNvPr id="2057" name="AutoShape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD5E9B17-BBE9-4F3F-8C7B-720ECD2D681E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD5E9B17-BBE9-4F3F-8C7B-720ECD2D681E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3448,7 +3436,7 @@
         <xdr:cNvPr id="2056" name="AutoShape 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACF2AA01-B252-4B3A-A375-0E01973F5F28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF2AA01-B252-4B3A-A375-0E01973F5F28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3496,7 +3484,7 @@
         <xdr:cNvPr id="2055" name="Picture 7" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65879D11-6224-4C7F-89C2-EB96196F1A0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65879D11-6224-4C7F-89C2-EB96196F1A0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3557,7 +3545,7 @@
         <xdr:cNvPr id="2054" name="Picture 6" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CF822E1-047C-4A3B-84DC-EC8AC8269EFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CF822E1-047C-4A3B-84DC-EC8AC8269EFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3618,7 +3606,7 @@
         <xdr:cNvPr id="2053" name="Picture 5" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04925A52-F4C6-4CD2-894B-53641F217E98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04925A52-F4C6-4CD2-894B-53641F217E98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3679,7 +3667,7 @@
         <xdr:cNvPr id="2052" name="Picture 4" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ABFA5086-6E08-48C0-9ACC-F28827F67131}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABFA5086-6E08-48C0-9ACC-F28827F67131}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3740,7 +3728,7 @@
         <xdr:cNvPr id="2051" name="Picture 3" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57E4935A-4571-48AC-8BC5-8DE7A584B4D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E4935A-4571-48AC-8BC5-8DE7A584B4D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3801,7 +3789,7 @@
         <xdr:cNvPr id="2050" name="Picture 2" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73C78A6D-821A-410B-9678-567D6BA6A13D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C78A6D-821A-410B-9678-567D6BA6A13D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3862,7 +3850,7 @@
         <xdr:cNvPr id="2049" name="Picture 1" descr="out?google_nid=adroll5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0583EF1F-95CC-4F68-83EF-C3E41E3B377C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0583EF1F-95CC-4F68-83EF-C3E41E3B377C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4197,21 +4185,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D249" sqref="D249:E249"/>
+    <sheetView tabSelected="1" topLeftCell="A295" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="D238" sqref="D238:E238"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.88671875" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
@@ -4224,20 +4212,20 @@
     <col min="9" max="9" width="7.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:9" ht="40.950000000000003" customHeight="1">
+      <c r="A1" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="87"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="17"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -4248,83 +4236,83 @@
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
     </row>
-    <row r="3" spans="1:9" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="57" t="s">
+    <row r="3" spans="1:9" ht="31.2" customHeight="1" thickBot="1">
+      <c r="A3" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
-    <row r="4" spans="1:9" ht="18.600000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+    <row r="4" spans="1:9" ht="18.600000000000001" customHeight="1" thickTop="1">
+      <c r="A4" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="60" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58" t="s">
+    <row r="5" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A5" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="65"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="58"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
-    <row r="6" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+    <row r="6" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A6" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="68"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
       <c r="H6" s="17"/>
       <c r="I6" s="18"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="69"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="71"/>
+    <row r="7" spans="1:9">
+      <c r="A7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="81"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55" t="s">
+      <c r="C8" s="45"/>
+      <c r="D8" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="54"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="21" t="s">
         <v>70</v>
       </c>
@@ -4332,18 +4320,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="70.2" customHeight="1">
       <c r="A9" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="52" t="s">
+      <c r="C9" s="73"/>
+      <c r="D9" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="53"/>
+      <c r="E9" s="73"/>
       <c r="F9" s="27" t="s">
         <v>86</v>
       </c>
@@ -4351,18 +4339,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="43.5" customHeight="1">
       <c r="A10" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="52" t="s">
+      <c r="C10" s="73"/>
+      <c r="D10" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="72"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="27" t="s">
         <v>111</v>
       </c>
@@ -4370,18 +4358,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="48.75" customHeight="1">
       <c r="A11" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="52" t="s">
+      <c r="C11" s="73"/>
+      <c r="D11" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E11" s="72"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="27" t="s">
         <v>337</v>
       </c>
@@ -4389,18 +4377,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="54.75" customHeight="1">
       <c r="A12" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="52" t="s">
+      <c r="C12" s="73"/>
+      <c r="D12" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E12" s="72"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="27" t="s">
         <v>115</v>
       </c>
@@ -4408,18 +4396,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="73.2" customHeight="1">
       <c r="A13" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="52" t="s">
+      <c r="C13" s="52"/>
+      <c r="D13" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E13" s="72"/>
+      <c r="E13" s="52"/>
       <c r="F13" s="27" t="s">
         <v>115</v>
       </c>
@@ -4427,18 +4415,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="61.5" customHeight="1">
       <c r="A14" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="52" t="s">
+      <c r="C14" s="52"/>
+      <c r="D14" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E14" s="72"/>
+      <c r="E14" s="52"/>
       <c r="F14" s="27" t="s">
         <v>115</v>
       </c>
@@ -4446,18 +4434,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="61.5" customHeight="1">
       <c r="A15" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="52" t="s">
+      <c r="C15" s="82"/>
+      <c r="D15" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="72"/>
+      <c r="E15" s="52"/>
       <c r="F15" s="28" t="s">
         <v>111</v>
       </c>
@@ -4465,18 +4453,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="59.25" customHeight="1">
       <c r="A16" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="87"/>
-      <c r="D16" s="52" t="s">
+      <c r="C16" s="82"/>
+      <c r="D16" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E16" s="72"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="28" t="s">
         <v>115</v>
       </c>
@@ -4484,18 +4472,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="60" customHeight="1">
       <c r="A17" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="52" t="s">
+      <c r="C17" s="82"/>
+      <c r="D17" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E17" s="72"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="28" t="s">
         <v>115</v>
       </c>
@@ -4503,18 +4491,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="65.25" customHeight="1">
       <c r="A18" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="52" t="s">
+      <c r="C18" s="82"/>
+      <c r="D18" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="72"/>
+      <c r="E18" s="52"/>
       <c r="F18" s="28" t="s">
         <v>111</v>
       </c>
@@ -4522,59 +4510,59 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="55" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="49" t="s">
+      <c r="B19" s="45"/>
+      <c r="C19" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="55" t="s">
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="71"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="56">
+      <c r="B20" s="45"/>
+      <c r="C20" s="69">
         <v>43014</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="47" t="s">
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="71"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="49" t="s">
+      <c r="B21" s="45"/>
+      <c r="C21" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="51"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="47" t="s">
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="71"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="49" t="s">
+      <c r="B22" s="50"/>
+      <c r="C22" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="51"/>
-    </row>
-    <row r="23" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="71"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.4" customHeight="1">
       <c r="A23" s="18"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
@@ -4583,7 +4571,7 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:7" ht="10.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="10.95" customHeight="1">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
@@ -4592,7 +4580,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
     </row>
-    <row r="25" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15.6" customHeight="1">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -4601,7 +4589,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="14.4" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
@@ -4610,7 +4598,7 @@
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
@@ -4619,76 +4607,76 @@
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="57" t="s">
+    <row r="28" spans="1:7" ht="12" customHeight="1"/>
+    <row r="29" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A29" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="79" t="s">
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickTop="1">
+      <c r="A30" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="80"/>
-      <c r="C30" s="76" t="s">
+      <c r="B30" s="64"/>
+      <c r="C30" s="65" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="78"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="58" t="s">
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="67"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="59"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="65"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="58" t="s">
+      <c r="B31" s="55"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="58"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="59"/>
-      <c r="C32" s="66" t="s">
+      <c r="B32" s="55"/>
+      <c r="C32" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="75"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="82"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="84"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="61"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="46"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="48"/>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="54"/>
-      <c r="D34" s="55" t="s">
+      <c r="C34" s="45"/>
+      <c r="D34" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="54"/>
+      <c r="E34" s="45"/>
       <c r="F34" s="21" t="s">
         <v>70</v>
       </c>
@@ -4696,18 +4684,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="18" customHeight="1">
       <c r="A35" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="85" t="s">
+      <c r="B35" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="86"/>
-      <c r="D35" s="49" t="s">
+      <c r="C35" s="84"/>
+      <c r="D35" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="51"/>
+      <c r="E35" s="71"/>
       <c r="F35" s="20" t="s">
         <v>102</v>
       </c>
@@ -4715,18 +4703,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="46.95" customHeight="1">
       <c r="A36" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B36" s="85" t="s">
+      <c r="B36" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="86"/>
-      <c r="D36" s="52" t="s">
+      <c r="C36" s="84"/>
+      <c r="D36" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E36" s="72"/>
+      <c r="E36" s="52"/>
       <c r="F36" s="20" t="s">
         <v>100</v>
       </c>
@@ -4734,18 +4722,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="45.6" customHeight="1">
       <c r="A37" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="B37" s="85" t="s">
+      <c r="B37" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="86"/>
-      <c r="D37" s="52" t="s">
+      <c r="C37" s="84"/>
+      <c r="D37" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="72"/>
+      <c r="E37" s="52"/>
       <c r="F37" s="20" t="s">
         <v>101</v>
       </c>
@@ -4753,18 +4741,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="48" customHeight="1">
       <c r="A38" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="B38" s="85" t="s">
+      <c r="B38" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="86"/>
-      <c r="D38" s="52" t="s">
+      <c r="C38" s="84"/>
+      <c r="D38" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="72"/>
+      <c r="E38" s="52"/>
       <c r="F38" s="20" t="s">
         <v>99</v>
       </c>
@@ -4772,18 +4760,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="39.75" customHeight="1">
       <c r="A39" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="51" t="s">
         <v>340</v>
       </c>
-      <c r="C39" s="72"/>
-      <c r="D39" s="52" t="s">
+      <c r="C39" s="52"/>
+      <c r="D39" s="51" t="s">
         <v>342</v>
       </c>
-      <c r="E39" s="72"/>
+      <c r="E39" s="52"/>
       <c r="F39" s="27" t="s">
         <v>343</v>
       </c>
@@ -4791,18 +4779,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="90.75" customHeight="1">
       <c r="A40" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="72"/>
-      <c r="D40" s="52" t="s">
+      <c r="C40" s="52"/>
+      <c r="D40" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="E40" s="72"/>
+      <c r="E40" s="52"/>
       <c r="F40" s="29" t="s">
         <v>150</v>
       </c>
@@ -4810,18 +4798,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="39.75" customHeight="1">
       <c r="A41" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="51" t="s">
         <v>341</v>
       </c>
-      <c r="C41" s="72"/>
-      <c r="D41" s="52" t="s">
+      <c r="C41" s="52"/>
+      <c r="D41" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E41" s="72"/>
+      <c r="E41" s="52"/>
       <c r="F41" s="27" t="s">
         <v>147</v>
       </c>
@@ -4829,127 +4817,127 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="55" t="s">
+    <row r="42" spans="1:7">
+      <c r="A42" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="54"/>
-      <c r="C42" s="49" t="s">
+      <c r="B42" s="45"/>
+      <c r="C42" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="51"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="55" t="s">
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="71"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="54"/>
-      <c r="C43" s="56">
+      <c r="B43" s="45"/>
+      <c r="C43" s="69">
         <v>43042</v>
       </c>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="51"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="47" t="s">
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="70"/>
+      <c r="G43" s="71"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="49" t="s">
+      <c r="B44" s="50"/>
+      <c r="C44" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="51"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="47" t="s">
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="G44" s="71"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="48"/>
-      <c r="C45" s="49" t="s">
+      <c r="B45" s="50"/>
+      <c r="C45" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="51"/>
-    </row>
-    <row r="49" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="57" t="s">
+      <c r="D45" s="70"/>
+      <c r="E45" s="70"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="71"/>
+    </row>
+    <row r="49" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A49" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-    </row>
-    <row r="50" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="58" t="s">
+      <c r="B49" s="62"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+    </row>
+    <row r="50" spans="1:7" ht="15" thickTop="1">
+      <c r="A50" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="59"/>
-      <c r="C50" s="60" t="s">
+      <c r="B50" s="55"/>
+      <c r="C50" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="62"/>
-    </row>
-    <row r="51" spans="1:7" ht="16.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="58" t="s">
+      <c r="D50" s="75"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="76"/>
+    </row>
+    <row r="51" spans="1:7" ht="16.95" customHeight="1">
+      <c r="A51" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="59"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="65"/>
-    </row>
-    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="58" t="s">
+      <c r="B51" s="55"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="58"/>
+    </row>
+    <row r="52" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A52" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="59"/>
-      <c r="C52" s="66" t="s">
+      <c r="B52" s="55"/>
+      <c r="C52" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="67"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
-      <c r="G52" s="68"/>
-    </row>
-    <row r="53" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="69"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="71"/>
-    </row>
-    <row r="54" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="78"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.6" customHeight="1">
+      <c r="A53" s="79"/>
+      <c r="B53" s="80"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="81"/>
+    </row>
+    <row r="54" spans="1:7" ht="27" customHeight="1">
       <c r="A54" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="54"/>
-      <c r="D54" s="55" t="s">
+      <c r="C54" s="45"/>
+      <c r="D54" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="E54" s="54"/>
+      <c r="E54" s="45"/>
       <c r="F54" s="21" t="s">
         <v>70</v>
       </c>
@@ -4957,18 +4945,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="35.4" customHeight="1">
       <c r="A55" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="B55" s="52" t="s">
+      <c r="B55" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="52" t="s">
+      <c r="C55" s="73"/>
+      <c r="D55" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="E55" s="53"/>
+      <c r="E55" s="73"/>
       <c r="F55" s="29" t="s">
         <v>127</v>
       </c>
@@ -4976,127 +4964,127 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="47" t="s">
+    <row r="56" spans="1:7" ht="15.6" customHeight="1">
+      <c r="A56" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="54"/>
-      <c r="C56" s="49" t="s">
+      <c r="B56" s="45"/>
+      <c r="C56" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="D56" s="50"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="51"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="55" t="s">
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="71"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="54"/>
-      <c r="C57" s="56">
+      <c r="B57" s="45"/>
+      <c r="C57" s="69">
         <v>43046</v>
       </c>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="51"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="47" t="s">
+      <c r="D57" s="70"/>
+      <c r="E57" s="70"/>
+      <c r="F57" s="70"/>
+      <c r="G57" s="71"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="54"/>
-      <c r="C58" s="49" t="s">
+      <c r="B58" s="45"/>
+      <c r="C58" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="D58" s="50"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="50"/>
-      <c r="G58" s="51"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="47" t="s">
+      <c r="D58" s="70"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70"/>
+      <c r="G58" s="71"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="48"/>
-      <c r="C59" s="49" t="s">
+      <c r="B59" s="50"/>
+      <c r="C59" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="51"/>
-    </row>
-    <row r="62" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="57" t="s">
+      <c r="D59" s="70"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="70"/>
+      <c r="G59" s="71"/>
+    </row>
+    <row r="62" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A62" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="B62" s="57"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
-    </row>
-    <row r="63" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="58" t="s">
+      <c r="B62" s="62"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="62"/>
+    </row>
+    <row r="63" spans="1:7" ht="15" thickTop="1">
+      <c r="A63" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="59"/>
-      <c r="C63" s="60" t="s">
+      <c r="B63" s="55"/>
+      <c r="C63" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="62"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="58" t="s">
+      <c r="D63" s="75"/>
+      <c r="E63" s="75"/>
+      <c r="F63" s="75"/>
+      <c r="G63" s="76"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="59"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="65"/>
-    </row>
-    <row r="65" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="58" t="s">
+      <c r="B64" s="55"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="58"/>
+    </row>
+    <row r="65" spans="1:7" ht="15" customHeight="1">
+      <c r="A65" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="59"/>
-      <c r="C65" s="66" t="s">
+      <c r="B65" s="55"/>
+      <c r="C65" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="68"/>
-    </row>
-    <row r="66" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="69"/>
-      <c r="B66" s="70"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="71"/>
-    </row>
-    <row r="67" spans="1:7" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="78"/>
+    </row>
+    <row r="66" spans="1:7" ht="21" customHeight="1">
+      <c r="A66" s="79"/>
+      <c r="B66" s="80"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
+      <c r="F66" s="80"/>
+      <c r="G66" s="81"/>
+    </row>
+    <row r="67" spans="1:7" ht="56.4" customHeight="1">
       <c r="A67" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="55" t="s">
+      <c r="B67" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="54"/>
-      <c r="D67" s="55" t="s">
+      <c r="C67" s="45"/>
+      <c r="D67" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="E67" s="54"/>
+      <c r="E67" s="45"/>
       <c r="F67" s="21" t="s">
         <v>70</v>
       </c>
@@ -5104,18 +5092,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="60.75" customHeight="1">
       <c r="A68" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="B68" s="52" t="s">
+      <c r="B68" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="53"/>
-      <c r="D68" s="52" t="s">
+      <c r="C68" s="73"/>
+      <c r="D68" s="51" t="s">
         <v>344</v>
       </c>
-      <c r="E68" s="53"/>
+      <c r="E68" s="73"/>
       <c r="F68" s="29" t="s">
         <v>117</v>
       </c>
@@ -5123,18 +5111,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="44.25" customHeight="1">
       <c r="A69" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="B69" s="52" t="s">
+      <c r="B69" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="C69" s="53"/>
-      <c r="D69" s="52" t="s">
+      <c r="C69" s="73"/>
+      <c r="D69" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="E69" s="53"/>
+      <c r="E69" s="73"/>
       <c r="F69" s="29" t="s">
         <v>118</v>
       </c>
@@ -5142,18 +5130,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="57.75" customHeight="1">
       <c r="A70" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="B70" s="52" t="s">
+      <c r="B70" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="C70" s="53"/>
-      <c r="D70" s="52" t="s">
+      <c r="C70" s="73"/>
+      <c r="D70" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="E70" s="53"/>
+      <c r="E70" s="73"/>
       <c r="F70" s="29" t="s">
         <v>119</v>
       </c>
@@ -5161,18 +5149,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="43.2">
       <c r="A71" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="B71" s="52" t="s">
+      <c r="B71" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C71" s="53"/>
-      <c r="D71" s="52" t="s">
+      <c r="C71" s="73"/>
+      <c r="D71" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="E71" s="53"/>
+      <c r="E71" s="73"/>
       <c r="F71" s="29" t="s">
         <v>120</v>
       </c>
@@ -5180,18 +5168,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="28.8">
       <c r="A72" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="B72" s="52" t="s">
+      <c r="B72" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="53"/>
-      <c r="D72" s="52" t="s">
+      <c r="C72" s="73"/>
+      <c r="D72" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="E72" s="53"/>
+      <c r="E72" s="73"/>
       <c r="F72" s="29" t="s">
         <v>124</v>
       </c>
@@ -5199,142 +5187,142 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="24.75" customHeight="1">
       <c r="A73" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="B73" s="52" t="s">
+      <c r="B73" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C73" s="53"/>
-      <c r="D73" s="52" t="s">
+      <c r="C73" s="73"/>
+      <c r="D73" s="51" t="s">
         <v>346</v>
       </c>
-      <c r="E73" s="53"/>
+      <c r="E73" s="73"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="47" t="s">
+    <row r="74" spans="1:7">
+      <c r="A74" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="54"/>
-      <c r="C74" s="49" t="s">
+      <c r="B74" s="45"/>
+      <c r="C74" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="D74" s="50"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="50"/>
-      <c r="G74" s="51"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="55" t="s">
+      <c r="D74" s="70"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="70"/>
+      <c r="G74" s="71"/>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="54"/>
-      <c r="C75" s="56">
+      <c r="B75" s="45"/>
+      <c r="C75" s="69">
         <v>43045</v>
       </c>
-      <c r="D75" s="50"/>
-      <c r="E75" s="50"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="51"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="47" t="s">
+      <c r="D75" s="70"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="71"/>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="54"/>
-      <c r="C76" s="49" t="s">
+      <c r="B76" s="45"/>
+      <c r="C76" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="D76" s="50"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="50"/>
-      <c r="G76" s="51"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="47" t="s">
+      <c r="D76" s="70"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="70"/>
+      <c r="G76" s="71"/>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="48"/>
-      <c r="C77" s="49" t="s">
+      <c r="B77" s="50"/>
+      <c r="C77" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="D77" s="50"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="51"/>
-    </row>
-    <row r="84" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="57" t="s">
+      <c r="D77" s="70"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="70"/>
+      <c r="G77" s="71"/>
+    </row>
+    <row r="84" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A84" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="B84" s="57"/>
-      <c r="C84" s="57"/>
-      <c r="D84" s="57"/>
-      <c r="E84" s="57"/>
-      <c r="F84" s="57"/>
-      <c r="G84" s="57"/>
-    </row>
-    <row r="85" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="58" t="s">
+      <c r="B84" s="62"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="62"/>
+      <c r="E84" s="62"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="62"/>
+    </row>
+    <row r="85" spans="1:7" ht="15" thickTop="1">
+      <c r="A85" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B85" s="59"/>
-      <c r="C85" s="60" t="s">
+      <c r="B85" s="55"/>
+      <c r="C85" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="D85" s="61"/>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="62"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="58" t="s">
+      <c r="D85" s="75"/>
+      <c r="E85" s="75"/>
+      <c r="F85" s="75"/>
+      <c r="G85" s="76"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B86" s="59"/>
-      <c r="C86" s="63"/>
-      <c r="D86" s="64"/>
-      <c r="E86" s="64"/>
-      <c r="F86" s="64"/>
-      <c r="G86" s="65"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="58" t="s">
+      <c r="B86" s="55"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="57"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="58"/>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B87" s="59"/>
-      <c r="C87" s="66" t="s">
+      <c r="B87" s="55"/>
+      <c r="C87" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="D87" s="67"/>
-      <c r="E87" s="67"/>
-      <c r="F87" s="67"/>
-      <c r="G87" s="68"/>
-    </row>
-    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="69"/>
-      <c r="B88" s="70"/>
-      <c r="C88" s="70"/>
-      <c r="D88" s="70"/>
-      <c r="E88" s="70"/>
-      <c r="F88" s="70"/>
-      <c r="G88" s="71"/>
-    </row>
-    <row r="89" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D87" s="77"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="77"/>
+      <c r="G87" s="78"/>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A88" s="79"/>
+      <c r="B88" s="80"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="80"/>
+      <c r="E88" s="80"/>
+      <c r="F88" s="80"/>
+      <c r="G88" s="81"/>
+    </row>
+    <row r="89" spans="1:7" ht="18" customHeight="1">
       <c r="A89" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B89" s="55" t="s">
+      <c r="B89" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C89" s="54"/>
-      <c r="D89" s="55" t="s">
+      <c r="C89" s="45"/>
+      <c r="D89" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="E89" s="54"/>
+      <c r="E89" s="45"/>
       <c r="F89" s="21" t="s">
         <v>70</v>
       </c>
@@ -5342,18 +5330,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="47.4" customHeight="1">
       <c r="A90" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="B90" s="52" t="s">
+      <c r="B90" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="C90" s="53"/>
-      <c r="D90" s="52" t="s">
+      <c r="C90" s="73"/>
+      <c r="D90" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="E90" s="53"/>
+      <c r="E90" s="73"/>
       <c r="F90" s="29" t="s">
         <v>135</v>
       </c>
@@ -5361,18 +5349,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="58.5" customHeight="1">
       <c r="A91" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="B91" s="52" t="s">
+      <c r="B91" s="51" t="s">
         <v>347</v>
       </c>
-      <c r="C91" s="53"/>
-      <c r="D91" s="52" t="s">
+      <c r="C91" s="73"/>
+      <c r="D91" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="E91" s="53"/>
+      <c r="E91" s="73"/>
       <c r="F91" s="29" t="s">
         <v>138</v>
       </c>
@@ -5380,18 +5368,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="32.25" customHeight="1">
       <c r="A92" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B92" s="52" t="s">
+      <c r="B92" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C92" s="53"/>
-      <c r="D92" s="52" t="s">
+      <c r="C92" s="73"/>
+      <c r="D92" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="E92" s="53"/>
+      <c r="E92" s="73"/>
       <c r="F92" s="29" t="s">
         <v>142</v>
       </c>
@@ -5399,137 +5387,137 @@
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="47" t="s">
+    <row r="93" spans="1:7">
+      <c r="A93" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B93" s="54"/>
-      <c r="C93" s="49" t="s">
+      <c r="B93" s="45"/>
+      <c r="C93" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="D93" s="50"/>
-      <c r="E93" s="50"/>
-      <c r="F93" s="50"/>
-      <c r="G93" s="51"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="55" t="s">
+      <c r="D93" s="70"/>
+      <c r="E93" s="70"/>
+      <c r="F93" s="70"/>
+      <c r="G93" s="71"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B94" s="54"/>
-      <c r="C94" s="56">
+      <c r="B94" s="45"/>
+      <c r="C94" s="69">
         <v>43046</v>
       </c>
-      <c r="D94" s="50"/>
-      <c r="E94" s="50"/>
-      <c r="F94" s="50"/>
-      <c r="G94" s="51"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="47" t="s">
+      <c r="D94" s="70"/>
+      <c r="E94" s="70"/>
+      <c r="F94" s="70"/>
+      <c r="G94" s="71"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B95" s="54"/>
-      <c r="C95" s="49" t="s">
+      <c r="B95" s="45"/>
+      <c r="C95" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="D95" s="50"/>
-      <c r="E95" s="50"/>
-      <c r="F95" s="50"/>
-      <c r="G95" s="51"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="47" t="s">
+      <c r="D95" s="70"/>
+      <c r="E95" s="70"/>
+      <c r="F95" s="70"/>
+      <c r="G95" s="71"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B96" s="48"/>
-      <c r="C96" s="49" t="s">
+      <c r="B96" s="50"/>
+      <c r="C96" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="D96" s="50"/>
-      <c r="E96" s="50"/>
-      <c r="F96" s="50"/>
-      <c r="G96" s="51"/>
-    </row>
-    <row r="101" spans="1:9" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="57" t="s">
+      <c r="D96" s="70"/>
+      <c r="E96" s="70"/>
+      <c r="F96" s="70"/>
+      <c r="G96" s="71"/>
+    </row>
+    <row r="101" spans="1:9" ht="31.2" customHeight="1" thickBot="1">
+      <c r="A101" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="B101" s="57"/>
-      <c r="C101" s="57"/>
-      <c r="D101" s="57"/>
-      <c r="E101" s="57"/>
-      <c r="F101" s="57"/>
-      <c r="G101" s="57"/>
+      <c r="B101" s="62"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="62"/>
+      <c r="E101" s="62"/>
+      <c r="F101" s="62"/>
+      <c r="G101" s="62"/>
       <c r="H101" s="16"/>
       <c r="I101" s="16"/>
     </row>
-    <row r="102" spans="1:9" ht="18.600000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="58" t="s">
+    <row r="102" spans="1:9" ht="18.600000000000001" customHeight="1" thickTop="1">
+      <c r="A102" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B102" s="59"/>
-      <c r="C102" s="60" t="s">
+      <c r="B102" s="55"/>
+      <c r="C102" s="74" t="s">
         <v>218</v>
       </c>
-      <c r="D102" s="61"/>
-      <c r="E102" s="61"/>
-      <c r="F102" s="61"/>
-      <c r="G102" s="62"/>
+      <c r="D102" s="75"/>
+      <c r="E102" s="75"/>
+      <c r="F102" s="75"/>
+      <c r="G102" s="76"/>
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="58" t="s">
+    <row r="103" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A103" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B103" s="59"/>
-      <c r="C103" s="63"/>
-      <c r="D103" s="64"/>
-      <c r="E103" s="64"/>
-      <c r="F103" s="64"/>
-      <c r="G103" s="65"/>
+      <c r="B103" s="55"/>
+      <c r="C103" s="56"/>
+      <c r="D103" s="57"/>
+      <c r="E103" s="57"/>
+      <c r="F103" s="57"/>
+      <c r="G103" s="58"/>
       <c r="H103" s="16"/>
       <c r="I103" s="16"/>
     </row>
-    <row r="104" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="58" t="s">
+    <row r="104" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A104" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B104" s="59"/>
-      <c r="C104" s="66" t="s">
+      <c r="B104" s="55"/>
+      <c r="C104" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="D104" s="67"/>
-      <c r="E104" s="67"/>
-      <c r="F104" s="67"/>
-      <c r="G104" s="68"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="77"/>
+      <c r="G104" s="78"/>
       <c r="H104" s="17"/>
       <c r="I104" s="18"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="69"/>
-      <c r="B105" s="70"/>
-      <c r="C105" s="70"/>
-      <c r="D105" s="70"/>
-      <c r="E105" s="70"/>
-      <c r="F105" s="70"/>
-      <c r="G105" s="71"/>
+    <row r="105" spans="1:9">
+      <c r="A105" s="79"/>
+      <c r="B105" s="80"/>
+      <c r="C105" s="80"/>
+      <c r="D105" s="80"/>
+      <c r="E105" s="80"/>
+      <c r="F105" s="80"/>
+      <c r="G105" s="81"/>
       <c r="H105" s="18"/>
       <c r="I105" s="18"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9">
       <c r="A106" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B106" s="55" t="s">
+      <c r="B106" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C106" s="54"/>
-      <c r="D106" s="55" t="s">
+      <c r="C106" s="45"/>
+      <c r="D106" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="E106" s="54"/>
+      <c r="E106" s="45"/>
       <c r="F106" s="21" t="s">
         <v>70</v>
       </c>
@@ -5537,284 +5525,284 @@
         <v>72</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="33.75" customHeight="1">
       <c r="A107" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="B107" s="52" t="s">
+      <c r="B107" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="C107" s="53"/>
-      <c r="D107" s="52" t="s">
+      <c r="C107" s="73"/>
+      <c r="D107" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="E107" s="72"/>
+      <c r="E107" s="52"/>
       <c r="F107" s="27"/>
       <c r="G107" s="27"/>
     </row>
-    <row r="108" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="81" customHeight="1">
       <c r="A108" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="B108" s="52" t="s">
+      <c r="B108" s="51" t="s">
         <v>222</v>
       </c>
-      <c r="C108" s="53"/>
-      <c r="D108" s="52" t="s">
+      <c r="C108" s="73"/>
+      <c r="D108" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="E108" s="53"/>
+      <c r="E108" s="73"/>
       <c r="F108" s="27"/>
       <c r="G108" s="27"/>
     </row>
-    <row r="109" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="54" customHeight="1">
       <c r="A109" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B109" s="52" t="s">
+      <c r="B109" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="C109" s="53"/>
-      <c r="D109" s="52" t="s">
+      <c r="C109" s="73"/>
+      <c r="D109" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="E109" s="72"/>
+      <c r="E109" s="52"/>
       <c r="F109" s="27"/>
       <c r="G109" s="27"/>
     </row>
-    <row r="110" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="60.75" customHeight="1">
       <c r="A110" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="B110" s="52" t="s">
+      <c r="B110" s="51" t="s">
         <v>227</v>
       </c>
-      <c r="C110" s="53"/>
-      <c r="D110" s="52" t="s">
+      <c r="C110" s="73"/>
+      <c r="D110" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="E110" s="53"/>
+      <c r="E110" s="73"/>
       <c r="F110" s="27"/>
       <c r="G110" s="27"/>
     </row>
-    <row r="111" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="58.5" customHeight="1">
       <c r="A111" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B111" s="52" t="s">
+      <c r="B111" s="51" t="s">
         <v>230</v>
       </c>
-      <c r="C111" s="53"/>
-      <c r="D111" s="52" t="s">
+      <c r="C111" s="73"/>
+      <c r="D111" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E111" s="53"/>
+      <c r="E111" s="73"/>
       <c r="F111" s="27"/>
       <c r="G111" s="27"/>
     </row>
-    <row r="112" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="61.5" customHeight="1">
       <c r="A112" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="B112" s="52" t="s">
+      <c r="B112" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="C112" s="53"/>
-      <c r="D112" s="52" t="s">
+      <c r="C112" s="73"/>
+      <c r="D112" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E112" s="53"/>
+      <c r="E112" s="73"/>
       <c r="F112" s="27"/>
       <c r="G112" s="27"/>
     </row>
-    <row r="113" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="79.5" customHeight="1">
       <c r="A113" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="B113" s="52" t="s">
+      <c r="B113" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="C113" s="53"/>
-      <c r="D113" s="52" t="s">
+      <c r="C113" s="73"/>
+      <c r="D113" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E113" s="53"/>
+      <c r="E113" s="73"/>
       <c r="F113" s="28"/>
       <c r="G113" s="27"/>
     </row>
-    <row r="114" spans="1:7" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="84" customHeight="1">
       <c r="A114" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="B114" s="52" t="s">
+      <c r="B114" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="C114" s="53"/>
-      <c r="D114" s="52" t="s">
+      <c r="C114" s="73"/>
+      <c r="D114" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E114" s="53"/>
+      <c r="E114" s="73"/>
       <c r="F114" s="28"/>
       <c r="G114" s="27"/>
     </row>
-    <row r="115" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="82.5" customHeight="1">
       <c r="A115" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="B115" s="52" t="s">
+      <c r="B115" s="51" t="s">
         <v>239</v>
       </c>
-      <c r="C115" s="53"/>
-      <c r="D115" s="52" t="s">
+      <c r="C115" s="73"/>
+      <c r="D115" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E115" s="53"/>
+      <c r="E115" s="73"/>
       <c r="F115" s="28"/>
       <c r="G115" s="27"/>
     </row>
-    <row r="116" spans="1:7" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="93.75" customHeight="1">
       <c r="A116" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="B116" s="52" t="s">
+      <c r="B116" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="C116" s="53"/>
-      <c r="D116" s="52" t="s">
+      <c r="C116" s="73"/>
+      <c r="D116" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E116" s="53"/>
+      <c r="E116" s="73"/>
       <c r="F116" s="28"/>
       <c r="G116" s="27"/>
     </row>
-    <row r="117" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="72" customHeight="1">
       <c r="A117" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="B117" s="52" t="s">
+      <c r="B117" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="C117" s="53"/>
-      <c r="D117" s="52" t="s">
+      <c r="C117" s="73"/>
+      <c r="D117" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E117" s="53"/>
-      <c r="F117" s="40"/>
-      <c r="G117" s="40"/>
-    </row>
-    <row r="118" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E117" s="73"/>
+      <c r="F117" s="36"/>
+      <c r="G117" s="36"/>
+    </row>
+    <row r="118" spans="1:7" ht="93" customHeight="1">
       <c r="A118" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="B118" s="52" t="s">
+      <c r="B118" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="C118" s="53"/>
-      <c r="D118" s="52" t="s">
+      <c r="C118" s="73"/>
+      <c r="D118" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E118" s="53"/>
-      <c r="F118" s="40"/>
-      <c r="G118" s="40"/>
-    </row>
-    <row r="119" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E118" s="73"/>
+      <c r="F118" s="36"/>
+      <c r="G118" s="36"/>
+    </row>
+    <row r="119" spans="1:7" ht="50.25" customHeight="1">
       <c r="A119" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="B119" s="52" t="s">
+      <c r="B119" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="C119" s="53"/>
-      <c r="D119" s="52" t="s">
+      <c r="C119" s="73"/>
+      <c r="D119" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E119" s="53"/>
-      <c r="F119" s="40"/>
-      <c r="G119" s="40"/>
-    </row>
-    <row r="120" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E119" s="73"/>
+      <c r="F119" s="36"/>
+      <c r="G119" s="36"/>
+    </row>
+    <row r="120" spans="1:7" ht="56.25" customHeight="1">
       <c r="A120" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="B120" s="52" t="s">
+      <c r="B120" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="C120" s="53"/>
-      <c r="D120" s="52" t="s">
+      <c r="C120" s="73"/>
+      <c r="D120" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E120" s="53"/>
-      <c r="F120" s="40"/>
-      <c r="G120" s="40"/>
-    </row>
-    <row r="121" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E120" s="73"/>
+      <c r="F120" s="36"/>
+      <c r="G120" s="36"/>
+    </row>
+    <row r="121" spans="1:7" ht="56.25" customHeight="1">
       <c r="A121" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="B121" s="52" t="s">
+      <c r="B121" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="C121" s="53"/>
-      <c r="D121" s="52" t="s">
+      <c r="C121" s="73"/>
+      <c r="D121" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E121" s="53"/>
-      <c r="F121" s="40"/>
-      <c r="G121" s="40"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="55" t="s">
+      <c r="E121" s="73"/>
+      <c r="F121" s="36"/>
+      <c r="G121" s="36"/>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B122" s="54"/>
-      <c r="C122" s="30" t="s">
+      <c r="B122" s="45"/>
+      <c r="C122" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="D122" s="31"/>
-      <c r="E122" s="31"/>
-      <c r="F122" s="31"/>
-      <c r="G122" s="32"/>
-    </row>
-    <row r="123" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="55" t="s">
+      <c r="D122" s="70"/>
+      <c r="E122" s="70"/>
+      <c r="F122" s="70"/>
+      <c r="G122" s="71"/>
+    </row>
+    <row r="123" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A123" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B123" s="54"/>
-      <c r="C123" s="33">
+      <c r="B123" s="45"/>
+      <c r="C123" s="69">
         <v>43014</v>
       </c>
-      <c r="D123" s="31"/>
-      <c r="E123" s="31"/>
-      <c r="F123" s="31"/>
-      <c r="G123" s="32"/>
-    </row>
-    <row r="124" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="47" t="s">
+      <c r="D123" s="70"/>
+      <c r="E123" s="70"/>
+      <c r="F123" s="70"/>
+      <c r="G123" s="71"/>
+    </row>
+    <row r="124" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A124" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B124" s="54"/>
-      <c r="C124" s="30" t="s">
+      <c r="B124" s="45"/>
+      <c r="C124" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="D124" s="23"/>
-      <c r="E124" s="41"/>
-      <c r="F124" s="41"/>
-      <c r="G124" s="42"/>
-    </row>
-    <row r="125" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="47" t="s">
+      <c r="D124" s="70"/>
+      <c r="E124" s="70"/>
+      <c r="F124" s="70"/>
+      <c r="G124" s="71"/>
+    </row>
+    <row r="125" spans="1:7" ht="15.6" customHeight="1">
+      <c r="A125" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B125" s="48"/>
-      <c r="C125" s="30" t="s">
+      <c r="B125" s="50"/>
+      <c r="C125" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="D125" s="43"/>
-      <c r="E125" s="44"/>
-      <c r="F125" s="44"/>
-      <c r="G125" s="45"/>
-    </row>
-    <row r="126" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D125" s="70"/>
+      <c r="E125" s="70"/>
+      <c r="F125" s="70"/>
+      <c r="G125" s="71"/>
+    </row>
+    <row r="126" spans="1:7" ht="14.4" customHeight="1">
       <c r="A126" s="18"/>
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
@@ -5823,7 +5811,7 @@
       <c r="F126" s="18"/>
       <c r="G126" s="18"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7">
       <c r="A127" s="18"/>
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
@@ -5832,7 +5820,7 @@
       <c r="F127" s="18"/>
       <c r="G127" s="18"/>
     </row>
-    <row r="128" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" ht="12" customHeight="1">
       <c r="A128" s="18"/>
       <c r="B128" s="18"/>
       <c r="C128" s="18"/>
@@ -5841,7 +5829,7 @@
       <c r="F128" s="18"/>
       <c r="G128" s="18"/>
     </row>
-    <row r="129" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="20.25" customHeight="1">
       <c r="A129" s="18"/>
       <c r="B129" s="18"/>
       <c r="C129" s="18"/>
@@ -5850,7 +5838,7 @@
       <c r="F129" s="18"/>
       <c r="G129" s="18"/>
     </row>
-    <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="15.75" customHeight="1">
       <c r="A130" s="18"/>
       <c r="B130" s="18"/>
       <c r="C130" s="18"/>
@@ -5859,76 +5847,76 @@
       <c r="F130" s="18"/>
       <c r="G130" s="18"/>
     </row>
-    <row r="131" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="57" t="s">
+    <row r="131" spans="1:7" ht="15" customHeight="1"/>
+    <row r="132" spans="1:7" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A132" s="62" t="s">
         <v>252</v>
       </c>
-      <c r="B132" s="57"/>
-      <c r="C132" s="57"/>
-      <c r="D132" s="57"/>
-      <c r="E132" s="57"/>
-      <c r="F132" s="57"/>
-      <c r="G132" s="57"/>
-    </row>
-    <row r="133" spans="1:7" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="79" t="s">
+      <c r="B132" s="62"/>
+      <c r="C132" s="62"/>
+      <c r="D132" s="62"/>
+      <c r="E132" s="62"/>
+      <c r="F132" s="62"/>
+      <c r="G132" s="62"/>
+    </row>
+    <row r="133" spans="1:7" ht="15" customHeight="1" thickTop="1">
+      <c r="A133" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="B133" s="80"/>
-      <c r="C133" s="76" t="s">
+      <c r="B133" s="64"/>
+      <c r="C133" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="D133" s="77"/>
-      <c r="E133" s="77"/>
-      <c r="F133" s="77"/>
-      <c r="G133" s="78"/>
-    </row>
-    <row r="134" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="58" t="s">
+      <c r="D133" s="66"/>
+      <c r="E133" s="66"/>
+      <c r="F133" s="66"/>
+      <c r="G133" s="67"/>
+    </row>
+    <row r="134" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A134" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B134" s="59"/>
-      <c r="C134" s="63"/>
-      <c r="D134" s="64"/>
-      <c r="E134" s="64"/>
-      <c r="F134" s="64"/>
-      <c r="G134" s="65"/>
-    </row>
-    <row r="135" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="58" t="s">
+      <c r="B134" s="55"/>
+      <c r="C134" s="56"/>
+      <c r="D134" s="57"/>
+      <c r="E134" s="57"/>
+      <c r="F134" s="57"/>
+      <c r="G134" s="58"/>
+    </row>
+    <row r="135" spans="1:7" ht="12" customHeight="1">
+      <c r="A135" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B135" s="59"/>
-      <c r="C135" s="66" t="s">
+      <c r="B135" s="55"/>
+      <c r="C135" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="D135" s="74"/>
-      <c r="E135" s="74"/>
-      <c r="F135" s="74"/>
-      <c r="G135" s="75"/>
-    </row>
-    <row r="136" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="37"/>
-      <c r="B136" s="38"/>
-      <c r="C136" s="38"/>
-      <c r="D136" s="38"/>
-      <c r="E136" s="38"/>
-      <c r="F136" s="38"/>
-      <c r="G136" s="39"/>
-    </row>
-    <row r="137" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D135" s="60"/>
+      <c r="E135" s="60"/>
+      <c r="F135" s="60"/>
+      <c r="G135" s="61"/>
+    </row>
+    <row r="136" spans="1:7" ht="15" customHeight="1">
+      <c r="A136" s="33"/>
+      <c r="B136" s="34"/>
+      <c r="C136" s="34"/>
+      <c r="D136" s="34"/>
+      <c r="E136" s="34"/>
+      <c r="F136" s="34"/>
+      <c r="G136" s="35"/>
+    </row>
+    <row r="137" spans="1:7" ht="18.75" customHeight="1">
       <c r="A137" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B137" s="55" t="s">
+      <c r="B137" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C137" s="54"/>
-      <c r="D137" s="55" t="s">
+      <c r="C137" s="45"/>
+      <c r="D137" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="E137" s="54"/>
+      <c r="E137" s="45"/>
       <c r="F137" s="21" t="s">
         <v>70</v>
       </c>
@@ -5936,304 +5924,304 @@
         <v>72</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" ht="46.5" customHeight="1">
       <c r="A138" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="B138" s="52" t="s">
+      <c r="B138" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="C138" s="72"/>
-      <c r="D138" s="52" t="s">
+      <c r="C138" s="52"/>
+      <c r="D138" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="E138" s="72"/>
+      <c r="E138" s="52"/>
       <c r="F138" s="20"/>
       <c r="G138" s="20"/>
     </row>
-    <row r="139" spans="1:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" ht="72" customHeight="1">
       <c r="A139" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="B139" s="52" t="s">
+      <c r="B139" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="C139" s="72"/>
-      <c r="D139" s="81" t="s">
+      <c r="C139" s="52"/>
+      <c r="D139" s="88" t="s">
         <v>259</v>
       </c>
-      <c r="E139" s="53"/>
+      <c r="E139" s="73"/>
       <c r="F139" s="20"/>
       <c r="G139" s="20"/>
     </row>
-    <row r="140" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="59.25" customHeight="1">
       <c r="A140" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="B140" s="52" t="s">
+      <c r="B140" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="C140" s="72"/>
-      <c r="D140" s="52" t="s">
+      <c r="C140" s="52"/>
+      <c r="D140" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E140" s="72"/>
+      <c r="E140" s="52"/>
       <c r="F140" s="20"/>
       <c r="G140" s="20"/>
     </row>
-    <row r="141" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" ht="75.75" customHeight="1">
       <c r="A141" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="B141" s="52" t="s">
+      <c r="B141" s="51" t="s">
         <v>263</v>
       </c>
-      <c r="C141" s="72"/>
-      <c r="D141" s="52" t="s">
+      <c r="C141" s="52"/>
+      <c r="D141" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E141" s="72"/>
+      <c r="E141" s="52"/>
       <c r="F141" s="20"/>
       <c r="G141" s="20"/>
     </row>
-    <row r="142" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="71.25" customHeight="1">
       <c r="A142" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="B142" s="52" t="s">
+      <c r="B142" s="51" t="s">
         <v>265</v>
       </c>
-      <c r="C142" s="72"/>
-      <c r="D142" s="52" t="s">
+      <c r="C142" s="52"/>
+      <c r="D142" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E142" s="72"/>
+      <c r="E142" s="52"/>
       <c r="F142" s="20"/>
       <c r="G142" s="20"/>
     </row>
-    <row r="143" spans="1:7" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="69.75" customHeight="1">
       <c r="A143" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="B143" s="52" t="s">
+      <c r="B143" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="C143" s="72"/>
-      <c r="D143" s="52" t="s">
+      <c r="C143" s="52"/>
+      <c r="D143" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E143" s="72"/>
+      <c r="E143" s="52"/>
       <c r="F143" s="20"/>
       <c r="G143" s="20"/>
     </row>
-    <row r="144" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="68.25" customHeight="1">
       <c r="A144" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="B144" s="52" t="s">
+      <c r="B144" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="C144" s="72"/>
-      <c r="D144" s="52" t="s">
+      <c r="C144" s="52"/>
+      <c r="D144" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E144" s="72"/>
+      <c r="E144" s="52"/>
       <c r="F144" s="20"/>
       <c r="G144" s="20"/>
     </row>
-    <row r="145" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" ht="51.75" customHeight="1">
       <c r="A145" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="B145" s="52" t="s">
+      <c r="B145" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="C145" s="53"/>
-      <c r="D145" s="52" t="s">
+      <c r="C145" s="73"/>
+      <c r="D145" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E145" s="53"/>
-      <c r="F145" s="40"/>
-      <c r="G145" s="40"/>
-    </row>
-    <row r="146" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E145" s="73"/>
+      <c r="F145" s="36"/>
+      <c r="G145" s="36"/>
+    </row>
+    <row r="146" spans="1:7" ht="44.25" customHeight="1">
       <c r="A146" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="B146" s="52" t="s">
+      <c r="B146" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="C146" s="53"/>
-      <c r="D146" s="52" t="s">
+      <c r="C146" s="73"/>
+      <c r="D146" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E146" s="53"/>
-      <c r="F146" s="40"/>
-      <c r="G146" s="40"/>
-    </row>
-    <row r="147" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E146" s="73"/>
+      <c r="F146" s="36"/>
+      <c r="G146" s="36"/>
+    </row>
+    <row r="147" spans="1:7" ht="46.5" customHeight="1">
       <c r="A147" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="B147" s="52" t="s">
+      <c r="B147" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="C147" s="53"/>
-      <c r="D147" s="52" t="s">
+      <c r="C147" s="73"/>
+      <c r="D147" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E147" s="53"/>
-      <c r="F147" s="40"/>
-      <c r="G147" s="40"/>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" s="55" t="s">
+      <c r="E147" s="73"/>
+      <c r="F147" s="36"/>
+      <c r="G147" s="36"/>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B148" s="54"/>
-      <c r="C148" s="30" t="s">
+      <c r="B148" s="45"/>
+      <c r="C148" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="D148" s="31"/>
-      <c r="E148" s="31"/>
-      <c r="F148" s="31"/>
-      <c r="G148" s="32"/>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" s="55" t="s">
+      <c r="D148" s="70"/>
+      <c r="E148" s="70"/>
+      <c r="F148" s="70"/>
+      <c r="G148" s="71"/>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B149" s="54"/>
-      <c r="C149" s="33">
+      <c r="B149" s="45"/>
+      <c r="C149" s="69">
         <v>43042</v>
       </c>
-      <c r="D149" s="31"/>
-      <c r="E149" s="31"/>
-      <c r="F149" s="31"/>
-      <c r="G149" s="32"/>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" s="47" t="s">
+      <c r="D149" s="70"/>
+      <c r="E149" s="70"/>
+      <c r="F149" s="70"/>
+      <c r="G149" s="71"/>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B150" s="48"/>
-      <c r="C150" s="30" t="s">
+      <c r="B150" s="50"/>
+      <c r="C150" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="D150" s="31"/>
-      <c r="E150" s="31"/>
-      <c r="F150" s="31"/>
-      <c r="G150" s="32"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" s="47" t="s">
+      <c r="D150" s="70"/>
+      <c r="E150" s="70"/>
+      <c r="F150" s="70"/>
+      <c r="G150" s="71"/>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B151" s="48"/>
-      <c r="C151" s="30" t="s">
+      <c r="B151" s="50"/>
+      <c r="C151" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="D151" s="31"/>
-      <c r="E151" s="31"/>
-      <c r="F151" s="31"/>
-      <c r="G151" s="32"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" s="46"/>
-      <c r="B152" s="46"/>
-      <c r="C152" s="46"/>
-      <c r="D152" s="46"/>
-      <c r="E152" s="46"/>
-      <c r="F152" s="46"/>
-      <c r="G152" s="46"/>
-    </row>
-    <row r="153" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="46"/>
-      <c r="B153" s="46"/>
-      <c r="C153" s="46"/>
-      <c r="D153" s="46"/>
-      <c r="E153" s="46"/>
-      <c r="F153" s="46"/>
-      <c r="G153" s="46"/>
-    </row>
-    <row r="154" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="46"/>
-      <c r="B154" s="46"/>
-      <c r="C154" s="46"/>
-      <c r="D154" s="46"/>
-      <c r="E154" s="46"/>
-      <c r="F154" s="46"/>
-      <c r="G154" s="46"/>
-    </row>
-    <row r="155" spans="1:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="57" t="s">
+      <c r="D151" s="70"/>
+      <c r="E151" s="70"/>
+      <c r="F151" s="70"/>
+      <c r="G151" s="71"/>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="37"/>
+      <c r="B152" s="37"/>
+      <c r="C152" s="37"/>
+      <c r="D152" s="37"/>
+      <c r="E152" s="37"/>
+      <c r="F152" s="37"/>
+      <c r="G152" s="37"/>
+    </row>
+    <row r="153" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A153" s="37"/>
+      <c r="B153" s="37"/>
+      <c r="C153" s="37"/>
+      <c r="D153" s="37"/>
+      <c r="E153" s="37"/>
+      <c r="F153" s="37"/>
+      <c r="G153" s="37"/>
+    </row>
+    <row r="154" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A154" s="37"/>
+      <c r="B154" s="37"/>
+      <c r="C154" s="37"/>
+      <c r="D154" s="37"/>
+      <c r="E154" s="37"/>
+      <c r="F154" s="37"/>
+      <c r="G154" s="37"/>
+    </row>
+    <row r="155" spans="1:7" ht="21.75" customHeight="1" thickBot="1">
+      <c r="A155" s="62" t="s">
         <v>276</v>
       </c>
-      <c r="B155" s="57"/>
-      <c r="C155" s="57"/>
-      <c r="D155" s="57"/>
-      <c r="E155" s="57"/>
-      <c r="F155" s="57"/>
-      <c r="G155" s="57"/>
-    </row>
-    <row r="156" spans="1:7" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="79" t="s">
+      <c r="B155" s="62"/>
+      <c r="C155" s="62"/>
+      <c r="D155" s="62"/>
+      <c r="E155" s="62"/>
+      <c r="F155" s="62"/>
+      <c r="G155" s="62"/>
+    </row>
+    <row r="156" spans="1:7" ht="16.5" customHeight="1" thickTop="1">
+      <c r="A156" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="B156" s="80"/>
-      <c r="C156" s="76" t="s">
+      <c r="B156" s="64"/>
+      <c r="C156" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="D156" s="77"/>
-      <c r="E156" s="77"/>
-      <c r="F156" s="77"/>
-      <c r="G156" s="78"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" s="58" t="s">
+      <c r="D156" s="66"/>
+      <c r="E156" s="66"/>
+      <c r="F156" s="66"/>
+      <c r="G156" s="67"/>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B157" s="59"/>
-      <c r="C157" s="63"/>
-      <c r="D157" s="64"/>
-      <c r="E157" s="64"/>
-      <c r="F157" s="64"/>
-      <c r="G157" s="65"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A158" s="58" t="s">
+      <c r="B157" s="55"/>
+      <c r="C157" s="56"/>
+      <c r="D157" s="57"/>
+      <c r="E157" s="57"/>
+      <c r="F157" s="57"/>
+      <c r="G157" s="58"/>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B158" s="59"/>
-      <c r="C158" s="66" t="s">
+      <c r="B158" s="55"/>
+      <c r="C158" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="D158" s="74"/>
-      <c r="E158" s="74"/>
-      <c r="F158" s="74"/>
-      <c r="G158" s="75"/>
-    </row>
-    <row r="159" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="37"/>
-      <c r="B159" s="38"/>
-      <c r="C159" s="38"/>
-      <c r="D159" s="38"/>
-      <c r="E159" s="38"/>
-      <c r="F159" s="38"/>
-      <c r="G159" s="39"/>
-    </row>
-    <row r="160" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D158" s="60"/>
+      <c r="E158" s="60"/>
+      <c r="F158" s="60"/>
+      <c r="G158" s="61"/>
+    </row>
+    <row r="159" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A159" s="33"/>
+      <c r="B159" s="34"/>
+      <c r="C159" s="34"/>
+      <c r="D159" s="34"/>
+      <c r="E159" s="34"/>
+      <c r="F159" s="34"/>
+      <c r="G159" s="35"/>
+    </row>
+    <row r="160" spans="1:7" ht="47.25" customHeight="1">
       <c r="A160" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B160" s="55" t="s">
+      <c r="B160" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C160" s="54"/>
-      <c r="D160" s="55" t="s">
+      <c r="C160" s="45"/>
+      <c r="D160" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="E160" s="54"/>
+      <c r="E160" s="45"/>
       <c r="F160" s="21" t="s">
         <v>70</v>
       </c>
@@ -6241,248 +6229,240 @@
         <v>72</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" ht="48" customHeight="1">
       <c r="A161" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="B161" s="52" t="s">
+      <c r="B161" s="51" t="s">
         <v>279</v>
       </c>
-      <c r="C161" s="72"/>
-      <c r="D161" s="52" t="s">
+      <c r="C161" s="52"/>
+      <c r="D161" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="E161" s="72"/>
+      <c r="E161" s="52"/>
       <c r="F161" s="20"/>
       <c r="G161" s="20"/>
     </row>
-    <row r="162" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" ht="56.25" customHeight="1">
       <c r="A162" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="B162" s="52" t="s">
+      <c r="B162" s="51" t="s">
         <v>282</v>
       </c>
-      <c r="C162" s="72"/>
-      <c r="D162" s="52" t="s">
+      <c r="C162" s="52"/>
+      <c r="D162" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="E162" s="72"/>
+      <c r="E162" s="52"/>
       <c r="F162" s="20"/>
       <c r="G162" s="20"/>
     </row>
-    <row r="163" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" ht="56.25" customHeight="1">
       <c r="A163" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="B163" s="52" t="s">
+      <c r="B163" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="C163" s="72"/>
-      <c r="D163" s="52" t="s">
+      <c r="C163" s="52"/>
+      <c r="D163" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="E163" s="72"/>
+      <c r="E163" s="52"/>
       <c r="F163" s="20"/>
       <c r="G163" s="20"/>
     </row>
-    <row r="164" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" ht="64.5" customHeight="1">
       <c r="A164" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="B164" s="52" t="s">
+      <c r="B164" s="51" t="s">
         <v>288</v>
       </c>
-      <c r="C164" s="72"/>
-      <c r="D164" s="52" t="s">
+      <c r="C164" s="52"/>
+      <c r="D164" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E164" s="72"/>
+      <c r="E164" s="52"/>
       <c r="F164" s="20"/>
       <c r="G164" s="20"/>
     </row>
-    <row r="165" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" ht="48" customHeight="1">
       <c r="A165" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="B165" s="52" t="s">
+      <c r="B165" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="C165" s="72"/>
-      <c r="D165" s="52" t="s">
+      <c r="C165" s="52"/>
+      <c r="D165" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E165" s="72"/>
+      <c r="E165" s="52"/>
       <c r="F165" s="20"/>
       <c r="G165" s="20"/>
     </row>
-    <row r="166" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" ht="66" customHeight="1">
       <c r="A166" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="B166" s="52" t="s">
+      <c r="B166" s="51" t="s">
         <v>292</v>
       </c>
-      <c r="C166" s="72"/>
-      <c r="D166" s="52" t="s">
+      <c r="C166" s="52"/>
+      <c r="D166" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E166" s="72"/>
+      <c r="E166" s="52"/>
       <c r="F166" s="20"/>
       <c r="G166" s="20"/>
     </row>
-    <row r="167" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" ht="54.75" customHeight="1">
       <c r="A167" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="B167" s="52" t="s">
+      <c r="B167" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="C167" s="53"/>
-      <c r="D167" s="52" t="s">
+      <c r="C167" s="73"/>
+      <c r="D167" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E167" s="53"/>
-      <c r="F167" s="40"/>
-      <c r="G167" s="40"/>
-    </row>
-    <row r="168" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E167" s="73"/>
+      <c r="F167" s="36"/>
+      <c r="G167" s="36"/>
+    </row>
+    <row r="168" spans="1:7" ht="46.5" customHeight="1">
       <c r="A168" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="B168" s="52" t="s">
+      <c r="B168" s="51" t="s">
         <v>296</v>
       </c>
-      <c r="C168" s="53"/>
-      <c r="D168" s="52" t="s">
+      <c r="C168" s="73"/>
+      <c r="D168" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E168" s="53"/>
-      <c r="F168" s="40"/>
-      <c r="G168" s="40"/>
-    </row>
-    <row r="169" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="55" t="s">
+      <c r="E168" s="73"/>
+      <c r="F168" s="36"/>
+      <c r="G168" s="36"/>
+    </row>
+    <row r="169" spans="1:7" ht="18" customHeight="1">
+      <c r="A169" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B169" s="54"/>
-      <c r="C169" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D169" s="31"/>
-      <c r="E169" s="31"/>
-      <c r="F169" s="31"/>
-      <c r="G169" s="32"/>
-    </row>
-    <row r="170" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="55" t="s">
+      <c r="B169" s="45"/>
+      <c r="C169" s="72"/>
+      <c r="D169" s="70"/>
+      <c r="E169" s="70"/>
+      <c r="F169" s="70"/>
+      <c r="G169" s="71"/>
+    </row>
+    <row r="170" spans="1:7" ht="24" customHeight="1">
+      <c r="A170" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B170" s="54"/>
-      <c r="C170" s="33">
-        <v>43042</v>
-      </c>
-      <c r="D170" s="31"/>
-      <c r="E170" s="31"/>
-      <c r="F170" s="31"/>
-      <c r="G170" s="32"/>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" s="47" t="s">
+      <c r="B170" s="45"/>
+      <c r="C170" s="69"/>
+      <c r="D170" s="70"/>
+      <c r="E170" s="70"/>
+      <c r="F170" s="70"/>
+      <c r="G170" s="71"/>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B171" s="48"/>
-      <c r="C171" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="D171" s="31"/>
-      <c r="E171" s="31"/>
-      <c r="F171" s="31"/>
-      <c r="G171" s="32"/>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A172" s="47" t="s">
+      <c r="B171" s="50"/>
+      <c r="C171" s="72"/>
+      <c r="D171" s="70"/>
+      <c r="E171" s="70"/>
+      <c r="F171" s="70"/>
+      <c r="G171" s="71"/>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B172" s="48"/>
-      <c r="C172" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D172" s="31"/>
-      <c r="E172" s="31"/>
-      <c r="F172" s="31"/>
-      <c r="G172" s="32"/>
-    </row>
-    <row r="173" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A180" s="57" t="s">
+      <c r="B172" s="50"/>
+      <c r="C172" s="72"/>
+      <c r="D172" s="70"/>
+      <c r="E172" s="70"/>
+      <c r="F172" s="70"/>
+      <c r="G172" s="71"/>
+    </row>
+    <row r="173" spans="1:7" ht="27.75" customHeight="1"/>
+    <row r="180" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A180" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="B180" s="57"/>
-      <c r="C180" s="57"/>
-      <c r="D180" s="57"/>
-      <c r="E180" s="57"/>
-      <c r="F180" s="57"/>
-      <c r="G180" s="57"/>
-    </row>
-    <row r="181" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="58" t="s">
+      <c r="B180" s="62"/>
+      <c r="C180" s="62"/>
+      <c r="D180" s="62"/>
+      <c r="E180" s="62"/>
+      <c r="F180" s="62"/>
+      <c r="G180" s="62"/>
+    </row>
+    <row r="181" spans="1:7" ht="15" thickTop="1">
+      <c r="A181" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B181" s="59"/>
-      <c r="C181" s="60" t="s">
+      <c r="B181" s="55"/>
+      <c r="C181" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="D181" s="61"/>
-      <c r="E181" s="61"/>
-      <c r="F181" s="61"/>
-      <c r="G181" s="62"/>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A182" s="58" t="s">
+      <c r="D181" s="75"/>
+      <c r="E181" s="75"/>
+      <c r="F181" s="75"/>
+      <c r="G181" s="76"/>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B182" s="59"/>
-      <c r="C182" s="63"/>
-      <c r="D182" s="64"/>
-      <c r="E182" s="64"/>
-      <c r="F182" s="64"/>
-      <c r="G182" s="65"/>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A183" s="58" t="s">
+      <c r="B182" s="55"/>
+      <c r="C182" s="56"/>
+      <c r="D182" s="57"/>
+      <c r="E182" s="57"/>
+      <c r="F182" s="57"/>
+      <c r="G182" s="58"/>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B183" s="59"/>
-      <c r="C183" s="66" t="s">
+      <c r="B183" s="55"/>
+      <c r="C183" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="D183" s="67"/>
-      <c r="E183" s="67"/>
-      <c r="F183" s="67"/>
-      <c r="G183" s="68"/>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A184" s="69"/>
-      <c r="B184" s="70"/>
-      <c r="C184" s="70"/>
-      <c r="D184" s="70"/>
-      <c r="E184" s="70"/>
-      <c r="F184" s="70"/>
-      <c r="G184" s="71"/>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D183" s="77"/>
+      <c r="E183" s="77"/>
+      <c r="F183" s="77"/>
+      <c r="G183" s="78"/>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="79"/>
+      <c r="B184" s="80"/>
+      <c r="C184" s="80"/>
+      <c r="D184" s="80"/>
+      <c r="E184" s="80"/>
+      <c r="F184" s="80"/>
+      <c r="G184" s="81"/>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B185" s="55" t="s">
+      <c r="B185" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C185" s="54"/>
-      <c r="D185" s="55" t="s">
+      <c r="C185" s="45"/>
+      <c r="D185" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="E185" s="54"/>
+      <c r="E185" s="45"/>
       <c r="F185" s="21" t="s">
         <v>70</v>
       </c>
@@ -6490,48 +6470,48 @@
         <v>72</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" ht="51.75" customHeight="1">
       <c r="A186" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="B186" s="52" t="s">
+      <c r="B186" s="51" t="s">
         <v>348</v>
       </c>
-      <c r="C186" s="53"/>
-      <c r="D186" s="52" t="s">
+      <c r="C186" s="73"/>
+      <c r="D186" s="51" t="s">
         <v>349</v>
       </c>
-      <c r="E186" s="53"/>
+      <c r="E186" s="73"/>
       <c r="F186" s="29"/>
       <c r="G186" s="29"/>
     </row>
-    <row r="187" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" ht="57.75" customHeight="1">
       <c r="A187" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="B187" s="52" t="s">
+      <c r="B187" s="51" t="s">
         <v>350</v>
       </c>
-      <c r="C187" s="53"/>
-      <c r="D187" s="52" t="s">
+      <c r="C187" s="73"/>
+      <c r="D187" s="51" t="s">
         <v>351</v>
       </c>
-      <c r="E187" s="53"/>
+      <c r="E187" s="73"/>
       <c r="F187" s="29"/>
       <c r="G187" s="29"/>
     </row>
-    <row r="188" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" ht="31.2" customHeight="1">
       <c r="A188" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="B188" s="52" t="s">
+      <c r="B188" s="51" t="s">
         <v>352</v>
       </c>
-      <c r="C188" s="53"/>
-      <c r="D188" s="52" t="s">
+      <c r="C188" s="73"/>
+      <c r="D188" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="E188" s="53"/>
+      <c r="E188" s="73"/>
       <c r="F188" s="29" t="s">
         <v>131</v>
       </c>
@@ -6539,187 +6519,179 @@
         <v>98</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" ht="51" customHeight="1">
       <c r="A189" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="B189" s="52" t="s">
+      <c r="B189" s="51" t="s">
         <v>354</v>
       </c>
-      <c r="C189" s="53"/>
-      <c r="D189" s="52" t="s">
+      <c r="C189" s="73"/>
+      <c r="D189" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E189" s="53"/>
+      <c r="E189" s="73"/>
       <c r="F189" s="29"/>
       <c r="G189" s="29"/>
     </row>
-    <row r="190" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" ht="43.5" customHeight="1">
       <c r="A190" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="B190" s="52" t="s">
+      <c r="B190" s="51" t="s">
         <v>355</v>
       </c>
-      <c r="C190" s="53"/>
-      <c r="D190" s="52" t="s">
+      <c r="C190" s="73"/>
+      <c r="D190" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E190" s="53"/>
+      <c r="E190" s="73"/>
       <c r="F190" s="29"/>
       <c r="G190" s="29"/>
     </row>
-    <row r="191" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" ht="62.25" customHeight="1">
       <c r="A191" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="B191" s="52" t="s">
+      <c r="B191" s="51" t="s">
         <v>356</v>
       </c>
-      <c r="C191" s="53"/>
-      <c r="D191" s="52" t="s">
+      <c r="C191" s="73"/>
+      <c r="D191" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E191" s="53"/>
+      <c r="E191" s="73"/>
       <c r="F191" s="29"/>
       <c r="G191" s="29"/>
     </row>
-    <row r="192" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" ht="45" customHeight="1">
       <c r="A192" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="B192" s="52" t="s">
+      <c r="B192" s="51" t="s">
         <v>361</v>
       </c>
-      <c r="C192" s="53"/>
-      <c r="D192" s="52" t="s">
+      <c r="C192" s="73"/>
+      <c r="D192" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E192" s="53"/>
+      <c r="E192" s="73"/>
       <c r="F192" s="29"/>
       <c r="G192" s="29"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A193" s="47" t="s">
+    <row r="193" spans="1:7">
+      <c r="A193" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B193" s="54"/>
-      <c r="C193" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="D193" s="50"/>
-      <c r="E193" s="50"/>
-      <c r="F193" s="50"/>
-      <c r="G193" s="51"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" s="55" t="s">
+      <c r="B193" s="45"/>
+      <c r="C193" s="72"/>
+      <c r="D193" s="70"/>
+      <c r="E193" s="70"/>
+      <c r="F193" s="70"/>
+      <c r="G193" s="71"/>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B194" s="54"/>
-      <c r="C194" s="56">
-        <v>43046</v>
-      </c>
-      <c r="D194" s="50"/>
-      <c r="E194" s="50"/>
-      <c r="F194" s="50"/>
-      <c r="G194" s="51"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A195" s="47" t="s">
+      <c r="B194" s="45"/>
+      <c r="C194" s="69"/>
+      <c r="D194" s="70"/>
+      <c r="E194" s="70"/>
+      <c r="F194" s="70"/>
+      <c r="G194" s="71"/>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B195" s="54"/>
-      <c r="C195" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="D195" s="50"/>
-      <c r="E195" s="50"/>
-      <c r="F195" s="50"/>
-      <c r="G195" s="51"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A196" s="47" t="s">
+      <c r="B195" s="45"/>
+      <c r="C195" s="72"/>
+      <c r="D195" s="70"/>
+      <c r="E195" s="70"/>
+      <c r="F195" s="70"/>
+      <c r="G195" s="71"/>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B196" s="48"/>
-      <c r="C196" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="D196" s="50"/>
-      <c r="E196" s="50"/>
-      <c r="F196" s="50"/>
-      <c r="G196" s="51"/>
-    </row>
-    <row r="200" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="57" t="s">
+      <c r="B196" s="50"/>
+      <c r="C196" s="72"/>
+      <c r="D196" s="70"/>
+      <c r="E196" s="70"/>
+      <c r="F196" s="70"/>
+      <c r="G196" s="71"/>
+    </row>
+    <row r="200" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A200" s="62" t="s">
         <v>373</v>
       </c>
-      <c r="B200" s="57"/>
-      <c r="C200" s="57"/>
-      <c r="D200" s="57"/>
-      <c r="E200" s="57"/>
-      <c r="F200" s="57"/>
-      <c r="G200" s="57"/>
-    </row>
-    <row r="201" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="79" t="s">
+      <c r="B200" s="62"/>
+      <c r="C200" s="62"/>
+      <c r="D200" s="62"/>
+      <c r="E200" s="62"/>
+      <c r="F200" s="62"/>
+      <c r="G200" s="62"/>
+    </row>
+    <row r="201" spans="1:7" ht="15" thickTop="1">
+      <c r="A201" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="B201" s="80"/>
-      <c r="C201" s="76" t="s">
+      <c r="B201" s="64"/>
+      <c r="C201" s="65" t="s">
         <v>374</v>
       </c>
-      <c r="D201" s="77"/>
-      <c r="E201" s="77"/>
-      <c r="F201" s="77"/>
-      <c r="G201" s="78"/>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A202" s="58" t="s">
+      <c r="D201" s="66"/>
+      <c r="E201" s="66"/>
+      <c r="F201" s="66"/>
+      <c r="G201" s="67"/>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B202" s="59"/>
-      <c r="C202" s="63"/>
-      <c r="D202" s="64"/>
-      <c r="E202" s="64"/>
-      <c r="F202" s="64"/>
-      <c r="G202" s="65"/>
-    </row>
-    <row r="203" spans="1:7" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="58" t="s">
+      <c r="B202" s="55"/>
+      <c r="C202" s="56"/>
+      <c r="D202" s="57"/>
+      <c r="E202" s="57"/>
+      <c r="F202" s="57"/>
+      <c r="G202" s="58"/>
+    </row>
+    <row r="203" spans="1:7" ht="151.19999999999999" customHeight="1">
+      <c r="A203" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B203" s="59"/>
-      <c r="C203" s="66" t="s">
+      <c r="B203" s="55"/>
+      <c r="C203" s="59" t="s">
         <v>375</v>
       </c>
-      <c r="D203" s="74"/>
-      <c r="E203" s="74"/>
-      <c r="F203" s="74"/>
-      <c r="G203" s="75"/>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A204" s="82"/>
-      <c r="B204" s="83"/>
-      <c r="C204" s="83"/>
-      <c r="D204" s="83"/>
-      <c r="E204" s="83"/>
-      <c r="F204" s="83"/>
-      <c r="G204" s="84"/>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D203" s="60"/>
+      <c r="E203" s="60"/>
+      <c r="F203" s="60"/>
+      <c r="G203" s="61"/>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="46"/>
+      <c r="B204" s="47"/>
+      <c r="C204" s="47"/>
+      <c r="D204" s="47"/>
+      <c r="E204" s="47"/>
+      <c r="F204" s="47"/>
+      <c r="G204" s="48"/>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B205" s="55" t="s">
+      <c r="B205" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C205" s="54"/>
-      <c r="D205" s="55" t="s">
+      <c r="C205" s="45"/>
+      <c r="D205" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="E205" s="54"/>
+      <c r="E205" s="45"/>
       <c r="F205" s="21" t="s">
         <v>70</v>
       </c>
@@ -6727,389 +6699,389 @@
         <v>72</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="94" t="s">
+    <row r="206" spans="1:7" ht="49.2" customHeight="1">
+      <c r="A206" s="38" t="s">
         <v>376</v>
       </c>
-      <c r="B206" s="52" t="s">
+      <c r="B206" s="51" t="s">
         <v>377</v>
       </c>
-      <c r="C206" s="72"/>
-      <c r="D206" s="52" t="s">
+      <c r="C206" s="52"/>
+      <c r="D206" s="51" t="s">
         <v>378</v>
       </c>
-      <c r="E206" s="72"/>
+      <c r="E206" s="52"/>
       <c r="F206" s="27"/>
       <c r="G206" s="27"/>
     </row>
-    <row r="207" spans="1:7" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="94" t="s">
+    <row r="207" spans="1:7" ht="87.6" customHeight="1">
+      <c r="A207" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="B207" s="52" t="s">
+      <c r="B207" s="51" t="s">
         <v>380</v>
       </c>
-      <c r="C207" s="72"/>
-      <c r="D207" s="52" t="s">
+      <c r="C207" s="52"/>
+      <c r="D207" s="51" t="s">
         <v>381</v>
       </c>
-      <c r="E207" s="72"/>
+      <c r="E207" s="52"/>
       <c r="F207" s="27"/>
       <c r="G207" s="27"/>
     </row>
-    <row r="208" spans="1:7" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="94" t="s">
+    <row r="208" spans="1:7" ht="120.6" customHeight="1">
+      <c r="A208" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="B208" s="52" t="s">
+      <c r="B208" s="51" t="s">
         <v>383</v>
       </c>
-      <c r="C208" s="72"/>
-      <c r="D208" s="52" t="s">
+      <c r="C208" s="52"/>
+      <c r="D208" s="51" t="s">
         <v>384</v>
       </c>
-      <c r="E208" s="72"/>
+      <c r="E208" s="52"/>
       <c r="F208" s="27"/>
       <c r="G208" s="27"/>
     </row>
-    <row r="209" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="94" t="s">
+    <row r="209" spans="1:7" ht="105" customHeight="1">
+      <c r="A209" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="B209" s="52" t="s">
+      <c r="B209" s="51" t="s">
         <v>427</v>
       </c>
-      <c r="C209" s="72"/>
-      <c r="D209" s="52" t="s">
+      <c r="C209" s="52"/>
+      <c r="D209" s="51" t="s">
         <v>386</v>
       </c>
-      <c r="E209" s="72"/>
+      <c r="E209" s="52"/>
       <c r="F209" s="27"/>
       <c r="G209" s="27"/>
     </row>
-    <row r="210" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="94" t="s">
+    <row r="210" spans="1:7" ht="32.4" customHeight="1">
+      <c r="A210" s="38" t="s">
         <v>387</v>
       </c>
-      <c r="B210" s="52" t="s">
+      <c r="B210" s="51" t="s">
         <v>388</v>
       </c>
-      <c r="C210" s="72"/>
-      <c r="D210" s="52" t="s">
+      <c r="C210" s="52"/>
+      <c r="D210" s="51" t="s">
         <v>389</v>
       </c>
-      <c r="E210" s="72"/>
+      <c r="E210" s="52"/>
       <c r="F210" s="27"/>
       <c r="G210" s="27"/>
     </row>
-    <row r="211" spans="1:7" ht="166.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="94" t="s">
+    <row r="211" spans="1:7" ht="166.8" customHeight="1">
+      <c r="A211" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="B211" s="52" t="s">
+      <c r="B211" s="51" t="s">
         <v>391</v>
       </c>
-      <c r="C211" s="72"/>
-      <c r="D211" s="52" t="s">
+      <c r="C211" s="52"/>
+      <c r="D211" s="51" t="s">
         <v>389</v>
       </c>
-      <c r="E211" s="72"/>
+      <c r="E211" s="52"/>
       <c r="F211" s="27"/>
       <c r="G211" s="27"/>
     </row>
-    <row r="212" spans="1:7" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="94" t="s">
+    <row r="212" spans="1:7" ht="74.400000000000006" customHeight="1">
+      <c r="A212" s="38" t="s">
         <v>392</v>
       </c>
-      <c r="B212" s="52" t="s">
+      <c r="B212" s="51" t="s">
         <v>393</v>
       </c>
-      <c r="C212" s="72"/>
-      <c r="D212" s="52" t="s">
+      <c r="C212" s="52"/>
+      <c r="D212" s="51" t="s">
         <v>394</v>
       </c>
-      <c r="E212" s="72"/>
-      <c r="F212" s="95"/>
-      <c r="G212" s="95"/>
-    </row>
-    <row r="213" spans="1:7" ht="195" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="94" t="s">
+      <c r="E212" s="52"/>
+      <c r="F212" s="39"/>
+      <c r="G212" s="39"/>
+    </row>
+    <row r="213" spans="1:7" ht="195" customHeight="1">
+      <c r="A213" s="38" t="s">
         <v>395</v>
       </c>
-      <c r="B213" s="52" t="s">
+      <c r="B213" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="C213" s="72"/>
-      <c r="D213" s="52" t="s">
+      <c r="C213" s="52"/>
+      <c r="D213" s="51" t="s">
         <v>397</v>
       </c>
-      <c r="E213" s="72"/>
-      <c r="F213" s="95"/>
-      <c r="G213" s="95"/>
-    </row>
-    <row r="214" spans="1:7" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="94" t="s">
+      <c r="E213" s="52"/>
+      <c r="F213" s="39"/>
+      <c r="G213" s="39"/>
+    </row>
+    <row r="214" spans="1:7" ht="106.8" customHeight="1">
+      <c r="A214" s="38" t="s">
         <v>398</v>
       </c>
-      <c r="B214" s="52" t="s">
+      <c r="B214" s="51" t="s">
         <v>399</v>
       </c>
-      <c r="C214" s="72"/>
-      <c r="D214" s="52" t="s">
+      <c r="C214" s="52"/>
+      <c r="D214" s="51" t="s">
         <v>400</v>
       </c>
-      <c r="E214" s="72"/>
-      <c r="F214" s="95"/>
-      <c r="G214" s="95"/>
-    </row>
-    <row r="215" spans="1:7" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="94" t="s">
+      <c r="E214" s="52"/>
+      <c r="F214" s="39"/>
+      <c r="G214" s="39"/>
+    </row>
+    <row r="215" spans="1:7" ht="76.8" customHeight="1">
+      <c r="A215" s="38" t="s">
         <v>401</v>
       </c>
-      <c r="B215" s="96" t="s">
+      <c r="B215" s="68" t="s">
         <v>402</v>
       </c>
-      <c r="C215" s="72"/>
-      <c r="D215" s="52" t="s">
+      <c r="C215" s="52"/>
+      <c r="D215" s="51" t="s">
         <v>403</v>
       </c>
-      <c r="E215" s="72"/>
-      <c r="F215" s="95"/>
-      <c r="G215" s="95"/>
-    </row>
-    <row r="216" spans="1:7" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="94" t="s">
+      <c r="E215" s="52"/>
+      <c r="F215" s="39"/>
+      <c r="G215" s="39"/>
+    </row>
+    <row r="216" spans="1:7" ht="76.2" customHeight="1">
+      <c r="A216" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="B216" s="96" t="s">
+      <c r="B216" s="68" t="s">
         <v>405</v>
       </c>
-      <c r="C216" s="72"/>
-      <c r="D216" s="52" t="s">
+      <c r="C216" s="52"/>
+      <c r="D216" s="51" t="s">
         <v>406</v>
       </c>
-      <c r="E216" s="72"/>
-      <c r="F216" s="95"/>
-      <c r="G216" s="95"/>
-    </row>
-    <row r="217" spans="1:7" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="94" t="s">
+      <c r="E216" s="52"/>
+      <c r="F216" s="39"/>
+      <c r="G216" s="39"/>
+    </row>
+    <row r="217" spans="1:7" ht="81.599999999999994" customHeight="1">
+      <c r="A217" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="B217" s="96" t="s">
+      <c r="B217" s="68" t="s">
         <v>408</v>
       </c>
-      <c r="C217" s="72"/>
-      <c r="D217" s="52" t="s">
+      <c r="C217" s="52"/>
+      <c r="D217" s="51" t="s">
         <v>409</v>
       </c>
-      <c r="E217" s="72"/>
-      <c r="F217" s="95"/>
-      <c r="G217" s="95"/>
-    </row>
-    <row r="218" spans="1:7" ht="196.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="94" t="s">
+      <c r="E217" s="52"/>
+      <c r="F217" s="39"/>
+      <c r="G217" s="39"/>
+    </row>
+    <row r="218" spans="1:7" ht="196.8" customHeight="1">
+      <c r="A218" s="38" t="s">
         <v>410</v>
       </c>
-      <c r="B218" s="52" t="s">
+      <c r="B218" s="51" t="s">
         <v>411</v>
       </c>
-      <c r="C218" s="72"/>
-      <c r="D218" s="52" t="s">
+      <c r="C218" s="52"/>
+      <c r="D218" s="51" t="s">
         <v>412</v>
       </c>
-      <c r="E218" s="72"/>
-      <c r="F218" s="95"/>
-      <c r="G218" s="95"/>
-    </row>
-    <row r="219" spans="1:7" ht="253.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="97" t="s">
+      <c r="E218" s="52"/>
+      <c r="F218" s="39"/>
+      <c r="G218" s="39"/>
+    </row>
+    <row r="219" spans="1:7" ht="253.2" customHeight="1">
+      <c r="A219" s="40" t="s">
         <v>413</v>
       </c>
-      <c r="B219" s="52" t="s">
+      <c r="B219" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="C219" s="72"/>
-      <c r="D219" s="52" t="s">
+      <c r="C219" s="52"/>
+      <c r="D219" s="51" t="s">
         <v>415</v>
       </c>
-      <c r="E219" s="72"/>
-      <c r="F219" s="95"/>
-      <c r="G219" s="95"/>
-    </row>
-    <row r="220" spans="1:7" ht="97.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="98" t="s">
+      <c r="E219" s="52"/>
+      <c r="F219" s="39"/>
+      <c r="G219" s="39"/>
+    </row>
+    <row r="220" spans="1:7" ht="97.8" customHeight="1">
+      <c r="A220" s="41" t="s">
         <v>416</v>
       </c>
-      <c r="B220" s="52" t="s">
+      <c r="B220" s="51" t="s">
         <v>417</v>
       </c>
-      <c r="C220" s="72"/>
-      <c r="D220" s="52" t="s">
+      <c r="C220" s="52"/>
+      <c r="D220" s="51" t="s">
         <v>418</v>
       </c>
-      <c r="E220" s="72"/>
-      <c r="F220" s="95"/>
-      <c r="G220" s="95"/>
-    </row>
-    <row r="221" spans="1:7" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="98" t="s">
+      <c r="E220" s="52"/>
+      <c r="F220" s="39"/>
+      <c r="G220" s="39"/>
+    </row>
+    <row r="221" spans="1:7" ht="104.4" customHeight="1">
+      <c r="A221" s="41" t="s">
         <v>419</v>
       </c>
-      <c r="B221" s="52" t="s">
+      <c r="B221" s="51" t="s">
         <v>420</v>
       </c>
-      <c r="C221" s="72"/>
-      <c r="D221" s="52" t="s">
+      <c r="C221" s="52"/>
+      <c r="D221" s="51" t="s">
         <v>421</v>
       </c>
-      <c r="E221" s="72"/>
-      <c r="F221" s="95"/>
-      <c r="G221" s="95"/>
-    </row>
-    <row r="222" spans="1:7" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="98" t="s">
+      <c r="E221" s="52"/>
+      <c r="F221" s="39"/>
+      <c r="G221" s="39"/>
+    </row>
+    <row r="222" spans="1:7" ht="97.2" customHeight="1">
+      <c r="A222" s="41" t="s">
         <v>422</v>
       </c>
-      <c r="B222" s="52" t="s">
+      <c r="B222" s="51" t="s">
         <v>423</v>
       </c>
-      <c r="C222" s="72"/>
-      <c r="D222" s="52" t="s">
+      <c r="C222" s="52"/>
+      <c r="D222" s="51" t="s">
         <v>415</v>
       </c>
-      <c r="E222" s="72"/>
-      <c r="F222" s="95"/>
-      <c r="G222" s="95"/>
-    </row>
-    <row r="223" spans="1:7" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="98" t="s">
+      <c r="E222" s="52"/>
+      <c r="F222" s="39"/>
+      <c r="G222" s="39"/>
+    </row>
+    <row r="223" spans="1:7" ht="62.4" customHeight="1">
+      <c r="A223" s="41" t="s">
         <v>424</v>
       </c>
-      <c r="B223" s="52" t="s">
+      <c r="B223" s="51" t="s">
         <v>425</v>
       </c>
-      <c r="C223" s="72"/>
-      <c r="D223" s="52" t="s">
+      <c r="C223" s="52"/>
+      <c r="D223" s="51" t="s">
         <v>426</v>
       </c>
-      <c r="E223" s="72"/>
-      <c r="F223" s="95"/>
-      <c r="G223" s="95"/>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A224" s="47" t="s">
+      <c r="E223" s="52"/>
+      <c r="F223" s="39"/>
+      <c r="G223" s="39"/>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B224" s="48"/>
-      <c r="C224" s="82"/>
-      <c r="D224" s="83"/>
-      <c r="E224" s="83"/>
-      <c r="F224" s="83"/>
-      <c r="G224" s="84"/>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A225" s="55" t="s">
+      <c r="B224" s="50"/>
+      <c r="C224" s="46"/>
+      <c r="D224" s="47"/>
+      <c r="E224" s="47"/>
+      <c r="F224" s="47"/>
+      <c r="G224" s="48"/>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B225" s="54"/>
-      <c r="C225" s="82"/>
-      <c r="D225" s="83"/>
-      <c r="E225" s="83"/>
-      <c r="F225" s="83"/>
-      <c r="G225" s="84"/>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A226" s="47" t="s">
+      <c r="B225" s="45"/>
+      <c r="C225" s="46"/>
+      <c r="D225" s="47"/>
+      <c r="E225" s="47"/>
+      <c r="F225" s="47"/>
+      <c r="G225" s="48"/>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B226" s="48"/>
-      <c r="C226" s="82"/>
-      <c r="D226" s="83"/>
-      <c r="E226" s="83"/>
-      <c r="F226" s="83"/>
-      <c r="G226" s="84"/>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A227" s="47" t="s">
+      <c r="B226" s="50"/>
+      <c r="C226" s="46"/>
+      <c r="D226" s="47"/>
+      <c r="E226" s="47"/>
+      <c r="F226" s="47"/>
+      <c r="G226" s="48"/>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B227" s="48"/>
-      <c r="C227" s="82"/>
-      <c r="D227" s="83"/>
-      <c r="E227" s="83"/>
-      <c r="F227" s="83"/>
-      <c r="G227" s="84"/>
-    </row>
-    <row r="231" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="57" t="s">
+      <c r="B227" s="50"/>
+      <c r="C227" s="46"/>
+      <c r="D227" s="47"/>
+      <c r="E227" s="47"/>
+      <c r="F227" s="47"/>
+      <c r="G227" s="48"/>
+    </row>
+    <row r="231" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A231" s="62" t="s">
         <v>428</v>
       </c>
-      <c r="B231" s="57"/>
-      <c r="C231" s="57"/>
-      <c r="D231" s="57"/>
-      <c r="E231" s="57"/>
-      <c r="F231" s="57"/>
-      <c r="G231" s="57"/>
-    </row>
-    <row r="232" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="79" t="s">
+      <c r="B231" s="62"/>
+      <c r="C231" s="62"/>
+      <c r="D231" s="62"/>
+      <c r="E231" s="62"/>
+      <c r="F231" s="62"/>
+      <c r="G231" s="62"/>
+    </row>
+    <row r="232" spans="1:7" ht="15" thickTop="1">
+      <c r="A232" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="B232" s="80"/>
-      <c r="C232" s="76" t="s">
+      <c r="B232" s="64"/>
+      <c r="C232" s="65" t="s">
         <v>429</v>
       </c>
-      <c r="D232" s="77"/>
-      <c r="E232" s="77"/>
-      <c r="F232" s="77"/>
-      <c r="G232" s="78"/>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A233" s="58" t="s">
+      <c r="D232" s="66"/>
+      <c r="E232" s="66"/>
+      <c r="F232" s="66"/>
+      <c r="G232" s="67"/>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B233" s="59"/>
-      <c r="C233" s="63"/>
-      <c r="D233" s="64"/>
-      <c r="E233" s="64"/>
-      <c r="F233" s="64"/>
-      <c r="G233" s="65"/>
-    </row>
-    <row r="234" spans="1:7" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="58" t="s">
+      <c r="B233" s="55"/>
+      <c r="C233" s="56"/>
+      <c r="D233" s="57"/>
+      <c r="E233" s="57"/>
+      <c r="F233" s="57"/>
+      <c r="G233" s="58"/>
+    </row>
+    <row r="234" spans="1:7" ht="91.2" customHeight="1">
+      <c r="A234" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B234" s="59"/>
-      <c r="C234" s="66" t="s">
+      <c r="B234" s="55"/>
+      <c r="C234" s="59" t="s">
         <v>430</v>
       </c>
-      <c r="D234" s="74"/>
-      <c r="E234" s="74"/>
-      <c r="F234" s="74"/>
-      <c r="G234" s="75"/>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A235" s="82"/>
-      <c r="B235" s="83"/>
-      <c r="C235" s="83"/>
-      <c r="D235" s="83"/>
-      <c r="E235" s="83"/>
-      <c r="F235" s="83"/>
-      <c r="G235" s="84"/>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D234" s="60"/>
+      <c r="E234" s="60"/>
+      <c r="F234" s="60"/>
+      <c r="G234" s="61"/>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="46"/>
+      <c r="B235" s="47"/>
+      <c r="C235" s="47"/>
+      <c r="D235" s="47"/>
+      <c r="E235" s="47"/>
+      <c r="F235" s="47"/>
+      <c r="G235" s="48"/>
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B236" s="55" t="s">
+      <c r="B236" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C236" s="54"/>
-      <c r="D236" s="55" t="s">
+      <c r="C236" s="45"/>
+      <c r="D236" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="E236" s="54"/>
+      <c r="E236" s="45"/>
       <c r="F236" s="21" t="s">
         <v>70</v>
       </c>
@@ -7117,344 +7089,344 @@
         <v>72</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="99" t="s">
+    <row r="237" spans="1:7" ht="106.8" customHeight="1">
+      <c r="A237" s="42" t="s">
         <v>431</v>
       </c>
-      <c r="B237" s="100" t="s">
+      <c r="B237" s="53" t="s">
         <v>432</v>
       </c>
-      <c r="C237" s="100"/>
-      <c r="D237" s="100" t="s">
+      <c r="C237" s="53"/>
+      <c r="D237" s="53" t="s">
         <v>433</v>
       </c>
-      <c r="E237" s="100"/>
-      <c r="F237" s="101"/>
-      <c r="G237" s="101"/>
-    </row>
-    <row r="238" spans="1:7" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="99" t="s">
+      <c r="E237" s="53"/>
+      <c r="F237" s="43"/>
+      <c r="G237" s="43"/>
+    </row>
+    <row r="238" spans="1:7" ht="103.8" customHeight="1">
+      <c r="A238" s="42" t="s">
         <v>434</v>
       </c>
-      <c r="B238" s="100" t="s">
+      <c r="B238" s="53" t="s">
         <v>435</v>
       </c>
-      <c r="C238" s="100"/>
-      <c r="D238" s="100" t="s">
+      <c r="C238" s="53"/>
+      <c r="D238" s="53" t="s">
         <v>381</v>
       </c>
-      <c r="E238" s="100"/>
-      <c r="F238" s="101"/>
-      <c r="G238" s="101"/>
-    </row>
-    <row r="239" spans="1:7" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="99" t="s">
+      <c r="E238" s="53"/>
+      <c r="F238" s="43"/>
+      <c r="G238" s="43"/>
+    </row>
+    <row r="239" spans="1:7" ht="135.6" customHeight="1">
+      <c r="A239" s="42" t="s">
         <v>436</v>
       </c>
-      <c r="B239" s="100" t="s">
+      <c r="B239" s="53" t="s">
         <v>437</v>
       </c>
-      <c r="C239" s="100"/>
-      <c r="D239" s="100" t="s">
+      <c r="C239" s="53"/>
+      <c r="D239" s="53" t="s">
         <v>438</v>
       </c>
-      <c r="E239" s="100"/>
-      <c r="F239" s="101"/>
-      <c r="G239" s="101"/>
-    </row>
-    <row r="240" spans="1:7" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="99" t="s">
+      <c r="E239" s="53"/>
+      <c r="F239" s="43"/>
+      <c r="G239" s="43"/>
+    </row>
+    <row r="240" spans="1:7" ht="82.2" customHeight="1">
+      <c r="A240" s="42" t="s">
         <v>439</v>
       </c>
-      <c r="B240" s="100" t="s">
+      <c r="B240" s="53" t="s">
         <v>440</v>
       </c>
-      <c r="C240" s="100"/>
-      <c r="D240" s="100" t="s">
+      <c r="C240" s="53"/>
+      <c r="D240" s="53" t="s">
         <v>389</v>
       </c>
-      <c r="E240" s="100"/>
-      <c r="F240" s="101"/>
-      <c r="G240" s="101"/>
-    </row>
-    <row r="241" spans="1:7" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="99" t="s">
+      <c r="E240" s="53"/>
+      <c r="F240" s="43"/>
+      <c r="G240" s="43"/>
+    </row>
+    <row r="241" spans="1:7" ht="106.8" customHeight="1">
+      <c r="A241" s="42" t="s">
         <v>441</v>
       </c>
-      <c r="B241" s="100" t="s">
+      <c r="B241" s="53" t="s">
         <v>442</v>
       </c>
-      <c r="C241" s="100"/>
-      <c r="D241" s="52" t="s">
+      <c r="C241" s="53"/>
+      <c r="D241" s="51" t="s">
         <v>394</v>
       </c>
-      <c r="E241" s="72"/>
-      <c r="F241" s="101"/>
-      <c r="G241" s="101"/>
-    </row>
-    <row r="242" spans="1:7" ht="224.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="99" t="s">
+      <c r="E241" s="52"/>
+      <c r="F241" s="43"/>
+      <c r="G241" s="43"/>
+    </row>
+    <row r="242" spans="1:7" ht="224.4" customHeight="1">
+      <c r="A242" s="42" t="s">
         <v>443</v>
       </c>
-      <c r="B242" s="100" t="s">
+      <c r="B242" s="53" t="s">
         <v>444</v>
       </c>
-      <c r="C242" s="100"/>
-      <c r="D242" s="52" t="s">
+      <c r="C242" s="53"/>
+      <c r="D242" s="51" t="s">
         <v>445</v>
       </c>
-      <c r="E242" s="72"/>
-      <c r="F242" s="101"/>
-      <c r="G242" s="101"/>
-    </row>
-    <row r="243" spans="1:7" ht="140.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="99" t="s">
+      <c r="E242" s="52"/>
+      <c r="F242" s="43"/>
+      <c r="G242" s="43"/>
+    </row>
+    <row r="243" spans="1:7" ht="140.4" customHeight="1">
+      <c r="A243" s="42" t="s">
         <v>446</v>
       </c>
-      <c r="B243" s="100" t="s">
+      <c r="B243" s="53" t="s">
         <v>447</v>
       </c>
-      <c r="C243" s="100"/>
-      <c r="D243" s="52" t="s">
+      <c r="C243" s="53"/>
+      <c r="D243" s="51" t="s">
         <v>400</v>
       </c>
-      <c r="E243" s="72"/>
-      <c r="F243" s="101"/>
-      <c r="G243" s="101"/>
-    </row>
-    <row r="244" spans="1:7" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="99" t="s">
+      <c r="E243" s="52"/>
+      <c r="F243" s="43"/>
+      <c r="G243" s="43"/>
+    </row>
+    <row r="244" spans="1:7" ht="136.19999999999999" customHeight="1">
+      <c r="A244" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="B244" s="100" t="s">
+      <c r="B244" s="53" t="s">
         <v>449</v>
       </c>
-      <c r="C244" s="100"/>
-      <c r="D244" s="52" t="s">
+      <c r="C244" s="53"/>
+      <c r="D244" s="51" t="s">
         <v>394</v>
       </c>
-      <c r="E244" s="72"/>
-      <c r="F244" s="101"/>
-      <c r="G244" s="101"/>
-    </row>
-    <row r="245" spans="1:7" ht="254.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="99" t="s">
+      <c r="E244" s="52"/>
+      <c r="F244" s="43"/>
+      <c r="G244" s="43"/>
+    </row>
+    <row r="245" spans="1:7" ht="254.4" customHeight="1">
+      <c r="A245" s="42" t="s">
         <v>450</v>
       </c>
-      <c r="B245" s="100" t="s">
+      <c r="B245" s="53" t="s">
         <v>451</v>
       </c>
-      <c r="C245" s="100"/>
-      <c r="D245" s="52" t="s">
+      <c r="C245" s="53"/>
+      <c r="D245" s="51" t="s">
         <v>452</v>
       </c>
-      <c r="E245" s="72"/>
-      <c r="F245" s="101"/>
-      <c r="G245" s="101"/>
-    </row>
-    <row r="246" spans="1:7" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="99" t="s">
+      <c r="E245" s="52"/>
+      <c r="F245" s="43"/>
+      <c r="G245" s="43"/>
+    </row>
+    <row r="246" spans="1:7" ht="163.19999999999999" customHeight="1">
+      <c r="A246" s="42" t="s">
         <v>453</v>
       </c>
-      <c r="B246" s="100" t="s">
+      <c r="B246" s="53" t="s">
         <v>454</v>
       </c>
-      <c r="C246" s="100"/>
-      <c r="D246" s="52" t="s">
+      <c r="C246" s="53"/>
+      <c r="D246" s="51" t="s">
         <v>400</v>
       </c>
-      <c r="E246" s="72"/>
-      <c r="F246" s="101"/>
-      <c r="G246" s="101"/>
-    </row>
-    <row r="247" spans="1:7" ht="280.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="99" t="s">
+      <c r="E246" s="52"/>
+      <c r="F246" s="43"/>
+      <c r="G246" s="43"/>
+    </row>
+    <row r="247" spans="1:7" ht="280.8" customHeight="1">
+      <c r="A247" s="42" t="s">
         <v>455</v>
       </c>
-      <c r="B247" s="52" t="s">
+      <c r="B247" s="51" t="s">
         <v>456</v>
       </c>
-      <c r="C247" s="72"/>
-      <c r="D247" s="52" t="s">
+      <c r="C247" s="52"/>
+      <c r="D247" s="51" t="s">
         <v>457</v>
       </c>
-      <c r="E247" s="72"/>
-      <c r="F247" s="101"/>
-      <c r="G247" s="101"/>
-    </row>
-    <row r="248" spans="1:7" ht="135" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="99" t="s">
+      <c r="E247" s="52"/>
+      <c r="F247" s="43"/>
+      <c r="G247" s="43"/>
+    </row>
+    <row r="248" spans="1:7" ht="135" customHeight="1">
+      <c r="A248" s="42" t="s">
         <v>458</v>
       </c>
-      <c r="B248" s="52" t="s">
+      <c r="B248" s="51" t="s">
         <v>459</v>
       </c>
-      <c r="C248" s="72"/>
-      <c r="D248" s="52" t="s">
+      <c r="C248" s="52"/>
+      <c r="D248" s="51" t="s">
         <v>460</v>
       </c>
-      <c r="E248" s="72"/>
-      <c r="F248" s="101"/>
-      <c r="G248" s="101"/>
-    </row>
-    <row r="249" spans="1:7" ht="138.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="99" t="s">
+      <c r="E248" s="52"/>
+      <c r="F248" s="43"/>
+      <c r="G248" s="43"/>
+    </row>
+    <row r="249" spans="1:7" ht="138.6" customHeight="1">
+      <c r="A249" s="42" t="s">
         <v>461</v>
       </c>
-      <c r="B249" s="52" t="s">
+      <c r="B249" s="51" t="s">
         <v>462</v>
       </c>
-      <c r="C249" s="72"/>
-      <c r="D249" s="52" t="s">
+      <c r="C249" s="52"/>
+      <c r="D249" s="51" t="s">
         <v>463</v>
       </c>
-      <c r="E249" s="72"/>
-      <c r="F249" s="101"/>
-      <c r="G249" s="101"/>
-    </row>
-    <row r="250" spans="1:7" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="99" t="s">
+      <c r="E249" s="52"/>
+      <c r="F249" s="43"/>
+      <c r="G249" s="43"/>
+    </row>
+    <row r="250" spans="1:7" ht="133.19999999999999" customHeight="1">
+      <c r="A250" s="42" t="s">
         <v>464</v>
       </c>
-      <c r="B250" s="52" t="s">
+      <c r="B250" s="51" t="s">
         <v>465</v>
       </c>
-      <c r="C250" s="72"/>
-      <c r="D250" s="52" t="s">
+      <c r="C250" s="52"/>
+      <c r="D250" s="51" t="s">
         <v>466</v>
       </c>
-      <c r="E250" s="72"/>
-      <c r="F250" s="101"/>
-      <c r="G250" s="101"/>
-    </row>
-    <row r="251" spans="1:7" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="99" t="s">
+      <c r="E250" s="52"/>
+      <c r="F250" s="43"/>
+      <c r="G250" s="43"/>
+    </row>
+    <row r="251" spans="1:7" ht="63.6" customHeight="1">
+      <c r="A251" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="B251" s="52" t="s">
+      <c r="B251" s="51" t="s">
         <v>425</v>
       </c>
-      <c r="C251" s="72"/>
-      <c r="D251" s="52" t="s">
+      <c r="C251" s="52"/>
+      <c r="D251" s="51" t="s">
         <v>468</v>
       </c>
-      <c r="E251" s="72"/>
-      <c r="F251" s="101"/>
-      <c r="G251" s="101"/>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A252" s="47" t="s">
+      <c r="E251" s="52"/>
+      <c r="F251" s="43"/>
+      <c r="G251" s="43"/>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B252" s="48"/>
-      <c r="C252" s="82"/>
-      <c r="D252" s="83"/>
-      <c r="E252" s="83"/>
-      <c r="F252" s="83"/>
-      <c r="G252" s="84"/>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A253" s="55" t="s">
+      <c r="B252" s="50"/>
+      <c r="C252" s="46"/>
+      <c r="D252" s="47"/>
+      <c r="E252" s="47"/>
+      <c r="F252" s="47"/>
+      <c r="G252" s="48"/>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B253" s="54"/>
-      <c r="C253" s="82"/>
-      <c r="D253" s="83"/>
-      <c r="E253" s="83"/>
-      <c r="F253" s="83"/>
-      <c r="G253" s="84"/>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A254" s="47" t="s">
+      <c r="B253" s="45"/>
+      <c r="C253" s="46"/>
+      <c r="D253" s="47"/>
+      <c r="E253" s="47"/>
+      <c r="F253" s="47"/>
+      <c r="G253" s="48"/>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B254" s="48"/>
-      <c r="C254" s="82"/>
-      <c r="D254" s="83"/>
-      <c r="E254" s="83"/>
-      <c r="F254" s="83"/>
-      <c r="G254" s="84"/>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A255" s="47" t="s">
+      <c r="B254" s="50"/>
+      <c r="C254" s="46"/>
+      <c r="D254" s="47"/>
+      <c r="E254" s="47"/>
+      <c r="F254" s="47"/>
+      <c r="G254" s="48"/>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B255" s="48"/>
-      <c r="C255" s="82"/>
-      <c r="D255" s="83"/>
-      <c r="E255" s="83"/>
-      <c r="F255" s="83"/>
-      <c r="G255" s="84"/>
-    </row>
-    <row r="260" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A260" s="57" t="s">
+      <c r="B255" s="50"/>
+      <c r="C255" s="46"/>
+      <c r="D255" s="47"/>
+      <c r="E255" s="47"/>
+      <c r="F255" s="47"/>
+      <c r="G255" s="48"/>
+    </row>
+    <row r="260" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A260" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="B260" s="57"/>
-      <c r="C260" s="57"/>
-      <c r="D260" s="57"/>
-      <c r="E260" s="57"/>
-      <c r="F260" s="57"/>
-      <c r="G260" s="57"/>
-    </row>
-    <row r="261" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="58" t="s">
+      <c r="B260" s="62"/>
+      <c r="C260" s="62"/>
+      <c r="D260" s="62"/>
+      <c r="E260" s="62"/>
+      <c r="F260" s="62"/>
+      <c r="G260" s="62"/>
+    </row>
+    <row r="261" spans="1:7" ht="15" thickTop="1">
+      <c r="A261" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B261" s="59"/>
-      <c r="C261" s="60" t="s">
+      <c r="B261" s="55"/>
+      <c r="C261" s="74" t="s">
         <v>190</v>
       </c>
-      <c r="D261" s="61"/>
-      <c r="E261" s="61"/>
-      <c r="F261" s="61"/>
-      <c r="G261" s="62"/>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A262" s="58" t="s">
+      <c r="D261" s="75"/>
+      <c r="E261" s="75"/>
+      <c r="F261" s="75"/>
+      <c r="G261" s="76"/>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B262" s="59"/>
-      <c r="C262" s="63"/>
-      <c r="D262" s="64"/>
-      <c r="E262" s="64"/>
-      <c r="F262" s="64"/>
-      <c r="G262" s="65"/>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A263" s="58" t="s">
+      <c r="B262" s="55"/>
+      <c r="C262" s="56"/>
+      <c r="D262" s="57"/>
+      <c r="E262" s="57"/>
+      <c r="F262" s="57"/>
+      <c r="G262" s="58"/>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B263" s="59"/>
-      <c r="C263" s="66" t="s">
+      <c r="B263" s="55"/>
+      <c r="C263" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="D263" s="67"/>
-      <c r="E263" s="67"/>
-      <c r="F263" s="67"/>
-      <c r="G263" s="68"/>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A264" s="69"/>
-      <c r="B264" s="70"/>
-      <c r="C264" s="70"/>
-      <c r="D264" s="70"/>
-      <c r="E264" s="70"/>
-      <c r="F264" s="70"/>
-      <c r="G264" s="71"/>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D263" s="77"/>
+      <c r="E263" s="77"/>
+      <c r="F263" s="77"/>
+      <c r="G263" s="78"/>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="79"/>
+      <c r="B264" s="80"/>
+      <c r="C264" s="80"/>
+      <c r="D264" s="80"/>
+      <c r="E264" s="80"/>
+      <c r="F264" s="80"/>
+      <c r="G264" s="81"/>
+    </row>
+    <row r="265" spans="1:7">
       <c r="A265" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B265" s="55" t="s">
+      <c r="B265" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C265" s="54"/>
-      <c r="D265" s="55" t="s">
+      <c r="C265" s="45"/>
+      <c r="D265" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="E265" s="54"/>
+      <c r="E265" s="45"/>
       <c r="F265" s="21" t="s">
         <v>70</v>
       </c>
@@ -7462,18 +7434,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" ht="63" customHeight="1">
       <c r="A266" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="B266" s="52" t="s">
+      <c r="B266" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="C266" s="53"/>
-      <c r="D266" s="52" t="s">
+      <c r="C266" s="73"/>
+      <c r="D266" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="E266" s="53"/>
+      <c r="E266" s="73"/>
       <c r="F266" s="29" t="s">
         <v>145</v>
       </c>
@@ -7481,33 +7453,33 @@
         <v>98</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" ht="42.75" customHeight="1">
       <c r="A267" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="B267" s="52" t="s">
+      <c r="B267" s="51" t="s">
         <v>359</v>
       </c>
-      <c r="C267" s="53"/>
-      <c r="D267" s="52" t="s">
+      <c r="C267" s="73"/>
+      <c r="D267" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E267" s="53"/>
+      <c r="E267" s="73"/>
       <c r="F267" s="29"/>
       <c r="G267" s="29"/>
     </row>
-    <row r="268" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" ht="57" customHeight="1">
       <c r="A268" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="B268" s="52" t="s">
+      <c r="B268" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="C268" s="53"/>
-      <c r="D268" s="52" t="s">
+      <c r="C268" s="73"/>
+      <c r="D268" s="51" t="s">
         <v>362</v>
       </c>
-      <c r="E268" s="53"/>
+      <c r="E268" s="73"/>
       <c r="F268" s="29" t="s">
         <v>146</v>
       </c>
@@ -7515,127 +7487,127 @@
         <v>98</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A269" s="47" t="s">
+    <row r="269" spans="1:7">
+      <c r="A269" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B269" s="54"/>
-      <c r="C269" s="49" t="s">
+      <c r="B269" s="45"/>
+      <c r="C269" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="D269" s="50"/>
-      <c r="E269" s="50"/>
-      <c r="F269" s="50"/>
-      <c r="G269" s="51"/>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A270" s="55" t="s">
+      <c r="D269" s="70"/>
+      <c r="E269" s="70"/>
+      <c r="F269" s="70"/>
+      <c r="G269" s="71"/>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B270" s="54"/>
-      <c r="C270" s="56">
+      <c r="B270" s="45"/>
+      <c r="C270" s="69">
         <v>43047</v>
       </c>
-      <c r="D270" s="50"/>
-      <c r="E270" s="50"/>
-      <c r="F270" s="50"/>
-      <c r="G270" s="51"/>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A271" s="47" t="s">
+      <c r="D270" s="70"/>
+      <c r="E270" s="70"/>
+      <c r="F270" s="70"/>
+      <c r="G270" s="71"/>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B271" s="54"/>
-      <c r="C271" s="49" t="s">
+      <c r="B271" s="45"/>
+      <c r="C271" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="D271" s="50"/>
-      <c r="E271" s="50"/>
-      <c r="F271" s="50"/>
-      <c r="G271" s="51"/>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A272" s="47" t="s">
+      <c r="D271" s="70"/>
+      <c r="E271" s="70"/>
+      <c r="F271" s="70"/>
+      <c r="G271" s="71"/>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B272" s="48"/>
-      <c r="C272" s="49" t="s">
+      <c r="B272" s="50"/>
+      <c r="C272" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="D272" s="50"/>
-      <c r="E272" s="50"/>
-      <c r="F272" s="50"/>
-      <c r="G272" s="51"/>
-    </row>
-    <row r="276" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A276" s="57" t="s">
+      <c r="D272" s="70"/>
+      <c r="E272" s="70"/>
+      <c r="F272" s="70"/>
+      <c r="G272" s="71"/>
+    </row>
+    <row r="276" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A276" s="62" t="s">
         <v>189</v>
       </c>
-      <c r="B276" s="57"/>
-      <c r="C276" s="57"/>
-      <c r="D276" s="57"/>
-      <c r="E276" s="57"/>
-      <c r="F276" s="57"/>
-      <c r="G276" s="57"/>
-    </row>
-    <row r="277" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="58" t="s">
+      <c r="B276" s="62"/>
+      <c r="C276" s="62"/>
+      <c r="D276" s="62"/>
+      <c r="E276" s="62"/>
+      <c r="F276" s="62"/>
+      <c r="G276" s="62"/>
+    </row>
+    <row r="277" spans="1:7" ht="15" thickTop="1">
+      <c r="A277" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B277" s="59"/>
-      <c r="C277" s="60" t="s">
+      <c r="B277" s="55"/>
+      <c r="C277" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="D277" s="61"/>
-      <c r="E277" s="61"/>
-      <c r="F277" s="61"/>
-      <c r="G277" s="62"/>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A278" s="58" t="s">
+      <c r="D277" s="75"/>
+      <c r="E277" s="75"/>
+      <c r="F277" s="75"/>
+      <c r="G277" s="76"/>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B278" s="59"/>
-      <c r="C278" s="63"/>
-      <c r="D278" s="64"/>
-      <c r="E278" s="64"/>
-      <c r="F278" s="64"/>
-      <c r="G278" s="65"/>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A279" s="58" t="s">
+      <c r="B278" s="55"/>
+      <c r="C278" s="56"/>
+      <c r="D278" s="57"/>
+      <c r="E278" s="57"/>
+      <c r="F278" s="57"/>
+      <c r="G278" s="58"/>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B279" s="59"/>
-      <c r="C279" s="66" t="s">
+      <c r="B279" s="55"/>
+      <c r="C279" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="D279" s="67"/>
-      <c r="E279" s="67"/>
-      <c r="F279" s="67"/>
-      <c r="G279" s="68"/>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A280" s="69"/>
-      <c r="B280" s="70"/>
-      <c r="C280" s="70"/>
-      <c r="D280" s="70"/>
-      <c r="E280" s="70"/>
-      <c r="F280" s="70"/>
-      <c r="G280" s="71"/>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D279" s="77"/>
+      <c r="E279" s="77"/>
+      <c r="F279" s="77"/>
+      <c r="G279" s="78"/>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="79"/>
+      <c r="B280" s="80"/>
+      <c r="C280" s="80"/>
+      <c r="D280" s="80"/>
+      <c r="E280" s="80"/>
+      <c r="F280" s="80"/>
+      <c r="G280" s="81"/>
+    </row>
+    <row r="281" spans="1:7">
       <c r="A281" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B281" s="55" t="s">
+      <c r="B281" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C281" s="54"/>
-      <c r="D281" s="55" t="s">
+      <c r="C281" s="45"/>
+      <c r="D281" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="E281" s="54"/>
+      <c r="E281" s="45"/>
       <c r="F281" s="21" t="s">
         <v>70</v>
       </c>
@@ -7643,18 +7615,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="70.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" ht="70.95" customHeight="1">
       <c r="A282" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="B282" s="52" t="s">
+      <c r="B282" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="C282" s="53"/>
-      <c r="D282" s="52" t="s">
+      <c r="C282" s="73"/>
+      <c r="D282" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="E282" s="53"/>
+      <c r="E282" s="73"/>
       <c r="F282" s="29" t="s">
         <v>193</v>
       </c>
@@ -7662,18 +7634,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" ht="66.599999999999994" customHeight="1">
       <c r="A283" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="B283" s="52" t="s">
+      <c r="B283" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="C283" s="53"/>
-      <c r="D283" s="52" t="s">
+      <c r="C283" s="73"/>
+      <c r="D283" s="51" t="s">
         <v>363</v>
       </c>
-      <c r="E283" s="53"/>
+      <c r="E283" s="73"/>
       <c r="F283" s="29" t="s">
         <v>364</v>
       </c>
@@ -7681,125 +7653,125 @@
         <v>98</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A284" s="47" t="s">
+    <row r="284" spans="1:7">
+      <c r="A284" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B284" s="54"/>
-      <c r="C284" s="49" t="s">
+      <c r="B284" s="45"/>
+      <c r="C284" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="D284" s="50"/>
-      <c r="E284" s="50"/>
-      <c r="F284" s="50"/>
-      <c r="G284" s="51"/>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A285" s="55" t="s">
+      <c r="D284" s="70"/>
+      <c r="E284" s="70"/>
+      <c r="F284" s="70"/>
+      <c r="G284" s="71"/>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B285" s="54"/>
-      <c r="C285" s="56">
+      <c r="B285" s="45"/>
+      <c r="C285" s="69">
         <v>43047</v>
       </c>
-      <c r="D285" s="50"/>
-      <c r="E285" s="50"/>
-      <c r="F285" s="50"/>
-      <c r="G285" s="51"/>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A286" s="47" t="s">
+      <c r="D285" s="70"/>
+      <c r="E285" s="70"/>
+      <c r="F285" s="70"/>
+      <c r="G285" s="71"/>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B286" s="54"/>
-      <c r="C286" s="49" t="s">
+      <c r="B286" s="45"/>
+      <c r="C286" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="D286" s="50"/>
-      <c r="E286" s="50"/>
-      <c r="F286" s="50"/>
-      <c r="G286" s="51"/>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A287" s="47" t="s">
+      <c r="D286" s="70"/>
+      <c r="E286" s="70"/>
+      <c r="F286" s="70"/>
+      <c r="G286" s="71"/>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B287" s="48"/>
-      <c r="C287" s="49" t="s">
+      <c r="B287" s="50"/>
+      <c r="C287" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="D287" s="50"/>
-      <c r="E287" s="50"/>
-      <c r="F287" s="50"/>
-      <c r="G287" s="51"/>
-    </row>
-    <row r="291" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A291" s="57" t="s">
+      <c r="D287" s="70"/>
+      <c r="E287" s="70"/>
+      <c r="F287" s="70"/>
+      <c r="G287" s="71"/>
+    </row>
+    <row r="291" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A291" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="B291" s="57"/>
-      <c r="C291" s="57"/>
-      <c r="D291" s="57"/>
-      <c r="E291" s="57"/>
-      <c r="F291" s="57"/>
-      <c r="G291" s="57"/>
-    </row>
-    <row r="292" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="58" t="s">
+      <c r="B291" s="62"/>
+      <c r="C291" s="62"/>
+      <c r="D291" s="62"/>
+      <c r="E291" s="62"/>
+      <c r="F291" s="62"/>
+      <c r="G291" s="62"/>
+    </row>
+    <row r="292" spans="1:7" ht="15" thickTop="1">
+      <c r="A292" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B292" s="59"/>
-      <c r="C292" s="60" t="s">
+      <c r="B292" s="55"/>
+      <c r="C292" s="74" t="s">
         <v>210</v>
       </c>
-      <c r="D292" s="61"/>
-      <c r="E292" s="61"/>
-      <c r="F292" s="61"/>
-      <c r="G292" s="62"/>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A293" s="58" t="s">
+      <c r="D292" s="75"/>
+      <c r="E292" s="75"/>
+      <c r="F292" s="75"/>
+      <c r="G292" s="76"/>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B293" s="59"/>
-      <c r="C293" s="63"/>
-      <c r="D293" s="64"/>
-      <c r="E293" s="64"/>
-      <c r="F293" s="64"/>
-      <c r="G293" s="65"/>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A294" s="58" t="s">
+      <c r="B293" s="55"/>
+      <c r="C293" s="56"/>
+      <c r="D293" s="57"/>
+      <c r="E293" s="57"/>
+      <c r="F293" s="57"/>
+      <c r="G293" s="58"/>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B294" s="59"/>
-      <c r="C294" s="66"/>
-      <c r="D294" s="67"/>
-      <c r="E294" s="67"/>
-      <c r="F294" s="67"/>
-      <c r="G294" s="68"/>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A295" s="69"/>
-      <c r="B295" s="70"/>
-      <c r="C295" s="70"/>
-      <c r="D295" s="70"/>
-      <c r="E295" s="70"/>
-      <c r="F295" s="70"/>
-      <c r="G295" s="71"/>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B294" s="55"/>
+      <c r="C294" s="59"/>
+      <c r="D294" s="77"/>
+      <c r="E294" s="77"/>
+      <c r="F294" s="77"/>
+      <c r="G294" s="78"/>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="79"/>
+      <c r="B295" s="80"/>
+      <c r="C295" s="80"/>
+      <c r="D295" s="80"/>
+      <c r="E295" s="80"/>
+      <c r="F295" s="80"/>
+      <c r="G295" s="81"/>
+    </row>
+    <row r="296" spans="1:7">
       <c r="A296" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B296" s="55" t="s">
+      <c r="B296" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C296" s="54"/>
-      <c r="D296" s="55" t="s">
+      <c r="C296" s="45"/>
+      <c r="D296" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="E296" s="54"/>
+      <c r="E296" s="45"/>
       <c r="F296" s="21" t="s">
         <v>70</v>
       </c>
@@ -7807,18 +7779,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" ht="105.6" customHeight="1">
       <c r="A297" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="B297" s="52" t="s">
+      <c r="B297" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="C297" s="53"/>
-      <c r="D297" s="52" t="s">
+      <c r="C297" s="73"/>
+      <c r="D297" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="E297" s="53"/>
+      <c r="E297" s="73"/>
       <c r="F297" s="29" t="s">
         <v>216</v>
       </c>
@@ -7826,127 +7798,127 @@
         <v>98</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A298" s="47" t="s">
+    <row r="298" spans="1:7">
+      <c r="A298" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B298" s="54"/>
-      <c r="C298" s="49" t="s">
+      <c r="B298" s="45"/>
+      <c r="C298" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="D298" s="50"/>
-      <c r="E298" s="50"/>
-      <c r="F298" s="50"/>
-      <c r="G298" s="51"/>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A299" s="55" t="s">
+      <c r="D298" s="70"/>
+      <c r="E298" s="70"/>
+      <c r="F298" s="70"/>
+      <c r="G298" s="71"/>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B299" s="54"/>
-      <c r="C299" s="56">
+      <c r="B299" s="45"/>
+      <c r="C299" s="69">
         <v>43047</v>
       </c>
-      <c r="D299" s="50"/>
-      <c r="E299" s="50"/>
-      <c r="F299" s="50"/>
-      <c r="G299" s="51"/>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A300" s="47" t="s">
+      <c r="D299" s="70"/>
+      <c r="E299" s="70"/>
+      <c r="F299" s="70"/>
+      <c r="G299" s="71"/>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B300" s="54"/>
-      <c r="C300" s="49" t="s">
+      <c r="B300" s="45"/>
+      <c r="C300" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="D300" s="50"/>
-      <c r="E300" s="50"/>
-      <c r="F300" s="50"/>
-      <c r="G300" s="51"/>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A301" s="47" t="s">
+      <c r="D300" s="70"/>
+      <c r="E300" s="70"/>
+      <c r="F300" s="70"/>
+      <c r="G300" s="71"/>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B301" s="48"/>
-      <c r="C301" s="49" t="s">
+      <c r="B301" s="50"/>
+      <c r="C301" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="D301" s="50"/>
-      <c r="E301" s="50"/>
-      <c r="F301" s="50"/>
-      <c r="G301" s="51"/>
-    </row>
-    <row r="305" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A305" s="57" t="s">
+      <c r="D301" s="70"/>
+      <c r="E301" s="70"/>
+      <c r="F301" s="70"/>
+      <c r="G301" s="71"/>
+    </row>
+    <row r="305" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A305" s="62" t="s">
         <v>206</v>
       </c>
-      <c r="B305" s="57"/>
-      <c r="C305" s="57"/>
-      <c r="D305" s="57"/>
-      <c r="E305" s="57"/>
-      <c r="F305" s="57"/>
-      <c r="G305" s="57"/>
-    </row>
-    <row r="306" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="58" t="s">
+      <c r="B305" s="62"/>
+      <c r="C305" s="62"/>
+      <c r="D305" s="62"/>
+      <c r="E305" s="62"/>
+      <c r="F305" s="62"/>
+      <c r="G305" s="62"/>
+    </row>
+    <row r="306" spans="1:7" ht="15" thickTop="1">
+      <c r="A306" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B306" s="59"/>
-      <c r="C306" s="60" t="s">
+      <c r="B306" s="55"/>
+      <c r="C306" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="D306" s="61"/>
-      <c r="E306" s="61"/>
-      <c r="F306" s="61"/>
-      <c r="G306" s="62"/>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A307" s="58" t="s">
+      <c r="D306" s="75"/>
+      <c r="E306" s="75"/>
+      <c r="F306" s="75"/>
+      <c r="G306" s="76"/>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B307" s="59"/>
-      <c r="C307" s="63"/>
-      <c r="D307" s="64"/>
-      <c r="E307" s="64"/>
-      <c r="F307" s="64"/>
-      <c r="G307" s="65"/>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A308" s="58" t="s">
+      <c r="B307" s="55"/>
+      <c r="C307" s="56"/>
+      <c r="D307" s="57"/>
+      <c r="E307" s="57"/>
+      <c r="F307" s="57"/>
+      <c r="G307" s="58"/>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B308" s="59"/>
-      <c r="C308" s="66" t="s">
+      <c r="B308" s="55"/>
+      <c r="C308" s="59" t="s">
         <v>199</v>
       </c>
-      <c r="D308" s="67"/>
-      <c r="E308" s="67"/>
-      <c r="F308" s="67"/>
-      <c r="G308" s="68"/>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A309" s="69"/>
-      <c r="B309" s="70"/>
-      <c r="C309" s="70"/>
-      <c r="D309" s="70"/>
-      <c r="E309" s="70"/>
-      <c r="F309" s="70"/>
-      <c r="G309" s="71"/>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D308" s="77"/>
+      <c r="E308" s="77"/>
+      <c r="F308" s="77"/>
+      <c r="G308" s="78"/>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" s="79"/>
+      <c r="B309" s="80"/>
+      <c r="C309" s="80"/>
+      <c r="D309" s="80"/>
+      <c r="E309" s="80"/>
+      <c r="F309" s="80"/>
+      <c r="G309" s="81"/>
+    </row>
+    <row r="310" spans="1:7">
       <c r="A310" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B310" s="55" t="s">
+      <c r="B310" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C310" s="54"/>
-      <c r="D310" s="55" t="s">
+      <c r="C310" s="45"/>
+      <c r="D310" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="E310" s="54"/>
+      <c r="E310" s="45"/>
       <c r="F310" s="21" t="s">
         <v>70</v>
       </c>
@@ -7954,18 +7926,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" ht="87" customHeight="1">
       <c r="A311" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="B311" s="52" t="s">
+      <c r="B311" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="C311" s="53"/>
-      <c r="D311" s="52" t="s">
+      <c r="C311" s="73"/>
+      <c r="D311" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="E311" s="53"/>
+      <c r="E311" s="73"/>
       <c r="F311" s="29" t="s">
         <v>193</v>
       </c>
@@ -7973,18 +7945,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" ht="43.2" customHeight="1">
       <c r="A312" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="B312" s="52" t="s">
+      <c r="B312" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="C312" s="53"/>
-      <c r="D312" s="52" t="s">
+      <c r="C312" s="73"/>
+      <c r="D312" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="E312" s="53"/>
+      <c r="E312" s="73"/>
       <c r="F312" s="29" t="s">
         <v>204</v>
       </c>
@@ -7992,127 +7964,127 @@
         <v>98</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A313" s="47" t="s">
+    <row r="313" spans="1:7">
+      <c r="A313" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B313" s="54"/>
-      <c r="C313" s="49" t="s">
+      <c r="B313" s="45"/>
+      <c r="C313" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="D313" s="50"/>
-      <c r="E313" s="50"/>
-      <c r="F313" s="50"/>
-      <c r="G313" s="51"/>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A314" s="55" t="s">
+      <c r="D313" s="70"/>
+      <c r="E313" s="70"/>
+      <c r="F313" s="70"/>
+      <c r="G313" s="71"/>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B314" s="54"/>
-      <c r="C314" s="56">
+      <c r="B314" s="45"/>
+      <c r="C314" s="69">
         <v>43047</v>
       </c>
-      <c r="D314" s="50"/>
-      <c r="E314" s="50"/>
-      <c r="F314" s="50"/>
-      <c r="G314" s="51"/>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A315" s="47" t="s">
+      <c r="D314" s="70"/>
+      <c r="E314" s="70"/>
+      <c r="F314" s="70"/>
+      <c r="G314" s="71"/>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B315" s="54"/>
-      <c r="C315" s="49" t="s">
+      <c r="B315" s="45"/>
+      <c r="C315" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="D315" s="50"/>
-      <c r="E315" s="50"/>
-      <c r="F315" s="50"/>
-      <c r="G315" s="51"/>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A316" s="47" t="s">
+      <c r="D315" s="70"/>
+      <c r="E315" s="70"/>
+      <c r="F315" s="70"/>
+      <c r="G315" s="71"/>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B316" s="48"/>
-      <c r="C316" s="49" t="s">
+      <c r="B316" s="50"/>
+      <c r="C316" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="D316" s="50"/>
-      <c r="E316" s="50"/>
-      <c r="F316" s="50"/>
-      <c r="G316" s="51"/>
-    </row>
-    <row r="318" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A318" s="57" t="s">
+      <c r="D316" s="70"/>
+      <c r="E316" s="70"/>
+      <c r="F316" s="70"/>
+      <c r="G316" s="71"/>
+    </row>
+    <row r="318" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A318" s="62" t="s">
         <v>365</v>
       </c>
-      <c r="B318" s="57"/>
-      <c r="C318" s="57"/>
-      <c r="D318" s="57"/>
-      <c r="E318" s="57"/>
-      <c r="F318" s="57"/>
-      <c r="G318" s="57"/>
-    </row>
-    <row r="319" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="58" t="s">
+      <c r="B318" s="62"/>
+      <c r="C318" s="62"/>
+      <c r="D318" s="62"/>
+      <c r="E318" s="62"/>
+      <c r="F318" s="62"/>
+      <c r="G318" s="62"/>
+    </row>
+    <row r="319" spans="1:7" ht="15" thickTop="1">
+      <c r="A319" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B319" s="59"/>
-      <c r="C319" s="60" t="s">
+      <c r="B319" s="55"/>
+      <c r="C319" s="74" t="s">
         <v>366</v>
       </c>
-      <c r="D319" s="61"/>
-      <c r="E319" s="61"/>
-      <c r="F319" s="61"/>
-      <c r="G319" s="62"/>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A320" s="58" t="s">
+      <c r="D319" s="75"/>
+      <c r="E319" s="75"/>
+      <c r="F319" s="75"/>
+      <c r="G319" s="76"/>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B320" s="59"/>
-      <c r="C320" s="63"/>
-      <c r="D320" s="64"/>
-      <c r="E320" s="64"/>
-      <c r="F320" s="64"/>
-      <c r="G320" s="65"/>
-    </row>
-    <row r="321" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A321" s="58" t="s">
+      <c r="B320" s="55"/>
+      <c r="C320" s="56"/>
+      <c r="D320" s="57"/>
+      <c r="E320" s="57"/>
+      <c r="F320" s="57"/>
+      <c r="G320" s="58"/>
+    </row>
+    <row r="321" spans="1:7" ht="27" customHeight="1">
+      <c r="A321" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B321" s="59"/>
-      <c r="C321" s="66" t="s">
+      <c r="B321" s="55"/>
+      <c r="C321" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="D321" s="67"/>
-      <c r="E321" s="67"/>
-      <c r="F321" s="67"/>
-      <c r="G321" s="68"/>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A322" s="69"/>
-      <c r="B322" s="70"/>
-      <c r="C322" s="70"/>
-      <c r="D322" s="70"/>
-      <c r="E322" s="70"/>
-      <c r="F322" s="70"/>
-      <c r="G322" s="71"/>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D321" s="77"/>
+      <c r="E321" s="77"/>
+      <c r="F321" s="77"/>
+      <c r="G321" s="78"/>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" s="79"/>
+      <c r="B322" s="80"/>
+      <c r="C322" s="80"/>
+      <c r="D322" s="80"/>
+      <c r="E322" s="80"/>
+      <c r="F322" s="80"/>
+      <c r="G322" s="81"/>
+    </row>
+    <row r="323" spans="1:7">
       <c r="A323" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B323" s="55" t="s">
+      <c r="B323" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C323" s="54"/>
-      <c r="D323" s="55" t="s">
+      <c r="C323" s="45"/>
+      <c r="D323" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="E323" s="54"/>
+      <c r="E323" s="45"/>
       <c r="F323" s="21" t="s">
         <v>70</v>
       </c>
@@ -8120,18 +8092,18 @@
         <v>72</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" ht="87" customHeight="1">
       <c r="A324" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="B324" s="52" t="s">
+      <c r="B324" s="51" t="s">
         <v>368</v>
       </c>
-      <c r="C324" s="53"/>
-      <c r="D324" s="52" t="s">
+      <c r="C324" s="73"/>
+      <c r="D324" s="51" t="s">
         <v>369</v>
       </c>
-      <c r="E324" s="53"/>
+      <c r="E324" s="73"/>
       <c r="F324" s="29" t="s">
         <v>370</v>
       </c>
@@ -8139,127 +8111,127 @@
         <v>98</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A325" s="47" t="s">
+    <row r="325" spans="1:7">
+      <c r="A325" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B325" s="54"/>
-      <c r="C325" s="49" t="s">
+      <c r="B325" s="45"/>
+      <c r="C325" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="D325" s="50"/>
-      <c r="E325" s="50"/>
-      <c r="F325" s="50"/>
-      <c r="G325" s="51"/>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A326" s="55" t="s">
+      <c r="D325" s="70"/>
+      <c r="E325" s="70"/>
+      <c r="F325" s="70"/>
+      <c r="G325" s="71"/>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B326" s="54"/>
-      <c r="C326" s="56">
+      <c r="B326" s="45"/>
+      <c r="C326" s="69">
         <v>43048</v>
       </c>
-      <c r="D326" s="50"/>
-      <c r="E326" s="50"/>
-      <c r="F326" s="50"/>
-      <c r="G326" s="51"/>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A327" s="47" t="s">
+      <c r="D326" s="70"/>
+      <c r="E326" s="70"/>
+      <c r="F326" s="70"/>
+      <c r="G326" s="71"/>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B327" s="54"/>
-      <c r="C327" s="49" t="s">
+      <c r="B327" s="45"/>
+      <c r="C327" s="72" t="s">
         <v>371</v>
       </c>
-      <c r="D327" s="50"/>
-      <c r="E327" s="50"/>
-      <c r="F327" s="50"/>
-      <c r="G327" s="51"/>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A328" s="47" t="s">
+      <c r="D327" s="70"/>
+      <c r="E327" s="70"/>
+      <c r="F327" s="70"/>
+      <c r="G327" s="71"/>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B328" s="48"/>
-      <c r="C328" s="49" t="s">
+      <c r="B328" s="50"/>
+      <c r="C328" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="D328" s="50"/>
-      <c r="E328" s="50"/>
-      <c r="F328" s="50"/>
-      <c r="G328" s="51"/>
-    </row>
-    <row r="331" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A331" s="57" t="s">
+      <c r="D328" s="70"/>
+      <c r="E328" s="70"/>
+      <c r="F328" s="70"/>
+      <c r="G328" s="71"/>
+    </row>
+    <row r="331" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A331" s="62" t="s">
         <v>297</v>
       </c>
-      <c r="B331" s="57"/>
-      <c r="C331" s="57"/>
-      <c r="D331" s="57"/>
-      <c r="E331" s="57"/>
-      <c r="F331" s="57"/>
-      <c r="G331" s="57"/>
-    </row>
-    <row r="332" spans="1:7" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A332" s="58" t="s">
+      <c r="B331" s="62"/>
+      <c r="C331" s="62"/>
+      <c r="D331" s="62"/>
+      <c r="E331" s="62"/>
+      <c r="F331" s="62"/>
+      <c r="G331" s="62"/>
+    </row>
+    <row r="332" spans="1:7" ht="17.25" customHeight="1" thickTop="1">
+      <c r="A332" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B332" s="59"/>
-      <c r="C332" s="76" t="s">
+      <c r="B332" s="55"/>
+      <c r="C332" s="65" t="s">
         <v>298</v>
       </c>
-      <c r="D332" s="77"/>
-      <c r="E332" s="77"/>
-      <c r="F332" s="77"/>
-      <c r="G332" s="78"/>
-    </row>
-    <row r="333" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A333" s="58" t="s">
+      <c r="D332" s="66"/>
+      <c r="E332" s="66"/>
+      <c r="F332" s="66"/>
+      <c r="G332" s="67"/>
+    </row>
+    <row r="333" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A333" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B333" s="59"/>
-      <c r="C333" s="73"/>
-      <c r="D333" s="67"/>
-      <c r="E333" s="67"/>
-      <c r="F333" s="67"/>
-      <c r="G333" s="68"/>
-    </row>
-    <row r="334" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="58" t="s">
+      <c r="B333" s="55"/>
+      <c r="C333" s="89"/>
+      <c r="D333" s="77"/>
+      <c r="E333" s="77"/>
+      <c r="F333" s="77"/>
+      <c r="G333" s="78"/>
+    </row>
+    <row r="334" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A334" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B334" s="59"/>
-      <c r="C334" s="66" t="s">
+      <c r="B334" s="55"/>
+      <c r="C334" s="59" t="s">
         <v>299</v>
       </c>
-      <c r="D334" s="74"/>
-      <c r="E334" s="74"/>
-      <c r="F334" s="74"/>
-      <c r="G334" s="75"/>
-    </row>
-    <row r="335" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="34"/>
-      <c r="B335" s="35"/>
-      <c r="C335" s="35"/>
-      <c r="D335" s="35"/>
-      <c r="E335" s="35"/>
-      <c r="F335" s="35"/>
-      <c r="G335" s="36"/>
-    </row>
-    <row r="336" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D334" s="60"/>
+      <c r="E334" s="60"/>
+      <c r="F334" s="60"/>
+      <c r="G334" s="61"/>
+    </row>
+    <row r="335" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A335" s="30"/>
+      <c r="B335" s="31"/>
+      <c r="C335" s="31"/>
+      <c r="D335" s="31"/>
+      <c r="E335" s="31"/>
+      <c r="F335" s="31"/>
+      <c r="G335" s="32"/>
+    </row>
+    <row r="336" spans="1:7" ht="56.25" customHeight="1">
       <c r="A336" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B336" s="55" t="s">
+      <c r="B336" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C336" s="54"/>
-      <c r="D336" s="55" t="s">
+      <c r="C336" s="45"/>
+      <c r="D336" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="E336" s="54"/>
+      <c r="E336" s="45"/>
       <c r="F336" s="21" t="s">
         <v>70</v>
       </c>
@@ -8267,218 +8239,210 @@
         <v>72</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" ht="56.25" customHeight="1">
       <c r="A337" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="B337" s="52" t="s">
+      <c r="B337" s="51" t="s">
         <v>301</v>
       </c>
-      <c r="C337" s="72"/>
-      <c r="D337" s="52" t="s">
+      <c r="C337" s="52"/>
+      <c r="D337" s="51" t="s">
         <v>302</v>
       </c>
-      <c r="E337" s="53"/>
+      <c r="E337" s="73"/>
       <c r="F337" s="29"/>
       <c r="G337" s="29"/>
     </row>
-    <row r="338" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" ht="56.25" customHeight="1">
       <c r="A338" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="B338" s="52" t="s">
+      <c r="B338" s="51" t="s">
         <v>304</v>
       </c>
-      <c r="C338" s="72"/>
-      <c r="D338" s="52" t="s">
+      <c r="C338" s="52"/>
+      <c r="D338" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E338" s="72"/>
+      <c r="E338" s="52"/>
       <c r="F338" s="29"/>
       <c r="G338" s="29"/>
     </row>
-    <row r="339" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" ht="47.25" customHeight="1">
       <c r="A339" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="B339" s="52" t="s">
+      <c r="B339" s="51" t="s">
         <v>306</v>
       </c>
-      <c r="C339" s="72"/>
-      <c r="D339" s="52" t="s">
+      <c r="C339" s="52"/>
+      <c r="D339" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E339" s="72"/>
+      <c r="E339" s="52"/>
       <c r="F339" s="29"/>
       <c r="G339" s="29"/>
     </row>
-    <row r="340" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" ht="36" customHeight="1">
       <c r="A340" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="B340" s="52" t="s">
+      <c r="B340" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="C340" s="72"/>
-      <c r="D340" s="52" t="s">
+      <c r="C340" s="52"/>
+      <c r="D340" s="51" t="s">
         <v>309</v>
       </c>
-      <c r="E340" s="53"/>
+      <c r="E340" s="73"/>
       <c r="F340" s="29"/>
       <c r="G340" s="29"/>
     </row>
-    <row r="341" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" ht="36" customHeight="1">
       <c r="A341" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="B341" s="52" t="s">
+      <c r="B341" s="51" t="s">
         <v>311</v>
       </c>
-      <c r="C341" s="72"/>
-      <c r="D341" s="52" t="s">
+      <c r="C341" s="52"/>
+      <c r="D341" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E341" s="72"/>
+      <c r="E341" s="52"/>
       <c r="F341" s="29"/>
       <c r="G341" s="29"/>
     </row>
-    <row r="342" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" ht="47.25" customHeight="1">
       <c r="A342" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="B342" s="52" t="s">
+      <c r="B342" s="51" t="s">
         <v>313</v>
       </c>
-      <c r="C342" s="72"/>
-      <c r="D342" s="52" t="s">
+      <c r="C342" s="52"/>
+      <c r="D342" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E342" s="72"/>
+      <c r="E342" s="52"/>
       <c r="F342" s="29"/>
       <c r="G342" s="29"/>
     </row>
-    <row r="343" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="47" t="s">
+    <row r="343" spans="1:7" ht="15" customHeight="1">
+      <c r="A343" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B343" s="54"/>
-      <c r="C343" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D343" s="31"/>
-      <c r="E343" s="31"/>
-      <c r="F343" s="31"/>
-      <c r="G343" s="32"/>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A344" s="55" t="s">
+      <c r="B343" s="45"/>
+      <c r="C343" s="72"/>
+      <c r="D343" s="70"/>
+      <c r="E343" s="70"/>
+      <c r="F343" s="70"/>
+      <c r="G343" s="71"/>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B344" s="54"/>
-      <c r="C344" s="33">
-        <v>43014</v>
-      </c>
-      <c r="D344" s="31"/>
-      <c r="E344" s="31"/>
-      <c r="F344" s="31"/>
-      <c r="G344" s="32"/>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A345" s="47" t="s">
+      <c r="B344" s="45"/>
+      <c r="C344" s="69"/>
+      <c r="D344" s="70"/>
+      <c r="E344" s="70"/>
+      <c r="F344" s="70"/>
+      <c r="G344" s="71"/>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B345" s="54"/>
-      <c r="C345" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="D345" s="31"/>
-      <c r="E345" s="31"/>
-      <c r="F345" s="31"/>
-      <c r="G345" s="32"/>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A346" s="47" t="s">
+      <c r="B345" s="45"/>
+      <c r="C345" s="72"/>
+      <c r="D345" s="70"/>
+      <c r="E345" s="70"/>
+      <c r="F345" s="70"/>
+      <c r="G345" s="71"/>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B346" s="48"/>
-      <c r="C346" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D346" s="31"/>
-      <c r="E346" s="31"/>
-      <c r="F346" s="31"/>
-      <c r="G346" s="32"/>
-    </row>
-    <row r="348" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" spans="1:7" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A350" s="57" t="s">
+      <c r="B346" s="50"/>
+      <c r="C346" s="72"/>
+      <c r="D346" s="70"/>
+      <c r="E346" s="70"/>
+      <c r="F346" s="70"/>
+      <c r="G346" s="71"/>
+    </row>
+    <row r="348" spans="1:7" ht="20.25" customHeight="1"/>
+    <row r="350" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A350" s="62" t="s">
         <v>314</v>
       </c>
-      <c r="B350" s="57"/>
-      <c r="C350" s="57"/>
-      <c r="D350" s="57"/>
-      <c r="E350" s="57"/>
-      <c r="F350" s="57"/>
-      <c r="G350" s="57"/>
-    </row>
-    <row r="351" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="58" t="s">
+      <c r="B350" s="62"/>
+      <c r="C350" s="62"/>
+      <c r="D350" s="62"/>
+      <c r="E350" s="62"/>
+      <c r="F350" s="62"/>
+      <c r="G350" s="62"/>
+    </row>
+    <row r="351" spans="1:7" ht="15" thickTop="1">
+      <c r="A351" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B351" s="59"/>
-      <c r="C351" s="76" t="s">
+      <c r="B351" s="55"/>
+      <c r="C351" s="65" t="s">
         <v>315</v>
       </c>
-      <c r="D351" s="77"/>
-      <c r="E351" s="77"/>
-      <c r="F351" s="77"/>
-      <c r="G351" s="78"/>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A352" s="58" t="s">
+      <c r="D351" s="66"/>
+      <c r="E351" s="66"/>
+      <c r="F351" s="66"/>
+      <c r="G351" s="67"/>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B352" s="59"/>
-      <c r="C352" s="73"/>
-      <c r="D352" s="67"/>
-      <c r="E352" s="67"/>
-      <c r="F352" s="67"/>
-      <c r="G352" s="68"/>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A353" s="58" t="s">
+      <c r="B352" s="55"/>
+      <c r="C352" s="89"/>
+      <c r="D352" s="77"/>
+      <c r="E352" s="77"/>
+      <c r="F352" s="77"/>
+      <c r="G352" s="78"/>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B353" s="59"/>
-      <c r="C353" s="66" t="s">
+      <c r="B353" s="55"/>
+      <c r="C353" s="59" t="s">
         <v>316</v>
       </c>
-      <c r="D353" s="74"/>
-      <c r="E353" s="74"/>
-      <c r="F353" s="74"/>
-      <c r="G353" s="75"/>
-    </row>
-    <row r="354" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="34"/>
-      <c r="B354" s="35"/>
-      <c r="C354" s="35"/>
-      <c r="D354" s="35"/>
-      <c r="E354" s="35"/>
-      <c r="F354" s="35"/>
-      <c r="G354" s="36"/>
-    </row>
-    <row r="355" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D353" s="60"/>
+      <c r="E353" s="60"/>
+      <c r="F353" s="60"/>
+      <c r="G353" s="61"/>
+    </row>
+    <row r="354" spans="1:7" ht="15" customHeight="1">
+      <c r="A354" s="30"/>
+      <c r="B354" s="31"/>
+      <c r="C354" s="31"/>
+      <c r="D354" s="31"/>
+      <c r="E354" s="31"/>
+      <c r="F354" s="31"/>
+      <c r="G354" s="32"/>
+    </row>
+    <row r="355" spans="1:7" ht="15" customHeight="1">
       <c r="A355" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B355" s="55" t="s">
+      <c r="B355" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C355" s="54"/>
-      <c r="D355" s="55" t="s">
+      <c r="C355" s="45"/>
+      <c r="D355" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="E355" s="54"/>
+      <c r="E355" s="45"/>
       <c r="F355" s="21" t="s">
         <v>70</v>
       </c>
@@ -8486,259 +8450,604 @@
         <v>72</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" ht="37.5" customHeight="1">
       <c r="A356" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="B356" s="52" t="s">
+      <c r="B356" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="C356" s="72"/>
-      <c r="D356" s="52" t="s">
+      <c r="C356" s="52"/>
+      <c r="D356" s="51" t="s">
         <v>319</v>
       </c>
-      <c r="E356" s="72"/>
+      <c r="E356" s="52"/>
       <c r="F356" s="29"/>
       <c r="G356" s="29"/>
     </row>
-    <row r="357" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" ht="41.25" customHeight="1">
       <c r="A357" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="B357" s="52" t="s">
+      <c r="B357" s="51" t="s">
         <v>321</v>
       </c>
-      <c r="C357" s="72"/>
-      <c r="D357" s="52" t="s">
+      <c r="C357" s="52"/>
+      <c r="D357" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="E357" s="72"/>
+      <c r="E357" s="52"/>
       <c r="F357" s="29"/>
       <c r="G357" s="29"/>
     </row>
-    <row r="358" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" ht="61.5" customHeight="1">
       <c r="A358" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="B358" s="52" t="s">
+      <c r="B358" s="51" t="s">
         <v>324</v>
       </c>
-      <c r="C358" s="72"/>
-      <c r="D358" s="52" t="s">
+      <c r="C358" s="52"/>
+      <c r="D358" s="51" t="s">
         <v>325</v>
       </c>
-      <c r="E358" s="72"/>
+      <c r="E358" s="52"/>
       <c r="F358" s="29"/>
       <c r="G358" s="29"/>
     </row>
-    <row r="359" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" ht="54.75" customHeight="1">
       <c r="A359" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="B359" s="52" t="s">
+      <c r="B359" s="51" t="s">
         <v>327</v>
       </c>
-      <c r="C359" s="72"/>
-      <c r="D359" s="52" t="s">
+      <c r="C359" s="52"/>
+      <c r="D359" s="51" t="s">
         <v>328</v>
       </c>
-      <c r="E359" s="72"/>
+      <c r="E359" s="52"/>
       <c r="F359" s="29"/>
       <c r="G359" s="29"/>
     </row>
-    <row r="360" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" ht="88.5" customHeight="1">
       <c r="A360" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="B360" s="52" t="s">
+      <c r="B360" s="51" t="s">
         <v>330</v>
       </c>
-      <c r="C360" s="72"/>
-      <c r="D360" s="52" t="s">
+      <c r="C360" s="52"/>
+      <c r="D360" s="51" t="s">
         <v>331</v>
       </c>
-      <c r="E360" s="72"/>
+      <c r="E360" s="52"/>
       <c r="F360" s="29"/>
       <c r="G360" s="29"/>
     </row>
-    <row r="361" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" ht="48.75" customHeight="1">
       <c r="A361" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="B361" s="52" t="s">
+      <c r="B361" s="51" t="s">
         <v>333</v>
       </c>
-      <c r="C361" s="72"/>
-      <c r="D361" s="52" t="s">
+      <c r="C361" s="52"/>
+      <c r="D361" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E361" s="72"/>
+      <c r="E361" s="52"/>
       <c r="F361" s="29"/>
       <c r="G361" s="29"/>
     </row>
-    <row r="362" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" ht="41.25" customHeight="1">
       <c r="A362" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="B362" s="52" t="s">
+      <c r="B362" s="51" t="s">
         <v>335</v>
       </c>
-      <c r="C362" s="72"/>
-      <c r="D362" s="52" t="s">
+      <c r="C362" s="52"/>
+      <c r="D362" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E362" s="72"/>
+      <c r="E362" s="52"/>
       <c r="F362" s="29"/>
       <c r="G362" s="29"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A363" s="47" t="s">
+    <row r="363" spans="1:7">
+      <c r="A363" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="B363" s="54"/>
-      <c r="C363" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D363" s="31"/>
-      <c r="E363" s="31"/>
-      <c r="F363" s="31"/>
-      <c r="G363" s="32"/>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A364" s="55" t="s">
+      <c r="B363" s="45"/>
+      <c r="C363" s="72"/>
+      <c r="D363" s="70"/>
+      <c r="E363" s="70"/>
+      <c r="F363" s="70"/>
+      <c r="G363" s="71"/>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="B364" s="54"/>
-      <c r="C364" s="33">
-        <v>43014</v>
-      </c>
-      <c r="D364" s="31"/>
-      <c r="E364" s="31"/>
-      <c r="F364" s="31"/>
-      <c r="G364" s="32"/>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A365" s="47" t="s">
+      <c r="B364" s="45"/>
+      <c r="C364" s="69"/>
+      <c r="D364" s="70"/>
+      <c r="E364" s="70"/>
+      <c r="F364" s="70"/>
+      <c r="G364" s="71"/>
+    </row>
+    <row r="365" spans="1:7">
+      <c r="A365" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="B365" s="54"/>
-      <c r="C365" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="D365" s="31"/>
-      <c r="E365" s="31"/>
-      <c r="F365" s="31"/>
-      <c r="G365" s="32"/>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A366" s="47" t="s">
+      <c r="B365" s="45"/>
+      <c r="C365" s="72"/>
+      <c r="D365" s="70"/>
+      <c r="E365" s="70"/>
+      <c r="F365" s="70"/>
+      <c r="G365" s="71"/>
+    </row>
+    <row r="366" spans="1:7">
+      <c r="A366" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B366" s="48"/>
-      <c r="C366" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D366" s="31"/>
-      <c r="E366" s="31"/>
-      <c r="F366" s="31"/>
-      <c r="G366" s="32"/>
+      <c r="B366" s="50"/>
+      <c r="C366" s="72"/>
+      <c r="D366" s="70"/>
+      <c r="E366" s="70"/>
+      <c r="F366" s="70"/>
+      <c r="G366" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="545">
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="C253:G253"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="C254:G254"/>
-    <mergeCell ref="A255:B255"/>
-    <mergeCell ref="C255:G255"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D248:E248"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="D249:E249"/>
-    <mergeCell ref="B250:C250"/>
-    <mergeCell ref="D250:E250"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="C252:G252"/>
-    <mergeCell ref="B243:C243"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="B244:C244"/>
-    <mergeCell ref="D244:E244"/>
-    <mergeCell ref="B245:C245"/>
-    <mergeCell ref="D245:E245"/>
-    <mergeCell ref="B246:C246"/>
-    <mergeCell ref="D246:E246"/>
-    <mergeCell ref="B247:C247"/>
-    <mergeCell ref="D247:E247"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="D238:E238"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="B241:C241"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="D242:E242"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="C233:G233"/>
-    <mergeCell ref="A234:B234"/>
-    <mergeCell ref="C234:G234"/>
-    <mergeCell ref="A235:G235"/>
-    <mergeCell ref="B236:C236"/>
-    <mergeCell ref="D236:E236"/>
-    <mergeCell ref="B237:C237"/>
-    <mergeCell ref="D237:E237"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="C225:G225"/>
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="C226:G226"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="C227:G227"/>
-    <mergeCell ref="A231:G231"/>
-    <mergeCell ref="A232:B232"/>
-    <mergeCell ref="C232:G232"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="D220:E220"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="C224:G224"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="D215:E215"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="D216:E216"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="D218:E218"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="D219:E219"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="D205:E205"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="D206:E206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D207:E207"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="D208:E208"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="D209:E209"/>
+  <mergeCells count="565">
+    <mergeCell ref="C363:G363"/>
+    <mergeCell ref="C364:G364"/>
+    <mergeCell ref="C365:G365"/>
+    <mergeCell ref="C366:G366"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="C148:G148"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="C150:G150"/>
+    <mergeCell ref="C151:G151"/>
+    <mergeCell ref="C169:G169"/>
+    <mergeCell ref="C170:G170"/>
+    <mergeCell ref="C171:G171"/>
+    <mergeCell ref="C172:G172"/>
+    <mergeCell ref="A328:B328"/>
+    <mergeCell ref="C328:G328"/>
+    <mergeCell ref="B324:C324"/>
+    <mergeCell ref="D324:E324"/>
+    <mergeCell ref="A325:B325"/>
+    <mergeCell ref="C325:G325"/>
+    <mergeCell ref="A326:B326"/>
+    <mergeCell ref="C326:G326"/>
+    <mergeCell ref="A327:B327"/>
+    <mergeCell ref="C327:G327"/>
+    <mergeCell ref="A318:G318"/>
+    <mergeCell ref="A319:B319"/>
+    <mergeCell ref="C319:G319"/>
+    <mergeCell ref="A320:B320"/>
+    <mergeCell ref="C320:G320"/>
+    <mergeCell ref="A321:B321"/>
+    <mergeCell ref="C321:G321"/>
+    <mergeCell ref="A322:G322"/>
+    <mergeCell ref="B323:C323"/>
+    <mergeCell ref="D323:E323"/>
+    <mergeCell ref="A363:B363"/>
+    <mergeCell ref="A364:B364"/>
+    <mergeCell ref="A365:B365"/>
+    <mergeCell ref="A366:B366"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="D192:E192"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="D191:E191"/>
+    <mergeCell ref="B358:C358"/>
+    <mergeCell ref="D358:E358"/>
+    <mergeCell ref="B359:C359"/>
+    <mergeCell ref="D359:E359"/>
+    <mergeCell ref="B360:C360"/>
+    <mergeCell ref="D360:E360"/>
+    <mergeCell ref="B361:C361"/>
+    <mergeCell ref="D361:E361"/>
+    <mergeCell ref="B362:C362"/>
+    <mergeCell ref="D362:E362"/>
+    <mergeCell ref="A352:B352"/>
+    <mergeCell ref="C352:G352"/>
+    <mergeCell ref="A353:B353"/>
+    <mergeCell ref="C353:G353"/>
+    <mergeCell ref="B355:C355"/>
+    <mergeCell ref="D355:E355"/>
+    <mergeCell ref="B356:C356"/>
+    <mergeCell ref="D356:E356"/>
+    <mergeCell ref="B357:C357"/>
+    <mergeCell ref="D357:E357"/>
+    <mergeCell ref="B342:C342"/>
+    <mergeCell ref="D342:E342"/>
+    <mergeCell ref="A343:B343"/>
+    <mergeCell ref="A344:B344"/>
+    <mergeCell ref="A345:B345"/>
+    <mergeCell ref="A346:B346"/>
+    <mergeCell ref="A350:G350"/>
+    <mergeCell ref="A351:B351"/>
+    <mergeCell ref="C351:G351"/>
+    <mergeCell ref="C343:G343"/>
+    <mergeCell ref="C344:G344"/>
+    <mergeCell ref="C345:G345"/>
+    <mergeCell ref="C346:G346"/>
+    <mergeCell ref="B337:C337"/>
+    <mergeCell ref="D337:E337"/>
+    <mergeCell ref="B338:C338"/>
+    <mergeCell ref="D338:E338"/>
+    <mergeCell ref="B339:C339"/>
+    <mergeCell ref="D339:E339"/>
+    <mergeCell ref="B340:C340"/>
+    <mergeCell ref="D340:E340"/>
+    <mergeCell ref="B341:C341"/>
+    <mergeCell ref="D341:E341"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A331:G331"/>
+    <mergeCell ref="A332:B332"/>
+    <mergeCell ref="C332:G332"/>
+    <mergeCell ref="A333:B333"/>
+    <mergeCell ref="C333:G333"/>
+    <mergeCell ref="A334:B334"/>
+    <mergeCell ref="C334:G334"/>
+    <mergeCell ref="B336:C336"/>
+    <mergeCell ref="D336:E336"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="C271:G271"/>
+    <mergeCell ref="A272:B272"/>
+    <mergeCell ref="C272:G272"/>
+    <mergeCell ref="B267:C267"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="D268:E268"/>
+    <mergeCell ref="A269:B269"/>
+    <mergeCell ref="C269:G269"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="C270:G270"/>
+    <mergeCell ref="A260:G260"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A155:G155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="C156:G156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:G157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="C158:G158"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A132:G132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="A101:G101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="A105:G105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="C261:G261"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="C262:G262"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="C263:G263"/>
+    <mergeCell ref="A264:G264"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="C193:G193"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="C194:G194"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="C195:G195"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="C196:G196"/>
+    <mergeCell ref="A200:G200"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="C201:G201"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="C202:G202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="C203:G203"/>
+    <mergeCell ref="A204:G204"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A180:G180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="C181:G181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="C182:G182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="C183:G183"/>
+    <mergeCell ref="A184:G184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="A66:G66"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="A88:G88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A276:G276"/>
+    <mergeCell ref="A277:B277"/>
+    <mergeCell ref="C277:G277"/>
+    <mergeCell ref="A278:B278"/>
+    <mergeCell ref="C278:G278"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="A298:B298"/>
+    <mergeCell ref="A279:B279"/>
+    <mergeCell ref="C279:G279"/>
+    <mergeCell ref="A280:G280"/>
+    <mergeCell ref="B281:C281"/>
+    <mergeCell ref="D281:E281"/>
+    <mergeCell ref="B282:C282"/>
+    <mergeCell ref="D282:E282"/>
+    <mergeCell ref="B283:C283"/>
+    <mergeCell ref="D283:E283"/>
+    <mergeCell ref="C298:G298"/>
+    <mergeCell ref="D310:E310"/>
+    <mergeCell ref="A284:B284"/>
+    <mergeCell ref="C284:G284"/>
+    <mergeCell ref="A285:B285"/>
+    <mergeCell ref="C285:G285"/>
+    <mergeCell ref="A286:B286"/>
+    <mergeCell ref="C286:G286"/>
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="C287:G287"/>
+    <mergeCell ref="A305:G305"/>
+    <mergeCell ref="A291:G291"/>
+    <mergeCell ref="A292:B292"/>
+    <mergeCell ref="C292:G292"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="C293:G293"/>
+    <mergeCell ref="A294:B294"/>
+    <mergeCell ref="C294:G294"/>
+    <mergeCell ref="A295:G295"/>
+    <mergeCell ref="B296:C296"/>
+    <mergeCell ref="D296:E296"/>
+    <mergeCell ref="A301:B301"/>
+    <mergeCell ref="C301:G301"/>
+    <mergeCell ref="B297:C297"/>
+    <mergeCell ref="D297:E297"/>
     <mergeCell ref="A299:B299"/>
     <mergeCell ref="C299:G299"/>
     <mergeCell ref="A300:B300"/>
@@ -8763,433 +9072,100 @@
     <mergeCell ref="C308:G308"/>
     <mergeCell ref="A309:G309"/>
     <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D310:E310"/>
-    <mergeCell ref="A284:B284"/>
-    <mergeCell ref="C284:G284"/>
-    <mergeCell ref="A285:B285"/>
-    <mergeCell ref="C285:G285"/>
-    <mergeCell ref="A286:B286"/>
-    <mergeCell ref="C286:G286"/>
-    <mergeCell ref="A287:B287"/>
-    <mergeCell ref="C287:G287"/>
-    <mergeCell ref="A305:G305"/>
-    <mergeCell ref="A291:G291"/>
-    <mergeCell ref="A292:B292"/>
-    <mergeCell ref="C292:G292"/>
-    <mergeCell ref="A293:B293"/>
-    <mergeCell ref="C293:G293"/>
-    <mergeCell ref="A294:B294"/>
-    <mergeCell ref="C294:G294"/>
-    <mergeCell ref="A295:G295"/>
-    <mergeCell ref="B296:C296"/>
-    <mergeCell ref="D296:E296"/>
-    <mergeCell ref="A301:B301"/>
-    <mergeCell ref="C301:G301"/>
-    <mergeCell ref="B297:C297"/>
-    <mergeCell ref="D297:E297"/>
-    <mergeCell ref="A298:B298"/>
-    <mergeCell ref="A279:B279"/>
-    <mergeCell ref="C279:G279"/>
-    <mergeCell ref="A280:G280"/>
-    <mergeCell ref="B281:C281"/>
-    <mergeCell ref="D281:E281"/>
-    <mergeCell ref="B282:C282"/>
-    <mergeCell ref="D282:E282"/>
-    <mergeCell ref="B283:C283"/>
-    <mergeCell ref="D283:E283"/>
-    <mergeCell ref="C298:G298"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A276:G276"/>
-    <mergeCell ref="A277:B277"/>
-    <mergeCell ref="C277:G277"/>
-    <mergeCell ref="A278:B278"/>
-    <mergeCell ref="C278:G278"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="A84:G84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="A88:G88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="A66:G66"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A180:G180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="C181:G181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="C182:G182"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="C183:G183"/>
-    <mergeCell ref="A184:G184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="C261:G261"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="C262:G262"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="C263:G263"/>
-    <mergeCell ref="A264:G264"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="C193:G193"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="C194:G194"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="C195:G195"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="C196:G196"/>
-    <mergeCell ref="A200:G200"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="C201:G201"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="C202:G202"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="C203:G203"/>
-    <mergeCell ref="A204:G204"/>
-    <mergeCell ref="A101:G101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:G103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:G104"/>
-    <mergeCell ref="A105:G105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A132:G132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C133:G133"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C134:G134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="C135:G135"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A155:G155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="C156:G156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:G157"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="C158:G158"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="A331:G331"/>
-    <mergeCell ref="A332:B332"/>
-    <mergeCell ref="C332:G332"/>
-    <mergeCell ref="A333:B333"/>
-    <mergeCell ref="C333:G333"/>
-    <mergeCell ref="A334:B334"/>
-    <mergeCell ref="C334:G334"/>
-    <mergeCell ref="B336:C336"/>
-    <mergeCell ref="D336:E336"/>
-    <mergeCell ref="A271:B271"/>
-    <mergeCell ref="C271:G271"/>
-    <mergeCell ref="A272:B272"/>
-    <mergeCell ref="C272:G272"/>
-    <mergeCell ref="B267:C267"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="D268:E268"/>
-    <mergeCell ref="A269:B269"/>
-    <mergeCell ref="C269:G269"/>
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="C270:G270"/>
-    <mergeCell ref="A260:G260"/>
-    <mergeCell ref="A261:B261"/>
-    <mergeCell ref="B337:C337"/>
-    <mergeCell ref="D337:E337"/>
-    <mergeCell ref="B338:C338"/>
-    <mergeCell ref="D338:E338"/>
-    <mergeCell ref="B339:C339"/>
-    <mergeCell ref="D339:E339"/>
-    <mergeCell ref="B340:C340"/>
-    <mergeCell ref="D340:E340"/>
-    <mergeCell ref="B341:C341"/>
-    <mergeCell ref="D341:E341"/>
-    <mergeCell ref="B342:C342"/>
-    <mergeCell ref="D342:E342"/>
-    <mergeCell ref="A343:B343"/>
-    <mergeCell ref="A344:B344"/>
-    <mergeCell ref="A345:B345"/>
-    <mergeCell ref="A346:B346"/>
-    <mergeCell ref="A350:G350"/>
-    <mergeCell ref="A351:B351"/>
-    <mergeCell ref="C351:G351"/>
-    <mergeCell ref="B360:C360"/>
-    <mergeCell ref="D360:E360"/>
-    <mergeCell ref="B361:C361"/>
-    <mergeCell ref="D361:E361"/>
-    <mergeCell ref="B362:C362"/>
-    <mergeCell ref="D362:E362"/>
-    <mergeCell ref="A352:B352"/>
-    <mergeCell ref="C352:G352"/>
-    <mergeCell ref="A353:B353"/>
-    <mergeCell ref="C353:G353"/>
-    <mergeCell ref="B355:C355"/>
-    <mergeCell ref="D355:E355"/>
-    <mergeCell ref="B356:C356"/>
-    <mergeCell ref="D356:E356"/>
-    <mergeCell ref="B357:C357"/>
-    <mergeCell ref="D357:E357"/>
-    <mergeCell ref="A363:B363"/>
-    <mergeCell ref="A364:B364"/>
-    <mergeCell ref="A365:B365"/>
-    <mergeCell ref="A366:B366"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="D190:E190"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="D192:E192"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="D191:E191"/>
-    <mergeCell ref="B358:C358"/>
-    <mergeCell ref="D358:E358"/>
-    <mergeCell ref="B359:C359"/>
-    <mergeCell ref="D359:E359"/>
-    <mergeCell ref="A318:G318"/>
-    <mergeCell ref="A319:B319"/>
-    <mergeCell ref="C319:G319"/>
-    <mergeCell ref="A320:B320"/>
-    <mergeCell ref="C320:G320"/>
-    <mergeCell ref="A321:B321"/>
-    <mergeCell ref="C321:G321"/>
-    <mergeCell ref="A322:G322"/>
-    <mergeCell ref="B323:C323"/>
-    <mergeCell ref="D323:E323"/>
-    <mergeCell ref="A328:B328"/>
-    <mergeCell ref="C328:G328"/>
-    <mergeCell ref="B324:C324"/>
-    <mergeCell ref="D324:E324"/>
-    <mergeCell ref="A325:B325"/>
-    <mergeCell ref="C325:G325"/>
-    <mergeCell ref="A326:B326"/>
-    <mergeCell ref="C326:G326"/>
-    <mergeCell ref="A327:B327"/>
-    <mergeCell ref="C327:G327"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="D205:E205"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="D206:E206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="D209:E209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="D215:E215"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="D216:E216"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="D218:E218"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="D219:E219"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="C224:G224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="C225:G225"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="C226:G226"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="C227:G227"/>
+    <mergeCell ref="A231:G231"/>
+    <mergeCell ref="A232:B232"/>
+    <mergeCell ref="C232:G232"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="C233:G233"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="C234:G234"/>
+    <mergeCell ref="A235:G235"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="D236:E236"/>
+    <mergeCell ref="B237:C237"/>
+    <mergeCell ref="D237:E237"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="D238:E238"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="B241:C241"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="B244:C244"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="B245:C245"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="B246:C246"/>
+    <mergeCell ref="D246:E246"/>
+    <mergeCell ref="B247:C247"/>
+    <mergeCell ref="D247:E247"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="C253:G253"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="C254:G254"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="C255:G255"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D248:E248"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="D249:E249"/>
+    <mergeCell ref="B250:C250"/>
+    <mergeCell ref="D250:E250"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="C252:G252"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -9197,14 +9173,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:I24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="13.6640625" style="10" customWidth="1"/>
     <col min="2" max="2" width="10" style="10" customWidth="1"/>
@@ -9218,20 +9194,20 @@
     <col min="10" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="91" t="s">
+    <row r="4" spans="1:9" ht="18">
+      <c r="A4" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="93"/>
-    </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="92"/>
+    </row>
+    <row r="5" spans="1:9" s="4" customFormat="1">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -9260,7 +9236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="10" customFormat="1" ht="29.7" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="10" customFormat="1" ht="29.7" customHeight="1">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -9281,7 +9257,7 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:9" s="10" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="43.2" customHeight="1">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -9304,7 +9280,7 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:9" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="10" customFormat="1" ht="43.2">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -9327,7 +9303,7 @@
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="10" customFormat="1" ht="43.2">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -9348,20 +9324,20 @@
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
     </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="91" t="s">
+    <row r="13" spans="1:9" ht="18">
+      <c r="A13" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="93"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="91"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="92"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
@@ -9390,7 +9366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="61.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="61.95" customHeight="1">
       <c r="A15" s="5">
         <v>1</v>
       </c>
@@ -9413,7 +9389,7 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="28.8">
       <c r="A16" s="5">
         <v>2</v>
       </c>
@@ -9436,7 +9412,7 @@
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="57.6">
       <c r="A17" s="5">
         <v>3</v>
       </c>
@@ -9457,7 +9433,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="57.6">
       <c r="A18" s="5">
         <v>4</v>
       </c>
@@ -9480,7 +9456,7 @@
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
     </row>
-    <row r="19" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="57.6">
       <c r="A19" s="5">
         <v>5</v>
       </c>
@@ -9503,7 +9479,7 @@
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="57.6">
       <c r="A20" s="5">
         <v>6</v>
       </c>
@@ -9526,7 +9502,7 @@
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
     </row>
-    <row r="21" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="57.6">
       <c r="A21" s="5">
         <v>7</v>
       </c>
@@ -9549,7 +9525,7 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="57.6">
       <c r="A22" s="6">
         <v>8</v>
       </c>
@@ -9572,7 +9548,7 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="57.6">
       <c r="A23" s="6">
         <v>9</v>
       </c>
@@ -9595,7 +9571,7 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="43.2">
       <c r="A24" s="6">
         <v>10</v>
       </c>
@@ -9624,8 +9600,8 @@
     <mergeCell ref="A13:I13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" display="testingfyp2017@gmail.com_x000a_testingfyp"/>
-    <hyperlink ref="F16" r:id="rId2"/>
+    <hyperlink ref="F8" r:id="rId1" display="testingfyp2017@gmail.com_x000a_testingfyp" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F16" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId3"/>

--- a/FYP documentation/FYP_Test_Plan.xlsx
+++ b/FYP documentation/FYP_Test_Plan.xlsx
@@ -2981,20 +2981,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3006,16 +3003,31 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3027,57 +3039,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3095,14 +3056,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3113,10 +3113,10 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4195,8 +4195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="D238" sqref="D238:E238"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A18" activeCellId="25" sqref="A337:A342 A356:A362 A324 A324 A311:A312 A297 A297 A283 A283 A282 A282 A266:A268 A237:A251 A206:A223 A186:A192 A161:A168 A138:A147 A107:A121 A90:A92 A68:A73 A55 A55 A36:A41 A35 A35 A9:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4237,67 +4237,67 @@
       <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="31.2" customHeight="1" thickBot="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="74" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="76"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="62"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="78"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65"/>
       <c r="H6" s="17"/>
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="79"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="81"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="68"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
     </row>
@@ -4305,14 +4305,14 @@
       <c r="A8" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="44" t="s">
+      <c r="C8" s="52"/>
+      <c r="D8" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="45"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="21" t="s">
         <v>70</v>
       </c>
@@ -4324,14 +4324,14 @@
       <c r="A9" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="51" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="73"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="27" t="s">
         <v>86</v>
       </c>
@@ -4343,14 +4343,14 @@
       <c r="A10" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="51" t="s">
+      <c r="C10" s="51"/>
+      <c r="D10" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="52"/>
+      <c r="E10" s="69"/>
       <c r="F10" s="27" t="s">
         <v>111</v>
       </c>
@@ -4362,14 +4362,14 @@
       <c r="A11" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="50" t="s">
         <v>336</v>
       </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="51" t="s">
+      <c r="C11" s="51"/>
+      <c r="D11" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E11" s="52"/>
+      <c r="E11" s="69"/>
       <c r="F11" s="27" t="s">
         <v>337</v>
       </c>
@@ -4381,14 +4381,14 @@
       <c r="A12" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="51" t="s">
+      <c r="C12" s="51"/>
+      <c r="D12" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E12" s="52"/>
+      <c r="E12" s="69"/>
       <c r="F12" s="27" t="s">
         <v>115</v>
       </c>
@@ -4400,14 +4400,14 @@
       <c r="A13" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="51" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E13" s="52"/>
+      <c r="E13" s="69"/>
       <c r="F13" s="27" t="s">
         <v>115</v>
       </c>
@@ -4419,14 +4419,14 @@
       <c r="A14" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="51" t="s">
+      <c r="C14" s="69"/>
+      <c r="D14" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E14" s="52"/>
+      <c r="E14" s="69"/>
       <c r="F14" s="27" t="s">
         <v>115</v>
       </c>
@@ -4438,14 +4438,14 @@
       <c r="A15" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="84" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="51" t="s">
+      <c r="C15" s="84"/>
+      <c r="D15" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="52"/>
+      <c r="E15" s="69"/>
       <c r="F15" s="28" t="s">
         <v>111</v>
       </c>
@@ -4457,14 +4457,14 @@
       <c r="A16" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="51" t="s">
+      <c r="C16" s="84"/>
+      <c r="D16" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E16" s="52"/>
+      <c r="E16" s="69"/>
       <c r="F16" s="28" t="s">
         <v>115</v>
       </c>
@@ -4476,14 +4476,14 @@
       <c r="A17" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="B17" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="51" t="s">
+      <c r="C17" s="84"/>
+      <c r="D17" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E17" s="52"/>
+      <c r="E17" s="69"/>
       <c r="F17" s="28" t="s">
         <v>115</v>
       </c>
@@ -4495,14 +4495,14 @@
       <c r="A18" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="51" t="s">
+      <c r="C18" s="84"/>
+      <c r="D18" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="52"/>
+      <c r="E18" s="69"/>
       <c r="F18" s="28" t="s">
         <v>111</v>
       </c>
@@ -4511,56 +4511,56 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="72" t="s">
+      <c r="B19" s="52"/>
+      <c r="C19" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="71"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="69">
+      <c r="B20" s="52"/>
+      <c r="C20" s="47">
         <v>43014</v>
       </c>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="71"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="46"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="72" t="s">
+      <c r="B21" s="52"/>
+      <c r="C21" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="71"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="46"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="72" t="s">
+      <c r="B22" s="49"/>
+      <c r="C22" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="71"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="46"/>
     </row>
     <row r="23" spans="1:7" ht="14.4" customHeight="1">
       <c r="A23" s="18"/>
@@ -4609,74 +4609,74 @@
     </row>
     <row r="28" spans="1:7" ht="12" customHeight="1"/>
     <row r="29" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
     </row>
     <row r="30" spans="1:7" ht="15" thickTop="1">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="65" t="s">
+      <c r="B30" s="77"/>
+      <c r="C30" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="67"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="75"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="58"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="62"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="59" t="s">
+      <c r="B32" s="56"/>
+      <c r="C32" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="61"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="72"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="46"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="48"/>
+      <c r="A33" s="79"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="81"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="44" t="s">
+      <c r="C34" s="52"/>
+      <c r="D34" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="45"/>
+      <c r="E34" s="52"/>
       <c r="F34" s="21" t="s">
         <v>70</v>
       </c>
@@ -4688,14 +4688,14 @@
       <c r="A35" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="83" t="s">
+      <c r="B35" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="84"/>
-      <c r="D35" s="72" t="s">
+      <c r="C35" s="83"/>
+      <c r="D35" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="71"/>
+      <c r="E35" s="46"/>
       <c r="F35" s="20" t="s">
         <v>102</v>
       </c>
@@ -4707,14 +4707,14 @@
       <c r="A36" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B36" s="83" t="s">
+      <c r="B36" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="84"/>
-      <c r="D36" s="51" t="s">
+      <c r="C36" s="83"/>
+      <c r="D36" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E36" s="52"/>
+      <c r="E36" s="69"/>
       <c r="F36" s="20" t="s">
         <v>100</v>
       </c>
@@ -4726,14 +4726,14 @@
       <c r="A37" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="B37" s="83" t="s">
+      <c r="B37" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="84"/>
-      <c r="D37" s="51" t="s">
+      <c r="C37" s="83"/>
+      <c r="D37" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="52"/>
+      <c r="E37" s="69"/>
       <c r="F37" s="20" t="s">
         <v>101</v>
       </c>
@@ -4745,14 +4745,14 @@
       <c r="A38" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="B38" s="83" t="s">
+      <c r="B38" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="84"/>
-      <c r="D38" s="51" t="s">
+      <c r="C38" s="83"/>
+      <c r="D38" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="52"/>
+      <c r="E38" s="69"/>
       <c r="F38" s="20" t="s">
         <v>99</v>
       </c>
@@ -4764,14 +4764,14 @@
       <c r="A39" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="50" t="s">
         <v>340</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="51" t="s">
+      <c r="C39" s="69"/>
+      <c r="D39" s="50" t="s">
         <v>342</v>
       </c>
-      <c r="E39" s="52"/>
+      <c r="E39" s="69"/>
       <c r="F39" s="27" t="s">
         <v>343</v>
       </c>
@@ -4783,14 +4783,14 @@
       <c r="A40" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="51" t="s">
+      <c r="C40" s="69"/>
+      <c r="D40" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="E40" s="52"/>
+      <c r="E40" s="69"/>
       <c r="F40" s="29" t="s">
         <v>150</v>
       </c>
@@ -4802,14 +4802,14 @@
       <c r="A41" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="50" t="s">
         <v>341</v>
       </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="51" t="s">
+      <c r="C41" s="69"/>
+      <c r="D41" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E41" s="52"/>
+      <c r="E41" s="69"/>
       <c r="F41" s="27" t="s">
         <v>147</v>
       </c>
@@ -4818,126 +4818,126 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="45"/>
-      <c r="C42" s="72" t="s">
+      <c r="B42" s="52"/>
+      <c r="C42" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="71"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="46"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="45"/>
-      <c r="C43" s="69">
+      <c r="B43" s="52"/>
+      <c r="C43" s="47">
         <v>43042</v>
       </c>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="71"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="46"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="50"/>
-      <c r="C44" s="72" t="s">
+      <c r="B44" s="49"/>
+      <c r="C44" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="71"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="46"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="72" t="s">
+      <c r="B45" s="49"/>
+      <c r="C45" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="71"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="46"/>
     </row>
     <row r="49" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A49" s="62" t="s">
+      <c r="A49" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
     </row>
     <row r="50" spans="1:7" ht="15" thickTop="1">
-      <c r="A50" s="54" t="s">
+      <c r="A50" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="55"/>
-      <c r="C50" s="74" t="s">
+      <c r="B50" s="56"/>
+      <c r="C50" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="75"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="76"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="59"/>
     </row>
     <row r="51" spans="1:7" ht="16.95" customHeight="1">
-      <c r="A51" s="54" t="s">
+      <c r="A51" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="55"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
-      <c r="F51" s="57"/>
-      <c r="G51" s="58"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
+      <c r="G51" s="62"/>
     </row>
     <row r="52" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A52" s="54" t="s">
+      <c r="A52" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="55"/>
-      <c r="C52" s="59" t="s">
+      <c r="B52" s="56"/>
+      <c r="C52" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="78"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="64"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="65"/>
     </row>
     <row r="53" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A53" s="79"/>
-      <c r="B53" s="80"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="81"/>
+      <c r="A53" s="66"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="68"/>
     </row>
     <row r="54" spans="1:7" ht="27" customHeight="1">
       <c r="A54" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="45"/>
-      <c r="D54" s="44" t="s">
+      <c r="C54" s="52"/>
+      <c r="D54" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E54" s="45"/>
+      <c r="E54" s="52"/>
       <c r="F54" s="21" t="s">
         <v>70</v>
       </c>
@@ -4949,14 +4949,14 @@
       <c r="A55" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="B55" s="51" t="s">
+      <c r="B55" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="73"/>
-      <c r="D55" s="51" t="s">
+      <c r="C55" s="51"/>
+      <c r="D55" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="E55" s="73"/>
+      <c r="E55" s="51"/>
       <c r="F55" s="29" t="s">
         <v>127</v>
       </c>
@@ -4965,126 +4965,126 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A56" s="49" t="s">
+      <c r="A56" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="45"/>
-      <c r="C56" s="72" t="s">
+      <c r="B56" s="52"/>
+      <c r="C56" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="71"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="46"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="44" t="s">
+      <c r="A57" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="45"/>
-      <c r="C57" s="69">
+      <c r="B57" s="52"/>
+      <c r="C57" s="47">
         <v>43046</v>
       </c>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="71"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="46"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="49" t="s">
+      <c r="A58" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="45"/>
-      <c r="C58" s="72" t="s">
+      <c r="B58" s="52"/>
+      <c r="C58" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="D58" s="70"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="71"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="46"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="49" t="s">
+      <c r="A59" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="50"/>
-      <c r="C59" s="72" t="s">
+      <c r="B59" s="49"/>
+      <c r="C59" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="D59" s="70"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="71"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="46"/>
     </row>
     <row r="62" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A62" s="62" t="s">
+      <c r="A62" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="B62" s="62"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="62"/>
-      <c r="F62" s="62"/>
-      <c r="G62" s="62"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
     </row>
     <row r="63" spans="1:7" ht="15" thickTop="1">
-      <c r="A63" s="54" t="s">
+      <c r="A63" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="55"/>
-      <c r="C63" s="74" t="s">
+      <c r="B63" s="56"/>
+      <c r="C63" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="D63" s="75"/>
-      <c r="E63" s="75"/>
-      <c r="F63" s="75"/>
-      <c r="G63" s="76"/>
+      <c r="D63" s="58"/>
+      <c r="E63" s="58"/>
+      <c r="F63" s="58"/>
+      <c r="G63" s="59"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="54" t="s">
+      <c r="A64" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="55"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="58"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="62"/>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1">
-      <c r="A65" s="54" t="s">
+      <c r="A65" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="55"/>
-      <c r="C65" s="59" t="s">
+      <c r="B65" s="56"/>
+      <c r="C65" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="D65" s="77"/>
-      <c r="E65" s="77"/>
-      <c r="F65" s="77"/>
-      <c r="G65" s="78"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="65"/>
     </row>
     <row r="66" spans="1:7" ht="21" customHeight="1">
-      <c r="A66" s="79"/>
-      <c r="B66" s="80"/>
-      <c r="C66" s="80"/>
-      <c r="D66" s="80"/>
-      <c r="E66" s="80"/>
-      <c r="F66" s="80"/>
-      <c r="G66" s="81"/>
+      <c r="A66" s="66"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="68"/>
     </row>
     <row r="67" spans="1:7" ht="56.4" customHeight="1">
       <c r="A67" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="44" t="s">
+      <c r="B67" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="45"/>
-      <c r="D67" s="44" t="s">
+      <c r="C67" s="52"/>
+      <c r="D67" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E67" s="45"/>
+      <c r="E67" s="52"/>
       <c r="F67" s="21" t="s">
         <v>70</v>
       </c>
@@ -5096,14 +5096,14 @@
       <c r="A68" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="B68" s="51" t="s">
+      <c r="B68" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="73"/>
-      <c r="D68" s="51" t="s">
+      <c r="C68" s="51"/>
+      <c r="D68" s="50" t="s">
         <v>344</v>
       </c>
-      <c r="E68" s="73"/>
+      <c r="E68" s="51"/>
       <c r="F68" s="29" t="s">
         <v>117</v>
       </c>
@@ -5115,14 +5115,14 @@
       <c r="A69" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="B69" s="51" t="s">
+      <c r="B69" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="C69" s="73"/>
-      <c r="D69" s="51" t="s">
+      <c r="C69" s="51"/>
+      <c r="D69" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="E69" s="73"/>
+      <c r="E69" s="51"/>
       <c r="F69" s="29" t="s">
         <v>118</v>
       </c>
@@ -5134,14 +5134,14 @@
       <c r="A70" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="B70" s="51" t="s">
+      <c r="B70" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="C70" s="73"/>
-      <c r="D70" s="51" t="s">
+      <c r="C70" s="51"/>
+      <c r="D70" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="E70" s="73"/>
+      <c r="E70" s="51"/>
       <c r="F70" s="29" t="s">
         <v>119</v>
       </c>
@@ -5153,14 +5153,14 @@
       <c r="A71" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="C71" s="73"/>
-      <c r="D71" s="51" t="s">
+      <c r="C71" s="51"/>
+      <c r="D71" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="E71" s="73"/>
+      <c r="E71" s="51"/>
       <c r="F71" s="29" t="s">
         <v>120</v>
       </c>
@@ -5172,14 +5172,14 @@
       <c r="A72" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="B72" s="51" t="s">
+      <c r="B72" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="73"/>
-      <c r="D72" s="51" t="s">
+      <c r="C72" s="51"/>
+      <c r="D72" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="E72" s="73"/>
+      <c r="E72" s="51"/>
       <c r="F72" s="29" t="s">
         <v>124</v>
       </c>
@@ -5191,138 +5191,138 @@
       <c r="A73" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="B73" s="51" t="s">
+      <c r="B73" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="C73" s="73"/>
-      <c r="D73" s="51" t="s">
+      <c r="C73" s="51"/>
+      <c r="D73" s="50" t="s">
         <v>346</v>
       </c>
-      <c r="E73" s="73"/>
+      <c r="E73" s="51"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="49" t="s">
+      <c r="A74" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="45"/>
-      <c r="C74" s="72" t="s">
+      <c r="B74" s="52"/>
+      <c r="C74" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="71"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="46"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="44" t="s">
+      <c r="A75" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="45"/>
-      <c r="C75" s="69">
+      <c r="B75" s="52"/>
+      <c r="C75" s="47">
         <v>43045</v>
       </c>
-      <c r="D75" s="70"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="71"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="46"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="49" t="s">
+      <c r="A76" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="45"/>
-      <c r="C76" s="72" t="s">
+      <c r="B76" s="52"/>
+      <c r="C76" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="D76" s="70"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="71"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="46"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="49" t="s">
+      <c r="A77" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="50"/>
-      <c r="C77" s="72" t="s">
+      <c r="B77" s="49"/>
+      <c r="C77" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="D77" s="70"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="71"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="45"/>
+      <c r="G77" s="46"/>
     </row>
     <row r="84" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A84" s="62" t="s">
+      <c r="A84" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="B84" s="62"/>
-      <c r="C84" s="62"/>
-      <c r="D84" s="62"/>
-      <c r="E84" s="62"/>
-      <c r="F84" s="62"/>
-      <c r="G84" s="62"/>
+      <c r="B84" s="54"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="54"/>
+      <c r="F84" s="54"/>
+      <c r="G84" s="54"/>
     </row>
     <row r="85" spans="1:7" ht="15" thickTop="1">
-      <c r="A85" s="54" t="s">
+      <c r="A85" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B85" s="55"/>
-      <c r="C85" s="74" t="s">
+      <c r="B85" s="56"/>
+      <c r="C85" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="D85" s="75"/>
-      <c r="E85" s="75"/>
-      <c r="F85" s="75"/>
-      <c r="G85" s="76"/>
+      <c r="D85" s="58"/>
+      <c r="E85" s="58"/>
+      <c r="F85" s="58"/>
+      <c r="G85" s="59"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="54" t="s">
+      <c r="A86" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B86" s="55"/>
-      <c r="C86" s="56"/>
-      <c r="D86" s="57"/>
-      <c r="E86" s="57"/>
-      <c r="F86" s="57"/>
-      <c r="G86" s="58"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="60"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="61"/>
+      <c r="F86" s="61"/>
+      <c r="G86" s="62"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="54" t="s">
+      <c r="A87" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B87" s="55"/>
-      <c r="C87" s="59" t="s">
+      <c r="B87" s="56"/>
+      <c r="C87" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="D87" s="77"/>
-      <c r="E87" s="77"/>
-      <c r="F87" s="77"/>
-      <c r="G87" s="78"/>
+      <c r="D87" s="64"/>
+      <c r="E87" s="64"/>
+      <c r="F87" s="64"/>
+      <c r="G87" s="65"/>
     </row>
     <row r="88" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A88" s="79"/>
-      <c r="B88" s="80"/>
-      <c r="C88" s="80"/>
-      <c r="D88" s="80"/>
-      <c r="E88" s="80"/>
-      <c r="F88" s="80"/>
-      <c r="G88" s="81"/>
+      <c r="A88" s="66"/>
+      <c r="B88" s="67"/>
+      <c r="C88" s="67"/>
+      <c r="D88" s="67"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="67"/>
+      <c r="G88" s="68"/>
     </row>
     <row r="89" spans="1:7" ht="18" customHeight="1">
       <c r="A89" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B89" s="44" t="s">
+      <c r="B89" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C89" s="45"/>
-      <c r="D89" s="44" t="s">
+      <c r="C89" s="52"/>
+      <c r="D89" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E89" s="45"/>
+      <c r="E89" s="52"/>
       <c r="F89" s="21" t="s">
         <v>70</v>
       </c>
@@ -5334,14 +5334,14 @@
       <c r="A90" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="B90" s="51" t="s">
+      <c r="B90" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="C90" s="73"/>
-      <c r="D90" s="51" t="s">
+      <c r="C90" s="51"/>
+      <c r="D90" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="E90" s="73"/>
+      <c r="E90" s="51"/>
       <c r="F90" s="29" t="s">
         <v>135</v>
       </c>
@@ -5353,14 +5353,14 @@
       <c r="A91" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="B91" s="51" t="s">
+      <c r="B91" s="50" t="s">
         <v>347</v>
       </c>
-      <c r="C91" s="73"/>
-      <c r="D91" s="51" t="s">
+      <c r="C91" s="51"/>
+      <c r="D91" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="E91" s="73"/>
+      <c r="E91" s="51"/>
       <c r="F91" s="29" t="s">
         <v>138</v>
       </c>
@@ -5372,14 +5372,14 @@
       <c r="A92" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B92" s="51" t="s">
+      <c r="B92" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="C92" s="73"/>
-      <c r="D92" s="51" t="s">
+      <c r="C92" s="51"/>
+      <c r="D92" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="E92" s="73"/>
+      <c r="E92" s="51"/>
       <c r="F92" s="29" t="s">
         <v>142</v>
       </c>
@@ -5388,121 +5388,121 @@
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="49" t="s">
+      <c r="A93" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="B93" s="45"/>
-      <c r="C93" s="72" t="s">
+      <c r="B93" s="52"/>
+      <c r="C93" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D93" s="70"/>
-      <c r="E93" s="70"/>
-      <c r="F93" s="70"/>
-      <c r="G93" s="71"/>
+      <c r="D93" s="45"/>
+      <c r="E93" s="45"/>
+      <c r="F93" s="45"/>
+      <c r="G93" s="46"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="44" t="s">
+      <c r="A94" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B94" s="45"/>
-      <c r="C94" s="69">
+      <c r="B94" s="52"/>
+      <c r="C94" s="47">
         <v>43046</v>
       </c>
-      <c r="D94" s="70"/>
-      <c r="E94" s="70"/>
-      <c r="F94" s="70"/>
-      <c r="G94" s="71"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="45"/>
+      <c r="F94" s="45"/>
+      <c r="G94" s="46"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="49" t="s">
+      <c r="A95" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B95" s="45"/>
-      <c r="C95" s="72" t="s">
+      <c r="B95" s="52"/>
+      <c r="C95" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="D95" s="70"/>
-      <c r="E95" s="70"/>
-      <c r="F95" s="70"/>
-      <c r="G95" s="71"/>
+      <c r="D95" s="45"/>
+      <c r="E95" s="45"/>
+      <c r="F95" s="45"/>
+      <c r="G95" s="46"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="49" t="s">
+      <c r="A96" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B96" s="50"/>
-      <c r="C96" s="72" t="s">
+      <c r="B96" s="49"/>
+      <c r="C96" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="D96" s="70"/>
-      <c r="E96" s="70"/>
-      <c r="F96" s="70"/>
-      <c r="G96" s="71"/>
+      <c r="D96" s="45"/>
+      <c r="E96" s="45"/>
+      <c r="F96" s="45"/>
+      <c r="G96" s="46"/>
     </row>
     <row r="101" spans="1:9" ht="31.2" customHeight="1" thickBot="1">
-      <c r="A101" s="62" t="s">
+      <c r="A101" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="B101" s="62"/>
-      <c r="C101" s="62"/>
-      <c r="D101" s="62"/>
-      <c r="E101" s="62"/>
-      <c r="F101" s="62"/>
-      <c r="G101" s="62"/>
+      <c r="B101" s="54"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="54"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="54"/>
       <c r="H101" s="16"/>
       <c r="I101" s="16"/>
     </row>
     <row r="102" spans="1:9" ht="18.600000000000001" customHeight="1" thickTop="1">
-      <c r="A102" s="54" t="s">
+      <c r="A102" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B102" s="55"/>
-      <c r="C102" s="74" t="s">
+      <c r="B102" s="56"/>
+      <c r="C102" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="D102" s="75"/>
-      <c r="E102" s="75"/>
-      <c r="F102" s="75"/>
-      <c r="G102" s="76"/>
+      <c r="D102" s="58"/>
+      <c r="E102" s="58"/>
+      <c r="F102" s="58"/>
+      <c r="G102" s="59"/>
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
     <row r="103" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A103" s="54" t="s">
+      <c r="A103" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B103" s="55"/>
-      <c r="C103" s="56"/>
-      <c r="D103" s="57"/>
-      <c r="E103" s="57"/>
-      <c r="F103" s="57"/>
-      <c r="G103" s="58"/>
+      <c r="B103" s="56"/>
+      <c r="C103" s="60"/>
+      <c r="D103" s="61"/>
+      <c r="E103" s="61"/>
+      <c r="F103" s="61"/>
+      <c r="G103" s="62"/>
       <c r="H103" s="16"/>
       <c r="I103" s="16"/>
     </row>
     <row r="104" spans="1:9" ht="14.4" customHeight="1">
-      <c r="A104" s="54" t="s">
+      <c r="A104" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B104" s="55"/>
-      <c r="C104" s="59" t="s">
+      <c r="B104" s="56"/>
+      <c r="C104" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="D104" s="77"/>
-      <c r="E104" s="77"/>
-      <c r="F104" s="77"/>
-      <c r="G104" s="78"/>
+      <c r="D104" s="64"/>
+      <c r="E104" s="64"/>
+      <c r="F104" s="64"/>
+      <c r="G104" s="65"/>
       <c r="H104" s="17"/>
       <c r="I104" s="18"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="79"/>
-      <c r="B105" s="80"/>
-      <c r="C105" s="80"/>
-      <c r="D105" s="80"/>
-      <c r="E105" s="80"/>
-      <c r="F105" s="80"/>
-      <c r="G105" s="81"/>
+      <c r="A105" s="66"/>
+      <c r="B105" s="67"/>
+      <c r="C105" s="67"/>
+      <c r="D105" s="67"/>
+      <c r="E105" s="67"/>
+      <c r="F105" s="67"/>
+      <c r="G105" s="68"/>
       <c r="H105" s="18"/>
       <c r="I105" s="18"/>
     </row>
@@ -5510,14 +5510,14 @@
       <c r="A106" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B106" s="44" t="s">
+      <c r="B106" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C106" s="45"/>
-      <c r="D106" s="44" t="s">
+      <c r="C106" s="52"/>
+      <c r="D106" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E106" s="45"/>
+      <c r="E106" s="52"/>
       <c r="F106" s="21" t="s">
         <v>70</v>
       </c>
@@ -5529,14 +5529,14 @@
       <c r="A107" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="B107" s="51" t="s">
+      <c r="B107" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="C107" s="73"/>
-      <c r="D107" s="51" t="s">
+      <c r="C107" s="51"/>
+      <c r="D107" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="E107" s="52"/>
+      <c r="E107" s="69"/>
       <c r="F107" s="27"/>
       <c r="G107" s="27"/>
     </row>
@@ -5544,14 +5544,14 @@
       <c r="A108" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="B108" s="51" t="s">
+      <c r="B108" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="C108" s="73"/>
-      <c r="D108" s="51" t="s">
+      <c r="C108" s="51"/>
+      <c r="D108" s="50" t="s">
         <v>223</v>
       </c>
-      <c r="E108" s="73"/>
+      <c r="E108" s="51"/>
       <c r="F108" s="27"/>
       <c r="G108" s="27"/>
     </row>
@@ -5559,14 +5559,14 @@
       <c r="A109" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B109" s="51" t="s">
+      <c r="B109" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="C109" s="73"/>
-      <c r="D109" s="51" t="s">
+      <c r="C109" s="51"/>
+      <c r="D109" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="E109" s="52"/>
+      <c r="E109" s="69"/>
       <c r="F109" s="27"/>
       <c r="G109" s="27"/>
     </row>
@@ -5574,14 +5574,14 @@
       <c r="A110" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="B110" s="51" t="s">
+      <c r="B110" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="C110" s="73"/>
-      <c r="D110" s="51" t="s">
+      <c r="C110" s="51"/>
+      <c r="D110" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="E110" s="73"/>
+      <c r="E110" s="51"/>
       <c r="F110" s="27"/>
       <c r="G110" s="27"/>
     </row>
@@ -5589,14 +5589,14 @@
       <c r="A111" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B111" s="51" t="s">
+      <c r="B111" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="C111" s="73"/>
-      <c r="D111" s="51" t="s">
+      <c r="C111" s="51"/>
+      <c r="D111" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E111" s="73"/>
+      <c r="E111" s="51"/>
       <c r="F111" s="27"/>
       <c r="G111" s="27"/>
     </row>
@@ -5604,14 +5604,14 @@
       <c r="A112" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="B112" s="51" t="s">
+      <c r="B112" s="50" t="s">
         <v>233</v>
       </c>
-      <c r="C112" s="73"/>
-      <c r="D112" s="51" t="s">
+      <c r="C112" s="51"/>
+      <c r="D112" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E112" s="73"/>
+      <c r="E112" s="51"/>
       <c r="F112" s="27"/>
       <c r="G112" s="27"/>
     </row>
@@ -5619,14 +5619,14 @@
       <c r="A113" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="B113" s="51" t="s">
+      <c r="B113" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="C113" s="73"/>
-      <c r="D113" s="51" t="s">
+      <c r="C113" s="51"/>
+      <c r="D113" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E113" s="73"/>
+      <c r="E113" s="51"/>
       <c r="F113" s="28"/>
       <c r="G113" s="27"/>
     </row>
@@ -5634,14 +5634,14 @@
       <c r="A114" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="B114" s="51" t="s">
+      <c r="B114" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="C114" s="73"/>
-      <c r="D114" s="51" t="s">
+      <c r="C114" s="51"/>
+      <c r="D114" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E114" s="73"/>
+      <c r="E114" s="51"/>
       <c r="F114" s="28"/>
       <c r="G114" s="27"/>
     </row>
@@ -5649,14 +5649,14 @@
       <c r="A115" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="B115" s="51" t="s">
+      <c r="B115" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="C115" s="73"/>
-      <c r="D115" s="51" t="s">
+      <c r="C115" s="51"/>
+      <c r="D115" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E115" s="73"/>
+      <c r="E115" s="51"/>
       <c r="F115" s="28"/>
       <c r="G115" s="27"/>
     </row>
@@ -5664,14 +5664,14 @@
       <c r="A116" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="B116" s="51" t="s">
+      <c r="B116" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="C116" s="73"/>
-      <c r="D116" s="51" t="s">
+      <c r="C116" s="51"/>
+      <c r="D116" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E116" s="73"/>
+      <c r="E116" s="51"/>
       <c r="F116" s="28"/>
       <c r="G116" s="27"/>
     </row>
@@ -5679,14 +5679,14 @@
       <c r="A117" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="B117" s="51" t="s">
+      <c r="B117" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="C117" s="73"/>
-      <c r="D117" s="51" t="s">
+      <c r="C117" s="51"/>
+      <c r="D117" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E117" s="73"/>
+      <c r="E117" s="51"/>
       <c r="F117" s="36"/>
       <c r="G117" s="36"/>
     </row>
@@ -5694,14 +5694,14 @@
       <c r="A118" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="B118" s="51" t="s">
+      <c r="B118" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="C118" s="73"/>
-      <c r="D118" s="51" t="s">
+      <c r="C118" s="51"/>
+      <c r="D118" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E118" s="73"/>
+      <c r="E118" s="51"/>
       <c r="F118" s="36"/>
       <c r="G118" s="36"/>
     </row>
@@ -5709,14 +5709,14 @@
       <c r="A119" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="B119" s="51" t="s">
+      <c r="B119" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="C119" s="73"/>
-      <c r="D119" s="51" t="s">
+      <c r="C119" s="51"/>
+      <c r="D119" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E119" s="73"/>
+      <c r="E119" s="51"/>
       <c r="F119" s="36"/>
       <c r="G119" s="36"/>
     </row>
@@ -5724,14 +5724,14 @@
       <c r="A120" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="B120" s="51" t="s">
+      <c r="B120" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="C120" s="73"/>
-      <c r="D120" s="51" t="s">
+      <c r="C120" s="51"/>
+      <c r="D120" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E120" s="73"/>
+      <c r="E120" s="51"/>
       <c r="F120" s="36"/>
       <c r="G120" s="36"/>
     </row>
@@ -5739,68 +5739,68 @@
       <c r="A121" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="B121" s="51" t="s">
+      <c r="B121" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="C121" s="73"/>
-      <c r="D121" s="51" t="s">
+      <c r="C121" s="51"/>
+      <c r="D121" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E121" s="73"/>
+      <c r="E121" s="51"/>
       <c r="F121" s="36"/>
       <c r="G121" s="36"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="44" t="s">
+      <c r="A122" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B122" s="45"/>
-      <c r="C122" s="72" t="s">
+      <c r="B122" s="52"/>
+      <c r="C122" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D122" s="70"/>
-      <c r="E122" s="70"/>
-      <c r="F122" s="70"/>
-      <c r="G122" s="71"/>
+      <c r="D122" s="45"/>
+      <c r="E122" s="45"/>
+      <c r="F122" s="45"/>
+      <c r="G122" s="46"/>
     </row>
     <row r="123" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A123" s="44" t="s">
+      <c r="A123" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B123" s="45"/>
-      <c r="C123" s="69">
+      <c r="B123" s="52"/>
+      <c r="C123" s="47">
         <v>43014</v>
       </c>
-      <c r="D123" s="70"/>
-      <c r="E123" s="70"/>
-      <c r="F123" s="70"/>
-      <c r="G123" s="71"/>
+      <c r="D123" s="45"/>
+      <c r="E123" s="45"/>
+      <c r="F123" s="45"/>
+      <c r="G123" s="46"/>
     </row>
     <row r="124" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A124" s="49" t="s">
+      <c r="A124" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B124" s="45"/>
-      <c r="C124" s="72" t="s">
+      <c r="B124" s="52"/>
+      <c r="C124" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D124" s="70"/>
-      <c r="E124" s="70"/>
-      <c r="F124" s="70"/>
-      <c r="G124" s="71"/>
+      <c r="D124" s="45"/>
+      <c r="E124" s="45"/>
+      <c r="F124" s="45"/>
+      <c r="G124" s="46"/>
     </row>
     <row r="125" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A125" s="49" t="s">
+      <c r="A125" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B125" s="50"/>
-      <c r="C125" s="72" t="s">
+      <c r="B125" s="49"/>
+      <c r="C125" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="D125" s="70"/>
-      <c r="E125" s="70"/>
-      <c r="F125" s="70"/>
-      <c r="G125" s="71"/>
+      <c r="D125" s="45"/>
+      <c r="E125" s="45"/>
+      <c r="F125" s="45"/>
+      <c r="G125" s="46"/>
     </row>
     <row r="126" spans="1:7" ht="14.4" customHeight="1">
       <c r="A126" s="18"/>
@@ -5849,52 +5849,52 @@
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1"/>
     <row r="132" spans="1:7" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A132" s="62" t="s">
+      <c r="A132" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="B132" s="62"/>
-      <c r="C132" s="62"/>
-      <c r="D132" s="62"/>
-      <c r="E132" s="62"/>
-      <c r="F132" s="62"/>
-      <c r="G132" s="62"/>
+      <c r="B132" s="54"/>
+      <c r="C132" s="54"/>
+      <c r="D132" s="54"/>
+      <c r="E132" s="54"/>
+      <c r="F132" s="54"/>
+      <c r="G132" s="54"/>
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" thickTop="1">
-      <c r="A133" s="63" t="s">
+      <c r="A133" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B133" s="64"/>
-      <c r="C133" s="65" t="s">
+      <c r="B133" s="77"/>
+      <c r="C133" s="73" t="s">
         <v>253</v>
       </c>
-      <c r="D133" s="66"/>
-      <c r="E133" s="66"/>
-      <c r="F133" s="66"/>
-      <c r="G133" s="67"/>
+      <c r="D133" s="74"/>
+      <c r="E133" s="74"/>
+      <c r="F133" s="74"/>
+      <c r="G133" s="75"/>
     </row>
     <row r="134" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A134" s="54" t="s">
+      <c r="A134" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B134" s="55"/>
-      <c r="C134" s="56"/>
-      <c r="D134" s="57"/>
-      <c r="E134" s="57"/>
-      <c r="F134" s="57"/>
-      <c r="G134" s="58"/>
+      <c r="B134" s="56"/>
+      <c r="C134" s="60"/>
+      <c r="D134" s="61"/>
+      <c r="E134" s="61"/>
+      <c r="F134" s="61"/>
+      <c r="G134" s="62"/>
     </row>
     <row r="135" spans="1:7" ht="12" customHeight="1">
-      <c r="A135" s="54" t="s">
+      <c r="A135" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B135" s="55"/>
-      <c r="C135" s="59" t="s">
+      <c r="B135" s="56"/>
+      <c r="C135" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="D135" s="60"/>
-      <c r="E135" s="60"/>
-      <c r="F135" s="60"/>
-      <c r="G135" s="61"/>
+      <c r="D135" s="71"/>
+      <c r="E135" s="71"/>
+      <c r="F135" s="71"/>
+      <c r="G135" s="72"/>
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1">
       <c r="A136" s="33"/>
@@ -5909,14 +5909,14 @@
       <c r="A137" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B137" s="44" t="s">
+      <c r="B137" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C137" s="45"/>
-      <c r="D137" s="44" t="s">
+      <c r="C137" s="52"/>
+      <c r="D137" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E137" s="45"/>
+      <c r="E137" s="52"/>
       <c r="F137" s="21" t="s">
         <v>70</v>
       </c>
@@ -5928,14 +5928,14 @@
       <c r="A138" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="B138" s="51" t="s">
+      <c r="B138" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="C138" s="52"/>
-      <c r="D138" s="51" t="s">
+      <c r="C138" s="69"/>
+      <c r="D138" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="E138" s="52"/>
+      <c r="E138" s="69"/>
       <c r="F138" s="20"/>
       <c r="G138" s="20"/>
     </row>
@@ -5943,14 +5943,14 @@
       <c r="A139" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="B139" s="51" t="s">
+      <c r="B139" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="C139" s="52"/>
-      <c r="D139" s="88" t="s">
+      <c r="C139" s="69"/>
+      <c r="D139" s="78" t="s">
         <v>259</v>
       </c>
-      <c r="E139" s="73"/>
+      <c r="E139" s="51"/>
       <c r="F139" s="20"/>
       <c r="G139" s="20"/>
     </row>
@@ -5958,14 +5958,14 @@
       <c r="A140" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="B140" s="51" t="s">
+      <c r="B140" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="C140" s="52"/>
-      <c r="D140" s="51" t="s">
+      <c r="C140" s="69"/>
+      <c r="D140" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E140" s="52"/>
+      <c r="E140" s="69"/>
       <c r="F140" s="20"/>
       <c r="G140" s="20"/>
     </row>
@@ -5973,14 +5973,14 @@
       <c r="A141" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="B141" s="51" t="s">
+      <c r="B141" s="50" t="s">
         <v>263</v>
       </c>
-      <c r="C141" s="52"/>
-      <c r="D141" s="51" t="s">
+      <c r="C141" s="69"/>
+      <c r="D141" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E141" s="52"/>
+      <c r="E141" s="69"/>
       <c r="F141" s="20"/>
       <c r="G141" s="20"/>
     </row>
@@ -5988,14 +5988,14 @@
       <c r="A142" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="B142" s="51" t="s">
+      <c r="B142" s="50" t="s">
         <v>265</v>
       </c>
-      <c r="C142" s="52"/>
-      <c r="D142" s="51" t="s">
+      <c r="C142" s="69"/>
+      <c r="D142" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E142" s="52"/>
+      <c r="E142" s="69"/>
       <c r="F142" s="20"/>
       <c r="G142" s="20"/>
     </row>
@@ -6003,14 +6003,14 @@
       <c r="A143" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="B143" s="51" t="s">
+      <c r="B143" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="C143" s="52"/>
-      <c r="D143" s="51" t="s">
+      <c r="C143" s="69"/>
+      <c r="D143" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E143" s="52"/>
+      <c r="E143" s="69"/>
       <c r="F143" s="20"/>
       <c r="G143" s="20"/>
     </row>
@@ -6018,14 +6018,14 @@
       <c r="A144" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="B144" s="51" t="s">
+      <c r="B144" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="C144" s="52"/>
-      <c r="D144" s="51" t="s">
+      <c r="C144" s="69"/>
+      <c r="D144" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E144" s="52"/>
+      <c r="E144" s="69"/>
       <c r="F144" s="20"/>
       <c r="G144" s="20"/>
     </row>
@@ -6033,14 +6033,14 @@
       <c r="A145" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="B145" s="51" t="s">
+      <c r="B145" s="50" t="s">
         <v>271</v>
       </c>
-      <c r="C145" s="73"/>
-      <c r="D145" s="51" t="s">
+      <c r="C145" s="51"/>
+      <c r="D145" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E145" s="73"/>
+      <c r="E145" s="51"/>
       <c r="F145" s="36"/>
       <c r="G145" s="36"/>
     </row>
@@ -6048,14 +6048,14 @@
       <c r="A146" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="B146" s="51" t="s">
+      <c r="B146" s="50" t="s">
         <v>273</v>
       </c>
-      <c r="C146" s="73"/>
-      <c r="D146" s="51" t="s">
+      <c r="C146" s="51"/>
+      <c r="D146" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E146" s="73"/>
+      <c r="E146" s="51"/>
       <c r="F146" s="36"/>
       <c r="G146" s="36"/>
     </row>
@@ -6063,68 +6063,68 @@
       <c r="A147" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="B147" s="51" t="s">
+      <c r="B147" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="C147" s="73"/>
-      <c r="D147" s="51" t="s">
+      <c r="C147" s="51"/>
+      <c r="D147" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E147" s="73"/>
+      <c r="E147" s="51"/>
       <c r="F147" s="36"/>
       <c r="G147" s="36"/>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="44" t="s">
+      <c r="A148" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B148" s="45"/>
-      <c r="C148" s="72" t="s">
+      <c r="B148" s="52"/>
+      <c r="C148" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D148" s="70"/>
-      <c r="E148" s="70"/>
-      <c r="F148" s="70"/>
-      <c r="G148" s="71"/>
+      <c r="D148" s="45"/>
+      <c r="E148" s="45"/>
+      <c r="F148" s="45"/>
+      <c r="G148" s="46"/>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="44" t="s">
+      <c r="A149" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B149" s="45"/>
-      <c r="C149" s="69">
+      <c r="B149" s="52"/>
+      <c r="C149" s="47">
         <v>43042</v>
       </c>
-      <c r="D149" s="70"/>
-      <c r="E149" s="70"/>
-      <c r="F149" s="70"/>
-      <c r="G149" s="71"/>
+      <c r="D149" s="45"/>
+      <c r="E149" s="45"/>
+      <c r="F149" s="45"/>
+      <c r="G149" s="46"/>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="49" t="s">
+      <c r="A150" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B150" s="50"/>
-      <c r="C150" s="72" t="s">
+      <c r="B150" s="49"/>
+      <c r="C150" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D150" s="70"/>
-      <c r="E150" s="70"/>
-      <c r="F150" s="70"/>
-      <c r="G150" s="71"/>
+      <c r="D150" s="45"/>
+      <c r="E150" s="45"/>
+      <c r="F150" s="45"/>
+      <c r="G150" s="46"/>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="49" t="s">
+      <c r="A151" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B151" s="50"/>
-      <c r="C151" s="72" t="s">
+      <c r="B151" s="49"/>
+      <c r="C151" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="D151" s="70"/>
-      <c r="E151" s="70"/>
-      <c r="F151" s="70"/>
-      <c r="G151" s="71"/>
+      <c r="D151" s="45"/>
+      <c r="E151" s="45"/>
+      <c r="F151" s="45"/>
+      <c r="G151" s="46"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="37"/>
@@ -6154,52 +6154,52 @@
       <c r="G154" s="37"/>
     </row>
     <row r="155" spans="1:7" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A155" s="62" t="s">
+      <c r="A155" s="54" t="s">
         <v>276</v>
       </c>
-      <c r="B155" s="62"/>
-      <c r="C155" s="62"/>
-      <c r="D155" s="62"/>
-      <c r="E155" s="62"/>
-      <c r="F155" s="62"/>
-      <c r="G155" s="62"/>
+      <c r="B155" s="54"/>
+      <c r="C155" s="54"/>
+      <c r="D155" s="54"/>
+      <c r="E155" s="54"/>
+      <c r="F155" s="54"/>
+      <c r="G155" s="54"/>
     </row>
     <row r="156" spans="1:7" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A156" s="63" t="s">
+      <c r="A156" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B156" s="64"/>
-      <c r="C156" s="65" t="s">
+      <c r="B156" s="77"/>
+      <c r="C156" s="73" t="s">
         <v>277</v>
       </c>
-      <c r="D156" s="66"/>
-      <c r="E156" s="66"/>
-      <c r="F156" s="66"/>
-      <c r="G156" s="67"/>
+      <c r="D156" s="74"/>
+      <c r="E156" s="74"/>
+      <c r="F156" s="74"/>
+      <c r="G156" s="75"/>
     </row>
     <row r="157" spans="1:7">
-      <c r="A157" s="54" t="s">
+      <c r="A157" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B157" s="55"/>
-      <c r="C157" s="56"/>
-      <c r="D157" s="57"/>
-      <c r="E157" s="57"/>
-      <c r="F157" s="57"/>
-      <c r="G157" s="58"/>
+      <c r="B157" s="56"/>
+      <c r="C157" s="60"/>
+      <c r="D157" s="61"/>
+      <c r="E157" s="61"/>
+      <c r="F157" s="61"/>
+      <c r="G157" s="62"/>
     </row>
     <row r="158" spans="1:7">
-      <c r="A158" s="54" t="s">
+      <c r="A158" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B158" s="55"/>
-      <c r="C158" s="59" t="s">
+      <c r="B158" s="56"/>
+      <c r="C158" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="D158" s="60"/>
-      <c r="E158" s="60"/>
-      <c r="F158" s="60"/>
-      <c r="G158" s="61"/>
+      <c r="D158" s="71"/>
+      <c r="E158" s="71"/>
+      <c r="F158" s="71"/>
+      <c r="G158" s="72"/>
     </row>
     <row r="159" spans="1:7" ht="20.25" customHeight="1">
       <c r="A159" s="33"/>
@@ -6214,14 +6214,14 @@
       <c r="A160" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B160" s="44" t="s">
+      <c r="B160" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C160" s="45"/>
-      <c r="D160" s="44" t="s">
+      <c r="C160" s="52"/>
+      <c r="D160" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E160" s="45"/>
+      <c r="E160" s="52"/>
       <c r="F160" s="21" t="s">
         <v>70</v>
       </c>
@@ -6233,14 +6233,14 @@
       <c r="A161" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="B161" s="51" t="s">
+      <c r="B161" s="50" t="s">
         <v>279</v>
       </c>
-      <c r="C161" s="52"/>
-      <c r="D161" s="51" t="s">
+      <c r="C161" s="69"/>
+      <c r="D161" s="50" t="s">
         <v>280</v>
       </c>
-      <c r="E161" s="52"/>
+      <c r="E161" s="69"/>
       <c r="F161" s="20"/>
       <c r="G161" s="20"/>
     </row>
@@ -6248,14 +6248,14 @@
       <c r="A162" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="B162" s="51" t="s">
+      <c r="B162" s="50" t="s">
         <v>282</v>
       </c>
-      <c r="C162" s="52"/>
-      <c r="D162" s="51" t="s">
+      <c r="C162" s="69"/>
+      <c r="D162" s="50" t="s">
         <v>283</v>
       </c>
-      <c r="E162" s="52"/>
+      <c r="E162" s="69"/>
       <c r="F162" s="20"/>
       <c r="G162" s="20"/>
     </row>
@@ -6263,14 +6263,14 @@
       <c r="A163" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="B163" s="51" t="s">
+      <c r="B163" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="C163" s="52"/>
-      <c r="D163" s="51" t="s">
+      <c r="C163" s="69"/>
+      <c r="D163" s="50" t="s">
         <v>286</v>
       </c>
-      <c r="E163" s="52"/>
+      <c r="E163" s="69"/>
       <c r="F163" s="20"/>
       <c r="G163" s="20"/>
     </row>
@@ -6278,14 +6278,14 @@
       <c r="A164" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="B164" s="51" t="s">
+      <c r="B164" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="C164" s="52"/>
-      <c r="D164" s="51" t="s">
+      <c r="C164" s="69"/>
+      <c r="D164" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E164" s="52"/>
+      <c r="E164" s="69"/>
       <c r="F164" s="20"/>
       <c r="G164" s="20"/>
     </row>
@@ -6293,14 +6293,14 @@
       <c r="A165" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="B165" s="51" t="s">
+      <c r="B165" s="50" t="s">
         <v>290</v>
       </c>
-      <c r="C165" s="52"/>
-      <c r="D165" s="51" t="s">
+      <c r="C165" s="69"/>
+      <c r="D165" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E165" s="52"/>
+      <c r="E165" s="69"/>
       <c r="F165" s="20"/>
       <c r="G165" s="20"/>
     </row>
@@ -6308,14 +6308,14 @@
       <c r="A166" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="B166" s="51" t="s">
+      <c r="B166" s="50" t="s">
         <v>292</v>
       </c>
-      <c r="C166" s="52"/>
-      <c r="D166" s="51" t="s">
+      <c r="C166" s="69"/>
+      <c r="D166" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E166" s="52"/>
+      <c r="E166" s="69"/>
       <c r="F166" s="20"/>
       <c r="G166" s="20"/>
     </row>
@@ -6323,14 +6323,14 @@
       <c r="A167" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="B167" s="51" t="s">
+      <c r="B167" s="50" t="s">
         <v>294</v>
       </c>
-      <c r="C167" s="73"/>
-      <c r="D167" s="51" t="s">
+      <c r="C167" s="51"/>
+      <c r="D167" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E167" s="73"/>
+      <c r="E167" s="51"/>
       <c r="F167" s="36"/>
       <c r="G167" s="36"/>
     </row>
@@ -6338,131 +6338,131 @@
       <c r="A168" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="B168" s="51" t="s">
+      <c r="B168" s="50" t="s">
         <v>296</v>
       </c>
-      <c r="C168" s="73"/>
-      <c r="D168" s="51" t="s">
+      <c r="C168" s="51"/>
+      <c r="D168" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E168" s="73"/>
+      <c r="E168" s="51"/>
       <c r="F168" s="36"/>
       <c r="G168" s="36"/>
     </row>
     <row r="169" spans="1:7" ht="18" customHeight="1">
-      <c r="A169" s="44" t="s">
+      <c r="A169" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B169" s="45"/>
-      <c r="C169" s="72"/>
-      <c r="D169" s="70"/>
-      <c r="E169" s="70"/>
-      <c r="F169" s="70"/>
-      <c r="G169" s="71"/>
+      <c r="B169" s="52"/>
+      <c r="C169" s="44"/>
+      <c r="D169" s="45"/>
+      <c r="E169" s="45"/>
+      <c r="F169" s="45"/>
+      <c r="G169" s="46"/>
     </row>
     <row r="170" spans="1:7" ht="24" customHeight="1">
-      <c r="A170" s="44" t="s">
+      <c r="A170" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B170" s="45"/>
-      <c r="C170" s="69"/>
-      <c r="D170" s="70"/>
-      <c r="E170" s="70"/>
-      <c r="F170" s="70"/>
-      <c r="G170" s="71"/>
+      <c r="B170" s="52"/>
+      <c r="C170" s="47"/>
+      <c r="D170" s="45"/>
+      <c r="E170" s="45"/>
+      <c r="F170" s="45"/>
+      <c r="G170" s="46"/>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="49" t="s">
+      <c r="A171" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B171" s="50"/>
-      <c r="C171" s="72"/>
-      <c r="D171" s="70"/>
-      <c r="E171" s="70"/>
-      <c r="F171" s="70"/>
-      <c r="G171" s="71"/>
+      <c r="B171" s="49"/>
+      <c r="C171" s="44"/>
+      <c r="D171" s="45"/>
+      <c r="E171" s="45"/>
+      <c r="F171" s="45"/>
+      <c r="G171" s="46"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="49" t="s">
+      <c r="A172" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B172" s="50"/>
-      <c r="C172" s="72"/>
-      <c r="D172" s="70"/>
-      <c r="E172" s="70"/>
-      <c r="F172" s="70"/>
-      <c r="G172" s="71"/>
+      <c r="B172" s="49"/>
+      <c r="C172" s="44"/>
+      <c r="D172" s="45"/>
+      <c r="E172" s="45"/>
+      <c r="F172" s="45"/>
+      <c r="G172" s="46"/>
     </row>
     <row r="173" spans="1:7" ht="27.75" customHeight="1"/>
     <row r="180" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A180" s="62" t="s">
+      <c r="A180" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="B180" s="62"/>
-      <c r="C180" s="62"/>
-      <c r="D180" s="62"/>
-      <c r="E180" s="62"/>
-      <c r="F180" s="62"/>
-      <c r="G180" s="62"/>
+      <c r="B180" s="54"/>
+      <c r="C180" s="54"/>
+      <c r="D180" s="54"/>
+      <c r="E180" s="54"/>
+      <c r="F180" s="54"/>
+      <c r="G180" s="54"/>
     </row>
     <row r="181" spans="1:7" ht="15" thickTop="1">
-      <c r="A181" s="54" t="s">
+      <c r="A181" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B181" s="55"/>
-      <c r="C181" s="74" t="s">
+      <c r="B181" s="56"/>
+      <c r="C181" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="D181" s="75"/>
-      <c r="E181" s="75"/>
-      <c r="F181" s="75"/>
-      <c r="G181" s="76"/>
+      <c r="D181" s="58"/>
+      <c r="E181" s="58"/>
+      <c r="F181" s="58"/>
+      <c r="G181" s="59"/>
     </row>
     <row r="182" spans="1:7">
-      <c r="A182" s="54" t="s">
+      <c r="A182" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B182" s="55"/>
-      <c r="C182" s="56"/>
-      <c r="D182" s="57"/>
-      <c r="E182" s="57"/>
-      <c r="F182" s="57"/>
-      <c r="G182" s="58"/>
+      <c r="B182" s="56"/>
+      <c r="C182" s="60"/>
+      <c r="D182" s="61"/>
+      <c r="E182" s="61"/>
+      <c r="F182" s="61"/>
+      <c r="G182" s="62"/>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="54" t="s">
+      <c r="A183" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B183" s="55"/>
-      <c r="C183" s="59" t="s">
+      <c r="B183" s="56"/>
+      <c r="C183" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="D183" s="77"/>
-      <c r="E183" s="77"/>
-      <c r="F183" s="77"/>
-      <c r="G183" s="78"/>
+      <c r="D183" s="64"/>
+      <c r="E183" s="64"/>
+      <c r="F183" s="64"/>
+      <c r="G183" s="65"/>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" s="79"/>
-      <c r="B184" s="80"/>
-      <c r="C184" s="80"/>
-      <c r="D184" s="80"/>
-      <c r="E184" s="80"/>
-      <c r="F184" s="80"/>
-      <c r="G184" s="81"/>
+      <c r="A184" s="66"/>
+      <c r="B184" s="67"/>
+      <c r="C184" s="67"/>
+      <c r="D184" s="67"/>
+      <c r="E184" s="67"/>
+      <c r="F184" s="67"/>
+      <c r="G184" s="68"/>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B185" s="44" t="s">
+      <c r="B185" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C185" s="45"/>
-      <c r="D185" s="44" t="s">
+      <c r="C185" s="52"/>
+      <c r="D185" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E185" s="45"/>
+      <c r="E185" s="52"/>
       <c r="F185" s="21" t="s">
         <v>70</v>
       </c>
@@ -6474,14 +6474,14 @@
       <c r="A186" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="B186" s="51" t="s">
+      <c r="B186" s="50" t="s">
         <v>348</v>
       </c>
-      <c r="C186" s="73"/>
-      <c r="D186" s="51" t="s">
+      <c r="C186" s="51"/>
+      <c r="D186" s="50" t="s">
         <v>349</v>
       </c>
-      <c r="E186" s="73"/>
+      <c r="E186" s="51"/>
       <c r="F186" s="29"/>
       <c r="G186" s="29"/>
     </row>
@@ -6489,14 +6489,14 @@
       <c r="A187" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="B187" s="51" t="s">
+      <c r="B187" s="50" t="s">
         <v>350</v>
       </c>
-      <c r="C187" s="73"/>
-      <c r="D187" s="51" t="s">
+      <c r="C187" s="51"/>
+      <c r="D187" s="50" t="s">
         <v>351</v>
       </c>
-      <c r="E187" s="73"/>
+      <c r="E187" s="51"/>
       <c r="F187" s="29"/>
       <c r="G187" s="29"/>
     </row>
@@ -6504,14 +6504,14 @@
       <c r="A188" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="B188" s="51" t="s">
+      <c r="B188" s="50" t="s">
         <v>352</v>
       </c>
-      <c r="C188" s="73"/>
-      <c r="D188" s="51" t="s">
+      <c r="C188" s="51"/>
+      <c r="D188" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="E188" s="73"/>
+      <c r="E188" s="51"/>
       <c r="F188" s="29" t="s">
         <v>131</v>
       </c>
@@ -6523,14 +6523,14 @@
       <c r="A189" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="B189" s="51" t="s">
+      <c r="B189" s="50" t="s">
         <v>354</v>
       </c>
-      <c r="C189" s="73"/>
-      <c r="D189" s="51" t="s">
+      <c r="C189" s="51"/>
+      <c r="D189" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E189" s="73"/>
+      <c r="E189" s="51"/>
       <c r="F189" s="29"/>
       <c r="G189" s="29"/>
     </row>
@@ -6538,14 +6538,14 @@
       <c r="A190" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="B190" s="51" t="s">
+      <c r="B190" s="50" t="s">
         <v>355</v>
       </c>
-      <c r="C190" s="73"/>
-      <c r="D190" s="51" t="s">
+      <c r="C190" s="51"/>
+      <c r="D190" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E190" s="73"/>
+      <c r="E190" s="51"/>
       <c r="F190" s="29"/>
       <c r="G190" s="29"/>
     </row>
@@ -6553,14 +6553,14 @@
       <c r="A191" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="B191" s="51" t="s">
+      <c r="B191" s="50" t="s">
         <v>356</v>
       </c>
-      <c r="C191" s="73"/>
-      <c r="D191" s="51" t="s">
+      <c r="C191" s="51"/>
+      <c r="D191" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E191" s="73"/>
+      <c r="E191" s="51"/>
       <c r="F191" s="29"/>
       <c r="G191" s="29"/>
     </row>
@@ -6568,130 +6568,130 @@
       <c r="A192" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="B192" s="51" t="s">
+      <c r="B192" s="50" t="s">
         <v>361</v>
       </c>
-      <c r="C192" s="73"/>
-      <c r="D192" s="51" t="s">
+      <c r="C192" s="51"/>
+      <c r="D192" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E192" s="73"/>
+      <c r="E192" s="51"/>
       <c r="F192" s="29"/>
       <c r="G192" s="29"/>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="49" t="s">
+      <c r="A193" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="B193" s="45"/>
-      <c r="C193" s="72"/>
-      <c r="D193" s="70"/>
-      <c r="E193" s="70"/>
-      <c r="F193" s="70"/>
-      <c r="G193" s="71"/>
+      <c r="B193" s="52"/>
+      <c r="C193" s="44"/>
+      <c r="D193" s="45"/>
+      <c r="E193" s="45"/>
+      <c r="F193" s="45"/>
+      <c r="G193" s="46"/>
     </row>
     <row r="194" spans="1:7">
-      <c r="A194" s="44" t="s">
+      <c r="A194" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B194" s="45"/>
-      <c r="C194" s="69"/>
-      <c r="D194" s="70"/>
-      <c r="E194" s="70"/>
-      <c r="F194" s="70"/>
-      <c r="G194" s="71"/>
+      <c r="B194" s="52"/>
+      <c r="C194" s="47"/>
+      <c r="D194" s="45"/>
+      <c r="E194" s="45"/>
+      <c r="F194" s="45"/>
+      <c r="G194" s="46"/>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="49" t="s">
+      <c r="A195" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B195" s="45"/>
-      <c r="C195" s="72"/>
-      <c r="D195" s="70"/>
-      <c r="E195" s="70"/>
-      <c r="F195" s="70"/>
-      <c r="G195" s="71"/>
+      <c r="B195" s="52"/>
+      <c r="C195" s="44"/>
+      <c r="D195" s="45"/>
+      <c r="E195" s="45"/>
+      <c r="F195" s="45"/>
+      <c r="G195" s="46"/>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="49" t="s">
+      <c r="A196" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B196" s="50"/>
-      <c r="C196" s="72"/>
-      <c r="D196" s="70"/>
-      <c r="E196" s="70"/>
-      <c r="F196" s="70"/>
-      <c r="G196" s="71"/>
+      <c r="B196" s="49"/>
+      <c r="C196" s="44"/>
+      <c r="D196" s="45"/>
+      <c r="E196" s="45"/>
+      <c r="F196" s="45"/>
+      <c r="G196" s="46"/>
     </row>
     <row r="200" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A200" s="62" t="s">
+      <c r="A200" s="54" t="s">
         <v>373</v>
       </c>
-      <c r="B200" s="62"/>
-      <c r="C200" s="62"/>
-      <c r="D200" s="62"/>
-      <c r="E200" s="62"/>
-      <c r="F200" s="62"/>
-      <c r="G200" s="62"/>
+      <c r="B200" s="54"/>
+      <c r="C200" s="54"/>
+      <c r="D200" s="54"/>
+      <c r="E200" s="54"/>
+      <c r="F200" s="54"/>
+      <c r="G200" s="54"/>
     </row>
     <row r="201" spans="1:7" ht="15" thickTop="1">
-      <c r="A201" s="63" t="s">
+      <c r="A201" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B201" s="64"/>
-      <c r="C201" s="65" t="s">
+      <c r="B201" s="77"/>
+      <c r="C201" s="73" t="s">
         <v>374</v>
       </c>
-      <c r="D201" s="66"/>
-      <c r="E201" s="66"/>
-      <c r="F201" s="66"/>
-      <c r="G201" s="67"/>
+      <c r="D201" s="74"/>
+      <c r="E201" s="74"/>
+      <c r="F201" s="74"/>
+      <c r="G201" s="75"/>
     </row>
     <row r="202" spans="1:7">
-      <c r="A202" s="54" t="s">
+      <c r="A202" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B202" s="55"/>
-      <c r="C202" s="56"/>
-      <c r="D202" s="57"/>
-      <c r="E202" s="57"/>
-      <c r="F202" s="57"/>
-      <c r="G202" s="58"/>
+      <c r="B202" s="56"/>
+      <c r="C202" s="60"/>
+      <c r="D202" s="61"/>
+      <c r="E202" s="61"/>
+      <c r="F202" s="61"/>
+      <c r="G202" s="62"/>
     </row>
     <row r="203" spans="1:7" ht="151.19999999999999" customHeight="1">
-      <c r="A203" s="54" t="s">
+      <c r="A203" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B203" s="55"/>
-      <c r="C203" s="59" t="s">
+      <c r="B203" s="56"/>
+      <c r="C203" s="63" t="s">
         <v>375</v>
       </c>
-      <c r="D203" s="60"/>
-      <c r="E203" s="60"/>
-      <c r="F203" s="60"/>
-      <c r="G203" s="61"/>
+      <c r="D203" s="71"/>
+      <c r="E203" s="71"/>
+      <c r="F203" s="71"/>
+      <c r="G203" s="72"/>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="46"/>
-      <c r="B204" s="47"/>
-      <c r="C204" s="47"/>
-      <c r="D204" s="47"/>
-      <c r="E204" s="47"/>
-      <c r="F204" s="47"/>
-      <c r="G204" s="48"/>
+      <c r="A204" s="79"/>
+      <c r="B204" s="80"/>
+      <c r="C204" s="80"/>
+      <c r="D204" s="80"/>
+      <c r="E204" s="80"/>
+      <c r="F204" s="80"/>
+      <c r="G204" s="81"/>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B205" s="44" t="s">
+      <c r="B205" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C205" s="45"/>
-      <c r="D205" s="44" t="s">
+      <c r="C205" s="52"/>
+      <c r="D205" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E205" s="45"/>
+      <c r="E205" s="52"/>
       <c r="F205" s="21" t="s">
         <v>70</v>
       </c>
@@ -6703,14 +6703,14 @@
       <c r="A206" s="38" t="s">
         <v>376</v>
       </c>
-      <c r="B206" s="51" t="s">
+      <c r="B206" s="50" t="s">
         <v>377</v>
       </c>
-      <c r="C206" s="52"/>
-      <c r="D206" s="51" t="s">
+      <c r="C206" s="69"/>
+      <c r="D206" s="50" t="s">
         <v>378</v>
       </c>
-      <c r="E206" s="52"/>
+      <c r="E206" s="69"/>
       <c r="F206" s="27"/>
       <c r="G206" s="27"/>
     </row>
@@ -6718,14 +6718,14 @@
       <c r="A207" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="B207" s="51" t="s">
+      <c r="B207" s="50" t="s">
         <v>380</v>
       </c>
-      <c r="C207" s="52"/>
-      <c r="D207" s="51" t="s">
+      <c r="C207" s="69"/>
+      <c r="D207" s="50" t="s">
         <v>381</v>
       </c>
-      <c r="E207" s="52"/>
+      <c r="E207" s="69"/>
       <c r="F207" s="27"/>
       <c r="G207" s="27"/>
     </row>
@@ -6733,14 +6733,14 @@
       <c r="A208" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="B208" s="51" t="s">
+      <c r="B208" s="50" t="s">
         <v>383</v>
       </c>
-      <c r="C208" s="52"/>
-      <c r="D208" s="51" t="s">
+      <c r="C208" s="69"/>
+      <c r="D208" s="50" t="s">
         <v>384</v>
       </c>
-      <c r="E208" s="52"/>
+      <c r="E208" s="69"/>
       <c r="F208" s="27"/>
       <c r="G208" s="27"/>
     </row>
@@ -6748,14 +6748,14 @@
       <c r="A209" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="B209" s="51" t="s">
+      <c r="B209" s="50" t="s">
         <v>427</v>
       </c>
-      <c r="C209" s="52"/>
-      <c r="D209" s="51" t="s">
+      <c r="C209" s="69"/>
+      <c r="D209" s="50" t="s">
         <v>386</v>
       </c>
-      <c r="E209" s="52"/>
+      <c r="E209" s="69"/>
       <c r="F209" s="27"/>
       <c r="G209" s="27"/>
     </row>
@@ -6763,14 +6763,14 @@
       <c r="A210" s="38" t="s">
         <v>387</v>
       </c>
-      <c r="B210" s="51" t="s">
+      <c r="B210" s="50" t="s">
         <v>388</v>
       </c>
-      <c r="C210" s="52"/>
-      <c r="D210" s="51" t="s">
+      <c r="C210" s="69"/>
+      <c r="D210" s="50" t="s">
         <v>389</v>
       </c>
-      <c r="E210" s="52"/>
+      <c r="E210" s="69"/>
       <c r="F210" s="27"/>
       <c r="G210" s="27"/>
     </row>
@@ -6778,14 +6778,14 @@
       <c r="A211" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="B211" s="51" t="s">
+      <c r="B211" s="50" t="s">
         <v>391</v>
       </c>
-      <c r="C211" s="52"/>
-      <c r="D211" s="51" t="s">
+      <c r="C211" s="69"/>
+      <c r="D211" s="50" t="s">
         <v>389</v>
       </c>
-      <c r="E211" s="52"/>
+      <c r="E211" s="69"/>
       <c r="F211" s="27"/>
       <c r="G211" s="27"/>
     </row>
@@ -6793,14 +6793,14 @@
       <c r="A212" s="38" t="s">
         <v>392</v>
       </c>
-      <c r="B212" s="51" t="s">
+      <c r="B212" s="50" t="s">
         <v>393</v>
       </c>
-      <c r="C212" s="52"/>
-      <c r="D212" s="51" t="s">
+      <c r="C212" s="69"/>
+      <c r="D212" s="50" t="s">
         <v>394</v>
       </c>
-      <c r="E212" s="52"/>
+      <c r="E212" s="69"/>
       <c r="F212" s="39"/>
       <c r="G212" s="39"/>
     </row>
@@ -6808,14 +6808,14 @@
       <c r="A213" s="38" t="s">
         <v>395</v>
       </c>
-      <c r="B213" s="51" t="s">
+      <c r="B213" s="50" t="s">
         <v>396</v>
       </c>
-      <c r="C213" s="52"/>
-      <c r="D213" s="51" t="s">
+      <c r="C213" s="69"/>
+      <c r="D213" s="50" t="s">
         <v>397</v>
       </c>
-      <c r="E213" s="52"/>
+      <c r="E213" s="69"/>
       <c r="F213" s="39"/>
       <c r="G213" s="39"/>
     </row>
@@ -6823,14 +6823,14 @@
       <c r="A214" s="38" t="s">
         <v>398</v>
       </c>
-      <c r="B214" s="51" t="s">
+      <c r="B214" s="50" t="s">
         <v>399</v>
       </c>
-      <c r="C214" s="52"/>
-      <c r="D214" s="51" t="s">
+      <c r="C214" s="69"/>
+      <c r="D214" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="E214" s="52"/>
+      <c r="E214" s="69"/>
       <c r="F214" s="39"/>
       <c r="G214" s="39"/>
     </row>
@@ -6838,14 +6838,14 @@
       <c r="A215" s="38" t="s">
         <v>401</v>
       </c>
-      <c r="B215" s="68" t="s">
+      <c r="B215" s="88" t="s">
         <v>402</v>
       </c>
-      <c r="C215" s="52"/>
-      <c r="D215" s="51" t="s">
+      <c r="C215" s="69"/>
+      <c r="D215" s="50" t="s">
         <v>403</v>
       </c>
-      <c r="E215" s="52"/>
+      <c r="E215" s="69"/>
       <c r="F215" s="39"/>
       <c r="G215" s="39"/>
     </row>
@@ -6853,14 +6853,14 @@
       <c r="A216" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="B216" s="68" t="s">
+      <c r="B216" s="88" t="s">
         <v>405</v>
       </c>
-      <c r="C216" s="52"/>
-      <c r="D216" s="51" t="s">
+      <c r="C216" s="69"/>
+      <c r="D216" s="50" t="s">
         <v>406</v>
       </c>
-      <c r="E216" s="52"/>
+      <c r="E216" s="69"/>
       <c r="F216" s="39"/>
       <c r="G216" s="39"/>
     </row>
@@ -6868,14 +6868,14 @@
       <c r="A217" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="B217" s="68" t="s">
+      <c r="B217" s="88" t="s">
         <v>408</v>
       </c>
-      <c r="C217" s="52"/>
-      <c r="D217" s="51" t="s">
+      <c r="C217" s="69"/>
+      <c r="D217" s="50" t="s">
         <v>409</v>
       </c>
-      <c r="E217" s="52"/>
+      <c r="E217" s="69"/>
       <c r="F217" s="39"/>
       <c r="G217" s="39"/>
     </row>
@@ -6883,14 +6883,14 @@
       <c r="A218" s="38" t="s">
         <v>410</v>
       </c>
-      <c r="B218" s="51" t="s">
+      <c r="B218" s="50" t="s">
         <v>411</v>
       </c>
-      <c r="C218" s="52"/>
-      <c r="D218" s="51" t="s">
+      <c r="C218" s="69"/>
+      <c r="D218" s="50" t="s">
         <v>412</v>
       </c>
-      <c r="E218" s="52"/>
+      <c r="E218" s="69"/>
       <c r="F218" s="39"/>
       <c r="G218" s="39"/>
     </row>
@@ -6898,14 +6898,14 @@
       <c r="A219" s="40" t="s">
         <v>413</v>
       </c>
-      <c r="B219" s="51" t="s">
+      <c r="B219" s="50" t="s">
         <v>414</v>
       </c>
-      <c r="C219" s="52"/>
-      <c r="D219" s="51" t="s">
+      <c r="C219" s="69"/>
+      <c r="D219" s="50" t="s">
         <v>415</v>
       </c>
-      <c r="E219" s="52"/>
+      <c r="E219" s="69"/>
       <c r="F219" s="39"/>
       <c r="G219" s="39"/>
     </row>
@@ -6913,14 +6913,14 @@
       <c r="A220" s="41" t="s">
         <v>416</v>
       </c>
-      <c r="B220" s="51" t="s">
+      <c r="B220" s="50" t="s">
         <v>417</v>
       </c>
-      <c r="C220" s="52"/>
-      <c r="D220" s="51" t="s">
+      <c r="C220" s="69"/>
+      <c r="D220" s="50" t="s">
         <v>418</v>
       </c>
-      <c r="E220" s="52"/>
+      <c r="E220" s="69"/>
       <c r="F220" s="39"/>
       <c r="G220" s="39"/>
     </row>
@@ -6928,14 +6928,14 @@
       <c r="A221" s="41" t="s">
         <v>419</v>
       </c>
-      <c r="B221" s="51" t="s">
+      <c r="B221" s="50" t="s">
         <v>420</v>
       </c>
-      <c r="C221" s="52"/>
-      <c r="D221" s="51" t="s">
+      <c r="C221" s="69"/>
+      <c r="D221" s="50" t="s">
         <v>421</v>
       </c>
-      <c r="E221" s="52"/>
+      <c r="E221" s="69"/>
       <c r="F221" s="39"/>
       <c r="G221" s="39"/>
     </row>
@@ -6943,14 +6943,14 @@
       <c r="A222" s="41" t="s">
         <v>422</v>
       </c>
-      <c r="B222" s="51" t="s">
+      <c r="B222" s="50" t="s">
         <v>423</v>
       </c>
-      <c r="C222" s="52"/>
-      <c r="D222" s="51" t="s">
+      <c r="C222" s="69"/>
+      <c r="D222" s="50" t="s">
         <v>415</v>
       </c>
-      <c r="E222" s="52"/>
+      <c r="E222" s="69"/>
       <c r="F222" s="39"/>
       <c r="G222" s="39"/>
     </row>
@@ -6958,130 +6958,130 @@
       <c r="A223" s="41" t="s">
         <v>424</v>
       </c>
-      <c r="B223" s="51" t="s">
+      <c r="B223" s="50" t="s">
         <v>425</v>
       </c>
-      <c r="C223" s="52"/>
-      <c r="D223" s="51" t="s">
+      <c r="C223" s="69"/>
+      <c r="D223" s="50" t="s">
         <v>426</v>
       </c>
-      <c r="E223" s="52"/>
+      <c r="E223" s="69"/>
       <c r="F223" s="39"/>
       <c r="G223" s="39"/>
     </row>
     <row r="224" spans="1:7">
-      <c r="A224" s="49" t="s">
+      <c r="A224" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="B224" s="50"/>
-      <c r="C224" s="46"/>
-      <c r="D224" s="47"/>
-      <c r="E224" s="47"/>
-      <c r="F224" s="47"/>
-      <c r="G224" s="48"/>
+      <c r="B224" s="49"/>
+      <c r="C224" s="79"/>
+      <c r="D224" s="80"/>
+      <c r="E224" s="80"/>
+      <c r="F224" s="80"/>
+      <c r="G224" s="81"/>
     </row>
     <row r="225" spans="1:7">
-      <c r="A225" s="44" t="s">
+      <c r="A225" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B225" s="45"/>
-      <c r="C225" s="46"/>
-      <c r="D225" s="47"/>
-      <c r="E225" s="47"/>
-      <c r="F225" s="47"/>
-      <c r="G225" s="48"/>
+      <c r="B225" s="52"/>
+      <c r="C225" s="79"/>
+      <c r="D225" s="80"/>
+      <c r="E225" s="80"/>
+      <c r="F225" s="80"/>
+      <c r="G225" s="81"/>
     </row>
     <row r="226" spans="1:7">
-      <c r="A226" s="49" t="s">
+      <c r="A226" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B226" s="50"/>
-      <c r="C226" s="46"/>
-      <c r="D226" s="47"/>
-      <c r="E226" s="47"/>
-      <c r="F226" s="47"/>
-      <c r="G226" s="48"/>
+      <c r="B226" s="49"/>
+      <c r="C226" s="79"/>
+      <c r="D226" s="80"/>
+      <c r="E226" s="80"/>
+      <c r="F226" s="80"/>
+      <c r="G226" s="81"/>
     </row>
     <row r="227" spans="1:7">
-      <c r="A227" s="49" t="s">
+      <c r="A227" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B227" s="50"/>
-      <c r="C227" s="46"/>
-      <c r="D227" s="47"/>
-      <c r="E227" s="47"/>
-      <c r="F227" s="47"/>
-      <c r="G227" s="48"/>
+      <c r="B227" s="49"/>
+      <c r="C227" s="79"/>
+      <c r="D227" s="80"/>
+      <c r="E227" s="80"/>
+      <c r="F227" s="80"/>
+      <c r="G227" s="81"/>
     </row>
     <row r="231" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A231" s="62" t="s">
+      <c r="A231" s="54" t="s">
         <v>428</v>
       </c>
-      <c r="B231" s="62"/>
-      <c r="C231" s="62"/>
-      <c r="D231" s="62"/>
-      <c r="E231" s="62"/>
-      <c r="F231" s="62"/>
-      <c r="G231" s="62"/>
+      <c r="B231" s="54"/>
+      <c r="C231" s="54"/>
+      <c r="D231" s="54"/>
+      <c r="E231" s="54"/>
+      <c r="F231" s="54"/>
+      <c r="G231" s="54"/>
     </row>
     <row r="232" spans="1:7" ht="15" thickTop="1">
-      <c r="A232" s="63" t="s">
+      <c r="A232" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="B232" s="64"/>
-      <c r="C232" s="65" t="s">
+      <c r="B232" s="77"/>
+      <c r="C232" s="73" t="s">
         <v>429</v>
       </c>
-      <c r="D232" s="66"/>
-      <c r="E232" s="66"/>
-      <c r="F232" s="66"/>
-      <c r="G232" s="67"/>
+      <c r="D232" s="74"/>
+      <c r="E232" s="74"/>
+      <c r="F232" s="74"/>
+      <c r="G232" s="75"/>
     </row>
     <row r="233" spans="1:7">
-      <c r="A233" s="54" t="s">
+      <c r="A233" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B233" s="55"/>
-      <c r="C233" s="56"/>
-      <c r="D233" s="57"/>
-      <c r="E233" s="57"/>
-      <c r="F233" s="57"/>
-      <c r="G233" s="58"/>
+      <c r="B233" s="56"/>
+      <c r="C233" s="60"/>
+      <c r="D233" s="61"/>
+      <c r="E233" s="61"/>
+      <c r="F233" s="61"/>
+      <c r="G233" s="62"/>
     </row>
     <row r="234" spans="1:7" ht="91.2" customHeight="1">
-      <c r="A234" s="54" t="s">
+      <c r="A234" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B234" s="55"/>
-      <c r="C234" s="59" t="s">
+      <c r="B234" s="56"/>
+      <c r="C234" s="63" t="s">
         <v>430</v>
       </c>
-      <c r="D234" s="60"/>
-      <c r="E234" s="60"/>
-      <c r="F234" s="60"/>
-      <c r="G234" s="61"/>
+      <c r="D234" s="71"/>
+      <c r="E234" s="71"/>
+      <c r="F234" s="71"/>
+      <c r="G234" s="72"/>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="46"/>
-      <c r="B235" s="47"/>
-      <c r="C235" s="47"/>
-      <c r="D235" s="47"/>
-      <c r="E235" s="47"/>
-      <c r="F235" s="47"/>
-      <c r="G235" s="48"/>
+      <c r="A235" s="79"/>
+      <c r="B235" s="80"/>
+      <c r="C235" s="80"/>
+      <c r="D235" s="80"/>
+      <c r="E235" s="80"/>
+      <c r="F235" s="80"/>
+      <c r="G235" s="81"/>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B236" s="44" t="s">
+      <c r="B236" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C236" s="45"/>
-      <c r="D236" s="44" t="s">
+      <c r="C236" s="52"/>
+      <c r="D236" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E236" s="45"/>
+      <c r="E236" s="52"/>
       <c r="F236" s="21" t="s">
         <v>70</v>
       </c>
@@ -7093,14 +7093,14 @@
       <c r="A237" s="42" t="s">
         <v>431</v>
       </c>
-      <c r="B237" s="53" t="s">
+      <c r="B237" s="89" t="s">
         <v>432</v>
       </c>
-      <c r="C237" s="53"/>
-      <c r="D237" s="53" t="s">
+      <c r="C237" s="89"/>
+      <c r="D237" s="89" t="s">
         <v>433</v>
       </c>
-      <c r="E237" s="53"/>
+      <c r="E237" s="89"/>
       <c r="F237" s="43"/>
       <c r="G237" s="43"/>
     </row>
@@ -7108,14 +7108,14 @@
       <c r="A238" s="42" t="s">
         <v>434</v>
       </c>
-      <c r="B238" s="53" t="s">
+      <c r="B238" s="89" t="s">
         <v>435</v>
       </c>
-      <c r="C238" s="53"/>
-      <c r="D238" s="53" t="s">
+      <c r="C238" s="89"/>
+      <c r="D238" s="89" t="s">
         <v>381</v>
       </c>
-      <c r="E238" s="53"/>
+      <c r="E238" s="89"/>
       <c r="F238" s="43"/>
       <c r="G238" s="43"/>
     </row>
@@ -7123,14 +7123,14 @@
       <c r="A239" s="42" t="s">
         <v>436</v>
       </c>
-      <c r="B239" s="53" t="s">
+      <c r="B239" s="89" t="s">
         <v>437</v>
       </c>
-      <c r="C239" s="53"/>
-      <c r="D239" s="53" t="s">
+      <c r="C239" s="89"/>
+      <c r="D239" s="89" t="s">
         <v>438</v>
       </c>
-      <c r="E239" s="53"/>
+      <c r="E239" s="89"/>
       <c r="F239" s="43"/>
       <c r="G239" s="43"/>
     </row>
@@ -7138,14 +7138,14 @@
       <c r="A240" s="42" t="s">
         <v>439</v>
       </c>
-      <c r="B240" s="53" t="s">
+      <c r="B240" s="89" t="s">
         <v>440</v>
       </c>
-      <c r="C240" s="53"/>
-      <c r="D240" s="53" t="s">
+      <c r="C240" s="89"/>
+      <c r="D240" s="89" t="s">
         <v>389</v>
       </c>
-      <c r="E240" s="53"/>
+      <c r="E240" s="89"/>
       <c r="F240" s="43"/>
       <c r="G240" s="43"/>
     </row>
@@ -7153,14 +7153,14 @@
       <c r="A241" s="42" t="s">
         <v>441</v>
       </c>
-      <c r="B241" s="53" t="s">
+      <c r="B241" s="89" t="s">
         <v>442</v>
       </c>
-      <c r="C241" s="53"/>
-      <c r="D241" s="51" t="s">
+      <c r="C241" s="89"/>
+      <c r="D241" s="50" t="s">
         <v>394</v>
       </c>
-      <c r="E241" s="52"/>
+      <c r="E241" s="69"/>
       <c r="F241" s="43"/>
       <c r="G241" s="43"/>
     </row>
@@ -7168,14 +7168,14 @@
       <c r="A242" s="42" t="s">
         <v>443</v>
       </c>
-      <c r="B242" s="53" t="s">
+      <c r="B242" s="89" t="s">
         <v>444</v>
       </c>
-      <c r="C242" s="53"/>
-      <c r="D242" s="51" t="s">
+      <c r="C242" s="89"/>
+      <c r="D242" s="50" t="s">
         <v>445</v>
       </c>
-      <c r="E242" s="52"/>
+      <c r="E242" s="69"/>
       <c r="F242" s="43"/>
       <c r="G242" s="43"/>
     </row>
@@ -7183,14 +7183,14 @@
       <c r="A243" s="42" t="s">
         <v>446</v>
       </c>
-      <c r="B243" s="53" t="s">
+      <c r="B243" s="89" t="s">
         <v>447</v>
       </c>
-      <c r="C243" s="53"/>
-      <c r="D243" s="51" t="s">
+      <c r="C243" s="89"/>
+      <c r="D243" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="E243" s="52"/>
+      <c r="E243" s="69"/>
       <c r="F243" s="43"/>
       <c r="G243" s="43"/>
     </row>
@@ -7198,14 +7198,14 @@
       <c r="A244" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="B244" s="53" t="s">
+      <c r="B244" s="89" t="s">
         <v>449</v>
       </c>
-      <c r="C244" s="53"/>
-      <c r="D244" s="51" t="s">
+      <c r="C244" s="89"/>
+      <c r="D244" s="50" t="s">
         <v>394</v>
       </c>
-      <c r="E244" s="52"/>
+      <c r="E244" s="69"/>
       <c r="F244" s="43"/>
       <c r="G244" s="43"/>
     </row>
@@ -7213,14 +7213,14 @@
       <c r="A245" s="42" t="s">
         <v>450</v>
       </c>
-      <c r="B245" s="53" t="s">
+      <c r="B245" s="89" t="s">
         <v>451</v>
       </c>
-      <c r="C245" s="53"/>
-      <c r="D245" s="51" t="s">
+      <c r="C245" s="89"/>
+      <c r="D245" s="50" t="s">
         <v>452</v>
       </c>
-      <c r="E245" s="52"/>
+      <c r="E245" s="69"/>
       <c r="F245" s="43"/>
       <c r="G245" s="43"/>
     </row>
@@ -7228,14 +7228,14 @@
       <c r="A246" s="42" t="s">
         <v>453</v>
       </c>
-      <c r="B246" s="53" t="s">
+      <c r="B246" s="89" t="s">
         <v>454</v>
       </c>
-      <c r="C246" s="53"/>
-      <c r="D246" s="51" t="s">
+      <c r="C246" s="89"/>
+      <c r="D246" s="50" t="s">
         <v>400</v>
       </c>
-      <c r="E246" s="52"/>
+      <c r="E246" s="69"/>
       <c r="F246" s="43"/>
       <c r="G246" s="43"/>
     </row>
@@ -7243,14 +7243,14 @@
       <c r="A247" s="42" t="s">
         <v>455</v>
       </c>
-      <c r="B247" s="51" t="s">
+      <c r="B247" s="50" t="s">
         <v>456</v>
       </c>
-      <c r="C247" s="52"/>
-      <c r="D247" s="51" t="s">
+      <c r="C247" s="69"/>
+      <c r="D247" s="50" t="s">
         <v>457</v>
       </c>
-      <c r="E247" s="52"/>
+      <c r="E247" s="69"/>
       <c r="F247" s="43"/>
       <c r="G247" s="43"/>
     </row>
@@ -7258,14 +7258,14 @@
       <c r="A248" s="42" t="s">
         <v>458</v>
       </c>
-      <c r="B248" s="51" t="s">
+      <c r="B248" s="50" t="s">
         <v>459</v>
       </c>
-      <c r="C248" s="52"/>
-      <c r="D248" s="51" t="s">
+      <c r="C248" s="69"/>
+      <c r="D248" s="50" t="s">
         <v>460</v>
       </c>
-      <c r="E248" s="52"/>
+      <c r="E248" s="69"/>
       <c r="F248" s="43"/>
       <c r="G248" s="43"/>
     </row>
@@ -7273,14 +7273,14 @@
       <c r="A249" s="42" t="s">
         <v>461</v>
       </c>
-      <c r="B249" s="51" t="s">
+      <c r="B249" s="50" t="s">
         <v>462</v>
       </c>
-      <c r="C249" s="52"/>
-      <c r="D249" s="51" t="s">
+      <c r="C249" s="69"/>
+      <c r="D249" s="50" t="s">
         <v>463</v>
       </c>
-      <c r="E249" s="52"/>
+      <c r="E249" s="69"/>
       <c r="F249" s="43"/>
       <c r="G249" s="43"/>
     </row>
@@ -7288,14 +7288,14 @@
       <c r="A250" s="42" t="s">
         <v>464</v>
       </c>
-      <c r="B250" s="51" t="s">
+      <c r="B250" s="50" t="s">
         <v>465</v>
       </c>
-      <c r="C250" s="52"/>
-      <c r="D250" s="51" t="s">
+      <c r="C250" s="69"/>
+      <c r="D250" s="50" t="s">
         <v>466</v>
       </c>
-      <c r="E250" s="52"/>
+      <c r="E250" s="69"/>
       <c r="F250" s="43"/>
       <c r="G250" s="43"/>
     </row>
@@ -7303,130 +7303,130 @@
       <c r="A251" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="B251" s="51" t="s">
+      <c r="B251" s="50" t="s">
         <v>425</v>
       </c>
-      <c r="C251" s="52"/>
-      <c r="D251" s="51" t="s">
+      <c r="C251" s="69"/>
+      <c r="D251" s="50" t="s">
         <v>468</v>
       </c>
-      <c r="E251" s="52"/>
+      <c r="E251" s="69"/>
       <c r="F251" s="43"/>
       <c r="G251" s="43"/>
     </row>
     <row r="252" spans="1:7">
-      <c r="A252" s="49" t="s">
+      <c r="A252" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="B252" s="50"/>
-      <c r="C252" s="46"/>
-      <c r="D252" s="47"/>
-      <c r="E252" s="47"/>
-      <c r="F252" s="47"/>
-      <c r="G252" s="48"/>
+      <c r="B252" s="49"/>
+      <c r="C252" s="79"/>
+      <c r="D252" s="80"/>
+      <c r="E252" s="80"/>
+      <c r="F252" s="80"/>
+      <c r="G252" s="81"/>
     </row>
     <row r="253" spans="1:7">
-      <c r="A253" s="44" t="s">
+      <c r="A253" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B253" s="45"/>
-      <c r="C253" s="46"/>
-      <c r="D253" s="47"/>
-      <c r="E253" s="47"/>
-      <c r="F253" s="47"/>
-      <c r="G253" s="48"/>
+      <c r="B253" s="52"/>
+      <c r="C253" s="79"/>
+      <c r="D253" s="80"/>
+      <c r="E253" s="80"/>
+      <c r="F253" s="80"/>
+      <c r="G253" s="81"/>
     </row>
     <row r="254" spans="1:7">
-      <c r="A254" s="49" t="s">
+      <c r="A254" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B254" s="50"/>
-      <c r="C254" s="46"/>
-      <c r="D254" s="47"/>
-      <c r="E254" s="47"/>
-      <c r="F254" s="47"/>
-      <c r="G254" s="48"/>
+      <c r="B254" s="49"/>
+      <c r="C254" s="79"/>
+      <c r="D254" s="80"/>
+      <c r="E254" s="80"/>
+      <c r="F254" s="80"/>
+      <c r="G254" s="81"/>
     </row>
     <row r="255" spans="1:7">
-      <c r="A255" s="49" t="s">
+      <c r="A255" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B255" s="50"/>
-      <c r="C255" s="46"/>
-      <c r="D255" s="47"/>
-      <c r="E255" s="47"/>
-      <c r="F255" s="47"/>
-      <c r="G255" s="48"/>
+      <c r="B255" s="49"/>
+      <c r="C255" s="79"/>
+      <c r="D255" s="80"/>
+      <c r="E255" s="80"/>
+      <c r="F255" s="80"/>
+      <c r="G255" s="81"/>
     </row>
     <row r="260" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A260" s="62" t="s">
+      <c r="A260" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="B260" s="62"/>
-      <c r="C260" s="62"/>
-      <c r="D260" s="62"/>
-      <c r="E260" s="62"/>
-      <c r="F260" s="62"/>
-      <c r="G260" s="62"/>
+      <c r="B260" s="54"/>
+      <c r="C260" s="54"/>
+      <c r="D260" s="54"/>
+      <c r="E260" s="54"/>
+      <c r="F260" s="54"/>
+      <c r="G260" s="54"/>
     </row>
     <row r="261" spans="1:7" ht="15" thickTop="1">
-      <c r="A261" s="54" t="s">
+      <c r="A261" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B261" s="55"/>
-      <c r="C261" s="74" t="s">
+      <c r="B261" s="56"/>
+      <c r="C261" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="D261" s="75"/>
-      <c r="E261" s="75"/>
-      <c r="F261" s="75"/>
-      <c r="G261" s="76"/>
+      <c r="D261" s="58"/>
+      <c r="E261" s="58"/>
+      <c r="F261" s="58"/>
+      <c r="G261" s="59"/>
     </row>
     <row r="262" spans="1:7">
-      <c r="A262" s="54" t="s">
+      <c r="A262" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B262" s="55"/>
-      <c r="C262" s="56"/>
-      <c r="D262" s="57"/>
-      <c r="E262" s="57"/>
-      <c r="F262" s="57"/>
-      <c r="G262" s="58"/>
+      <c r="B262" s="56"/>
+      <c r="C262" s="60"/>
+      <c r="D262" s="61"/>
+      <c r="E262" s="61"/>
+      <c r="F262" s="61"/>
+      <c r="G262" s="62"/>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="54" t="s">
+      <c r="A263" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B263" s="55"/>
-      <c r="C263" s="59" t="s">
+      <c r="B263" s="56"/>
+      <c r="C263" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="D263" s="77"/>
-      <c r="E263" s="77"/>
-      <c r="F263" s="77"/>
-      <c r="G263" s="78"/>
+      <c r="D263" s="64"/>
+      <c r="E263" s="64"/>
+      <c r="F263" s="64"/>
+      <c r="G263" s="65"/>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="79"/>
-      <c r="B264" s="80"/>
-      <c r="C264" s="80"/>
-      <c r="D264" s="80"/>
-      <c r="E264" s="80"/>
-      <c r="F264" s="80"/>
-      <c r="G264" s="81"/>
+      <c r="A264" s="66"/>
+      <c r="B264" s="67"/>
+      <c r="C264" s="67"/>
+      <c r="D264" s="67"/>
+      <c r="E264" s="67"/>
+      <c r="F264" s="67"/>
+      <c r="G264" s="68"/>
     </row>
     <row r="265" spans="1:7">
       <c r="A265" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B265" s="44" t="s">
+      <c r="B265" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C265" s="45"/>
-      <c r="D265" s="44" t="s">
+      <c r="C265" s="52"/>
+      <c r="D265" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E265" s="45"/>
+      <c r="E265" s="52"/>
       <c r="F265" s="21" t="s">
         <v>70</v>
       </c>
@@ -7438,14 +7438,14 @@
       <c r="A266" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="B266" s="51" t="s">
+      <c r="B266" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="C266" s="73"/>
-      <c r="D266" s="51" t="s">
+      <c r="C266" s="51"/>
+      <c r="D266" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="E266" s="73"/>
+      <c r="E266" s="51"/>
       <c r="F266" s="29" t="s">
         <v>145</v>
       </c>
@@ -7457,14 +7457,14 @@
       <c r="A267" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="B267" s="51" t="s">
+      <c r="B267" s="50" t="s">
         <v>359</v>
       </c>
-      <c r="C267" s="73"/>
-      <c r="D267" s="51" t="s">
+      <c r="C267" s="51"/>
+      <c r="D267" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E267" s="73"/>
+      <c r="E267" s="51"/>
       <c r="F267" s="29"/>
       <c r="G267" s="29"/>
     </row>
@@ -7472,14 +7472,14 @@
       <c r="A268" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="B268" s="51" t="s">
+      <c r="B268" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="C268" s="73"/>
-      <c r="D268" s="51" t="s">
+      <c r="C268" s="51"/>
+      <c r="D268" s="50" t="s">
         <v>362</v>
       </c>
-      <c r="E268" s="73"/>
+      <c r="E268" s="51"/>
       <c r="F268" s="29" t="s">
         <v>146</v>
       </c>
@@ -7488,126 +7488,126 @@
       </c>
     </row>
     <row r="269" spans="1:7">
-      <c r="A269" s="49" t="s">
+      <c r="A269" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="B269" s="45"/>
-      <c r="C269" s="72" t="s">
+      <c r="B269" s="52"/>
+      <c r="C269" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D269" s="70"/>
-      <c r="E269" s="70"/>
-      <c r="F269" s="70"/>
-      <c r="G269" s="71"/>
+      <c r="D269" s="45"/>
+      <c r="E269" s="45"/>
+      <c r="F269" s="45"/>
+      <c r="G269" s="46"/>
     </row>
     <row r="270" spans="1:7">
-      <c r="A270" s="44" t="s">
+      <c r="A270" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B270" s="45"/>
-      <c r="C270" s="69">
+      <c r="B270" s="52"/>
+      <c r="C270" s="47">
         <v>43047</v>
       </c>
-      <c r="D270" s="70"/>
-      <c r="E270" s="70"/>
-      <c r="F270" s="70"/>
-      <c r="G270" s="71"/>
+      <c r="D270" s="45"/>
+      <c r="E270" s="45"/>
+      <c r="F270" s="45"/>
+      <c r="G270" s="46"/>
     </row>
     <row r="271" spans="1:7">
-      <c r="A271" s="49" t="s">
+      <c r="A271" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B271" s="45"/>
-      <c r="C271" s="72" t="s">
+      <c r="B271" s="52"/>
+      <c r="C271" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="D271" s="70"/>
-      <c r="E271" s="70"/>
-      <c r="F271" s="70"/>
-      <c r="G271" s="71"/>
+      <c r="D271" s="45"/>
+      <c r="E271" s="45"/>
+      <c r="F271" s="45"/>
+      <c r="G271" s="46"/>
     </row>
     <row r="272" spans="1:7">
-      <c r="A272" s="49" t="s">
+      <c r="A272" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B272" s="50"/>
-      <c r="C272" s="72" t="s">
+      <c r="B272" s="49"/>
+      <c r="C272" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="D272" s="70"/>
-      <c r="E272" s="70"/>
-      <c r="F272" s="70"/>
-      <c r="G272" s="71"/>
+      <c r="D272" s="45"/>
+      <c r="E272" s="45"/>
+      <c r="F272" s="45"/>
+      <c r="G272" s="46"/>
     </row>
     <row r="276" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A276" s="62" t="s">
+      <c r="A276" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="B276" s="62"/>
-      <c r="C276" s="62"/>
-      <c r="D276" s="62"/>
-      <c r="E276" s="62"/>
-      <c r="F276" s="62"/>
-      <c r="G276" s="62"/>
+      <c r="B276" s="54"/>
+      <c r="C276" s="54"/>
+      <c r="D276" s="54"/>
+      <c r="E276" s="54"/>
+      <c r="F276" s="54"/>
+      <c r="G276" s="54"/>
     </row>
     <row r="277" spans="1:7" ht="15" thickTop="1">
-      <c r="A277" s="54" t="s">
+      <c r="A277" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B277" s="55"/>
-      <c r="C277" s="74" t="s">
+      <c r="B277" s="56"/>
+      <c r="C277" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="D277" s="75"/>
-      <c r="E277" s="75"/>
-      <c r="F277" s="75"/>
-      <c r="G277" s="76"/>
+      <c r="D277" s="58"/>
+      <c r="E277" s="58"/>
+      <c r="F277" s="58"/>
+      <c r="G277" s="59"/>
     </row>
     <row r="278" spans="1:7">
-      <c r="A278" s="54" t="s">
+      <c r="A278" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B278" s="55"/>
-      <c r="C278" s="56"/>
-      <c r="D278" s="57"/>
-      <c r="E278" s="57"/>
-      <c r="F278" s="57"/>
-      <c r="G278" s="58"/>
+      <c r="B278" s="56"/>
+      <c r="C278" s="60"/>
+      <c r="D278" s="61"/>
+      <c r="E278" s="61"/>
+      <c r="F278" s="61"/>
+      <c r="G278" s="62"/>
     </row>
     <row r="279" spans="1:7">
-      <c r="A279" s="54" t="s">
+      <c r="A279" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B279" s="55"/>
-      <c r="C279" s="59" t="s">
+      <c r="B279" s="56"/>
+      <c r="C279" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="D279" s="77"/>
-      <c r="E279" s="77"/>
-      <c r="F279" s="77"/>
-      <c r="G279" s="78"/>
+      <c r="D279" s="64"/>
+      <c r="E279" s="64"/>
+      <c r="F279" s="64"/>
+      <c r="G279" s="65"/>
     </row>
     <row r="280" spans="1:7">
-      <c r="A280" s="79"/>
-      <c r="B280" s="80"/>
-      <c r="C280" s="80"/>
-      <c r="D280" s="80"/>
-      <c r="E280" s="80"/>
-      <c r="F280" s="80"/>
-      <c r="G280" s="81"/>
+      <c r="A280" s="66"/>
+      <c r="B280" s="67"/>
+      <c r="C280" s="67"/>
+      <c r="D280" s="67"/>
+      <c r="E280" s="67"/>
+      <c r="F280" s="67"/>
+      <c r="G280" s="68"/>
     </row>
     <row r="281" spans="1:7">
       <c r="A281" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B281" s="44" t="s">
+      <c r="B281" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C281" s="45"/>
-      <c r="D281" s="44" t="s">
+      <c r="C281" s="52"/>
+      <c r="D281" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E281" s="45"/>
+      <c r="E281" s="52"/>
       <c r="F281" s="21" t="s">
         <v>70</v>
       </c>
@@ -7619,14 +7619,14 @@
       <c r="A282" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="B282" s="51" t="s">
+      <c r="B282" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="C282" s="73"/>
-      <c r="D282" s="51" t="s">
+      <c r="C282" s="51"/>
+      <c r="D282" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="E282" s="73"/>
+      <c r="E282" s="51"/>
       <c r="F282" s="29" t="s">
         <v>193</v>
       </c>
@@ -7638,14 +7638,14 @@
       <c r="A283" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="B283" s="51" t="s">
+      <c r="B283" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="C283" s="73"/>
-      <c r="D283" s="51" t="s">
+      <c r="C283" s="51"/>
+      <c r="D283" s="50" t="s">
         <v>363</v>
       </c>
-      <c r="E283" s="73"/>
+      <c r="E283" s="51"/>
       <c r="F283" s="29" t="s">
         <v>364</v>
       </c>
@@ -7654,124 +7654,124 @@
       </c>
     </row>
     <row r="284" spans="1:7">
-      <c r="A284" s="49" t="s">
+      <c r="A284" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="B284" s="45"/>
-      <c r="C284" s="72" t="s">
+      <c r="B284" s="52"/>
+      <c r="C284" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D284" s="70"/>
-      <c r="E284" s="70"/>
-      <c r="F284" s="70"/>
-      <c r="G284" s="71"/>
+      <c r="D284" s="45"/>
+      <c r="E284" s="45"/>
+      <c r="F284" s="45"/>
+      <c r="G284" s="46"/>
     </row>
     <row r="285" spans="1:7">
-      <c r="A285" s="44" t="s">
+      <c r="A285" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B285" s="45"/>
-      <c r="C285" s="69">
+      <c r="B285" s="52"/>
+      <c r="C285" s="47">
         <v>43047</v>
       </c>
-      <c r="D285" s="70"/>
-      <c r="E285" s="70"/>
-      <c r="F285" s="70"/>
-      <c r="G285" s="71"/>
+      <c r="D285" s="45"/>
+      <c r="E285" s="45"/>
+      <c r="F285" s="45"/>
+      <c r="G285" s="46"/>
     </row>
     <row r="286" spans="1:7">
-      <c r="A286" s="49" t="s">
+      <c r="A286" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B286" s="45"/>
-      <c r="C286" s="72" t="s">
+      <c r="B286" s="52"/>
+      <c r="C286" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="D286" s="70"/>
-      <c r="E286" s="70"/>
-      <c r="F286" s="70"/>
-      <c r="G286" s="71"/>
+      <c r="D286" s="45"/>
+      <c r="E286" s="45"/>
+      <c r="F286" s="45"/>
+      <c r="G286" s="46"/>
     </row>
     <row r="287" spans="1:7">
-      <c r="A287" s="49" t="s">
+      <c r="A287" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B287" s="50"/>
-      <c r="C287" s="72" t="s">
+      <c r="B287" s="49"/>
+      <c r="C287" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="D287" s="70"/>
-      <c r="E287" s="70"/>
-      <c r="F287" s="70"/>
-      <c r="G287" s="71"/>
+      <c r="D287" s="45"/>
+      <c r="E287" s="45"/>
+      <c r="F287" s="45"/>
+      <c r="G287" s="46"/>
     </row>
     <row r="291" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A291" s="62" t="s">
+      <c r="A291" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="B291" s="62"/>
-      <c r="C291" s="62"/>
-      <c r="D291" s="62"/>
-      <c r="E291" s="62"/>
-      <c r="F291" s="62"/>
-      <c r="G291" s="62"/>
+      <c r="B291" s="54"/>
+      <c r="C291" s="54"/>
+      <c r="D291" s="54"/>
+      <c r="E291" s="54"/>
+      <c r="F291" s="54"/>
+      <c r="G291" s="54"/>
     </row>
     <row r="292" spans="1:7" ht="15" thickTop="1">
-      <c r="A292" s="54" t="s">
+      <c r="A292" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B292" s="55"/>
-      <c r="C292" s="74" t="s">
+      <c r="B292" s="56"/>
+      <c r="C292" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="D292" s="75"/>
-      <c r="E292" s="75"/>
-      <c r="F292" s="75"/>
-      <c r="G292" s="76"/>
+      <c r="D292" s="58"/>
+      <c r="E292" s="58"/>
+      <c r="F292" s="58"/>
+      <c r="G292" s="59"/>
     </row>
     <row r="293" spans="1:7">
-      <c r="A293" s="54" t="s">
+      <c r="A293" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B293" s="55"/>
-      <c r="C293" s="56"/>
-      <c r="D293" s="57"/>
-      <c r="E293" s="57"/>
-      <c r="F293" s="57"/>
-      <c r="G293" s="58"/>
+      <c r="B293" s="56"/>
+      <c r="C293" s="60"/>
+      <c r="D293" s="61"/>
+      <c r="E293" s="61"/>
+      <c r="F293" s="61"/>
+      <c r="G293" s="62"/>
     </row>
     <row r="294" spans="1:7">
-      <c r="A294" s="54" t="s">
+      <c r="A294" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B294" s="55"/>
-      <c r="C294" s="59"/>
-      <c r="D294" s="77"/>
-      <c r="E294" s="77"/>
-      <c r="F294" s="77"/>
-      <c r="G294" s="78"/>
+      <c r="B294" s="56"/>
+      <c r="C294" s="63"/>
+      <c r="D294" s="64"/>
+      <c r="E294" s="64"/>
+      <c r="F294" s="64"/>
+      <c r="G294" s="65"/>
     </row>
     <row r="295" spans="1:7">
-      <c r="A295" s="79"/>
-      <c r="B295" s="80"/>
-      <c r="C295" s="80"/>
-      <c r="D295" s="80"/>
-      <c r="E295" s="80"/>
-      <c r="F295" s="80"/>
-      <c r="G295" s="81"/>
+      <c r="A295" s="66"/>
+      <c r="B295" s="67"/>
+      <c r="C295" s="67"/>
+      <c r="D295" s="67"/>
+      <c r="E295" s="67"/>
+      <c r="F295" s="67"/>
+      <c r="G295" s="68"/>
     </row>
     <row r="296" spans="1:7">
       <c r="A296" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B296" s="44" t="s">
+      <c r="B296" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C296" s="45"/>
-      <c r="D296" s="44" t="s">
+      <c r="C296" s="52"/>
+      <c r="D296" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E296" s="45"/>
+      <c r="E296" s="52"/>
       <c r="F296" s="21" t="s">
         <v>70</v>
       </c>
@@ -7783,14 +7783,14 @@
       <c r="A297" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="B297" s="51" t="s">
+      <c r="B297" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="C297" s="73"/>
-      <c r="D297" s="51" t="s">
+      <c r="C297" s="51"/>
+      <c r="D297" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="E297" s="73"/>
+      <c r="E297" s="51"/>
       <c r="F297" s="29" t="s">
         <v>216</v>
       </c>
@@ -7799,126 +7799,126 @@
       </c>
     </row>
     <row r="298" spans="1:7">
-      <c r="A298" s="49" t="s">
+      <c r="A298" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="B298" s="45"/>
-      <c r="C298" s="72" t="s">
+      <c r="B298" s="52"/>
+      <c r="C298" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D298" s="70"/>
-      <c r="E298" s="70"/>
-      <c r="F298" s="70"/>
-      <c r="G298" s="71"/>
+      <c r="D298" s="45"/>
+      <c r="E298" s="45"/>
+      <c r="F298" s="45"/>
+      <c r="G298" s="46"/>
     </row>
     <row r="299" spans="1:7">
-      <c r="A299" s="44" t="s">
+      <c r="A299" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B299" s="45"/>
-      <c r="C299" s="69">
+      <c r="B299" s="52"/>
+      <c r="C299" s="47">
         <v>43047</v>
       </c>
-      <c r="D299" s="70"/>
-      <c r="E299" s="70"/>
-      <c r="F299" s="70"/>
-      <c r="G299" s="71"/>
+      <c r="D299" s="45"/>
+      <c r="E299" s="45"/>
+      <c r="F299" s="45"/>
+      <c r="G299" s="46"/>
     </row>
     <row r="300" spans="1:7">
-      <c r="A300" s="49" t="s">
+      <c r="A300" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B300" s="45"/>
-      <c r="C300" s="72" t="s">
+      <c r="B300" s="52"/>
+      <c r="C300" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="D300" s="70"/>
-      <c r="E300" s="70"/>
-      <c r="F300" s="70"/>
-      <c r="G300" s="71"/>
+      <c r="D300" s="45"/>
+      <c r="E300" s="45"/>
+      <c r="F300" s="45"/>
+      <c r="G300" s="46"/>
     </row>
     <row r="301" spans="1:7">
-      <c r="A301" s="49" t="s">
+      <c r="A301" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B301" s="50"/>
-      <c r="C301" s="72" t="s">
+      <c r="B301" s="49"/>
+      <c r="C301" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="D301" s="70"/>
-      <c r="E301" s="70"/>
-      <c r="F301" s="70"/>
-      <c r="G301" s="71"/>
+      <c r="D301" s="45"/>
+      <c r="E301" s="45"/>
+      <c r="F301" s="45"/>
+      <c r="G301" s="46"/>
     </row>
     <row r="305" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A305" s="62" t="s">
+      <c r="A305" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="B305" s="62"/>
-      <c r="C305" s="62"/>
-      <c r="D305" s="62"/>
-      <c r="E305" s="62"/>
-      <c r="F305" s="62"/>
-      <c r="G305" s="62"/>
+      <c r="B305" s="54"/>
+      <c r="C305" s="54"/>
+      <c r="D305" s="54"/>
+      <c r="E305" s="54"/>
+      <c r="F305" s="54"/>
+      <c r="G305" s="54"/>
     </row>
     <row r="306" spans="1:7" ht="15" thickTop="1">
-      <c r="A306" s="54" t="s">
+      <c r="A306" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B306" s="55"/>
-      <c r="C306" s="74" t="s">
+      <c r="B306" s="56"/>
+      <c r="C306" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="D306" s="75"/>
-      <c r="E306" s="75"/>
-      <c r="F306" s="75"/>
-      <c r="G306" s="76"/>
+      <c r="D306" s="58"/>
+      <c r="E306" s="58"/>
+      <c r="F306" s="58"/>
+      <c r="G306" s="59"/>
     </row>
     <row r="307" spans="1:7">
-      <c r="A307" s="54" t="s">
+      <c r="A307" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B307" s="55"/>
-      <c r="C307" s="56"/>
-      <c r="D307" s="57"/>
-      <c r="E307" s="57"/>
-      <c r="F307" s="57"/>
-      <c r="G307" s="58"/>
+      <c r="B307" s="56"/>
+      <c r="C307" s="60"/>
+      <c r="D307" s="61"/>
+      <c r="E307" s="61"/>
+      <c r="F307" s="61"/>
+      <c r="G307" s="62"/>
     </row>
     <row r="308" spans="1:7">
-      <c r="A308" s="54" t="s">
+      <c r="A308" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B308" s="55"/>
-      <c r="C308" s="59" t="s">
+      <c r="B308" s="56"/>
+      <c r="C308" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="D308" s="77"/>
-      <c r="E308" s="77"/>
-      <c r="F308" s="77"/>
-      <c r="G308" s="78"/>
+      <c r="D308" s="64"/>
+      <c r="E308" s="64"/>
+      <c r="F308" s="64"/>
+      <c r="G308" s="65"/>
     </row>
     <row r="309" spans="1:7">
-      <c r="A309" s="79"/>
-      <c r="B309" s="80"/>
-      <c r="C309" s="80"/>
-      <c r="D309" s="80"/>
-      <c r="E309" s="80"/>
-      <c r="F309" s="80"/>
-      <c r="G309" s="81"/>
+      <c r="A309" s="66"/>
+      <c r="B309" s="67"/>
+      <c r="C309" s="67"/>
+      <c r="D309" s="67"/>
+      <c r="E309" s="67"/>
+      <c r="F309" s="67"/>
+      <c r="G309" s="68"/>
     </row>
     <row r="310" spans="1:7">
       <c r="A310" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B310" s="44" t="s">
+      <c r="B310" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C310" s="45"/>
-      <c r="D310" s="44" t="s">
+      <c r="C310" s="52"/>
+      <c r="D310" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E310" s="45"/>
+      <c r="E310" s="52"/>
       <c r="F310" s="21" t="s">
         <v>70</v>
       </c>
@@ -7930,14 +7930,14 @@
       <c r="A311" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="B311" s="51" t="s">
+      <c r="B311" s="50" t="s">
         <v>200</v>
       </c>
-      <c r="C311" s="73"/>
-      <c r="D311" s="51" t="s">
+      <c r="C311" s="51"/>
+      <c r="D311" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="E311" s="73"/>
+      <c r="E311" s="51"/>
       <c r="F311" s="29" t="s">
         <v>193</v>
       </c>
@@ -7949,14 +7949,14 @@
       <c r="A312" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="B312" s="51" t="s">
+      <c r="B312" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="C312" s="73"/>
-      <c r="D312" s="51" t="s">
+      <c r="C312" s="51"/>
+      <c r="D312" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="E312" s="73"/>
+      <c r="E312" s="51"/>
       <c r="F312" s="29" t="s">
         <v>204</v>
       </c>
@@ -7965,126 +7965,126 @@
       </c>
     </row>
     <row r="313" spans="1:7">
-      <c r="A313" s="49" t="s">
+      <c r="A313" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="B313" s="45"/>
-      <c r="C313" s="72" t="s">
+      <c r="B313" s="52"/>
+      <c r="C313" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D313" s="70"/>
-      <c r="E313" s="70"/>
-      <c r="F313" s="70"/>
-      <c r="G313" s="71"/>
+      <c r="D313" s="45"/>
+      <c r="E313" s="45"/>
+      <c r="F313" s="45"/>
+      <c r="G313" s="46"/>
     </row>
     <row r="314" spans="1:7">
-      <c r="A314" s="44" t="s">
+      <c r="A314" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B314" s="45"/>
-      <c r="C314" s="69">
+      <c r="B314" s="52"/>
+      <c r="C314" s="47">
         <v>43047</v>
       </c>
-      <c r="D314" s="70"/>
-      <c r="E314" s="70"/>
-      <c r="F314" s="70"/>
-      <c r="G314" s="71"/>
+      <c r="D314" s="45"/>
+      <c r="E314" s="45"/>
+      <c r="F314" s="45"/>
+      <c r="G314" s="46"/>
     </row>
     <row r="315" spans="1:7">
-      <c r="A315" s="49" t="s">
+      <c r="A315" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B315" s="45"/>
-      <c r="C315" s="72" t="s">
+      <c r="B315" s="52"/>
+      <c r="C315" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="D315" s="70"/>
-      <c r="E315" s="70"/>
-      <c r="F315" s="70"/>
-      <c r="G315" s="71"/>
+      <c r="D315" s="45"/>
+      <c r="E315" s="45"/>
+      <c r="F315" s="45"/>
+      <c r="G315" s="46"/>
     </row>
     <row r="316" spans="1:7">
-      <c r="A316" s="49" t="s">
+      <c r="A316" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B316" s="50"/>
-      <c r="C316" s="72" t="s">
+      <c r="B316" s="49"/>
+      <c r="C316" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="D316" s="70"/>
-      <c r="E316" s="70"/>
-      <c r="F316" s="70"/>
-      <c r="G316" s="71"/>
+      <c r="D316" s="45"/>
+      <c r="E316" s="45"/>
+      <c r="F316" s="45"/>
+      <c r="G316" s="46"/>
     </row>
     <row r="318" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A318" s="62" t="s">
+      <c r="A318" s="54" t="s">
         <v>365</v>
       </c>
-      <c r="B318" s="62"/>
-      <c r="C318" s="62"/>
-      <c r="D318" s="62"/>
-      <c r="E318" s="62"/>
-      <c r="F318" s="62"/>
-      <c r="G318" s="62"/>
+      <c r="B318" s="54"/>
+      <c r="C318" s="54"/>
+      <c r="D318" s="54"/>
+      <c r="E318" s="54"/>
+      <c r="F318" s="54"/>
+      <c r="G318" s="54"/>
     </row>
     <row r="319" spans="1:7" ht="15" thickTop="1">
-      <c r="A319" s="54" t="s">
+      <c r="A319" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B319" s="55"/>
-      <c r="C319" s="74" t="s">
+      <c r="B319" s="56"/>
+      <c r="C319" s="57" t="s">
         <v>366</v>
       </c>
-      <c r="D319" s="75"/>
-      <c r="E319" s="75"/>
-      <c r="F319" s="75"/>
-      <c r="G319" s="76"/>
+      <c r="D319" s="58"/>
+      <c r="E319" s="58"/>
+      <c r="F319" s="58"/>
+      <c r="G319" s="59"/>
     </row>
     <row r="320" spans="1:7">
-      <c r="A320" s="54" t="s">
+      <c r="A320" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B320" s="55"/>
-      <c r="C320" s="56"/>
-      <c r="D320" s="57"/>
-      <c r="E320" s="57"/>
-      <c r="F320" s="57"/>
-      <c r="G320" s="58"/>
+      <c r="B320" s="56"/>
+      <c r="C320" s="60"/>
+      <c r="D320" s="61"/>
+      <c r="E320" s="61"/>
+      <c r="F320" s="61"/>
+      <c r="G320" s="62"/>
     </row>
     <row r="321" spans="1:7" ht="27" customHeight="1">
-      <c r="A321" s="54" t="s">
+      <c r="A321" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B321" s="55"/>
-      <c r="C321" s="59" t="s">
+      <c r="B321" s="56"/>
+      <c r="C321" s="63" t="s">
         <v>367</v>
       </c>
-      <c r="D321" s="77"/>
-      <c r="E321" s="77"/>
-      <c r="F321" s="77"/>
-      <c r="G321" s="78"/>
+      <c r="D321" s="64"/>
+      <c r="E321" s="64"/>
+      <c r="F321" s="64"/>
+      <c r="G321" s="65"/>
     </row>
     <row r="322" spans="1:7">
-      <c r="A322" s="79"/>
-      <c r="B322" s="80"/>
-      <c r="C322" s="80"/>
-      <c r="D322" s="80"/>
-      <c r="E322" s="80"/>
-      <c r="F322" s="80"/>
-      <c r="G322" s="81"/>
+      <c r="A322" s="66"/>
+      <c r="B322" s="67"/>
+      <c r="C322" s="67"/>
+      <c r="D322" s="67"/>
+      <c r="E322" s="67"/>
+      <c r="F322" s="67"/>
+      <c r="G322" s="68"/>
     </row>
     <row r="323" spans="1:7">
       <c r="A323" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B323" s="44" t="s">
+      <c r="B323" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C323" s="45"/>
-      <c r="D323" s="44" t="s">
+      <c r="C323" s="52"/>
+      <c r="D323" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E323" s="45"/>
+      <c r="E323" s="52"/>
       <c r="F323" s="21" t="s">
         <v>70</v>
       </c>
@@ -8096,14 +8096,14 @@
       <c r="A324" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="B324" s="51" t="s">
+      <c r="B324" s="50" t="s">
         <v>368</v>
       </c>
-      <c r="C324" s="73"/>
-      <c r="D324" s="51" t="s">
+      <c r="C324" s="51"/>
+      <c r="D324" s="50" t="s">
         <v>369</v>
       </c>
-      <c r="E324" s="73"/>
+      <c r="E324" s="51"/>
       <c r="F324" s="29" t="s">
         <v>370</v>
       </c>
@@ -8112,104 +8112,104 @@
       </c>
     </row>
     <row r="325" spans="1:7">
-      <c r="A325" s="49" t="s">
+      <c r="A325" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="B325" s="45"/>
-      <c r="C325" s="72" t="s">
+      <c r="B325" s="52"/>
+      <c r="C325" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D325" s="70"/>
-      <c r="E325" s="70"/>
-      <c r="F325" s="70"/>
-      <c r="G325" s="71"/>
+      <c r="D325" s="45"/>
+      <c r="E325" s="45"/>
+      <c r="F325" s="45"/>
+      <c r="G325" s="46"/>
     </row>
     <row r="326" spans="1:7">
-      <c r="A326" s="44" t="s">
+      <c r="A326" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B326" s="45"/>
-      <c r="C326" s="69">
+      <c r="B326" s="52"/>
+      <c r="C326" s="47">
         <v>43048</v>
       </c>
-      <c r="D326" s="70"/>
-      <c r="E326" s="70"/>
-      <c r="F326" s="70"/>
-      <c r="G326" s="71"/>
+      <c r="D326" s="45"/>
+      <c r="E326" s="45"/>
+      <c r="F326" s="45"/>
+      <c r="G326" s="46"/>
     </row>
     <row r="327" spans="1:7">
-      <c r="A327" s="49" t="s">
+      <c r="A327" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B327" s="45"/>
-      <c r="C327" s="72" t="s">
+      <c r="B327" s="52"/>
+      <c r="C327" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="D327" s="70"/>
-      <c r="E327" s="70"/>
-      <c r="F327" s="70"/>
-      <c r="G327" s="71"/>
+      <c r="D327" s="45"/>
+      <c r="E327" s="45"/>
+      <c r="F327" s="45"/>
+      <c r="G327" s="46"/>
     </row>
     <row r="328" spans="1:7">
-      <c r="A328" s="49" t="s">
+      <c r="A328" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B328" s="50"/>
-      <c r="C328" s="72" t="s">
+      <c r="B328" s="49"/>
+      <c r="C328" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="D328" s="70"/>
-      <c r="E328" s="70"/>
-      <c r="F328" s="70"/>
-      <c r="G328" s="71"/>
+      <c r="D328" s="45"/>
+      <c r="E328" s="45"/>
+      <c r="F328" s="45"/>
+      <c r="G328" s="46"/>
     </row>
     <row r="331" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A331" s="62" t="s">
+      <c r="A331" s="54" t="s">
         <v>297</v>
       </c>
-      <c r="B331" s="62"/>
-      <c r="C331" s="62"/>
-      <c r="D331" s="62"/>
-      <c r="E331" s="62"/>
-      <c r="F331" s="62"/>
-      <c r="G331" s="62"/>
+      <c r="B331" s="54"/>
+      <c r="C331" s="54"/>
+      <c r="D331" s="54"/>
+      <c r="E331" s="54"/>
+      <c r="F331" s="54"/>
+      <c r="G331" s="54"/>
     </row>
     <row r="332" spans="1:7" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A332" s="54" t="s">
+      <c r="A332" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B332" s="55"/>
-      <c r="C332" s="65" t="s">
+      <c r="B332" s="56"/>
+      <c r="C332" s="73" t="s">
         <v>298</v>
       </c>
-      <c r="D332" s="66"/>
-      <c r="E332" s="66"/>
-      <c r="F332" s="66"/>
-      <c r="G332" s="67"/>
+      <c r="D332" s="74"/>
+      <c r="E332" s="74"/>
+      <c r="F332" s="74"/>
+      <c r="G332" s="75"/>
     </row>
     <row r="333" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A333" s="54" t="s">
+      <c r="A333" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B333" s="55"/>
-      <c r="C333" s="89"/>
-      <c r="D333" s="77"/>
-      <c r="E333" s="77"/>
-      <c r="F333" s="77"/>
-      <c r="G333" s="78"/>
+      <c r="B333" s="56"/>
+      <c r="C333" s="70"/>
+      <c r="D333" s="64"/>
+      <c r="E333" s="64"/>
+      <c r="F333" s="64"/>
+      <c r="G333" s="65"/>
     </row>
     <row r="334" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A334" s="54" t="s">
+      <c r="A334" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B334" s="55"/>
-      <c r="C334" s="59" t="s">
+      <c r="B334" s="56"/>
+      <c r="C334" s="63" t="s">
         <v>299</v>
       </c>
-      <c r="D334" s="60"/>
-      <c r="E334" s="60"/>
-      <c r="F334" s="60"/>
-      <c r="G334" s="61"/>
+      <c r="D334" s="71"/>
+      <c r="E334" s="71"/>
+      <c r="F334" s="71"/>
+      <c r="G334" s="72"/>
     </row>
     <row r="335" spans="1:7" ht="17.25" customHeight="1">
       <c r="A335" s="30"/>
@@ -8224,14 +8224,14 @@
       <c r="A336" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B336" s="44" t="s">
+      <c r="B336" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C336" s="45"/>
-      <c r="D336" s="44" t="s">
+      <c r="C336" s="52"/>
+      <c r="D336" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E336" s="45"/>
+      <c r="E336" s="52"/>
       <c r="F336" s="21" t="s">
         <v>70</v>
       </c>
@@ -8243,14 +8243,14 @@
       <c r="A337" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="B337" s="51" t="s">
+      <c r="B337" s="50" t="s">
         <v>301</v>
       </c>
-      <c r="C337" s="52"/>
-      <c r="D337" s="51" t="s">
+      <c r="C337" s="69"/>
+      <c r="D337" s="50" t="s">
         <v>302</v>
       </c>
-      <c r="E337" s="73"/>
+      <c r="E337" s="51"/>
       <c r="F337" s="29"/>
       <c r="G337" s="29"/>
     </row>
@@ -8258,14 +8258,14 @@
       <c r="A338" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="B338" s="51" t="s">
+      <c r="B338" s="50" t="s">
         <v>304</v>
       </c>
-      <c r="C338" s="52"/>
-      <c r="D338" s="51" t="s">
+      <c r="C338" s="69"/>
+      <c r="D338" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E338" s="52"/>
+      <c r="E338" s="69"/>
       <c r="F338" s="29"/>
       <c r="G338" s="29"/>
     </row>
@@ -8273,14 +8273,14 @@
       <c r="A339" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="B339" s="51" t="s">
+      <c r="B339" s="50" t="s">
         <v>306</v>
       </c>
-      <c r="C339" s="52"/>
-      <c r="D339" s="51" t="s">
+      <c r="C339" s="69"/>
+      <c r="D339" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E339" s="52"/>
+      <c r="E339" s="69"/>
       <c r="F339" s="29"/>
       <c r="G339" s="29"/>
     </row>
@@ -8288,14 +8288,14 @@
       <c r="A340" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="B340" s="51" t="s">
+      <c r="B340" s="50" t="s">
         <v>308</v>
       </c>
-      <c r="C340" s="52"/>
-      <c r="D340" s="51" t="s">
+      <c r="C340" s="69"/>
+      <c r="D340" s="50" t="s">
         <v>309</v>
       </c>
-      <c r="E340" s="73"/>
+      <c r="E340" s="51"/>
       <c r="F340" s="29"/>
       <c r="G340" s="29"/>
     </row>
@@ -8303,14 +8303,14 @@
       <c r="A341" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="B341" s="51" t="s">
+      <c r="B341" s="50" t="s">
         <v>311</v>
       </c>
-      <c r="C341" s="52"/>
-      <c r="D341" s="51" t="s">
+      <c r="C341" s="69"/>
+      <c r="D341" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E341" s="52"/>
+      <c r="E341" s="69"/>
       <c r="F341" s="29"/>
       <c r="G341" s="29"/>
     </row>
@@ -8318,109 +8318,109 @@
       <c r="A342" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="B342" s="51" t="s">
+      <c r="B342" s="50" t="s">
         <v>313</v>
       </c>
-      <c r="C342" s="52"/>
-      <c r="D342" s="51" t="s">
+      <c r="C342" s="69"/>
+      <c r="D342" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E342" s="52"/>
+      <c r="E342" s="69"/>
       <c r="F342" s="29"/>
       <c r="G342" s="29"/>
     </row>
     <row r="343" spans="1:7" ht="15" customHeight="1">
-      <c r="A343" s="49" t="s">
+      <c r="A343" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="B343" s="45"/>
-      <c r="C343" s="72"/>
-      <c r="D343" s="70"/>
-      <c r="E343" s="70"/>
-      <c r="F343" s="70"/>
-      <c r="G343" s="71"/>
+      <c r="B343" s="52"/>
+      <c r="C343" s="44"/>
+      <c r="D343" s="45"/>
+      <c r="E343" s="45"/>
+      <c r="F343" s="45"/>
+      <c r="G343" s="46"/>
     </row>
     <row r="344" spans="1:7">
-      <c r="A344" s="44" t="s">
+      <c r="A344" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B344" s="45"/>
-      <c r="C344" s="69"/>
-      <c r="D344" s="70"/>
-      <c r="E344" s="70"/>
-      <c r="F344" s="70"/>
-      <c r="G344" s="71"/>
+      <c r="B344" s="52"/>
+      <c r="C344" s="47"/>
+      <c r="D344" s="45"/>
+      <c r="E344" s="45"/>
+      <c r="F344" s="45"/>
+      <c r="G344" s="46"/>
     </row>
     <row r="345" spans="1:7">
-      <c r="A345" s="49" t="s">
+      <c r="A345" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B345" s="45"/>
-      <c r="C345" s="72"/>
-      <c r="D345" s="70"/>
-      <c r="E345" s="70"/>
-      <c r="F345" s="70"/>
-      <c r="G345" s="71"/>
+      <c r="B345" s="52"/>
+      <c r="C345" s="44"/>
+      <c r="D345" s="45"/>
+      <c r="E345" s="45"/>
+      <c r="F345" s="45"/>
+      <c r="G345" s="46"/>
     </row>
     <row r="346" spans="1:7">
-      <c r="A346" s="49" t="s">
+      <c r="A346" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B346" s="50"/>
-      <c r="C346" s="72"/>
-      <c r="D346" s="70"/>
-      <c r="E346" s="70"/>
-      <c r="F346" s="70"/>
-      <c r="G346" s="71"/>
+      <c r="B346" s="49"/>
+      <c r="C346" s="44"/>
+      <c r="D346" s="45"/>
+      <c r="E346" s="45"/>
+      <c r="F346" s="45"/>
+      <c r="G346" s="46"/>
     </row>
     <row r="348" spans="1:7" ht="20.25" customHeight="1"/>
     <row r="350" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A350" s="62" t="s">
+      <c r="A350" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="B350" s="62"/>
-      <c r="C350" s="62"/>
-      <c r="D350" s="62"/>
-      <c r="E350" s="62"/>
-      <c r="F350" s="62"/>
-      <c r="G350" s="62"/>
+      <c r="B350" s="54"/>
+      <c r="C350" s="54"/>
+      <c r="D350" s="54"/>
+      <c r="E350" s="54"/>
+      <c r="F350" s="54"/>
+      <c r="G350" s="54"/>
     </row>
     <row r="351" spans="1:7" ht="15" thickTop="1">
-      <c r="A351" s="54" t="s">
+      <c r="A351" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B351" s="55"/>
-      <c r="C351" s="65" t="s">
+      <c r="B351" s="56"/>
+      <c r="C351" s="73" t="s">
         <v>315</v>
       </c>
-      <c r="D351" s="66"/>
-      <c r="E351" s="66"/>
-      <c r="F351" s="66"/>
-      <c r="G351" s="67"/>
+      <c r="D351" s="74"/>
+      <c r="E351" s="74"/>
+      <c r="F351" s="74"/>
+      <c r="G351" s="75"/>
     </row>
     <row r="352" spans="1:7">
-      <c r="A352" s="54" t="s">
+      <c r="A352" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B352" s="55"/>
-      <c r="C352" s="89"/>
-      <c r="D352" s="77"/>
-      <c r="E352" s="77"/>
-      <c r="F352" s="77"/>
-      <c r="G352" s="78"/>
+      <c r="B352" s="56"/>
+      <c r="C352" s="70"/>
+      <c r="D352" s="64"/>
+      <c r="E352" s="64"/>
+      <c r="F352" s="64"/>
+      <c r="G352" s="65"/>
     </row>
     <row r="353" spans="1:7">
-      <c r="A353" s="54" t="s">
+      <c r="A353" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B353" s="55"/>
-      <c r="C353" s="59" t="s">
+      <c r="B353" s="56"/>
+      <c r="C353" s="63" t="s">
         <v>316</v>
       </c>
-      <c r="D353" s="60"/>
-      <c r="E353" s="60"/>
-      <c r="F353" s="60"/>
-      <c r="G353" s="61"/>
+      <c r="D353" s="71"/>
+      <c r="E353" s="71"/>
+      <c r="F353" s="71"/>
+      <c r="G353" s="72"/>
     </row>
     <row r="354" spans="1:7" ht="15" customHeight="1">
       <c r="A354" s="30"/>
@@ -8435,14 +8435,14 @@
       <c r="A355" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B355" s="44" t="s">
+      <c r="B355" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="C355" s="45"/>
-      <c r="D355" s="44" t="s">
+      <c r="C355" s="52"/>
+      <c r="D355" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E355" s="45"/>
+      <c r="E355" s="52"/>
       <c r="F355" s="21" t="s">
         <v>70</v>
       </c>
@@ -8454,14 +8454,14 @@
       <c r="A356" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="B356" s="51" t="s">
+      <c r="B356" s="50" t="s">
         <v>318</v>
       </c>
-      <c r="C356" s="52"/>
-      <c r="D356" s="51" t="s">
+      <c r="C356" s="69"/>
+      <c r="D356" s="50" t="s">
         <v>319</v>
       </c>
-      <c r="E356" s="52"/>
+      <c r="E356" s="69"/>
       <c r="F356" s="29"/>
       <c r="G356" s="29"/>
     </row>
@@ -8469,14 +8469,14 @@
       <c r="A357" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="B357" s="51" t="s">
+      <c r="B357" s="50" t="s">
         <v>321</v>
       </c>
-      <c r="C357" s="52"/>
-      <c r="D357" s="51" t="s">
+      <c r="C357" s="69"/>
+      <c r="D357" s="50" t="s">
         <v>322</v>
       </c>
-      <c r="E357" s="52"/>
+      <c r="E357" s="69"/>
       <c r="F357" s="29"/>
       <c r="G357" s="29"/>
     </row>
@@ -8484,14 +8484,14 @@
       <c r="A358" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="B358" s="51" t="s">
+      <c r="B358" s="50" t="s">
         <v>324</v>
       </c>
-      <c r="C358" s="52"/>
-      <c r="D358" s="51" t="s">
+      <c r="C358" s="69"/>
+      <c r="D358" s="50" t="s">
         <v>325</v>
       </c>
-      <c r="E358" s="52"/>
+      <c r="E358" s="69"/>
       <c r="F358" s="29"/>
       <c r="G358" s="29"/>
     </row>
@@ -8499,14 +8499,14 @@
       <c r="A359" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="B359" s="51" t="s">
+      <c r="B359" s="50" t="s">
         <v>327</v>
       </c>
-      <c r="C359" s="52"/>
-      <c r="D359" s="51" t="s">
+      <c r="C359" s="69"/>
+      <c r="D359" s="50" t="s">
         <v>328</v>
       </c>
-      <c r="E359" s="52"/>
+      <c r="E359" s="69"/>
       <c r="F359" s="29"/>
       <c r="G359" s="29"/>
     </row>
@@ -8514,14 +8514,14 @@
       <c r="A360" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="B360" s="51" t="s">
+      <c r="B360" s="50" t="s">
         <v>330</v>
       </c>
-      <c r="C360" s="52"/>
-      <c r="D360" s="51" t="s">
+      <c r="C360" s="69"/>
+      <c r="D360" s="50" t="s">
         <v>331</v>
       </c>
-      <c r="E360" s="52"/>
+      <c r="E360" s="69"/>
       <c r="F360" s="29"/>
       <c r="G360" s="29"/>
     </row>
@@ -8529,14 +8529,14 @@
       <c r="A361" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="B361" s="51" t="s">
+      <c r="B361" s="50" t="s">
         <v>333</v>
       </c>
-      <c r="C361" s="52"/>
-      <c r="D361" s="51" t="s">
+      <c r="C361" s="69"/>
+      <c r="D361" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E361" s="52"/>
+      <c r="E361" s="69"/>
       <c r="F361" s="29"/>
       <c r="G361" s="29"/>
     </row>
@@ -8544,97 +8544,570 @@
       <c r="A362" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="B362" s="51" t="s">
+      <c r="B362" s="50" t="s">
         <v>335</v>
       </c>
-      <c r="C362" s="52"/>
-      <c r="D362" s="51" t="s">
+      <c r="C362" s="69"/>
+      <c r="D362" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="E362" s="52"/>
+      <c r="E362" s="69"/>
       <c r="F362" s="29"/>
       <c r="G362" s="29"/>
     </row>
     <row r="363" spans="1:7">
-      <c r="A363" s="49" t="s">
+      <c r="A363" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="B363" s="45"/>
-      <c r="C363" s="72"/>
-      <c r="D363" s="70"/>
-      <c r="E363" s="70"/>
-      <c r="F363" s="70"/>
-      <c r="G363" s="71"/>
+      <c r="B363" s="52"/>
+      <c r="C363" s="44"/>
+      <c r="D363" s="45"/>
+      <c r="E363" s="45"/>
+      <c r="F363" s="45"/>
+      <c r="G363" s="46"/>
     </row>
     <row r="364" spans="1:7">
-      <c r="A364" s="44" t="s">
+      <c r="A364" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B364" s="45"/>
-      <c r="C364" s="69"/>
-      <c r="D364" s="70"/>
-      <c r="E364" s="70"/>
-      <c r="F364" s="70"/>
-      <c r="G364" s="71"/>
+      <c r="B364" s="52"/>
+      <c r="C364" s="47"/>
+      <c r="D364" s="45"/>
+      <c r="E364" s="45"/>
+      <c r="F364" s="45"/>
+      <c r="G364" s="46"/>
     </row>
     <row r="365" spans="1:7">
-      <c r="A365" s="49" t="s">
+      <c r="A365" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B365" s="45"/>
-      <c r="C365" s="72"/>
-      <c r="D365" s="70"/>
-      <c r="E365" s="70"/>
-      <c r="F365" s="70"/>
-      <c r="G365" s="71"/>
+      <c r="B365" s="52"/>
+      <c r="C365" s="44"/>
+      <c r="D365" s="45"/>
+      <c r="E365" s="45"/>
+      <c r="F365" s="45"/>
+      <c r="G365" s="46"/>
     </row>
     <row r="366" spans="1:7">
-      <c r="A366" s="49" t="s">
+      <c r="A366" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B366" s="50"/>
-      <c r="C366" s="72"/>
-      <c r="D366" s="70"/>
-      <c r="E366" s="70"/>
-      <c r="F366" s="70"/>
-      <c r="G366" s="71"/>
+      <c r="B366" s="49"/>
+      <c r="C366" s="44"/>
+      <c r="D366" s="45"/>
+      <c r="E366" s="45"/>
+      <c r="F366" s="45"/>
+      <c r="G366" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="565">
-    <mergeCell ref="C363:G363"/>
-    <mergeCell ref="C364:G364"/>
-    <mergeCell ref="C365:G365"/>
-    <mergeCell ref="C366:G366"/>
-    <mergeCell ref="C122:G122"/>
-    <mergeCell ref="C123:G123"/>
-    <mergeCell ref="C124:G124"/>
-    <mergeCell ref="C125:G125"/>
-    <mergeCell ref="C148:G148"/>
-    <mergeCell ref="C149:G149"/>
-    <mergeCell ref="C150:G150"/>
-    <mergeCell ref="C151:G151"/>
-    <mergeCell ref="C169:G169"/>
-    <mergeCell ref="C170:G170"/>
-    <mergeCell ref="C171:G171"/>
-    <mergeCell ref="C172:G172"/>
-    <mergeCell ref="A328:B328"/>
-    <mergeCell ref="C328:G328"/>
-    <mergeCell ref="B324:C324"/>
-    <mergeCell ref="D324:E324"/>
-    <mergeCell ref="A325:B325"/>
-    <mergeCell ref="C325:G325"/>
-    <mergeCell ref="A326:B326"/>
-    <mergeCell ref="C326:G326"/>
-    <mergeCell ref="A327:B327"/>
-    <mergeCell ref="C327:G327"/>
-    <mergeCell ref="A318:G318"/>
-    <mergeCell ref="A319:B319"/>
-    <mergeCell ref="C319:G319"/>
-    <mergeCell ref="A320:B320"/>
-    <mergeCell ref="C320:G320"/>
-    <mergeCell ref="A321:B321"/>
-    <mergeCell ref="C321:G321"/>
-    <mergeCell ref="A322:G322"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="C253:G253"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="C254:G254"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="C255:G255"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D248:E248"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="D249:E249"/>
+    <mergeCell ref="B250:C250"/>
+    <mergeCell ref="D250:E250"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="C252:G252"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="B244:C244"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="B245:C245"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="B246:C246"/>
+    <mergeCell ref="D246:E246"/>
+    <mergeCell ref="B247:C247"/>
+    <mergeCell ref="D247:E247"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="D238:E238"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="B241:C241"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="C233:G233"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="C234:G234"/>
+    <mergeCell ref="A235:G235"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="D236:E236"/>
+    <mergeCell ref="B237:C237"/>
+    <mergeCell ref="D237:E237"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="C225:G225"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="C226:G226"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="C227:G227"/>
+    <mergeCell ref="A231:G231"/>
+    <mergeCell ref="A232:B232"/>
+    <mergeCell ref="C232:G232"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="C224:G224"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="D215:E215"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="D216:E216"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="D218:E218"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="D219:E219"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="D205:E205"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="D206:E206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="D209:E209"/>
+    <mergeCell ref="A299:B299"/>
+    <mergeCell ref="C299:G299"/>
+    <mergeCell ref="A300:B300"/>
+    <mergeCell ref="C300:G300"/>
+    <mergeCell ref="A316:B316"/>
+    <mergeCell ref="C316:G316"/>
+    <mergeCell ref="B311:C311"/>
+    <mergeCell ref="D311:E311"/>
+    <mergeCell ref="B312:C312"/>
+    <mergeCell ref="D312:E312"/>
+    <mergeCell ref="A313:B313"/>
+    <mergeCell ref="C313:G313"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="C314:G314"/>
+    <mergeCell ref="A315:B315"/>
+    <mergeCell ref="C315:G315"/>
+    <mergeCell ref="A306:B306"/>
+    <mergeCell ref="C306:G306"/>
+    <mergeCell ref="A307:B307"/>
+    <mergeCell ref="C307:G307"/>
+    <mergeCell ref="A308:B308"/>
+    <mergeCell ref="C308:G308"/>
+    <mergeCell ref="A309:G309"/>
+    <mergeCell ref="B310:C310"/>
+    <mergeCell ref="D310:E310"/>
+    <mergeCell ref="A284:B284"/>
+    <mergeCell ref="C284:G284"/>
+    <mergeCell ref="A285:B285"/>
+    <mergeCell ref="C285:G285"/>
+    <mergeCell ref="A286:B286"/>
+    <mergeCell ref="C286:G286"/>
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="C287:G287"/>
+    <mergeCell ref="A305:G305"/>
+    <mergeCell ref="A291:G291"/>
+    <mergeCell ref="A292:B292"/>
+    <mergeCell ref="C292:G292"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="C293:G293"/>
+    <mergeCell ref="A294:B294"/>
+    <mergeCell ref="C294:G294"/>
+    <mergeCell ref="A295:G295"/>
+    <mergeCell ref="B296:C296"/>
+    <mergeCell ref="D296:E296"/>
+    <mergeCell ref="A301:B301"/>
+    <mergeCell ref="C301:G301"/>
+    <mergeCell ref="B297:C297"/>
+    <mergeCell ref="D297:E297"/>
+    <mergeCell ref="A298:B298"/>
+    <mergeCell ref="A279:B279"/>
+    <mergeCell ref="C279:G279"/>
+    <mergeCell ref="A280:G280"/>
+    <mergeCell ref="B281:C281"/>
+    <mergeCell ref="D281:E281"/>
+    <mergeCell ref="B282:C282"/>
+    <mergeCell ref="D282:E282"/>
+    <mergeCell ref="B283:C283"/>
+    <mergeCell ref="D283:E283"/>
+    <mergeCell ref="C298:G298"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A276:G276"/>
+    <mergeCell ref="A277:B277"/>
+    <mergeCell ref="C277:G277"/>
+    <mergeCell ref="A278:B278"/>
+    <mergeCell ref="C278:G278"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="A88:G88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="A66:G66"/>
+    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A180:G180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="C181:G181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="C182:G182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="C183:G183"/>
+    <mergeCell ref="A184:G184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="C261:G261"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="C262:G262"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="C263:G263"/>
+    <mergeCell ref="A264:G264"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="C193:G193"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="C194:G194"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="C195:G195"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="C196:G196"/>
+    <mergeCell ref="A200:G200"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="C201:G201"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="C202:G202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="C203:G203"/>
+    <mergeCell ref="A204:G204"/>
+    <mergeCell ref="A101:G101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="A105:G105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A132:G132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A155:G155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="C156:G156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:G157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="C158:G158"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A331:G331"/>
+    <mergeCell ref="A332:B332"/>
+    <mergeCell ref="C332:G332"/>
+    <mergeCell ref="A333:B333"/>
+    <mergeCell ref="C333:G333"/>
+    <mergeCell ref="A334:B334"/>
+    <mergeCell ref="C334:G334"/>
+    <mergeCell ref="B336:C336"/>
+    <mergeCell ref="D336:E336"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="C271:G271"/>
+    <mergeCell ref="A272:B272"/>
+    <mergeCell ref="C272:G272"/>
+    <mergeCell ref="B267:C267"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="D268:E268"/>
+    <mergeCell ref="A269:B269"/>
+    <mergeCell ref="C269:G269"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="C270:G270"/>
+    <mergeCell ref="A260:G260"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="B337:C337"/>
+    <mergeCell ref="D337:E337"/>
+    <mergeCell ref="B338:C338"/>
+    <mergeCell ref="D338:E338"/>
+    <mergeCell ref="B339:C339"/>
+    <mergeCell ref="D339:E339"/>
+    <mergeCell ref="B340:C340"/>
+    <mergeCell ref="D340:E340"/>
+    <mergeCell ref="B341:C341"/>
+    <mergeCell ref="D341:E341"/>
+    <mergeCell ref="B342:C342"/>
+    <mergeCell ref="D342:E342"/>
+    <mergeCell ref="A343:B343"/>
+    <mergeCell ref="A344:B344"/>
+    <mergeCell ref="A345:B345"/>
+    <mergeCell ref="A346:B346"/>
+    <mergeCell ref="A350:G350"/>
+    <mergeCell ref="A351:B351"/>
+    <mergeCell ref="C351:G351"/>
+    <mergeCell ref="C343:G343"/>
+    <mergeCell ref="C344:G344"/>
+    <mergeCell ref="C345:G345"/>
+    <mergeCell ref="C346:G346"/>
+    <mergeCell ref="B359:C359"/>
+    <mergeCell ref="D359:E359"/>
+    <mergeCell ref="B360:C360"/>
+    <mergeCell ref="D360:E360"/>
+    <mergeCell ref="B361:C361"/>
+    <mergeCell ref="D361:E361"/>
+    <mergeCell ref="B362:C362"/>
+    <mergeCell ref="D362:E362"/>
+    <mergeCell ref="A352:B352"/>
+    <mergeCell ref="C352:G352"/>
+    <mergeCell ref="A353:B353"/>
+    <mergeCell ref="C353:G353"/>
+    <mergeCell ref="B355:C355"/>
+    <mergeCell ref="D355:E355"/>
+    <mergeCell ref="B356:C356"/>
+    <mergeCell ref="D356:E356"/>
+    <mergeCell ref="B357:C357"/>
+    <mergeCell ref="D357:E357"/>
     <mergeCell ref="B323:C323"/>
     <mergeCell ref="D323:E323"/>
     <mergeCell ref="A363:B363"/>
@@ -8659,513 +9132,40 @@
     <mergeCell ref="D191:E191"/>
     <mergeCell ref="B358:C358"/>
     <mergeCell ref="D358:E358"/>
-    <mergeCell ref="B359:C359"/>
-    <mergeCell ref="D359:E359"/>
-    <mergeCell ref="B360:C360"/>
-    <mergeCell ref="D360:E360"/>
-    <mergeCell ref="B361:C361"/>
-    <mergeCell ref="D361:E361"/>
-    <mergeCell ref="B362:C362"/>
-    <mergeCell ref="D362:E362"/>
-    <mergeCell ref="A352:B352"/>
-    <mergeCell ref="C352:G352"/>
-    <mergeCell ref="A353:B353"/>
-    <mergeCell ref="C353:G353"/>
-    <mergeCell ref="B355:C355"/>
-    <mergeCell ref="D355:E355"/>
-    <mergeCell ref="B356:C356"/>
-    <mergeCell ref="D356:E356"/>
-    <mergeCell ref="B357:C357"/>
-    <mergeCell ref="D357:E357"/>
-    <mergeCell ref="B342:C342"/>
-    <mergeCell ref="D342:E342"/>
-    <mergeCell ref="A343:B343"/>
-    <mergeCell ref="A344:B344"/>
-    <mergeCell ref="A345:B345"/>
-    <mergeCell ref="A346:B346"/>
-    <mergeCell ref="A350:G350"/>
-    <mergeCell ref="A351:B351"/>
-    <mergeCell ref="C351:G351"/>
-    <mergeCell ref="C343:G343"/>
-    <mergeCell ref="C344:G344"/>
-    <mergeCell ref="C345:G345"/>
-    <mergeCell ref="C346:G346"/>
-    <mergeCell ref="B337:C337"/>
-    <mergeCell ref="D337:E337"/>
-    <mergeCell ref="B338:C338"/>
-    <mergeCell ref="D338:E338"/>
-    <mergeCell ref="B339:C339"/>
-    <mergeCell ref="D339:E339"/>
-    <mergeCell ref="B340:C340"/>
-    <mergeCell ref="D340:E340"/>
-    <mergeCell ref="B341:C341"/>
-    <mergeCell ref="D341:E341"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="A331:G331"/>
-    <mergeCell ref="A332:B332"/>
-    <mergeCell ref="C332:G332"/>
-    <mergeCell ref="A333:B333"/>
-    <mergeCell ref="C333:G333"/>
-    <mergeCell ref="A334:B334"/>
-    <mergeCell ref="C334:G334"/>
-    <mergeCell ref="B336:C336"/>
-    <mergeCell ref="D336:E336"/>
-    <mergeCell ref="A271:B271"/>
-    <mergeCell ref="C271:G271"/>
-    <mergeCell ref="A272:B272"/>
-    <mergeCell ref="C272:G272"/>
-    <mergeCell ref="B267:C267"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="D268:E268"/>
-    <mergeCell ref="A269:B269"/>
-    <mergeCell ref="C269:G269"/>
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="C270:G270"/>
-    <mergeCell ref="A260:G260"/>
-    <mergeCell ref="A261:B261"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A155:G155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="C156:G156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:G157"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="C158:G158"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C134:G134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="C135:G135"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A132:G132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C133:G133"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="A101:G101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:G103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:G104"/>
-    <mergeCell ref="A105:G105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="C261:G261"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="C262:G262"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="C263:G263"/>
-    <mergeCell ref="A264:G264"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="C193:G193"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="C194:G194"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="C195:G195"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="C196:G196"/>
-    <mergeCell ref="A200:G200"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="C201:G201"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="C202:G202"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="C203:G203"/>
-    <mergeCell ref="A204:G204"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A180:G180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="C181:G181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="C182:G182"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="C183:G183"/>
-    <mergeCell ref="A184:G184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="A66:G66"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="A88:G88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A276:G276"/>
-    <mergeCell ref="A277:B277"/>
-    <mergeCell ref="C277:G277"/>
-    <mergeCell ref="A278:B278"/>
-    <mergeCell ref="C278:G278"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="A84:G84"/>
-    <mergeCell ref="A298:B298"/>
-    <mergeCell ref="A279:B279"/>
-    <mergeCell ref="C279:G279"/>
-    <mergeCell ref="A280:G280"/>
-    <mergeCell ref="B281:C281"/>
-    <mergeCell ref="D281:E281"/>
-    <mergeCell ref="B282:C282"/>
-    <mergeCell ref="D282:E282"/>
-    <mergeCell ref="B283:C283"/>
-    <mergeCell ref="D283:E283"/>
-    <mergeCell ref="C298:G298"/>
-    <mergeCell ref="D310:E310"/>
-    <mergeCell ref="A284:B284"/>
-    <mergeCell ref="C284:G284"/>
-    <mergeCell ref="A285:B285"/>
-    <mergeCell ref="C285:G285"/>
-    <mergeCell ref="A286:B286"/>
-    <mergeCell ref="C286:G286"/>
-    <mergeCell ref="A287:B287"/>
-    <mergeCell ref="C287:G287"/>
-    <mergeCell ref="A305:G305"/>
-    <mergeCell ref="A291:G291"/>
-    <mergeCell ref="A292:B292"/>
-    <mergeCell ref="C292:G292"/>
-    <mergeCell ref="A293:B293"/>
-    <mergeCell ref="C293:G293"/>
-    <mergeCell ref="A294:B294"/>
-    <mergeCell ref="C294:G294"/>
-    <mergeCell ref="A295:G295"/>
-    <mergeCell ref="B296:C296"/>
-    <mergeCell ref="D296:E296"/>
-    <mergeCell ref="A301:B301"/>
-    <mergeCell ref="C301:G301"/>
-    <mergeCell ref="B297:C297"/>
-    <mergeCell ref="D297:E297"/>
-    <mergeCell ref="A299:B299"/>
-    <mergeCell ref="C299:G299"/>
-    <mergeCell ref="A300:B300"/>
-    <mergeCell ref="C300:G300"/>
-    <mergeCell ref="A316:B316"/>
-    <mergeCell ref="C316:G316"/>
-    <mergeCell ref="B311:C311"/>
-    <mergeCell ref="D311:E311"/>
-    <mergeCell ref="B312:C312"/>
-    <mergeCell ref="D312:E312"/>
-    <mergeCell ref="A313:B313"/>
-    <mergeCell ref="C313:G313"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="C314:G314"/>
-    <mergeCell ref="A315:B315"/>
-    <mergeCell ref="C315:G315"/>
-    <mergeCell ref="A306:B306"/>
-    <mergeCell ref="C306:G306"/>
-    <mergeCell ref="A307:B307"/>
-    <mergeCell ref="C307:G307"/>
-    <mergeCell ref="A308:B308"/>
-    <mergeCell ref="C308:G308"/>
-    <mergeCell ref="A309:G309"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="D205:E205"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="D206:E206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D207:E207"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="D208:E208"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="D209:E209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="D215:E215"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="D216:E216"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="D218:E218"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="D219:E219"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="D220:E220"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="C224:G224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="C225:G225"/>
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="C226:G226"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="C227:G227"/>
-    <mergeCell ref="A231:G231"/>
-    <mergeCell ref="A232:B232"/>
-    <mergeCell ref="C232:G232"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="C233:G233"/>
-    <mergeCell ref="A234:B234"/>
-    <mergeCell ref="C234:G234"/>
-    <mergeCell ref="A235:G235"/>
-    <mergeCell ref="B236:C236"/>
-    <mergeCell ref="D236:E236"/>
-    <mergeCell ref="B237:C237"/>
-    <mergeCell ref="D237:E237"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="D238:E238"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="B241:C241"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="D242:E242"/>
-    <mergeCell ref="B243:C243"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="B244:C244"/>
-    <mergeCell ref="D244:E244"/>
-    <mergeCell ref="B245:C245"/>
-    <mergeCell ref="D245:E245"/>
-    <mergeCell ref="B246:C246"/>
-    <mergeCell ref="D246:E246"/>
-    <mergeCell ref="B247:C247"/>
-    <mergeCell ref="D247:E247"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="C253:G253"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="C254:G254"/>
-    <mergeCell ref="A255:B255"/>
-    <mergeCell ref="C255:G255"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D248:E248"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="D249:E249"/>
-    <mergeCell ref="B250:C250"/>
-    <mergeCell ref="D250:E250"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="C252:G252"/>
+    <mergeCell ref="A328:B328"/>
+    <mergeCell ref="C328:G328"/>
+    <mergeCell ref="B324:C324"/>
+    <mergeCell ref="D324:E324"/>
+    <mergeCell ref="A325:B325"/>
+    <mergeCell ref="C325:G325"/>
+    <mergeCell ref="A326:B326"/>
+    <mergeCell ref="C326:G326"/>
+    <mergeCell ref="A327:B327"/>
+    <mergeCell ref="C327:G327"/>
+    <mergeCell ref="C363:G363"/>
+    <mergeCell ref="C364:G364"/>
+    <mergeCell ref="C365:G365"/>
+    <mergeCell ref="C366:G366"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="C148:G148"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="C150:G150"/>
+    <mergeCell ref="C151:G151"/>
+    <mergeCell ref="C169:G169"/>
+    <mergeCell ref="C170:G170"/>
+    <mergeCell ref="C171:G171"/>
+    <mergeCell ref="C172:G172"/>
+    <mergeCell ref="A318:G318"/>
+    <mergeCell ref="A319:B319"/>
+    <mergeCell ref="C319:G319"/>
+    <mergeCell ref="A320:B320"/>
+    <mergeCell ref="C320:G320"/>
+    <mergeCell ref="A321:B321"/>
+    <mergeCell ref="C321:G321"/>
+    <mergeCell ref="A322:G322"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/FYP documentation/FYP_Test_Plan.xlsx
+++ b/FYP documentation/FYP_Test_Plan.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Class_notes\BSS_FYP_TEAM173D\FYP documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan Final" sheetId="4" r:id="rId1"/>
     <sheet name="Test Plan" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="490">
   <si>
     <t>Expected Result</t>
   </si>
@@ -2544,11 +2540,271 @@
   <si>
     <t>Show Error Message: attempts limit exceed in resetPassword</t>
   </si>
+  <si>
+    <t>12. Change Name</t>
+  </si>
+  <si>
+    <t>Test if the user can recover password and forms work perfectly.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t>TC12-001 ~ TC12-005:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t xml:space="preserve"> Access Change Name Menu in Setting
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t>TC12-007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="TimesNewRomanPS-BoldMT"/>
+      </rPr>
+      <t>: Access Change Name Menu in Setting with No Internet Environment including WIFI and Mobile Data</t>
+    </r>
+  </si>
+  <si>
+    <t>TC12-001</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> First Name &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Non-Empty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Last Name
+2. Click "OK"</t>
+    </r>
+  </si>
+  <si>
+    <t>Show Error Message: First Name is Empty!</t>
+  </si>
+  <si>
+    <t>TC12-002</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Non-Empty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> First Name &amp; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Last Name
+2. Click "OK"</t>
+    </r>
+  </si>
+  <si>
+    <t>Show Error Message: Last Name is Empty!</t>
+  </si>
+  <si>
+    <t>TC12-003</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Non-Empty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> First Name &amp; Non-Empty Last Name
+2. Click "OK"</t>
+    </r>
+  </si>
+  <si>
+    <t>Show Error Message: First and Last Name is Empty!</t>
+  </si>
+  <si>
+    <t>TC12-004</t>
+  </si>
+  <si>
+    <t>Name will be changed.</t>
+  </si>
+  <si>
+    <t>TC12-005</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Same Name String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in each Last and First Name
+2. Click "OK"</t>
+    </r>
+  </si>
+  <si>
+    <t>No Update in Changing Name and dismiss the dialog</t>
+  </si>
+  <si>
+    <t>TC12-006</t>
+  </si>
+  <si>
+    <t>1. input String into First and Last Name
+2. Click "OK"</t>
+  </si>
+  <si>
+    <t>show the Dialog Error Message: Unable to execute HTTP request</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Special Symbol, including spaces and integer values,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in First Name and Last Name
+2. Click "OK"</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -2862,7 +3118,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2982,16 +3238,22 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3003,31 +3265,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3039,6 +3286,57 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3056,53 +3354,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3113,10 +3372,10 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3130,12 +3389,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="20% - Accent3" xfId="5" builtinId="38"/>
-    <cellStyle name="Accent1" xfId="4" builtinId="29"/>
-    <cellStyle name="Heading 1" xfId="3" builtinId="16"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="20% - 강조색3" xfId="5" builtinId="38"/>
+    <cellStyle name="강조색1" xfId="4" builtinId="29"/>
+    <cellStyle name="제목" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="제목 1" xfId="3" builtinId="16"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3170,7 +3429,7 @@
         <xdr:cNvPr id="2061" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30BA1063-A16B-4C68-A743-4B420C5465C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30BA1063-A16B-4C68-A743-4B420C5465C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3218,7 +3477,7 @@
         <xdr:cNvPr id="2060" name="Picture 12" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF567FBA-98D6-41F8-887E-3AB62EFCE5E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF567FBA-98D6-41F8-887E-3AB62EFCE5E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3279,7 +3538,7 @@
         <xdr:cNvPr id="2059" name="Picture 11" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E93150-DA75-4658-ACF7-D189E05151A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63E93150-DA75-4658-ACF7-D189E05151A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3340,7 +3599,7 @@
         <xdr:cNvPr id="2058" name="AutoShape 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31457A75-25A1-4182-A274-BF0A57FF81ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31457A75-25A1-4182-A274-BF0A57FF81ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3388,7 +3647,7 @@
         <xdr:cNvPr id="2057" name="AutoShape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD5E9B17-BBE9-4F3F-8C7B-720ECD2D681E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD5E9B17-BBE9-4F3F-8C7B-720ECD2D681E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3436,7 +3695,7 @@
         <xdr:cNvPr id="2056" name="AutoShape 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF2AA01-B252-4B3A-A375-0E01973F5F28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACF2AA01-B252-4B3A-A375-0E01973F5F28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3484,7 +3743,7 @@
         <xdr:cNvPr id="2055" name="Picture 7" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65879D11-6224-4C7F-89C2-EB96196F1A0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65879D11-6224-4C7F-89C2-EB96196F1A0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3545,7 +3804,7 @@
         <xdr:cNvPr id="2054" name="Picture 6" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CF822E1-047C-4A3B-84DC-EC8AC8269EFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CF822E1-047C-4A3B-84DC-EC8AC8269EFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3606,7 +3865,7 @@
         <xdr:cNvPr id="2053" name="Picture 5" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04925A52-F4C6-4CD2-894B-53641F217E98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04925A52-F4C6-4CD2-894B-53641F217E98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3667,7 +3926,7 @@
         <xdr:cNvPr id="2052" name="Picture 4" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABFA5086-6E08-48C0-9ACC-F28827F67131}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ABFA5086-6E08-48C0-9ACC-F28827F67131}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3728,7 +3987,7 @@
         <xdr:cNvPr id="2051" name="Picture 3" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E4935A-4571-48AC-8BC5-8DE7A584B4D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57E4935A-4571-48AC-8BC5-8DE7A584B4D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3789,7 +4048,7 @@
         <xdr:cNvPr id="2050" name="Picture 2" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C78A6D-821A-410B-9678-567D6BA6A13D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73C78A6D-821A-410B-9678-567D6BA6A13D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3850,7 +4109,7 @@
         <xdr:cNvPr id="2049" name="Picture 1" descr="out?google_nid=adroll5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0583EF1F-95CC-4F68-83EF-C3E41E3B377C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0583EF1F-95CC-4F68-83EF-C3E41E3B377C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4185,18 +4444,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I366"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A18" activeCellId="25" sqref="A337:A342 A356:A362 A324 A324 A311:A312 A297 A297 A283 A283 A282 A282 A266:A268 A237:A251 A206:A223 A186:A192 A161:A168 A138:A147 A107:A121 A90:A92 A68:A73 A55 A55 A36:A41 A35 A35 A9:A18"/>
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M268" sqref="M268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4213,15 +4472,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="40.950000000000003" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="88"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
     </row>
@@ -4237,15 +4496,15 @@
       <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="31.2" customHeight="1" thickBot="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
     </row>
@@ -4254,13 +4513,13 @@
         <v>65</v>
       </c>
       <c r="B4" s="56"/>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
     </row>
@@ -4269,11 +4528,11 @@
         <v>66</v>
       </c>
       <c r="B5" s="56"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="62"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
     </row>
@@ -4282,22 +4541,22 @@
         <v>67</v>
       </c>
       <c r="B6" s="56"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="65"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79"/>
       <c r="H6" s="17"/>
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="66"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="68"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="82"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
     </row>
@@ -4305,14 +4564,14 @@
       <c r="A8" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53" t="s">
+      <c r="C8" s="46"/>
+      <c r="D8" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="52"/>
+      <c r="E8" s="46"/>
       <c r="F8" s="21" t="s">
         <v>70</v>
       </c>
@@ -4324,14 +4583,14 @@
       <c r="A9" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="50" t="s">
+      <c r="C9" s="74"/>
+      <c r="D9" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="51"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="27" t="s">
         <v>86</v>
       </c>
@@ -4343,14 +4602,14 @@
       <c r="A10" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="50" t="s">
+      <c r="C10" s="74"/>
+      <c r="D10" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="69"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="27" t="s">
         <v>111</v>
       </c>
@@ -4362,14 +4621,14 @@
       <c r="A11" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="52" t="s">
         <v>336</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="50" t="s">
+      <c r="C11" s="74"/>
+      <c r="D11" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E11" s="69"/>
+      <c r="E11" s="53"/>
       <c r="F11" s="27" t="s">
         <v>337</v>
       </c>
@@ -4381,14 +4640,14 @@
       <c r="A12" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="50" t="s">
+      <c r="C12" s="74"/>
+      <c r="D12" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E12" s="69"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="27" t="s">
         <v>115</v>
       </c>
@@ -4400,14 +4659,14 @@
       <c r="A13" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="50" t="s">
+      <c r="C13" s="53"/>
+      <c r="D13" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E13" s="69"/>
+      <c r="E13" s="53"/>
       <c r="F13" s="27" t="s">
         <v>115</v>
       </c>
@@ -4419,14 +4678,14 @@
       <c r="A14" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="50" t="s">
+      <c r="C14" s="53"/>
+      <c r="D14" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E14" s="69"/>
+      <c r="E14" s="53"/>
       <c r="F14" s="27" t="s">
         <v>115</v>
       </c>
@@ -4438,14 +4697,14 @@
       <c r="A15" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="50" t="s">
+      <c r="C15" s="83"/>
+      <c r="D15" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="69"/>
+      <c r="E15" s="53"/>
       <c r="F15" s="28" t="s">
         <v>111</v>
       </c>
@@ -4457,14 +4716,14 @@
       <c r="A16" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="84"/>
-      <c r="D16" s="50" t="s">
+      <c r="C16" s="83"/>
+      <c r="D16" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E16" s="69"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="28" t="s">
         <v>115</v>
       </c>
@@ -4476,14 +4735,14 @@
       <c r="A17" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="50" t="s">
+      <c r="C17" s="83"/>
+      <c r="D17" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E17" s="69"/>
+      <c r="E17" s="53"/>
       <c r="F17" s="28" t="s">
         <v>115</v>
       </c>
@@ -4495,14 +4754,14 @@
       <c r="A18" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="C18" s="84"/>
-      <c r="D18" s="50" t="s">
+      <c r="C18" s="83"/>
+      <c r="D18" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="69"/>
+      <c r="E18" s="53"/>
       <c r="F18" s="28" t="s">
         <v>111</v>
       </c>
@@ -4511,56 +4770,56 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="44" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="46"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="72"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="47">
+      <c r="B20" s="46"/>
+      <c r="C20" s="70">
         <v>43014</v>
       </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="46"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="72"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="44" t="s">
+      <c r="B21" s="46"/>
+      <c r="C21" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="72"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="44" t="s">
+      <c r="B22" s="51"/>
+      <c r="C22" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="46"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="72"/>
     </row>
     <row r="23" spans="1:7" ht="14.4" customHeight="1">
       <c r="A23" s="18"/>
@@ -4609,74 +4868,74 @@
     </row>
     <row r="28" spans="1:7" ht="12" customHeight="1"/>
     <row r="29" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
     </row>
     <row r="30" spans="1:7" ht="15" thickTop="1">
-      <c r="A30" s="76" t="s">
+      <c r="A30" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="73" t="s">
+      <c r="B30" s="65"/>
+      <c r="C30" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="75"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="68"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="55" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="56"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="62"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="55" t="s">
         <v>67</v>
       </c>
       <c r="B32" s="56"/>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="72"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="62"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="79"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="81"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="49"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="53" t="s">
+      <c r="C34" s="46"/>
+      <c r="D34" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="52"/>
+      <c r="E34" s="46"/>
       <c r="F34" s="21" t="s">
         <v>70</v>
       </c>
@@ -4688,14 +4947,14 @@
       <c r="A35" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="B35" s="82" t="s">
+      <c r="B35" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="83"/>
-      <c r="D35" s="44" t="s">
+      <c r="C35" s="85"/>
+      <c r="D35" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="46"/>
+      <c r="E35" s="72"/>
       <c r="F35" s="20" t="s">
         <v>102</v>
       </c>
@@ -4707,14 +4966,14 @@
       <c r="A36" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B36" s="82" t="s">
+      <c r="B36" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="83"/>
-      <c r="D36" s="50" t="s">
+      <c r="C36" s="85"/>
+      <c r="D36" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E36" s="69"/>
+      <c r="E36" s="53"/>
       <c r="F36" s="20" t="s">
         <v>100</v>
       </c>
@@ -4726,14 +4985,14 @@
       <c r="A37" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="B37" s="82" t="s">
+      <c r="B37" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="83"/>
-      <c r="D37" s="50" t="s">
+      <c r="C37" s="85"/>
+      <c r="D37" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="69"/>
+      <c r="E37" s="53"/>
       <c r="F37" s="20" t="s">
         <v>101</v>
       </c>
@@ -4745,14 +5004,14 @@
       <c r="A38" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="B38" s="82" t="s">
+      <c r="B38" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="83"/>
-      <c r="D38" s="50" t="s">
+      <c r="C38" s="85"/>
+      <c r="D38" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="69"/>
+      <c r="E38" s="53"/>
       <c r="F38" s="20" t="s">
         <v>99</v>
       </c>
@@ -4764,14 +5023,14 @@
       <c r="A39" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="52" t="s">
         <v>340</v>
       </c>
-      <c r="C39" s="69"/>
-      <c r="D39" s="50" t="s">
+      <c r="C39" s="53"/>
+      <c r="D39" s="52" t="s">
         <v>342</v>
       </c>
-      <c r="E39" s="69"/>
+      <c r="E39" s="53"/>
       <c r="F39" s="27" t="s">
         <v>343</v>
       </c>
@@ -4783,14 +5042,14 @@
       <c r="A40" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="C40" s="69"/>
-      <c r="D40" s="50" t="s">
+      <c r="C40" s="53"/>
+      <c r="D40" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="E40" s="69"/>
+      <c r="E40" s="53"/>
       <c r="F40" s="29" t="s">
         <v>150</v>
       </c>
@@ -4802,14 +5061,14 @@
       <c r="A41" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="52" t="s">
         <v>341</v>
       </c>
-      <c r="C41" s="69"/>
-      <c r="D41" s="50" t="s">
+      <c r="C41" s="53"/>
+      <c r="D41" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E41" s="69"/>
+      <c r="E41" s="53"/>
       <c r="F41" s="27" t="s">
         <v>147</v>
       </c>
@@ -4818,126 +5077,126 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="52"/>
-      <c r="C42" s="44" t="s">
+      <c r="B42" s="46"/>
+      <c r="C42" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="46"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="72"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="52"/>
-      <c r="C43" s="47">
+      <c r="B43" s="46"/>
+      <c r="C43" s="70">
         <v>43042</v>
       </c>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="46"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="72"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="48" t="s">
+      <c r="A44" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="49"/>
-      <c r="C44" s="44" t="s">
+      <c r="B44" s="51"/>
+      <c r="C44" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="45"/>
-      <c r="G44" s="46"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="72"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="48" t="s">
+      <c r="A45" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="44" t="s">
+      <c r="B45" s="51"/>
+      <c r="C45" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="46"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="72"/>
     </row>
     <row r="49" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A49" s="54" t="s">
+      <c r="A49" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63"/>
     </row>
     <row r="50" spans="1:7" ht="15" thickTop="1">
       <c r="A50" s="55" t="s">
         <v>65</v>
       </c>
       <c r="B50" s="56"/>
-      <c r="C50" s="57" t="s">
+      <c r="C50" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="59"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="77"/>
     </row>
     <row r="51" spans="1:7" ht="16.95" customHeight="1">
       <c r="A51" s="55" t="s">
         <v>66</v>
       </c>
       <c r="B51" s="56"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="62"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="59"/>
     </row>
     <row r="52" spans="1:7" ht="18.75" customHeight="1">
       <c r="A52" s="55" t="s">
         <v>67</v>
       </c>
       <c r="B52" s="56"/>
-      <c r="C52" s="63" t="s">
+      <c r="C52" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="64"/>
-      <c r="E52" s="64"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="65"/>
+      <c r="D52" s="78"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="79"/>
     </row>
     <row r="53" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A53" s="66"/>
-      <c r="B53" s="67"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="68"/>
+      <c r="A53" s="80"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="82"/>
     </row>
     <row r="54" spans="1:7" ht="27" customHeight="1">
       <c r="A54" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="53" t="s">
+      <c r="B54" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="52"/>
-      <c r="D54" s="53" t="s">
+      <c r="C54" s="46"/>
+      <c r="D54" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="E54" s="52"/>
+      <c r="E54" s="46"/>
       <c r="F54" s="21" t="s">
         <v>70</v>
       </c>
@@ -4949,14 +5208,14 @@
       <c r="A55" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="51"/>
-      <c r="D55" s="50" t="s">
+      <c r="C55" s="74"/>
+      <c r="D55" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="E55" s="51"/>
+      <c r="E55" s="74"/>
       <c r="F55" s="29" t="s">
         <v>127</v>
       </c>
@@ -4965,126 +5224,126 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A56" s="48" t="s">
+      <c r="A56" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B56" s="52"/>
-      <c r="C56" s="44" t="s">
+      <c r="B56" s="46"/>
+      <c r="C56" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-      <c r="F56" s="45"/>
-      <c r="G56" s="46"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="72"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="53" t="s">
+      <c r="A57" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="47">
+      <c r="B57" s="46"/>
+      <c r="C57" s="70">
         <v>43046</v>
       </c>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="46"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="72"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="48" t="s">
+      <c r="A58" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="52"/>
-      <c r="C58" s="44" t="s">
+      <c r="B58" s="46"/>
+      <c r="C58" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="46"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="72"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="48" t="s">
+      <c r="A59" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="49"/>
-      <c r="C59" s="44" t="s">
+      <c r="B59" s="51"/>
+      <c r="C59" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="46"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="72"/>
     </row>
     <row r="62" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A62" s="54" t="s">
+      <c r="A62" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="B62" s="54"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
     </row>
     <row r="63" spans="1:7" ht="15" thickTop="1">
       <c r="A63" s="55" t="s">
         <v>65</v>
       </c>
       <c r="B63" s="56"/>
-      <c r="C63" s="57" t="s">
+      <c r="C63" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="D63" s="58"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
-      <c r="G63" s="59"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="77"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="55" t="s">
         <v>66</v>
       </c>
       <c r="B64" s="56"/>
-      <c r="C64" s="60"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="62"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="58"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="58"/>
+      <c r="G64" s="59"/>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1">
       <c r="A65" s="55" t="s">
         <v>67</v>
       </c>
       <c r="B65" s="56"/>
-      <c r="C65" s="63" t="s">
+      <c r="C65" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="65"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="78"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="79"/>
     </row>
     <row r="66" spans="1:7" ht="21" customHeight="1">
-      <c r="A66" s="66"/>
-      <c r="B66" s="67"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="68"/>
+      <c r="A66" s="80"/>
+      <c r="B66" s="81"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="82"/>
     </row>
     <row r="67" spans="1:7" ht="56.4" customHeight="1">
       <c r="A67" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="53" t="s">
+      <c r="B67" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="52"/>
-      <c r="D67" s="53" t="s">
+      <c r="C67" s="46"/>
+      <c r="D67" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="E67" s="52"/>
+      <c r="E67" s="46"/>
       <c r="F67" s="21" t="s">
         <v>70</v>
       </c>
@@ -5096,14 +5355,14 @@
       <c r="A68" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="B68" s="50" t="s">
+      <c r="B68" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="51"/>
-      <c r="D68" s="50" t="s">
+      <c r="C68" s="74"/>
+      <c r="D68" s="52" t="s">
         <v>344</v>
       </c>
-      <c r="E68" s="51"/>
+      <c r="E68" s="74"/>
       <c r="F68" s="29" t="s">
         <v>117</v>
       </c>
@@ -5115,14 +5374,14 @@
       <c r="A69" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="B69" s="50" t="s">
+      <c r="B69" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="C69" s="51"/>
-      <c r="D69" s="50" t="s">
+      <c r="C69" s="74"/>
+      <c r="D69" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="E69" s="51"/>
+      <c r="E69" s="74"/>
       <c r="F69" s="29" t="s">
         <v>118</v>
       </c>
@@ -5134,14 +5393,14 @@
       <c r="A70" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="B70" s="50" t="s">
+      <c r="B70" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="C70" s="51"/>
-      <c r="D70" s="50" t="s">
+      <c r="C70" s="74"/>
+      <c r="D70" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="E70" s="51"/>
+      <c r="E70" s="74"/>
       <c r="F70" s="29" t="s">
         <v>119</v>
       </c>
@@ -5153,14 +5412,14 @@
       <c r="A71" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="B71" s="50" t="s">
+      <c r="B71" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="C71" s="51"/>
-      <c r="D71" s="50" t="s">
+      <c r="C71" s="74"/>
+      <c r="D71" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="E71" s="51"/>
+      <c r="E71" s="74"/>
       <c r="F71" s="29" t="s">
         <v>120</v>
       </c>
@@ -5172,14 +5431,14 @@
       <c r="A72" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="B72" s="50" t="s">
+      <c r="B72" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="51"/>
-      <c r="D72" s="50" t="s">
+      <c r="C72" s="74"/>
+      <c r="D72" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="E72" s="51"/>
+      <c r="E72" s="74"/>
       <c r="F72" s="29" t="s">
         <v>124</v>
       </c>
@@ -5191,138 +5450,138 @@
       <c r="A73" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="B73" s="50" t="s">
+      <c r="B73" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="C73" s="51"/>
-      <c r="D73" s="50" t="s">
+      <c r="C73" s="74"/>
+      <c r="D73" s="52" t="s">
         <v>346</v>
       </c>
-      <c r="E73" s="51"/>
+      <c r="E73" s="74"/>
       <c r="F73" s="29"/>
       <c r="G73" s="29"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="48" t="s">
+      <c r="A74" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="52"/>
-      <c r="C74" s="44" t="s">
+      <c r="B74" s="46"/>
+      <c r="C74" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="D74" s="45"/>
-      <c r="E74" s="45"/>
-      <c r="F74" s="45"/>
-      <c r="G74" s="46"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="72"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="53" t="s">
+      <c r="A75" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="52"/>
-      <c r="C75" s="47">
+      <c r="B75" s="46"/>
+      <c r="C75" s="70">
         <v>43045</v>
       </c>
-      <c r="D75" s="45"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="46"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="72"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="48" t="s">
+      <c r="A76" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="52"/>
-      <c r="C76" s="44" t="s">
+      <c r="B76" s="46"/>
+      <c r="C76" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="D76" s="45"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="45"/>
-      <c r="G76" s="46"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="71"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="72"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="48" t="s">
+      <c r="A77" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B77" s="49"/>
-      <c r="C77" s="44" t="s">
+      <c r="B77" s="51"/>
+      <c r="C77" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="D77" s="45"/>
-      <c r="E77" s="45"/>
-      <c r="F77" s="45"/>
-      <c r="G77" s="46"/>
+      <c r="D77" s="71"/>
+      <c r="E77" s="71"/>
+      <c r="F77" s="71"/>
+      <c r="G77" s="72"/>
     </row>
     <row r="84" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A84" s="54" t="s">
+      <c r="A84" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="B84" s="54"/>
-      <c r="C84" s="54"/>
-      <c r="D84" s="54"/>
-      <c r="E84" s="54"/>
-      <c r="F84" s="54"/>
-      <c r="G84" s="54"/>
+      <c r="B84" s="63"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="63"/>
+      <c r="F84" s="63"/>
+      <c r="G84" s="63"/>
     </row>
     <row r="85" spans="1:7" ht="15" thickTop="1">
       <c r="A85" s="55" t="s">
         <v>65</v>
       </c>
       <c r="B85" s="56"/>
-      <c r="C85" s="57" t="s">
+      <c r="C85" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="D85" s="58"/>
-      <c r="E85" s="58"/>
-      <c r="F85" s="58"/>
-      <c r="G85" s="59"/>
+      <c r="D85" s="76"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="76"/>
+      <c r="G85" s="77"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="55" t="s">
         <v>66</v>
       </c>
       <c r="B86" s="56"/>
-      <c r="C86" s="60"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="61"/>
-      <c r="F86" s="61"/>
-      <c r="G86" s="62"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="58"/>
+      <c r="E86" s="58"/>
+      <c r="F86" s="58"/>
+      <c r="G86" s="59"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="55" t="s">
         <v>67</v>
       </c>
       <c r="B87" s="56"/>
-      <c r="C87" s="63" t="s">
+      <c r="C87" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="D87" s="64"/>
-      <c r="E87" s="64"/>
-      <c r="F87" s="64"/>
-      <c r="G87" s="65"/>
+      <c r="D87" s="78"/>
+      <c r="E87" s="78"/>
+      <c r="F87" s="78"/>
+      <c r="G87" s="79"/>
     </row>
     <row r="88" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A88" s="66"/>
-      <c r="B88" s="67"/>
-      <c r="C88" s="67"/>
-      <c r="D88" s="67"/>
-      <c r="E88" s="67"/>
-      <c r="F88" s="67"/>
-      <c r="G88" s="68"/>
+      <c r="A88" s="80"/>
+      <c r="B88" s="81"/>
+      <c r="C88" s="81"/>
+      <c r="D88" s="81"/>
+      <c r="E88" s="81"/>
+      <c r="F88" s="81"/>
+      <c r="G88" s="82"/>
     </row>
     <row r="89" spans="1:7" ht="18" customHeight="1">
       <c r="A89" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B89" s="53" t="s">
+      <c r="B89" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C89" s="52"/>
-      <c r="D89" s="53" t="s">
+      <c r="C89" s="46"/>
+      <c r="D89" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="E89" s="52"/>
+      <c r="E89" s="46"/>
       <c r="F89" s="21" t="s">
         <v>70</v>
       </c>
@@ -5334,14 +5593,14 @@
       <c r="A90" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="B90" s="50" t="s">
+      <c r="B90" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="C90" s="51"/>
-      <c r="D90" s="50" t="s">
+      <c r="C90" s="74"/>
+      <c r="D90" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="E90" s="51"/>
+      <c r="E90" s="74"/>
       <c r="F90" s="29" t="s">
         <v>135</v>
       </c>
@@ -5353,14 +5612,14 @@
       <c r="A91" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="B91" s="50" t="s">
+      <c r="B91" s="52" t="s">
         <v>347</v>
       </c>
-      <c r="C91" s="51"/>
-      <c r="D91" s="50" t="s">
+      <c r="C91" s="74"/>
+      <c r="D91" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="E91" s="51"/>
+      <c r="E91" s="74"/>
       <c r="F91" s="29" t="s">
         <v>138</v>
       </c>
@@ -5372,14 +5631,14 @@
       <c r="A92" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B92" s="50" t="s">
+      <c r="B92" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="C92" s="51"/>
-      <c r="D92" s="50" t="s">
+      <c r="C92" s="74"/>
+      <c r="D92" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="E92" s="51"/>
+      <c r="E92" s="74"/>
       <c r="F92" s="29" t="s">
         <v>142</v>
       </c>
@@ -5388,67 +5647,67 @@
       </c>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="48" t="s">
+      <c r="A93" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B93" s="52"/>
-      <c r="C93" s="44" t="s">
+      <c r="B93" s="46"/>
+      <c r="C93" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="D93" s="45"/>
-      <c r="E93" s="45"/>
-      <c r="F93" s="45"/>
-      <c r="G93" s="46"/>
+      <c r="D93" s="71"/>
+      <c r="E93" s="71"/>
+      <c r="F93" s="71"/>
+      <c r="G93" s="72"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="53" t="s">
+      <c r="A94" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B94" s="52"/>
-      <c r="C94" s="47">
+      <c r="B94" s="46"/>
+      <c r="C94" s="70">
         <v>43046</v>
       </c>
-      <c r="D94" s="45"/>
-      <c r="E94" s="45"/>
-      <c r="F94" s="45"/>
-      <c r="G94" s="46"/>
+      <c r="D94" s="71"/>
+      <c r="E94" s="71"/>
+      <c r="F94" s="71"/>
+      <c r="G94" s="72"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="48" t="s">
+      <c r="A95" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B95" s="52"/>
-      <c r="C95" s="44" t="s">
+      <c r="B95" s="46"/>
+      <c r="C95" s="73" t="s">
         <v>139</v>
       </c>
-      <c r="D95" s="45"/>
-      <c r="E95" s="45"/>
-      <c r="F95" s="45"/>
-      <c r="G95" s="46"/>
+      <c r="D95" s="71"/>
+      <c r="E95" s="71"/>
+      <c r="F95" s="71"/>
+      <c r="G95" s="72"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="48" t="s">
+      <c r="A96" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B96" s="49"/>
-      <c r="C96" s="44" t="s">
+      <c r="B96" s="51"/>
+      <c r="C96" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="D96" s="45"/>
-      <c r="E96" s="45"/>
-      <c r="F96" s="45"/>
-      <c r="G96" s="46"/>
+      <c r="D96" s="71"/>
+      <c r="E96" s="71"/>
+      <c r="F96" s="71"/>
+      <c r="G96" s="72"/>
     </row>
     <row r="101" spans="1:9" ht="31.2" customHeight="1" thickBot="1">
-      <c r="A101" s="54" t="s">
+      <c r="A101" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="B101" s="54"/>
-      <c r="C101" s="54"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="54"/>
-      <c r="F101" s="54"/>
-      <c r="G101" s="54"/>
+      <c r="B101" s="63"/>
+      <c r="C101" s="63"/>
+      <c r="D101" s="63"/>
+      <c r="E101" s="63"/>
+      <c r="F101" s="63"/>
+      <c r="G101" s="63"/>
       <c r="H101" s="16"/>
       <c r="I101" s="16"/>
     </row>
@@ -5457,13 +5716,13 @@
         <v>65</v>
       </c>
       <c r="B102" s="56"/>
-      <c r="C102" s="57" t="s">
+      <c r="C102" s="75" t="s">
         <v>218</v>
       </c>
-      <c r="D102" s="58"/>
-      <c r="E102" s="58"/>
-      <c r="F102" s="58"/>
-      <c r="G102" s="59"/>
+      <c r="D102" s="76"/>
+      <c r="E102" s="76"/>
+      <c r="F102" s="76"/>
+      <c r="G102" s="77"/>
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
@@ -5472,11 +5731,11 @@
         <v>66</v>
       </c>
       <c r="B103" s="56"/>
-      <c r="C103" s="60"/>
-      <c r="D103" s="61"/>
-      <c r="E103" s="61"/>
-      <c r="F103" s="61"/>
-      <c r="G103" s="62"/>
+      <c r="C103" s="57"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="58"/>
+      <c r="G103" s="59"/>
       <c r="H103" s="16"/>
       <c r="I103" s="16"/>
     </row>
@@ -5485,24 +5744,24 @@
         <v>67</v>
       </c>
       <c r="B104" s="56"/>
-      <c r="C104" s="63" t="s">
+      <c r="C104" s="60" t="s">
         <v>219</v>
       </c>
-      <c r="D104" s="64"/>
-      <c r="E104" s="64"/>
-      <c r="F104" s="64"/>
-      <c r="G104" s="65"/>
+      <c r="D104" s="78"/>
+      <c r="E104" s="78"/>
+      <c r="F104" s="78"/>
+      <c r="G104" s="79"/>
       <c r="H104" s="17"/>
       <c r="I104" s="18"/>
     </row>
     <row r="105" spans="1:9">
-      <c r="A105" s="66"/>
-      <c r="B105" s="67"/>
-      <c r="C105" s="67"/>
-      <c r="D105" s="67"/>
-      <c r="E105" s="67"/>
-      <c r="F105" s="67"/>
-      <c r="G105" s="68"/>
+      <c r="A105" s="80"/>
+      <c r="B105" s="81"/>
+      <c r="C105" s="81"/>
+      <c r="D105" s="81"/>
+      <c r="E105" s="81"/>
+      <c r="F105" s="81"/>
+      <c r="G105" s="82"/>
       <c r="H105" s="18"/>
       <c r="I105" s="18"/>
     </row>
@@ -5510,14 +5769,14 @@
       <c r="A106" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B106" s="53" t="s">
+      <c r="B106" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C106" s="52"/>
-      <c r="D106" s="53" t="s">
+      <c r="C106" s="46"/>
+      <c r="D106" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="E106" s="52"/>
+      <c r="E106" s="46"/>
       <c r="F106" s="21" t="s">
         <v>70</v>
       </c>
@@ -5529,14 +5788,14 @@
       <c r="A107" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="B107" s="50" t="s">
+      <c r="B107" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="C107" s="51"/>
-      <c r="D107" s="50" t="s">
+      <c r="C107" s="74"/>
+      <c r="D107" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="E107" s="69"/>
+      <c r="E107" s="53"/>
       <c r="F107" s="27"/>
       <c r="G107" s="27"/>
     </row>
@@ -5544,14 +5803,14 @@
       <c r="A108" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="B108" s="50" t="s">
+      <c r="B108" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="C108" s="51"/>
-      <c r="D108" s="50" t="s">
+      <c r="C108" s="74"/>
+      <c r="D108" s="52" t="s">
         <v>223</v>
       </c>
-      <c r="E108" s="51"/>
+      <c r="E108" s="74"/>
       <c r="F108" s="27"/>
       <c r="G108" s="27"/>
     </row>
@@ -5559,14 +5818,14 @@
       <c r="A109" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="B109" s="50" t="s">
+      <c r="B109" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="C109" s="51"/>
-      <c r="D109" s="50" t="s">
+      <c r="C109" s="74"/>
+      <c r="D109" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="E109" s="69"/>
+      <c r="E109" s="53"/>
       <c r="F109" s="27"/>
       <c r="G109" s="27"/>
     </row>
@@ -5574,14 +5833,14 @@
       <c r="A110" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="B110" s="50" t="s">
+      <c r="B110" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="C110" s="51"/>
-      <c r="D110" s="50" t="s">
+      <c r="C110" s="74"/>
+      <c r="D110" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="E110" s="51"/>
+      <c r="E110" s="74"/>
       <c r="F110" s="27"/>
       <c r="G110" s="27"/>
     </row>
@@ -5589,14 +5848,14 @@
       <c r="A111" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B111" s="50" t="s">
+      <c r="B111" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="C111" s="51"/>
-      <c r="D111" s="50" t="s">
+      <c r="C111" s="74"/>
+      <c r="D111" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E111" s="51"/>
+      <c r="E111" s="74"/>
       <c r="F111" s="27"/>
       <c r="G111" s="27"/>
     </row>
@@ -5604,14 +5863,14 @@
       <c r="A112" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="B112" s="50" t="s">
+      <c r="B112" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="C112" s="51"/>
-      <c r="D112" s="50" t="s">
+      <c r="C112" s="74"/>
+      <c r="D112" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E112" s="51"/>
+      <c r="E112" s="74"/>
       <c r="F112" s="27"/>
       <c r="G112" s="27"/>
     </row>
@@ -5619,14 +5878,14 @@
       <c r="A113" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="B113" s="50" t="s">
+      <c r="B113" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="C113" s="51"/>
-      <c r="D113" s="50" t="s">
+      <c r="C113" s="74"/>
+      <c r="D113" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E113" s="51"/>
+      <c r="E113" s="74"/>
       <c r="F113" s="28"/>
       <c r="G113" s="27"/>
     </row>
@@ -5634,14 +5893,14 @@
       <c r="A114" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="B114" s="50" t="s">
+      <c r="B114" s="52" t="s">
         <v>237</v>
       </c>
-      <c r="C114" s="51"/>
-      <c r="D114" s="50" t="s">
+      <c r="C114" s="74"/>
+      <c r="D114" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E114" s="51"/>
+      <c r="E114" s="74"/>
       <c r="F114" s="28"/>
       <c r="G114" s="27"/>
     </row>
@@ -5649,14 +5908,14 @@
       <c r="A115" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="B115" s="50" t="s">
+      <c r="B115" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="C115" s="51"/>
-      <c r="D115" s="50" t="s">
+      <c r="C115" s="74"/>
+      <c r="D115" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E115" s="51"/>
+      <c r="E115" s="74"/>
       <c r="F115" s="28"/>
       <c r="G115" s="27"/>
     </row>
@@ -5664,14 +5923,14 @@
       <c r="A116" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="B116" s="50" t="s">
+      <c r="B116" s="52" t="s">
         <v>241</v>
       </c>
-      <c r="C116" s="51"/>
-      <c r="D116" s="50" t="s">
+      <c r="C116" s="74"/>
+      <c r="D116" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E116" s="51"/>
+      <c r="E116" s="74"/>
       <c r="F116" s="28"/>
       <c r="G116" s="27"/>
     </row>
@@ -5679,14 +5938,14 @@
       <c r="A117" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="B117" s="50" t="s">
+      <c r="B117" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="C117" s="51"/>
-      <c r="D117" s="50" t="s">
+      <c r="C117" s="74"/>
+      <c r="D117" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E117" s="51"/>
+      <c r="E117" s="74"/>
       <c r="F117" s="36"/>
       <c r="G117" s="36"/>
     </row>
@@ -5694,14 +5953,14 @@
       <c r="A118" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="B118" s="50" t="s">
+      <c r="B118" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="C118" s="51"/>
-      <c r="D118" s="50" t="s">
+      <c r="C118" s="74"/>
+      <c r="D118" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E118" s="51"/>
+      <c r="E118" s="74"/>
       <c r="F118" s="36"/>
       <c r="G118" s="36"/>
     </row>
@@ -5709,14 +5968,14 @@
       <c r="A119" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="B119" s="50" t="s">
+      <c r="B119" s="52" t="s">
         <v>247</v>
       </c>
-      <c r="C119" s="51"/>
-      <c r="D119" s="50" t="s">
+      <c r="C119" s="74"/>
+      <c r="D119" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E119" s="51"/>
+      <c r="E119" s="74"/>
       <c r="F119" s="36"/>
       <c r="G119" s="36"/>
     </row>
@@ -5724,14 +5983,14 @@
       <c r="A120" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="B120" s="50" t="s">
+      <c r="B120" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="C120" s="51"/>
-      <c r="D120" s="50" t="s">
+      <c r="C120" s="74"/>
+      <c r="D120" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E120" s="51"/>
+      <c r="E120" s="74"/>
       <c r="F120" s="36"/>
       <c r="G120" s="36"/>
     </row>
@@ -5739,68 +5998,68 @@
       <c r="A121" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="B121" s="50" t="s">
+      <c r="B121" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="C121" s="51"/>
-      <c r="D121" s="50" t="s">
+      <c r="C121" s="74"/>
+      <c r="D121" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E121" s="51"/>
+      <c r="E121" s="74"/>
       <c r="F121" s="36"/>
       <c r="G121" s="36"/>
     </row>
     <row r="122" spans="1:7">
-      <c r="A122" s="53" t="s">
+      <c r="A122" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B122" s="52"/>
-      <c r="C122" s="44" t="s">
+      <c r="B122" s="46"/>
+      <c r="C122" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="D122" s="45"/>
-      <c r="E122" s="45"/>
-      <c r="F122" s="45"/>
-      <c r="G122" s="46"/>
+      <c r="D122" s="71"/>
+      <c r="E122" s="71"/>
+      <c r="F122" s="71"/>
+      <c r="G122" s="72"/>
     </row>
     <row r="123" spans="1:7" ht="14.4" customHeight="1">
-      <c r="A123" s="53" t="s">
+      <c r="A123" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B123" s="52"/>
-      <c r="C123" s="47">
+      <c r="B123" s="46"/>
+      <c r="C123" s="70">
         <v>43014</v>
       </c>
-      <c r="D123" s="45"/>
-      <c r="E123" s="45"/>
-      <c r="F123" s="45"/>
-      <c r="G123" s="46"/>
+      <c r="D123" s="71"/>
+      <c r="E123" s="71"/>
+      <c r="F123" s="71"/>
+      <c r="G123" s="72"/>
     </row>
     <row r="124" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A124" s="48" t="s">
+      <c r="A124" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B124" s="52"/>
-      <c r="C124" s="44" t="s">
+      <c r="B124" s="46"/>
+      <c r="C124" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="D124" s="45"/>
-      <c r="E124" s="45"/>
-      <c r="F124" s="45"/>
-      <c r="G124" s="46"/>
+      <c r="D124" s="71"/>
+      <c r="E124" s="71"/>
+      <c r="F124" s="71"/>
+      <c r="G124" s="72"/>
     </row>
     <row r="125" spans="1:7" ht="15.6" customHeight="1">
-      <c r="A125" s="48" t="s">
+      <c r="A125" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B125" s="49"/>
-      <c r="C125" s="44" t="s">
+      <c r="B125" s="51"/>
+      <c r="C125" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="D125" s="45"/>
-      <c r="E125" s="45"/>
-      <c r="F125" s="45"/>
-      <c r="G125" s="46"/>
+      <c r="D125" s="71"/>
+      <c r="E125" s="71"/>
+      <c r="F125" s="71"/>
+      <c r="G125" s="72"/>
     </row>
     <row r="126" spans="1:7" ht="14.4" customHeight="1">
       <c r="A126" s="18"/>
@@ -5849,52 +6108,52 @@
     </row>
     <row r="131" spans="1:7" ht="15" customHeight="1"/>
     <row r="132" spans="1:7" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A132" s="54" t="s">
+      <c r="A132" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="B132" s="54"/>
-      <c r="C132" s="54"/>
-      <c r="D132" s="54"/>
-      <c r="E132" s="54"/>
-      <c r="F132" s="54"/>
-      <c r="G132" s="54"/>
+      <c r="B132" s="63"/>
+      <c r="C132" s="63"/>
+      <c r="D132" s="63"/>
+      <c r="E132" s="63"/>
+      <c r="F132" s="63"/>
+      <c r="G132" s="63"/>
     </row>
     <row r="133" spans="1:7" ht="15" customHeight="1" thickTop="1">
-      <c r="A133" s="76" t="s">
+      <c r="A133" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="B133" s="77"/>
-      <c r="C133" s="73" t="s">
+      <c r="B133" s="65"/>
+      <c r="C133" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="D133" s="74"/>
-      <c r="E133" s="74"/>
-      <c r="F133" s="74"/>
-      <c r="G133" s="75"/>
+      <c r="D133" s="67"/>
+      <c r="E133" s="67"/>
+      <c r="F133" s="67"/>
+      <c r="G133" s="68"/>
     </row>
     <row r="134" spans="1:7" ht="16.5" customHeight="1">
       <c r="A134" s="55" t="s">
         <v>66</v>
       </c>
       <c r="B134" s="56"/>
-      <c r="C134" s="60"/>
-      <c r="D134" s="61"/>
-      <c r="E134" s="61"/>
-      <c r="F134" s="61"/>
-      <c r="G134" s="62"/>
+      <c r="C134" s="57"/>
+      <c r="D134" s="58"/>
+      <c r="E134" s="58"/>
+      <c r="F134" s="58"/>
+      <c r="G134" s="59"/>
     </row>
     <row r="135" spans="1:7" ht="12" customHeight="1">
       <c r="A135" s="55" t="s">
         <v>67</v>
       </c>
       <c r="B135" s="56"/>
-      <c r="C135" s="63" t="s">
+      <c r="C135" s="60" t="s">
         <v>219</v>
       </c>
-      <c r="D135" s="71"/>
-      <c r="E135" s="71"/>
-      <c r="F135" s="71"/>
-      <c r="G135" s="72"/>
+      <c r="D135" s="61"/>
+      <c r="E135" s="61"/>
+      <c r="F135" s="61"/>
+      <c r="G135" s="62"/>
     </row>
     <row r="136" spans="1:7" ht="15" customHeight="1">
       <c r="A136" s="33"/>
@@ -5909,14 +6168,14 @@
       <c r="A137" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B137" s="53" t="s">
+      <c r="B137" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C137" s="52"/>
-      <c r="D137" s="53" t="s">
+      <c r="C137" s="46"/>
+      <c r="D137" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="E137" s="52"/>
+      <c r="E137" s="46"/>
       <c r="F137" s="21" t="s">
         <v>70</v>
       </c>
@@ -5928,14 +6187,14 @@
       <c r="A138" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="B138" s="50" t="s">
+      <c r="B138" s="52" t="s">
         <v>255</v>
       </c>
-      <c r="C138" s="69"/>
-      <c r="D138" s="50" t="s">
+      <c r="C138" s="53"/>
+      <c r="D138" s="52" t="s">
         <v>256</v>
       </c>
-      <c r="E138" s="69"/>
+      <c r="E138" s="53"/>
       <c r="F138" s="20"/>
       <c r="G138" s="20"/>
     </row>
@@ -5943,14 +6202,14 @@
       <c r="A139" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="B139" s="50" t="s">
+      <c r="B139" s="52" t="s">
         <v>258</v>
       </c>
-      <c r="C139" s="69"/>
-      <c r="D139" s="78" t="s">
+      <c r="C139" s="53"/>
+      <c r="D139" s="89" t="s">
         <v>259</v>
       </c>
-      <c r="E139" s="51"/>
+      <c r="E139" s="74"/>
       <c r="F139" s="20"/>
       <c r="G139" s="20"/>
     </row>
@@ -5958,14 +6217,14 @@
       <c r="A140" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="B140" s="50" t="s">
+      <c r="B140" s="52" t="s">
         <v>261</v>
       </c>
-      <c r="C140" s="69"/>
-      <c r="D140" s="50" t="s">
+      <c r="C140" s="53"/>
+      <c r="D140" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E140" s="69"/>
+      <c r="E140" s="53"/>
       <c r="F140" s="20"/>
       <c r="G140" s="20"/>
     </row>
@@ -5973,14 +6232,14 @@
       <c r="A141" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="B141" s="50" t="s">
+      <c r="B141" s="52" t="s">
         <v>263</v>
       </c>
-      <c r="C141" s="69"/>
-      <c r="D141" s="50" t="s">
+      <c r="C141" s="53"/>
+      <c r="D141" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E141" s="69"/>
+      <c r="E141" s="53"/>
       <c r="F141" s="20"/>
       <c r="G141" s="20"/>
     </row>
@@ -5988,14 +6247,14 @@
       <c r="A142" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="B142" s="50" t="s">
+      <c r="B142" s="52" t="s">
         <v>265</v>
       </c>
-      <c r="C142" s="69"/>
-      <c r="D142" s="50" t="s">
+      <c r="C142" s="53"/>
+      <c r="D142" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E142" s="69"/>
+      <c r="E142" s="53"/>
       <c r="F142" s="20"/>
       <c r="G142" s="20"/>
     </row>
@@ -6003,14 +6262,14 @@
       <c r="A143" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="B143" s="50" t="s">
+      <c r="B143" s="52" t="s">
         <v>267</v>
       </c>
-      <c r="C143" s="69"/>
-      <c r="D143" s="50" t="s">
+      <c r="C143" s="53"/>
+      <c r="D143" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E143" s="69"/>
+      <c r="E143" s="53"/>
       <c r="F143" s="20"/>
       <c r="G143" s="20"/>
     </row>
@@ -6018,14 +6277,14 @@
       <c r="A144" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="B144" s="50" t="s">
+      <c r="B144" s="52" t="s">
         <v>269</v>
       </c>
-      <c r="C144" s="69"/>
-      <c r="D144" s="50" t="s">
+      <c r="C144" s="53"/>
+      <c r="D144" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E144" s="69"/>
+      <c r="E144" s="53"/>
       <c r="F144" s="20"/>
       <c r="G144" s="20"/>
     </row>
@@ -6033,14 +6292,14 @@
       <c r="A145" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="B145" s="50" t="s">
+      <c r="B145" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="C145" s="51"/>
-      <c r="D145" s="50" t="s">
+      <c r="C145" s="74"/>
+      <c r="D145" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E145" s="51"/>
+      <c r="E145" s="74"/>
       <c r="F145" s="36"/>
       <c r="G145" s="36"/>
     </row>
@@ -6048,14 +6307,14 @@
       <c r="A146" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="B146" s="50" t="s">
+      <c r="B146" s="52" t="s">
         <v>273</v>
       </c>
-      <c r="C146" s="51"/>
-      <c r="D146" s="50" t="s">
+      <c r="C146" s="74"/>
+      <c r="D146" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E146" s="51"/>
+      <c r="E146" s="74"/>
       <c r="F146" s="36"/>
       <c r="G146" s="36"/>
     </row>
@@ -6063,68 +6322,68 @@
       <c r="A147" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="B147" s="50" t="s">
+      <c r="B147" s="52" t="s">
         <v>275</v>
       </c>
-      <c r="C147" s="51"/>
-      <c r="D147" s="50" t="s">
+      <c r="C147" s="74"/>
+      <c r="D147" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E147" s="51"/>
+      <c r="E147" s="74"/>
       <c r="F147" s="36"/>
       <c r="G147" s="36"/>
     </row>
     <row r="148" spans="1:7">
-      <c r="A148" s="53" t="s">
+      <c r="A148" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B148" s="52"/>
-      <c r="C148" s="44" t="s">
+      <c r="B148" s="46"/>
+      <c r="C148" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="D148" s="45"/>
-      <c r="E148" s="45"/>
-      <c r="F148" s="45"/>
-      <c r="G148" s="46"/>
+      <c r="D148" s="71"/>
+      <c r="E148" s="71"/>
+      <c r="F148" s="71"/>
+      <c r="G148" s="72"/>
     </row>
     <row r="149" spans="1:7">
-      <c r="A149" s="53" t="s">
+      <c r="A149" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B149" s="52"/>
-      <c r="C149" s="47">
+      <c r="B149" s="46"/>
+      <c r="C149" s="70">
         <v>43042</v>
       </c>
-      <c r="D149" s="45"/>
-      <c r="E149" s="45"/>
-      <c r="F149" s="45"/>
-      <c r="G149" s="46"/>
+      <c r="D149" s="71"/>
+      <c r="E149" s="71"/>
+      <c r="F149" s="71"/>
+      <c r="G149" s="72"/>
     </row>
     <row r="150" spans="1:7">
-      <c r="A150" s="48" t="s">
+      <c r="A150" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B150" s="49"/>
-      <c r="C150" s="44" t="s">
+      <c r="B150" s="51"/>
+      <c r="C150" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="D150" s="45"/>
-      <c r="E150" s="45"/>
-      <c r="F150" s="45"/>
-      <c r="G150" s="46"/>
+      <c r="D150" s="71"/>
+      <c r="E150" s="71"/>
+      <c r="F150" s="71"/>
+      <c r="G150" s="72"/>
     </row>
     <row r="151" spans="1:7">
-      <c r="A151" s="48" t="s">
+      <c r="A151" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B151" s="49"/>
-      <c r="C151" s="44" t="s">
+      <c r="B151" s="51"/>
+      <c r="C151" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="D151" s="45"/>
-      <c r="E151" s="45"/>
-      <c r="F151" s="45"/>
-      <c r="G151" s="46"/>
+      <c r="D151" s="71"/>
+      <c r="E151" s="71"/>
+      <c r="F151" s="71"/>
+      <c r="G151" s="72"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="37"/>
@@ -6154,52 +6413,52 @@
       <c r="G154" s="37"/>
     </row>
     <row r="155" spans="1:7" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A155" s="54" t="s">
+      <c r="A155" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="B155" s="54"/>
-      <c r="C155" s="54"/>
-      <c r="D155" s="54"/>
-      <c r="E155" s="54"/>
-      <c r="F155" s="54"/>
-      <c r="G155" s="54"/>
+      <c r="B155" s="63"/>
+      <c r="C155" s="63"/>
+      <c r="D155" s="63"/>
+      <c r="E155" s="63"/>
+      <c r="F155" s="63"/>
+      <c r="G155" s="63"/>
     </row>
     <row r="156" spans="1:7" ht="16.5" customHeight="1" thickTop="1">
-      <c r="A156" s="76" t="s">
+      <c r="A156" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="B156" s="77"/>
-      <c r="C156" s="73" t="s">
+      <c r="B156" s="65"/>
+      <c r="C156" s="66" t="s">
         <v>277</v>
       </c>
-      <c r="D156" s="74"/>
-      <c r="E156" s="74"/>
-      <c r="F156" s="74"/>
-      <c r="G156" s="75"/>
+      <c r="D156" s="67"/>
+      <c r="E156" s="67"/>
+      <c r="F156" s="67"/>
+      <c r="G156" s="68"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="55" t="s">
         <v>66</v>
       </c>
       <c r="B157" s="56"/>
-      <c r="C157" s="60"/>
-      <c r="D157" s="61"/>
-      <c r="E157" s="61"/>
-      <c r="F157" s="61"/>
-      <c r="G157" s="62"/>
+      <c r="C157" s="57"/>
+      <c r="D157" s="58"/>
+      <c r="E157" s="58"/>
+      <c r="F157" s="58"/>
+      <c r="G157" s="59"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="55" t="s">
         <v>67</v>
       </c>
       <c r="B158" s="56"/>
-      <c r="C158" s="63" t="s">
+      <c r="C158" s="60" t="s">
         <v>219</v>
       </c>
-      <c r="D158" s="71"/>
-      <c r="E158" s="71"/>
-      <c r="F158" s="71"/>
-      <c r="G158" s="72"/>
+      <c r="D158" s="61"/>
+      <c r="E158" s="61"/>
+      <c r="F158" s="61"/>
+      <c r="G158" s="62"/>
     </row>
     <row r="159" spans="1:7" ht="20.25" customHeight="1">
       <c r="A159" s="33"/>
@@ -6214,14 +6473,14 @@
       <c r="A160" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B160" s="53" t="s">
+      <c r="B160" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C160" s="52"/>
-      <c r="D160" s="53" t="s">
+      <c r="C160" s="46"/>
+      <c r="D160" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="E160" s="52"/>
+      <c r="E160" s="46"/>
       <c r="F160" s="21" t="s">
         <v>70</v>
       </c>
@@ -6233,14 +6492,14 @@
       <c r="A161" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="B161" s="50" t="s">
+      <c r="B161" s="52" t="s">
         <v>279</v>
       </c>
-      <c r="C161" s="69"/>
-      <c r="D161" s="50" t="s">
+      <c r="C161" s="53"/>
+      <c r="D161" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="E161" s="69"/>
+      <c r="E161" s="53"/>
       <c r="F161" s="20"/>
       <c r="G161" s="20"/>
     </row>
@@ -6248,14 +6507,14 @@
       <c r="A162" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="B162" s="50" t="s">
+      <c r="B162" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="C162" s="69"/>
-      <c r="D162" s="50" t="s">
+      <c r="C162" s="53"/>
+      <c r="D162" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="E162" s="69"/>
+      <c r="E162" s="53"/>
       <c r="F162" s="20"/>
       <c r="G162" s="20"/>
     </row>
@@ -6263,14 +6522,14 @@
       <c r="A163" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="B163" s="50" t="s">
+      <c r="B163" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="C163" s="69"/>
-      <c r="D163" s="50" t="s">
+      <c r="C163" s="53"/>
+      <c r="D163" s="52" t="s">
         <v>286</v>
       </c>
-      <c r="E163" s="69"/>
+      <c r="E163" s="53"/>
       <c r="F163" s="20"/>
       <c r="G163" s="20"/>
     </row>
@@ -6278,14 +6537,14 @@
       <c r="A164" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="B164" s="50" t="s">
+      <c r="B164" s="52" t="s">
         <v>288</v>
       </c>
-      <c r="C164" s="69"/>
-      <c r="D164" s="50" t="s">
+      <c r="C164" s="53"/>
+      <c r="D164" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E164" s="69"/>
+      <c r="E164" s="53"/>
       <c r="F164" s="20"/>
       <c r="G164" s="20"/>
     </row>
@@ -6293,14 +6552,14 @@
       <c r="A165" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="B165" s="50" t="s">
+      <c r="B165" s="52" t="s">
         <v>290</v>
       </c>
-      <c r="C165" s="69"/>
-      <c r="D165" s="50" t="s">
+      <c r="C165" s="53"/>
+      <c r="D165" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E165" s="69"/>
+      <c r="E165" s="53"/>
       <c r="F165" s="20"/>
       <c r="G165" s="20"/>
     </row>
@@ -6308,14 +6567,14 @@
       <c r="A166" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="B166" s="50" t="s">
+      <c r="B166" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="C166" s="69"/>
-      <c r="D166" s="50" t="s">
+      <c r="C166" s="53"/>
+      <c r="D166" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E166" s="69"/>
+      <c r="E166" s="53"/>
       <c r="F166" s="20"/>
       <c r="G166" s="20"/>
     </row>
@@ -6323,14 +6582,14 @@
       <c r="A167" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="B167" s="50" t="s">
+      <c r="B167" s="52" t="s">
         <v>294</v>
       </c>
-      <c r="C167" s="51"/>
-      <c r="D167" s="50" t="s">
+      <c r="C167" s="74"/>
+      <c r="D167" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E167" s="51"/>
+      <c r="E167" s="74"/>
       <c r="F167" s="36"/>
       <c r="G167" s="36"/>
     </row>
@@ -6338,131 +6597,131 @@
       <c r="A168" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="B168" s="50" t="s">
+      <c r="B168" s="52" t="s">
         <v>296</v>
       </c>
-      <c r="C168" s="51"/>
-      <c r="D168" s="50" t="s">
+      <c r="C168" s="74"/>
+      <c r="D168" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E168" s="51"/>
+      <c r="E168" s="74"/>
       <c r="F168" s="36"/>
       <c r="G168" s="36"/>
     </row>
     <row r="169" spans="1:7" ht="18" customHeight="1">
-      <c r="A169" s="53" t="s">
+      <c r="A169" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="B169" s="52"/>
-      <c r="C169" s="44"/>
-      <c r="D169" s="45"/>
-      <c r="E169" s="45"/>
-      <c r="F169" s="45"/>
-      <c r="G169" s="46"/>
+      <c r="B169" s="46"/>
+      <c r="C169" s="73"/>
+      <c r="D169" s="71"/>
+      <c r="E169" s="71"/>
+      <c r="F169" s="71"/>
+      <c r="G169" s="72"/>
     </row>
     <row r="170" spans="1:7" ht="24" customHeight="1">
-      <c r="A170" s="53" t="s">
+      <c r="A170" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B170" s="52"/>
-      <c r="C170" s="47"/>
-      <c r="D170" s="45"/>
-      <c r="E170" s="45"/>
-      <c r="F170" s="45"/>
-      <c r="G170" s="46"/>
+      <c r="B170" s="46"/>
+      <c r="C170" s="70"/>
+      <c r="D170" s="71"/>
+      <c r="E170" s="71"/>
+      <c r="F170" s="71"/>
+      <c r="G170" s="72"/>
     </row>
     <row r="171" spans="1:7">
-      <c r="A171" s="48" t="s">
+      <c r="A171" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B171" s="49"/>
-      <c r="C171" s="44"/>
-      <c r="D171" s="45"/>
-      <c r="E171" s="45"/>
-      <c r="F171" s="45"/>
-      <c r="G171" s="46"/>
+      <c r="B171" s="51"/>
+      <c r="C171" s="73"/>
+      <c r="D171" s="71"/>
+      <c r="E171" s="71"/>
+      <c r="F171" s="71"/>
+      <c r="G171" s="72"/>
     </row>
     <row r="172" spans="1:7">
-      <c r="A172" s="48" t="s">
+      <c r="A172" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B172" s="49"/>
-      <c r="C172" s="44"/>
-      <c r="D172" s="45"/>
-      <c r="E172" s="45"/>
-      <c r="F172" s="45"/>
-      <c r="G172" s="46"/>
+      <c r="B172" s="51"/>
+      <c r="C172" s="73"/>
+      <c r="D172" s="71"/>
+      <c r="E172" s="71"/>
+      <c r="F172" s="71"/>
+      <c r="G172" s="72"/>
     </row>
     <row r="173" spans="1:7" ht="27.75" customHeight="1"/>
     <row r="180" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A180" s="54" t="s">
+      <c r="A180" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="B180" s="54"/>
-      <c r="C180" s="54"/>
-      <c r="D180" s="54"/>
-      <c r="E180" s="54"/>
-      <c r="F180" s="54"/>
-      <c r="G180" s="54"/>
+      <c r="B180" s="63"/>
+      <c r="C180" s="63"/>
+      <c r="D180" s="63"/>
+      <c r="E180" s="63"/>
+      <c r="F180" s="63"/>
+      <c r="G180" s="63"/>
     </row>
     <row r="181" spans="1:7" ht="15" thickTop="1">
       <c r="A181" s="55" t="s">
         <v>65</v>
       </c>
       <c r="B181" s="56"/>
-      <c r="C181" s="57" t="s">
+      <c r="C181" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="D181" s="58"/>
-      <c r="E181" s="58"/>
-      <c r="F181" s="58"/>
-      <c r="G181" s="59"/>
+      <c r="D181" s="76"/>
+      <c r="E181" s="76"/>
+      <c r="F181" s="76"/>
+      <c r="G181" s="77"/>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="55" t="s">
         <v>66</v>
       </c>
       <c r="B182" s="56"/>
-      <c r="C182" s="60"/>
-      <c r="D182" s="61"/>
-      <c r="E182" s="61"/>
-      <c r="F182" s="61"/>
-      <c r="G182" s="62"/>
+      <c r="C182" s="57"/>
+      <c r="D182" s="58"/>
+      <c r="E182" s="58"/>
+      <c r="F182" s="58"/>
+      <c r="G182" s="59"/>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="55" t="s">
         <v>67</v>
       </c>
       <c r="B183" s="56"/>
-      <c r="C183" s="63" t="s">
+      <c r="C183" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="D183" s="64"/>
-      <c r="E183" s="64"/>
-      <c r="F183" s="64"/>
-      <c r="G183" s="65"/>
+      <c r="D183" s="78"/>
+      <c r="E183" s="78"/>
+      <c r="F183" s="78"/>
+      <c r="G183" s="79"/>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" s="66"/>
-      <c r="B184" s="67"/>
-      <c r="C184" s="67"/>
-      <c r="D184" s="67"/>
-      <c r="E184" s="67"/>
-      <c r="F184" s="67"/>
-      <c r="G184" s="68"/>
+      <c r="A184" s="80"/>
+      <c r="B184" s="81"/>
+      <c r="C184" s="81"/>
+      <c r="D184" s="81"/>
+      <c r="E184" s="81"/>
+      <c r="F184" s="81"/>
+      <c r="G184" s="82"/>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B185" s="53" t="s">
+      <c r="B185" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C185" s="52"/>
-      <c r="D185" s="53" t="s">
+      <c r="C185" s="46"/>
+      <c r="D185" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="E185" s="52"/>
+      <c r="E185" s="46"/>
       <c r="F185" s="21" t="s">
         <v>70</v>
       </c>
@@ -6474,14 +6733,14 @@
       <c r="A186" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="B186" s="50" t="s">
+      <c r="B186" s="52" t="s">
         <v>348</v>
       </c>
-      <c r="C186" s="51"/>
-      <c r="D186" s="50" t="s">
+      <c r="C186" s="74"/>
+      <c r="D186" s="52" t="s">
         <v>349</v>
       </c>
-      <c r="E186" s="51"/>
+      <c r="E186" s="74"/>
       <c r="F186" s="29"/>
       <c r="G186" s="29"/>
     </row>
@@ -6489,14 +6748,14 @@
       <c r="A187" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="B187" s="50" t="s">
+      <c r="B187" s="52" t="s">
         <v>350</v>
       </c>
-      <c r="C187" s="51"/>
-      <c r="D187" s="50" t="s">
+      <c r="C187" s="74"/>
+      <c r="D187" s="52" t="s">
         <v>351</v>
       </c>
-      <c r="E187" s="51"/>
+      <c r="E187" s="74"/>
       <c r="F187" s="29"/>
       <c r="G187" s="29"/>
     </row>
@@ -6504,14 +6763,14 @@
       <c r="A188" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="B188" s="50" t="s">
+      <c r="B188" s="52" t="s">
         <v>352</v>
       </c>
-      <c r="C188" s="51"/>
-      <c r="D188" s="50" t="s">
+      <c r="C188" s="74"/>
+      <c r="D188" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="E188" s="51"/>
+      <c r="E188" s="74"/>
       <c r="F188" s="29" t="s">
         <v>131</v>
       </c>
@@ -6523,14 +6782,14 @@
       <c r="A189" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="B189" s="50" t="s">
+      <c r="B189" s="52" t="s">
         <v>354</v>
       </c>
-      <c r="C189" s="51"/>
-      <c r="D189" s="50" t="s">
+      <c r="C189" s="74"/>
+      <c r="D189" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E189" s="51"/>
+      <c r="E189" s="74"/>
       <c r="F189" s="29"/>
       <c r="G189" s="29"/>
     </row>
@@ -6538,14 +6797,14 @@
       <c r="A190" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="B190" s="50" t="s">
+      <c r="B190" s="52" t="s">
         <v>355</v>
       </c>
-      <c r="C190" s="51"/>
-      <c r="D190" s="50" t="s">
+      <c r="C190" s="74"/>
+      <c r="D190" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E190" s="51"/>
+      <c r="E190" s="74"/>
       <c r="F190" s="29"/>
       <c r="G190" s="29"/>
     </row>
@@ -6553,14 +6812,14 @@
       <c r="A191" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="B191" s="50" t="s">
+      <c r="B191" s="52" t="s">
         <v>356</v>
       </c>
-      <c r="C191" s="51"/>
-      <c r="D191" s="50" t="s">
+      <c r="C191" s="74"/>
+      <c r="D191" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E191" s="51"/>
+      <c r="E191" s="74"/>
       <c r="F191" s="29"/>
       <c r="G191" s="29"/>
     </row>
@@ -6568,130 +6827,130 @@
       <c r="A192" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="B192" s="50" t="s">
+      <c r="B192" s="52" t="s">
         <v>361</v>
       </c>
-      <c r="C192" s="51"/>
-      <c r="D192" s="50" t="s">
+      <c r="C192" s="74"/>
+      <c r="D192" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E192" s="51"/>
+      <c r="E192" s="74"/>
       <c r="F192" s="29"/>
       <c r="G192" s="29"/>
     </row>
     <row r="193" spans="1:7">
-      <c r="A193" s="48" t="s">
+      <c r="A193" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B193" s="52"/>
-      <c r="C193" s="44"/>
-      <c r="D193" s="45"/>
-      <c r="E193" s="45"/>
-      <c r="F193" s="45"/>
-      <c r="G193" s="46"/>
+      <c r="B193" s="46"/>
+      <c r="C193" s="73"/>
+      <c r="D193" s="71"/>
+      <c r="E193" s="71"/>
+      <c r="F193" s="71"/>
+      <c r="G193" s="72"/>
     </row>
     <row r="194" spans="1:7">
-      <c r="A194" s="53" t="s">
+      <c r="A194" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B194" s="52"/>
-      <c r="C194" s="47"/>
-      <c r="D194" s="45"/>
-      <c r="E194" s="45"/>
-      <c r="F194" s="45"/>
-      <c r="G194" s="46"/>
+      <c r="B194" s="46"/>
+      <c r="C194" s="70"/>
+      <c r="D194" s="71"/>
+      <c r="E194" s="71"/>
+      <c r="F194" s="71"/>
+      <c r="G194" s="72"/>
     </row>
     <row r="195" spans="1:7">
-      <c r="A195" s="48" t="s">
+      <c r="A195" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B195" s="52"/>
-      <c r="C195" s="44"/>
-      <c r="D195" s="45"/>
-      <c r="E195" s="45"/>
-      <c r="F195" s="45"/>
-      <c r="G195" s="46"/>
+      <c r="B195" s="46"/>
+      <c r="C195" s="73"/>
+      <c r="D195" s="71"/>
+      <c r="E195" s="71"/>
+      <c r="F195" s="71"/>
+      <c r="G195" s="72"/>
     </row>
     <row r="196" spans="1:7">
-      <c r="A196" s="48" t="s">
+      <c r="A196" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B196" s="49"/>
-      <c r="C196" s="44"/>
-      <c r="D196" s="45"/>
-      <c r="E196" s="45"/>
-      <c r="F196" s="45"/>
-      <c r="G196" s="46"/>
+      <c r="B196" s="51"/>
+      <c r="C196" s="73"/>
+      <c r="D196" s="71"/>
+      <c r="E196" s="71"/>
+      <c r="F196" s="71"/>
+      <c r="G196" s="72"/>
     </row>
     <row r="200" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A200" s="54" t="s">
+      <c r="A200" s="63" t="s">
         <v>373</v>
       </c>
-      <c r="B200" s="54"/>
-      <c r="C200" s="54"/>
-      <c r="D200" s="54"/>
-      <c r="E200" s="54"/>
-      <c r="F200" s="54"/>
-      <c r="G200" s="54"/>
+      <c r="B200" s="63"/>
+      <c r="C200" s="63"/>
+      <c r="D200" s="63"/>
+      <c r="E200" s="63"/>
+      <c r="F200" s="63"/>
+      <c r="G200" s="63"/>
     </row>
     <row r="201" spans="1:7" ht="15" thickTop="1">
-      <c r="A201" s="76" t="s">
+      <c r="A201" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="B201" s="77"/>
-      <c r="C201" s="73" t="s">
+      <c r="B201" s="65"/>
+      <c r="C201" s="66" t="s">
         <v>374</v>
       </c>
-      <c r="D201" s="74"/>
-      <c r="E201" s="74"/>
-      <c r="F201" s="74"/>
-      <c r="G201" s="75"/>
+      <c r="D201" s="67"/>
+      <c r="E201" s="67"/>
+      <c r="F201" s="67"/>
+      <c r="G201" s="68"/>
     </row>
     <row r="202" spans="1:7">
       <c r="A202" s="55" t="s">
         <v>66</v>
       </c>
       <c r="B202" s="56"/>
-      <c r="C202" s="60"/>
-      <c r="D202" s="61"/>
-      <c r="E202" s="61"/>
-      <c r="F202" s="61"/>
-      <c r="G202" s="62"/>
+      <c r="C202" s="57"/>
+      <c r="D202" s="58"/>
+      <c r="E202" s="58"/>
+      <c r="F202" s="58"/>
+      <c r="G202" s="59"/>
     </row>
     <row r="203" spans="1:7" ht="151.19999999999999" customHeight="1">
       <c r="A203" s="55" t="s">
         <v>67</v>
       </c>
       <c r="B203" s="56"/>
-      <c r="C203" s="63" t="s">
+      <c r="C203" s="60" t="s">
         <v>375</v>
       </c>
-      <c r="D203" s="71"/>
-      <c r="E203" s="71"/>
-      <c r="F203" s="71"/>
-      <c r="G203" s="72"/>
+      <c r="D203" s="61"/>
+      <c r="E203" s="61"/>
+      <c r="F203" s="61"/>
+      <c r="G203" s="62"/>
     </row>
     <row r="204" spans="1:7">
-      <c r="A204" s="79"/>
-      <c r="B204" s="80"/>
-      <c r="C204" s="80"/>
-      <c r="D204" s="80"/>
-      <c r="E204" s="80"/>
-      <c r="F204" s="80"/>
-      <c r="G204" s="81"/>
+      <c r="A204" s="47"/>
+      <c r="B204" s="48"/>
+      <c r="C204" s="48"/>
+      <c r="D204" s="48"/>
+      <c r="E204" s="48"/>
+      <c r="F204" s="48"/>
+      <c r="G204" s="49"/>
     </row>
     <row r="205" spans="1:7">
       <c r="A205" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B205" s="53" t="s">
+      <c r="B205" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C205" s="52"/>
-      <c r="D205" s="53" t="s">
+      <c r="C205" s="46"/>
+      <c r="D205" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="E205" s="52"/>
+      <c r="E205" s="46"/>
       <c r="F205" s="21" t="s">
         <v>70</v>
       </c>
@@ -6703,14 +6962,14 @@
       <c r="A206" s="38" t="s">
         <v>376</v>
       </c>
-      <c r="B206" s="50" t="s">
+      <c r="B206" s="52" t="s">
         <v>377</v>
       </c>
-      <c r="C206" s="69"/>
-      <c r="D206" s="50" t="s">
+      <c r="C206" s="53"/>
+      <c r="D206" s="52" t="s">
         <v>378</v>
       </c>
-      <c r="E206" s="69"/>
+      <c r="E206" s="53"/>
       <c r="F206" s="27"/>
       <c r="G206" s="27"/>
     </row>
@@ -6718,14 +6977,14 @@
       <c r="A207" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="B207" s="50" t="s">
+      <c r="B207" s="52" t="s">
         <v>380</v>
       </c>
-      <c r="C207" s="69"/>
-      <c r="D207" s="50" t="s">
+      <c r="C207" s="53"/>
+      <c r="D207" s="52" t="s">
         <v>381</v>
       </c>
-      <c r="E207" s="69"/>
+      <c r="E207" s="53"/>
       <c r="F207" s="27"/>
       <c r="G207" s="27"/>
     </row>
@@ -6733,14 +6992,14 @@
       <c r="A208" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="B208" s="50" t="s">
+      <c r="B208" s="52" t="s">
         <v>383</v>
       </c>
-      <c r="C208" s="69"/>
-      <c r="D208" s="50" t="s">
+      <c r="C208" s="53"/>
+      <c r="D208" s="52" t="s">
         <v>384</v>
       </c>
-      <c r="E208" s="69"/>
+      <c r="E208" s="53"/>
       <c r="F208" s="27"/>
       <c r="G208" s="27"/>
     </row>
@@ -6748,14 +7007,14 @@
       <c r="A209" s="38" t="s">
         <v>385</v>
       </c>
-      <c r="B209" s="50" t="s">
+      <c r="B209" s="52" t="s">
         <v>427</v>
       </c>
-      <c r="C209" s="69"/>
-      <c r="D209" s="50" t="s">
+      <c r="C209" s="53"/>
+      <c r="D209" s="52" t="s">
         <v>386</v>
       </c>
-      <c r="E209" s="69"/>
+      <c r="E209" s="53"/>
       <c r="F209" s="27"/>
       <c r="G209" s="27"/>
     </row>
@@ -6763,14 +7022,14 @@
       <c r="A210" s="38" t="s">
         <v>387</v>
       </c>
-      <c r="B210" s="50" t="s">
+      <c r="B210" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="C210" s="69"/>
-      <c r="D210" s="50" t="s">
+      <c r="C210" s="53"/>
+      <c r="D210" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="E210" s="69"/>
+      <c r="E210" s="53"/>
       <c r="F210" s="27"/>
       <c r="G210" s="27"/>
     </row>
@@ -6778,14 +7037,14 @@
       <c r="A211" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="B211" s="50" t="s">
+      <c r="B211" s="52" t="s">
         <v>391</v>
       </c>
-      <c r="C211" s="69"/>
-      <c r="D211" s="50" t="s">
+      <c r="C211" s="53"/>
+      <c r="D211" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="E211" s="69"/>
+      <c r="E211" s="53"/>
       <c r="F211" s="27"/>
       <c r="G211" s="27"/>
     </row>
@@ -6793,14 +7052,14 @@
       <c r="A212" s="38" t="s">
         <v>392</v>
       </c>
-      <c r="B212" s="50" t="s">
+      <c r="B212" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="C212" s="69"/>
-      <c r="D212" s="50" t="s">
+      <c r="C212" s="53"/>
+      <c r="D212" s="52" t="s">
         <v>394</v>
       </c>
-      <c r="E212" s="69"/>
+      <c r="E212" s="53"/>
       <c r="F212" s="39"/>
       <c r="G212" s="39"/>
     </row>
@@ -6808,14 +7067,14 @@
       <c r="A213" s="38" t="s">
         <v>395</v>
       </c>
-      <c r="B213" s="50" t="s">
+      <c r="B213" s="52" t="s">
         <v>396</v>
       </c>
-      <c r="C213" s="69"/>
-      <c r="D213" s="50" t="s">
+      <c r="C213" s="53"/>
+      <c r="D213" s="52" t="s">
         <v>397</v>
       </c>
-      <c r="E213" s="69"/>
+      <c r="E213" s="53"/>
       <c r="F213" s="39"/>
       <c r="G213" s="39"/>
     </row>
@@ -6823,14 +7082,14 @@
       <c r="A214" s="38" t="s">
         <v>398</v>
       </c>
-      <c r="B214" s="50" t="s">
+      <c r="B214" s="52" t="s">
         <v>399</v>
       </c>
-      <c r="C214" s="69"/>
-      <c r="D214" s="50" t="s">
+      <c r="C214" s="53"/>
+      <c r="D214" s="52" t="s">
         <v>400</v>
       </c>
-      <c r="E214" s="69"/>
+      <c r="E214" s="53"/>
       <c r="F214" s="39"/>
       <c r="G214" s="39"/>
     </row>
@@ -6838,14 +7097,14 @@
       <c r="A215" s="38" t="s">
         <v>401</v>
       </c>
-      <c r="B215" s="88" t="s">
+      <c r="B215" s="69" t="s">
         <v>402</v>
       </c>
-      <c r="C215" s="69"/>
-      <c r="D215" s="50" t="s">
+      <c r="C215" s="53"/>
+      <c r="D215" s="52" t="s">
         <v>403</v>
       </c>
-      <c r="E215" s="69"/>
+      <c r="E215" s="53"/>
       <c r="F215" s="39"/>
       <c r="G215" s="39"/>
     </row>
@@ -6853,14 +7112,14 @@
       <c r="A216" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="B216" s="88" t="s">
+      <c r="B216" s="69" t="s">
         <v>405</v>
       </c>
-      <c r="C216" s="69"/>
-      <c r="D216" s="50" t="s">
+      <c r="C216" s="53"/>
+      <c r="D216" s="52" t="s">
         <v>406</v>
       </c>
-      <c r="E216" s="69"/>
+      <c r="E216" s="53"/>
       <c r="F216" s="39"/>
       <c r="G216" s="39"/>
     </row>
@@ -6868,14 +7127,14 @@
       <c r="A217" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="B217" s="88" t="s">
+      <c r="B217" s="69" t="s">
         <v>408</v>
       </c>
-      <c r="C217" s="69"/>
-      <c r="D217" s="50" t="s">
+      <c r="C217" s="53"/>
+      <c r="D217" s="52" t="s">
         <v>409</v>
       </c>
-      <c r="E217" s="69"/>
+      <c r="E217" s="53"/>
       <c r="F217" s="39"/>
       <c r="G217" s="39"/>
     </row>
@@ -6883,14 +7142,14 @@
       <c r="A218" s="38" t="s">
         <v>410</v>
       </c>
-      <c r="B218" s="50" t="s">
+      <c r="B218" s="52" t="s">
         <v>411</v>
       </c>
-      <c r="C218" s="69"/>
-      <c r="D218" s="50" t="s">
+      <c r="C218" s="53"/>
+      <c r="D218" s="52" t="s">
         <v>412</v>
       </c>
-      <c r="E218" s="69"/>
+      <c r="E218" s="53"/>
       <c r="F218" s="39"/>
       <c r="G218" s="39"/>
     </row>
@@ -6898,14 +7157,14 @@
       <c r="A219" s="40" t="s">
         <v>413</v>
       </c>
-      <c r="B219" s="50" t="s">
+      <c r="B219" s="52" t="s">
         <v>414</v>
       </c>
-      <c r="C219" s="69"/>
-      <c r="D219" s="50" t="s">
+      <c r="C219" s="53"/>
+      <c r="D219" s="52" t="s">
         <v>415</v>
       </c>
-      <c r="E219" s="69"/>
+      <c r="E219" s="53"/>
       <c r="F219" s="39"/>
       <c r="G219" s="39"/>
     </row>
@@ -6913,14 +7172,14 @@
       <c r="A220" s="41" t="s">
         <v>416</v>
       </c>
-      <c r="B220" s="50" t="s">
+      <c r="B220" s="52" t="s">
         <v>417</v>
       </c>
-      <c r="C220" s="69"/>
-      <c r="D220" s="50" t="s">
+      <c r="C220" s="53"/>
+      <c r="D220" s="52" t="s">
         <v>418</v>
       </c>
-      <c r="E220" s="69"/>
+      <c r="E220" s="53"/>
       <c r="F220" s="39"/>
       <c r="G220" s="39"/>
     </row>
@@ -6928,14 +7187,14 @@
       <c r="A221" s="41" t="s">
         <v>419</v>
       </c>
-      <c r="B221" s="50" t="s">
+      <c r="B221" s="52" t="s">
         <v>420</v>
       </c>
-      <c r="C221" s="69"/>
-      <c r="D221" s="50" t="s">
+      <c r="C221" s="53"/>
+      <c r="D221" s="52" t="s">
         <v>421</v>
       </c>
-      <c r="E221" s="69"/>
+      <c r="E221" s="53"/>
       <c r="F221" s="39"/>
       <c r="G221" s="39"/>
     </row>
@@ -6943,14 +7202,14 @@
       <c r="A222" s="41" t="s">
         <v>422</v>
       </c>
-      <c r="B222" s="50" t="s">
+      <c r="B222" s="52" t="s">
         <v>423</v>
       </c>
-      <c r="C222" s="69"/>
-      <c r="D222" s="50" t="s">
+      <c r="C222" s="53"/>
+      <c r="D222" s="52" t="s">
         <v>415</v>
       </c>
-      <c r="E222" s="69"/>
+      <c r="E222" s="53"/>
       <c r="F222" s="39"/>
       <c r="G222" s="39"/>
     </row>
@@ -6958,130 +7217,130 @@
       <c r="A223" s="41" t="s">
         <v>424</v>
       </c>
-      <c r="B223" s="50" t="s">
+      <c r="B223" s="52" t="s">
         <v>425</v>
       </c>
-      <c r="C223" s="69"/>
-      <c r="D223" s="50" t="s">
+      <c r="C223" s="53"/>
+      <c r="D223" s="52" t="s">
         <v>426</v>
       </c>
-      <c r="E223" s="69"/>
+      <c r="E223" s="53"/>
       <c r="F223" s="39"/>
       <c r="G223" s="39"/>
     </row>
     <row r="224" spans="1:7">
-      <c r="A224" s="48" t="s">
+      <c r="A224" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B224" s="49"/>
-      <c r="C224" s="79"/>
-      <c r="D224" s="80"/>
-      <c r="E224" s="80"/>
-      <c r="F224" s="80"/>
-      <c r="G224" s="81"/>
+      <c r="B224" s="51"/>
+      <c r="C224" s="47"/>
+      <c r="D224" s="48"/>
+      <c r="E224" s="48"/>
+      <c r="F224" s="48"/>
+      <c r="G224" s="49"/>
     </row>
     <row r="225" spans="1:7">
-      <c r="A225" s="53" t="s">
+      <c r="A225" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B225" s="52"/>
-      <c r="C225" s="79"/>
-      <c r="D225" s="80"/>
-      <c r="E225" s="80"/>
-      <c r="F225" s="80"/>
-      <c r="G225" s="81"/>
+      <c r="B225" s="46"/>
+      <c r="C225" s="47"/>
+      <c r="D225" s="48"/>
+      <c r="E225" s="48"/>
+      <c r="F225" s="48"/>
+      <c r="G225" s="49"/>
     </row>
     <row r="226" spans="1:7">
-      <c r="A226" s="48" t="s">
+      <c r="A226" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B226" s="49"/>
-      <c r="C226" s="79"/>
-      <c r="D226" s="80"/>
-      <c r="E226" s="80"/>
-      <c r="F226" s="80"/>
-      <c r="G226" s="81"/>
+      <c r="B226" s="51"/>
+      <c r="C226" s="47"/>
+      <c r="D226" s="48"/>
+      <c r="E226" s="48"/>
+      <c r="F226" s="48"/>
+      <c r="G226" s="49"/>
     </row>
     <row r="227" spans="1:7">
-      <c r="A227" s="48" t="s">
+      <c r="A227" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B227" s="49"/>
-      <c r="C227" s="79"/>
-      <c r="D227" s="80"/>
-      <c r="E227" s="80"/>
-      <c r="F227" s="80"/>
-      <c r="G227" s="81"/>
+      <c r="B227" s="51"/>
+      <c r="C227" s="47"/>
+      <c r="D227" s="48"/>
+      <c r="E227" s="48"/>
+      <c r="F227" s="48"/>
+      <c r="G227" s="49"/>
     </row>
     <row r="231" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A231" s="54" t="s">
+      <c r="A231" s="63" t="s">
         <v>428</v>
       </c>
-      <c r="B231" s="54"/>
-      <c r="C231" s="54"/>
-      <c r="D231" s="54"/>
-      <c r="E231" s="54"/>
-      <c r="F231" s="54"/>
-      <c r="G231" s="54"/>
+      <c r="B231" s="63"/>
+      <c r="C231" s="63"/>
+      <c r="D231" s="63"/>
+      <c r="E231" s="63"/>
+      <c r="F231" s="63"/>
+      <c r="G231" s="63"/>
     </row>
     <row r="232" spans="1:7" ht="15" thickTop="1">
-      <c r="A232" s="76" t="s">
+      <c r="A232" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="B232" s="77"/>
-      <c r="C232" s="73" t="s">
+      <c r="B232" s="65"/>
+      <c r="C232" s="66" t="s">
         <v>429</v>
       </c>
-      <c r="D232" s="74"/>
-      <c r="E232" s="74"/>
-      <c r="F232" s="74"/>
-      <c r="G232" s="75"/>
+      <c r="D232" s="67"/>
+      <c r="E232" s="67"/>
+      <c r="F232" s="67"/>
+      <c r="G232" s="68"/>
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="55" t="s">
         <v>66</v>
       </c>
       <c r="B233" s="56"/>
-      <c r="C233" s="60"/>
-      <c r="D233" s="61"/>
-      <c r="E233" s="61"/>
-      <c r="F233" s="61"/>
-      <c r="G233" s="62"/>
+      <c r="C233" s="57"/>
+      <c r="D233" s="58"/>
+      <c r="E233" s="58"/>
+      <c r="F233" s="58"/>
+      <c r="G233" s="59"/>
     </row>
     <row r="234" spans="1:7" ht="91.2" customHeight="1">
       <c r="A234" s="55" t="s">
         <v>67</v>
       </c>
       <c r="B234" s="56"/>
-      <c r="C234" s="63" t="s">
+      <c r="C234" s="60" t="s">
         <v>430</v>
       </c>
-      <c r="D234" s="71"/>
-      <c r="E234" s="71"/>
-      <c r="F234" s="71"/>
-      <c r="G234" s="72"/>
+      <c r="D234" s="61"/>
+      <c r="E234" s="61"/>
+      <c r="F234" s="61"/>
+      <c r="G234" s="62"/>
     </row>
     <row r="235" spans="1:7">
-      <c r="A235" s="79"/>
-      <c r="B235" s="80"/>
-      <c r="C235" s="80"/>
-      <c r="D235" s="80"/>
-      <c r="E235" s="80"/>
-      <c r="F235" s="80"/>
-      <c r="G235" s="81"/>
+      <c r="A235" s="47"/>
+      <c r="B235" s="48"/>
+      <c r="C235" s="48"/>
+      <c r="D235" s="48"/>
+      <c r="E235" s="48"/>
+      <c r="F235" s="48"/>
+      <c r="G235" s="49"/>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B236" s="53" t="s">
+      <c r="B236" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C236" s="52"/>
-      <c r="D236" s="53" t="s">
+      <c r="C236" s="46"/>
+      <c r="D236" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="E236" s="52"/>
+      <c r="E236" s="46"/>
       <c r="F236" s="21" t="s">
         <v>70</v>
       </c>
@@ -7093,14 +7352,14 @@
       <c r="A237" s="42" t="s">
         <v>431</v>
       </c>
-      <c r="B237" s="89" t="s">
+      <c r="B237" s="54" t="s">
         <v>432</v>
       </c>
-      <c r="C237" s="89"/>
-      <c r="D237" s="89" t="s">
+      <c r="C237" s="54"/>
+      <c r="D237" s="54" t="s">
         <v>433</v>
       </c>
-      <c r="E237" s="89"/>
+      <c r="E237" s="54"/>
       <c r="F237" s="43"/>
       <c r="G237" s="43"/>
     </row>
@@ -7108,14 +7367,14 @@
       <c r="A238" s="42" t="s">
         <v>434</v>
       </c>
-      <c r="B238" s="89" t="s">
+      <c r="B238" s="54" t="s">
         <v>435</v>
       </c>
-      <c r="C238" s="89"/>
-      <c r="D238" s="89" t="s">
+      <c r="C238" s="54"/>
+      <c r="D238" s="54" t="s">
         <v>381</v>
       </c>
-      <c r="E238" s="89"/>
+      <c r="E238" s="54"/>
       <c r="F238" s="43"/>
       <c r="G238" s="43"/>
     </row>
@@ -7123,14 +7382,14 @@
       <c r="A239" s="42" t="s">
         <v>436</v>
       </c>
-      <c r="B239" s="89" t="s">
+      <c r="B239" s="54" t="s">
         <v>437</v>
       </c>
-      <c r="C239" s="89"/>
-      <c r="D239" s="89" t="s">
+      <c r="C239" s="54"/>
+      <c r="D239" s="54" t="s">
         <v>438</v>
       </c>
-      <c r="E239" s="89"/>
+      <c r="E239" s="54"/>
       <c r="F239" s="43"/>
       <c r="G239" s="43"/>
     </row>
@@ -7138,14 +7397,14 @@
       <c r="A240" s="42" t="s">
         <v>439</v>
       </c>
-      <c r="B240" s="89" t="s">
+      <c r="B240" s="54" t="s">
         <v>440</v>
       </c>
-      <c r="C240" s="89"/>
-      <c r="D240" s="89" t="s">
+      <c r="C240" s="54"/>
+      <c r="D240" s="54" t="s">
         <v>389</v>
       </c>
-      <c r="E240" s="89"/>
+      <c r="E240" s="54"/>
       <c r="F240" s="43"/>
       <c r="G240" s="43"/>
     </row>
@@ -7153,14 +7412,14 @@
       <c r="A241" s="42" t="s">
         <v>441</v>
       </c>
-      <c r="B241" s="89" t="s">
+      <c r="B241" s="54" t="s">
         <v>442</v>
       </c>
-      <c r="C241" s="89"/>
-      <c r="D241" s="50" t="s">
+      <c r="C241" s="54"/>
+      <c r="D241" s="52" t="s">
         <v>394</v>
       </c>
-      <c r="E241" s="69"/>
+      <c r="E241" s="53"/>
       <c r="F241" s="43"/>
       <c r="G241" s="43"/>
     </row>
@@ -7168,14 +7427,14 @@
       <c r="A242" s="42" t="s">
         <v>443</v>
       </c>
-      <c r="B242" s="89" t="s">
+      <c r="B242" s="54" t="s">
         <v>444</v>
       </c>
-      <c r="C242" s="89"/>
-      <c r="D242" s="50" t="s">
+      <c r="C242" s="54"/>
+      <c r="D242" s="52" t="s">
         <v>445</v>
       </c>
-      <c r="E242" s="69"/>
+      <c r="E242" s="53"/>
       <c r="F242" s="43"/>
       <c r="G242" s="43"/>
     </row>
@@ -7183,14 +7442,14 @@
       <c r="A243" s="42" t="s">
         <v>446</v>
       </c>
-      <c r="B243" s="89" t="s">
+      <c r="B243" s="54" t="s">
         <v>447</v>
       </c>
-      <c r="C243" s="89"/>
-      <c r="D243" s="50" t="s">
+      <c r="C243" s="54"/>
+      <c r="D243" s="52" t="s">
         <v>400</v>
       </c>
-      <c r="E243" s="69"/>
+      <c r="E243" s="53"/>
       <c r="F243" s="43"/>
       <c r="G243" s="43"/>
     </row>
@@ -7198,14 +7457,14 @@
       <c r="A244" s="42" t="s">
         <v>448</v>
       </c>
-      <c r="B244" s="89" t="s">
+      <c r="B244" s="54" t="s">
         <v>449</v>
       </c>
-      <c r="C244" s="89"/>
-      <c r="D244" s="50" t="s">
+      <c r="C244" s="54"/>
+      <c r="D244" s="52" t="s">
         <v>394</v>
       </c>
-      <c r="E244" s="69"/>
+      <c r="E244" s="53"/>
       <c r="F244" s="43"/>
       <c r="G244" s="43"/>
     </row>
@@ -7213,14 +7472,14 @@
       <c r="A245" s="42" t="s">
         <v>450</v>
       </c>
-      <c r="B245" s="89" t="s">
+      <c r="B245" s="54" t="s">
         <v>451</v>
       </c>
-      <c r="C245" s="89"/>
-      <c r="D245" s="50" t="s">
+      <c r="C245" s="54"/>
+      <c r="D245" s="52" t="s">
         <v>452</v>
       </c>
-      <c r="E245" s="69"/>
+      <c r="E245" s="53"/>
       <c r="F245" s="43"/>
       <c r="G245" s="43"/>
     </row>
@@ -7228,14 +7487,14 @@
       <c r="A246" s="42" t="s">
         <v>453</v>
       </c>
-      <c r="B246" s="89" t="s">
+      <c r="B246" s="54" t="s">
         <v>454</v>
       </c>
-      <c r="C246" s="89"/>
-      <c r="D246" s="50" t="s">
+      <c r="C246" s="54"/>
+      <c r="D246" s="52" t="s">
         <v>400</v>
       </c>
-      <c r="E246" s="69"/>
+      <c r="E246" s="53"/>
       <c r="F246" s="43"/>
       <c r="G246" s="43"/>
     </row>
@@ -7243,14 +7502,14 @@
       <c r="A247" s="42" t="s">
         <v>455</v>
       </c>
-      <c r="B247" s="50" t="s">
+      <c r="B247" s="52" t="s">
         <v>456</v>
       </c>
-      <c r="C247" s="69"/>
-      <c r="D247" s="50" t="s">
+      <c r="C247" s="53"/>
+      <c r="D247" s="52" t="s">
         <v>457</v>
       </c>
-      <c r="E247" s="69"/>
+      <c r="E247" s="53"/>
       <c r="F247" s="43"/>
       <c r="G247" s="43"/>
     </row>
@@ -7258,14 +7517,14 @@
       <c r="A248" s="42" t="s">
         <v>458</v>
       </c>
-      <c r="B248" s="50" t="s">
+      <c r="B248" s="52" t="s">
         <v>459</v>
       </c>
-      <c r="C248" s="69"/>
-      <c r="D248" s="50" t="s">
+      <c r="C248" s="53"/>
+      <c r="D248" s="52" t="s">
         <v>460</v>
       </c>
-      <c r="E248" s="69"/>
+      <c r="E248" s="53"/>
       <c r="F248" s="43"/>
       <c r="G248" s="43"/>
     </row>
@@ -7273,14 +7532,14 @@
       <c r="A249" s="42" t="s">
         <v>461</v>
       </c>
-      <c r="B249" s="50" t="s">
+      <c r="B249" s="52" t="s">
         <v>462</v>
       </c>
-      <c r="C249" s="69"/>
-      <c r="D249" s="50" t="s">
+      <c r="C249" s="53"/>
+      <c r="D249" s="52" t="s">
         <v>463</v>
       </c>
-      <c r="E249" s="69"/>
+      <c r="E249" s="53"/>
       <c r="F249" s="43"/>
       <c r="G249" s="43"/>
     </row>
@@ -7288,14 +7547,14 @@
       <c r="A250" s="42" t="s">
         <v>464</v>
       </c>
-      <c r="B250" s="50" t="s">
+      <c r="B250" s="52" t="s">
         <v>465</v>
       </c>
-      <c r="C250" s="69"/>
-      <c r="D250" s="50" t="s">
+      <c r="C250" s="53"/>
+      <c r="D250" s="52" t="s">
         <v>466</v>
       </c>
-      <c r="E250" s="69"/>
+      <c r="E250" s="53"/>
       <c r="F250" s="43"/>
       <c r="G250" s="43"/>
     </row>
@@ -7303,1510 +7562,1879 @@
       <c r="A251" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="B251" s="50" t="s">
+      <c r="B251" s="52" t="s">
         <v>425</v>
       </c>
-      <c r="C251" s="69"/>
-      <c r="D251" s="50" t="s">
+      <c r="C251" s="53"/>
+      <c r="D251" s="52" t="s">
         <v>468</v>
       </c>
-      <c r="E251" s="69"/>
+      <c r="E251" s="53"/>
       <c r="F251" s="43"/>
       <c r="G251" s="43"/>
     </row>
     <row r="252" spans="1:7">
-      <c r="A252" s="48" t="s">
+      <c r="A252" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B252" s="49"/>
-      <c r="C252" s="79"/>
-      <c r="D252" s="80"/>
-      <c r="E252" s="80"/>
-      <c r="F252" s="80"/>
-      <c r="G252" s="81"/>
+      <c r="B252" s="51"/>
+      <c r="C252" s="47"/>
+      <c r="D252" s="48"/>
+      <c r="E252" s="48"/>
+      <c r="F252" s="48"/>
+      <c r="G252" s="49"/>
     </row>
     <row r="253" spans="1:7">
-      <c r="A253" s="53" t="s">
+      <c r="A253" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B253" s="52"/>
-      <c r="C253" s="79"/>
-      <c r="D253" s="80"/>
-      <c r="E253" s="80"/>
-      <c r="F253" s="80"/>
-      <c r="G253" s="81"/>
+      <c r="B253" s="46"/>
+      <c r="C253" s="47"/>
+      <c r="D253" s="48"/>
+      <c r="E253" s="48"/>
+      <c r="F253" s="48"/>
+      <c r="G253" s="49"/>
     </row>
     <row r="254" spans="1:7">
-      <c r="A254" s="48" t="s">
+      <c r="A254" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B254" s="49"/>
-      <c r="C254" s="79"/>
-      <c r="D254" s="80"/>
-      <c r="E254" s="80"/>
-      <c r="F254" s="80"/>
-      <c r="G254" s="81"/>
+      <c r="B254" s="51"/>
+      <c r="C254" s="47"/>
+      <c r="D254" s="48"/>
+      <c r="E254" s="48"/>
+      <c r="F254" s="48"/>
+      <c r="G254" s="49"/>
     </row>
     <row r="255" spans="1:7">
-      <c r="A255" s="48" t="s">
+      <c r="A255" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B255" s="49"/>
-      <c r="C255" s="79"/>
-      <c r="D255" s="80"/>
-      <c r="E255" s="80"/>
-      <c r="F255" s="80"/>
-      <c r="G255" s="81"/>
-    </row>
-    <row r="260" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A260" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="B260" s="54"/>
-      <c r="C260" s="54"/>
-      <c r="D260" s="54"/>
-      <c r="E260" s="54"/>
-      <c r="F260" s="54"/>
-      <c r="G260" s="54"/>
-    </row>
-    <row r="261" spans="1:7" ht="15" thickTop="1">
+      <c r="B255" s="51"/>
+      <c r="C255" s="47"/>
+      <c r="D255" s="48"/>
+      <c r="E255" s="48"/>
+      <c r="F255" s="48"/>
+      <c r="G255" s="49"/>
+    </row>
+    <row r="259" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A259" s="63" t="s">
+        <v>469</v>
+      </c>
+      <c r="B259" s="63"/>
+      <c r="C259" s="63"/>
+      <c r="D259" s="63"/>
+      <c r="E259" s="63"/>
+      <c r="F259" s="63"/>
+      <c r="G259" s="63"/>
+    </row>
+    <row r="260" spans="1:7" ht="15" thickTop="1">
+      <c r="A260" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B260" s="56"/>
+      <c r="C260" s="75" t="s">
+        <v>470</v>
+      </c>
+      <c r="D260" s="76"/>
+      <c r="E260" s="76"/>
+      <c r="F260" s="76"/>
+      <c r="G260" s="77"/>
+    </row>
+    <row r="261" spans="1:7">
       <c r="A261" s="55" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B261" s="56"/>
-      <c r="C261" s="57" t="s">
-        <v>190</v>
-      </c>
+      <c r="C261" s="57"/>
       <c r="D261" s="58"/>
       <c r="E261" s="58"/>
       <c r="F261" s="58"/>
       <c r="G261" s="59"/>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" ht="43.2" customHeight="1">
       <c r="A262" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B262" s="56"/>
+      <c r="C262" s="60" t="s">
+        <v>471</v>
+      </c>
+      <c r="D262" s="78"/>
+      <c r="E262" s="78"/>
+      <c r="F262" s="78"/>
+      <c r="G262" s="79"/>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="80"/>
+      <c r="B263" s="81"/>
+      <c r="C263" s="81"/>
+      <c r="D263" s="81"/>
+      <c r="E263" s="81"/>
+      <c r="F263" s="81"/>
+      <c r="G263" s="82"/>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B264" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C264" s="46"/>
+      <c r="D264" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E264" s="46"/>
+      <c r="F264" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G264" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="46.2" customHeight="1">
+      <c r="A265" s="44" t="s">
+        <v>472</v>
+      </c>
+      <c r="B265" s="52" t="s">
+        <v>473</v>
+      </c>
+      <c r="C265" s="74"/>
+      <c r="D265" s="52" t="s">
+        <v>474</v>
+      </c>
+      <c r="E265" s="74"/>
+      <c r="F265" s="39"/>
+      <c r="G265" s="39"/>
+    </row>
+    <row r="266" spans="1:7" ht="43.2" customHeight="1">
+      <c r="A266" s="44" t="s">
+        <v>475</v>
+      </c>
+      <c r="B266" s="52" t="s">
+        <v>476</v>
+      </c>
+      <c r="C266" s="74"/>
+      <c r="D266" s="52" t="s">
+        <v>477</v>
+      </c>
+      <c r="E266" s="53"/>
+      <c r="F266" s="39"/>
+      <c r="G266" s="39"/>
+    </row>
+    <row r="267" spans="1:7" ht="74.400000000000006" customHeight="1">
+      <c r="A267" s="44" t="s">
+        <v>478</v>
+      </c>
+      <c r="B267" s="52" t="s">
+        <v>479</v>
+      </c>
+      <c r="C267" s="74"/>
+      <c r="D267" s="52" t="s">
+        <v>480</v>
+      </c>
+      <c r="E267" s="53"/>
+      <c r="F267" s="39"/>
+      <c r="G267" s="39"/>
+    </row>
+    <row r="268" spans="1:7" ht="77.400000000000006" customHeight="1">
+      <c r="A268" s="44" t="s">
+        <v>481</v>
+      </c>
+      <c r="B268" s="52" t="s">
+        <v>489</v>
+      </c>
+      <c r="C268" s="74"/>
+      <c r="D268" s="52" t="s">
+        <v>482</v>
+      </c>
+      <c r="E268" s="53"/>
+      <c r="F268" s="39"/>
+      <c r="G268" s="39"/>
+    </row>
+    <row r="269" spans="1:7" ht="55.2" customHeight="1">
+      <c r="A269" s="44" t="s">
+        <v>483</v>
+      </c>
+      <c r="B269" s="52" t="s">
+        <v>484</v>
+      </c>
+      <c r="C269" s="53"/>
+      <c r="D269" s="52" t="s">
+        <v>485</v>
+      </c>
+      <c r="E269" s="53"/>
+      <c r="F269" s="39"/>
+      <c r="G269" s="39"/>
+    </row>
+    <row r="270" spans="1:7" ht="55.2" customHeight="1">
+      <c r="A270" s="44" t="s">
+        <v>486</v>
+      </c>
+      <c r="B270" s="52" t="s">
+        <v>487</v>
+      </c>
+      <c r="C270" s="74"/>
+      <c r="D270" s="52" t="s">
+        <v>488</v>
+      </c>
+      <c r="E270" s="74"/>
+      <c r="F270" s="39"/>
+      <c r="G270" s="39"/>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B271" s="46"/>
+      <c r="C271" s="47"/>
+      <c r="D271" s="48"/>
+      <c r="E271" s="48"/>
+      <c r="F271" s="48"/>
+      <c r="G271" s="49"/>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B272" s="46"/>
+      <c r="C272" s="47"/>
+      <c r="D272" s="48"/>
+      <c r="E272" s="48"/>
+      <c r="F272" s="48"/>
+      <c r="G272" s="49"/>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B273" s="46"/>
+      <c r="C273" s="47"/>
+      <c r="D273" s="48"/>
+      <c r="E273" s="48"/>
+      <c r="F273" s="48"/>
+      <c r="G273" s="49"/>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B274" s="51"/>
+      <c r="C274" s="47"/>
+      <c r="D274" s="48"/>
+      <c r="E274" s="48"/>
+      <c r="F274" s="48"/>
+      <c r="G274" s="49"/>
+    </row>
+    <row r="278" spans="1:7" ht="14.4" customHeight="1" thickBot="1">
+      <c r="A278" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="B278" s="63"/>
+      <c r="C278" s="63"/>
+      <c r="D278" s="63"/>
+      <c r="E278" s="63"/>
+      <c r="F278" s="63"/>
+      <c r="G278" s="63"/>
+    </row>
+    <row r="279" spans="1:7" ht="14.4" customHeight="1" thickTop="1">
+      <c r="A279" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B279" s="56"/>
+      <c r="C279" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="D279" s="76"/>
+      <c r="E279" s="76"/>
+      <c r="F279" s="76"/>
+      <c r="G279" s="77"/>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B262" s="56"/>
-      <c r="C262" s="60"/>
-      <c r="D262" s="61"/>
-      <c r="E262" s="61"/>
-      <c r="F262" s="61"/>
-      <c r="G262" s="62"/>
-    </row>
-    <row r="263" spans="1:7">
-      <c r="A263" s="55" t="s">
+      <c r="B280" s="56"/>
+      <c r="C280" s="57"/>
+      <c r="D280" s="58"/>
+      <c r="E280" s="58"/>
+      <c r="F280" s="58"/>
+      <c r="G280" s="59"/>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B263" s="56"/>
-      <c r="C263" s="63" t="s">
+      <c r="B281" s="56"/>
+      <c r="C281" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="D263" s="64"/>
-      <c r="E263" s="64"/>
-      <c r="F263" s="64"/>
-      <c r="G263" s="65"/>
-    </row>
-    <row r="264" spans="1:7">
-      <c r="A264" s="66"/>
-      <c r="B264" s="67"/>
-      <c r="C264" s="67"/>
-      <c r="D264" s="67"/>
-      <c r="E264" s="67"/>
-      <c r="F264" s="67"/>
-      <c r="G264" s="68"/>
-    </row>
-    <row r="265" spans="1:7">
-      <c r="A265" s="22" t="s">
+      <c r="D281" s="78"/>
+      <c r="E281" s="78"/>
+      <c r="F281" s="78"/>
+      <c r="G281" s="79"/>
+    </row>
+    <row r="282" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A282" s="80"/>
+      <c r="B282" s="81"/>
+      <c r="C282" s="81"/>
+      <c r="D282" s="81"/>
+      <c r="E282" s="81"/>
+      <c r="F282" s="81"/>
+      <c r="G282" s="82"/>
+    </row>
+    <row r="283" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A283" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B265" s="53" t="s">
+      <c r="B283" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C265" s="52"/>
-      <c r="D265" s="53" t="s">
+      <c r="C283" s="46"/>
+      <c r="D283" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="E265" s="52"/>
-      <c r="F265" s="21" t="s">
+      <c r="E283" s="46"/>
+      <c r="F283" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G265" s="22" t="s">
+      <c r="G283" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="63" customHeight="1">
-      <c r="A266" s="26" t="s">
+    <row r="284" spans="1:7" ht="63" customHeight="1">
+      <c r="A284" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="B266" s="50" t="s">
+      <c r="B284" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="C266" s="51"/>
-      <c r="D266" s="50" t="s">
+      <c r="C284" s="74"/>
+      <c r="D284" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="E266" s="51"/>
-      <c r="F266" s="29" t="s">
+      <c r="E284" s="74"/>
+      <c r="F284" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="G266" s="29" t="s">
+      <c r="G284" s="29" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="42.75" customHeight="1">
-      <c r="A267" s="26" t="s">
+    <row r="285" spans="1:7" ht="42.75" customHeight="1">
+      <c r="A285" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="B267" s="50" t="s">
+      <c r="B285" s="52" t="s">
         <v>359</v>
       </c>
-      <c r="C267" s="51"/>
-      <c r="D267" s="50" t="s">
+      <c r="C285" s="74"/>
+      <c r="D285" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E267" s="51"/>
-      <c r="F267" s="29"/>
-      <c r="G267" s="29"/>
-    </row>
-    <row r="268" spans="1:7" ht="57" customHeight="1">
-      <c r="A268" s="26" t="s">
+      <c r="E285" s="74"/>
+      <c r="F285" s="29"/>
+      <c r="G285" s="29"/>
+    </row>
+    <row r="286" spans="1:7" ht="57" customHeight="1">
+      <c r="A286" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="B268" s="50" t="s">
+      <c r="B286" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="C268" s="51"/>
-      <c r="D268" s="50" t="s">
+      <c r="C286" s="74"/>
+      <c r="D286" s="52" t="s">
         <v>362</v>
       </c>
-      <c r="E268" s="51"/>
-      <c r="F268" s="29" t="s">
+      <c r="E286" s="74"/>
+      <c r="F286" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="G268" s="29" t="s">
+      <c r="G286" s="29" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
-      <c r="A269" s="48" t="s">
+    <row r="287" spans="1:7" ht="14.4" customHeight="1">
+      <c r="A287" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B269" s="52"/>
-      <c r="C269" s="44" t="s">
+      <c r="B287" s="46"/>
+      <c r="C287" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="D269" s="45"/>
-      <c r="E269" s="45"/>
-      <c r="F269" s="45"/>
-      <c r="G269" s="46"/>
-    </row>
-    <row r="270" spans="1:7">
-      <c r="A270" s="53" t="s">
+      <c r="D287" s="71"/>
+      <c r="E287" s="71"/>
+      <c r="F287" s="71"/>
+      <c r="G287" s="72"/>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B270" s="52"/>
-      <c r="C270" s="47">
+      <c r="B288" s="46"/>
+      <c r="C288" s="70">
         <v>43047</v>
       </c>
-      <c r="D270" s="45"/>
-      <c r="E270" s="45"/>
-      <c r="F270" s="45"/>
-      <c r="G270" s="46"/>
-    </row>
-    <row r="271" spans="1:7">
-      <c r="A271" s="48" t="s">
+      <c r="D288" s="71"/>
+      <c r="E288" s="71"/>
+      <c r="F288" s="71"/>
+      <c r="G288" s="72"/>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B271" s="52"/>
-      <c r="C271" s="44" t="s">
+      <c r="B289" s="46"/>
+      <c r="C289" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="D271" s="45"/>
-      <c r="E271" s="45"/>
-      <c r="F271" s="45"/>
-      <c r="G271" s="46"/>
-    </row>
-    <row r="272" spans="1:7">
-      <c r="A272" s="48" t="s">
+      <c r="D289" s="71"/>
+      <c r="E289" s="71"/>
+      <c r="F289" s="71"/>
+      <c r="G289" s="72"/>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B272" s="49"/>
-      <c r="C272" s="44" t="s">
+      <c r="B290" s="51"/>
+      <c r="C290" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="D272" s="45"/>
-      <c r="E272" s="45"/>
-      <c r="F272" s="45"/>
-      <c r="G272" s="46"/>
-    </row>
-    <row r="276" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A276" s="54" t="s">
+      <c r="D290" s="71"/>
+      <c r="E290" s="71"/>
+      <c r="F290" s="71"/>
+      <c r="G290" s="72"/>
+    </row>
+    <row r="294" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A294" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="B276" s="54"/>
-      <c r="C276" s="54"/>
-      <c r="D276" s="54"/>
-      <c r="E276" s="54"/>
-      <c r="F276" s="54"/>
-      <c r="G276" s="54"/>
-    </row>
-    <row r="277" spans="1:7" ht="15" thickTop="1">
-      <c r="A277" s="55" t="s">
+      <c r="B294" s="63"/>
+      <c r="C294" s="63"/>
+      <c r="D294" s="63"/>
+      <c r="E294" s="63"/>
+      <c r="F294" s="63"/>
+      <c r="G294" s="63"/>
+    </row>
+    <row r="295" spans="1:7" ht="15" thickTop="1">
+      <c r="A295" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B277" s="56"/>
-      <c r="C277" s="57" t="s">
+      <c r="B295" s="56"/>
+      <c r="C295" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="D277" s="58"/>
-      <c r="E277" s="58"/>
-      <c r="F277" s="58"/>
-      <c r="G277" s="59"/>
-    </row>
-    <row r="278" spans="1:7">
-      <c r="A278" s="55" t="s">
+      <c r="D295" s="76"/>
+      <c r="E295" s="76"/>
+      <c r="F295" s="76"/>
+      <c r="G295" s="77"/>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B278" s="56"/>
-      <c r="C278" s="60"/>
-      <c r="D278" s="61"/>
-      <c r="E278" s="61"/>
-      <c r="F278" s="61"/>
-      <c r="G278" s="62"/>
-    </row>
-    <row r="279" spans="1:7">
-      <c r="A279" s="55" t="s">
+      <c r="B296" s="56"/>
+      <c r="C296" s="57"/>
+      <c r="D296" s="58"/>
+      <c r="E296" s="58"/>
+      <c r="F296" s="58"/>
+      <c r="G296" s="59"/>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B279" s="56"/>
-      <c r="C279" s="63" t="s">
+      <c r="B297" s="56"/>
+      <c r="C297" s="60" t="s">
         <v>152</v>
       </c>
-      <c r="D279" s="64"/>
-      <c r="E279" s="64"/>
-      <c r="F279" s="64"/>
-      <c r="G279" s="65"/>
-    </row>
-    <row r="280" spans="1:7">
-      <c r="A280" s="66"/>
-      <c r="B280" s="67"/>
-      <c r="C280" s="67"/>
-      <c r="D280" s="67"/>
-      <c r="E280" s="67"/>
-      <c r="F280" s="67"/>
-      <c r="G280" s="68"/>
-    </row>
-    <row r="281" spans="1:7">
-      <c r="A281" s="22" t="s">
+      <c r="D297" s="78"/>
+      <c r="E297" s="78"/>
+      <c r="F297" s="78"/>
+      <c r="G297" s="79"/>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" s="80"/>
+      <c r="B298" s="81"/>
+      <c r="C298" s="81"/>
+      <c r="D298" s="81"/>
+      <c r="E298" s="81"/>
+      <c r="F298" s="81"/>
+      <c r="G298" s="82"/>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B281" s="53" t="s">
+      <c r="B299" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C281" s="52"/>
-      <c r="D281" s="53" t="s">
+      <c r="C299" s="46"/>
+      <c r="D299" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="E281" s="52"/>
-      <c r="F281" s="21" t="s">
+      <c r="E299" s="46"/>
+      <c r="F299" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G281" s="22" t="s">
+      <c r="G299" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="70.95" customHeight="1">
-      <c r="A282" s="26" t="s">
+    <row r="300" spans="1:7" ht="70.95" customHeight="1">
+      <c r="A300" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="B282" s="50" t="s">
+      <c r="B300" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="C282" s="51"/>
-      <c r="D282" s="50" t="s">
+      <c r="C300" s="74"/>
+      <c r="D300" s="52" t="s">
         <v>192</v>
       </c>
-      <c r="E282" s="51"/>
-      <c r="F282" s="29" t="s">
+      <c r="E300" s="74"/>
+      <c r="F300" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="G282" s="29" t="s">
+      <c r="G300" s="29" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="66.599999999999994" customHeight="1">
-      <c r="A283" s="26" t="s">
+    <row r="301" spans="1:7" ht="66.599999999999994" customHeight="1">
+      <c r="A301" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="B283" s="50" t="s">
+      <c r="B301" s="52" t="s">
         <v>197</v>
       </c>
-      <c r="C283" s="51"/>
-      <c r="D283" s="50" t="s">
+      <c r="C301" s="74"/>
+      <c r="D301" s="52" t="s">
         <v>363</v>
       </c>
-      <c r="E283" s="51"/>
-      <c r="F283" s="29" t="s">
+      <c r="E301" s="74"/>
+      <c r="F301" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="G283" s="29" t="s">
+      <c r="G301" s="29" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
-      <c r="A284" s="48" t="s">
+    <row r="302" spans="1:7">
+      <c r="A302" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B284" s="52"/>
-      <c r="C284" s="44" t="s">
+      <c r="B302" s="46"/>
+      <c r="C302" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="D284" s="45"/>
-      <c r="E284" s="45"/>
-      <c r="F284" s="45"/>
-      <c r="G284" s="46"/>
-    </row>
-    <row r="285" spans="1:7">
-      <c r="A285" s="53" t="s">
+      <c r="D302" s="71"/>
+      <c r="E302" s="71"/>
+      <c r="F302" s="71"/>
+      <c r="G302" s="72"/>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B285" s="52"/>
-      <c r="C285" s="47">
+      <c r="B303" s="46"/>
+      <c r="C303" s="70">
         <v>43047</v>
       </c>
-      <c r="D285" s="45"/>
-      <c r="E285" s="45"/>
-      <c r="F285" s="45"/>
-      <c r="G285" s="46"/>
-    </row>
-    <row r="286" spans="1:7">
-      <c r="A286" s="48" t="s">
+      <c r="D303" s="71"/>
+      <c r="E303" s="71"/>
+      <c r="F303" s="71"/>
+      <c r="G303" s="72"/>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B286" s="52"/>
-      <c r="C286" s="44" t="s">
+      <c r="B304" s="46"/>
+      <c r="C304" s="73" t="s">
         <v>198</v>
       </c>
-      <c r="D286" s="45"/>
-      <c r="E286" s="45"/>
-      <c r="F286" s="45"/>
-      <c r="G286" s="46"/>
-    </row>
-    <row r="287" spans="1:7">
-      <c r="A287" s="48" t="s">
+      <c r="D304" s="71"/>
+      <c r="E304" s="71"/>
+      <c r="F304" s="71"/>
+      <c r="G304" s="72"/>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B287" s="49"/>
-      <c r="C287" s="44" t="s">
+      <c r="B305" s="51"/>
+      <c r="C305" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="D287" s="45"/>
-      <c r="E287" s="45"/>
-      <c r="F287" s="45"/>
-      <c r="G287" s="46"/>
-    </row>
-    <row r="291" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A291" s="54" t="s">
+      <c r="D305" s="71"/>
+      <c r="E305" s="71"/>
+      <c r="F305" s="71"/>
+      <c r="G305" s="72"/>
+    </row>
+    <row r="309" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A309" s="63" t="s">
         <v>212</v>
       </c>
-      <c r="B291" s="54"/>
-      <c r="C291" s="54"/>
-      <c r="D291" s="54"/>
-      <c r="E291" s="54"/>
-      <c r="F291" s="54"/>
-      <c r="G291" s="54"/>
-    </row>
-    <row r="292" spans="1:7" ht="15" thickTop="1">
-      <c r="A292" s="55" t="s">
+      <c r="B309" s="63"/>
+      <c r="C309" s="63"/>
+      <c r="D309" s="63"/>
+      <c r="E309" s="63"/>
+      <c r="F309" s="63"/>
+      <c r="G309" s="63"/>
+    </row>
+    <row r="310" spans="1:7" ht="15" thickTop="1">
+      <c r="A310" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B292" s="56"/>
-      <c r="C292" s="57" t="s">
+      <c r="B310" s="56"/>
+      <c r="C310" s="75" t="s">
         <v>210</v>
       </c>
-      <c r="D292" s="58"/>
-      <c r="E292" s="58"/>
-      <c r="F292" s="58"/>
-      <c r="G292" s="59"/>
-    </row>
-    <row r="293" spans="1:7">
-      <c r="A293" s="55" t="s">
+      <c r="D310" s="76"/>
+      <c r="E310" s="76"/>
+      <c r="F310" s="76"/>
+      <c r="G310" s="77"/>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B293" s="56"/>
-      <c r="C293" s="60"/>
-      <c r="D293" s="61"/>
-      <c r="E293" s="61"/>
-      <c r="F293" s="61"/>
-      <c r="G293" s="62"/>
-    </row>
-    <row r="294" spans="1:7">
-      <c r="A294" s="55" t="s">
+      <c r="B311" s="56"/>
+      <c r="C311" s="57"/>
+      <c r="D311" s="58"/>
+      <c r="E311" s="58"/>
+      <c r="F311" s="58"/>
+      <c r="G311" s="59"/>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B294" s="56"/>
-      <c r="C294" s="63"/>
-      <c r="D294" s="64"/>
-      <c r="E294" s="64"/>
-      <c r="F294" s="64"/>
-      <c r="G294" s="65"/>
-    </row>
-    <row r="295" spans="1:7">
-      <c r="A295" s="66"/>
-      <c r="B295" s="67"/>
-      <c r="C295" s="67"/>
-      <c r="D295" s="67"/>
-      <c r="E295" s="67"/>
-      <c r="F295" s="67"/>
-      <c r="G295" s="68"/>
-    </row>
-    <row r="296" spans="1:7">
-      <c r="A296" s="22" t="s">
+      <c r="B312" s="56"/>
+      <c r="C312" s="60"/>
+      <c r="D312" s="78"/>
+      <c r="E312" s="78"/>
+      <c r="F312" s="78"/>
+      <c r="G312" s="79"/>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="80"/>
+      <c r="B313" s="81"/>
+      <c r="C313" s="81"/>
+      <c r="D313" s="81"/>
+      <c r="E313" s="81"/>
+      <c r="F313" s="81"/>
+      <c r="G313" s="82"/>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B296" s="53" t="s">
+      <c r="B314" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C296" s="52"/>
-      <c r="D296" s="53" t="s">
+      <c r="C314" s="46"/>
+      <c r="D314" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="E296" s="52"/>
-      <c r="F296" s="21" t="s">
+      <c r="E314" s="46"/>
+      <c r="F314" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G296" s="22" t="s">
+      <c r="G314" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="105.6" customHeight="1">
-      <c r="A297" s="26" t="s">
+    <row r="315" spans="1:7" ht="105.6" customHeight="1">
+      <c r="A315" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="B297" s="50" t="s">
+      <c r="B315" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="C297" s="51"/>
-      <c r="D297" s="50" t="s">
+      <c r="C315" s="74"/>
+      <c r="D315" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="E297" s="51"/>
-      <c r="F297" s="29" t="s">
+      <c r="E315" s="74"/>
+      <c r="F315" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="G297" s="29" t="s">
+      <c r="G315" s="29" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
-      <c r="A298" s="48" t="s">
+    <row r="316" spans="1:7">
+      <c r="A316" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B298" s="52"/>
-      <c r="C298" s="44" t="s">
+      <c r="B316" s="46"/>
+      <c r="C316" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="D298" s="45"/>
-      <c r="E298" s="45"/>
-      <c r="F298" s="45"/>
-      <c r="G298" s="46"/>
-    </row>
-    <row r="299" spans="1:7">
-      <c r="A299" s="53" t="s">
+      <c r="D316" s="71"/>
+      <c r="E316" s="71"/>
+      <c r="F316" s="71"/>
+      <c r="G316" s="72"/>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B299" s="52"/>
-      <c r="C299" s="47">
+      <c r="B317" s="46"/>
+      <c r="C317" s="70">
         <v>43047</v>
       </c>
-      <c r="D299" s="45"/>
-      <c r="E299" s="45"/>
-      <c r="F299" s="45"/>
-      <c r="G299" s="46"/>
-    </row>
-    <row r="300" spans="1:7">
-      <c r="A300" s="48" t="s">
+      <c r="D317" s="71"/>
+      <c r="E317" s="71"/>
+      <c r="F317" s="71"/>
+      <c r="G317" s="72"/>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B300" s="52"/>
-      <c r="C300" s="44" t="s">
+      <c r="B318" s="46"/>
+      <c r="C318" s="73" t="s">
         <v>215</v>
       </c>
-      <c r="D300" s="45"/>
-      <c r="E300" s="45"/>
-      <c r="F300" s="45"/>
-      <c r="G300" s="46"/>
-    </row>
-    <row r="301" spans="1:7">
-      <c r="A301" s="48" t="s">
+      <c r="D318" s="71"/>
+      <c r="E318" s="71"/>
+      <c r="F318" s="71"/>
+      <c r="G318" s="72"/>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B301" s="49"/>
-      <c r="C301" s="44" t="s">
+      <c r="B319" s="51"/>
+      <c r="C319" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="D301" s="45"/>
-      <c r="E301" s="45"/>
-      <c r="F301" s="45"/>
-      <c r="G301" s="46"/>
-    </row>
-    <row r="305" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A305" s="54" t="s">
+      <c r="D319" s="71"/>
+      <c r="E319" s="71"/>
+      <c r="F319" s="71"/>
+      <c r="G319" s="72"/>
+    </row>
+    <row r="323" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A323" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="B305" s="54"/>
-      <c r="C305" s="54"/>
-      <c r="D305" s="54"/>
-      <c r="E305" s="54"/>
-      <c r="F305" s="54"/>
-      <c r="G305" s="54"/>
-    </row>
-    <row r="306" spans="1:7" ht="15" thickTop="1">
-      <c r="A306" s="55" t="s">
+      <c r="B323" s="63"/>
+      <c r="C323" s="63"/>
+      <c r="D323" s="63"/>
+      <c r="E323" s="63"/>
+      <c r="F323" s="63"/>
+      <c r="G323" s="63"/>
+    </row>
+    <row r="324" spans="1:7" ht="15" thickTop="1">
+      <c r="A324" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B306" s="56"/>
-      <c r="C306" s="57" t="s">
+      <c r="B324" s="56"/>
+      <c r="C324" s="75" t="s">
         <v>207</v>
       </c>
-      <c r="D306" s="58"/>
-      <c r="E306" s="58"/>
-      <c r="F306" s="58"/>
-      <c r="G306" s="59"/>
-    </row>
-    <row r="307" spans="1:7">
-      <c r="A307" s="55" t="s">
+      <c r="D324" s="76"/>
+      <c r="E324" s="76"/>
+      <c r="F324" s="76"/>
+      <c r="G324" s="77"/>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="B307" s="56"/>
-      <c r="C307" s="60"/>
-      <c r="D307" s="61"/>
-      <c r="E307" s="61"/>
-      <c r="F307" s="61"/>
-      <c r="G307" s="62"/>
-    </row>
-    <row r="308" spans="1:7">
-      <c r="A308" s="55" t="s">
+      <c r="B325" s="56"/>
+      <c r="C325" s="57"/>
+      <c r="D325" s="58"/>
+      <c r="E325" s="58"/>
+      <c r="F325" s="58"/>
+      <c r="G325" s="59"/>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B308" s="56"/>
-      <c r="C308" s="63" t="s">
+      <c r="B326" s="56"/>
+      <c r="C326" s="60" t="s">
         <v>199</v>
       </c>
-      <c r="D308" s="64"/>
-      <c r="E308" s="64"/>
-      <c r="F308" s="64"/>
-      <c r="G308" s="65"/>
-    </row>
-    <row r="309" spans="1:7">
-      <c r="A309" s="66"/>
-      <c r="B309" s="67"/>
-      <c r="C309" s="67"/>
-      <c r="D309" s="67"/>
-      <c r="E309" s="67"/>
-      <c r="F309" s="67"/>
-      <c r="G309" s="68"/>
-    </row>
-    <row r="310" spans="1:7">
-      <c r="A310" s="22" t="s">
+      <c r="D326" s="78"/>
+      <c r="E326" s="78"/>
+      <c r="F326" s="78"/>
+      <c r="G326" s="79"/>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" s="80"/>
+      <c r="B327" s="81"/>
+      <c r="C327" s="81"/>
+      <c r="D327" s="81"/>
+      <c r="E327" s="81"/>
+      <c r="F327" s="81"/>
+      <c r="G327" s="82"/>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B310" s="53" t="s">
+      <c r="B328" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C310" s="52"/>
-      <c r="D310" s="53" t="s">
+      <c r="C328" s="46"/>
+      <c r="D328" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="E310" s="52"/>
-      <c r="F310" s="21" t="s">
+      <c r="E328" s="46"/>
+      <c r="F328" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G310" s="22" t="s">
+      <c r="G328" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="87" customHeight="1">
-      <c r="A311" s="26" t="s">
+    <row r="329" spans="1:7" ht="87" customHeight="1">
+      <c r="A329" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="B311" s="50" t="s">
+      <c r="B329" s="52" t="s">
         <v>200</v>
       </c>
-      <c r="C311" s="51"/>
-      <c r="D311" s="50" t="s">
+      <c r="C329" s="74"/>
+      <c r="D329" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="E311" s="51"/>
-      <c r="F311" s="29" t="s">
+      <c r="E329" s="74"/>
+      <c r="F329" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="G311" s="29" t="s">
+      <c r="G329" s="29" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="43.2" customHeight="1">
-      <c r="A312" s="26" t="s">
+    <row r="330" spans="1:7" ht="43.2" customHeight="1">
+      <c r="A330" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="B312" s="50" t="s">
+      <c r="B330" s="52" t="s">
         <v>202</v>
       </c>
-      <c r="C312" s="51"/>
-      <c r="D312" s="50" t="s">
+      <c r="C330" s="74"/>
+      <c r="D330" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="E312" s="51"/>
-      <c r="F312" s="29" t="s">
+      <c r="E330" s="74"/>
+      <c r="F330" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G312" s="29" t="s">
+      <c r="G330" s="29" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
-      <c r="A313" s="48" t="s">
+    <row r="331" spans="1:7">
+      <c r="A331" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B313" s="52"/>
-      <c r="C313" s="44" t="s">
+      <c r="B331" s="46"/>
+      <c r="C331" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="D313" s="45"/>
-      <c r="E313" s="45"/>
-      <c r="F313" s="45"/>
-      <c r="G313" s="46"/>
-    </row>
-    <row r="314" spans="1:7">
-      <c r="A314" s="53" t="s">
+      <c r="D331" s="71"/>
+      <c r="E331" s="71"/>
+      <c r="F331" s="71"/>
+      <c r="G331" s="72"/>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B314" s="52"/>
-      <c r="C314" s="47">
+      <c r="B332" s="46"/>
+      <c r="C332" s="70">
         <v>43047</v>
       </c>
-      <c r="D314" s="45"/>
-      <c r="E314" s="45"/>
-      <c r="F314" s="45"/>
-      <c r="G314" s="46"/>
-    </row>
-    <row r="315" spans="1:7">
-      <c r="A315" s="48" t="s">
+      <c r="D332" s="71"/>
+      <c r="E332" s="71"/>
+      <c r="F332" s="71"/>
+      <c r="G332" s="72"/>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B315" s="52"/>
-      <c r="C315" s="44" t="s">
+      <c r="B333" s="46"/>
+      <c r="C333" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="D315" s="45"/>
-      <c r="E315" s="45"/>
-      <c r="F315" s="45"/>
-      <c r="G315" s="46"/>
-    </row>
-    <row r="316" spans="1:7">
-      <c r="A316" s="48" t="s">
+      <c r="D333" s="71"/>
+      <c r="E333" s="71"/>
+      <c r="F333" s="71"/>
+      <c r="G333" s="72"/>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B316" s="49"/>
-      <c r="C316" s="44" t="s">
+      <c r="B334" s="51"/>
+      <c r="C334" s="73" t="s">
         <v>98</v>
-      </c>
-      <c r="D316" s="45"/>
-      <c r="E316" s="45"/>
-      <c r="F316" s="45"/>
-      <c r="G316" s="46"/>
-    </row>
-    <row r="318" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A318" s="54" t="s">
-        <v>365</v>
-      </c>
-      <c r="B318" s="54"/>
-      <c r="C318" s="54"/>
-      <c r="D318" s="54"/>
-      <c r="E318" s="54"/>
-      <c r="F318" s="54"/>
-      <c r="G318" s="54"/>
-    </row>
-    <row r="319" spans="1:7" ht="15" thickTop="1">
-      <c r="A319" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="B319" s="56"/>
-      <c r="C319" s="57" t="s">
-        <v>366</v>
-      </c>
-      <c r="D319" s="58"/>
-      <c r="E319" s="58"/>
-      <c r="F319" s="58"/>
-      <c r="G319" s="59"/>
-    </row>
-    <row r="320" spans="1:7">
-      <c r="A320" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="B320" s="56"/>
-      <c r="C320" s="60"/>
-      <c r="D320" s="61"/>
-      <c r="E320" s="61"/>
-      <c r="F320" s="61"/>
-      <c r="G320" s="62"/>
-    </row>
-    <row r="321" spans="1:7" ht="27" customHeight="1">
-      <c r="A321" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="B321" s="56"/>
-      <c r="C321" s="63" t="s">
-        <v>367</v>
-      </c>
-      <c r="D321" s="64"/>
-      <c r="E321" s="64"/>
-      <c r="F321" s="64"/>
-      <c r="G321" s="65"/>
-    </row>
-    <row r="322" spans="1:7">
-      <c r="A322" s="66"/>
-      <c r="B322" s="67"/>
-      <c r="C322" s="67"/>
-      <c r="D322" s="67"/>
-      <c r="E322" s="67"/>
-      <c r="F322" s="67"/>
-      <c r="G322" s="68"/>
-    </row>
-    <row r="323" spans="1:7">
-      <c r="A323" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B323" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C323" s="52"/>
-      <c r="D323" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E323" s="52"/>
-      <c r="F323" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G323" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" ht="87" customHeight="1">
-      <c r="A324" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="B324" s="50" t="s">
-        <v>368</v>
-      </c>
-      <c r="C324" s="51"/>
-      <c r="D324" s="50" t="s">
-        <v>369</v>
-      </c>
-      <c r="E324" s="51"/>
-      <c r="F324" s="29" t="s">
-        <v>370</v>
-      </c>
-      <c r="G324" s="29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7">
-      <c r="A325" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="B325" s="52"/>
-      <c r="C325" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="D325" s="45"/>
-      <c r="E325" s="45"/>
-      <c r="F325" s="45"/>
-      <c r="G325" s="46"/>
-    </row>
-    <row r="326" spans="1:7">
-      <c r="A326" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="B326" s="52"/>
-      <c r="C326" s="47">
-        <v>43048</v>
-      </c>
-      <c r="D326" s="45"/>
-      <c r="E326" s="45"/>
-      <c r="F326" s="45"/>
-      <c r="G326" s="46"/>
-    </row>
-    <row r="327" spans="1:7">
-      <c r="A327" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B327" s="52"/>
-      <c r="C327" s="44" t="s">
-        <v>371</v>
-      </c>
-      <c r="D327" s="45"/>
-      <c r="E327" s="45"/>
-      <c r="F327" s="45"/>
-      <c r="G327" s="46"/>
-    </row>
-    <row r="328" spans="1:7">
-      <c r="A328" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="B328" s="49"/>
-      <c r="C328" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="D328" s="45"/>
-      <c r="E328" s="45"/>
-      <c r="F328" s="45"/>
-      <c r="G328" s="46"/>
-    </row>
-    <row r="331" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="A331" s="54" t="s">
-        <v>297</v>
-      </c>
-      <c r="B331" s="54"/>
-      <c r="C331" s="54"/>
-      <c r="D331" s="54"/>
-      <c r="E331" s="54"/>
-      <c r="F331" s="54"/>
-      <c r="G331" s="54"/>
-    </row>
-    <row r="332" spans="1:7" ht="17.25" customHeight="1" thickTop="1">
-      <c r="A332" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="B332" s="56"/>
-      <c r="C332" s="73" t="s">
-        <v>298</v>
-      </c>
-      <c r="D332" s="74"/>
-      <c r="E332" s="74"/>
-      <c r="F332" s="74"/>
-      <c r="G332" s="75"/>
-    </row>
-    <row r="333" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A333" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="B333" s="56"/>
-      <c r="C333" s="70"/>
-      <c r="D333" s="64"/>
-      <c r="E333" s="64"/>
-      <c r="F333" s="64"/>
-      <c r="G333" s="65"/>
-    </row>
-    <row r="334" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A334" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="B334" s="56"/>
-      <c r="C334" s="63" t="s">
-        <v>299</v>
       </c>
       <c r="D334" s="71"/>
       <c r="E334" s="71"/>
       <c r="F334" s="71"/>
       <c r="G334" s="72"/>
     </row>
-    <row r="335" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A335" s="30"/>
-      <c r="B335" s="31"/>
-      <c r="C335" s="31"/>
-      <c r="D335" s="31"/>
-      <c r="E335" s="31"/>
-      <c r="F335" s="31"/>
-      <c r="G335" s="32"/>
-    </row>
-    <row r="336" spans="1:7" ht="56.25" customHeight="1">
-      <c r="A336" s="22" t="s">
+    <row r="336" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A336" s="63" t="s">
+        <v>365</v>
+      </c>
+      <c r="B336" s="63"/>
+      <c r="C336" s="63"/>
+      <c r="D336" s="63"/>
+      <c r="E336" s="63"/>
+      <c r="F336" s="63"/>
+      <c r="G336" s="63"/>
+    </row>
+    <row r="337" spans="1:7" ht="15" thickTop="1">
+      <c r="A337" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B337" s="56"/>
+      <c r="C337" s="75" t="s">
+        <v>366</v>
+      </c>
+      <c r="D337" s="76"/>
+      <c r="E337" s="76"/>
+      <c r="F337" s="76"/>
+      <c r="G337" s="77"/>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B338" s="56"/>
+      <c r="C338" s="57"/>
+      <c r="D338" s="58"/>
+      <c r="E338" s="58"/>
+      <c r="F338" s="58"/>
+      <c r="G338" s="59"/>
+    </row>
+    <row r="339" spans="1:7" ht="27" customHeight="1">
+      <c r="A339" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B339" s="56"/>
+      <c r="C339" s="60" t="s">
+        <v>367</v>
+      </c>
+      <c r="D339" s="78"/>
+      <c r="E339" s="78"/>
+      <c r="F339" s="78"/>
+      <c r="G339" s="79"/>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" s="80"/>
+      <c r="B340" s="81"/>
+      <c r="C340" s="81"/>
+      <c r="D340" s="81"/>
+      <c r="E340" s="81"/>
+      <c r="F340" s="81"/>
+      <c r="G340" s="82"/>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B336" s="53" t="s">
+      <c r="B341" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C336" s="52"/>
-      <c r="D336" s="53" t="s">
+      <c r="C341" s="46"/>
+      <c r="D341" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="E336" s="52"/>
-      <c r="F336" s="21" t="s">
+      <c r="E341" s="46"/>
+      <c r="F341" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G336" s="22" t="s">
+      <c r="G341" s="22" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="56.25" customHeight="1">
-      <c r="A337" s="26" t="s">
+    <row r="342" spans="1:7" ht="87" customHeight="1">
+      <c r="A342" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="B342" s="52" t="s">
+        <v>368</v>
+      </c>
+      <c r="C342" s="74"/>
+      <c r="D342" s="52" t="s">
+        <v>369</v>
+      </c>
+      <c r="E342" s="74"/>
+      <c r="F342" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="G342" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B343" s="46"/>
+      <c r="C343" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="D343" s="71"/>
+      <c r="E343" s="71"/>
+      <c r="F343" s="71"/>
+      <c r="G343" s="72"/>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B344" s="46"/>
+      <c r="C344" s="70">
+        <v>43048</v>
+      </c>
+      <c r="D344" s="71"/>
+      <c r="E344" s="71"/>
+      <c r="F344" s="71"/>
+      <c r="G344" s="72"/>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B345" s="46"/>
+      <c r="C345" s="73" t="s">
+        <v>371</v>
+      </c>
+      <c r="D345" s="71"/>
+      <c r="E345" s="71"/>
+      <c r="F345" s="71"/>
+      <c r="G345" s="72"/>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B346" s="51"/>
+      <c r="C346" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="D346" s="71"/>
+      <c r="E346" s="71"/>
+      <c r="F346" s="71"/>
+      <c r="G346" s="72"/>
+    </row>
+    <row r="349" spans="1:7" ht="15" customHeight="1" thickBot="1">
+      <c r="A349" s="63" t="s">
+        <v>297</v>
+      </c>
+      <c r="B349" s="63"/>
+      <c r="C349" s="63"/>
+      <c r="D349" s="63"/>
+      <c r="E349" s="63"/>
+      <c r="F349" s="63"/>
+      <c r="G349" s="63"/>
+    </row>
+    <row r="350" spans="1:7" ht="17.25" customHeight="1" thickTop="1">
+      <c r="A350" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B350" s="56"/>
+      <c r="C350" s="66" t="s">
+        <v>298</v>
+      </c>
+      <c r="D350" s="67"/>
+      <c r="E350" s="67"/>
+      <c r="F350" s="67"/>
+      <c r="G350" s="68"/>
+    </row>
+    <row r="351" spans="1:7" ht="14.25" customHeight="1">
+      <c r="A351" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B351" s="56"/>
+      <c r="C351" s="90"/>
+      <c r="D351" s="78"/>
+      <c r="E351" s="78"/>
+      <c r="F351" s="78"/>
+      <c r="G351" s="79"/>
+    </row>
+    <row r="352" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A352" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B352" s="56"/>
+      <c r="C352" s="60" t="s">
+        <v>299</v>
+      </c>
+      <c r="D352" s="61"/>
+      <c r="E352" s="61"/>
+      <c r="F352" s="61"/>
+      <c r="G352" s="62"/>
+    </row>
+    <row r="353" spans="1:7" ht="17.25" customHeight="1">
+      <c r="A353" s="30"/>
+      <c r="B353" s="31"/>
+      <c r="C353" s="31"/>
+      <c r="D353" s="31"/>
+      <c r="E353" s="31"/>
+      <c r="F353" s="31"/>
+      <c r="G353" s="32"/>
+    </row>
+    <row r="354" spans="1:7" ht="56.25" customHeight="1">
+      <c r="A354" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B354" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C354" s="46"/>
+      <c r="D354" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E354" s="46"/>
+      <c r="F354" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G354" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" ht="56.25" customHeight="1">
+      <c r="A355" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="B337" s="50" t="s">
+      <c r="B355" s="52" t="s">
         <v>301</v>
       </c>
-      <c r="C337" s="69"/>
-      <c r="D337" s="50" t="s">
+      <c r="C355" s="53"/>
+      <c r="D355" s="52" t="s">
         <v>302</v>
       </c>
-      <c r="E337" s="51"/>
-      <c r="F337" s="29"/>
-      <c r="G337" s="29"/>
-    </row>
-    <row r="338" spans="1:7" ht="56.25" customHeight="1">
-      <c r="A338" s="26" t="s">
+      <c r="E355" s="74"/>
+      <c r="F355" s="29"/>
+      <c r="G355" s="29"/>
+    </row>
+    <row r="356" spans="1:7" ht="56.25" customHeight="1">
+      <c r="A356" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="B338" s="50" t="s">
+      <c r="B356" s="52" t="s">
         <v>304</v>
       </c>
-      <c r="C338" s="69"/>
-      <c r="D338" s="50" t="s">
+      <c r="C356" s="53"/>
+      <c r="D356" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E338" s="69"/>
-      <c r="F338" s="29"/>
-      <c r="G338" s="29"/>
-    </row>
-    <row r="339" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A339" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="B339" s="50" t="s">
-        <v>306</v>
-      </c>
-      <c r="C339" s="69"/>
-      <c r="D339" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="E339" s="69"/>
-      <c r="F339" s="29"/>
-      <c r="G339" s="29"/>
-    </row>
-    <row r="340" spans="1:7" ht="36" customHeight="1">
-      <c r="A340" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="B340" s="50" t="s">
-        <v>308</v>
-      </c>
-      <c r="C340" s="69"/>
-      <c r="D340" s="50" t="s">
-        <v>309</v>
-      </c>
-      <c r="E340" s="51"/>
-      <c r="F340" s="29"/>
-      <c r="G340" s="29"/>
-    </row>
-    <row r="341" spans="1:7" ht="36" customHeight="1">
-      <c r="A341" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="B341" s="50" t="s">
-        <v>311</v>
-      </c>
-      <c r="C341" s="69"/>
-      <c r="D341" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="E341" s="69"/>
-      <c r="F341" s="29"/>
-      <c r="G341" s="29"/>
-    </row>
-    <row r="342" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A342" s="26" t="s">
-        <v>312</v>
-      </c>
-      <c r="B342" s="50" t="s">
-        <v>313</v>
-      </c>
-      <c r="C342" s="69"/>
-      <c r="D342" s="50" t="s">
-        <v>231</v>
-      </c>
-      <c r="E342" s="69"/>
-      <c r="F342" s="29"/>
-      <c r="G342" s="29"/>
-    </row>
-    <row r="343" spans="1:7" ht="15" customHeight="1">
-      <c r="A343" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="B343" s="52"/>
-      <c r="C343" s="44"/>
-      <c r="D343" s="45"/>
-      <c r="E343" s="45"/>
-      <c r="F343" s="45"/>
-      <c r="G343" s="46"/>
-    </row>
-    <row r="344" spans="1:7">
-      <c r="A344" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="B344" s="52"/>
-      <c r="C344" s="47"/>
-      <c r="D344" s="45"/>
-      <c r="E344" s="45"/>
-      <c r="F344" s="45"/>
-      <c r="G344" s="46"/>
-    </row>
-    <row r="345" spans="1:7">
-      <c r="A345" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B345" s="52"/>
-      <c r="C345" s="44"/>
-      <c r="D345" s="45"/>
-      <c r="E345" s="45"/>
-      <c r="F345" s="45"/>
-      <c r="G345" s="46"/>
-    </row>
-    <row r="346" spans="1:7">
-      <c r="A346" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="B346" s="49"/>
-      <c r="C346" s="44"/>
-      <c r="D346" s="45"/>
-      <c r="E346" s="45"/>
-      <c r="F346" s="45"/>
-      <c r="G346" s="46"/>
-    </row>
-    <row r="348" spans="1:7" ht="20.25" customHeight="1"/>
-    <row r="350" spans="1:7" ht="20.399999999999999" thickBot="1">
-      <c r="A350" s="54" t="s">
-        <v>314</v>
-      </c>
-      <c r="B350" s="54"/>
-      <c r="C350" s="54"/>
-      <c r="D350" s="54"/>
-      <c r="E350" s="54"/>
-      <c r="F350" s="54"/>
-      <c r="G350" s="54"/>
-    </row>
-    <row r="351" spans="1:7" ht="15" thickTop="1">
-      <c r="A351" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="B351" s="56"/>
-      <c r="C351" s="73" t="s">
-        <v>315</v>
-      </c>
-      <c r="D351" s="74"/>
-      <c r="E351" s="74"/>
-      <c r="F351" s="74"/>
-      <c r="G351" s="75"/>
-    </row>
-    <row r="352" spans="1:7">
-      <c r="A352" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="B352" s="56"/>
-      <c r="C352" s="70"/>
-      <c r="D352" s="64"/>
-      <c r="E352" s="64"/>
-      <c r="F352" s="64"/>
-      <c r="G352" s="65"/>
-    </row>
-    <row r="353" spans="1:7">
-      <c r="A353" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="B353" s="56"/>
-      <c r="C353" s="63" t="s">
-        <v>316</v>
-      </c>
-      <c r="D353" s="71"/>
-      <c r="E353" s="71"/>
-      <c r="F353" s="71"/>
-      <c r="G353" s="72"/>
-    </row>
-    <row r="354" spans="1:7" ht="15" customHeight="1">
-      <c r="A354" s="30"/>
-      <c r="B354" s="31"/>
-      <c r="C354" s="31"/>
-      <c r="D354" s="31"/>
-      <c r="E354" s="31"/>
-      <c r="F354" s="31"/>
-      <c r="G354" s="32"/>
-    </row>
-    <row r="355" spans="1:7" ht="15" customHeight="1">
-      <c r="A355" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B355" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C355" s="52"/>
-      <c r="D355" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="E355" s="52"/>
-      <c r="F355" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G355" s="22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7" ht="37.5" customHeight="1">
-      <c r="A356" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="B356" s="50" t="s">
-        <v>318</v>
-      </c>
-      <c r="C356" s="69"/>
-      <c r="D356" s="50" t="s">
-        <v>319</v>
-      </c>
-      <c r="E356" s="69"/>
+      <c r="E356" s="53"/>
       <c r="F356" s="29"/>
       <c r="G356" s="29"/>
     </row>
-    <row r="357" spans="1:7" ht="41.25" customHeight="1">
+    <row r="357" spans="1:7" ht="47.25" customHeight="1">
       <c r="A357" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="B357" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="C357" s="69"/>
-      <c r="D357" s="50" t="s">
-        <v>322</v>
-      </c>
-      <c r="E357" s="69"/>
+        <v>305</v>
+      </c>
+      <c r="B357" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="C357" s="53"/>
+      <c r="D357" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="E357" s="53"/>
       <c r="F357" s="29"/>
       <c r="G357" s="29"/>
     </row>
-    <row r="358" spans="1:7" ht="61.5" customHeight="1">
+    <row r="358" spans="1:7" ht="36" customHeight="1">
       <c r="A358" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="B358" s="50" t="s">
-        <v>324</v>
-      </c>
-      <c r="C358" s="69"/>
-      <c r="D358" s="50" t="s">
-        <v>325</v>
-      </c>
-      <c r="E358" s="69"/>
+        <v>307</v>
+      </c>
+      <c r="B358" s="52" t="s">
+        <v>308</v>
+      </c>
+      <c r="C358" s="53"/>
+      <c r="D358" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="E358" s="74"/>
       <c r="F358" s="29"/>
       <c r="G358" s="29"/>
     </row>
-    <row r="359" spans="1:7" ht="54.75" customHeight="1">
+    <row r="359" spans="1:7" ht="36" customHeight="1">
       <c r="A359" s="26" t="s">
-        <v>326</v>
-      </c>
-      <c r="B359" s="50" t="s">
-        <v>327</v>
-      </c>
-      <c r="C359" s="69"/>
-      <c r="D359" s="50" t="s">
-        <v>328</v>
-      </c>
-      <c r="E359" s="69"/>
+        <v>310</v>
+      </c>
+      <c r="B359" s="52" t="s">
+        <v>311</v>
+      </c>
+      <c r="C359" s="53"/>
+      <c r="D359" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="E359" s="53"/>
       <c r="F359" s="29"/>
       <c r="G359" s="29"/>
     </row>
-    <row r="360" spans="1:7" ht="88.5" customHeight="1">
+    <row r="360" spans="1:7" ht="47.25" customHeight="1">
       <c r="A360" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="B360" s="50" t="s">
-        <v>330</v>
-      </c>
-      <c r="C360" s="69"/>
-      <c r="D360" s="50" t="s">
-        <v>331</v>
-      </c>
-      <c r="E360" s="69"/>
+        <v>312</v>
+      </c>
+      <c r="B360" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="C360" s="53"/>
+      <c r="D360" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="E360" s="53"/>
       <c r="F360" s="29"/>
       <c r="G360" s="29"/>
     </row>
-    <row r="361" spans="1:7" ht="48.75" customHeight="1">
-      <c r="A361" s="26" t="s">
+    <row r="361" spans="1:7" ht="15" customHeight="1">
+      <c r="A361" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B361" s="46"/>
+      <c r="C361" s="73"/>
+      <c r="D361" s="71"/>
+      <c r="E361" s="71"/>
+      <c r="F361" s="71"/>
+      <c r="G361" s="72"/>
+    </row>
+    <row r="362" spans="1:7">
+      <c r="A362" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B362" s="46"/>
+      <c r="C362" s="70"/>
+      <c r="D362" s="71"/>
+      <c r="E362" s="71"/>
+      <c r="F362" s="71"/>
+      <c r="G362" s="72"/>
+    </row>
+    <row r="363" spans="1:7">
+      <c r="A363" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B363" s="46"/>
+      <c r="C363" s="73"/>
+      <c r="D363" s="71"/>
+      <c r="E363" s="71"/>
+      <c r="F363" s="71"/>
+      <c r="G363" s="72"/>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B364" s="51"/>
+      <c r="C364" s="73"/>
+      <c r="D364" s="71"/>
+      <c r="E364" s="71"/>
+      <c r="F364" s="71"/>
+      <c r="G364" s="72"/>
+    </row>
+    <row r="366" spans="1:7" ht="20.25" customHeight="1"/>
+    <row r="368" spans="1:7" ht="20.399999999999999" thickBot="1">
+      <c r="A368" s="63" t="s">
+        <v>314</v>
+      </c>
+      <c r="B368" s="63"/>
+      <c r="C368" s="63"/>
+      <c r="D368" s="63"/>
+      <c r="E368" s="63"/>
+      <c r="F368" s="63"/>
+      <c r="G368" s="63"/>
+    </row>
+    <row r="369" spans="1:7" ht="15" thickTop="1">
+      <c r="A369" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B369" s="56"/>
+      <c r="C369" s="66" t="s">
+        <v>315</v>
+      </c>
+      <c r="D369" s="67"/>
+      <c r="E369" s="67"/>
+      <c r="F369" s="67"/>
+      <c r="G369" s="68"/>
+    </row>
+    <row r="370" spans="1:7">
+      <c r="A370" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B370" s="56"/>
+      <c r="C370" s="90"/>
+      <c r="D370" s="78"/>
+      <c r="E370" s="78"/>
+      <c r="F370" s="78"/>
+      <c r="G370" s="79"/>
+    </row>
+    <row r="371" spans="1:7">
+      <c r="A371" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B371" s="56"/>
+      <c r="C371" s="60" t="s">
+        <v>316</v>
+      </c>
+      <c r="D371" s="61"/>
+      <c r="E371" s="61"/>
+      <c r="F371" s="61"/>
+      <c r="G371" s="62"/>
+    </row>
+    <row r="372" spans="1:7" ht="15" customHeight="1">
+      <c r="A372" s="30"/>
+      <c r="B372" s="31"/>
+      <c r="C372" s="31"/>
+      <c r="D372" s="31"/>
+      <c r="E372" s="31"/>
+      <c r="F372" s="31"/>
+      <c r="G372" s="32"/>
+    </row>
+    <row r="373" spans="1:7" ht="15" customHeight="1">
+      <c r="A373" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B373" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C373" s="46"/>
+      <c r="D373" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E373" s="46"/>
+      <c r="F373" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G373" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" ht="37.5" customHeight="1">
+      <c r="A374" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="B374" s="52" t="s">
+        <v>318</v>
+      </c>
+      <c r="C374" s="53"/>
+      <c r="D374" s="52" t="s">
+        <v>319</v>
+      </c>
+      <c r="E374" s="53"/>
+      <c r="F374" s="29"/>
+      <c r="G374" s="29"/>
+    </row>
+    <row r="375" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A375" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="B375" s="52" t="s">
+        <v>321</v>
+      </c>
+      <c r="C375" s="53"/>
+      <c r="D375" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="E375" s="53"/>
+      <c r="F375" s="29"/>
+      <c r="G375" s="29"/>
+    </row>
+    <row r="376" spans="1:7" ht="61.5" customHeight="1">
+      <c r="A376" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="B376" s="52" t="s">
+        <v>324</v>
+      </c>
+      <c r="C376" s="53"/>
+      <c r="D376" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="E376" s="53"/>
+      <c r="F376" s="29"/>
+      <c r="G376" s="29"/>
+    </row>
+    <row r="377" spans="1:7" ht="54.75" customHeight="1">
+      <c r="A377" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="B377" s="52" t="s">
+        <v>327</v>
+      </c>
+      <c r="C377" s="53"/>
+      <c r="D377" s="52" t="s">
+        <v>328</v>
+      </c>
+      <c r="E377" s="53"/>
+      <c r="F377" s="29"/>
+      <c r="G377" s="29"/>
+    </row>
+    <row r="378" spans="1:7" ht="88.5" customHeight="1">
+      <c r="A378" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="B378" s="52" t="s">
+        <v>330</v>
+      </c>
+      <c r="C378" s="53"/>
+      <c r="D378" s="52" t="s">
+        <v>331</v>
+      </c>
+      <c r="E378" s="53"/>
+      <c r="F378" s="29"/>
+      <c r="G378" s="29"/>
+    </row>
+    <row r="379" spans="1:7" ht="48.75" customHeight="1">
+      <c r="A379" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="B361" s="50" t="s">
+      <c r="B379" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="C361" s="69"/>
-      <c r="D361" s="50" t="s">
+      <c r="C379" s="53"/>
+      <c r="D379" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E361" s="69"/>
-      <c r="F361" s="29"/>
-      <c r="G361" s="29"/>
-    </row>
-    <row r="362" spans="1:7" ht="41.25" customHeight="1">
-      <c r="A362" s="26" t="s">
+      <c r="E379" s="53"/>
+      <c r="F379" s="29"/>
+      <c r="G379" s="29"/>
+    </row>
+    <row r="380" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A380" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="B362" s="50" t="s">
+      <c r="B380" s="52" t="s">
         <v>335</v>
       </c>
-      <c r="C362" s="69"/>
-      <c r="D362" s="50" t="s">
+      <c r="C380" s="53"/>
+      <c r="D380" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="E362" s="69"/>
-      <c r="F362" s="29"/>
-      <c r="G362" s="29"/>
-    </row>
-    <row r="363" spans="1:7">
-      <c r="A363" s="48" t="s">
+      <c r="E380" s="53"/>
+      <c r="F380" s="29"/>
+      <c r="G380" s="29"/>
+    </row>
+    <row r="381" spans="1:7">
+      <c r="A381" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="B363" s="52"/>
-      <c r="C363" s="44"/>
-      <c r="D363" s="45"/>
-      <c r="E363" s="45"/>
-      <c r="F363" s="45"/>
-      <c r="G363" s="46"/>
-    </row>
-    <row r="364" spans="1:7">
-      <c r="A364" s="53" t="s">
+      <c r="B381" s="46"/>
+      <c r="C381" s="73"/>
+      <c r="D381" s="71"/>
+      <c r="E381" s="71"/>
+      <c r="F381" s="71"/>
+      <c r="G381" s="72"/>
+    </row>
+    <row r="382" spans="1:7">
+      <c r="A382" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B364" s="52"/>
-      <c r="C364" s="47"/>
-      <c r="D364" s="45"/>
-      <c r="E364" s="45"/>
-      <c r="F364" s="45"/>
-      <c r="G364" s="46"/>
-    </row>
-    <row r="365" spans="1:7">
-      <c r="A365" s="48" t="s">
+      <c r="B382" s="46"/>
+      <c r="C382" s="70"/>
+      <c r="D382" s="71"/>
+      <c r="E382" s="71"/>
+      <c r="F382" s="71"/>
+      <c r="G382" s="72"/>
+    </row>
+    <row r="383" spans="1:7">
+      <c r="A383" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B365" s="52"/>
-      <c r="C365" s="44"/>
-      <c r="D365" s="45"/>
-      <c r="E365" s="45"/>
-      <c r="F365" s="45"/>
-      <c r="G365" s="46"/>
-    </row>
-    <row r="366" spans="1:7">
-      <c r="A366" s="48" t="s">
+      <c r="B383" s="46"/>
+      <c r="C383" s="73"/>
+      <c r="D383" s="71"/>
+      <c r="E383" s="71"/>
+      <c r="F383" s="71"/>
+      <c r="G383" s="72"/>
+    </row>
+    <row r="384" spans="1:7">
+      <c r="A384" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B366" s="49"/>
-      <c r="C366" s="44"/>
-      <c r="D366" s="45"/>
-      <c r="E366" s="45"/>
-      <c r="F366" s="45"/>
-      <c r="G366" s="46"/>
+      <c r="B384" s="51"/>
+      <c r="C384" s="73"/>
+      <c r="D384" s="71"/>
+      <c r="E384" s="71"/>
+      <c r="F384" s="71"/>
+      <c r="G384" s="72"/>
     </row>
   </sheetData>
-  <mergeCells count="565">
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="C253:G253"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="C254:G254"/>
-    <mergeCell ref="A255:B255"/>
-    <mergeCell ref="C255:G255"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="D248:E248"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="D249:E249"/>
-    <mergeCell ref="B250:C250"/>
-    <mergeCell ref="D250:E250"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="D251:E251"/>
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="C252:G252"/>
-    <mergeCell ref="B243:C243"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="B244:C244"/>
-    <mergeCell ref="D244:E244"/>
-    <mergeCell ref="B245:C245"/>
-    <mergeCell ref="D245:E245"/>
-    <mergeCell ref="B246:C246"/>
-    <mergeCell ref="D246:E246"/>
-    <mergeCell ref="B247:C247"/>
-    <mergeCell ref="D247:E247"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="D238:E238"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="D240:E240"/>
-    <mergeCell ref="B241:C241"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="D242:E242"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="C233:G233"/>
-    <mergeCell ref="A234:B234"/>
-    <mergeCell ref="C234:G234"/>
-    <mergeCell ref="A235:G235"/>
-    <mergeCell ref="B236:C236"/>
-    <mergeCell ref="D236:E236"/>
-    <mergeCell ref="B237:C237"/>
-    <mergeCell ref="D237:E237"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="C225:G225"/>
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="C226:G226"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="C227:G227"/>
-    <mergeCell ref="A231:G231"/>
-    <mergeCell ref="A232:B232"/>
-    <mergeCell ref="C232:G232"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="D220:E220"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="C224:G224"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="D215:E215"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="D216:E216"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="D218:E218"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="D219:E219"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="D212:E212"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="D213:E213"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="D214:E214"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="D205:E205"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="D206:E206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D207:E207"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="D208:E208"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="D209:E209"/>
-    <mergeCell ref="A299:B299"/>
-    <mergeCell ref="C299:G299"/>
-    <mergeCell ref="A300:B300"/>
-    <mergeCell ref="C300:G300"/>
-    <mergeCell ref="A316:B316"/>
-    <mergeCell ref="C316:G316"/>
-    <mergeCell ref="B311:C311"/>
-    <mergeCell ref="D311:E311"/>
-    <mergeCell ref="B312:C312"/>
-    <mergeCell ref="D312:E312"/>
-    <mergeCell ref="A313:B313"/>
-    <mergeCell ref="C313:G313"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="C314:G314"/>
-    <mergeCell ref="A315:B315"/>
-    <mergeCell ref="C315:G315"/>
-    <mergeCell ref="A306:B306"/>
-    <mergeCell ref="C306:G306"/>
-    <mergeCell ref="A307:B307"/>
-    <mergeCell ref="C307:G307"/>
-    <mergeCell ref="A308:B308"/>
-    <mergeCell ref="C308:G308"/>
-    <mergeCell ref="A309:G309"/>
-    <mergeCell ref="B310:C310"/>
-    <mergeCell ref="D310:E310"/>
-    <mergeCell ref="A284:B284"/>
-    <mergeCell ref="C284:G284"/>
-    <mergeCell ref="A285:B285"/>
-    <mergeCell ref="C285:G285"/>
-    <mergeCell ref="A286:B286"/>
-    <mergeCell ref="C286:G286"/>
+  <mergeCells count="595">
+    <mergeCell ref="A274:B274"/>
+    <mergeCell ref="C274:G274"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="D269:E269"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="C271:G271"/>
+    <mergeCell ref="A272:B272"/>
+    <mergeCell ref="C272:G272"/>
+    <mergeCell ref="A273:B273"/>
+    <mergeCell ref="C273:G273"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="D270:E270"/>
+    <mergeCell ref="B264:C264"/>
+    <mergeCell ref="D264:E264"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="D265:E265"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="D266:E266"/>
+    <mergeCell ref="B267:C267"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="D268:E268"/>
+    <mergeCell ref="A260:B260"/>
+    <mergeCell ref="C260:G260"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="C261:G261"/>
+    <mergeCell ref="A259:G259"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="C262:G262"/>
+    <mergeCell ref="A263:G263"/>
+    <mergeCell ref="C381:G381"/>
+    <mergeCell ref="C382:G382"/>
+    <mergeCell ref="C383:G383"/>
+    <mergeCell ref="C384:G384"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="C148:G148"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="C150:G150"/>
+    <mergeCell ref="C151:G151"/>
+    <mergeCell ref="C169:G169"/>
+    <mergeCell ref="C170:G170"/>
+    <mergeCell ref="C171:G171"/>
+    <mergeCell ref="C172:G172"/>
+    <mergeCell ref="A336:G336"/>
+    <mergeCell ref="A337:B337"/>
+    <mergeCell ref="C337:G337"/>
+    <mergeCell ref="A338:B338"/>
+    <mergeCell ref="C338:G338"/>
+    <mergeCell ref="A339:B339"/>
+    <mergeCell ref="C339:G339"/>
+    <mergeCell ref="A340:G340"/>
+    <mergeCell ref="A346:B346"/>
+    <mergeCell ref="C346:G346"/>
+    <mergeCell ref="B342:C342"/>
+    <mergeCell ref="D342:E342"/>
+    <mergeCell ref="A343:B343"/>
+    <mergeCell ref="C343:G343"/>
+    <mergeCell ref="A344:B344"/>
+    <mergeCell ref="C344:G344"/>
+    <mergeCell ref="A345:B345"/>
+    <mergeCell ref="C345:G345"/>
+    <mergeCell ref="B341:C341"/>
+    <mergeCell ref="D341:E341"/>
+    <mergeCell ref="A381:B381"/>
+    <mergeCell ref="A382:B382"/>
+    <mergeCell ref="A383:B383"/>
+    <mergeCell ref="A384:B384"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="D190:E190"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="D192:E192"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="D284:E284"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="D191:E191"/>
+    <mergeCell ref="B376:C376"/>
+    <mergeCell ref="D376:E376"/>
+    <mergeCell ref="B377:C377"/>
+    <mergeCell ref="D377:E377"/>
+    <mergeCell ref="B378:C378"/>
+    <mergeCell ref="D378:E378"/>
+    <mergeCell ref="B379:C379"/>
+    <mergeCell ref="D379:E379"/>
+    <mergeCell ref="B380:C380"/>
+    <mergeCell ref="D380:E380"/>
+    <mergeCell ref="A370:B370"/>
+    <mergeCell ref="C370:G370"/>
+    <mergeCell ref="A371:B371"/>
+    <mergeCell ref="C371:G371"/>
+    <mergeCell ref="B373:C373"/>
+    <mergeCell ref="D373:E373"/>
+    <mergeCell ref="B374:C374"/>
+    <mergeCell ref="D374:E374"/>
+    <mergeCell ref="B375:C375"/>
+    <mergeCell ref="D375:E375"/>
+    <mergeCell ref="B360:C360"/>
+    <mergeCell ref="D360:E360"/>
+    <mergeCell ref="A361:B361"/>
+    <mergeCell ref="A362:B362"/>
+    <mergeCell ref="A363:B363"/>
+    <mergeCell ref="A364:B364"/>
+    <mergeCell ref="A368:G368"/>
+    <mergeCell ref="A369:B369"/>
+    <mergeCell ref="C369:G369"/>
+    <mergeCell ref="C361:G361"/>
+    <mergeCell ref="C362:G362"/>
+    <mergeCell ref="C363:G363"/>
+    <mergeCell ref="C364:G364"/>
+    <mergeCell ref="B355:C355"/>
+    <mergeCell ref="D355:E355"/>
+    <mergeCell ref="B356:C356"/>
+    <mergeCell ref="D356:E356"/>
+    <mergeCell ref="B357:C357"/>
+    <mergeCell ref="D357:E357"/>
+    <mergeCell ref="B358:C358"/>
+    <mergeCell ref="D358:E358"/>
+    <mergeCell ref="B359:C359"/>
+    <mergeCell ref="D359:E359"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A349:G349"/>
+    <mergeCell ref="A350:B350"/>
+    <mergeCell ref="C350:G350"/>
+    <mergeCell ref="A351:B351"/>
+    <mergeCell ref="C351:G351"/>
+    <mergeCell ref="A352:B352"/>
+    <mergeCell ref="C352:G352"/>
+    <mergeCell ref="B354:C354"/>
+    <mergeCell ref="D354:E354"/>
+    <mergeCell ref="A289:B289"/>
+    <mergeCell ref="C289:G289"/>
+    <mergeCell ref="A290:B290"/>
+    <mergeCell ref="C290:G290"/>
+    <mergeCell ref="B285:C285"/>
+    <mergeCell ref="D285:E285"/>
+    <mergeCell ref="B286:C286"/>
+    <mergeCell ref="D286:E286"/>
     <mergeCell ref="A287:B287"/>
     <mergeCell ref="C287:G287"/>
-    <mergeCell ref="A305:G305"/>
-    <mergeCell ref="A291:G291"/>
-    <mergeCell ref="A292:B292"/>
-    <mergeCell ref="C292:G292"/>
-    <mergeCell ref="A293:B293"/>
-    <mergeCell ref="C293:G293"/>
-    <mergeCell ref="A294:B294"/>
-    <mergeCell ref="C294:G294"/>
-    <mergeCell ref="A295:G295"/>
-    <mergeCell ref="B296:C296"/>
-    <mergeCell ref="D296:E296"/>
-    <mergeCell ref="A301:B301"/>
-    <mergeCell ref="C301:G301"/>
-    <mergeCell ref="B297:C297"/>
-    <mergeCell ref="D297:E297"/>
-    <mergeCell ref="A298:B298"/>
+    <mergeCell ref="A288:B288"/>
+    <mergeCell ref="C288:G288"/>
+    <mergeCell ref="A278:G278"/>
     <mergeCell ref="A279:B279"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A155:G155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="C156:G156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:G157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="C158:G158"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A132:G132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="A101:G101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="A105:G105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="D106:E106"/>
     <mergeCell ref="C279:G279"/>
-    <mergeCell ref="A280:G280"/>
-    <mergeCell ref="B281:C281"/>
-    <mergeCell ref="D281:E281"/>
-    <mergeCell ref="B282:C282"/>
-    <mergeCell ref="D282:E282"/>
+    <mergeCell ref="A280:B280"/>
+    <mergeCell ref="C280:G280"/>
+    <mergeCell ref="A281:B281"/>
+    <mergeCell ref="C281:G281"/>
+    <mergeCell ref="A282:G282"/>
     <mergeCell ref="B283:C283"/>
     <mergeCell ref="D283:E283"/>
-    <mergeCell ref="C298:G298"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A276:G276"/>
-    <mergeCell ref="A277:B277"/>
-    <mergeCell ref="C277:G277"/>
-    <mergeCell ref="A278:B278"/>
-    <mergeCell ref="C278:G278"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="A84:G84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="A88:G88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="C193:G193"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="C194:G194"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="C195:G195"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="C196:G196"/>
+    <mergeCell ref="A200:G200"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="C201:G201"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="C202:G202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="C203:G203"/>
+    <mergeCell ref="A204:G204"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="A180:G180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="C181:G181"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="C182:G182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="C183:G183"/>
+    <mergeCell ref="A184:G184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="C64:G64"/>
     <mergeCell ref="A65:B65"/>
@@ -8831,341 +9459,212 @@
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C32:G32"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="A53:G53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="A180:G180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="C181:G181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="C182:G182"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="C183:G183"/>
-    <mergeCell ref="A184:G184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="C261:G261"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="C262:G262"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="C263:G263"/>
-    <mergeCell ref="A264:G264"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="D265:E265"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="C193:G193"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="C194:G194"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="C195:G195"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="C196:G196"/>
-    <mergeCell ref="A200:G200"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="C201:G201"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="C202:G202"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="C203:G203"/>
-    <mergeCell ref="A204:G204"/>
-    <mergeCell ref="A101:G101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:G103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:G104"/>
-    <mergeCell ref="A105:G105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A132:G132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C133:G133"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C134:G134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="C135:G135"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A155:G155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="C156:G156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:G157"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="C158:G158"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="A331:G331"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="A88:G88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A294:G294"/>
+    <mergeCell ref="A295:B295"/>
+    <mergeCell ref="C295:G295"/>
+    <mergeCell ref="A296:B296"/>
+    <mergeCell ref="C296:G296"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="A316:B316"/>
+    <mergeCell ref="A297:B297"/>
+    <mergeCell ref="C297:G297"/>
+    <mergeCell ref="A298:G298"/>
+    <mergeCell ref="B299:C299"/>
+    <mergeCell ref="D299:E299"/>
+    <mergeCell ref="B300:C300"/>
+    <mergeCell ref="D300:E300"/>
+    <mergeCell ref="B301:C301"/>
+    <mergeCell ref="D301:E301"/>
+    <mergeCell ref="C316:G316"/>
+    <mergeCell ref="D328:E328"/>
+    <mergeCell ref="A302:B302"/>
+    <mergeCell ref="C302:G302"/>
+    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="C303:G303"/>
+    <mergeCell ref="A304:B304"/>
+    <mergeCell ref="C304:G304"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="C305:G305"/>
+    <mergeCell ref="A323:G323"/>
+    <mergeCell ref="A309:G309"/>
+    <mergeCell ref="A310:B310"/>
+    <mergeCell ref="C310:G310"/>
+    <mergeCell ref="A311:B311"/>
+    <mergeCell ref="C311:G311"/>
+    <mergeCell ref="A312:B312"/>
+    <mergeCell ref="C312:G312"/>
+    <mergeCell ref="A313:G313"/>
+    <mergeCell ref="B314:C314"/>
+    <mergeCell ref="D314:E314"/>
+    <mergeCell ref="A319:B319"/>
+    <mergeCell ref="C319:G319"/>
+    <mergeCell ref="B315:C315"/>
+    <mergeCell ref="D315:E315"/>
+    <mergeCell ref="A317:B317"/>
+    <mergeCell ref="C317:G317"/>
+    <mergeCell ref="A318:B318"/>
+    <mergeCell ref="C318:G318"/>
+    <mergeCell ref="A334:B334"/>
+    <mergeCell ref="C334:G334"/>
+    <mergeCell ref="B329:C329"/>
+    <mergeCell ref="D329:E329"/>
+    <mergeCell ref="B330:C330"/>
+    <mergeCell ref="D330:E330"/>
+    <mergeCell ref="A331:B331"/>
+    <mergeCell ref="C331:G331"/>
     <mergeCell ref="A332:B332"/>
     <mergeCell ref="C332:G332"/>
     <mergeCell ref="A333:B333"/>
     <mergeCell ref="C333:G333"/>
-    <mergeCell ref="A334:B334"/>
-    <mergeCell ref="C334:G334"/>
-    <mergeCell ref="B336:C336"/>
-    <mergeCell ref="D336:E336"/>
-    <mergeCell ref="A271:B271"/>
-    <mergeCell ref="C271:G271"/>
-    <mergeCell ref="A272:B272"/>
-    <mergeCell ref="C272:G272"/>
-    <mergeCell ref="B267:C267"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="D268:E268"/>
-    <mergeCell ref="A269:B269"/>
-    <mergeCell ref="C269:G269"/>
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="C270:G270"/>
-    <mergeCell ref="A260:G260"/>
-    <mergeCell ref="A261:B261"/>
-    <mergeCell ref="B337:C337"/>
-    <mergeCell ref="D337:E337"/>
-    <mergeCell ref="B338:C338"/>
-    <mergeCell ref="D338:E338"/>
-    <mergeCell ref="B339:C339"/>
-    <mergeCell ref="D339:E339"/>
-    <mergeCell ref="B340:C340"/>
-    <mergeCell ref="D340:E340"/>
-    <mergeCell ref="B341:C341"/>
-    <mergeCell ref="D341:E341"/>
-    <mergeCell ref="B342:C342"/>
-    <mergeCell ref="D342:E342"/>
-    <mergeCell ref="A343:B343"/>
-    <mergeCell ref="A344:B344"/>
-    <mergeCell ref="A345:B345"/>
-    <mergeCell ref="A346:B346"/>
-    <mergeCell ref="A350:G350"/>
-    <mergeCell ref="A351:B351"/>
-    <mergeCell ref="C351:G351"/>
-    <mergeCell ref="C343:G343"/>
-    <mergeCell ref="C344:G344"/>
-    <mergeCell ref="C345:G345"/>
-    <mergeCell ref="C346:G346"/>
-    <mergeCell ref="B359:C359"/>
-    <mergeCell ref="D359:E359"/>
-    <mergeCell ref="B360:C360"/>
-    <mergeCell ref="D360:E360"/>
-    <mergeCell ref="B361:C361"/>
-    <mergeCell ref="D361:E361"/>
-    <mergeCell ref="B362:C362"/>
-    <mergeCell ref="D362:E362"/>
-    <mergeCell ref="A352:B352"/>
-    <mergeCell ref="C352:G352"/>
-    <mergeCell ref="A353:B353"/>
-    <mergeCell ref="C353:G353"/>
-    <mergeCell ref="B355:C355"/>
-    <mergeCell ref="D355:E355"/>
-    <mergeCell ref="B356:C356"/>
-    <mergeCell ref="D356:E356"/>
-    <mergeCell ref="B357:C357"/>
-    <mergeCell ref="D357:E357"/>
-    <mergeCell ref="B323:C323"/>
-    <mergeCell ref="D323:E323"/>
-    <mergeCell ref="A363:B363"/>
-    <mergeCell ref="A364:B364"/>
-    <mergeCell ref="A365:B365"/>
-    <mergeCell ref="A366:B366"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="D190:E190"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="D192:E192"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="D266:E266"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="D191:E191"/>
-    <mergeCell ref="B358:C358"/>
-    <mergeCell ref="D358:E358"/>
-    <mergeCell ref="A328:B328"/>
-    <mergeCell ref="C328:G328"/>
-    <mergeCell ref="B324:C324"/>
-    <mergeCell ref="D324:E324"/>
+    <mergeCell ref="A324:B324"/>
+    <mergeCell ref="C324:G324"/>
     <mergeCell ref="A325:B325"/>
     <mergeCell ref="C325:G325"/>
     <mergeCell ref="A326:B326"/>
     <mergeCell ref="C326:G326"/>
-    <mergeCell ref="A327:B327"/>
-    <mergeCell ref="C327:G327"/>
-    <mergeCell ref="C363:G363"/>
-    <mergeCell ref="C364:G364"/>
-    <mergeCell ref="C365:G365"/>
-    <mergeCell ref="C366:G366"/>
-    <mergeCell ref="C122:G122"/>
-    <mergeCell ref="C123:G123"/>
-    <mergeCell ref="C124:G124"/>
-    <mergeCell ref="C125:G125"/>
-    <mergeCell ref="C148:G148"/>
-    <mergeCell ref="C149:G149"/>
-    <mergeCell ref="C150:G150"/>
-    <mergeCell ref="C151:G151"/>
-    <mergeCell ref="C169:G169"/>
-    <mergeCell ref="C170:G170"/>
-    <mergeCell ref="C171:G171"/>
-    <mergeCell ref="C172:G172"/>
-    <mergeCell ref="A318:G318"/>
-    <mergeCell ref="A319:B319"/>
-    <mergeCell ref="C319:G319"/>
-    <mergeCell ref="A320:B320"/>
-    <mergeCell ref="C320:G320"/>
-    <mergeCell ref="A321:B321"/>
-    <mergeCell ref="C321:G321"/>
-    <mergeCell ref="A322:G322"/>
+    <mergeCell ref="A327:G327"/>
+    <mergeCell ref="B328:C328"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="D205:E205"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="D206:E206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="D209:E209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="D215:E215"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="D216:E216"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="D218:E218"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="D219:E219"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="C224:G224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="C225:G225"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="C226:G226"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="C227:G227"/>
+    <mergeCell ref="A231:G231"/>
+    <mergeCell ref="A232:B232"/>
+    <mergeCell ref="C232:G232"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="C233:G233"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="C234:G234"/>
+    <mergeCell ref="A235:G235"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="D236:E236"/>
+    <mergeCell ref="B237:C237"/>
+    <mergeCell ref="D237:E237"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="D238:E238"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="D240:E240"/>
+    <mergeCell ref="B241:C241"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="B244:C244"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="B245:C245"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="B246:C246"/>
+    <mergeCell ref="D246:E246"/>
+    <mergeCell ref="B247:C247"/>
+    <mergeCell ref="D247:E247"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="C253:G253"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="C254:G254"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="C255:G255"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="D248:E248"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="D249:E249"/>
+    <mergeCell ref="B250:C250"/>
+    <mergeCell ref="D250:E250"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="D251:E251"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="C252:G252"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -9173,7 +9672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:I24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -9195,17 +9694,17 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:9" ht="18">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="93"/>
     </row>
     <row r="5" spans="1:9" s="4" customFormat="1">
       <c r="A5" s="2" t="s">
@@ -9325,17 +9824,17 @@
       <c r="I9" s="9"/>
     </row>
     <row r="13" spans="1:9" ht="18">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="91"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="92"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="93"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
@@ -9600,8 +10099,8 @@
     <mergeCell ref="A13:I13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" display="testingfyp2017@gmail.com_x000a_testingfyp" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="F16" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="F8" r:id="rId1" display="testingfyp2017@gmail.com_x000a_testingfyp"/>
+    <hyperlink ref="F16" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId3"/>

--- a/FYP documentation/FYP_Test_Plan.xlsx
+++ b/FYP documentation/FYP_Test_Plan.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Class_notes\BSS_FYP_TEAM173D\FYP documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan Final" sheetId="4" r:id="rId1"/>
     <sheet name="Test Plan" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="496">
   <si>
     <t>Expected Result</t>
   </si>
@@ -2761,9 +2765,6 @@
     </r>
   </si>
   <si>
-    <t>No Update in Changing Name and dismiss the dialog</t>
-  </si>
-  <si>
     <t>TC12-006</t>
   </si>
   <si>
@@ -2800,11 +2801,32 @@
 2. Click "OK"</t>
     </r>
   </si>
+  <si>
+    <t>Shows first name empty error</t>
+  </si>
+  <si>
+    <t>Shows last name empty error</t>
+  </si>
+  <si>
+    <t>Shows first and last name is empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name is successfully chnaged </t>
+  </si>
+  <si>
+    <t>No Update in name and dismiss the dialog</t>
+  </si>
+  <si>
+    <t>there is no update in name</t>
+  </si>
+  <si>
+    <t>Error message is displayed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -3389,12 +3411,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="20% - 강조색3" xfId="5" builtinId="38"/>
-    <cellStyle name="강조색1" xfId="4" builtinId="29"/>
-    <cellStyle name="제목" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="제목 1" xfId="3" builtinId="16"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
+    <cellStyle name="20% - Accent3" xfId="5" builtinId="38"/>
+    <cellStyle name="Accent1" xfId="4" builtinId="29"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3429,7 +3451,7 @@
         <xdr:cNvPr id="2061" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{30BA1063-A16B-4C68-A743-4B420C5465C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30BA1063-A16B-4C68-A743-4B420C5465C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3477,7 +3499,7 @@
         <xdr:cNvPr id="2060" name="Picture 12" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF567FBA-98D6-41F8-887E-3AB62EFCE5E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF567FBA-98D6-41F8-887E-3AB62EFCE5E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3538,7 +3560,7 @@
         <xdr:cNvPr id="2059" name="Picture 11" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{63E93150-DA75-4658-ACF7-D189E05151A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63E93150-DA75-4658-ACF7-D189E05151A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3599,7 +3621,7 @@
         <xdr:cNvPr id="2058" name="AutoShape 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31457A75-25A1-4182-A274-BF0A57FF81ED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31457A75-25A1-4182-A274-BF0A57FF81ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3647,7 +3669,7 @@
         <xdr:cNvPr id="2057" name="AutoShape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD5E9B17-BBE9-4F3F-8C7B-720ECD2D681E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD5E9B17-BBE9-4F3F-8C7B-720ECD2D681E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3695,7 +3717,7 @@
         <xdr:cNvPr id="2056" name="AutoShape 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ACF2AA01-B252-4B3A-A375-0E01973F5F28}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF2AA01-B252-4B3A-A375-0E01973F5F28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3743,7 +3765,7 @@
         <xdr:cNvPr id="2055" name="Picture 7" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65879D11-6224-4C7F-89C2-EB96196F1A0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65879D11-6224-4C7F-89C2-EB96196F1A0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3804,7 +3826,7 @@
         <xdr:cNvPr id="2054" name="Picture 6" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CF822E1-047C-4A3B-84DC-EC8AC8269EFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CF822E1-047C-4A3B-84DC-EC8AC8269EFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3865,7 +3887,7 @@
         <xdr:cNvPr id="2053" name="Picture 5" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{04925A52-F4C6-4CD2-894B-53641F217E98}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04925A52-F4C6-4CD2-894B-53641F217E98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3926,7 +3948,7 @@
         <xdr:cNvPr id="2052" name="Picture 4" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ABFA5086-6E08-48C0-9ACC-F28827F67131}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABFA5086-6E08-48C0-9ACC-F28827F67131}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3987,7 +4009,7 @@
         <xdr:cNvPr id="2051" name="Picture 3" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{57E4935A-4571-48AC-8BC5-8DE7A584B4D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E4935A-4571-48AC-8BC5-8DE7A584B4D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4048,7 +4070,7 @@
         <xdr:cNvPr id="2050" name="Picture 2" descr="out">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{73C78A6D-821A-410B-9678-567D6BA6A13D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C78A6D-821A-410B-9678-567D6BA6A13D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4109,7 +4131,7 @@
         <xdr:cNvPr id="2049" name="Picture 1" descr="out?google_nid=adroll5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0583EF1F-95CC-4F68-83EF-C3E41E3B377C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0583EF1F-95CC-4F68-83EF-C3E41E3B377C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4444,18 +4466,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/s